--- a/일정/갠트 차트.xlsx
+++ b/일정/갠트 차트.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sanghee\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sanghee\Desktop\develop\2wda_2semester\2WDA_YJSangSa_CapstoneDesign\일정\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA2BD946-935C-4709-BE0D-9A807738C9C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF76CD22-DDF7-4AB6-9E66-E1C08B351133}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="57">
   <si>
     <t>갠트 차트 템플릿</t>
   </si>
@@ -395,6 +395,54 @@
     </r>
     <phoneticPr fontId="31" type="noConversion"/>
   </si>
+  <si>
+    <t>연기</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 준비</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">React </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>강의듣기</t>
+    </r>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">React </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">Native </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>강의듣기</t>
+    </r>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -404,7 +452,7 @@
     <numFmt numFmtId="176" formatCode="yy&quot;년 &quot;m&quot;월 &quot;d&quot;일&quot;"/>
     <numFmt numFmtId="177" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="51">
+  <fonts count="54">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -705,6 +753,26 @@
       <color rgb="FF000000"/>
       <name val="Roboto"/>
       <family val="1"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF434343"/>
+      <name val="Roboto"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF434343"/>
+      <name val="Arial Unicode MS"/>
+      <family val="3"/>
       <charset val="129"/>
     </font>
   </fonts>
@@ -842,7 +910,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -1077,24 +1145,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="hair">
-        <color rgb="FFB7B7B7"/>
-      </right>
-      <top style="hair">
-        <color rgb="FFB7B7B7"/>
-      </top>
-      <bottom style="hair">
-        <color rgb="FFB7B7B7"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1316,87 +1371,92 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="37" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1761,7 +1821,7 @@
   <dimension ref="A1:BQ38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="AI21" sqref="AI21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1"/>
@@ -1849,44 +1909,44 @@
     </row>
     <row r="2" spans="1:69" ht="40.5">
       <c r="A2" s="1"/>
-      <c r="B2" s="88" t="s">
+      <c r="B2" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
       <c r="H2" s="10"/>
-      <c r="I2" s="87" t="s">
+      <c r="I2" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="84"/>
-      <c r="N2" s="84"/>
-      <c r="O2" s="83" t="s">
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="102"/>
+      <c r="N2" s="102"/>
+      <c r="O2" s="106" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="84"/>
-      <c r="Q2" s="84"/>
-      <c r="R2" s="84"/>
-      <c r="S2" s="84"/>
-      <c r="T2" s="84"/>
-      <c r="U2" s="84"/>
-      <c r="V2" s="84"/>
-      <c r="W2" s="84"/>
-      <c r="X2" s="84"/>
-      <c r="Y2" s="84"/>
-      <c r="Z2" s="84"/>
-      <c r="AA2" s="84"/>
-      <c r="AB2" s="84"/>
-      <c r="AC2" s="84"/>
-      <c r="AD2" s="84"/>
-      <c r="AE2" s="84"/>
-      <c r="AF2" s="84"/>
-      <c r="AG2" s="84"/>
+      <c r="P2" s="102"/>
+      <c r="Q2" s="102"/>
+      <c r="R2" s="102"/>
+      <c r="S2" s="102"/>
+      <c r="T2" s="102"/>
+      <c r="U2" s="102"/>
+      <c r="V2" s="102"/>
+      <c r="W2" s="102"/>
+      <c r="X2" s="102"/>
+      <c r="Y2" s="102"/>
+      <c r="Z2" s="102"/>
+      <c r="AA2" s="102"/>
+      <c r="AB2" s="102"/>
+      <c r="AC2" s="102"/>
+      <c r="AD2" s="102"/>
+      <c r="AE2" s="102"/>
+      <c r="AF2" s="102"/>
+      <c r="AG2" s="102"/>
       <c r="AH2" s="11"/>
       <c r="AI2" s="11"/>
       <c r="AJ2" s="11"/>
@@ -1997,41 +2057,41 @@
     </row>
     <row r="4" spans="1:69" ht="21" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="81" t="s">
+      <c r="B4" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="80"/>
-      <c r="D4" s="101" t="s">
+      <c r="C4" s="99"/>
+      <c r="D4" s="96" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="102"/>
-      <c r="F4" s="102"/>
-      <c r="G4" s="102"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="97"/>
       <c r="H4" s="16"/>
-      <c r="I4" s="81" t="s">
+      <c r="I4" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="80"/>
-      <c r="K4" s="80"/>
-      <c r="L4" s="80"/>
-      <c r="M4" s="80"/>
-      <c r="N4" s="80"/>
-      <c r="O4" s="80"/>
-      <c r="P4" s="82" t="s">
+      <c r="J4" s="99"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="99"/>
+      <c r="M4" s="99"/>
+      <c r="N4" s="99"/>
+      <c r="O4" s="99"/>
+      <c r="P4" s="105" t="s">
         <v>41</v>
       </c>
-      <c r="Q4" s="80"/>
-      <c r="R4" s="80"/>
-      <c r="S4" s="80"/>
-      <c r="T4" s="80"/>
-      <c r="U4" s="80"/>
-      <c r="V4" s="80"/>
-      <c r="W4" s="80"/>
-      <c r="X4" s="80"/>
-      <c r="Y4" s="80"/>
-      <c r="Z4" s="80"/>
-      <c r="AA4" s="80"/>
-      <c r="AB4" s="80"/>
+      <c r="Q4" s="99"/>
+      <c r="R4" s="99"/>
+      <c r="S4" s="99"/>
+      <c r="T4" s="99"/>
+      <c r="U4" s="99"/>
+      <c r="V4" s="99"/>
+      <c r="W4" s="99"/>
+      <c r="X4" s="99"/>
+      <c r="Y4" s="99"/>
+      <c r="Z4" s="99"/>
+      <c r="AA4" s="99"/>
+      <c r="AB4" s="99"/>
       <c r="AC4" s="17"/>
       <c r="AD4" s="9"/>
       <c r="AE4" s="9"/>
@@ -2076,40 +2136,40 @@
     </row>
     <row r="5" spans="1:69" ht="21" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="81" t="s">
+      <c r="B5" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="80"/>
+      <c r="C5" s="99"/>
       <c r="D5" s="100" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="80"/>
+      <c r="E5" s="99"/>
+      <c r="F5" s="99"/>
+      <c r="G5" s="99"/>
       <c r="H5" s="18"/>
-      <c r="I5" s="81" t="s">
+      <c r="I5" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="80"/>
-      <c r="K5" s="80"/>
-      <c r="L5" s="80"/>
-      <c r="M5" s="80"/>
-      <c r="N5" s="80"/>
-      <c r="O5" s="80"/>
-      <c r="P5" s="79">
+      <c r="J5" s="99"/>
+      <c r="K5" s="99"/>
+      <c r="L5" s="99"/>
+      <c r="M5" s="99"/>
+      <c r="N5" s="99"/>
+      <c r="O5" s="99"/>
+      <c r="P5" s="104">
         <v>44971</v>
       </c>
-      <c r="Q5" s="80"/>
-      <c r="R5" s="80"/>
-      <c r="S5" s="80"/>
-      <c r="T5" s="80"/>
-      <c r="U5" s="80"/>
-      <c r="V5" s="80"/>
-      <c r="W5" s="80"/>
-      <c r="X5" s="80"/>
-      <c r="Y5" s="80"/>
-      <c r="Z5" s="80"/>
-      <c r="AA5" s="80"/>
+      <c r="Q5" s="99"/>
+      <c r="R5" s="99"/>
+      <c r="S5" s="99"/>
+      <c r="T5" s="99"/>
+      <c r="U5" s="99"/>
+      <c r="V5" s="99"/>
+      <c r="W5" s="99"/>
+      <c r="X5" s="99"/>
+      <c r="Y5" s="99"/>
+      <c r="Z5" s="99"/>
+      <c r="AA5" s="99"/>
       <c r="AB5" s="19"/>
       <c r="AC5" s="17"/>
       <c r="AD5" s="1"/>
@@ -2297,201 +2357,201 @@
     </row>
     <row r="8" spans="1:69" ht="17.25" customHeight="1">
       <c r="A8" s="24"/>
-      <c r="B8" s="85" t="s">
+      <c r="B8" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="85" t="s">
+      <c r="C8" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="85" t="s">
+      <c r="D8" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="85" t="s">
+      <c r="E8" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="85" t="s">
+      <c r="F8" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="85" t="s">
+      <c r="G8" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="85" t="s">
+      <c r="H8" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="92" t="s">
+      <c r="I8" s="108" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="86"/>
-      <c r="K8" s="86"/>
-      <c r="L8" s="86"/>
-      <c r="M8" s="86"/>
-      <c r="N8" s="86"/>
-      <c r="O8" s="86"/>
-      <c r="P8" s="86"/>
-      <c r="Q8" s="86"/>
-      <c r="R8" s="86"/>
-      <c r="S8" s="86"/>
-      <c r="T8" s="86"/>
-      <c r="U8" s="86"/>
-      <c r="V8" s="86"/>
-      <c r="W8" s="86"/>
-      <c r="X8" s="94" t="s">
+      <c r="J8" s="89"/>
+      <c r="K8" s="89"/>
+      <c r="L8" s="89"/>
+      <c r="M8" s="89"/>
+      <c r="N8" s="89"/>
+      <c r="O8" s="89"/>
+      <c r="P8" s="89"/>
+      <c r="Q8" s="89"/>
+      <c r="R8" s="89"/>
+      <c r="S8" s="89"/>
+      <c r="T8" s="89"/>
+      <c r="U8" s="89"/>
+      <c r="V8" s="89"/>
+      <c r="W8" s="89"/>
+      <c r="X8" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="Y8" s="86"/>
-      <c r="Z8" s="86"/>
-      <c r="AA8" s="86"/>
-      <c r="AB8" s="86"/>
-      <c r="AC8" s="86"/>
-      <c r="AD8" s="86"/>
-      <c r="AE8" s="86"/>
-      <c r="AF8" s="86"/>
-      <c r="AG8" s="86"/>
-      <c r="AH8" s="86"/>
-      <c r="AI8" s="86"/>
-      <c r="AJ8" s="86"/>
-      <c r="AK8" s="86"/>
-      <c r="AL8" s="86"/>
-      <c r="AM8" s="93" t="s">
+      <c r="Y8" s="89"/>
+      <c r="Z8" s="89"/>
+      <c r="AA8" s="89"/>
+      <c r="AB8" s="89"/>
+      <c r="AC8" s="89"/>
+      <c r="AD8" s="89"/>
+      <c r="AE8" s="89"/>
+      <c r="AF8" s="89"/>
+      <c r="AG8" s="89"/>
+      <c r="AH8" s="89"/>
+      <c r="AI8" s="89"/>
+      <c r="AJ8" s="89"/>
+      <c r="AK8" s="89"/>
+      <c r="AL8" s="89"/>
+      <c r="AM8" s="92" t="s">
         <v>16</v>
       </c>
-      <c r="AN8" s="86"/>
-      <c r="AO8" s="86"/>
-      <c r="AP8" s="86"/>
-      <c r="AQ8" s="86"/>
-      <c r="AR8" s="86"/>
-      <c r="AS8" s="86"/>
-      <c r="AT8" s="86"/>
-      <c r="AU8" s="86"/>
-      <c r="AV8" s="86"/>
-      <c r="AW8" s="86"/>
-      <c r="AX8" s="86"/>
-      <c r="AY8" s="86"/>
-      <c r="AZ8" s="86"/>
-      <c r="BA8" s="86"/>
-      <c r="BB8" s="98" t="s">
+      <c r="AN8" s="89"/>
+      <c r="AO8" s="89"/>
+      <c r="AP8" s="89"/>
+      <c r="AQ8" s="89"/>
+      <c r="AR8" s="89"/>
+      <c r="AS8" s="89"/>
+      <c r="AT8" s="89"/>
+      <c r="AU8" s="89"/>
+      <c r="AV8" s="89"/>
+      <c r="AW8" s="89"/>
+      <c r="AX8" s="89"/>
+      <c r="AY8" s="89"/>
+      <c r="AZ8" s="89"/>
+      <c r="BA8" s="89"/>
+      <c r="BB8" s="88" t="s">
         <v>17</v>
       </c>
-      <c r="BC8" s="86"/>
-      <c r="BD8" s="86"/>
-      <c r="BE8" s="86"/>
-      <c r="BF8" s="86"/>
-      <c r="BG8" s="86"/>
-      <c r="BH8" s="86"/>
-      <c r="BI8" s="86"/>
-      <c r="BJ8" s="86"/>
-      <c r="BK8" s="86"/>
-      <c r="BL8" s="86"/>
-      <c r="BM8" s="86"/>
-      <c r="BN8" s="86"/>
-      <c r="BO8" s="86"/>
-      <c r="BP8" s="99"/>
+      <c r="BC8" s="89"/>
+      <c r="BD8" s="89"/>
+      <c r="BE8" s="89"/>
+      <c r="BF8" s="89"/>
+      <c r="BG8" s="89"/>
+      <c r="BH8" s="89"/>
+      <c r="BI8" s="89"/>
+      <c r="BJ8" s="89"/>
+      <c r="BK8" s="89"/>
+      <c r="BL8" s="89"/>
+      <c r="BM8" s="89"/>
+      <c r="BN8" s="89"/>
+      <c r="BO8" s="89"/>
+      <c r="BP8" s="90"/>
       <c r="BQ8" s="21"/>
     </row>
     <row r="9" spans="1:69" ht="17.25" customHeight="1">
       <c r="A9" s="25"/>
-      <c r="B9" s="86"/>
-      <c r="C9" s="86"/>
-      <c r="D9" s="86"/>
-      <c r="E9" s="86"/>
-      <c r="F9" s="86"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="86"/>
-      <c r="I9" s="89" t="s">
+      <c r="B9" s="89"/>
+      <c r="C9" s="89"/>
+      <c r="D9" s="89"/>
+      <c r="E9" s="89"/>
+      <c r="F9" s="89"/>
+      <c r="G9" s="89"/>
+      <c r="H9" s="89"/>
+      <c r="I9" s="107" t="s">
         <v>18</v>
       </c>
-      <c r="J9" s="90"/>
-      <c r="K9" s="90"/>
-      <c r="L9" s="90"/>
-      <c r="M9" s="91"/>
-      <c r="N9" s="89" t="s">
+      <c r="J9" s="86"/>
+      <c r="K9" s="86"/>
+      <c r="L9" s="86"/>
+      <c r="M9" s="87"/>
+      <c r="N9" s="107" t="s">
         <v>19</v>
       </c>
-      <c r="O9" s="90"/>
-      <c r="P9" s="90"/>
-      <c r="Q9" s="90"/>
-      <c r="R9" s="91"/>
-      <c r="S9" s="89" t="s">
+      <c r="O9" s="86"/>
+      <c r="P9" s="86"/>
+      <c r="Q9" s="86"/>
+      <c r="R9" s="87"/>
+      <c r="S9" s="107" t="s">
         <v>20</v>
       </c>
-      <c r="T9" s="90"/>
-      <c r="U9" s="90"/>
-      <c r="V9" s="90"/>
-      <c r="W9" s="91"/>
-      <c r="X9" s="95" t="s">
+      <c r="T9" s="86"/>
+      <c r="U9" s="86"/>
+      <c r="V9" s="86"/>
+      <c r="W9" s="87"/>
+      <c r="X9" s="91" t="s">
         <v>21</v>
       </c>
-      <c r="Y9" s="90"/>
-      <c r="Z9" s="90"/>
-      <c r="AA9" s="90"/>
-      <c r="AB9" s="91"/>
-      <c r="AC9" s="95" t="s">
+      <c r="Y9" s="86"/>
+      <c r="Z9" s="86"/>
+      <c r="AA9" s="86"/>
+      <c r="AB9" s="87"/>
+      <c r="AC9" s="91" t="s">
         <v>22</v>
       </c>
-      <c r="AD9" s="90"/>
-      <c r="AE9" s="90"/>
-      <c r="AF9" s="90"/>
-      <c r="AG9" s="91"/>
-      <c r="AH9" s="95" t="s">
+      <c r="AD9" s="86"/>
+      <c r="AE9" s="86"/>
+      <c r="AF9" s="86"/>
+      <c r="AG9" s="87"/>
+      <c r="AH9" s="91" t="s">
         <v>23</v>
       </c>
-      <c r="AI9" s="90"/>
-      <c r="AJ9" s="90"/>
-      <c r="AK9" s="90"/>
-      <c r="AL9" s="91"/>
-      <c r="AM9" s="96" t="s">
+      <c r="AI9" s="86"/>
+      <c r="AJ9" s="86"/>
+      <c r="AK9" s="86"/>
+      <c r="AL9" s="87"/>
+      <c r="AM9" s="94" t="s">
         <v>24</v>
       </c>
-      <c r="AN9" s="90"/>
-      <c r="AO9" s="90"/>
-      <c r="AP9" s="90"/>
-      <c r="AQ9" s="91"/>
-      <c r="AR9" s="96" t="s">
+      <c r="AN9" s="86"/>
+      <c r="AO9" s="86"/>
+      <c r="AP9" s="86"/>
+      <c r="AQ9" s="87"/>
+      <c r="AR9" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="AS9" s="90"/>
-      <c r="AT9" s="90"/>
-      <c r="AU9" s="90"/>
-      <c r="AV9" s="91"/>
-      <c r="AW9" s="96" t="s">
+      <c r="AS9" s="86"/>
+      <c r="AT9" s="86"/>
+      <c r="AU9" s="86"/>
+      <c r="AV9" s="87"/>
+      <c r="AW9" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="AX9" s="90"/>
-      <c r="AY9" s="90"/>
-      <c r="AZ9" s="90"/>
-      <c r="BA9" s="91"/>
-      <c r="BB9" s="97" t="s">
+      <c r="AX9" s="86"/>
+      <c r="AY9" s="86"/>
+      <c r="AZ9" s="86"/>
+      <c r="BA9" s="87"/>
+      <c r="BB9" s="85" t="s">
         <v>27</v>
       </c>
-      <c r="BC9" s="90"/>
-      <c r="BD9" s="90"/>
-      <c r="BE9" s="90"/>
-      <c r="BF9" s="91"/>
-      <c r="BG9" s="97" t="s">
+      <c r="BC9" s="86"/>
+      <c r="BD9" s="86"/>
+      <c r="BE9" s="86"/>
+      <c r="BF9" s="87"/>
+      <c r="BG9" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="BH9" s="90"/>
-      <c r="BI9" s="90"/>
-      <c r="BJ9" s="90"/>
-      <c r="BK9" s="91"/>
-      <c r="BL9" s="97" t="s">
+      <c r="BH9" s="86"/>
+      <c r="BI9" s="86"/>
+      <c r="BJ9" s="86"/>
+      <c r="BK9" s="87"/>
+      <c r="BL9" s="85" t="s">
         <v>29</v>
       </c>
-      <c r="BM9" s="90"/>
-      <c r="BN9" s="90"/>
-      <c r="BO9" s="90"/>
-      <c r="BP9" s="91"/>
+      <c r="BM9" s="86"/>
+      <c r="BN9" s="86"/>
+      <c r="BO9" s="86"/>
+      <c r="BP9" s="87"/>
       <c r="BQ9" s="25"/>
     </row>
     <row r="10" spans="1:69" ht="17.25" customHeight="1">
       <c r="A10" s="26"/>
-      <c r="B10" s="86"/>
-      <c r="C10" s="86"/>
-      <c r="D10" s="86"/>
-      <c r="E10" s="86"/>
-      <c r="F10" s="86"/>
-      <c r="G10" s="86"/>
-      <c r="H10" s="86"/>
+      <c r="B10" s="89"/>
+      <c r="C10" s="89"/>
+      <c r="D10" s="89"/>
+      <c r="E10" s="89"/>
+      <c r="F10" s="89"/>
+      <c r="G10" s="89"/>
+      <c r="H10" s="89"/>
       <c r="I10" s="27" t="s">
         <v>30</v>
       </c>
@@ -2679,7 +2739,7 @@
       <c r="B11" s="31">
         <v>1</v>
       </c>
-      <c r="C11" s="109" t="s">
+      <c r="C11" s="84" t="s">
         <v>52</v>
       </c>
       <c r="D11" s="33"/>
@@ -2754,10 +2814,10 @@
       <c r="B12" s="38">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C12" s="103" t="s">
+      <c r="C12" s="78" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="104" t="s">
+      <c r="D12" s="79" t="s">
         <v>45</v>
       </c>
       <c r="E12" s="40">
@@ -2840,10 +2900,10 @@
       <c r="B13" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="105" t="s">
+      <c r="C13" s="80" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="106" t="s">
+      <c r="D13" s="81" t="s">
         <v>45</v>
       </c>
       <c r="E13" s="40">
@@ -2926,10 +2986,10 @@
       <c r="B14" s="38">
         <v>1.2</v>
       </c>
-      <c r="C14" s="104" t="s">
+      <c r="C14" s="79" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="106" t="s">
+      <c r="D14" s="81" t="s">
         <v>45</v>
       </c>
       <c r="E14" s="40">
@@ -2943,7 +3003,7 @@
         <v>3</v>
       </c>
       <c r="H14" s="42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" s="52"/>
       <c r="J14" s="53"/>
@@ -3012,7 +3072,7 @@
       <c r="B15" s="38">
         <v>1.3</v>
       </c>
-      <c r="C15" s="107" t="s">
+      <c r="C15" s="82" t="s">
         <v>48</v>
       </c>
       <c r="D15" s="39" t="s">
@@ -3029,7 +3089,7 @@
         <v>1</v>
       </c>
       <c r="H15" s="61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" s="52"/>
       <c r="J15" s="53"/>
@@ -3115,7 +3175,7 @@
         <v>4</v>
       </c>
       <c r="H16" s="42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" s="52"/>
       <c r="J16" s="53"/>
@@ -3184,7 +3244,7 @@
       <c r="B17" s="38">
         <v>1.5</v>
       </c>
-      <c r="C17" s="108" t="s">
+      <c r="C17" s="83" t="s">
         <v>50</v>
       </c>
       <c r="D17" s="39" t="s">
@@ -3200,8 +3260,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H17" s="42">
-        <v>0</v>
+      <c r="H17" s="109" t="s">
+        <v>53</v>
       </c>
       <c r="I17" s="52"/>
       <c r="J17" s="53"/>
@@ -3287,7 +3347,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="H18" s="66">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="I18" s="67"/>
       <c r="J18" s="68"/>
@@ -3356,7 +3416,9 @@
       <c r="B19" s="31">
         <v>2</v>
       </c>
-      <c r="C19" s="32"/>
+      <c r="C19" s="110" t="s">
+        <v>54</v>
+      </c>
       <c r="D19" s="33"/>
       <c r="E19" s="33"/>
       <c r="F19" s="33"/>
@@ -3429,27 +3491,29 @@
       <c r="B20" s="38">
         <v>2.1</v>
       </c>
-      <c r="C20" s="39"/>
+      <c r="C20" s="39" t="s">
+        <v>55</v>
+      </c>
       <c r="D20" s="39" t="s">
         <v>35</v>
       </c>
       <c r="E20" s="40">
-        <v>43183</v>
+        <v>885045</v>
       </c>
       <c r="F20" s="40">
-        <v>43187</v>
+        <v>885075</v>
       </c>
       <c r="G20" s="41">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="H20" s="42">
-        <v>0</v>
-      </c>
-      <c r="I20" s="43"/>
-      <c r="J20" s="44"/>
-      <c r="K20" s="45"/>
-      <c r="L20" s="45"/>
-      <c r="M20" s="45"/>
+        <v>0.21</v>
+      </c>
+      <c r="I20" s="52"/>
+      <c r="J20" s="53"/>
+      <c r="K20" s="53"/>
+      <c r="L20" s="53"/>
+      <c r="M20" s="53"/>
       <c r="N20" s="47"/>
       <c r="O20" s="47"/>
       <c r="P20" s="47"/>
@@ -3460,14 +3524,14 @@
       <c r="U20" s="45"/>
       <c r="V20" s="45"/>
       <c r="W20" s="45"/>
-      <c r="X20" s="75"/>
-      <c r="Y20" s="75"/>
-      <c r="Z20" s="75"/>
-      <c r="AA20" s="75"/>
-      <c r="AB20" s="45"/>
-      <c r="AC20" s="48"/>
-      <c r="AD20" s="48"/>
-      <c r="AE20" s="48"/>
+      <c r="X20" s="54"/>
+      <c r="Y20" s="54"/>
+      <c r="Z20" s="54"/>
+      <c r="AA20" s="54"/>
+      <c r="AB20" s="75"/>
+      <c r="AC20" s="75"/>
+      <c r="AD20" s="75"/>
+      <c r="AE20" s="75"/>
       <c r="AF20" s="48"/>
       <c r="AG20" s="48"/>
       <c r="AH20" s="45"/>
@@ -3512,27 +3576,29 @@
       <c r="B21" s="38">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C21" s="39"/>
+      <c r="C21" s="39" t="s">
+        <v>56</v>
+      </c>
       <c r="D21" s="39" t="s">
         <v>35</v>
       </c>
       <c r="E21" s="40">
-        <v>43188</v>
+        <v>885045</v>
       </c>
       <c r="F21" s="40">
-        <v>43192</v>
+        <v>885075</v>
       </c>
       <c r="G21" s="41">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="H21" s="42">
-        <v>0</v>
+        <v>0.21</v>
       </c>
       <c r="I21" s="52"/>
       <c r="J21" s="53"/>
-      <c r="K21" s="54"/>
-      <c r="L21" s="54"/>
-      <c r="M21" s="54"/>
+      <c r="K21" s="53"/>
+      <c r="L21" s="53"/>
+      <c r="M21" s="53"/>
       <c r="N21" s="55"/>
       <c r="O21" s="55"/>
       <c r="P21" s="55"/>
@@ -3551,8 +3617,8 @@
       <c r="AC21" s="75"/>
       <c r="AD21" s="75"/>
       <c r="AE21" s="76"/>
-      <c r="AF21" s="77"/>
-      <c r="AG21" s="77"/>
+      <c r="AF21" s="57"/>
+      <c r="AG21" s="57"/>
       <c r="AH21" s="54"/>
       <c r="AI21" s="54"/>
       <c r="AJ21" s="54"/>
@@ -4691,8 +4757,8 @@
       <c r="D36" s="21"/>
       <c r="E36" s="21"/>
       <c r="F36" s="21"/>
-      <c r="G36" s="78"/>
-      <c r="H36" s="78"/>
+      <c r="G36" s="77"/>
+      <c r="H36" s="77"/>
       <c r="I36" s="21"/>
       <c r="J36" s="21"/>
       <c r="K36" s="21"/>
@@ -4762,8 +4828,8 @@
       <c r="D37" s="21"/>
       <c r="E37" s="21"/>
       <c r="F37" s="21"/>
-      <c r="G37" s="78"/>
-      <c r="H37" s="78"/>
+      <c r="G37" s="77"/>
+      <c r="H37" s="77"/>
       <c r="I37" s="21"/>
       <c r="J37" s="21"/>
       <c r="K37" s="21"/>
@@ -4833,8 +4899,8 @@
       <c r="D38" s="21"/>
       <c r="E38" s="21"/>
       <c r="F38" s="21"/>
-      <c r="G38" s="78"/>
-      <c r="H38" s="78"/>
+      <c r="G38" s="77"/>
+      <c r="H38" s="77"/>
       <c r="I38" s="21"/>
       <c r="J38" s="21"/>
       <c r="K38" s="21"/>
@@ -4899,6 +4965,28 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="H8:H10"/>
+    <mergeCell ref="S9:W9"/>
+    <mergeCell ref="N9:R9"/>
+    <mergeCell ref="I9:M9"/>
+    <mergeCell ref="I8:W8"/>
+    <mergeCell ref="I2:N2"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="I5:O5"/>
+    <mergeCell ref="P5:AA5"/>
+    <mergeCell ref="I4:O4"/>
+    <mergeCell ref="P4:AB4"/>
+    <mergeCell ref="O2:AG2"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="B5:C5"/>
     <mergeCell ref="BG9:BK9"/>
     <mergeCell ref="BL9:BP9"/>
     <mergeCell ref="BB9:BF9"/>
@@ -4911,28 +4999,6 @@
     <mergeCell ref="AR9:AV9"/>
     <mergeCell ref="AW9:BA9"/>
     <mergeCell ref="AM9:AQ9"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="I2:N2"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="I5:O5"/>
-    <mergeCell ref="P5:AA5"/>
-    <mergeCell ref="I4:O4"/>
-    <mergeCell ref="P4:AB4"/>
-    <mergeCell ref="O2:AG2"/>
-    <mergeCell ref="H8:H10"/>
-    <mergeCell ref="S9:W9"/>
-    <mergeCell ref="N9:R9"/>
-    <mergeCell ref="I9:M9"/>
-    <mergeCell ref="I8:W8"/>
   </mergeCells>
   <phoneticPr fontId="31" type="noConversion"/>
   <conditionalFormatting sqref="H12:H18 H20:H35">

--- a/일정/갠트 차트.xlsx
+++ b/일정/갠트 차트.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sanghee\Desktop\develop\2wda_2semester\2WDA_YJSangSa_CapstoneDesign\일정\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF76CD22-DDF7-4AB6-9E66-E1C08B351133}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94550EE5-F8D5-4621-85B3-91CFF0E8C4E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1395,15 +1395,57 @@
     <xf numFmtId="0" fontId="50" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="37" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1416,48 +1458,6 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="37" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1821,7 +1821,7 @@
   <dimension ref="A1:BQ38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="AI21" sqref="AI21"/>
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1"/>
@@ -1909,44 +1909,44 @@
     </row>
     <row r="2" spans="1:69" ht="40.5">
       <c r="A2" s="1"/>
-      <c r="B2" s="103" t="s">
+      <c r="B2" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
       <c r="H2" s="10"/>
-      <c r="I2" s="101" t="s">
+      <c r="I2" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="102"/>
-      <c r="M2" s="102"/>
-      <c r="N2" s="102"/>
-      <c r="O2" s="106" t="s">
+      <c r="J2" s="94"/>
+      <c r="K2" s="94"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="94"/>
+      <c r="N2" s="94"/>
+      <c r="O2" s="100" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="102"/>
-      <c r="Q2" s="102"/>
-      <c r="R2" s="102"/>
-      <c r="S2" s="102"/>
-      <c r="T2" s="102"/>
-      <c r="U2" s="102"/>
-      <c r="V2" s="102"/>
-      <c r="W2" s="102"/>
-      <c r="X2" s="102"/>
-      <c r="Y2" s="102"/>
-      <c r="Z2" s="102"/>
-      <c r="AA2" s="102"/>
-      <c r="AB2" s="102"/>
-      <c r="AC2" s="102"/>
-      <c r="AD2" s="102"/>
-      <c r="AE2" s="102"/>
-      <c r="AF2" s="102"/>
-      <c r="AG2" s="102"/>
+      <c r="P2" s="94"/>
+      <c r="Q2" s="94"/>
+      <c r="R2" s="94"/>
+      <c r="S2" s="94"/>
+      <c r="T2" s="94"/>
+      <c r="U2" s="94"/>
+      <c r="V2" s="94"/>
+      <c r="W2" s="94"/>
+      <c r="X2" s="94"/>
+      <c r="Y2" s="94"/>
+      <c r="Z2" s="94"/>
+      <c r="AA2" s="94"/>
+      <c r="AB2" s="94"/>
+      <c r="AC2" s="94"/>
+      <c r="AD2" s="94"/>
+      <c r="AE2" s="94"/>
+      <c r="AF2" s="94"/>
+      <c r="AG2" s="94"/>
       <c r="AH2" s="11"/>
       <c r="AI2" s="11"/>
       <c r="AJ2" s="11"/>
@@ -2057,41 +2057,41 @@
     </row>
     <row r="4" spans="1:69" ht="21" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="98" t="s">
+      <c r="B4" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="99"/>
-      <c r="D4" s="96" t="s">
+      <c r="C4" s="97"/>
+      <c r="D4" s="101" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="97"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="102"/>
       <c r="H4" s="16"/>
-      <c r="I4" s="98" t="s">
+      <c r="I4" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="99"/>
-      <c r="K4" s="99"/>
-      <c r="L4" s="99"/>
-      <c r="M4" s="99"/>
-      <c r="N4" s="99"/>
-      <c r="O4" s="99"/>
-      <c r="P4" s="105" t="s">
+      <c r="J4" s="97"/>
+      <c r="K4" s="97"/>
+      <c r="L4" s="97"/>
+      <c r="M4" s="97"/>
+      <c r="N4" s="97"/>
+      <c r="O4" s="97"/>
+      <c r="P4" s="99" t="s">
         <v>41</v>
       </c>
-      <c r="Q4" s="99"/>
-      <c r="R4" s="99"/>
-      <c r="S4" s="99"/>
-      <c r="T4" s="99"/>
-      <c r="U4" s="99"/>
-      <c r="V4" s="99"/>
-      <c r="W4" s="99"/>
-      <c r="X4" s="99"/>
-      <c r="Y4" s="99"/>
-      <c r="Z4" s="99"/>
-      <c r="AA4" s="99"/>
-      <c r="AB4" s="99"/>
+      <c r="Q4" s="97"/>
+      <c r="R4" s="97"/>
+      <c r="S4" s="97"/>
+      <c r="T4" s="97"/>
+      <c r="U4" s="97"/>
+      <c r="V4" s="97"/>
+      <c r="W4" s="97"/>
+      <c r="X4" s="97"/>
+      <c r="Y4" s="97"/>
+      <c r="Z4" s="97"/>
+      <c r="AA4" s="97"/>
+      <c r="AB4" s="97"/>
       <c r="AC4" s="17"/>
       <c r="AD4" s="9"/>
       <c r="AE4" s="9"/>
@@ -2136,40 +2136,40 @@
     </row>
     <row r="5" spans="1:69" ht="21" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="98" t="s">
+      <c r="B5" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="99"/>
-      <c r="D5" s="100" t="s">
+      <c r="C5" s="97"/>
+      <c r="D5" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="99"/>
-      <c r="F5" s="99"/>
-      <c r="G5" s="99"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="97"/>
+      <c r="G5" s="97"/>
       <c r="H5" s="18"/>
-      <c r="I5" s="98" t="s">
+      <c r="I5" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="99"/>
-      <c r="K5" s="99"/>
-      <c r="L5" s="99"/>
-      <c r="M5" s="99"/>
-      <c r="N5" s="99"/>
-      <c r="O5" s="99"/>
-      <c r="P5" s="104">
-        <v>44971</v>
-      </c>
-      <c r="Q5" s="99"/>
-      <c r="R5" s="99"/>
-      <c r="S5" s="99"/>
-      <c r="T5" s="99"/>
-      <c r="U5" s="99"/>
-      <c r="V5" s="99"/>
-      <c r="W5" s="99"/>
-      <c r="X5" s="99"/>
-      <c r="Y5" s="99"/>
-      <c r="Z5" s="99"/>
-      <c r="AA5" s="99"/>
+      <c r="J5" s="97"/>
+      <c r="K5" s="97"/>
+      <c r="L5" s="97"/>
+      <c r="M5" s="97"/>
+      <c r="N5" s="97"/>
+      <c r="O5" s="97"/>
+      <c r="P5" s="98">
+        <v>44992</v>
+      </c>
+      <c r="Q5" s="97"/>
+      <c r="R5" s="97"/>
+      <c r="S5" s="97"/>
+      <c r="T5" s="97"/>
+      <c r="U5" s="97"/>
+      <c r="V5" s="97"/>
+      <c r="W5" s="97"/>
+      <c r="X5" s="97"/>
+      <c r="Y5" s="97"/>
+      <c r="Z5" s="97"/>
+      <c r="AA5" s="97"/>
       <c r="AB5" s="19"/>
       <c r="AC5" s="17"/>
       <c r="AD5" s="1"/>
@@ -2357,201 +2357,201 @@
     </row>
     <row r="8" spans="1:69" ht="17.25" customHeight="1">
       <c r="A8" s="24"/>
-      <c r="B8" s="95" t="s">
+      <c r="B8" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="95" t="s">
+      <c r="C8" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="95" t="s">
+      <c r="D8" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="95" t="s">
+      <c r="E8" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="95" t="s">
+      <c r="F8" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="95" t="s">
+      <c r="G8" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="95" t="s">
+      <c r="H8" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="108" t="s">
+      <c r="I8" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="89"/>
-      <c r="K8" s="89"/>
-      <c r="L8" s="89"/>
-      <c r="M8" s="89"/>
-      <c r="N8" s="89"/>
-      <c r="O8" s="89"/>
-      <c r="P8" s="89"/>
-      <c r="Q8" s="89"/>
-      <c r="R8" s="89"/>
-      <c r="S8" s="89"/>
-      <c r="T8" s="89"/>
-      <c r="U8" s="89"/>
-      <c r="V8" s="89"/>
-      <c r="W8" s="89"/>
-      <c r="X8" s="93" t="s">
+      <c r="J8" s="88"/>
+      <c r="K8" s="88"/>
+      <c r="L8" s="88"/>
+      <c r="M8" s="88"/>
+      <c r="N8" s="88"/>
+      <c r="O8" s="88"/>
+      <c r="P8" s="88"/>
+      <c r="Q8" s="88"/>
+      <c r="R8" s="88"/>
+      <c r="S8" s="88"/>
+      <c r="T8" s="88"/>
+      <c r="U8" s="88"/>
+      <c r="V8" s="88"/>
+      <c r="W8" s="88"/>
+      <c r="X8" s="109" t="s">
         <v>15</v>
       </c>
-      <c r="Y8" s="89"/>
-      <c r="Z8" s="89"/>
-      <c r="AA8" s="89"/>
-      <c r="AB8" s="89"/>
-      <c r="AC8" s="89"/>
-      <c r="AD8" s="89"/>
-      <c r="AE8" s="89"/>
-      <c r="AF8" s="89"/>
-      <c r="AG8" s="89"/>
-      <c r="AH8" s="89"/>
-      <c r="AI8" s="89"/>
-      <c r="AJ8" s="89"/>
-      <c r="AK8" s="89"/>
-      <c r="AL8" s="89"/>
-      <c r="AM8" s="92" t="s">
+      <c r="Y8" s="88"/>
+      <c r="Z8" s="88"/>
+      <c r="AA8" s="88"/>
+      <c r="AB8" s="88"/>
+      <c r="AC8" s="88"/>
+      <c r="AD8" s="88"/>
+      <c r="AE8" s="88"/>
+      <c r="AF8" s="88"/>
+      <c r="AG8" s="88"/>
+      <c r="AH8" s="88"/>
+      <c r="AI8" s="88"/>
+      <c r="AJ8" s="88"/>
+      <c r="AK8" s="88"/>
+      <c r="AL8" s="88"/>
+      <c r="AM8" s="108" t="s">
         <v>16</v>
       </c>
-      <c r="AN8" s="89"/>
-      <c r="AO8" s="89"/>
-      <c r="AP8" s="89"/>
-      <c r="AQ8" s="89"/>
-      <c r="AR8" s="89"/>
-      <c r="AS8" s="89"/>
-      <c r="AT8" s="89"/>
-      <c r="AU8" s="89"/>
-      <c r="AV8" s="89"/>
-      <c r="AW8" s="89"/>
-      <c r="AX8" s="89"/>
-      <c r="AY8" s="89"/>
-      <c r="AZ8" s="89"/>
-      <c r="BA8" s="89"/>
-      <c r="BB8" s="88" t="s">
+      <c r="AN8" s="88"/>
+      <c r="AO8" s="88"/>
+      <c r="AP8" s="88"/>
+      <c r="AQ8" s="88"/>
+      <c r="AR8" s="88"/>
+      <c r="AS8" s="88"/>
+      <c r="AT8" s="88"/>
+      <c r="AU8" s="88"/>
+      <c r="AV8" s="88"/>
+      <c r="AW8" s="88"/>
+      <c r="AX8" s="88"/>
+      <c r="AY8" s="88"/>
+      <c r="AZ8" s="88"/>
+      <c r="BA8" s="88"/>
+      <c r="BB8" s="105" t="s">
         <v>17</v>
       </c>
-      <c r="BC8" s="89"/>
-      <c r="BD8" s="89"/>
-      <c r="BE8" s="89"/>
-      <c r="BF8" s="89"/>
-      <c r="BG8" s="89"/>
-      <c r="BH8" s="89"/>
-      <c r="BI8" s="89"/>
-      <c r="BJ8" s="89"/>
-      <c r="BK8" s="89"/>
-      <c r="BL8" s="89"/>
-      <c r="BM8" s="89"/>
-      <c r="BN8" s="89"/>
-      <c r="BO8" s="89"/>
-      <c r="BP8" s="90"/>
+      <c r="BC8" s="88"/>
+      <c r="BD8" s="88"/>
+      <c r="BE8" s="88"/>
+      <c r="BF8" s="88"/>
+      <c r="BG8" s="88"/>
+      <c r="BH8" s="88"/>
+      <c r="BI8" s="88"/>
+      <c r="BJ8" s="88"/>
+      <c r="BK8" s="88"/>
+      <c r="BL8" s="88"/>
+      <c r="BM8" s="88"/>
+      <c r="BN8" s="88"/>
+      <c r="BO8" s="88"/>
+      <c r="BP8" s="106"/>
       <c r="BQ8" s="21"/>
     </row>
     <row r="9" spans="1:69" ht="17.25" customHeight="1">
       <c r="A9" s="25"/>
-      <c r="B9" s="89"/>
-      <c r="C9" s="89"/>
-      <c r="D9" s="89"/>
-      <c r="E9" s="89"/>
-      <c r="F9" s="89"/>
-      <c r="G9" s="89"/>
-      <c r="H9" s="89"/>
-      <c r="I9" s="107" t="s">
+      <c r="B9" s="88"/>
+      <c r="C9" s="88"/>
+      <c r="D9" s="88"/>
+      <c r="E9" s="88"/>
+      <c r="F9" s="88"/>
+      <c r="G9" s="88"/>
+      <c r="H9" s="88"/>
+      <c r="I9" s="89" t="s">
         <v>18</v>
       </c>
-      <c r="J9" s="86"/>
-      <c r="K9" s="86"/>
-      <c r="L9" s="86"/>
-      <c r="M9" s="87"/>
-      <c r="N9" s="107" t="s">
+      <c r="J9" s="90"/>
+      <c r="K9" s="90"/>
+      <c r="L9" s="90"/>
+      <c r="M9" s="91"/>
+      <c r="N9" s="89" t="s">
         <v>19</v>
       </c>
-      <c r="O9" s="86"/>
-      <c r="P9" s="86"/>
-      <c r="Q9" s="86"/>
-      <c r="R9" s="87"/>
-      <c r="S9" s="107" t="s">
+      <c r="O9" s="90"/>
+      <c r="P9" s="90"/>
+      <c r="Q9" s="90"/>
+      <c r="R9" s="91"/>
+      <c r="S9" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="T9" s="86"/>
-      <c r="U9" s="86"/>
-      <c r="V9" s="86"/>
-      <c r="W9" s="87"/>
-      <c r="X9" s="91" t="s">
+      <c r="T9" s="90"/>
+      <c r="U9" s="90"/>
+      <c r="V9" s="90"/>
+      <c r="W9" s="91"/>
+      <c r="X9" s="107" t="s">
         <v>21</v>
       </c>
-      <c r="Y9" s="86"/>
-      <c r="Z9" s="86"/>
-      <c r="AA9" s="86"/>
-      <c r="AB9" s="87"/>
-      <c r="AC9" s="91" t="s">
+      <c r="Y9" s="90"/>
+      <c r="Z9" s="90"/>
+      <c r="AA9" s="90"/>
+      <c r="AB9" s="91"/>
+      <c r="AC9" s="107" t="s">
         <v>22</v>
       </c>
-      <c r="AD9" s="86"/>
-      <c r="AE9" s="86"/>
-      <c r="AF9" s="86"/>
-      <c r="AG9" s="87"/>
-      <c r="AH9" s="91" t="s">
+      <c r="AD9" s="90"/>
+      <c r="AE9" s="90"/>
+      <c r="AF9" s="90"/>
+      <c r="AG9" s="91"/>
+      <c r="AH9" s="107" t="s">
         <v>23</v>
       </c>
-      <c r="AI9" s="86"/>
-      <c r="AJ9" s="86"/>
-      <c r="AK9" s="86"/>
-      <c r="AL9" s="87"/>
-      <c r="AM9" s="94" t="s">
+      <c r="AI9" s="90"/>
+      <c r="AJ9" s="90"/>
+      <c r="AK9" s="90"/>
+      <c r="AL9" s="91"/>
+      <c r="AM9" s="110" t="s">
         <v>24</v>
       </c>
-      <c r="AN9" s="86"/>
-      <c r="AO9" s="86"/>
-      <c r="AP9" s="86"/>
-      <c r="AQ9" s="87"/>
-      <c r="AR9" s="94" t="s">
+      <c r="AN9" s="90"/>
+      <c r="AO9" s="90"/>
+      <c r="AP9" s="90"/>
+      <c r="AQ9" s="91"/>
+      <c r="AR9" s="110" t="s">
         <v>25</v>
       </c>
-      <c r="AS9" s="86"/>
-      <c r="AT9" s="86"/>
-      <c r="AU9" s="86"/>
-      <c r="AV9" s="87"/>
-      <c r="AW9" s="94" t="s">
+      <c r="AS9" s="90"/>
+      <c r="AT9" s="90"/>
+      <c r="AU9" s="90"/>
+      <c r="AV9" s="91"/>
+      <c r="AW9" s="110" t="s">
         <v>26</v>
       </c>
-      <c r="AX9" s="86"/>
-      <c r="AY9" s="86"/>
-      <c r="AZ9" s="86"/>
-      <c r="BA9" s="87"/>
-      <c r="BB9" s="85" t="s">
+      <c r="AX9" s="90"/>
+      <c r="AY9" s="90"/>
+      <c r="AZ9" s="90"/>
+      <c r="BA9" s="91"/>
+      <c r="BB9" s="104" t="s">
         <v>27</v>
       </c>
-      <c r="BC9" s="86"/>
-      <c r="BD9" s="86"/>
-      <c r="BE9" s="86"/>
-      <c r="BF9" s="87"/>
-      <c r="BG9" s="85" t="s">
+      <c r="BC9" s="90"/>
+      <c r="BD9" s="90"/>
+      <c r="BE9" s="90"/>
+      <c r="BF9" s="91"/>
+      <c r="BG9" s="104" t="s">
         <v>28</v>
       </c>
-      <c r="BH9" s="86"/>
-      <c r="BI9" s="86"/>
-      <c r="BJ9" s="86"/>
-      <c r="BK9" s="87"/>
-      <c r="BL9" s="85" t="s">
+      <c r="BH9" s="90"/>
+      <c r="BI9" s="90"/>
+      <c r="BJ9" s="90"/>
+      <c r="BK9" s="91"/>
+      <c r="BL9" s="104" t="s">
         <v>29</v>
       </c>
-      <c r="BM9" s="86"/>
-      <c r="BN9" s="86"/>
-      <c r="BO9" s="86"/>
-      <c r="BP9" s="87"/>
+      <c r="BM9" s="90"/>
+      <c r="BN9" s="90"/>
+      <c r="BO9" s="90"/>
+      <c r="BP9" s="91"/>
       <c r="BQ9" s="25"/>
     </row>
     <row r="10" spans="1:69" ht="17.25" customHeight="1">
       <c r="A10" s="26"/>
-      <c r="B10" s="89"/>
-      <c r="C10" s="89"/>
-      <c r="D10" s="89"/>
-      <c r="E10" s="89"/>
-      <c r="F10" s="89"/>
-      <c r="G10" s="89"/>
-      <c r="H10" s="89"/>
+      <c r="B10" s="88"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="88"/>
+      <c r="E10" s="88"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="88"/>
+      <c r="H10" s="88"/>
       <c r="I10" s="27" t="s">
         <v>30</v>
       </c>
@@ -3260,7 +3260,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H17" s="109" t="s">
+      <c r="H17" s="85" t="s">
         <v>53</v>
       </c>
       <c r="I17" s="52"/>
@@ -3416,7 +3416,7 @@
       <c r="B19" s="31">
         <v>2</v>
       </c>
-      <c r="C19" s="110" t="s">
+      <c r="C19" s="86" t="s">
         <v>54</v>
       </c>
       <c r="D19" s="33"/>
@@ -4965,28 +4965,6 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="H8:H10"/>
-    <mergeCell ref="S9:W9"/>
-    <mergeCell ref="N9:R9"/>
-    <mergeCell ref="I9:M9"/>
-    <mergeCell ref="I8:W8"/>
-    <mergeCell ref="I2:N2"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="I5:O5"/>
-    <mergeCell ref="P5:AA5"/>
-    <mergeCell ref="I4:O4"/>
-    <mergeCell ref="P4:AB4"/>
-    <mergeCell ref="O2:AG2"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="B5:C5"/>
     <mergeCell ref="BG9:BK9"/>
     <mergeCell ref="BL9:BP9"/>
     <mergeCell ref="BB9:BF9"/>
@@ -4999,6 +4977,28 @@
     <mergeCell ref="AR9:AV9"/>
     <mergeCell ref="AW9:BA9"/>
     <mergeCell ref="AM9:AQ9"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="I2:N2"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="I5:O5"/>
+    <mergeCell ref="P5:AA5"/>
+    <mergeCell ref="I4:O4"/>
+    <mergeCell ref="P4:AB4"/>
+    <mergeCell ref="O2:AG2"/>
+    <mergeCell ref="H8:H10"/>
+    <mergeCell ref="S9:W9"/>
+    <mergeCell ref="N9:R9"/>
+    <mergeCell ref="I9:M9"/>
+    <mergeCell ref="I8:W8"/>
   </mergeCells>
   <phoneticPr fontId="31" type="noConversion"/>
   <conditionalFormatting sqref="H12:H18 H20:H35">

--- a/일정/갠트 차트.xlsx
+++ b/일정/갠트 차트.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sanghee\Desktop\develop\2wda_2semester\2WDA_YJSangSa_CapstoneDesign\일정\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94550EE5-F8D5-4621-85B3-91CFF0E8C4E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29B5D717-2625-4148-9D95-8459E4F1D62F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="68">
   <si>
     <t>갠트 차트 템플릿</t>
   </si>
@@ -443,6 +443,154 @@
     </r>
     <phoneticPr fontId="31" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">AWS </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>인스턴스 만들고 연결 테스트</t>
+    </r>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ZEPETO </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>통신 테스트</t>
+    </r>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <t>도서관 방문 후 협조요청</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">우리측서버로 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+        <family val="2"/>
+      </rPr>
+      <t>request</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">하기위한 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+        <family val="2"/>
+      </rPr>
+      <t>typescript</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>코드 만들기</t>
+    </r>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <t>신성,황주</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <t>유현</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <t>상희,유현</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>StoryBoard</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>구체화</t>
+    </r>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <t>민화</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>백엔드(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">SERVER) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>뼈대 구성</t>
+    </r>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -452,7 +600,7 @@
     <numFmt numFmtId="176" formatCode="yy&quot;년 &quot;m&quot;월 &quot;d&quot;일&quot;"/>
     <numFmt numFmtId="177" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="54">
+  <fonts count="55">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -773,6 +921,13 @@
       <color rgb="FF434343"/>
       <name val="Arial Unicode MS"/>
       <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF434343"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
       <charset val="129"/>
     </font>
   </fonts>
@@ -1149,7 +1304,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1458,6 +1613,9 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1818,10 +1976,10 @@
     <tabColor rgb="FF3D85C6"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BQ38"/>
+  <dimension ref="A1:BQ41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1"/>
@@ -3075,8 +3233,8 @@
       <c r="C15" s="82" t="s">
         <v>48</v>
       </c>
-      <c r="D15" s="39" t="s">
-        <v>35</v>
+      <c r="D15" s="81" t="s">
+        <v>45</v>
       </c>
       <c r="E15" s="40">
         <v>44977</v>
@@ -3161,8 +3319,8 @@
       <c r="C16" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="D16" s="39" t="s">
-        <v>35</v>
+      <c r="D16" s="81" t="s">
+        <v>45</v>
       </c>
       <c r="E16" s="40">
         <v>44979</v>
@@ -3247,8 +3405,8 @@
       <c r="C17" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="39" t="s">
-        <v>35</v>
+      <c r="D17" s="81" t="s">
+        <v>45</v>
       </c>
       <c r="E17" s="40">
         <v>44984</v>
@@ -3333,8 +3491,8 @@
       <c r="C18" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="39" t="s">
-        <v>35</v>
+      <c r="D18" s="81" t="s">
+        <v>45</v>
       </c>
       <c r="E18" s="64">
         <v>44987</v>
@@ -3494,8 +3652,8 @@
       <c r="C20" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="D20" s="39" t="s">
-        <v>35</v>
+      <c r="D20" s="81" t="s">
+        <v>45</v>
       </c>
       <c r="E20" s="40">
         <v>885045</v>
@@ -3579,8 +3737,8 @@
       <c r="C21" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="D21" s="39" t="s">
-        <v>35</v>
+      <c r="D21" s="81" t="s">
+        <v>45</v>
       </c>
       <c r="E21" s="40">
         <v>885045</v>
@@ -3661,23 +3819,29 @@
       <c r="B22" s="38">
         <v>2.2999999999999998</v>
       </c>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
+      <c r="C22" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="E22" s="40">
+        <v>885045</v>
+      </c>
+      <c r="F22" s="40">
+        <v>885073</v>
+      </c>
       <c r="G22" s="41">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="H22" s="42">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I22" s="52"/>
       <c r="J22" s="53"/>
-      <c r="K22" s="54"/>
-      <c r="L22" s="54"/>
-      <c r="M22" s="54"/>
+      <c r="K22" s="53"/>
+      <c r="L22" s="53"/>
+      <c r="M22" s="53"/>
       <c r="N22" s="55"/>
       <c r="O22" s="55"/>
       <c r="P22" s="55"/>
@@ -3692,10 +3856,10 @@
       <c r="Y22" s="54"/>
       <c r="Z22" s="54"/>
       <c r="AA22" s="54"/>
-      <c r="AB22" s="54"/>
-      <c r="AC22" s="57"/>
-      <c r="AD22" s="57"/>
-      <c r="AE22" s="57"/>
+      <c r="AB22" s="75"/>
+      <c r="AC22" s="75"/>
+      <c r="AD22" s="75"/>
+      <c r="AE22" s="76"/>
       <c r="AF22" s="57"/>
       <c r="AG22" s="57"/>
       <c r="AH22" s="54"/>
@@ -3740,17 +3904,23 @@
       <c r="B23" s="38">
         <v>2.4</v>
       </c>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
+      <c r="C23" s="79" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" s="81" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" s="40">
+        <v>885049</v>
+      </c>
+      <c r="F23" s="40">
+        <v>885049</v>
+      </c>
       <c r="G23" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" s="61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" s="52"/>
       <c r="J23" s="53"/>
@@ -3814,173 +3984,197 @@
       <c r="BP23" s="60"/>
       <c r="BQ23" s="37"/>
     </row>
-    <row r="24" spans="1:69" ht="21" customHeight="1">
-      <c r="A24" s="21"/>
-      <c r="B24" s="31">
-        <v>3</v>
-      </c>
-      <c r="C24" s="32"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="34"/>
-      <c r="J24" s="35"/>
-      <c r="K24" s="36"/>
-      <c r="L24" s="36"/>
-      <c r="M24" s="34"/>
-      <c r="N24" s="34"/>
-      <c r="O24" s="34"/>
-      <c r="P24" s="34"/>
-      <c r="Q24" s="34"/>
-      <c r="R24" s="34"/>
-      <c r="S24" s="34"/>
-      <c r="T24" s="34"/>
-      <c r="U24" s="34"/>
-      <c r="V24" s="34"/>
-      <c r="W24" s="34"/>
-      <c r="X24" s="34"/>
-      <c r="Y24" s="34"/>
-      <c r="Z24" s="34"/>
-      <c r="AA24" s="34"/>
-      <c r="AB24" s="34"/>
-      <c r="AC24" s="34"/>
-      <c r="AD24" s="34"/>
-      <c r="AE24" s="34"/>
-      <c r="AF24" s="34"/>
-      <c r="AG24" s="34"/>
-      <c r="AH24" s="34"/>
-      <c r="AI24" s="34"/>
-      <c r="AJ24" s="34"/>
-      <c r="AK24" s="34"/>
-      <c r="AL24" s="34"/>
-      <c r="AM24" s="34"/>
-      <c r="AN24" s="34"/>
-      <c r="AO24" s="34"/>
-      <c r="AP24" s="34"/>
-      <c r="AQ24" s="34"/>
-      <c r="AR24" s="34"/>
-      <c r="AS24" s="34"/>
-      <c r="AT24" s="34"/>
-      <c r="AU24" s="34"/>
-      <c r="AV24" s="34"/>
-      <c r="AW24" s="34"/>
-      <c r="AX24" s="34"/>
-      <c r="AY24" s="34"/>
-      <c r="AZ24" s="34"/>
-      <c r="BA24" s="34"/>
-      <c r="BB24" s="34"/>
-      <c r="BC24" s="34"/>
-      <c r="BD24" s="34"/>
-      <c r="BE24" s="34"/>
-      <c r="BF24" s="34"/>
-      <c r="BG24" s="34"/>
-      <c r="BH24" s="34"/>
-      <c r="BI24" s="34"/>
-      <c r="BJ24" s="34"/>
-      <c r="BK24" s="34"/>
-      <c r="BL24" s="34"/>
-      <c r="BM24" s="34"/>
-      <c r="BN24" s="34"/>
-      <c r="BO24" s="34"/>
-      <c r="BP24" s="34"/>
-      <c r="BQ24" s="21"/>
+    <row r="24" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A24" s="37"/>
+      <c r="B24" s="38">
+        <v>2.5</v>
+      </c>
+      <c r="C24" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" s="81" t="s">
+        <v>63</v>
+      </c>
+      <c r="E24" s="40">
+        <v>885055</v>
+      </c>
+      <c r="F24" s="40">
+        <v>885058</v>
+      </c>
+      <c r="G24" s="41">
+        <v>4</v>
+      </c>
+      <c r="H24" s="42">
+        <v>1</v>
+      </c>
+      <c r="I24" s="52"/>
+      <c r="J24" s="53"/>
+      <c r="K24" s="54"/>
+      <c r="L24" s="54"/>
+      <c r="M24" s="54"/>
+      <c r="N24" s="55"/>
+      <c r="O24" s="55"/>
+      <c r="P24" s="55"/>
+      <c r="Q24" s="55"/>
+      <c r="R24" s="55"/>
+      <c r="S24" s="54"/>
+      <c r="T24" s="54"/>
+      <c r="U24" s="54"/>
+      <c r="V24" s="54"/>
+      <c r="W24" s="54"/>
+      <c r="X24" s="54"/>
+      <c r="Y24" s="54"/>
+      <c r="Z24" s="54"/>
+      <c r="AA24" s="54"/>
+      <c r="AB24" s="54"/>
+      <c r="AC24" s="57"/>
+      <c r="AD24" s="57"/>
+      <c r="AE24" s="57"/>
+      <c r="AF24" s="57"/>
+      <c r="AG24" s="57"/>
+      <c r="AH24" s="54"/>
+      <c r="AI24" s="54"/>
+      <c r="AJ24" s="54"/>
+      <c r="AK24" s="54"/>
+      <c r="AL24" s="54"/>
+      <c r="AM24" s="54"/>
+      <c r="AN24" s="54"/>
+      <c r="AO24" s="54"/>
+      <c r="AP24" s="54"/>
+      <c r="AQ24" s="54"/>
+      <c r="AR24" s="58"/>
+      <c r="AS24" s="58"/>
+      <c r="AT24" s="58"/>
+      <c r="AU24" s="58"/>
+      <c r="AV24" s="58"/>
+      <c r="AW24" s="54"/>
+      <c r="AX24" s="54"/>
+      <c r="AY24" s="54"/>
+      <c r="AZ24" s="54"/>
+      <c r="BA24" s="54"/>
+      <c r="BB24" s="54"/>
+      <c r="BC24" s="54"/>
+      <c r="BD24" s="54"/>
+      <c r="BE24" s="54"/>
+      <c r="BF24" s="54"/>
+      <c r="BG24" s="59"/>
+      <c r="BH24" s="59"/>
+      <c r="BI24" s="59"/>
+      <c r="BJ24" s="59"/>
+      <c r="BK24" s="59"/>
+      <c r="BL24" s="54"/>
+      <c r="BM24" s="54"/>
+      <c r="BN24" s="54"/>
+      <c r="BO24" s="54"/>
+      <c r="BP24" s="60"/>
+      <c r="BQ24" s="37"/>
     </row>
     <row r="25" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A25" s="37"/>
       <c r="B25" s="38">
-        <v>3.1</v>
-      </c>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="E25" s="40"/>
-      <c r="F25" s="40"/>
+        <v>2.6</v>
+      </c>
+      <c r="C25" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" s="81" t="s">
+        <v>62</v>
+      </c>
+      <c r="E25" s="40">
+        <v>885055</v>
+      </c>
+      <c r="F25" s="40">
+        <v>885059</v>
+      </c>
       <c r="G25" s="41">
+        <v>5</v>
+      </c>
+      <c r="H25" s="61">
         <v>0</v>
       </c>
-      <c r="H25" s="42">
-        <v>0</v>
-      </c>
-      <c r="I25" s="43"/>
-      <c r="J25" s="44"/>
-      <c r="K25" s="45"/>
-      <c r="L25" s="45"/>
-      <c r="M25" s="45"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="53"/>
+      <c r="K25" s="54"/>
+      <c r="L25" s="54"/>
+      <c r="M25" s="54"/>
       <c r="N25" s="55"/>
       <c r="O25" s="55"/>
       <c r="P25" s="55"/>
       <c r="Q25" s="55"/>
       <c r="R25" s="55"/>
-      <c r="S25" s="45"/>
-      <c r="T25" s="45"/>
-      <c r="U25" s="45"/>
-      <c r="V25" s="45"/>
-      <c r="W25" s="45"/>
-      <c r="X25" s="45"/>
-      <c r="Y25" s="45"/>
-      <c r="Z25" s="45"/>
-      <c r="AA25" s="45"/>
-      <c r="AB25" s="45"/>
-      <c r="AC25" s="48"/>
-      <c r="AD25" s="48"/>
-      <c r="AE25" s="48"/>
-      <c r="AF25" s="48"/>
-      <c r="AG25" s="48"/>
-      <c r="AH25" s="45"/>
-      <c r="AI25" s="45"/>
-      <c r="AJ25" s="45"/>
-      <c r="AK25" s="45"/>
-      <c r="AL25" s="45"/>
-      <c r="AM25" s="45"/>
-      <c r="AN25" s="45"/>
-      <c r="AO25" s="45"/>
-      <c r="AP25" s="45"/>
-      <c r="AQ25" s="45"/>
-      <c r="AR25" s="49"/>
-      <c r="AS25" s="49"/>
-      <c r="AT25" s="49"/>
-      <c r="AU25" s="49"/>
-      <c r="AV25" s="49"/>
-      <c r="AW25" s="45"/>
-      <c r="AX25" s="45"/>
-      <c r="AY25" s="45"/>
-      <c r="AZ25" s="45"/>
-      <c r="BA25" s="45"/>
-      <c r="BB25" s="45"/>
-      <c r="BC25" s="45"/>
-      <c r="BD25" s="45"/>
-      <c r="BE25" s="45"/>
-      <c r="BF25" s="45"/>
-      <c r="BG25" s="50"/>
-      <c r="BH25" s="50"/>
-      <c r="BI25" s="50"/>
-      <c r="BJ25" s="50"/>
-      <c r="BK25" s="50"/>
-      <c r="BL25" s="45"/>
-      <c r="BM25" s="45"/>
-      <c r="BN25" s="45"/>
-      <c r="BO25" s="45"/>
-      <c r="BP25" s="51"/>
+      <c r="S25" s="54"/>
+      <c r="T25" s="54"/>
+      <c r="U25" s="54"/>
+      <c r="V25" s="54"/>
+      <c r="W25" s="54"/>
+      <c r="X25" s="54"/>
+      <c r="Y25" s="54"/>
+      <c r="Z25" s="54"/>
+      <c r="AA25" s="54"/>
+      <c r="AB25" s="54"/>
+      <c r="AC25" s="57"/>
+      <c r="AD25" s="57"/>
+      <c r="AE25" s="57"/>
+      <c r="AF25" s="57"/>
+      <c r="AG25" s="57"/>
+      <c r="AH25" s="54"/>
+      <c r="AI25" s="54"/>
+      <c r="AJ25" s="54"/>
+      <c r="AK25" s="54"/>
+      <c r="AL25" s="54"/>
+      <c r="AM25" s="54"/>
+      <c r="AN25" s="54"/>
+      <c r="AO25" s="54"/>
+      <c r="AP25" s="54"/>
+      <c r="AQ25" s="54"/>
+      <c r="AR25" s="58"/>
+      <c r="AS25" s="58"/>
+      <c r="AT25" s="58"/>
+      <c r="AU25" s="58"/>
+      <c r="AV25" s="58"/>
+      <c r="AW25" s="54"/>
+      <c r="AX25" s="54"/>
+      <c r="AY25" s="54"/>
+      <c r="AZ25" s="54"/>
+      <c r="BA25" s="54"/>
+      <c r="BB25" s="54"/>
+      <c r="BC25" s="54"/>
+      <c r="BD25" s="54"/>
+      <c r="BE25" s="54"/>
+      <c r="BF25" s="54"/>
+      <c r="BG25" s="59"/>
+      <c r="BH25" s="59"/>
+      <c r="BI25" s="59"/>
+      <c r="BJ25" s="59"/>
+      <c r="BK25" s="59"/>
+      <c r="BL25" s="54"/>
+      <c r="BM25" s="54"/>
+      <c r="BN25" s="54"/>
+      <c r="BO25" s="54"/>
+      <c r="BP25" s="60"/>
       <c r="BQ25" s="37"/>
     </row>
-    <row r="26" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="26" spans="1:69" ht="30" customHeight="1" outlineLevel="1">
       <c r="A26" s="37"/>
       <c r="B26" s="38">
-        <v>3.2</v>
-      </c>
-      <c r="C26" s="39"/>
-      <c r="D26" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="E26" s="40"/>
-      <c r="F26" s="40"/>
+        <v>2.7</v>
+      </c>
+      <c r="C26" s="111" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" s="81" t="s">
+        <v>61</v>
+      </c>
+      <c r="E26" s="40">
+        <v>885055</v>
+      </c>
+      <c r="F26" s="40">
+        <v>885059</v>
+      </c>
       <c r="G26" s="41">
-        <v>0</v>
-      </c>
-      <c r="H26" s="42">
+        <v>5</v>
+      </c>
+      <c r="H26" s="61">
         <v>0</v>
       </c>
       <c r="I26" s="52"/>
@@ -4045,91 +4239,89 @@
       <c r="BP26" s="60"/>
       <c r="BQ26" s="37"/>
     </row>
-    <row r="27" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A27" s="37"/>
-      <c r="B27" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="E27" s="40"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="41">
-        <v>0</v>
-      </c>
-      <c r="H27" s="42">
-        <v>0</v>
-      </c>
-      <c r="I27" s="52"/>
-      <c r="J27" s="53"/>
-      <c r="K27" s="54"/>
-      <c r="L27" s="54"/>
-      <c r="M27" s="54"/>
-      <c r="N27" s="55"/>
-      <c r="O27" s="55"/>
-      <c r="P27" s="55"/>
-      <c r="Q27" s="55"/>
-      <c r="R27" s="55"/>
-      <c r="S27" s="45"/>
-      <c r="T27" s="45"/>
-      <c r="U27" s="45"/>
-      <c r="V27" s="45"/>
-      <c r="W27" s="54"/>
-      <c r="X27" s="54"/>
-      <c r="Y27" s="54"/>
-      <c r="Z27" s="54"/>
-      <c r="AA27" s="54"/>
-      <c r="AB27" s="54"/>
-      <c r="AC27" s="57"/>
-      <c r="AD27" s="57"/>
-      <c r="AE27" s="57"/>
-      <c r="AF27" s="57"/>
-      <c r="AG27" s="57"/>
-      <c r="AH27" s="54"/>
-      <c r="AI27" s="54"/>
-      <c r="AJ27" s="54"/>
-      <c r="AK27" s="54"/>
-      <c r="AL27" s="54"/>
-      <c r="AM27" s="54"/>
-      <c r="AN27" s="54"/>
-      <c r="AO27" s="54"/>
-      <c r="AP27" s="54"/>
-      <c r="AQ27" s="54"/>
-      <c r="AR27" s="58"/>
-      <c r="AS27" s="58"/>
-      <c r="AT27" s="58"/>
-      <c r="AU27" s="58"/>
-      <c r="AV27" s="58"/>
-      <c r="AW27" s="54"/>
-      <c r="AX27" s="54"/>
-      <c r="AY27" s="54"/>
-      <c r="AZ27" s="54"/>
-      <c r="BA27" s="54"/>
-      <c r="BB27" s="54"/>
-      <c r="BC27" s="54"/>
-      <c r="BD27" s="54"/>
-      <c r="BE27" s="54"/>
-      <c r="BF27" s="54"/>
-      <c r="BG27" s="59"/>
-      <c r="BH27" s="59"/>
-      <c r="BI27" s="59"/>
-      <c r="BJ27" s="59"/>
-      <c r="BK27" s="59"/>
-      <c r="BL27" s="54"/>
-      <c r="BM27" s="54"/>
-      <c r="BN27" s="54"/>
-      <c r="BO27" s="54"/>
-      <c r="BP27" s="60"/>
-      <c r="BQ27" s="37"/>
+    <row r="27" spans="1:69" ht="21" customHeight="1">
+      <c r="A27" s="21"/>
+      <c r="B27" s="31">
+        <v>3</v>
+      </c>
+      <c r="C27" s="86" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="36"/>
+      <c r="M27" s="34"/>
+      <c r="N27" s="34"/>
+      <c r="O27" s="34"/>
+      <c r="P27" s="34"/>
+      <c r="Q27" s="34"/>
+      <c r="R27" s="34"/>
+      <c r="S27" s="34"/>
+      <c r="T27" s="34"/>
+      <c r="U27" s="34"/>
+      <c r="V27" s="34"/>
+      <c r="W27" s="34"/>
+      <c r="X27" s="34"/>
+      <c r="Y27" s="34"/>
+      <c r="Z27" s="34"/>
+      <c r="AA27" s="34"/>
+      <c r="AB27" s="34"/>
+      <c r="AC27" s="34"/>
+      <c r="AD27" s="34"/>
+      <c r="AE27" s="34"/>
+      <c r="AF27" s="34"/>
+      <c r="AG27" s="34"/>
+      <c r="AH27" s="34"/>
+      <c r="AI27" s="34"/>
+      <c r="AJ27" s="34"/>
+      <c r="AK27" s="34"/>
+      <c r="AL27" s="34"/>
+      <c r="AM27" s="34"/>
+      <c r="AN27" s="34"/>
+      <c r="AO27" s="34"/>
+      <c r="AP27" s="34"/>
+      <c r="AQ27" s="34"/>
+      <c r="AR27" s="34"/>
+      <c r="AS27" s="34"/>
+      <c r="AT27" s="34"/>
+      <c r="AU27" s="34"/>
+      <c r="AV27" s="34"/>
+      <c r="AW27" s="34"/>
+      <c r="AX27" s="34"/>
+      <c r="AY27" s="34"/>
+      <c r="AZ27" s="34"/>
+      <c r="BA27" s="34"/>
+      <c r="BB27" s="34"/>
+      <c r="BC27" s="34"/>
+      <c r="BD27" s="34"/>
+      <c r="BE27" s="34"/>
+      <c r="BF27" s="34"/>
+      <c r="BG27" s="34"/>
+      <c r="BH27" s="34"/>
+      <c r="BI27" s="34"/>
+      <c r="BJ27" s="34"/>
+      <c r="BK27" s="34"/>
+      <c r="BL27" s="34"/>
+      <c r="BM27" s="34"/>
+      <c r="BN27" s="34"/>
+      <c r="BO27" s="34"/>
+      <c r="BP27" s="34"/>
+      <c r="BQ27" s="21"/>
     </row>
     <row r="28" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A28" s="37"/>
-      <c r="B28" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="C28" s="39"/>
+      <c r="B28" s="38">
+        <v>3.1</v>
+      </c>
+      <c r="C28" s="111" t="s">
+        <v>67</v>
+      </c>
       <c r="D28" s="39" t="s">
         <v>35</v>
       </c>
@@ -4138,14 +4330,14 @@
       <c r="G28" s="41">
         <v>0</v>
       </c>
-      <c r="H28" s="61">
+      <c r="H28" s="42">
         <v>0</v>
       </c>
-      <c r="I28" s="52"/>
-      <c r="J28" s="53"/>
-      <c r="K28" s="54"/>
-      <c r="L28" s="54"/>
-      <c r="M28" s="54"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="44"/>
+      <c r="K28" s="45"/>
+      <c r="L28" s="45"/>
+      <c r="M28" s="45"/>
       <c r="N28" s="55"/>
       <c r="O28" s="55"/>
       <c r="P28" s="55"/>
@@ -4155,58 +4347,58 @@
       <c r="T28" s="45"/>
       <c r="U28" s="45"/>
       <c r="V28" s="45"/>
-      <c r="W28" s="54"/>
-      <c r="X28" s="54"/>
-      <c r="Y28" s="54"/>
-      <c r="Z28" s="54"/>
-      <c r="AA28" s="54"/>
-      <c r="AB28" s="54"/>
-      <c r="AC28" s="57"/>
-      <c r="AD28" s="57"/>
-      <c r="AE28" s="57"/>
-      <c r="AF28" s="57"/>
-      <c r="AG28" s="57"/>
-      <c r="AH28" s="54"/>
-      <c r="AI28" s="54"/>
-      <c r="AJ28" s="54"/>
-      <c r="AK28" s="54"/>
-      <c r="AL28" s="54"/>
-      <c r="AM28" s="54"/>
-      <c r="AN28" s="54"/>
-      <c r="AO28" s="54"/>
-      <c r="AP28" s="54"/>
-      <c r="AQ28" s="54"/>
-      <c r="AR28" s="58"/>
-      <c r="AS28" s="58"/>
-      <c r="AT28" s="58"/>
-      <c r="AU28" s="58"/>
-      <c r="AV28" s="58"/>
-      <c r="AW28" s="54"/>
-      <c r="AX28" s="54"/>
-      <c r="AY28" s="54"/>
-      <c r="AZ28" s="54"/>
-      <c r="BA28" s="54"/>
-      <c r="BB28" s="54"/>
-      <c r="BC28" s="54"/>
-      <c r="BD28" s="54"/>
-      <c r="BE28" s="54"/>
-      <c r="BF28" s="54"/>
-      <c r="BG28" s="59"/>
-      <c r="BH28" s="59"/>
-      <c r="BI28" s="59"/>
-      <c r="BJ28" s="59"/>
-      <c r="BK28" s="59"/>
-      <c r="BL28" s="54"/>
-      <c r="BM28" s="54"/>
-      <c r="BN28" s="54"/>
-      <c r="BO28" s="54"/>
-      <c r="BP28" s="60"/>
+      <c r="W28" s="45"/>
+      <c r="X28" s="45"/>
+      <c r="Y28" s="45"/>
+      <c r="Z28" s="45"/>
+      <c r="AA28" s="45"/>
+      <c r="AB28" s="45"/>
+      <c r="AC28" s="48"/>
+      <c r="AD28" s="48"/>
+      <c r="AE28" s="48"/>
+      <c r="AF28" s="48"/>
+      <c r="AG28" s="48"/>
+      <c r="AH28" s="45"/>
+      <c r="AI28" s="45"/>
+      <c r="AJ28" s="45"/>
+      <c r="AK28" s="45"/>
+      <c r="AL28" s="45"/>
+      <c r="AM28" s="45"/>
+      <c r="AN28" s="45"/>
+      <c r="AO28" s="45"/>
+      <c r="AP28" s="45"/>
+      <c r="AQ28" s="45"/>
+      <c r="AR28" s="49"/>
+      <c r="AS28" s="49"/>
+      <c r="AT28" s="49"/>
+      <c r="AU28" s="49"/>
+      <c r="AV28" s="49"/>
+      <c r="AW28" s="45"/>
+      <c r="AX28" s="45"/>
+      <c r="AY28" s="45"/>
+      <c r="AZ28" s="45"/>
+      <c r="BA28" s="45"/>
+      <c r="BB28" s="45"/>
+      <c r="BC28" s="45"/>
+      <c r="BD28" s="45"/>
+      <c r="BE28" s="45"/>
+      <c r="BF28" s="45"/>
+      <c r="BG28" s="50"/>
+      <c r="BH28" s="50"/>
+      <c r="BI28" s="50"/>
+      <c r="BJ28" s="50"/>
+      <c r="BK28" s="50"/>
+      <c r="BL28" s="45"/>
+      <c r="BM28" s="45"/>
+      <c r="BN28" s="45"/>
+      <c r="BO28" s="45"/>
+      <c r="BP28" s="51"/>
       <c r="BQ28" s="37"/>
     </row>
     <row r="29" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A29" s="37"/>
       <c r="B29" s="38">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="C29" s="39"/>
       <c r="D29" s="39" t="s">
@@ -4230,10 +4422,10 @@
       <c r="P29" s="55"/>
       <c r="Q29" s="55"/>
       <c r="R29" s="55"/>
-      <c r="S29" s="45"/>
-      <c r="T29" s="45"/>
-      <c r="U29" s="45"/>
-      <c r="V29" s="45"/>
+      <c r="S29" s="54"/>
+      <c r="T29" s="54"/>
+      <c r="U29" s="54"/>
+      <c r="V29" s="54"/>
       <c r="W29" s="54"/>
       <c r="X29" s="54"/>
       <c r="Y29" s="54"/>
@@ -4285,7 +4477,7 @@
     <row r="30" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A30" s="37"/>
       <c r="B30" s="38" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C30" s="39"/>
       <c r="D30" s="39" t="s">
@@ -4361,83 +4553,89 @@
       <c r="BP30" s="60"/>
       <c r="BQ30" s="37"/>
     </row>
-    <row r="31" spans="1:69" ht="21" customHeight="1">
-      <c r="A31" s="21"/>
-      <c r="B31" s="31">
-        <v>4</v>
-      </c>
-      <c r="C31" s="32"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="33"/>
-      <c r="I31" s="34"/>
-      <c r="J31" s="35"/>
-      <c r="K31" s="36"/>
-      <c r="L31" s="36"/>
-      <c r="M31" s="34"/>
-      <c r="N31" s="34"/>
-      <c r="O31" s="34"/>
-      <c r="P31" s="34"/>
-      <c r="Q31" s="34"/>
-      <c r="R31" s="34"/>
-      <c r="S31" s="34"/>
-      <c r="T31" s="34"/>
-      <c r="U31" s="34"/>
-      <c r="V31" s="34"/>
-      <c r="W31" s="34"/>
-      <c r="X31" s="34"/>
-      <c r="Y31" s="34"/>
-      <c r="Z31" s="34"/>
-      <c r="AA31" s="34"/>
-      <c r="AB31" s="34"/>
-      <c r="AC31" s="34"/>
-      <c r="AD31" s="34"/>
-      <c r="AE31" s="34"/>
-      <c r="AF31" s="34"/>
-      <c r="AG31" s="34"/>
-      <c r="AH31" s="34"/>
-      <c r="AI31" s="34"/>
-      <c r="AJ31" s="34"/>
-      <c r="AK31" s="34"/>
-      <c r="AL31" s="34"/>
-      <c r="AM31" s="34"/>
-      <c r="AN31" s="34"/>
-      <c r="AO31" s="34"/>
-      <c r="AP31" s="34"/>
-      <c r="AQ31" s="34"/>
-      <c r="AR31" s="34"/>
-      <c r="AS31" s="34"/>
-      <c r="AT31" s="34"/>
-      <c r="AU31" s="34"/>
-      <c r="AV31" s="34"/>
-      <c r="AW31" s="34"/>
-      <c r="AX31" s="34"/>
-      <c r="AY31" s="34"/>
-      <c r="AZ31" s="34"/>
-      <c r="BA31" s="34"/>
-      <c r="BB31" s="34"/>
-      <c r="BC31" s="34"/>
-      <c r="BD31" s="34"/>
-      <c r="BE31" s="34"/>
-      <c r="BF31" s="34"/>
-      <c r="BG31" s="34"/>
-      <c r="BH31" s="34"/>
-      <c r="BI31" s="34"/>
-      <c r="BJ31" s="34"/>
-      <c r="BK31" s="34"/>
-      <c r="BL31" s="34"/>
-      <c r="BM31" s="34"/>
-      <c r="BN31" s="34"/>
-      <c r="BO31" s="34"/>
-      <c r="BP31" s="34"/>
-      <c r="BQ31" s="21"/>
+    <row r="31" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A31" s="37"/>
+      <c r="B31" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" s="39"/>
+      <c r="D31" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="41">
+        <v>0</v>
+      </c>
+      <c r="H31" s="61">
+        <v>0</v>
+      </c>
+      <c r="I31" s="52"/>
+      <c r="J31" s="53"/>
+      <c r="K31" s="54"/>
+      <c r="L31" s="54"/>
+      <c r="M31" s="54"/>
+      <c r="N31" s="55"/>
+      <c r="O31" s="55"/>
+      <c r="P31" s="55"/>
+      <c r="Q31" s="55"/>
+      <c r="R31" s="55"/>
+      <c r="S31" s="45"/>
+      <c r="T31" s="45"/>
+      <c r="U31" s="45"/>
+      <c r="V31" s="45"/>
+      <c r="W31" s="54"/>
+      <c r="X31" s="54"/>
+      <c r="Y31" s="54"/>
+      <c r="Z31" s="54"/>
+      <c r="AA31" s="54"/>
+      <c r="AB31" s="54"/>
+      <c r="AC31" s="57"/>
+      <c r="AD31" s="57"/>
+      <c r="AE31" s="57"/>
+      <c r="AF31" s="57"/>
+      <c r="AG31" s="57"/>
+      <c r="AH31" s="54"/>
+      <c r="AI31" s="54"/>
+      <c r="AJ31" s="54"/>
+      <c r="AK31" s="54"/>
+      <c r="AL31" s="54"/>
+      <c r="AM31" s="54"/>
+      <c r="AN31" s="54"/>
+      <c r="AO31" s="54"/>
+      <c r="AP31" s="54"/>
+      <c r="AQ31" s="54"/>
+      <c r="AR31" s="58"/>
+      <c r="AS31" s="58"/>
+      <c r="AT31" s="58"/>
+      <c r="AU31" s="58"/>
+      <c r="AV31" s="58"/>
+      <c r="AW31" s="54"/>
+      <c r="AX31" s="54"/>
+      <c r="AY31" s="54"/>
+      <c r="AZ31" s="54"/>
+      <c r="BA31" s="54"/>
+      <c r="BB31" s="54"/>
+      <c r="BC31" s="54"/>
+      <c r="BD31" s="54"/>
+      <c r="BE31" s="54"/>
+      <c r="BF31" s="54"/>
+      <c r="BG31" s="59"/>
+      <c r="BH31" s="59"/>
+      <c r="BI31" s="59"/>
+      <c r="BJ31" s="59"/>
+      <c r="BK31" s="59"/>
+      <c r="BL31" s="54"/>
+      <c r="BM31" s="54"/>
+      <c r="BN31" s="54"/>
+      <c r="BO31" s="54"/>
+      <c r="BP31" s="60"/>
+      <c r="BQ31" s="37"/>
     </row>
     <row r="32" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A32" s="37"/>
       <c r="B32" s="38">
-        <v>4.0999999999999996</v>
+        <v>3.3</v>
       </c>
       <c r="C32" s="39"/>
       <c r="D32" s="39" t="s">
@@ -4451,72 +4649,72 @@
       <c r="H32" s="42">
         <v>0</v>
       </c>
-      <c r="I32" s="43"/>
-      <c r="J32" s="44"/>
-      <c r="K32" s="45"/>
-      <c r="L32" s="45"/>
-      <c r="M32" s="45"/>
-      <c r="N32" s="47"/>
-      <c r="O32" s="47"/>
-      <c r="P32" s="47"/>
-      <c r="Q32" s="47"/>
-      <c r="R32" s="47"/>
+      <c r="I32" s="52"/>
+      <c r="J32" s="53"/>
+      <c r="K32" s="54"/>
+      <c r="L32" s="54"/>
+      <c r="M32" s="54"/>
+      <c r="N32" s="55"/>
+      <c r="O32" s="55"/>
+      <c r="P32" s="55"/>
+      <c r="Q32" s="55"/>
+      <c r="R32" s="55"/>
       <c r="S32" s="45"/>
       <c r="T32" s="45"/>
       <c r="U32" s="45"/>
       <c r="V32" s="45"/>
-      <c r="W32" s="45"/>
-      <c r="X32" s="45"/>
-      <c r="Y32" s="45"/>
-      <c r="Z32" s="45"/>
-      <c r="AA32" s="45"/>
-      <c r="AB32" s="45"/>
-      <c r="AC32" s="48"/>
-      <c r="AD32" s="48"/>
-      <c r="AE32" s="48"/>
-      <c r="AF32" s="48"/>
-      <c r="AG32" s="48"/>
-      <c r="AH32" s="45"/>
-      <c r="AI32" s="45"/>
-      <c r="AJ32" s="45"/>
-      <c r="AK32" s="45"/>
-      <c r="AL32" s="45"/>
-      <c r="AM32" s="45"/>
-      <c r="AN32" s="45"/>
-      <c r="AO32" s="45"/>
-      <c r="AP32" s="45"/>
-      <c r="AQ32" s="45"/>
-      <c r="AR32" s="49"/>
-      <c r="AS32" s="49"/>
-      <c r="AT32" s="49"/>
-      <c r="AU32" s="49"/>
-      <c r="AV32" s="49"/>
-      <c r="AW32" s="45"/>
-      <c r="AX32" s="45"/>
-      <c r="AY32" s="45"/>
-      <c r="AZ32" s="45"/>
-      <c r="BA32" s="45"/>
-      <c r="BB32" s="45"/>
-      <c r="BC32" s="45"/>
-      <c r="BD32" s="45"/>
-      <c r="BE32" s="45"/>
-      <c r="BF32" s="45"/>
-      <c r="BG32" s="50"/>
-      <c r="BH32" s="50"/>
-      <c r="BI32" s="50"/>
-      <c r="BJ32" s="50"/>
-      <c r="BK32" s="50"/>
-      <c r="BL32" s="45"/>
-      <c r="BM32" s="45"/>
-      <c r="BN32" s="45"/>
-      <c r="BO32" s="45"/>
-      <c r="BP32" s="51"/>
+      <c r="W32" s="54"/>
+      <c r="X32" s="54"/>
+      <c r="Y32" s="54"/>
+      <c r="Z32" s="54"/>
+      <c r="AA32" s="54"/>
+      <c r="AB32" s="54"/>
+      <c r="AC32" s="57"/>
+      <c r="AD32" s="57"/>
+      <c r="AE32" s="57"/>
+      <c r="AF32" s="57"/>
+      <c r="AG32" s="57"/>
+      <c r="AH32" s="54"/>
+      <c r="AI32" s="54"/>
+      <c r="AJ32" s="54"/>
+      <c r="AK32" s="54"/>
+      <c r="AL32" s="54"/>
+      <c r="AM32" s="54"/>
+      <c r="AN32" s="54"/>
+      <c r="AO32" s="54"/>
+      <c r="AP32" s="54"/>
+      <c r="AQ32" s="54"/>
+      <c r="AR32" s="58"/>
+      <c r="AS32" s="58"/>
+      <c r="AT32" s="58"/>
+      <c r="AU32" s="58"/>
+      <c r="AV32" s="58"/>
+      <c r="AW32" s="54"/>
+      <c r="AX32" s="54"/>
+      <c r="AY32" s="54"/>
+      <c r="AZ32" s="54"/>
+      <c r="BA32" s="54"/>
+      <c r="BB32" s="54"/>
+      <c r="BC32" s="54"/>
+      <c r="BD32" s="54"/>
+      <c r="BE32" s="54"/>
+      <c r="BF32" s="54"/>
+      <c r="BG32" s="59"/>
+      <c r="BH32" s="59"/>
+      <c r="BI32" s="59"/>
+      <c r="BJ32" s="59"/>
+      <c r="BK32" s="59"/>
+      <c r="BL32" s="54"/>
+      <c r="BM32" s="54"/>
+      <c r="BN32" s="54"/>
+      <c r="BO32" s="54"/>
+      <c r="BP32" s="60"/>
       <c r="BQ32" s="37"/>
     </row>
     <row r="33" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A33" s="37"/>
-      <c r="B33" s="38">
-        <v>4.2</v>
+      <c r="B33" s="38" t="s">
+        <v>40</v>
       </c>
       <c r="C33" s="39"/>
       <c r="D33" s="39" t="s">
@@ -4535,15 +4733,15 @@
       <c r="K33" s="54"/>
       <c r="L33" s="54"/>
       <c r="M33" s="54"/>
-      <c r="N33" s="47"/>
-      <c r="O33" s="47"/>
-      <c r="P33" s="47"/>
-      <c r="Q33" s="47"/>
-      <c r="R33" s="47"/>
-      <c r="S33" s="54"/>
-      <c r="T33" s="54"/>
-      <c r="U33" s="54"/>
-      <c r="V33" s="54"/>
+      <c r="N33" s="55"/>
+      <c r="O33" s="55"/>
+      <c r="P33" s="55"/>
+      <c r="Q33" s="55"/>
+      <c r="R33" s="55"/>
+      <c r="S33" s="45"/>
+      <c r="T33" s="45"/>
+      <c r="U33" s="45"/>
+      <c r="V33" s="45"/>
       <c r="W33" s="54"/>
       <c r="X33" s="54"/>
       <c r="Y33" s="54"/>
@@ -4592,89 +4790,83 @@
       <c r="BP33" s="60"/>
       <c r="BQ33" s="37"/>
     </row>
-    <row r="34" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A34" s="37"/>
-      <c r="B34" s="38">
-        <v>4.3</v>
-      </c>
-      <c r="C34" s="39"/>
-      <c r="D34" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="E34" s="40"/>
-      <c r="F34" s="40"/>
-      <c r="G34" s="41">
-        <v>0</v>
-      </c>
-      <c r="H34" s="42">
-        <v>0</v>
-      </c>
-      <c r="I34" s="52"/>
-      <c r="J34" s="53"/>
-      <c r="K34" s="54"/>
-      <c r="L34" s="54"/>
-      <c r="M34" s="54"/>
-      <c r="N34" s="47"/>
-      <c r="O34" s="47"/>
-      <c r="P34" s="47"/>
-      <c r="Q34" s="47"/>
-      <c r="R34" s="47"/>
-      <c r="S34" s="45"/>
-      <c r="T34" s="45"/>
-      <c r="U34" s="45"/>
-      <c r="V34" s="45"/>
-      <c r="W34" s="54"/>
-      <c r="X34" s="54"/>
-      <c r="Y34" s="54"/>
-      <c r="Z34" s="54"/>
-      <c r="AA34" s="54"/>
-      <c r="AB34" s="54"/>
-      <c r="AC34" s="57"/>
-      <c r="AD34" s="57"/>
-      <c r="AE34" s="57"/>
-      <c r="AF34" s="57"/>
-      <c r="AG34" s="57"/>
-      <c r="AH34" s="54"/>
-      <c r="AI34" s="54"/>
-      <c r="AJ34" s="54"/>
-      <c r="AK34" s="54"/>
-      <c r="AL34" s="54"/>
-      <c r="AM34" s="54"/>
-      <c r="AN34" s="54"/>
-      <c r="AO34" s="54"/>
-      <c r="AP34" s="54"/>
-      <c r="AQ34" s="54"/>
-      <c r="AR34" s="58"/>
-      <c r="AS34" s="58"/>
-      <c r="AT34" s="58"/>
-      <c r="AU34" s="58"/>
-      <c r="AV34" s="58"/>
-      <c r="AW34" s="54"/>
-      <c r="AX34" s="54"/>
-      <c r="AY34" s="54"/>
-      <c r="AZ34" s="54"/>
-      <c r="BA34" s="54"/>
-      <c r="BB34" s="54"/>
-      <c r="BC34" s="54"/>
-      <c r="BD34" s="54"/>
-      <c r="BE34" s="54"/>
-      <c r="BF34" s="54"/>
-      <c r="BG34" s="59"/>
-      <c r="BH34" s="59"/>
-      <c r="BI34" s="59"/>
-      <c r="BJ34" s="59"/>
-      <c r="BK34" s="59"/>
-      <c r="BL34" s="54"/>
-      <c r="BM34" s="54"/>
-      <c r="BN34" s="54"/>
-      <c r="BO34" s="54"/>
-      <c r="BP34" s="60"/>
-      <c r="BQ34" s="37"/>
+    <row r="34" spans="1:69" ht="21" customHeight="1">
+      <c r="A34" s="21"/>
+      <c r="B34" s="31">
+        <v>4</v>
+      </c>
+      <c r="C34" s="32"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="33"/>
+      <c r="I34" s="34"/>
+      <c r="J34" s="35"/>
+      <c r="K34" s="36"/>
+      <c r="L34" s="36"/>
+      <c r="M34" s="34"/>
+      <c r="N34" s="34"/>
+      <c r="O34" s="34"/>
+      <c r="P34" s="34"/>
+      <c r="Q34" s="34"/>
+      <c r="R34" s="34"/>
+      <c r="S34" s="34"/>
+      <c r="T34" s="34"/>
+      <c r="U34" s="34"/>
+      <c r="V34" s="34"/>
+      <c r="W34" s="34"/>
+      <c r="X34" s="34"/>
+      <c r="Y34" s="34"/>
+      <c r="Z34" s="34"/>
+      <c r="AA34" s="34"/>
+      <c r="AB34" s="34"/>
+      <c r="AC34" s="34"/>
+      <c r="AD34" s="34"/>
+      <c r="AE34" s="34"/>
+      <c r="AF34" s="34"/>
+      <c r="AG34" s="34"/>
+      <c r="AH34" s="34"/>
+      <c r="AI34" s="34"/>
+      <c r="AJ34" s="34"/>
+      <c r="AK34" s="34"/>
+      <c r="AL34" s="34"/>
+      <c r="AM34" s="34"/>
+      <c r="AN34" s="34"/>
+      <c r="AO34" s="34"/>
+      <c r="AP34" s="34"/>
+      <c r="AQ34" s="34"/>
+      <c r="AR34" s="34"/>
+      <c r="AS34" s="34"/>
+      <c r="AT34" s="34"/>
+      <c r="AU34" s="34"/>
+      <c r="AV34" s="34"/>
+      <c r="AW34" s="34"/>
+      <c r="AX34" s="34"/>
+      <c r="AY34" s="34"/>
+      <c r="AZ34" s="34"/>
+      <c r="BA34" s="34"/>
+      <c r="BB34" s="34"/>
+      <c r="BC34" s="34"/>
+      <c r="BD34" s="34"/>
+      <c r="BE34" s="34"/>
+      <c r="BF34" s="34"/>
+      <c r="BG34" s="34"/>
+      <c r="BH34" s="34"/>
+      <c r="BI34" s="34"/>
+      <c r="BJ34" s="34"/>
+      <c r="BK34" s="34"/>
+      <c r="BL34" s="34"/>
+      <c r="BM34" s="34"/>
+      <c r="BN34" s="34"/>
+      <c r="BO34" s="34"/>
+      <c r="BP34" s="34"/>
+      <c r="BQ34" s="21"/>
     </row>
     <row r="35" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A35" s="37"/>
       <c r="B35" s="38">
-        <v>4.4000000000000004</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C35" s="39"/>
       <c r="D35" s="39" t="s">
@@ -4685,14 +4877,14 @@
       <c r="G35" s="41">
         <v>0</v>
       </c>
-      <c r="H35" s="61">
+      <c r="H35" s="42">
         <v>0</v>
       </c>
-      <c r="I35" s="52"/>
-      <c r="J35" s="53"/>
-      <c r="K35" s="54"/>
-      <c r="L35" s="54"/>
-      <c r="M35" s="54"/>
+      <c r="I35" s="43"/>
+      <c r="J35" s="44"/>
+      <c r="K35" s="45"/>
+      <c r="L35" s="45"/>
+      <c r="M35" s="45"/>
       <c r="N35" s="47"/>
       <c r="O35" s="47"/>
       <c r="P35" s="47"/>
@@ -4702,266 +4894,503 @@
       <c r="T35" s="45"/>
       <c r="U35" s="45"/>
       <c r="V35" s="45"/>
-      <c r="W35" s="54"/>
-      <c r="X35" s="54"/>
-      <c r="Y35" s="54"/>
-      <c r="Z35" s="54"/>
-      <c r="AA35" s="54"/>
-      <c r="AB35" s="54"/>
-      <c r="AC35" s="57"/>
-      <c r="AD35" s="57"/>
-      <c r="AE35" s="57"/>
-      <c r="AF35" s="57"/>
-      <c r="AG35" s="57"/>
-      <c r="AH35" s="54"/>
-      <c r="AI35" s="54"/>
-      <c r="AJ35" s="54"/>
-      <c r="AK35" s="54"/>
-      <c r="AL35" s="54"/>
-      <c r="AM35" s="54"/>
-      <c r="AN35" s="54"/>
-      <c r="AO35" s="54"/>
-      <c r="AP35" s="54"/>
-      <c r="AQ35" s="54"/>
-      <c r="AR35" s="58"/>
-      <c r="AS35" s="58"/>
-      <c r="AT35" s="58"/>
-      <c r="AU35" s="58"/>
-      <c r="AV35" s="58"/>
-      <c r="AW35" s="54"/>
-      <c r="AX35" s="54"/>
-      <c r="AY35" s="54"/>
-      <c r="AZ35" s="54"/>
-      <c r="BA35" s="54"/>
-      <c r="BB35" s="54"/>
-      <c r="BC35" s="54"/>
-      <c r="BD35" s="54"/>
-      <c r="BE35" s="54"/>
-      <c r="BF35" s="54"/>
-      <c r="BG35" s="59"/>
-      <c r="BH35" s="59"/>
-      <c r="BI35" s="59"/>
-      <c r="BJ35" s="59"/>
-      <c r="BK35" s="59"/>
-      <c r="BL35" s="54"/>
-      <c r="BM35" s="54"/>
-      <c r="BN35" s="54"/>
-      <c r="BO35" s="54"/>
-      <c r="BP35" s="60"/>
+      <c r="W35" s="45"/>
+      <c r="X35" s="45"/>
+      <c r="Y35" s="45"/>
+      <c r="Z35" s="45"/>
+      <c r="AA35" s="45"/>
+      <c r="AB35" s="45"/>
+      <c r="AC35" s="48"/>
+      <c r="AD35" s="48"/>
+      <c r="AE35" s="48"/>
+      <c r="AF35" s="48"/>
+      <c r="AG35" s="48"/>
+      <c r="AH35" s="45"/>
+      <c r="AI35" s="45"/>
+      <c r="AJ35" s="45"/>
+      <c r="AK35" s="45"/>
+      <c r="AL35" s="45"/>
+      <c r="AM35" s="45"/>
+      <c r="AN35" s="45"/>
+      <c r="AO35" s="45"/>
+      <c r="AP35" s="45"/>
+      <c r="AQ35" s="45"/>
+      <c r="AR35" s="49"/>
+      <c r="AS35" s="49"/>
+      <c r="AT35" s="49"/>
+      <c r="AU35" s="49"/>
+      <c r="AV35" s="49"/>
+      <c r="AW35" s="45"/>
+      <c r="AX35" s="45"/>
+      <c r="AY35" s="45"/>
+      <c r="AZ35" s="45"/>
+      <c r="BA35" s="45"/>
+      <c r="BB35" s="45"/>
+      <c r="BC35" s="45"/>
+      <c r="BD35" s="45"/>
+      <c r="BE35" s="45"/>
+      <c r="BF35" s="45"/>
+      <c r="BG35" s="50"/>
+      <c r="BH35" s="50"/>
+      <c r="BI35" s="50"/>
+      <c r="BJ35" s="50"/>
+      <c r="BK35" s="50"/>
+      <c r="BL35" s="45"/>
+      <c r="BM35" s="45"/>
+      <c r="BN35" s="45"/>
+      <c r="BO35" s="45"/>
+      <c r="BP35" s="51"/>
       <c r="BQ35" s="37"/>
     </row>
-    <row r="36" spans="1:69" ht="21" customHeight="1">
-      <c r="A36" s="21"/>
-      <c r="B36" s="21"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="77"/>
-      <c r="H36" s="77"/>
-      <c r="I36" s="21"/>
-      <c r="J36" s="21"/>
-      <c r="K36" s="21"/>
-      <c r="L36" s="21"/>
-      <c r="M36" s="21"/>
-      <c r="N36" s="21"/>
-      <c r="O36" s="21"/>
-      <c r="P36" s="21"/>
-      <c r="Q36" s="21"/>
-      <c r="R36" s="21"/>
-      <c r="S36" s="21"/>
-      <c r="T36" s="21"/>
-      <c r="U36" s="21"/>
-      <c r="V36" s="21"/>
-      <c r="W36" s="21"/>
-      <c r="X36" s="21"/>
-      <c r="Y36" s="21"/>
-      <c r="Z36" s="21"/>
-      <c r="AA36" s="21"/>
-      <c r="AB36" s="21"/>
-      <c r="AC36" s="21"/>
-      <c r="AD36" s="21"/>
-      <c r="AE36" s="21"/>
-      <c r="AF36" s="21"/>
-      <c r="AG36" s="21"/>
-      <c r="AH36" s="21"/>
-      <c r="AI36" s="21"/>
-      <c r="AJ36" s="21"/>
-      <c r="AK36" s="21"/>
-      <c r="AL36" s="21"/>
-      <c r="AM36" s="21"/>
-      <c r="AN36" s="21"/>
-      <c r="AO36" s="21"/>
-      <c r="AP36" s="21"/>
-      <c r="AQ36" s="21"/>
-      <c r="AR36" s="21"/>
-      <c r="AS36" s="21"/>
-      <c r="AT36" s="21"/>
-      <c r="AU36" s="21"/>
-      <c r="AV36" s="21"/>
-      <c r="AW36" s="21"/>
-      <c r="AX36" s="21"/>
-      <c r="AY36" s="21"/>
-      <c r="AZ36" s="21"/>
-      <c r="BA36" s="21"/>
-      <c r="BB36" s="21"/>
-      <c r="BC36" s="21"/>
-      <c r="BD36" s="21"/>
-      <c r="BE36" s="21"/>
-      <c r="BF36" s="21"/>
-      <c r="BG36" s="21"/>
-      <c r="BH36" s="21"/>
-      <c r="BI36" s="21"/>
-      <c r="BJ36" s="21"/>
-      <c r="BK36" s="21"/>
-      <c r="BL36" s="21"/>
-      <c r="BM36" s="21"/>
-      <c r="BN36" s="21"/>
-      <c r="BO36" s="21"/>
-      <c r="BP36" s="21"/>
-      <c r="BQ36" s="21"/>
+    <row r="36" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A36" s="37"/>
+      <c r="B36" s="38">
+        <v>4.2</v>
+      </c>
+      <c r="C36" s="39"/>
+      <c r="D36" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="E36" s="40"/>
+      <c r="F36" s="40"/>
+      <c r="G36" s="41">
+        <v>0</v>
+      </c>
+      <c r="H36" s="42">
+        <v>0</v>
+      </c>
+      <c r="I36" s="52"/>
+      <c r="J36" s="53"/>
+      <c r="K36" s="54"/>
+      <c r="L36" s="54"/>
+      <c r="M36" s="54"/>
+      <c r="N36" s="47"/>
+      <c r="O36" s="47"/>
+      <c r="P36" s="47"/>
+      <c r="Q36" s="47"/>
+      <c r="R36" s="47"/>
+      <c r="S36" s="54"/>
+      <c r="T36" s="54"/>
+      <c r="U36" s="54"/>
+      <c r="V36" s="54"/>
+      <c r="W36" s="54"/>
+      <c r="X36" s="54"/>
+      <c r="Y36" s="54"/>
+      <c r="Z36" s="54"/>
+      <c r="AA36" s="54"/>
+      <c r="AB36" s="54"/>
+      <c r="AC36" s="57"/>
+      <c r="AD36" s="57"/>
+      <c r="AE36" s="57"/>
+      <c r="AF36" s="57"/>
+      <c r="AG36" s="57"/>
+      <c r="AH36" s="54"/>
+      <c r="AI36" s="54"/>
+      <c r="AJ36" s="54"/>
+      <c r="AK36" s="54"/>
+      <c r="AL36" s="54"/>
+      <c r="AM36" s="54"/>
+      <c r="AN36" s="54"/>
+      <c r="AO36" s="54"/>
+      <c r="AP36" s="54"/>
+      <c r="AQ36" s="54"/>
+      <c r="AR36" s="58"/>
+      <c r="AS36" s="58"/>
+      <c r="AT36" s="58"/>
+      <c r="AU36" s="58"/>
+      <c r="AV36" s="58"/>
+      <c r="AW36" s="54"/>
+      <c r="AX36" s="54"/>
+      <c r="AY36" s="54"/>
+      <c r="AZ36" s="54"/>
+      <c r="BA36" s="54"/>
+      <c r="BB36" s="54"/>
+      <c r="BC36" s="54"/>
+      <c r="BD36" s="54"/>
+      <c r="BE36" s="54"/>
+      <c r="BF36" s="54"/>
+      <c r="BG36" s="59"/>
+      <c r="BH36" s="59"/>
+      <c r="BI36" s="59"/>
+      <c r="BJ36" s="59"/>
+      <c r="BK36" s="59"/>
+      <c r="BL36" s="54"/>
+      <c r="BM36" s="54"/>
+      <c r="BN36" s="54"/>
+      <c r="BO36" s="54"/>
+      <c r="BP36" s="60"/>
+      <c r="BQ36" s="37"/>
     </row>
-    <row r="37" spans="1:69" ht="21" customHeight="1">
-      <c r="A37" s="21"/>
-      <c r="B37" s="21"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="77"/>
-      <c r="H37" s="77"/>
-      <c r="I37" s="21"/>
-      <c r="J37" s="21"/>
-      <c r="K37" s="21"/>
-      <c r="L37" s="21"/>
-      <c r="M37" s="21"/>
-      <c r="N37" s="21"/>
-      <c r="O37" s="21"/>
-      <c r="P37" s="21"/>
-      <c r="Q37" s="21"/>
-      <c r="R37" s="21"/>
-      <c r="S37" s="21"/>
-      <c r="T37" s="21"/>
-      <c r="U37" s="21"/>
-      <c r="V37" s="21"/>
-      <c r="W37" s="21"/>
-      <c r="X37" s="21"/>
-      <c r="Y37" s="21"/>
-      <c r="Z37" s="21"/>
-      <c r="AA37" s="21"/>
-      <c r="AB37" s="21"/>
-      <c r="AC37" s="21"/>
-      <c r="AD37" s="21"/>
-      <c r="AE37" s="21"/>
-      <c r="AF37" s="21"/>
-      <c r="AG37" s="21"/>
-      <c r="AH37" s="21"/>
-      <c r="AI37" s="21"/>
-      <c r="AJ37" s="21"/>
-      <c r="AK37" s="21"/>
-      <c r="AL37" s="21"/>
-      <c r="AM37" s="21"/>
-      <c r="AN37" s="21"/>
-      <c r="AO37" s="21"/>
-      <c r="AP37" s="21"/>
-      <c r="AQ37" s="21"/>
-      <c r="AR37" s="21"/>
-      <c r="AS37" s="21"/>
-      <c r="AT37" s="21"/>
-      <c r="AU37" s="21"/>
-      <c r="AV37" s="21"/>
-      <c r="AW37" s="21"/>
-      <c r="AX37" s="21"/>
-      <c r="AY37" s="21"/>
-      <c r="AZ37" s="21"/>
-      <c r="BA37" s="21"/>
-      <c r="BB37" s="21"/>
-      <c r="BC37" s="21"/>
-      <c r="BD37" s="21"/>
-      <c r="BE37" s="21"/>
-      <c r="BF37" s="21"/>
-      <c r="BG37" s="21"/>
-      <c r="BH37" s="21"/>
-      <c r="BI37" s="21"/>
-      <c r="BJ37" s="21"/>
-      <c r="BK37" s="21"/>
-      <c r="BL37" s="21"/>
-      <c r="BM37" s="21"/>
-      <c r="BN37" s="21"/>
-      <c r="BO37" s="21"/>
-      <c r="BP37" s="21"/>
-      <c r="BQ37" s="21"/>
+    <row r="37" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A37" s="37"/>
+      <c r="B37" s="38">
+        <v>4.3</v>
+      </c>
+      <c r="C37" s="39"/>
+      <c r="D37" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="E37" s="40"/>
+      <c r="F37" s="40"/>
+      <c r="G37" s="41">
+        <v>0</v>
+      </c>
+      <c r="H37" s="42">
+        <v>0</v>
+      </c>
+      <c r="I37" s="52"/>
+      <c r="J37" s="53"/>
+      <c r="K37" s="54"/>
+      <c r="L37" s="54"/>
+      <c r="M37" s="54"/>
+      <c r="N37" s="47"/>
+      <c r="O37" s="47"/>
+      <c r="P37" s="47"/>
+      <c r="Q37" s="47"/>
+      <c r="R37" s="47"/>
+      <c r="S37" s="45"/>
+      <c r="T37" s="45"/>
+      <c r="U37" s="45"/>
+      <c r="V37" s="45"/>
+      <c r="W37" s="54"/>
+      <c r="X37" s="54"/>
+      <c r="Y37" s="54"/>
+      <c r="Z37" s="54"/>
+      <c r="AA37" s="54"/>
+      <c r="AB37" s="54"/>
+      <c r="AC37" s="57"/>
+      <c r="AD37" s="57"/>
+      <c r="AE37" s="57"/>
+      <c r="AF37" s="57"/>
+      <c r="AG37" s="57"/>
+      <c r="AH37" s="54"/>
+      <c r="AI37" s="54"/>
+      <c r="AJ37" s="54"/>
+      <c r="AK37" s="54"/>
+      <c r="AL37" s="54"/>
+      <c r="AM37" s="54"/>
+      <c r="AN37" s="54"/>
+      <c r="AO37" s="54"/>
+      <c r="AP37" s="54"/>
+      <c r="AQ37" s="54"/>
+      <c r="AR37" s="58"/>
+      <c r="AS37" s="58"/>
+      <c r="AT37" s="58"/>
+      <c r="AU37" s="58"/>
+      <c r="AV37" s="58"/>
+      <c r="AW37" s="54"/>
+      <c r="AX37" s="54"/>
+      <c r="AY37" s="54"/>
+      <c r="AZ37" s="54"/>
+      <c r="BA37" s="54"/>
+      <c r="BB37" s="54"/>
+      <c r="BC37" s="54"/>
+      <c r="BD37" s="54"/>
+      <c r="BE37" s="54"/>
+      <c r="BF37" s="54"/>
+      <c r="BG37" s="59"/>
+      <c r="BH37" s="59"/>
+      <c r="BI37" s="59"/>
+      <c r="BJ37" s="59"/>
+      <c r="BK37" s="59"/>
+      <c r="BL37" s="54"/>
+      <c r="BM37" s="54"/>
+      <c r="BN37" s="54"/>
+      <c r="BO37" s="54"/>
+      <c r="BP37" s="60"/>
+      <c r="BQ37" s="37"/>
     </row>
-    <row r="38" spans="1:69" ht="21" customHeight="1">
-      <c r="A38" s="21"/>
-      <c r="B38" s="21"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="77"/>
-      <c r="H38" s="77"/>
-      <c r="I38" s="21"/>
-      <c r="J38" s="21"/>
-      <c r="K38" s="21"/>
-      <c r="L38" s="21"/>
-      <c r="M38" s="21"/>
-      <c r="N38" s="21"/>
-      <c r="O38" s="21"/>
-      <c r="P38" s="21"/>
-      <c r="Q38" s="21"/>
-      <c r="R38" s="21"/>
-      <c r="S38" s="21"/>
-      <c r="T38" s="21"/>
-      <c r="U38" s="21"/>
-      <c r="V38" s="21"/>
-      <c r="W38" s="21"/>
-      <c r="X38" s="21"/>
-      <c r="Y38" s="21"/>
-      <c r="Z38" s="21"/>
-      <c r="AA38" s="21"/>
-      <c r="AB38" s="21"/>
-      <c r="AC38" s="21"/>
-      <c r="AD38" s="21"/>
-      <c r="AE38" s="21"/>
-      <c r="AF38" s="21"/>
-      <c r="AG38" s="21"/>
-      <c r="AH38" s="21"/>
-      <c r="AI38" s="21"/>
-      <c r="AJ38" s="21"/>
-      <c r="AK38" s="21"/>
-      <c r="AL38" s="21"/>
-      <c r="AM38" s="21"/>
-      <c r="AN38" s="21"/>
-      <c r="AO38" s="21"/>
-      <c r="AP38" s="21"/>
-      <c r="AQ38" s="21"/>
-      <c r="AR38" s="21"/>
-      <c r="AS38" s="21"/>
-      <c r="AT38" s="21"/>
-      <c r="AU38" s="21"/>
-      <c r="AV38" s="21"/>
-      <c r="AW38" s="21"/>
-      <c r="AX38" s="21"/>
-      <c r="AY38" s="21"/>
-      <c r="AZ38" s="21"/>
-      <c r="BA38" s="21"/>
-      <c r="BB38" s="21"/>
-      <c r="BC38" s="21"/>
-      <c r="BD38" s="21"/>
-      <c r="BE38" s="21"/>
-      <c r="BF38" s="21"/>
-      <c r="BG38" s="21"/>
-      <c r="BH38" s="21"/>
-      <c r="BI38" s="21"/>
-      <c r="BJ38" s="21"/>
-      <c r="BK38" s="21"/>
-      <c r="BL38" s="21"/>
-      <c r="BM38" s="21"/>
-      <c r="BN38" s="21"/>
-      <c r="BO38" s="21"/>
-      <c r="BP38" s="21"/>
-      <c r="BQ38" s="21"/>
+    <row r="38" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A38" s="37"/>
+      <c r="B38" s="38">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C38" s="39"/>
+      <c r="D38" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="E38" s="40"/>
+      <c r="F38" s="40"/>
+      <c r="G38" s="41">
+        <v>0</v>
+      </c>
+      <c r="H38" s="61">
+        <v>0</v>
+      </c>
+      <c r="I38" s="52"/>
+      <c r="J38" s="53"/>
+      <c r="K38" s="54"/>
+      <c r="L38" s="54"/>
+      <c r="M38" s="54"/>
+      <c r="N38" s="47"/>
+      <c r="O38" s="47"/>
+      <c r="P38" s="47"/>
+      <c r="Q38" s="47"/>
+      <c r="R38" s="47"/>
+      <c r="S38" s="45"/>
+      <c r="T38" s="45"/>
+      <c r="U38" s="45"/>
+      <c r="V38" s="45"/>
+      <c r="W38" s="54"/>
+      <c r="X38" s="54"/>
+      <c r="Y38" s="54"/>
+      <c r="Z38" s="54"/>
+      <c r="AA38" s="54"/>
+      <c r="AB38" s="54"/>
+      <c r="AC38" s="57"/>
+      <c r="AD38" s="57"/>
+      <c r="AE38" s="57"/>
+      <c r="AF38" s="57"/>
+      <c r="AG38" s="57"/>
+      <c r="AH38" s="54"/>
+      <c r="AI38" s="54"/>
+      <c r="AJ38" s="54"/>
+      <c r="AK38" s="54"/>
+      <c r="AL38" s="54"/>
+      <c r="AM38" s="54"/>
+      <c r="AN38" s="54"/>
+      <c r="AO38" s="54"/>
+      <c r="AP38" s="54"/>
+      <c r="AQ38" s="54"/>
+      <c r="AR38" s="58"/>
+      <c r="AS38" s="58"/>
+      <c r="AT38" s="58"/>
+      <c r="AU38" s="58"/>
+      <c r="AV38" s="58"/>
+      <c r="AW38" s="54"/>
+      <c r="AX38" s="54"/>
+      <c r="AY38" s="54"/>
+      <c r="AZ38" s="54"/>
+      <c r="BA38" s="54"/>
+      <c r="BB38" s="54"/>
+      <c r="BC38" s="54"/>
+      <c r="BD38" s="54"/>
+      <c r="BE38" s="54"/>
+      <c r="BF38" s="54"/>
+      <c r="BG38" s="59"/>
+      <c r="BH38" s="59"/>
+      <c r="BI38" s="59"/>
+      <c r="BJ38" s="59"/>
+      <c r="BK38" s="59"/>
+      <c r="BL38" s="54"/>
+      <c r="BM38" s="54"/>
+      <c r="BN38" s="54"/>
+      <c r="BO38" s="54"/>
+      <c r="BP38" s="60"/>
+      <c r="BQ38" s="37"/>
+    </row>
+    <row r="39" spans="1:69" ht="21" customHeight="1">
+      <c r="A39" s="21"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="77"/>
+      <c r="H39" s="77"/>
+      <c r="I39" s="21"/>
+      <c r="J39" s="21"/>
+      <c r="K39" s="21"/>
+      <c r="L39" s="21"/>
+      <c r="M39" s="21"/>
+      <c r="N39" s="21"/>
+      <c r="O39" s="21"/>
+      <c r="P39" s="21"/>
+      <c r="Q39" s="21"/>
+      <c r="R39" s="21"/>
+      <c r="S39" s="21"/>
+      <c r="T39" s="21"/>
+      <c r="U39" s="21"/>
+      <c r="V39" s="21"/>
+      <c r="W39" s="21"/>
+      <c r="X39" s="21"/>
+      <c r="Y39" s="21"/>
+      <c r="Z39" s="21"/>
+      <c r="AA39" s="21"/>
+      <c r="AB39" s="21"/>
+      <c r="AC39" s="21"/>
+      <c r="AD39" s="21"/>
+      <c r="AE39" s="21"/>
+      <c r="AF39" s="21"/>
+      <c r="AG39" s="21"/>
+      <c r="AH39" s="21"/>
+      <c r="AI39" s="21"/>
+      <c r="AJ39" s="21"/>
+      <c r="AK39" s="21"/>
+      <c r="AL39" s="21"/>
+      <c r="AM39" s="21"/>
+      <c r="AN39" s="21"/>
+      <c r="AO39" s="21"/>
+      <c r="AP39" s="21"/>
+      <c r="AQ39" s="21"/>
+      <c r="AR39" s="21"/>
+      <c r="AS39" s="21"/>
+      <c r="AT39" s="21"/>
+      <c r="AU39" s="21"/>
+      <c r="AV39" s="21"/>
+      <c r="AW39" s="21"/>
+      <c r="AX39" s="21"/>
+      <c r="AY39" s="21"/>
+      <c r="AZ39" s="21"/>
+      <c r="BA39" s="21"/>
+      <c r="BB39" s="21"/>
+      <c r="BC39" s="21"/>
+      <c r="BD39" s="21"/>
+      <c r="BE39" s="21"/>
+      <c r="BF39" s="21"/>
+      <c r="BG39" s="21"/>
+      <c r="BH39" s="21"/>
+      <c r="BI39" s="21"/>
+      <c r="BJ39" s="21"/>
+      <c r="BK39" s="21"/>
+      <c r="BL39" s="21"/>
+      <c r="BM39" s="21"/>
+      <c r="BN39" s="21"/>
+      <c r="BO39" s="21"/>
+      <c r="BP39" s="21"/>
+      <c r="BQ39" s="21"/>
+    </row>
+    <row r="40" spans="1:69" ht="21" customHeight="1">
+      <c r="A40" s="21"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="77"/>
+      <c r="H40" s="77"/>
+      <c r="I40" s="21"/>
+      <c r="J40" s="21"/>
+      <c r="K40" s="21"/>
+      <c r="L40" s="21"/>
+      <c r="M40" s="21"/>
+      <c r="N40" s="21"/>
+      <c r="O40" s="21"/>
+      <c r="P40" s="21"/>
+      <c r="Q40" s="21"/>
+      <c r="R40" s="21"/>
+      <c r="S40" s="21"/>
+      <c r="T40" s="21"/>
+      <c r="U40" s="21"/>
+      <c r="V40" s="21"/>
+      <c r="W40" s="21"/>
+      <c r="X40" s="21"/>
+      <c r="Y40" s="21"/>
+      <c r="Z40" s="21"/>
+      <c r="AA40" s="21"/>
+      <c r="AB40" s="21"/>
+      <c r="AC40" s="21"/>
+      <c r="AD40" s="21"/>
+      <c r="AE40" s="21"/>
+      <c r="AF40" s="21"/>
+      <c r="AG40" s="21"/>
+      <c r="AH40" s="21"/>
+      <c r="AI40" s="21"/>
+      <c r="AJ40" s="21"/>
+      <c r="AK40" s="21"/>
+      <c r="AL40" s="21"/>
+      <c r="AM40" s="21"/>
+      <c r="AN40" s="21"/>
+      <c r="AO40" s="21"/>
+      <c r="AP40" s="21"/>
+      <c r="AQ40" s="21"/>
+      <c r="AR40" s="21"/>
+      <c r="AS40" s="21"/>
+      <c r="AT40" s="21"/>
+      <c r="AU40" s="21"/>
+      <c r="AV40" s="21"/>
+      <c r="AW40" s="21"/>
+      <c r="AX40" s="21"/>
+      <c r="AY40" s="21"/>
+      <c r="AZ40" s="21"/>
+      <c r="BA40" s="21"/>
+      <c r="BB40" s="21"/>
+      <c r="BC40" s="21"/>
+      <c r="BD40" s="21"/>
+      <c r="BE40" s="21"/>
+      <c r="BF40" s="21"/>
+      <c r="BG40" s="21"/>
+      <c r="BH40" s="21"/>
+      <c r="BI40" s="21"/>
+      <c r="BJ40" s="21"/>
+      <c r="BK40" s="21"/>
+      <c r="BL40" s="21"/>
+      <c r="BM40" s="21"/>
+      <c r="BN40" s="21"/>
+      <c r="BO40" s="21"/>
+      <c r="BP40" s="21"/>
+      <c r="BQ40" s="21"/>
+    </row>
+    <row r="41" spans="1:69" ht="21" customHeight="1">
+      <c r="A41" s="21"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="77"/>
+      <c r="H41" s="77"/>
+      <c r="I41" s="21"/>
+      <c r="J41" s="21"/>
+      <c r="K41" s="21"/>
+      <c r="L41" s="21"/>
+      <c r="M41" s="21"/>
+      <c r="N41" s="21"/>
+      <c r="O41" s="21"/>
+      <c r="P41" s="21"/>
+      <c r="Q41" s="21"/>
+      <c r="R41" s="21"/>
+      <c r="S41" s="21"/>
+      <c r="T41" s="21"/>
+      <c r="U41" s="21"/>
+      <c r="V41" s="21"/>
+      <c r="W41" s="21"/>
+      <c r="X41" s="21"/>
+      <c r="Y41" s="21"/>
+      <c r="Z41" s="21"/>
+      <c r="AA41" s="21"/>
+      <c r="AB41" s="21"/>
+      <c r="AC41" s="21"/>
+      <c r="AD41" s="21"/>
+      <c r="AE41" s="21"/>
+      <c r="AF41" s="21"/>
+      <c r="AG41" s="21"/>
+      <c r="AH41" s="21"/>
+      <c r="AI41" s="21"/>
+      <c r="AJ41" s="21"/>
+      <c r="AK41" s="21"/>
+      <c r="AL41" s="21"/>
+      <c r="AM41" s="21"/>
+      <c r="AN41" s="21"/>
+      <c r="AO41" s="21"/>
+      <c r="AP41" s="21"/>
+      <c r="AQ41" s="21"/>
+      <c r="AR41" s="21"/>
+      <c r="AS41" s="21"/>
+      <c r="AT41" s="21"/>
+      <c r="AU41" s="21"/>
+      <c r="AV41" s="21"/>
+      <c r="AW41" s="21"/>
+      <c r="AX41" s="21"/>
+      <c r="AY41" s="21"/>
+      <c r="AZ41" s="21"/>
+      <c r="BA41" s="21"/>
+      <c r="BB41" s="21"/>
+      <c r="BC41" s="21"/>
+      <c r="BD41" s="21"/>
+      <c r="BE41" s="21"/>
+      <c r="BF41" s="21"/>
+      <c r="BG41" s="21"/>
+      <c r="BH41" s="21"/>
+      <c r="BI41" s="21"/>
+      <c r="BJ41" s="21"/>
+      <c r="BK41" s="21"/>
+      <c r="BL41" s="21"/>
+      <c r="BM41" s="21"/>
+      <c r="BN41" s="21"/>
+      <c r="BO41" s="21"/>
+      <c r="BP41" s="21"/>
+      <c r="BQ41" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="34">
@@ -5001,7 +5430,7 @@
     <mergeCell ref="I8:W8"/>
   </mergeCells>
   <phoneticPr fontId="31" type="noConversion"/>
-  <conditionalFormatting sqref="H12:H18 H20:H35">
+  <conditionalFormatting sqref="H12:H18 H20:H38">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -5011,7 +5440,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H12:H18 H20:H35">
+  <conditionalFormatting sqref="H12:H18 H20:H38">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>

--- a/일정/갠트 차트.xlsx
+++ b/일정/갠트 차트.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sanghee\Desktop\develop\2wda_2semester\2WDA_YJSangSa_CapstoneDesign\일정\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29B5D717-2625-4148-9D95-8459E4F1D62F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{477CF2A9-9CEE-453A-8392-C499C8875CF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="77">
   <si>
     <t>갠트 차트 템플릿</t>
   </si>
@@ -151,12 +151,6 @@
   </si>
   <si>
     <t>3.2.1</t>
-  </si>
-  <si>
-    <t>3.2.2</t>
-  </si>
-  <si>
-    <t>3.3.1</t>
   </si>
   <si>
     <r>
@@ -179,15 +173,15 @@
       </rPr>
       <t>]</t>
     </r>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>심상희</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>메타플래너</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -219,19 +213,19 @@
       </rPr>
       <t>구상</t>
     </r>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>영진상사</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>브레인스토밍,마인드맵</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>프리핸드스케치,메뉴구조도</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -272,7 +266,7 @@
       </rPr>
       <t>액티비티다이어그램</t>
     </r>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -288,7 +282,7 @@
       </rPr>
       <t>설계,클래스다이어그램</t>
     </r>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -355,11 +349,11 @@
       </rPr>
       <t>정의</t>
     </r>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>*</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -393,15 +387,15 @@
       </rPr>
       <t>구상</t>
     </r>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>연기</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>프로젝트 준비</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -416,7 +410,7 @@
       </rPr>
       <t>강의듣기</t>
     </r>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -441,11 +435,11 @@
       </rPr>
       <t>강의듣기</t>
     </r>
-    <phoneticPr fontId="31" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">AWS </t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ZEPETO </t>
     </r>
     <r>
       <rPr>
@@ -454,14 +448,15 @@
         <rFont val="Arial Unicode MS"/>
         <family val="2"/>
       </rPr>
-      <t>인스턴스 만들고 연결 테스트</t>
-    </r>
-    <phoneticPr fontId="31" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ZEPETO </t>
-    </r>
+      <t>통신 테스트</t>
+    </r>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>도서관 방문 후 협조요청</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -469,15 +464,17 @@
         <rFont val="Arial Unicode MS"/>
         <family val="2"/>
       </rPr>
-      <t>통신 테스트</t>
-    </r>
-    <phoneticPr fontId="31" type="noConversion"/>
-  </si>
-  <si>
-    <t>도서관 방문 후 협조요청</t>
-    <phoneticPr fontId="31" type="noConversion"/>
-  </si>
-  <si>
+      <t xml:space="preserve">우리측서버로 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+        <family val="2"/>
+      </rPr>
+      <t>request</t>
+    </r>
     <r>
       <rPr>
         <sz val="10"/>
@@ -485,7 +482,7 @@
         <rFont val="Arial Unicode MS"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">우리측서버로 </t>
+      <t xml:space="preserve">하기위한 </t>
     </r>
     <r>
       <rPr>
@@ -494,7 +491,7 @@
         <rFont val="Roboto"/>
         <family val="2"/>
       </rPr>
-      <t>request</t>
+      <t>typescript</t>
     </r>
     <r>
       <rPr>
@@ -503,7 +500,64 @@
         <rFont val="Arial Unicode MS"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">하기위한 </t>
+      <t>코드 만들기</t>
+    </r>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>상희,유현</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>StoryBoard</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>구체화</t>
+    </r>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>민화</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>신성,황주,상희</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>유현,신성,황주</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>백엔드</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
     </r>
     <r>
       <rPr>
@@ -512,72 +566,36 @@
         <rFont val="Roboto"/>
         <family val="2"/>
       </rPr>
-      <t>typescript</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Arial Unicode MS"/>
+      <t xml:space="preserve">SERVER) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>뼈대</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>코드 만들기</t>
-    </r>
-    <phoneticPr fontId="31" type="noConversion"/>
-  </si>
-  <si>
-    <t>신성,황주</t>
-    <phoneticPr fontId="31" type="noConversion"/>
-  </si>
-  <si>
-    <t>유현</t>
-    <phoneticPr fontId="31" type="noConversion"/>
-  </si>
-  <si>
-    <t>상희,유현</t>
-    <phoneticPr fontId="31" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>StoryBoard</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>구체화</t>
-    </r>
-    <phoneticPr fontId="31" type="noConversion"/>
-  </si>
-  <si>
-    <t>민화</t>
-    <phoneticPr fontId="31" type="noConversion"/>
-  </si>
-  <si>
-    <t>개발</t>
-    <phoneticPr fontId="31" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>백엔드(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">SERVER) </t>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구성</t>
     </r>
     <r>
       <rPr>
@@ -587,9 +605,453 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t>뼈대 구성</t>
-    </r>
-    <phoneticPr fontId="31" type="noConversion"/>
+      <t xml:space="preserve">을 위한 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+        <family val="2"/>
+      </rPr>
+      <t>Springboot study</t>
+    </r>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>도서관</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>방문</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>후</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>맵 받기</t>
+    </r>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>신성</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+        <family val="1"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>황주</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+        <family val="1"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상희</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>유현</t>
+    </r>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>맵 PACKAGE파일 수정 후 심사</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>백엔드</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>뼈대</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+        <family val="2"/>
+      </rPr>
+      <t>jsp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>활용하여 제작 실습</t>
+    </r>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>요구사항 정의서 제작</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Database </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>설계</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>감리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> &amp; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>검토</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">with </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>임덕성교수님</t>
+    </r>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">AWS </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>인스턴스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>만들고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>연결</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>테스트</t>
+    </r>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">php,RDS,ubuntu </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>활용한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> DB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>서버</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구축</t>
+    </r>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>유현,상희,신성</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.3.1</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.1.2</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.1.3</t>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -600,7 +1062,7 @@
     <numFmt numFmtId="176" formatCode="yy&quot;년 &quot;m&quot;월 &quot;d&quot;일&quot;"/>
     <numFmt numFmtId="177" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="55">
+  <fonts count="56">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -758,11 +1220,6 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Roboto"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -927,6 +1384,20 @@
       <sz val="10"/>
       <color rgb="FF434343"/>
       <name val="Arial Unicode MS"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF434343"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF434343"/>
+      <name val="돋움"/>
       <family val="2"/>
       <charset val="129"/>
     </font>
@@ -1522,51 +1993,74 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="36" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="37" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1575,10 +2069,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1588,33 +2078,16 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1976,10 +2449,10 @@
     <tabColor rgb="FF3D85C6"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BQ41"/>
+  <dimension ref="A1:BQ43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1"/>
@@ -2067,44 +2540,44 @@
     </row>
     <row r="2" spans="1:69" ht="40.5">
       <c r="A2" s="1"/>
-      <c r="B2" s="95" t="s">
+      <c r="B2" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
       <c r="H2" s="10"/>
-      <c r="I2" s="93" t="s">
+      <c r="I2" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="94"/>
-      <c r="K2" s="94"/>
-      <c r="L2" s="94"/>
-      <c r="M2" s="94"/>
-      <c r="N2" s="94"/>
-      <c r="O2" s="100" t="s">
+      <c r="J2" s="103"/>
+      <c r="K2" s="103"/>
+      <c r="L2" s="103"/>
+      <c r="M2" s="103"/>
+      <c r="N2" s="103"/>
+      <c r="O2" s="107" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="94"/>
-      <c r="Q2" s="94"/>
-      <c r="R2" s="94"/>
-      <c r="S2" s="94"/>
-      <c r="T2" s="94"/>
-      <c r="U2" s="94"/>
-      <c r="V2" s="94"/>
-      <c r="W2" s="94"/>
-      <c r="X2" s="94"/>
-      <c r="Y2" s="94"/>
-      <c r="Z2" s="94"/>
-      <c r="AA2" s="94"/>
-      <c r="AB2" s="94"/>
-      <c r="AC2" s="94"/>
-      <c r="AD2" s="94"/>
-      <c r="AE2" s="94"/>
-      <c r="AF2" s="94"/>
-      <c r="AG2" s="94"/>
+      <c r="P2" s="103"/>
+      <c r="Q2" s="103"/>
+      <c r="R2" s="103"/>
+      <c r="S2" s="103"/>
+      <c r="T2" s="103"/>
+      <c r="U2" s="103"/>
+      <c r="V2" s="103"/>
+      <c r="W2" s="103"/>
+      <c r="X2" s="103"/>
+      <c r="Y2" s="103"/>
+      <c r="Z2" s="103"/>
+      <c r="AA2" s="103"/>
+      <c r="AB2" s="103"/>
+      <c r="AC2" s="103"/>
+      <c r="AD2" s="103"/>
+      <c r="AE2" s="103"/>
+      <c r="AF2" s="103"/>
+      <c r="AG2" s="103"/>
       <c r="AH2" s="11"/>
       <c r="AI2" s="11"/>
       <c r="AJ2" s="11"/>
@@ -2215,41 +2688,41 @@
     </row>
     <row r="4" spans="1:69" ht="21" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="96" t="s">
+      <c r="B4" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="97"/>
-      <c r="D4" s="101" t="s">
-        <v>43</v>
-      </c>
-      <c r="E4" s="102"/>
-      <c r="F4" s="102"/>
-      <c r="G4" s="102"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="97" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="98"/>
       <c r="H4" s="16"/>
-      <c r="I4" s="96" t="s">
+      <c r="I4" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="97"/>
-      <c r="K4" s="97"/>
-      <c r="L4" s="97"/>
-      <c r="M4" s="97"/>
-      <c r="N4" s="97"/>
-      <c r="O4" s="97"/>
-      <c r="P4" s="99" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q4" s="97"/>
-      <c r="R4" s="97"/>
-      <c r="S4" s="97"/>
-      <c r="T4" s="97"/>
-      <c r="U4" s="97"/>
-      <c r="V4" s="97"/>
-      <c r="W4" s="97"/>
-      <c r="X4" s="97"/>
-      <c r="Y4" s="97"/>
-      <c r="Z4" s="97"/>
-      <c r="AA4" s="97"/>
-      <c r="AB4" s="97"/>
+      <c r="J4" s="100"/>
+      <c r="K4" s="100"/>
+      <c r="L4" s="100"/>
+      <c r="M4" s="100"/>
+      <c r="N4" s="100"/>
+      <c r="O4" s="100"/>
+      <c r="P4" s="106" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q4" s="100"/>
+      <c r="R4" s="100"/>
+      <c r="S4" s="100"/>
+      <c r="T4" s="100"/>
+      <c r="U4" s="100"/>
+      <c r="V4" s="100"/>
+      <c r="W4" s="100"/>
+      <c r="X4" s="100"/>
+      <c r="Y4" s="100"/>
+      <c r="Z4" s="100"/>
+      <c r="AA4" s="100"/>
+      <c r="AB4" s="100"/>
       <c r="AC4" s="17"/>
       <c r="AD4" s="9"/>
       <c r="AE4" s="9"/>
@@ -2294,40 +2767,40 @@
     </row>
     <row r="5" spans="1:69" ht="21" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="96" t="s">
+      <c r="B5" s="99" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="97"/>
-      <c r="D5" s="103" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" s="97"/>
-      <c r="F5" s="97"/>
-      <c r="G5" s="97"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="101" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="100"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="100"/>
       <c r="H5" s="18"/>
-      <c r="I5" s="96" t="s">
+      <c r="I5" s="99" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="97"/>
-      <c r="K5" s="97"/>
-      <c r="L5" s="97"/>
-      <c r="M5" s="97"/>
-      <c r="N5" s="97"/>
-      <c r="O5" s="97"/>
-      <c r="P5" s="98">
+      <c r="J5" s="100"/>
+      <c r="K5" s="100"/>
+      <c r="L5" s="100"/>
+      <c r="M5" s="100"/>
+      <c r="N5" s="100"/>
+      <c r="O5" s="100"/>
+      <c r="P5" s="105">
         <v>44992</v>
       </c>
-      <c r="Q5" s="97"/>
-      <c r="R5" s="97"/>
-      <c r="S5" s="97"/>
-      <c r="T5" s="97"/>
-      <c r="U5" s="97"/>
-      <c r="V5" s="97"/>
-      <c r="W5" s="97"/>
-      <c r="X5" s="97"/>
-      <c r="Y5" s="97"/>
-      <c r="Z5" s="97"/>
-      <c r="AA5" s="97"/>
+      <c r="Q5" s="100"/>
+      <c r="R5" s="100"/>
+      <c r="S5" s="100"/>
+      <c r="T5" s="100"/>
+      <c r="U5" s="100"/>
+      <c r="V5" s="100"/>
+      <c r="W5" s="100"/>
+      <c r="X5" s="100"/>
+      <c r="Y5" s="100"/>
+      <c r="Z5" s="100"/>
+      <c r="AA5" s="100"/>
       <c r="AB5" s="19"/>
       <c r="AC5" s="17"/>
       <c r="AD5" s="1"/>
@@ -2515,201 +2988,201 @@
     </row>
     <row r="8" spans="1:69" ht="17.25" customHeight="1">
       <c r="A8" s="24"/>
-      <c r="B8" s="87" t="s">
+      <c r="B8" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="87" t="s">
+      <c r="C8" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="87" t="s">
+      <c r="D8" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="87" t="s">
+      <c r="E8" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="87" t="s">
+      <c r="F8" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="87" t="s">
+      <c r="G8" s="96" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="87" t="s">
+      <c r="H8" s="96" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="92" t="s">
+      <c r="I8" s="109" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="88"/>
-      <c r="K8" s="88"/>
-      <c r="L8" s="88"/>
-      <c r="M8" s="88"/>
-      <c r="N8" s="88"/>
-      <c r="O8" s="88"/>
-      <c r="P8" s="88"/>
-      <c r="Q8" s="88"/>
-      <c r="R8" s="88"/>
-      <c r="S8" s="88"/>
-      <c r="T8" s="88"/>
-      <c r="U8" s="88"/>
-      <c r="V8" s="88"/>
-      <c r="W8" s="88"/>
-      <c r="X8" s="109" t="s">
+      <c r="J8" s="90"/>
+      <c r="K8" s="90"/>
+      <c r="L8" s="90"/>
+      <c r="M8" s="90"/>
+      <c r="N8" s="90"/>
+      <c r="O8" s="90"/>
+      <c r="P8" s="90"/>
+      <c r="Q8" s="90"/>
+      <c r="R8" s="90"/>
+      <c r="S8" s="90"/>
+      <c r="T8" s="90"/>
+      <c r="U8" s="90"/>
+      <c r="V8" s="90"/>
+      <c r="W8" s="90"/>
+      <c r="X8" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="Y8" s="88"/>
-      <c r="Z8" s="88"/>
-      <c r="AA8" s="88"/>
-      <c r="AB8" s="88"/>
-      <c r="AC8" s="88"/>
-      <c r="AD8" s="88"/>
-      <c r="AE8" s="88"/>
-      <c r="AF8" s="88"/>
-      <c r="AG8" s="88"/>
-      <c r="AH8" s="88"/>
-      <c r="AI8" s="88"/>
-      <c r="AJ8" s="88"/>
-      <c r="AK8" s="88"/>
-      <c r="AL8" s="88"/>
-      <c r="AM8" s="108" t="s">
+      <c r="Y8" s="90"/>
+      <c r="Z8" s="90"/>
+      <c r="AA8" s="90"/>
+      <c r="AB8" s="90"/>
+      <c r="AC8" s="90"/>
+      <c r="AD8" s="90"/>
+      <c r="AE8" s="90"/>
+      <c r="AF8" s="90"/>
+      <c r="AG8" s="90"/>
+      <c r="AH8" s="90"/>
+      <c r="AI8" s="90"/>
+      <c r="AJ8" s="90"/>
+      <c r="AK8" s="90"/>
+      <c r="AL8" s="90"/>
+      <c r="AM8" s="93" t="s">
         <v>16</v>
       </c>
-      <c r="AN8" s="88"/>
-      <c r="AO8" s="88"/>
-      <c r="AP8" s="88"/>
-      <c r="AQ8" s="88"/>
-      <c r="AR8" s="88"/>
-      <c r="AS8" s="88"/>
-      <c r="AT8" s="88"/>
-      <c r="AU8" s="88"/>
-      <c r="AV8" s="88"/>
-      <c r="AW8" s="88"/>
-      <c r="AX8" s="88"/>
-      <c r="AY8" s="88"/>
-      <c r="AZ8" s="88"/>
-      <c r="BA8" s="88"/>
-      <c r="BB8" s="105" t="s">
+      <c r="AN8" s="90"/>
+      <c r="AO8" s="90"/>
+      <c r="AP8" s="90"/>
+      <c r="AQ8" s="90"/>
+      <c r="AR8" s="90"/>
+      <c r="AS8" s="90"/>
+      <c r="AT8" s="90"/>
+      <c r="AU8" s="90"/>
+      <c r="AV8" s="90"/>
+      <c r="AW8" s="90"/>
+      <c r="AX8" s="90"/>
+      <c r="AY8" s="90"/>
+      <c r="AZ8" s="90"/>
+      <c r="BA8" s="90"/>
+      <c r="BB8" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="BC8" s="88"/>
-      <c r="BD8" s="88"/>
-      <c r="BE8" s="88"/>
-      <c r="BF8" s="88"/>
-      <c r="BG8" s="88"/>
-      <c r="BH8" s="88"/>
-      <c r="BI8" s="88"/>
-      <c r="BJ8" s="88"/>
-      <c r="BK8" s="88"/>
-      <c r="BL8" s="88"/>
-      <c r="BM8" s="88"/>
-      <c r="BN8" s="88"/>
-      <c r="BO8" s="88"/>
-      <c r="BP8" s="106"/>
+      <c r="BC8" s="90"/>
+      <c r="BD8" s="90"/>
+      <c r="BE8" s="90"/>
+      <c r="BF8" s="90"/>
+      <c r="BG8" s="90"/>
+      <c r="BH8" s="90"/>
+      <c r="BI8" s="90"/>
+      <c r="BJ8" s="90"/>
+      <c r="BK8" s="90"/>
+      <c r="BL8" s="90"/>
+      <c r="BM8" s="90"/>
+      <c r="BN8" s="90"/>
+      <c r="BO8" s="90"/>
+      <c r="BP8" s="91"/>
       <c r="BQ8" s="21"/>
     </row>
     <row r="9" spans="1:69" ht="17.25" customHeight="1">
       <c r="A9" s="25"/>
-      <c r="B9" s="88"/>
-      <c r="C9" s="88"/>
-      <c r="D9" s="88"/>
-      <c r="E9" s="88"/>
-      <c r="F9" s="88"/>
-      <c r="G9" s="88"/>
-      <c r="H9" s="88"/>
-      <c r="I9" s="89" t="s">
+      <c r="B9" s="90"/>
+      <c r="C9" s="90"/>
+      <c r="D9" s="90"/>
+      <c r="E9" s="90"/>
+      <c r="F9" s="90"/>
+      <c r="G9" s="90"/>
+      <c r="H9" s="90"/>
+      <c r="I9" s="108" t="s">
         <v>18</v>
       </c>
-      <c r="J9" s="90"/>
-      <c r="K9" s="90"/>
-      <c r="L9" s="90"/>
-      <c r="M9" s="91"/>
-      <c r="N9" s="89" t="s">
+      <c r="J9" s="87"/>
+      <c r="K9" s="87"/>
+      <c r="L9" s="87"/>
+      <c r="M9" s="88"/>
+      <c r="N9" s="108" t="s">
         <v>19</v>
       </c>
-      <c r="O9" s="90"/>
-      <c r="P9" s="90"/>
-      <c r="Q9" s="90"/>
-      <c r="R9" s="91"/>
-      <c r="S9" s="89" t="s">
+      <c r="O9" s="87"/>
+      <c r="P9" s="87"/>
+      <c r="Q9" s="87"/>
+      <c r="R9" s="88"/>
+      <c r="S9" s="108" t="s">
         <v>20</v>
       </c>
-      <c r="T9" s="90"/>
-      <c r="U9" s="90"/>
-      <c r="V9" s="90"/>
-      <c r="W9" s="91"/>
-      <c r="X9" s="107" t="s">
+      <c r="T9" s="87"/>
+      <c r="U9" s="87"/>
+      <c r="V9" s="87"/>
+      <c r="W9" s="88"/>
+      <c r="X9" s="92" t="s">
         <v>21</v>
       </c>
-      <c r="Y9" s="90"/>
-      <c r="Z9" s="90"/>
-      <c r="AA9" s="90"/>
-      <c r="AB9" s="91"/>
-      <c r="AC9" s="107" t="s">
+      <c r="Y9" s="87"/>
+      <c r="Z9" s="87"/>
+      <c r="AA9" s="87"/>
+      <c r="AB9" s="88"/>
+      <c r="AC9" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="AD9" s="90"/>
-      <c r="AE9" s="90"/>
-      <c r="AF9" s="90"/>
-      <c r="AG9" s="91"/>
-      <c r="AH9" s="107" t="s">
+      <c r="AD9" s="87"/>
+      <c r="AE9" s="87"/>
+      <c r="AF9" s="87"/>
+      <c r="AG9" s="88"/>
+      <c r="AH9" s="92" t="s">
         <v>23</v>
       </c>
-      <c r="AI9" s="90"/>
-      <c r="AJ9" s="90"/>
-      <c r="AK9" s="90"/>
-      <c r="AL9" s="91"/>
-      <c r="AM9" s="110" t="s">
+      <c r="AI9" s="87"/>
+      <c r="AJ9" s="87"/>
+      <c r="AK9" s="87"/>
+      <c r="AL9" s="88"/>
+      <c r="AM9" s="95" t="s">
         <v>24</v>
       </c>
-      <c r="AN9" s="90"/>
-      <c r="AO9" s="90"/>
-      <c r="AP9" s="90"/>
-      <c r="AQ9" s="91"/>
-      <c r="AR9" s="110" t="s">
+      <c r="AN9" s="87"/>
+      <c r="AO9" s="87"/>
+      <c r="AP9" s="87"/>
+      <c r="AQ9" s="88"/>
+      <c r="AR9" s="95" t="s">
         <v>25</v>
       </c>
-      <c r="AS9" s="90"/>
-      <c r="AT9" s="90"/>
-      <c r="AU9" s="90"/>
-      <c r="AV9" s="91"/>
-      <c r="AW9" s="110" t="s">
+      <c r="AS9" s="87"/>
+      <c r="AT9" s="87"/>
+      <c r="AU9" s="87"/>
+      <c r="AV9" s="88"/>
+      <c r="AW9" s="95" t="s">
         <v>26</v>
       </c>
-      <c r="AX9" s="90"/>
-      <c r="AY9" s="90"/>
-      <c r="AZ9" s="90"/>
-      <c r="BA9" s="91"/>
-      <c r="BB9" s="104" t="s">
+      <c r="AX9" s="87"/>
+      <c r="AY9" s="87"/>
+      <c r="AZ9" s="87"/>
+      <c r="BA9" s="88"/>
+      <c r="BB9" s="86" t="s">
         <v>27</v>
       </c>
-      <c r="BC9" s="90"/>
-      <c r="BD9" s="90"/>
-      <c r="BE9" s="90"/>
-      <c r="BF9" s="91"/>
-      <c r="BG9" s="104" t="s">
+      <c r="BC9" s="87"/>
+      <c r="BD9" s="87"/>
+      <c r="BE9" s="87"/>
+      <c r="BF9" s="88"/>
+      <c r="BG9" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="BH9" s="90"/>
-      <c r="BI9" s="90"/>
-      <c r="BJ9" s="90"/>
-      <c r="BK9" s="91"/>
-      <c r="BL9" s="104" t="s">
+      <c r="BH9" s="87"/>
+      <c r="BI9" s="87"/>
+      <c r="BJ9" s="87"/>
+      <c r="BK9" s="88"/>
+      <c r="BL9" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="BM9" s="90"/>
-      <c r="BN9" s="90"/>
-      <c r="BO9" s="90"/>
-      <c r="BP9" s="91"/>
+      <c r="BM9" s="87"/>
+      <c r="BN9" s="87"/>
+      <c r="BO9" s="87"/>
+      <c r="BP9" s="88"/>
       <c r="BQ9" s="25"/>
     </row>
     <row r="10" spans="1:69" ht="17.25" customHeight="1">
       <c r="A10" s="26"/>
-      <c r="B10" s="88"/>
-      <c r="C10" s="88"/>
-      <c r="D10" s="88"/>
-      <c r="E10" s="88"/>
-      <c r="F10" s="88"/>
-      <c r="G10" s="88"/>
-      <c r="H10" s="88"/>
+      <c r="B10" s="90"/>
+      <c r="C10" s="90"/>
+      <c r="D10" s="90"/>
+      <c r="E10" s="90"/>
+      <c r="F10" s="90"/>
+      <c r="G10" s="90"/>
+      <c r="H10" s="90"/>
       <c r="I10" s="27" t="s">
         <v>30</v>
       </c>
@@ -2897,8 +3370,8 @@
       <c r="B11" s="31">
         <v>1</v>
       </c>
-      <c r="C11" s="84" t="s">
-        <v>52</v>
+      <c r="C11" s="82" t="s">
+        <v>50</v>
       </c>
       <c r="D11" s="33"/>
       <c r="E11" s="33"/>
@@ -2972,11 +3445,11 @@
       <c r="B12" s="38">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C12" s="78" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="79" t="s">
-        <v>45</v>
+      <c r="C12" s="76" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="77" t="s">
+        <v>43</v>
       </c>
       <c r="E12" s="40">
         <v>44962</v>
@@ -3058,11 +3531,11 @@
       <c r="B13" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="80" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="81" t="s">
-        <v>45</v>
+      <c r="C13" s="78" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="79" t="s">
+        <v>43</v>
       </c>
       <c r="E13" s="40">
         <v>44969</v>
@@ -3144,11 +3617,11 @@
       <c r="B14" s="38">
         <v>1.2</v>
       </c>
-      <c r="C14" s="79" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" s="81" t="s">
+      <c r="C14" s="77" t="s">
         <v>45</v>
+      </c>
+      <c r="D14" s="79" t="s">
+        <v>43</v>
       </c>
       <c r="E14" s="40">
         <v>44973</v>
@@ -3230,11 +3703,11 @@
       <c r="B15" s="38">
         <v>1.3</v>
       </c>
-      <c r="C15" s="82" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" s="81" t="s">
-        <v>45</v>
+      <c r="C15" s="80" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="79" t="s">
+        <v>43</v>
       </c>
       <c r="E15" s="40">
         <v>44977</v>
@@ -3317,10 +3790,10 @@
         <v>1.4</v>
       </c>
       <c r="C16" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" s="81" t="s">
-        <v>45</v>
+        <v>47</v>
+      </c>
+      <c r="D16" s="79" t="s">
+        <v>43</v>
       </c>
       <c r="E16" s="40">
         <v>44979</v>
@@ -3402,11 +3875,11 @@
       <c r="B17" s="38">
         <v>1.5</v>
       </c>
-      <c r="C17" s="83" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" s="81" t="s">
-        <v>45</v>
+      <c r="C17" s="81" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="79" t="s">
+        <v>43</v>
       </c>
       <c r="E17" s="40">
         <v>44984</v>
@@ -3418,8 +3891,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H17" s="85" t="s">
-        <v>53</v>
+      <c r="H17" s="83" t="s">
+        <v>51</v>
       </c>
       <c r="I17" s="52"/>
       <c r="J17" s="53"/>
@@ -3491,14 +3964,14 @@
       <c r="C18" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="81" t="s">
-        <v>45</v>
+      <c r="D18" s="79" t="s">
+        <v>43</v>
       </c>
       <c r="E18" s="64">
         <v>44987</v>
       </c>
       <c r="F18" s="64" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G18" s="65" t="e">
         <f t="shared" si="0"/>
@@ -3574,8 +4047,8 @@
       <c r="B19" s="31">
         <v>2</v>
       </c>
-      <c r="C19" s="86" t="s">
-        <v>54</v>
+      <c r="C19" s="84" t="s">
+        <v>52</v>
       </c>
       <c r="D19" s="33"/>
       <c r="E19" s="33"/>
@@ -3650,10 +4123,10 @@
         <v>2.1</v>
       </c>
       <c r="C20" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="D20" s="81" t="s">
-        <v>45</v>
+        <v>53</v>
+      </c>
+      <c r="D20" s="79" t="s">
+        <v>43</v>
       </c>
       <c r="E20" s="40">
         <v>885045</v>
@@ -3665,7 +4138,7 @@
         <v>33</v>
       </c>
       <c r="H20" s="42">
-        <v>0.21</v>
+        <v>0.75</v>
       </c>
       <c r="I20" s="52"/>
       <c r="J20" s="53"/>
@@ -3686,21 +4159,21 @@
       <c r="Y20" s="54"/>
       <c r="Z20" s="54"/>
       <c r="AA20" s="54"/>
-      <c r="AB20" s="75"/>
-      <c r="AC20" s="75"/>
-      <c r="AD20" s="75"/>
-      <c r="AE20" s="75"/>
-      <c r="AF20" s="48"/>
-      <c r="AG20" s="48"/>
-      <c r="AH20" s="45"/>
-      <c r="AI20" s="45"/>
-      <c r="AJ20" s="45"/>
-      <c r="AK20" s="45"/>
-      <c r="AL20" s="45"/>
-      <c r="AM20" s="45"/>
-      <c r="AN20" s="45"/>
-      <c r="AO20" s="45"/>
-      <c r="AP20" s="45"/>
+      <c r="AB20" s="56"/>
+      <c r="AC20" s="56"/>
+      <c r="AD20" s="56"/>
+      <c r="AE20" s="56"/>
+      <c r="AF20" s="56"/>
+      <c r="AG20" s="56"/>
+      <c r="AH20" s="56"/>
+      <c r="AI20" s="56"/>
+      <c r="AJ20" s="56"/>
+      <c r="AK20" s="56"/>
+      <c r="AL20" s="56"/>
+      <c r="AM20" s="56"/>
+      <c r="AN20" s="56"/>
+      <c r="AO20" s="56"/>
+      <c r="AP20" s="56"/>
       <c r="AQ20" s="45"/>
       <c r="AR20" s="49"/>
       <c r="AS20" s="49"/>
@@ -3735,10 +4208,10 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="C21" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="D21" s="81" t="s">
-        <v>45</v>
+        <v>54</v>
+      </c>
+      <c r="D21" s="79" t="s">
+        <v>43</v>
       </c>
       <c r="E21" s="40">
         <v>885045</v>
@@ -3750,7 +4223,7 @@
         <v>33</v>
       </c>
       <c r="H21" s="42">
-        <v>0.21</v>
+        <v>0.33</v>
       </c>
       <c r="I21" s="52"/>
       <c r="J21" s="53"/>
@@ -3771,21 +4244,21 @@
       <c r="Y21" s="54"/>
       <c r="Z21" s="54"/>
       <c r="AA21" s="54"/>
-      <c r="AB21" s="75"/>
-      <c r="AC21" s="75"/>
-      <c r="AD21" s="75"/>
-      <c r="AE21" s="76"/>
-      <c r="AF21" s="57"/>
-      <c r="AG21" s="57"/>
-      <c r="AH21" s="54"/>
-      <c r="AI21" s="54"/>
-      <c r="AJ21" s="54"/>
-      <c r="AK21" s="54"/>
-      <c r="AL21" s="54"/>
-      <c r="AM21" s="54"/>
-      <c r="AN21" s="54"/>
-      <c r="AO21" s="54"/>
-      <c r="AP21" s="54"/>
+      <c r="AB21" s="56"/>
+      <c r="AC21" s="56"/>
+      <c r="AD21" s="56"/>
+      <c r="AE21" s="56"/>
+      <c r="AF21" s="56"/>
+      <c r="AG21" s="56"/>
+      <c r="AH21" s="56"/>
+      <c r="AI21" s="56"/>
+      <c r="AJ21" s="56"/>
+      <c r="AK21" s="56"/>
+      <c r="AL21" s="56"/>
+      <c r="AM21" s="56"/>
+      <c r="AN21" s="56"/>
+      <c r="AO21" s="56"/>
+      <c r="AP21" s="56"/>
       <c r="AQ21" s="54"/>
       <c r="AR21" s="58"/>
       <c r="AS21" s="58"/>
@@ -3820,10 +4293,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="C22" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="D22" s="81" t="s">
-        <v>65</v>
+        <v>59</v>
+      </c>
+      <c r="D22" s="79" t="s">
+        <v>60</v>
       </c>
       <c r="E22" s="40">
         <v>885045</v>
@@ -3835,7 +4308,7 @@
         <v>29</v>
       </c>
       <c r="H22" s="42">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="I22" s="52"/>
       <c r="J22" s="53"/>
@@ -3856,21 +4329,21 @@
       <c r="Y22" s="54"/>
       <c r="Z22" s="54"/>
       <c r="AA22" s="54"/>
-      <c r="AB22" s="75"/>
-      <c r="AC22" s="75"/>
-      <c r="AD22" s="75"/>
-      <c r="AE22" s="76"/>
-      <c r="AF22" s="57"/>
-      <c r="AG22" s="57"/>
-      <c r="AH22" s="54"/>
-      <c r="AI22" s="54"/>
-      <c r="AJ22" s="54"/>
-      <c r="AK22" s="54"/>
-      <c r="AL22" s="54"/>
-      <c r="AM22" s="54"/>
-      <c r="AN22" s="54"/>
-      <c r="AO22" s="54"/>
-      <c r="AP22" s="54"/>
+      <c r="AB22" s="56"/>
+      <c r="AC22" s="56"/>
+      <c r="AD22" s="56"/>
+      <c r="AE22" s="56"/>
+      <c r="AF22" s="56"/>
+      <c r="AG22" s="56"/>
+      <c r="AH22" s="56"/>
+      <c r="AI22" s="56"/>
+      <c r="AJ22" s="56"/>
+      <c r="AK22" s="56"/>
+      <c r="AL22" s="56"/>
+      <c r="AM22" s="56"/>
+      <c r="AN22" s="56"/>
+      <c r="AO22" s="56"/>
+      <c r="AP22" s="56"/>
       <c r="AQ22" s="54"/>
       <c r="AR22" s="58"/>
       <c r="AS22" s="58"/>
@@ -3904,11 +4377,11 @@
       <c r="B23" s="38">
         <v>2.4</v>
       </c>
-      <c r="C23" s="79" t="s">
-        <v>59</v>
-      </c>
-      <c r="D23" s="81" t="s">
-        <v>45</v>
+      <c r="C23" s="77" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" s="79" t="s">
+        <v>43</v>
       </c>
       <c r="E23" s="40">
         <v>885049</v>
@@ -3944,7 +4417,7 @@
       <c r="AB23" s="54"/>
       <c r="AC23" s="57"/>
       <c r="AD23" s="57"/>
-      <c r="AE23" s="57"/>
+      <c r="AE23" s="56"/>
       <c r="AF23" s="57"/>
       <c r="AG23" s="57"/>
       <c r="AH23" s="54"/>
@@ -3984,16 +4457,16 @@
       <c r="BP23" s="60"/>
       <c r="BQ23" s="37"/>
     </row>
-    <row r="24" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="24" spans="1:69" ht="17" customHeight="1" outlineLevel="1">
       <c r="A24" s="37"/>
       <c r="B24" s="38">
         <v>2.5</v>
       </c>
       <c r="C24" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="D24" s="81" t="s">
-        <v>63</v>
+        <v>71</v>
+      </c>
+      <c r="D24" s="79" t="s">
+        <v>58</v>
       </c>
       <c r="E24" s="40">
         <v>885055</v>
@@ -4032,11 +4505,11 @@
       <c r="AE24" s="57"/>
       <c r="AF24" s="57"/>
       <c r="AG24" s="57"/>
-      <c r="AH24" s="54"/>
-      <c r="AI24" s="54"/>
-      <c r="AJ24" s="54"/>
-      <c r="AK24" s="54"/>
-      <c r="AL24" s="54"/>
+      <c r="AH24" s="56"/>
+      <c r="AI24" s="56"/>
+      <c r="AJ24" s="56"/>
+      <c r="AK24" s="56"/>
+      <c r="AL24" s="56"/>
       <c r="AM24" s="54"/>
       <c r="AN24" s="54"/>
       <c r="AO24" s="54"/>
@@ -4075,22 +4548,22 @@
         <v>2.6</v>
       </c>
       <c r="C25" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="D25" s="81" t="s">
-        <v>62</v>
+        <v>55</v>
+      </c>
+      <c r="D25" s="79" t="s">
+        <v>63</v>
       </c>
       <c r="E25" s="40">
         <v>885055</v>
       </c>
       <c r="F25" s="40">
-        <v>885059</v>
+        <v>45006</v>
       </c>
       <c r="G25" s="41">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H25" s="61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" s="52"/>
       <c r="J25" s="53"/>
@@ -4117,13 +4590,13 @@
       <c r="AE25" s="57"/>
       <c r="AF25" s="57"/>
       <c r="AG25" s="57"/>
-      <c r="AH25" s="54"/>
-      <c r="AI25" s="54"/>
-      <c r="AJ25" s="54"/>
-      <c r="AK25" s="54"/>
-      <c r="AL25" s="54"/>
-      <c r="AM25" s="54"/>
-      <c r="AN25" s="54"/>
+      <c r="AH25" s="56"/>
+      <c r="AI25" s="56"/>
+      <c r="AJ25" s="56"/>
+      <c r="AK25" s="56"/>
+      <c r="AL25" s="56"/>
+      <c r="AM25" s="56"/>
+      <c r="AN25" s="56"/>
       <c r="AO25" s="54"/>
       <c r="AP25" s="54"/>
       <c r="AQ25" s="54"/>
@@ -4159,23 +4632,23 @@
       <c r="B26" s="38">
         <v>2.7</v>
       </c>
-      <c r="C26" s="111" t="s">
-        <v>60</v>
-      </c>
-      <c r="D26" s="81" t="s">
-        <v>61</v>
+      <c r="C26" s="85" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" s="79" t="s">
+        <v>62</v>
       </c>
       <c r="E26" s="40">
         <v>885055</v>
       </c>
       <c r="F26" s="40">
-        <v>885059</v>
+        <v>885063</v>
       </c>
       <c r="G26" s="41">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H26" s="61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" s="52"/>
       <c r="J26" s="53"/>
@@ -4202,15 +4675,15 @@
       <c r="AE26" s="57"/>
       <c r="AF26" s="57"/>
       <c r="AG26" s="57"/>
-      <c r="AH26" s="54"/>
-      <c r="AI26" s="54"/>
-      <c r="AJ26" s="54"/>
-      <c r="AK26" s="54"/>
-      <c r="AL26" s="54"/>
-      <c r="AM26" s="54"/>
-      <c r="AN26" s="54"/>
-      <c r="AO26" s="54"/>
-      <c r="AP26" s="54"/>
+      <c r="AH26" s="56"/>
+      <c r="AI26" s="56"/>
+      <c r="AJ26" s="56"/>
+      <c r="AK26" s="56"/>
+      <c r="AL26" s="56"/>
+      <c r="AM26" s="56"/>
+      <c r="AN26" s="56"/>
+      <c r="AO26" s="56"/>
+      <c r="AP26" s="56"/>
       <c r="AQ26" s="54"/>
       <c r="AR26" s="58"/>
       <c r="AS26" s="58"/>
@@ -4244,8 +4717,8 @@
       <c r="B27" s="31">
         <v>3</v>
       </c>
-      <c r="C27" s="86" t="s">
-        <v>66</v>
+      <c r="C27" s="84" t="s">
+        <v>61</v>
       </c>
       <c r="D27" s="33"/>
       <c r="E27" s="33"/>
@@ -4314,24 +4787,28 @@
       <c r="BP27" s="34"/>
       <c r="BQ27" s="21"/>
     </row>
-    <row r="28" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="28" spans="1:69" ht="35.5" customHeight="1" outlineLevel="1">
       <c r="A28" s="37"/>
       <c r="B28" s="38">
         <v>3.1</v>
       </c>
-      <c r="C28" s="111" t="s">
-        <v>67</v>
-      </c>
-      <c r="D28" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="E28" s="40"/>
-      <c r="F28" s="40"/>
+      <c r="C28" s="80" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28" s="78" t="s">
+        <v>43</v>
+      </c>
+      <c r="E28" s="40">
+        <v>45005</v>
+      </c>
+      <c r="F28" s="40">
+        <v>45031</v>
+      </c>
       <c r="G28" s="41">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="H28" s="42">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="I28" s="43"/>
       <c r="J28" s="44"/>
@@ -4395,22 +4872,28 @@
       <c r="BP28" s="51"/>
       <c r="BQ28" s="37"/>
     </row>
-    <row r="29" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="29" spans="1:69" ht="27.5" customHeight="1" outlineLevel="1">
       <c r="A29" s="37"/>
       <c r="B29" s="38">
         <v>3.2</v>
       </c>
-      <c r="C29" s="39"/>
-      <c r="D29" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="E29" s="40"/>
-      <c r="F29" s="40"/>
+      <c r="C29" s="85" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29" s="76" t="s">
+        <v>66</v>
+      </c>
+      <c r="E29" s="40">
+        <v>44998</v>
+      </c>
+      <c r="F29" s="40">
+        <v>45006</v>
+      </c>
       <c r="G29" s="41">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H29" s="42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" s="52"/>
       <c r="J29" s="53"/>
@@ -4437,15 +4920,15 @@
       <c r="AE29" s="57"/>
       <c r="AF29" s="57"/>
       <c r="AG29" s="57"/>
-      <c r="AH29" s="54"/>
-      <c r="AI29" s="54"/>
-      <c r="AJ29" s="54"/>
-      <c r="AK29" s="54"/>
-      <c r="AL29" s="54"/>
-      <c r="AM29" s="54"/>
-      <c r="AN29" s="54"/>
-      <c r="AO29" s="54"/>
-      <c r="AP29" s="54"/>
+      <c r="AH29" s="56"/>
+      <c r="AI29" s="56"/>
+      <c r="AJ29" s="56"/>
+      <c r="AK29" s="56"/>
+      <c r="AL29" s="56"/>
+      <c r="AM29" s="56"/>
+      <c r="AN29" s="56"/>
+      <c r="AO29" s="56"/>
+      <c r="AP29" s="56"/>
       <c r="AQ29" s="54"/>
       <c r="AR29" s="58"/>
       <c r="AS29" s="58"/>
@@ -4479,17 +4962,23 @@
       <c r="B30" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="39"/>
-      <c r="D30" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="E30" s="40"/>
-      <c r="F30" s="40"/>
+      <c r="C30" s="80" t="s">
+        <v>72</v>
+      </c>
+      <c r="D30" s="79" t="s">
+        <v>73</v>
+      </c>
+      <c r="E30" s="40">
+        <v>45005</v>
+      </c>
+      <c r="F30" s="40">
+        <v>45008</v>
+      </c>
       <c r="G30" s="41">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H30" s="42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" s="52"/>
       <c r="J30" s="53"/>
@@ -4521,10 +5010,10 @@
       <c r="AJ30" s="54"/>
       <c r="AK30" s="54"/>
       <c r="AL30" s="54"/>
-      <c r="AM30" s="54"/>
-      <c r="AN30" s="54"/>
-      <c r="AO30" s="54"/>
-      <c r="AP30" s="54"/>
+      <c r="AM30" s="56"/>
+      <c r="AN30" s="56"/>
+      <c r="AO30" s="56"/>
+      <c r="AP30" s="56"/>
       <c r="AQ30" s="54"/>
       <c r="AR30" s="58"/>
       <c r="AS30" s="58"/>
@@ -4555,19 +5044,25 @@
     </row>
     <row r="31" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A31" s="37"/>
-      <c r="B31" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="C31" s="39"/>
-      <c r="D31" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="E31" s="40"/>
-      <c r="F31" s="40"/>
+      <c r="B31" s="38">
+        <v>3.3</v>
+      </c>
+      <c r="C31" s="80" t="s">
+        <v>65</v>
+      </c>
+      <c r="D31" s="79" t="s">
+        <v>43</v>
+      </c>
+      <c r="E31" s="40">
+        <v>45009</v>
+      </c>
+      <c r="F31" s="40">
+        <v>45009</v>
+      </c>
       <c r="G31" s="41">
-        <v>0</v>
-      </c>
-      <c r="H31" s="61">
+        <v>1</v>
+      </c>
+      <c r="H31" s="42">
         <v>0</v>
       </c>
       <c r="I31" s="52"/>
@@ -4634,19 +5129,25 @@
     </row>
     <row r="32" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A32" s="37"/>
-      <c r="B32" s="38">
-        <v>3.3</v>
-      </c>
-      <c r="C32" s="39"/>
-      <c r="D32" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="E32" s="40"/>
-      <c r="F32" s="40"/>
+      <c r="B32" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32" s="110" t="s">
+        <v>67</v>
+      </c>
+      <c r="D32" s="79" t="s">
+        <v>62</v>
+      </c>
+      <c r="E32" s="40">
+        <v>45009</v>
+      </c>
+      <c r="F32" s="40">
+        <v>45026</v>
+      </c>
       <c r="G32" s="41">
-        <v>0</v>
-      </c>
-      <c r="H32" s="42">
+        <v>15</v>
+      </c>
+      <c r="H32" s="61">
         <v>0</v>
       </c>
       <c r="I32" s="52"/>
@@ -4714,16 +5215,22 @@
     <row r="33" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A33" s="37"/>
       <c r="B33" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="C33" s="39"/>
-      <c r="D33" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="E33" s="40"/>
-      <c r="F33" s="40"/>
+        <v>75</v>
+      </c>
+      <c r="C33" s="80" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33" s="79" t="s">
+        <v>43</v>
+      </c>
+      <c r="E33" s="40">
+        <v>45012</v>
+      </c>
+      <c r="F33" s="40">
+        <v>45025</v>
+      </c>
       <c r="G33" s="41">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H33" s="42">
         <v>0</v>
@@ -4790,241 +5297,253 @@
       <c r="BP33" s="60"/>
       <c r="BQ33" s="37"/>
     </row>
-    <row r="34" spans="1:69" ht="21" customHeight="1">
-      <c r="A34" s="21"/>
-      <c r="B34" s="31">
-        <v>4</v>
-      </c>
-      <c r="C34" s="32"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="33"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="33"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="35"/>
-      <c r="K34" s="36"/>
-      <c r="L34" s="36"/>
-      <c r="M34" s="34"/>
-      <c r="N34" s="34"/>
-      <c r="O34" s="34"/>
-      <c r="P34" s="34"/>
-      <c r="Q34" s="34"/>
-      <c r="R34" s="34"/>
-      <c r="S34" s="34"/>
-      <c r="T34" s="34"/>
-      <c r="U34" s="34"/>
-      <c r="V34" s="34"/>
-      <c r="W34" s="34"/>
-      <c r="X34" s="34"/>
-      <c r="Y34" s="34"/>
-      <c r="Z34" s="34"/>
-      <c r="AA34" s="34"/>
-      <c r="AB34" s="34"/>
-      <c r="AC34" s="34"/>
-      <c r="AD34" s="34"/>
-      <c r="AE34" s="34"/>
-      <c r="AF34" s="34"/>
-      <c r="AG34" s="34"/>
-      <c r="AH34" s="34"/>
-      <c r="AI34" s="34"/>
-      <c r="AJ34" s="34"/>
-      <c r="AK34" s="34"/>
-      <c r="AL34" s="34"/>
-      <c r="AM34" s="34"/>
-      <c r="AN34" s="34"/>
-      <c r="AO34" s="34"/>
-      <c r="AP34" s="34"/>
-      <c r="AQ34" s="34"/>
-      <c r="AR34" s="34"/>
-      <c r="AS34" s="34"/>
-      <c r="AT34" s="34"/>
-      <c r="AU34" s="34"/>
-      <c r="AV34" s="34"/>
-      <c r="AW34" s="34"/>
-      <c r="AX34" s="34"/>
-      <c r="AY34" s="34"/>
-      <c r="AZ34" s="34"/>
-      <c r="BA34" s="34"/>
-      <c r="BB34" s="34"/>
-      <c r="BC34" s="34"/>
-      <c r="BD34" s="34"/>
-      <c r="BE34" s="34"/>
-      <c r="BF34" s="34"/>
-      <c r="BG34" s="34"/>
-      <c r="BH34" s="34"/>
-      <c r="BI34" s="34"/>
-      <c r="BJ34" s="34"/>
-      <c r="BK34" s="34"/>
-      <c r="BL34" s="34"/>
-      <c r="BM34" s="34"/>
-      <c r="BN34" s="34"/>
-      <c r="BO34" s="34"/>
-      <c r="BP34" s="34"/>
-      <c r="BQ34" s="21"/>
+    <row r="34" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A34" s="37"/>
+      <c r="B34" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34" s="111" t="s">
+        <v>69</v>
+      </c>
+      <c r="D34" s="79" t="s">
+        <v>43</v>
+      </c>
+      <c r="E34" s="40">
+        <v>45012</v>
+      </c>
+      <c r="F34" s="40">
+        <v>45013</v>
+      </c>
+      <c r="G34" s="41">
+        <v>2</v>
+      </c>
+      <c r="H34" s="42">
+        <v>0</v>
+      </c>
+      <c r="I34" s="52"/>
+      <c r="J34" s="53"/>
+      <c r="K34" s="54"/>
+      <c r="L34" s="54"/>
+      <c r="M34" s="54"/>
+      <c r="N34" s="55"/>
+      <c r="O34" s="55"/>
+      <c r="P34" s="55"/>
+      <c r="Q34" s="55"/>
+      <c r="R34" s="55"/>
+      <c r="S34" s="45"/>
+      <c r="T34" s="45"/>
+      <c r="U34" s="45"/>
+      <c r="V34" s="45"/>
+      <c r="W34" s="54"/>
+      <c r="X34" s="54"/>
+      <c r="Y34" s="54"/>
+      <c r="Z34" s="54"/>
+      <c r="AA34" s="54"/>
+      <c r="AB34" s="54"/>
+      <c r="AC34" s="57"/>
+      <c r="AD34" s="57"/>
+      <c r="AE34" s="57"/>
+      <c r="AF34" s="57"/>
+      <c r="AG34" s="57"/>
+      <c r="AH34" s="54"/>
+      <c r="AI34" s="54"/>
+      <c r="AJ34" s="54"/>
+      <c r="AK34" s="54"/>
+      <c r="AL34" s="54"/>
+      <c r="AM34" s="54"/>
+      <c r="AN34" s="54"/>
+      <c r="AO34" s="54"/>
+      <c r="AP34" s="54"/>
+      <c r="AQ34" s="54"/>
+      <c r="AR34" s="58"/>
+      <c r="AS34" s="58"/>
+      <c r="AT34" s="58"/>
+      <c r="AU34" s="58"/>
+      <c r="AV34" s="58"/>
+      <c r="AW34" s="54"/>
+      <c r="AX34" s="54"/>
+      <c r="AY34" s="54"/>
+      <c r="AZ34" s="54"/>
+      <c r="BA34" s="54"/>
+      <c r="BB34" s="54"/>
+      <c r="BC34" s="54"/>
+      <c r="BD34" s="54"/>
+      <c r="BE34" s="54"/>
+      <c r="BF34" s="54"/>
+      <c r="BG34" s="59"/>
+      <c r="BH34" s="59"/>
+      <c r="BI34" s="59"/>
+      <c r="BJ34" s="59"/>
+      <c r="BK34" s="59"/>
+      <c r="BL34" s="54"/>
+      <c r="BM34" s="54"/>
+      <c r="BN34" s="54"/>
+      <c r="BO34" s="54"/>
+      <c r="BP34" s="60"/>
+      <c r="BQ34" s="37"/>
     </row>
-    <row r="35" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="35" spans="1:69" ht="33" customHeight="1" outlineLevel="1">
       <c r="A35" s="37"/>
       <c r="B35" s="38">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="C35" s="39"/>
-      <c r="D35" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="E35" s="40"/>
-      <c r="F35" s="40"/>
+        <v>3.4</v>
+      </c>
+      <c r="C35" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="D35" s="79" t="s">
+        <v>43</v>
+      </c>
+      <c r="E35" s="40">
+        <v>45005</v>
+      </c>
+      <c r="F35" s="40">
+        <v>45025</v>
+      </c>
       <c r="G35" s="41">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H35" s="42">
-        <v>0</v>
-      </c>
-      <c r="I35" s="43"/>
-      <c r="J35" s="44"/>
-      <c r="K35" s="45"/>
-      <c r="L35" s="45"/>
-      <c r="M35" s="45"/>
-      <c r="N35" s="47"/>
-      <c r="O35" s="47"/>
-      <c r="P35" s="47"/>
-      <c r="Q35" s="47"/>
-      <c r="R35" s="47"/>
+        <v>0.1</v>
+      </c>
+      <c r="I35" s="52"/>
+      <c r="J35" s="53"/>
+      <c r="K35" s="54"/>
+      <c r="L35" s="54"/>
+      <c r="M35" s="54"/>
+      <c r="N35" s="55"/>
+      <c r="O35" s="55"/>
+      <c r="P35" s="55"/>
+      <c r="Q35" s="55"/>
+      <c r="R35" s="55"/>
       <c r="S35" s="45"/>
       <c r="T35" s="45"/>
       <c r="U35" s="45"/>
       <c r="V35" s="45"/>
-      <c r="W35" s="45"/>
-      <c r="X35" s="45"/>
-      <c r="Y35" s="45"/>
-      <c r="Z35" s="45"/>
-      <c r="AA35" s="45"/>
-      <c r="AB35" s="45"/>
-      <c r="AC35" s="48"/>
-      <c r="AD35" s="48"/>
-      <c r="AE35" s="48"/>
-      <c r="AF35" s="48"/>
-      <c r="AG35" s="48"/>
-      <c r="AH35" s="45"/>
-      <c r="AI35" s="45"/>
-      <c r="AJ35" s="45"/>
-      <c r="AK35" s="45"/>
-      <c r="AL35" s="45"/>
-      <c r="AM35" s="45"/>
-      <c r="AN35" s="45"/>
-      <c r="AO35" s="45"/>
-      <c r="AP35" s="45"/>
-      <c r="AQ35" s="45"/>
-      <c r="AR35" s="49"/>
-      <c r="AS35" s="49"/>
-      <c r="AT35" s="49"/>
-      <c r="AU35" s="49"/>
-      <c r="AV35" s="49"/>
-      <c r="AW35" s="45"/>
-      <c r="AX35" s="45"/>
-      <c r="AY35" s="45"/>
-      <c r="AZ35" s="45"/>
-      <c r="BA35" s="45"/>
-      <c r="BB35" s="45"/>
-      <c r="BC35" s="45"/>
-      <c r="BD35" s="45"/>
-      <c r="BE35" s="45"/>
-      <c r="BF35" s="45"/>
-      <c r="BG35" s="50"/>
-      <c r="BH35" s="50"/>
-      <c r="BI35" s="50"/>
-      <c r="BJ35" s="50"/>
-      <c r="BK35" s="50"/>
-      <c r="BL35" s="45"/>
-      <c r="BM35" s="45"/>
-      <c r="BN35" s="45"/>
-      <c r="BO35" s="45"/>
-      <c r="BP35" s="51"/>
+      <c r="W35" s="54"/>
+      <c r="X35" s="54"/>
+      <c r="Y35" s="54"/>
+      <c r="Z35" s="54"/>
+      <c r="AA35" s="54"/>
+      <c r="AB35" s="54"/>
+      <c r="AC35" s="57"/>
+      <c r="AD35" s="57"/>
+      <c r="AE35" s="57"/>
+      <c r="AF35" s="57"/>
+      <c r="AG35" s="57"/>
+      <c r="AH35" s="54"/>
+      <c r="AI35" s="54"/>
+      <c r="AJ35" s="54"/>
+      <c r="AK35" s="54"/>
+      <c r="AL35" s="54"/>
+      <c r="AM35" s="54"/>
+      <c r="AN35" s="54"/>
+      <c r="AO35" s="56"/>
+      <c r="AP35" s="56"/>
+      <c r="AQ35" s="54"/>
+      <c r="AR35" s="58"/>
+      <c r="AS35" s="58"/>
+      <c r="AT35" s="58"/>
+      <c r="AU35" s="58"/>
+      <c r="AV35" s="58"/>
+      <c r="AW35" s="54"/>
+      <c r="AX35" s="54"/>
+      <c r="AY35" s="54"/>
+      <c r="AZ35" s="54"/>
+      <c r="BA35" s="54"/>
+      <c r="BB35" s="54"/>
+      <c r="BC35" s="54"/>
+      <c r="BD35" s="54"/>
+      <c r="BE35" s="54"/>
+      <c r="BF35" s="54"/>
+      <c r="BG35" s="59"/>
+      <c r="BH35" s="59"/>
+      <c r="BI35" s="59"/>
+      <c r="BJ35" s="59"/>
+      <c r="BK35" s="59"/>
+      <c r="BL35" s="54"/>
+      <c r="BM35" s="54"/>
+      <c r="BN35" s="54"/>
+      <c r="BO35" s="54"/>
+      <c r="BP35" s="60"/>
       <c r="BQ35" s="37"/>
     </row>
-    <row r="36" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A36" s="37"/>
-      <c r="B36" s="38">
-        <v>4.2</v>
-      </c>
-      <c r="C36" s="39"/>
-      <c r="D36" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="E36" s="40"/>
-      <c r="F36" s="40"/>
-      <c r="G36" s="41">
-        <v>0</v>
-      </c>
-      <c r="H36" s="42">
-        <v>0</v>
-      </c>
-      <c r="I36" s="52"/>
-      <c r="J36" s="53"/>
-      <c r="K36" s="54"/>
-      <c r="L36" s="54"/>
-      <c r="M36" s="54"/>
-      <c r="N36" s="47"/>
-      <c r="O36" s="47"/>
-      <c r="P36" s="47"/>
-      <c r="Q36" s="47"/>
-      <c r="R36" s="47"/>
-      <c r="S36" s="54"/>
-      <c r="T36" s="54"/>
-      <c r="U36" s="54"/>
-      <c r="V36" s="54"/>
-      <c r="W36" s="54"/>
-      <c r="X36" s="54"/>
-      <c r="Y36" s="54"/>
-      <c r="Z36" s="54"/>
-      <c r="AA36" s="54"/>
-      <c r="AB36" s="54"/>
-      <c r="AC36" s="57"/>
-      <c r="AD36" s="57"/>
-      <c r="AE36" s="57"/>
-      <c r="AF36" s="57"/>
-      <c r="AG36" s="57"/>
-      <c r="AH36" s="54"/>
-      <c r="AI36" s="54"/>
-      <c r="AJ36" s="54"/>
-      <c r="AK36" s="54"/>
-      <c r="AL36" s="54"/>
-      <c r="AM36" s="54"/>
-      <c r="AN36" s="54"/>
-      <c r="AO36" s="54"/>
-      <c r="AP36" s="54"/>
-      <c r="AQ36" s="54"/>
-      <c r="AR36" s="58"/>
-      <c r="AS36" s="58"/>
-      <c r="AT36" s="58"/>
-      <c r="AU36" s="58"/>
-      <c r="AV36" s="58"/>
-      <c r="AW36" s="54"/>
-      <c r="AX36" s="54"/>
-      <c r="AY36" s="54"/>
-      <c r="AZ36" s="54"/>
-      <c r="BA36" s="54"/>
-      <c r="BB36" s="54"/>
-      <c r="BC36" s="54"/>
-      <c r="BD36" s="54"/>
-      <c r="BE36" s="54"/>
-      <c r="BF36" s="54"/>
-      <c r="BG36" s="59"/>
-      <c r="BH36" s="59"/>
-      <c r="BI36" s="59"/>
-      <c r="BJ36" s="59"/>
-      <c r="BK36" s="59"/>
-      <c r="BL36" s="54"/>
-      <c r="BM36" s="54"/>
-      <c r="BN36" s="54"/>
-      <c r="BO36" s="54"/>
-      <c r="BP36" s="60"/>
-      <c r="BQ36" s="37"/>
+    <row r="36" spans="1:69" ht="21" customHeight="1">
+      <c r="A36" s="21"/>
+      <c r="B36" s="31">
+        <v>4</v>
+      </c>
+      <c r="C36" s="32"/>
+      <c r="D36" s="33"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="33"/>
+      <c r="I36" s="34"/>
+      <c r="J36" s="35"/>
+      <c r="K36" s="36"/>
+      <c r="L36" s="36"/>
+      <c r="M36" s="34"/>
+      <c r="N36" s="34"/>
+      <c r="O36" s="34"/>
+      <c r="P36" s="34"/>
+      <c r="Q36" s="34"/>
+      <c r="R36" s="34"/>
+      <c r="S36" s="34"/>
+      <c r="T36" s="34"/>
+      <c r="U36" s="34"/>
+      <c r="V36" s="34"/>
+      <c r="W36" s="34"/>
+      <c r="X36" s="34"/>
+      <c r="Y36" s="34"/>
+      <c r="Z36" s="34"/>
+      <c r="AA36" s="34"/>
+      <c r="AB36" s="34"/>
+      <c r="AC36" s="34"/>
+      <c r="AD36" s="34"/>
+      <c r="AE36" s="34"/>
+      <c r="AF36" s="34"/>
+      <c r="AG36" s="34"/>
+      <c r="AH36" s="34"/>
+      <c r="AI36" s="34"/>
+      <c r="AJ36" s="34"/>
+      <c r="AK36" s="34"/>
+      <c r="AL36" s="34"/>
+      <c r="AM36" s="34"/>
+      <c r="AN36" s="34"/>
+      <c r="AO36" s="34"/>
+      <c r="AP36" s="34"/>
+      <c r="AQ36" s="34"/>
+      <c r="AR36" s="34"/>
+      <c r="AS36" s="34"/>
+      <c r="AT36" s="34"/>
+      <c r="AU36" s="34"/>
+      <c r="AV36" s="34"/>
+      <c r="AW36" s="34"/>
+      <c r="AX36" s="34"/>
+      <c r="AY36" s="34"/>
+      <c r="AZ36" s="34"/>
+      <c r="BA36" s="34"/>
+      <c r="BB36" s="34"/>
+      <c r="BC36" s="34"/>
+      <c r="BD36" s="34"/>
+      <c r="BE36" s="34"/>
+      <c r="BF36" s="34"/>
+      <c r="BG36" s="34"/>
+      <c r="BH36" s="34"/>
+      <c r="BI36" s="34"/>
+      <c r="BJ36" s="34"/>
+      <c r="BK36" s="34"/>
+      <c r="BL36" s="34"/>
+      <c r="BM36" s="34"/>
+      <c r="BN36" s="34"/>
+      <c r="BO36" s="34"/>
+      <c r="BP36" s="34"/>
+      <c r="BQ36" s="21"/>
     </row>
     <row r="37" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A37" s="37"/>
       <c r="B37" s="38">
-        <v>4.3</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C37" s="39"/>
       <c r="D37" s="39" t="s">
@@ -5038,11 +5557,11 @@
       <c r="H37" s="42">
         <v>0</v>
       </c>
-      <c r="I37" s="52"/>
-      <c r="J37" s="53"/>
-      <c r="K37" s="54"/>
-      <c r="L37" s="54"/>
-      <c r="M37" s="54"/>
+      <c r="I37" s="43"/>
+      <c r="J37" s="44"/>
+      <c r="K37" s="45"/>
+      <c r="L37" s="45"/>
+      <c r="M37" s="45"/>
       <c r="N37" s="47"/>
       <c r="O37" s="47"/>
       <c r="P37" s="47"/>
@@ -5052,58 +5571,58 @@
       <c r="T37" s="45"/>
       <c r="U37" s="45"/>
       <c r="V37" s="45"/>
-      <c r="W37" s="54"/>
-      <c r="X37" s="54"/>
-      <c r="Y37" s="54"/>
-      <c r="Z37" s="54"/>
-      <c r="AA37" s="54"/>
-      <c r="AB37" s="54"/>
-      <c r="AC37" s="57"/>
-      <c r="AD37" s="57"/>
-      <c r="AE37" s="57"/>
-      <c r="AF37" s="57"/>
-      <c r="AG37" s="57"/>
-      <c r="AH37" s="54"/>
-      <c r="AI37" s="54"/>
-      <c r="AJ37" s="54"/>
-      <c r="AK37" s="54"/>
-      <c r="AL37" s="54"/>
-      <c r="AM37" s="54"/>
-      <c r="AN37" s="54"/>
-      <c r="AO37" s="54"/>
-      <c r="AP37" s="54"/>
-      <c r="AQ37" s="54"/>
-      <c r="AR37" s="58"/>
-      <c r="AS37" s="58"/>
-      <c r="AT37" s="58"/>
-      <c r="AU37" s="58"/>
-      <c r="AV37" s="58"/>
-      <c r="AW37" s="54"/>
-      <c r="AX37" s="54"/>
-      <c r="AY37" s="54"/>
-      <c r="AZ37" s="54"/>
-      <c r="BA37" s="54"/>
-      <c r="BB37" s="54"/>
-      <c r="BC37" s="54"/>
-      <c r="BD37" s="54"/>
-      <c r="BE37" s="54"/>
-      <c r="BF37" s="54"/>
-      <c r="BG37" s="59"/>
-      <c r="BH37" s="59"/>
-      <c r="BI37" s="59"/>
-      <c r="BJ37" s="59"/>
-      <c r="BK37" s="59"/>
-      <c r="BL37" s="54"/>
-      <c r="BM37" s="54"/>
-      <c r="BN37" s="54"/>
-      <c r="BO37" s="54"/>
-      <c r="BP37" s="60"/>
+      <c r="W37" s="45"/>
+      <c r="X37" s="45"/>
+      <c r="Y37" s="45"/>
+      <c r="Z37" s="45"/>
+      <c r="AA37" s="45"/>
+      <c r="AB37" s="45"/>
+      <c r="AC37" s="48"/>
+      <c r="AD37" s="48"/>
+      <c r="AE37" s="48"/>
+      <c r="AF37" s="48"/>
+      <c r="AG37" s="48"/>
+      <c r="AH37" s="45"/>
+      <c r="AI37" s="45"/>
+      <c r="AJ37" s="45"/>
+      <c r="AK37" s="45"/>
+      <c r="AL37" s="45"/>
+      <c r="AM37" s="45"/>
+      <c r="AN37" s="45"/>
+      <c r="AO37" s="45"/>
+      <c r="AP37" s="45"/>
+      <c r="AQ37" s="45"/>
+      <c r="AR37" s="49"/>
+      <c r="AS37" s="49"/>
+      <c r="AT37" s="49"/>
+      <c r="AU37" s="49"/>
+      <c r="AV37" s="49"/>
+      <c r="AW37" s="45"/>
+      <c r="AX37" s="45"/>
+      <c r="AY37" s="45"/>
+      <c r="AZ37" s="45"/>
+      <c r="BA37" s="45"/>
+      <c r="BB37" s="45"/>
+      <c r="BC37" s="45"/>
+      <c r="BD37" s="45"/>
+      <c r="BE37" s="45"/>
+      <c r="BF37" s="45"/>
+      <c r="BG37" s="50"/>
+      <c r="BH37" s="50"/>
+      <c r="BI37" s="50"/>
+      <c r="BJ37" s="50"/>
+      <c r="BK37" s="50"/>
+      <c r="BL37" s="45"/>
+      <c r="BM37" s="45"/>
+      <c r="BN37" s="45"/>
+      <c r="BO37" s="45"/>
+      <c r="BP37" s="51"/>
       <c r="BQ37" s="37"/>
     </row>
     <row r="38" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A38" s="37"/>
       <c r="B38" s="38">
-        <v>4.4000000000000004</v>
+        <v>4.2</v>
       </c>
       <c r="C38" s="39"/>
       <c r="D38" s="39" t="s">
@@ -5114,7 +5633,7 @@
       <c r="G38" s="41">
         <v>0</v>
       </c>
-      <c r="H38" s="61">
+      <c r="H38" s="42">
         <v>0</v>
       </c>
       <c r="I38" s="52"/>
@@ -5127,10 +5646,10 @@
       <c r="P38" s="47"/>
       <c r="Q38" s="47"/>
       <c r="R38" s="47"/>
-      <c r="S38" s="45"/>
-      <c r="T38" s="45"/>
-      <c r="U38" s="45"/>
-      <c r="V38" s="45"/>
+      <c r="S38" s="54"/>
+      <c r="T38" s="54"/>
+      <c r="U38" s="54"/>
+      <c r="V38" s="54"/>
       <c r="W38" s="54"/>
       <c r="X38" s="54"/>
       <c r="Y38" s="54"/>
@@ -5179,147 +5698,163 @@
       <c r="BP38" s="60"/>
       <c r="BQ38" s="37"/>
     </row>
-    <row r="39" spans="1:69" ht="21" customHeight="1">
-      <c r="A39" s="21"/>
-      <c r="B39" s="21"/>
-      <c r="C39" s="21"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="77"/>
-      <c r="H39" s="77"/>
-      <c r="I39" s="21"/>
-      <c r="J39" s="21"/>
-      <c r="K39" s="21"/>
-      <c r="L39" s="21"/>
-      <c r="M39" s="21"/>
-      <c r="N39" s="21"/>
-      <c r="O39" s="21"/>
-      <c r="P39" s="21"/>
-      <c r="Q39" s="21"/>
-      <c r="R39" s="21"/>
-      <c r="S39" s="21"/>
-      <c r="T39" s="21"/>
-      <c r="U39" s="21"/>
-      <c r="V39" s="21"/>
-      <c r="W39" s="21"/>
-      <c r="X39" s="21"/>
-      <c r="Y39" s="21"/>
-      <c r="Z39" s="21"/>
-      <c r="AA39" s="21"/>
-      <c r="AB39" s="21"/>
-      <c r="AC39" s="21"/>
-      <c r="AD39" s="21"/>
-      <c r="AE39" s="21"/>
-      <c r="AF39" s="21"/>
-      <c r="AG39" s="21"/>
-      <c r="AH39" s="21"/>
-      <c r="AI39" s="21"/>
-      <c r="AJ39" s="21"/>
-      <c r="AK39" s="21"/>
-      <c r="AL39" s="21"/>
-      <c r="AM39" s="21"/>
-      <c r="AN39" s="21"/>
-      <c r="AO39" s="21"/>
-      <c r="AP39" s="21"/>
-      <c r="AQ39" s="21"/>
-      <c r="AR39" s="21"/>
-      <c r="AS39" s="21"/>
-      <c r="AT39" s="21"/>
-      <c r="AU39" s="21"/>
-      <c r="AV39" s="21"/>
-      <c r="AW39" s="21"/>
-      <c r="AX39" s="21"/>
-      <c r="AY39" s="21"/>
-      <c r="AZ39" s="21"/>
-      <c r="BA39" s="21"/>
-      <c r="BB39" s="21"/>
-      <c r="BC39" s="21"/>
-      <c r="BD39" s="21"/>
-      <c r="BE39" s="21"/>
-      <c r="BF39" s="21"/>
-      <c r="BG39" s="21"/>
-      <c r="BH39" s="21"/>
-      <c r="BI39" s="21"/>
-      <c r="BJ39" s="21"/>
-      <c r="BK39" s="21"/>
-      <c r="BL39" s="21"/>
-      <c r="BM39" s="21"/>
-      <c r="BN39" s="21"/>
-      <c r="BO39" s="21"/>
-      <c r="BP39" s="21"/>
-      <c r="BQ39" s="21"/>
+    <row r="39" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A39" s="37"/>
+      <c r="B39" s="38">
+        <v>4.3</v>
+      </c>
+      <c r="C39" s="39"/>
+      <c r="D39" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="E39" s="40"/>
+      <c r="F39" s="40"/>
+      <c r="G39" s="41">
+        <v>0</v>
+      </c>
+      <c r="H39" s="42">
+        <v>0</v>
+      </c>
+      <c r="I39" s="52"/>
+      <c r="J39" s="53"/>
+      <c r="K39" s="54"/>
+      <c r="L39" s="54"/>
+      <c r="M39" s="54"/>
+      <c r="N39" s="47"/>
+      <c r="O39" s="47"/>
+      <c r="P39" s="47"/>
+      <c r="Q39" s="47"/>
+      <c r="R39" s="47"/>
+      <c r="S39" s="45"/>
+      <c r="T39" s="45"/>
+      <c r="U39" s="45"/>
+      <c r="V39" s="45"/>
+      <c r="W39" s="54"/>
+      <c r="X39" s="54"/>
+      <c r="Y39" s="54"/>
+      <c r="Z39" s="54"/>
+      <c r="AA39" s="54"/>
+      <c r="AB39" s="54"/>
+      <c r="AC39" s="57"/>
+      <c r="AD39" s="57"/>
+      <c r="AE39" s="57"/>
+      <c r="AF39" s="57"/>
+      <c r="AG39" s="57"/>
+      <c r="AH39" s="54"/>
+      <c r="AI39" s="54"/>
+      <c r="AJ39" s="54"/>
+      <c r="AK39" s="54"/>
+      <c r="AL39" s="54"/>
+      <c r="AM39" s="54"/>
+      <c r="AN39" s="54"/>
+      <c r="AO39" s="54"/>
+      <c r="AP39" s="54"/>
+      <c r="AQ39" s="54"/>
+      <c r="AR39" s="58"/>
+      <c r="AS39" s="58"/>
+      <c r="AT39" s="58"/>
+      <c r="AU39" s="58"/>
+      <c r="AV39" s="58"/>
+      <c r="AW39" s="54"/>
+      <c r="AX39" s="54"/>
+      <c r="AY39" s="54"/>
+      <c r="AZ39" s="54"/>
+      <c r="BA39" s="54"/>
+      <c r="BB39" s="54"/>
+      <c r="BC39" s="54"/>
+      <c r="BD39" s="54"/>
+      <c r="BE39" s="54"/>
+      <c r="BF39" s="54"/>
+      <c r="BG39" s="59"/>
+      <c r="BH39" s="59"/>
+      <c r="BI39" s="59"/>
+      <c r="BJ39" s="59"/>
+      <c r="BK39" s="59"/>
+      <c r="BL39" s="54"/>
+      <c r="BM39" s="54"/>
+      <c r="BN39" s="54"/>
+      <c r="BO39" s="54"/>
+      <c r="BP39" s="60"/>
+      <c r="BQ39" s="37"/>
     </row>
-    <row r="40" spans="1:69" ht="21" customHeight="1">
-      <c r="A40" s="21"/>
-      <c r="B40" s="21"/>
-      <c r="C40" s="21"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="77"/>
-      <c r="H40" s="77"/>
-      <c r="I40" s="21"/>
-      <c r="J40" s="21"/>
-      <c r="K40" s="21"/>
-      <c r="L40" s="21"/>
-      <c r="M40" s="21"/>
-      <c r="N40" s="21"/>
-      <c r="O40" s="21"/>
-      <c r="P40" s="21"/>
-      <c r="Q40" s="21"/>
-      <c r="R40" s="21"/>
-      <c r="S40" s="21"/>
-      <c r="T40" s="21"/>
-      <c r="U40" s="21"/>
-      <c r="V40" s="21"/>
-      <c r="W40" s="21"/>
-      <c r="X40" s="21"/>
-      <c r="Y40" s="21"/>
-      <c r="Z40" s="21"/>
-      <c r="AA40" s="21"/>
-      <c r="AB40" s="21"/>
-      <c r="AC40" s="21"/>
-      <c r="AD40" s="21"/>
-      <c r="AE40" s="21"/>
-      <c r="AF40" s="21"/>
-      <c r="AG40" s="21"/>
-      <c r="AH40" s="21"/>
-      <c r="AI40" s="21"/>
-      <c r="AJ40" s="21"/>
-      <c r="AK40" s="21"/>
-      <c r="AL40" s="21"/>
-      <c r="AM40" s="21"/>
-      <c r="AN40" s="21"/>
-      <c r="AO40" s="21"/>
-      <c r="AP40" s="21"/>
-      <c r="AQ40" s="21"/>
-      <c r="AR40" s="21"/>
-      <c r="AS40" s="21"/>
-      <c r="AT40" s="21"/>
-      <c r="AU40" s="21"/>
-      <c r="AV40" s="21"/>
-      <c r="AW40" s="21"/>
-      <c r="AX40" s="21"/>
-      <c r="AY40" s="21"/>
-      <c r="AZ40" s="21"/>
-      <c r="BA40" s="21"/>
-      <c r="BB40" s="21"/>
-      <c r="BC40" s="21"/>
-      <c r="BD40" s="21"/>
-      <c r="BE40" s="21"/>
-      <c r="BF40" s="21"/>
-      <c r="BG40" s="21"/>
-      <c r="BH40" s="21"/>
-      <c r="BI40" s="21"/>
-      <c r="BJ40" s="21"/>
-      <c r="BK40" s="21"/>
-      <c r="BL40" s="21"/>
-      <c r="BM40" s="21"/>
-      <c r="BN40" s="21"/>
-      <c r="BO40" s="21"/>
-      <c r="BP40" s="21"/>
-      <c r="BQ40" s="21"/>
+    <row r="40" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A40" s="37"/>
+      <c r="B40" s="38">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C40" s="39"/>
+      <c r="D40" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="E40" s="40"/>
+      <c r="F40" s="40"/>
+      <c r="G40" s="41">
+        <v>0</v>
+      </c>
+      <c r="H40" s="61">
+        <v>0</v>
+      </c>
+      <c r="I40" s="52"/>
+      <c r="J40" s="53"/>
+      <c r="K40" s="54"/>
+      <c r="L40" s="54"/>
+      <c r="M40" s="54"/>
+      <c r="N40" s="47"/>
+      <c r="O40" s="47"/>
+      <c r="P40" s="47"/>
+      <c r="Q40" s="47"/>
+      <c r="R40" s="47"/>
+      <c r="S40" s="45"/>
+      <c r="T40" s="45"/>
+      <c r="U40" s="45"/>
+      <c r="V40" s="45"/>
+      <c r="W40" s="54"/>
+      <c r="X40" s="54"/>
+      <c r="Y40" s="54"/>
+      <c r="Z40" s="54"/>
+      <c r="AA40" s="54"/>
+      <c r="AB40" s="54"/>
+      <c r="AC40" s="57"/>
+      <c r="AD40" s="57"/>
+      <c r="AE40" s="57"/>
+      <c r="AF40" s="57"/>
+      <c r="AG40" s="57"/>
+      <c r="AH40" s="54"/>
+      <c r="AI40" s="54"/>
+      <c r="AJ40" s="54"/>
+      <c r="AK40" s="54"/>
+      <c r="AL40" s="54"/>
+      <c r="AM40" s="54"/>
+      <c r="AN40" s="54"/>
+      <c r="AO40" s="54"/>
+      <c r="AP40" s="54"/>
+      <c r="AQ40" s="54"/>
+      <c r="AR40" s="58"/>
+      <c r="AS40" s="58"/>
+      <c r="AT40" s="58"/>
+      <c r="AU40" s="58"/>
+      <c r="AV40" s="58"/>
+      <c r="AW40" s="54"/>
+      <c r="AX40" s="54"/>
+      <c r="AY40" s="54"/>
+      <c r="AZ40" s="54"/>
+      <c r="BA40" s="54"/>
+      <c r="BB40" s="54"/>
+      <c r="BC40" s="54"/>
+      <c r="BD40" s="54"/>
+      <c r="BE40" s="54"/>
+      <c r="BF40" s="54"/>
+      <c r="BG40" s="59"/>
+      <c r="BH40" s="59"/>
+      <c r="BI40" s="59"/>
+      <c r="BJ40" s="59"/>
+      <c r="BK40" s="59"/>
+      <c r="BL40" s="54"/>
+      <c r="BM40" s="54"/>
+      <c r="BN40" s="54"/>
+      <c r="BO40" s="54"/>
+      <c r="BP40" s="60"/>
+      <c r="BQ40" s="37"/>
     </row>
     <row r="41" spans="1:69" ht="21" customHeight="1">
       <c r="A41" s="21"/>
@@ -5328,8 +5863,8 @@
       <c r="D41" s="21"/>
       <c r="E41" s="21"/>
       <c r="F41" s="21"/>
-      <c r="G41" s="77"/>
-      <c r="H41" s="77"/>
+      <c r="G41" s="75"/>
+      <c r="H41" s="75"/>
       <c r="I41" s="21"/>
       <c r="J41" s="21"/>
       <c r="K41" s="21"/>
@@ -5392,8 +5927,172 @@
       <c r="BP41" s="21"/>
       <c r="BQ41" s="21"/>
     </row>
+    <row r="42" spans="1:69" ht="21" customHeight="1">
+      <c r="A42" s="21"/>
+      <c r="B42" s="21"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="75"/>
+      <c r="H42" s="75"/>
+      <c r="I42" s="21"/>
+      <c r="J42" s="21"/>
+      <c r="K42" s="21"/>
+      <c r="L42" s="21"/>
+      <c r="M42" s="21"/>
+      <c r="N42" s="21"/>
+      <c r="O42" s="21"/>
+      <c r="P42" s="21"/>
+      <c r="Q42" s="21"/>
+      <c r="R42" s="21"/>
+      <c r="S42" s="21"/>
+      <c r="T42" s="21"/>
+      <c r="U42" s="21"/>
+      <c r="V42" s="21"/>
+      <c r="W42" s="21"/>
+      <c r="X42" s="21"/>
+      <c r="Y42" s="21"/>
+      <c r="Z42" s="21"/>
+      <c r="AA42" s="21"/>
+      <c r="AB42" s="21"/>
+      <c r="AC42" s="21"/>
+      <c r="AD42" s="21"/>
+      <c r="AE42" s="21"/>
+      <c r="AF42" s="21"/>
+      <c r="AG42" s="21"/>
+      <c r="AH42" s="21"/>
+      <c r="AI42" s="21"/>
+      <c r="AJ42" s="21"/>
+      <c r="AK42" s="21"/>
+      <c r="AL42" s="21"/>
+      <c r="AM42" s="21"/>
+      <c r="AN42" s="21"/>
+      <c r="AO42" s="21"/>
+      <c r="AP42" s="21"/>
+      <c r="AQ42" s="21"/>
+      <c r="AR42" s="21"/>
+      <c r="AS42" s="21"/>
+      <c r="AT42" s="21"/>
+      <c r="AU42" s="21"/>
+      <c r="AV42" s="21"/>
+      <c r="AW42" s="21"/>
+      <c r="AX42" s="21"/>
+      <c r="AY42" s="21"/>
+      <c r="AZ42" s="21"/>
+      <c r="BA42" s="21"/>
+      <c r="BB42" s="21"/>
+      <c r="BC42" s="21"/>
+      <c r="BD42" s="21"/>
+      <c r="BE42" s="21"/>
+      <c r="BF42" s="21"/>
+      <c r="BG42" s="21"/>
+      <c r="BH42" s="21"/>
+      <c r="BI42" s="21"/>
+      <c r="BJ42" s="21"/>
+      <c r="BK42" s="21"/>
+      <c r="BL42" s="21"/>
+      <c r="BM42" s="21"/>
+      <c r="BN42" s="21"/>
+      <c r="BO42" s="21"/>
+      <c r="BP42" s="21"/>
+      <c r="BQ42" s="21"/>
+    </row>
+    <row r="43" spans="1:69" ht="21" customHeight="1">
+      <c r="A43" s="21"/>
+      <c r="B43" s="21"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="75"/>
+      <c r="H43" s="75"/>
+      <c r="I43" s="21"/>
+      <c r="J43" s="21"/>
+      <c r="K43" s="21"/>
+      <c r="L43" s="21"/>
+      <c r="M43" s="21"/>
+      <c r="N43" s="21"/>
+      <c r="O43" s="21"/>
+      <c r="P43" s="21"/>
+      <c r="Q43" s="21"/>
+      <c r="R43" s="21"/>
+      <c r="S43" s="21"/>
+      <c r="T43" s="21"/>
+      <c r="U43" s="21"/>
+      <c r="V43" s="21"/>
+      <c r="W43" s="21"/>
+      <c r="X43" s="21"/>
+      <c r="Y43" s="21"/>
+      <c r="Z43" s="21"/>
+      <c r="AA43" s="21"/>
+      <c r="AB43" s="21"/>
+      <c r="AC43" s="21"/>
+      <c r="AD43" s="21"/>
+      <c r="AE43" s="21"/>
+      <c r="AF43" s="21"/>
+      <c r="AG43" s="21"/>
+      <c r="AH43" s="21"/>
+      <c r="AI43" s="21"/>
+      <c r="AJ43" s="21"/>
+      <c r="AK43" s="21"/>
+      <c r="AL43" s="21"/>
+      <c r="AM43" s="21"/>
+      <c r="AN43" s="21"/>
+      <c r="AO43" s="21"/>
+      <c r="AP43" s="21"/>
+      <c r="AQ43" s="21"/>
+      <c r="AR43" s="21"/>
+      <c r="AS43" s="21"/>
+      <c r="AT43" s="21"/>
+      <c r="AU43" s="21"/>
+      <c r="AV43" s="21"/>
+      <c r="AW43" s="21"/>
+      <c r="AX43" s="21"/>
+      <c r="AY43" s="21"/>
+      <c r="AZ43" s="21"/>
+      <c r="BA43" s="21"/>
+      <c r="BB43" s="21"/>
+      <c r="BC43" s="21"/>
+      <c r="BD43" s="21"/>
+      <c r="BE43" s="21"/>
+      <c r="BF43" s="21"/>
+      <c r="BG43" s="21"/>
+      <c r="BH43" s="21"/>
+      <c r="BI43" s="21"/>
+      <c r="BJ43" s="21"/>
+      <c r="BK43" s="21"/>
+      <c r="BL43" s="21"/>
+      <c r="BM43" s="21"/>
+      <c r="BN43" s="21"/>
+      <c r="BO43" s="21"/>
+      <c r="BP43" s="21"/>
+      <c r="BQ43" s="21"/>
+    </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="H8:H10"/>
+    <mergeCell ref="S9:W9"/>
+    <mergeCell ref="N9:R9"/>
+    <mergeCell ref="I9:M9"/>
+    <mergeCell ref="I8:W8"/>
+    <mergeCell ref="I2:N2"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="I5:O5"/>
+    <mergeCell ref="P5:AA5"/>
+    <mergeCell ref="I4:O4"/>
+    <mergeCell ref="P4:AB4"/>
+    <mergeCell ref="O2:AG2"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="B5:C5"/>
     <mergeCell ref="BG9:BK9"/>
     <mergeCell ref="BL9:BP9"/>
     <mergeCell ref="BB9:BF9"/>
@@ -5406,31 +6105,9 @@
     <mergeCell ref="AR9:AV9"/>
     <mergeCell ref="AW9:BA9"/>
     <mergeCell ref="AM9:AQ9"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="I2:N2"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="I5:O5"/>
-    <mergeCell ref="P5:AA5"/>
-    <mergeCell ref="I4:O4"/>
-    <mergeCell ref="P4:AB4"/>
-    <mergeCell ref="O2:AG2"/>
-    <mergeCell ref="H8:H10"/>
-    <mergeCell ref="S9:W9"/>
-    <mergeCell ref="N9:R9"/>
-    <mergeCell ref="I9:M9"/>
-    <mergeCell ref="I8:W8"/>
   </mergeCells>
-  <phoneticPr fontId="31" type="noConversion"/>
-  <conditionalFormatting sqref="H12:H18 H20:H38">
+  <phoneticPr fontId="30" type="noConversion"/>
+  <conditionalFormatting sqref="H12:H18 H20:H40">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -5440,7 +6117,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H12:H18 H20:H38">
+  <conditionalFormatting sqref="H12:H18 H20:H40">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>

--- a/일정/갠트 차트.xlsx
+++ b/일정/갠트 차트.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sanghee\Desktop\develop\2wda_2semester\2WDA_YJSangSa_CapstoneDesign\일정\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{477CF2A9-9CEE-453A-8392-C499C8875CF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D62BB8EE-787D-4AA6-8AEE-32B09395FCFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="78">
   <si>
     <t>갠트 차트 템플릿</t>
   </si>
@@ -399,46 +399,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">React </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>강의듣기</t>
-    </r>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">React </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">Native </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>강의듣기</t>
-    </r>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">ZEPETO </t>
     </r>
     <r>
@@ -1051,6 +1011,94 @@
   </si>
   <si>
     <t>3.1.3</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>백엔드 뼈대 spring 활용하여 제작</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">React </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>강의듣기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>기간연장)</t>
+    </r>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">React </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">Native </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>강의듣기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기간연장</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>)</t>
+    </r>
     <phoneticPr fontId="30" type="noConversion"/>
   </si>
 </sst>
@@ -1062,7 +1110,7 @@
     <numFmt numFmtId="176" formatCode="yy&quot;년 &quot;m&quot;월 &quot;d&quot;일&quot;"/>
     <numFmt numFmtId="177" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="56">
+  <fonts count="55">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1372,13 +1420,6 @@
       <color rgb="FF434343"/>
       <name val="Roboto"/>
       <family val="3"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF434343"/>
-      <name val="Arial Unicode MS"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2026,15 +2067,57 @@
     <xf numFmtId="0" fontId="37" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2047,48 +2130,6 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2449,10 +2490,10 @@
     <tabColor rgb="FF3D85C6"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BQ43"/>
+  <dimension ref="A1:BQ44"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="Q36" sqref="Q36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1"/>
@@ -2540,44 +2581,44 @@
     </row>
     <row r="2" spans="1:69" ht="40.5">
       <c r="A2" s="1"/>
-      <c r="B2" s="104" t="s">
+      <c r="B2" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
       <c r="H2" s="10"/>
-      <c r="I2" s="102" t="s">
+      <c r="I2" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="103"/>
-      <c r="K2" s="103"/>
-      <c r="L2" s="103"/>
-      <c r="M2" s="103"/>
-      <c r="N2" s="103"/>
-      <c r="O2" s="107" t="s">
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="95"/>
+      <c r="M2" s="95"/>
+      <c r="N2" s="95"/>
+      <c r="O2" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="103"/>
-      <c r="Q2" s="103"/>
-      <c r="R2" s="103"/>
-      <c r="S2" s="103"/>
-      <c r="T2" s="103"/>
-      <c r="U2" s="103"/>
-      <c r="V2" s="103"/>
-      <c r="W2" s="103"/>
-      <c r="X2" s="103"/>
-      <c r="Y2" s="103"/>
-      <c r="Z2" s="103"/>
-      <c r="AA2" s="103"/>
-      <c r="AB2" s="103"/>
-      <c r="AC2" s="103"/>
-      <c r="AD2" s="103"/>
-      <c r="AE2" s="103"/>
-      <c r="AF2" s="103"/>
-      <c r="AG2" s="103"/>
+      <c r="P2" s="95"/>
+      <c r="Q2" s="95"/>
+      <c r="R2" s="95"/>
+      <c r="S2" s="95"/>
+      <c r="T2" s="95"/>
+      <c r="U2" s="95"/>
+      <c r="V2" s="95"/>
+      <c r="W2" s="95"/>
+      <c r="X2" s="95"/>
+      <c r="Y2" s="95"/>
+      <c r="Z2" s="95"/>
+      <c r="AA2" s="95"/>
+      <c r="AB2" s="95"/>
+      <c r="AC2" s="95"/>
+      <c r="AD2" s="95"/>
+      <c r="AE2" s="95"/>
+      <c r="AF2" s="95"/>
+      <c r="AG2" s="95"/>
       <c r="AH2" s="11"/>
       <c r="AI2" s="11"/>
       <c r="AJ2" s="11"/>
@@ -2688,41 +2729,41 @@
     </row>
     <row r="4" spans="1:69" ht="21" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="99" t="s">
+      <c r="B4" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="100"/>
-      <c r="D4" s="97" t="s">
+      <c r="C4" s="98"/>
+      <c r="D4" s="102" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="98"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="98"/>
+      <c r="E4" s="103"/>
+      <c r="F4" s="103"/>
+      <c r="G4" s="103"/>
       <c r="H4" s="16"/>
-      <c r="I4" s="99" t="s">
+      <c r="I4" s="97" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="100"/>
-      <c r="K4" s="100"/>
-      <c r="L4" s="100"/>
-      <c r="M4" s="100"/>
-      <c r="N4" s="100"/>
-      <c r="O4" s="100"/>
-      <c r="P4" s="106" t="s">
+      <c r="J4" s="98"/>
+      <c r="K4" s="98"/>
+      <c r="L4" s="98"/>
+      <c r="M4" s="98"/>
+      <c r="N4" s="98"/>
+      <c r="O4" s="98"/>
+      <c r="P4" s="100" t="s">
         <v>39</v>
       </c>
-      <c r="Q4" s="100"/>
-      <c r="R4" s="100"/>
-      <c r="S4" s="100"/>
-      <c r="T4" s="100"/>
-      <c r="U4" s="100"/>
-      <c r="V4" s="100"/>
-      <c r="W4" s="100"/>
-      <c r="X4" s="100"/>
-      <c r="Y4" s="100"/>
-      <c r="Z4" s="100"/>
-      <c r="AA4" s="100"/>
-      <c r="AB4" s="100"/>
+      <c r="Q4" s="98"/>
+      <c r="R4" s="98"/>
+      <c r="S4" s="98"/>
+      <c r="T4" s="98"/>
+      <c r="U4" s="98"/>
+      <c r="V4" s="98"/>
+      <c r="W4" s="98"/>
+      <c r="X4" s="98"/>
+      <c r="Y4" s="98"/>
+      <c r="Z4" s="98"/>
+      <c r="AA4" s="98"/>
+      <c r="AB4" s="98"/>
       <c r="AC4" s="17"/>
       <c r="AD4" s="9"/>
       <c r="AE4" s="9"/>
@@ -2767,40 +2808,40 @@
     </row>
     <row r="5" spans="1:69" ht="21" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="99" t="s">
+      <c r="B5" s="97" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="100"/>
-      <c r="D5" s="101" t="s">
+      <c r="C5" s="98"/>
+      <c r="D5" s="104" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="100"/>
-      <c r="F5" s="100"/>
-      <c r="G5" s="100"/>
+      <c r="E5" s="98"/>
+      <c r="F5" s="98"/>
+      <c r="G5" s="98"/>
       <c r="H5" s="18"/>
-      <c r="I5" s="99" t="s">
+      <c r="I5" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="100"/>
-      <c r="K5" s="100"/>
-      <c r="L5" s="100"/>
-      <c r="M5" s="100"/>
-      <c r="N5" s="100"/>
-      <c r="O5" s="100"/>
-      <c r="P5" s="105">
+      <c r="J5" s="98"/>
+      <c r="K5" s="98"/>
+      <c r="L5" s="98"/>
+      <c r="M5" s="98"/>
+      <c r="N5" s="98"/>
+      <c r="O5" s="98"/>
+      <c r="P5" s="99">
         <v>44992</v>
       </c>
-      <c r="Q5" s="100"/>
-      <c r="R5" s="100"/>
-      <c r="S5" s="100"/>
-      <c r="T5" s="100"/>
-      <c r="U5" s="100"/>
-      <c r="V5" s="100"/>
-      <c r="W5" s="100"/>
-      <c r="X5" s="100"/>
-      <c r="Y5" s="100"/>
-      <c r="Z5" s="100"/>
-      <c r="AA5" s="100"/>
+      <c r="Q5" s="98"/>
+      <c r="R5" s="98"/>
+      <c r="S5" s="98"/>
+      <c r="T5" s="98"/>
+      <c r="U5" s="98"/>
+      <c r="V5" s="98"/>
+      <c r="W5" s="98"/>
+      <c r="X5" s="98"/>
+      <c r="Y5" s="98"/>
+      <c r="Z5" s="98"/>
+      <c r="AA5" s="98"/>
       <c r="AB5" s="19"/>
       <c r="AC5" s="17"/>
       <c r="AD5" s="1"/>
@@ -2988,201 +3029,201 @@
     </row>
     <row r="8" spans="1:69" ht="17.25" customHeight="1">
       <c r="A8" s="24"/>
-      <c r="B8" s="96" t="s">
+      <c r="B8" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="96" t="s">
+      <c r="C8" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="96" t="s">
+      <c r="D8" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="96" t="s">
+      <c r="E8" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="96" t="s">
+      <c r="F8" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="96" t="s">
+      <c r="G8" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="96" t="s">
+      <c r="H8" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="109" t="s">
+      <c r="I8" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="90"/>
-      <c r="K8" s="90"/>
-      <c r="L8" s="90"/>
-      <c r="M8" s="90"/>
-      <c r="N8" s="90"/>
-      <c r="O8" s="90"/>
-      <c r="P8" s="90"/>
-      <c r="Q8" s="90"/>
-      <c r="R8" s="90"/>
-      <c r="S8" s="90"/>
-      <c r="T8" s="90"/>
-      <c r="U8" s="90"/>
-      <c r="V8" s="90"/>
-      <c r="W8" s="90"/>
-      <c r="X8" s="94" t="s">
+      <c r="J8" s="89"/>
+      <c r="K8" s="89"/>
+      <c r="L8" s="89"/>
+      <c r="M8" s="89"/>
+      <c r="N8" s="89"/>
+      <c r="O8" s="89"/>
+      <c r="P8" s="89"/>
+      <c r="Q8" s="89"/>
+      <c r="R8" s="89"/>
+      <c r="S8" s="89"/>
+      <c r="T8" s="89"/>
+      <c r="U8" s="89"/>
+      <c r="V8" s="89"/>
+      <c r="W8" s="89"/>
+      <c r="X8" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="Y8" s="90"/>
-      <c r="Z8" s="90"/>
-      <c r="AA8" s="90"/>
-      <c r="AB8" s="90"/>
-      <c r="AC8" s="90"/>
-      <c r="AD8" s="90"/>
-      <c r="AE8" s="90"/>
-      <c r="AF8" s="90"/>
-      <c r="AG8" s="90"/>
-      <c r="AH8" s="90"/>
-      <c r="AI8" s="90"/>
-      <c r="AJ8" s="90"/>
-      <c r="AK8" s="90"/>
-      <c r="AL8" s="90"/>
-      <c r="AM8" s="93" t="s">
+      <c r="Y8" s="89"/>
+      <c r="Z8" s="89"/>
+      <c r="AA8" s="89"/>
+      <c r="AB8" s="89"/>
+      <c r="AC8" s="89"/>
+      <c r="AD8" s="89"/>
+      <c r="AE8" s="89"/>
+      <c r="AF8" s="89"/>
+      <c r="AG8" s="89"/>
+      <c r="AH8" s="89"/>
+      <c r="AI8" s="89"/>
+      <c r="AJ8" s="89"/>
+      <c r="AK8" s="89"/>
+      <c r="AL8" s="89"/>
+      <c r="AM8" s="109" t="s">
         <v>16</v>
       </c>
-      <c r="AN8" s="90"/>
-      <c r="AO8" s="90"/>
-      <c r="AP8" s="90"/>
-      <c r="AQ8" s="90"/>
-      <c r="AR8" s="90"/>
-      <c r="AS8" s="90"/>
-      <c r="AT8" s="90"/>
-      <c r="AU8" s="90"/>
-      <c r="AV8" s="90"/>
-      <c r="AW8" s="90"/>
-      <c r="AX8" s="90"/>
-      <c r="AY8" s="90"/>
-      <c r="AZ8" s="90"/>
-      <c r="BA8" s="90"/>
-      <c r="BB8" s="89" t="s">
+      <c r="AN8" s="89"/>
+      <c r="AO8" s="89"/>
+      <c r="AP8" s="89"/>
+      <c r="AQ8" s="89"/>
+      <c r="AR8" s="89"/>
+      <c r="AS8" s="89"/>
+      <c r="AT8" s="89"/>
+      <c r="AU8" s="89"/>
+      <c r="AV8" s="89"/>
+      <c r="AW8" s="89"/>
+      <c r="AX8" s="89"/>
+      <c r="AY8" s="89"/>
+      <c r="AZ8" s="89"/>
+      <c r="BA8" s="89"/>
+      <c r="BB8" s="106" t="s">
         <v>17</v>
       </c>
-      <c r="BC8" s="90"/>
-      <c r="BD8" s="90"/>
-      <c r="BE8" s="90"/>
-      <c r="BF8" s="90"/>
-      <c r="BG8" s="90"/>
-      <c r="BH8" s="90"/>
-      <c r="BI8" s="90"/>
-      <c r="BJ8" s="90"/>
-      <c r="BK8" s="90"/>
-      <c r="BL8" s="90"/>
-      <c r="BM8" s="90"/>
-      <c r="BN8" s="90"/>
-      <c r="BO8" s="90"/>
-      <c r="BP8" s="91"/>
+      <c r="BC8" s="89"/>
+      <c r="BD8" s="89"/>
+      <c r="BE8" s="89"/>
+      <c r="BF8" s="89"/>
+      <c r="BG8" s="89"/>
+      <c r="BH8" s="89"/>
+      <c r="BI8" s="89"/>
+      <c r="BJ8" s="89"/>
+      <c r="BK8" s="89"/>
+      <c r="BL8" s="89"/>
+      <c r="BM8" s="89"/>
+      <c r="BN8" s="89"/>
+      <c r="BO8" s="89"/>
+      <c r="BP8" s="107"/>
       <c r="BQ8" s="21"/>
     </row>
     <row r="9" spans="1:69" ht="17.25" customHeight="1">
       <c r="A9" s="25"/>
-      <c r="B9" s="90"/>
-      <c r="C9" s="90"/>
-      <c r="D9" s="90"/>
-      <c r="E9" s="90"/>
-      <c r="F9" s="90"/>
-      <c r="G9" s="90"/>
-      <c r="H9" s="90"/>
-      <c r="I9" s="108" t="s">
+      <c r="B9" s="89"/>
+      <c r="C9" s="89"/>
+      <c r="D9" s="89"/>
+      <c r="E9" s="89"/>
+      <c r="F9" s="89"/>
+      <c r="G9" s="89"/>
+      <c r="H9" s="89"/>
+      <c r="I9" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="J9" s="87"/>
-      <c r="K9" s="87"/>
-      <c r="L9" s="87"/>
-      <c r="M9" s="88"/>
-      <c r="N9" s="108" t="s">
+      <c r="J9" s="91"/>
+      <c r="K9" s="91"/>
+      <c r="L9" s="91"/>
+      <c r="M9" s="92"/>
+      <c r="N9" s="90" t="s">
         <v>19</v>
       </c>
-      <c r="O9" s="87"/>
-      <c r="P9" s="87"/>
-      <c r="Q9" s="87"/>
-      <c r="R9" s="88"/>
-      <c r="S9" s="108" t="s">
+      <c r="O9" s="91"/>
+      <c r="P9" s="91"/>
+      <c r="Q9" s="91"/>
+      <c r="R9" s="92"/>
+      <c r="S9" s="90" t="s">
         <v>20</v>
       </c>
-      <c r="T9" s="87"/>
-      <c r="U9" s="87"/>
-      <c r="V9" s="87"/>
-      <c r="W9" s="88"/>
-      <c r="X9" s="92" t="s">
+      <c r="T9" s="91"/>
+      <c r="U9" s="91"/>
+      <c r="V9" s="91"/>
+      <c r="W9" s="92"/>
+      <c r="X9" s="108" t="s">
         <v>21</v>
       </c>
-      <c r="Y9" s="87"/>
-      <c r="Z9" s="87"/>
-      <c r="AA9" s="87"/>
-      <c r="AB9" s="88"/>
-      <c r="AC9" s="92" t="s">
+      <c r="Y9" s="91"/>
+      <c r="Z9" s="91"/>
+      <c r="AA9" s="91"/>
+      <c r="AB9" s="92"/>
+      <c r="AC9" s="108" t="s">
         <v>22</v>
       </c>
-      <c r="AD9" s="87"/>
-      <c r="AE9" s="87"/>
-      <c r="AF9" s="87"/>
-      <c r="AG9" s="88"/>
-      <c r="AH9" s="92" t="s">
+      <c r="AD9" s="91"/>
+      <c r="AE9" s="91"/>
+      <c r="AF9" s="91"/>
+      <c r="AG9" s="92"/>
+      <c r="AH9" s="108" t="s">
         <v>23</v>
       </c>
-      <c r="AI9" s="87"/>
-      <c r="AJ9" s="87"/>
-      <c r="AK9" s="87"/>
-      <c r="AL9" s="88"/>
-      <c r="AM9" s="95" t="s">
+      <c r="AI9" s="91"/>
+      <c r="AJ9" s="91"/>
+      <c r="AK9" s="91"/>
+      <c r="AL9" s="92"/>
+      <c r="AM9" s="111" t="s">
         <v>24</v>
       </c>
-      <c r="AN9" s="87"/>
-      <c r="AO9" s="87"/>
-      <c r="AP9" s="87"/>
-      <c r="AQ9" s="88"/>
-      <c r="AR9" s="95" t="s">
+      <c r="AN9" s="91"/>
+      <c r="AO9" s="91"/>
+      <c r="AP9" s="91"/>
+      <c r="AQ9" s="92"/>
+      <c r="AR9" s="111" t="s">
         <v>25</v>
       </c>
-      <c r="AS9" s="87"/>
-      <c r="AT9" s="87"/>
-      <c r="AU9" s="87"/>
-      <c r="AV9" s="88"/>
-      <c r="AW9" s="95" t="s">
+      <c r="AS9" s="91"/>
+      <c r="AT9" s="91"/>
+      <c r="AU9" s="91"/>
+      <c r="AV9" s="92"/>
+      <c r="AW9" s="111" t="s">
         <v>26</v>
       </c>
-      <c r="AX9" s="87"/>
-      <c r="AY9" s="87"/>
-      <c r="AZ9" s="87"/>
-      <c r="BA9" s="88"/>
-      <c r="BB9" s="86" t="s">
+      <c r="AX9" s="91"/>
+      <c r="AY9" s="91"/>
+      <c r="AZ9" s="91"/>
+      <c r="BA9" s="92"/>
+      <c r="BB9" s="105" t="s">
         <v>27</v>
       </c>
-      <c r="BC9" s="87"/>
-      <c r="BD9" s="87"/>
-      <c r="BE9" s="87"/>
-      <c r="BF9" s="88"/>
-      <c r="BG9" s="86" t="s">
+      <c r="BC9" s="91"/>
+      <c r="BD9" s="91"/>
+      <c r="BE9" s="91"/>
+      <c r="BF9" s="92"/>
+      <c r="BG9" s="105" t="s">
         <v>28</v>
       </c>
-      <c r="BH9" s="87"/>
-      <c r="BI9" s="87"/>
-      <c r="BJ9" s="87"/>
-      <c r="BK9" s="88"/>
-      <c r="BL9" s="86" t="s">
+      <c r="BH9" s="91"/>
+      <c r="BI9" s="91"/>
+      <c r="BJ9" s="91"/>
+      <c r="BK9" s="92"/>
+      <c r="BL9" s="105" t="s">
         <v>29</v>
       </c>
-      <c r="BM9" s="87"/>
-      <c r="BN9" s="87"/>
-      <c r="BO9" s="87"/>
-      <c r="BP9" s="88"/>
+      <c r="BM9" s="91"/>
+      <c r="BN9" s="91"/>
+      <c r="BO9" s="91"/>
+      <c r="BP9" s="92"/>
       <c r="BQ9" s="25"/>
     </row>
     <row r="10" spans="1:69" ht="17.25" customHeight="1">
       <c r="A10" s="26"/>
-      <c r="B10" s="90"/>
-      <c r="C10" s="90"/>
-      <c r="D10" s="90"/>
-      <c r="E10" s="90"/>
-      <c r="F10" s="90"/>
-      <c r="G10" s="90"/>
-      <c r="H10" s="90"/>
+      <c r="B10" s="89"/>
+      <c r="C10" s="89"/>
+      <c r="D10" s="89"/>
+      <c r="E10" s="89"/>
+      <c r="F10" s="89"/>
+      <c r="G10" s="89"/>
+      <c r="H10" s="89"/>
       <c r="I10" s="27" t="s">
         <v>30</v>
       </c>
@@ -4123,7 +4164,7 @@
         <v>2.1</v>
       </c>
       <c r="C20" s="39" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="D20" s="79" t="s">
         <v>43</v>
@@ -4132,7 +4173,7 @@
         <v>885045</v>
       </c>
       <c r="F20" s="40">
-        <v>885075</v>
+        <v>885083</v>
       </c>
       <c r="G20" s="41">
         <v>33</v>
@@ -4208,7 +4249,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="C21" s="39" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="D21" s="79" t="s">
         <v>43</v>
@@ -4217,13 +4258,13 @@
         <v>885045</v>
       </c>
       <c r="F21" s="40">
-        <v>885075</v>
+        <v>885088</v>
       </c>
       <c r="G21" s="41">
         <v>33</v>
       </c>
       <c r="H21" s="42">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="I21" s="52"/>
       <c r="J21" s="53"/>
@@ -4293,10 +4334,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="C22" s="39" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D22" s="79" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E22" s="40">
         <v>885045</v>
@@ -4308,7 +4349,7 @@
         <v>29</v>
       </c>
       <c r="H22" s="42">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="I22" s="52"/>
       <c r="J22" s="53"/>
@@ -4378,7 +4419,7 @@
         <v>2.4</v>
       </c>
       <c r="C23" s="77" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D23" s="79" t="s">
         <v>43</v>
@@ -4463,10 +4504,10 @@
         <v>2.5</v>
       </c>
       <c r="C24" s="39" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D24" s="79" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E24" s="40">
         <v>885055</v>
@@ -4548,10 +4589,10 @@
         <v>2.6</v>
       </c>
       <c r="C25" s="39" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D25" s="79" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E25" s="40">
         <v>885055</v>
@@ -4633,10 +4674,10 @@
         <v>2.7</v>
       </c>
       <c r="C26" s="85" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D26" s="79" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E26" s="40">
         <v>885055</v>
@@ -4718,7 +4759,7 @@
         <v>3</v>
       </c>
       <c r="C27" s="84" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D27" s="33"/>
       <c r="E27" s="33"/>
@@ -4793,7 +4834,7 @@
         <v>3.1</v>
       </c>
       <c r="C28" s="80" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D28" s="78" t="s">
         <v>43</v>
@@ -4808,7 +4849,7 @@
         <v>26</v>
       </c>
       <c r="H28" s="42">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="I28" s="43"/>
       <c r="J28" s="44"/>
@@ -4878,10 +4919,10 @@
         <v>3.2</v>
       </c>
       <c r="C29" s="85" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D29" s="76" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E29" s="40">
         <v>44998</v>
@@ -4963,10 +5004,10 @@
         <v>38</v>
       </c>
       <c r="C30" s="80" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D30" s="79" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E30" s="40">
         <v>45005</v>
@@ -5048,7 +5089,7 @@
         <v>3.3</v>
       </c>
       <c r="C31" s="80" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D31" s="79" t="s">
         <v>43</v>
@@ -5130,13 +5171,13 @@
     <row r="32" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A32" s="37"/>
       <c r="B32" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="C32" s="110" t="s">
-        <v>67</v>
+        <v>72</v>
+      </c>
+      <c r="C32" s="86" t="s">
+        <v>65</v>
       </c>
       <c r="D32" s="79" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E32" s="40">
         <v>45009</v>
@@ -5215,10 +5256,10 @@
     <row r="33" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A33" s="37"/>
       <c r="B33" s="38" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C33" s="80" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D33" s="79" t="s">
         <v>43</v>
@@ -5300,10 +5341,10 @@
     <row r="34" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A34" s="37"/>
       <c r="B34" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="C34" s="111" t="s">
-        <v>69</v>
+        <v>74</v>
+      </c>
+      <c r="C34" s="87" t="s">
+        <v>67</v>
       </c>
       <c r="D34" s="79" t="s">
         <v>43</v>
@@ -5318,7 +5359,7 @@
         <v>2</v>
       </c>
       <c r="H34" s="42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" s="52"/>
       <c r="J34" s="53"/>
@@ -5382,28 +5423,28 @@
       <c r="BP34" s="60"/>
       <c r="BQ34" s="37"/>
     </row>
-    <row r="35" spans="1:69" ht="33" customHeight="1" outlineLevel="1">
+    <row r="35" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A35" s="37"/>
-      <c r="B35" s="38">
-        <v>3.4</v>
-      </c>
-      <c r="C35" s="39" t="s">
-        <v>70</v>
+      <c r="B35" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="C35" s="87" t="s">
+        <v>75</v>
       </c>
       <c r="D35" s="79" t="s">
         <v>43</v>
       </c>
       <c r="E35" s="40">
-        <v>45005</v>
+        <v>45012</v>
       </c>
       <c r="F35" s="40">
-        <v>45025</v>
+        <v>45013</v>
       </c>
       <c r="G35" s="41">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="H35" s="42">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="I35" s="52"/>
       <c r="J35" s="53"/>
@@ -5437,8 +5478,8 @@
       <c r="AL35" s="54"/>
       <c r="AM35" s="54"/>
       <c r="AN35" s="54"/>
-      <c r="AO35" s="56"/>
-      <c r="AP35" s="56"/>
+      <c r="AO35" s="54"/>
+      <c r="AP35" s="54"/>
       <c r="AQ35" s="54"/>
       <c r="AR35" s="58"/>
       <c r="AS35" s="58"/>
@@ -5467,162 +5508,168 @@
       <c r="BP35" s="60"/>
       <c r="BQ35" s="37"/>
     </row>
-    <row r="36" spans="1:69" ht="21" customHeight="1">
-      <c r="A36" s="21"/>
-      <c r="B36" s="31">
+    <row r="36" spans="1:69" ht="33" customHeight="1" outlineLevel="1">
+      <c r="A36" s="37"/>
+      <c r="B36" s="38">
+        <v>3.4</v>
+      </c>
+      <c r="C36" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="D36" s="79" t="s">
+        <v>43</v>
+      </c>
+      <c r="E36" s="40">
+        <v>45005</v>
+      </c>
+      <c r="F36" s="40">
+        <v>45025</v>
+      </c>
+      <c r="G36" s="41">
+        <v>20</v>
+      </c>
+      <c r="H36" s="42">
+        <v>0.1</v>
+      </c>
+      <c r="I36" s="52"/>
+      <c r="J36" s="53"/>
+      <c r="K36" s="54"/>
+      <c r="L36" s="54"/>
+      <c r="M36" s="54"/>
+      <c r="N36" s="55"/>
+      <c r="O36" s="55"/>
+      <c r="P36" s="55"/>
+      <c r="Q36" s="55"/>
+      <c r="R36" s="55"/>
+      <c r="S36" s="45"/>
+      <c r="T36" s="45"/>
+      <c r="U36" s="45"/>
+      <c r="V36" s="45"/>
+      <c r="W36" s="54"/>
+      <c r="X36" s="54"/>
+      <c r="Y36" s="54"/>
+      <c r="Z36" s="54"/>
+      <c r="AA36" s="54"/>
+      <c r="AB36" s="54"/>
+      <c r="AC36" s="57"/>
+      <c r="AD36" s="57"/>
+      <c r="AE36" s="57"/>
+      <c r="AF36" s="57"/>
+      <c r="AG36" s="57"/>
+      <c r="AH36" s="54"/>
+      <c r="AI36" s="54"/>
+      <c r="AJ36" s="54"/>
+      <c r="AK36" s="54"/>
+      <c r="AL36" s="54"/>
+      <c r="AM36" s="54"/>
+      <c r="AN36" s="54"/>
+      <c r="AO36" s="56"/>
+      <c r="AP36" s="56"/>
+      <c r="AQ36" s="54"/>
+      <c r="AR36" s="58"/>
+      <c r="AS36" s="58"/>
+      <c r="AT36" s="58"/>
+      <c r="AU36" s="58"/>
+      <c r="AV36" s="58"/>
+      <c r="AW36" s="54"/>
+      <c r="AX36" s="54"/>
+      <c r="AY36" s="54"/>
+      <c r="AZ36" s="54"/>
+      <c r="BA36" s="54"/>
+      <c r="BB36" s="54"/>
+      <c r="BC36" s="54"/>
+      <c r="BD36" s="54"/>
+      <c r="BE36" s="54"/>
+      <c r="BF36" s="54"/>
+      <c r="BG36" s="59"/>
+      <c r="BH36" s="59"/>
+      <c r="BI36" s="59"/>
+      <c r="BJ36" s="59"/>
+      <c r="BK36" s="59"/>
+      <c r="BL36" s="54"/>
+      <c r="BM36" s="54"/>
+      <c r="BN36" s="54"/>
+      <c r="BO36" s="54"/>
+      <c r="BP36" s="60"/>
+      <c r="BQ36" s="37"/>
+    </row>
+    <row r="37" spans="1:69" ht="21" customHeight="1">
+      <c r="A37" s="21"/>
+      <c r="B37" s="31">
         <v>4</v>
       </c>
-      <c r="C36" s="32"/>
-      <c r="D36" s="33"/>
-      <c r="E36" s="33"/>
-      <c r="F36" s="33"/>
-      <c r="G36" s="33"/>
-      <c r="H36" s="33"/>
-      <c r="I36" s="34"/>
-      <c r="J36" s="35"/>
-      <c r="K36" s="36"/>
-      <c r="L36" s="36"/>
-      <c r="M36" s="34"/>
-      <c r="N36" s="34"/>
-      <c r="O36" s="34"/>
-      <c r="P36" s="34"/>
-      <c r="Q36" s="34"/>
-      <c r="R36" s="34"/>
-      <c r="S36" s="34"/>
-      <c r="T36" s="34"/>
-      <c r="U36" s="34"/>
-      <c r="V36" s="34"/>
-      <c r="W36" s="34"/>
-      <c r="X36" s="34"/>
-      <c r="Y36" s="34"/>
-      <c r="Z36" s="34"/>
-      <c r="AA36" s="34"/>
-      <c r="AB36" s="34"/>
-      <c r="AC36" s="34"/>
-      <c r="AD36" s="34"/>
-      <c r="AE36" s="34"/>
-      <c r="AF36" s="34"/>
-      <c r="AG36" s="34"/>
-      <c r="AH36" s="34"/>
-      <c r="AI36" s="34"/>
-      <c r="AJ36" s="34"/>
-      <c r="AK36" s="34"/>
-      <c r="AL36" s="34"/>
-      <c r="AM36" s="34"/>
-      <c r="AN36" s="34"/>
-      <c r="AO36" s="34"/>
-      <c r="AP36" s="34"/>
-      <c r="AQ36" s="34"/>
-      <c r="AR36" s="34"/>
-      <c r="AS36" s="34"/>
-      <c r="AT36" s="34"/>
-      <c r="AU36" s="34"/>
-      <c r="AV36" s="34"/>
-      <c r="AW36" s="34"/>
-      <c r="AX36" s="34"/>
-      <c r="AY36" s="34"/>
-      <c r="AZ36" s="34"/>
-      <c r="BA36" s="34"/>
-      <c r="BB36" s="34"/>
-      <c r="BC36" s="34"/>
-      <c r="BD36" s="34"/>
-      <c r="BE36" s="34"/>
-      <c r="BF36" s="34"/>
-      <c r="BG36" s="34"/>
-      <c r="BH36" s="34"/>
-      <c r="BI36" s="34"/>
-      <c r="BJ36" s="34"/>
-      <c r="BK36" s="34"/>
-      <c r="BL36" s="34"/>
-      <c r="BM36" s="34"/>
-      <c r="BN36" s="34"/>
-      <c r="BO36" s="34"/>
-      <c r="BP36" s="34"/>
-      <c r="BQ36" s="21"/>
-    </row>
-    <row r="37" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A37" s="37"/>
-      <c r="B37" s="38">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="C37" s="39"/>
-      <c r="D37" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="E37" s="40"/>
-      <c r="F37" s="40"/>
-      <c r="G37" s="41">
-        <v>0</v>
-      </c>
-      <c r="H37" s="42">
-        <v>0</v>
-      </c>
-      <c r="I37" s="43"/>
-      <c r="J37" s="44"/>
-      <c r="K37" s="45"/>
-      <c r="L37" s="45"/>
-      <c r="M37" s="45"/>
-      <c r="N37" s="47"/>
-      <c r="O37" s="47"/>
-      <c r="P37" s="47"/>
-      <c r="Q37" s="47"/>
-      <c r="R37" s="47"/>
-      <c r="S37" s="45"/>
-      <c r="T37" s="45"/>
-      <c r="U37" s="45"/>
-      <c r="V37" s="45"/>
-      <c r="W37" s="45"/>
-      <c r="X37" s="45"/>
-      <c r="Y37" s="45"/>
-      <c r="Z37" s="45"/>
-      <c r="AA37" s="45"/>
-      <c r="AB37" s="45"/>
-      <c r="AC37" s="48"/>
-      <c r="AD37" s="48"/>
-      <c r="AE37" s="48"/>
-      <c r="AF37" s="48"/>
-      <c r="AG37" s="48"/>
-      <c r="AH37" s="45"/>
-      <c r="AI37" s="45"/>
-      <c r="AJ37" s="45"/>
-      <c r="AK37" s="45"/>
-      <c r="AL37" s="45"/>
-      <c r="AM37" s="45"/>
-      <c r="AN37" s="45"/>
-      <c r="AO37" s="45"/>
-      <c r="AP37" s="45"/>
-      <c r="AQ37" s="45"/>
-      <c r="AR37" s="49"/>
-      <c r="AS37" s="49"/>
-      <c r="AT37" s="49"/>
-      <c r="AU37" s="49"/>
-      <c r="AV37" s="49"/>
-      <c r="AW37" s="45"/>
-      <c r="AX37" s="45"/>
-      <c r="AY37" s="45"/>
-      <c r="AZ37" s="45"/>
-      <c r="BA37" s="45"/>
-      <c r="BB37" s="45"/>
-      <c r="BC37" s="45"/>
-      <c r="BD37" s="45"/>
-      <c r="BE37" s="45"/>
-      <c r="BF37" s="45"/>
-      <c r="BG37" s="50"/>
-      <c r="BH37" s="50"/>
-      <c r="BI37" s="50"/>
-      <c r="BJ37" s="50"/>
-      <c r="BK37" s="50"/>
-      <c r="BL37" s="45"/>
-      <c r="BM37" s="45"/>
-      <c r="BN37" s="45"/>
-      <c r="BO37" s="45"/>
-      <c r="BP37" s="51"/>
-      <c r="BQ37" s="37"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="33"/>
+      <c r="H37" s="33"/>
+      <c r="I37" s="34"/>
+      <c r="J37" s="35"/>
+      <c r="K37" s="36"/>
+      <c r="L37" s="36"/>
+      <c r="M37" s="34"/>
+      <c r="N37" s="34"/>
+      <c r="O37" s="34"/>
+      <c r="P37" s="34"/>
+      <c r="Q37" s="34"/>
+      <c r="R37" s="34"/>
+      <c r="S37" s="34"/>
+      <c r="T37" s="34"/>
+      <c r="U37" s="34"/>
+      <c r="V37" s="34"/>
+      <c r="W37" s="34"/>
+      <c r="X37" s="34"/>
+      <c r="Y37" s="34"/>
+      <c r="Z37" s="34"/>
+      <c r="AA37" s="34"/>
+      <c r="AB37" s="34"/>
+      <c r="AC37" s="34"/>
+      <c r="AD37" s="34"/>
+      <c r="AE37" s="34"/>
+      <c r="AF37" s="34"/>
+      <c r="AG37" s="34"/>
+      <c r="AH37" s="34"/>
+      <c r="AI37" s="34"/>
+      <c r="AJ37" s="34"/>
+      <c r="AK37" s="34"/>
+      <c r="AL37" s="34"/>
+      <c r="AM37" s="34"/>
+      <c r="AN37" s="34"/>
+      <c r="AO37" s="34"/>
+      <c r="AP37" s="34"/>
+      <c r="AQ37" s="34"/>
+      <c r="AR37" s="34"/>
+      <c r="AS37" s="34"/>
+      <c r="AT37" s="34"/>
+      <c r="AU37" s="34"/>
+      <c r="AV37" s="34"/>
+      <c r="AW37" s="34"/>
+      <c r="AX37" s="34"/>
+      <c r="AY37" s="34"/>
+      <c r="AZ37" s="34"/>
+      <c r="BA37" s="34"/>
+      <c r="BB37" s="34"/>
+      <c r="BC37" s="34"/>
+      <c r="BD37" s="34"/>
+      <c r="BE37" s="34"/>
+      <c r="BF37" s="34"/>
+      <c r="BG37" s="34"/>
+      <c r="BH37" s="34"/>
+      <c r="BI37" s="34"/>
+      <c r="BJ37" s="34"/>
+      <c r="BK37" s="34"/>
+      <c r="BL37" s="34"/>
+      <c r="BM37" s="34"/>
+      <c r="BN37" s="34"/>
+      <c r="BO37" s="34"/>
+      <c r="BP37" s="34"/>
+      <c r="BQ37" s="21"/>
     </row>
     <row r="38" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A38" s="37"/>
       <c r="B38" s="38">
-        <v>4.2</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C38" s="39"/>
       <c r="D38" s="39" t="s">
@@ -5636,72 +5683,72 @@
       <c r="H38" s="42">
         <v>0</v>
       </c>
-      <c r="I38" s="52"/>
-      <c r="J38" s="53"/>
-      <c r="K38" s="54"/>
-      <c r="L38" s="54"/>
-      <c r="M38" s="54"/>
+      <c r="I38" s="43"/>
+      <c r="J38" s="44"/>
+      <c r="K38" s="45"/>
+      <c r="L38" s="45"/>
+      <c r="M38" s="45"/>
       <c r="N38" s="47"/>
       <c r="O38" s="47"/>
       <c r="P38" s="47"/>
       <c r="Q38" s="47"/>
       <c r="R38" s="47"/>
-      <c r="S38" s="54"/>
-      <c r="T38" s="54"/>
-      <c r="U38" s="54"/>
-      <c r="V38" s="54"/>
-      <c r="W38" s="54"/>
-      <c r="X38" s="54"/>
-      <c r="Y38" s="54"/>
-      <c r="Z38" s="54"/>
-      <c r="AA38" s="54"/>
-      <c r="AB38" s="54"/>
-      <c r="AC38" s="57"/>
-      <c r="AD38" s="57"/>
-      <c r="AE38" s="57"/>
-      <c r="AF38" s="57"/>
-      <c r="AG38" s="57"/>
-      <c r="AH38" s="54"/>
-      <c r="AI38" s="54"/>
-      <c r="AJ38" s="54"/>
-      <c r="AK38" s="54"/>
-      <c r="AL38" s="54"/>
-      <c r="AM38" s="54"/>
-      <c r="AN38" s="54"/>
-      <c r="AO38" s="54"/>
-      <c r="AP38" s="54"/>
-      <c r="AQ38" s="54"/>
-      <c r="AR38" s="58"/>
-      <c r="AS38" s="58"/>
-      <c r="AT38" s="58"/>
-      <c r="AU38" s="58"/>
-      <c r="AV38" s="58"/>
-      <c r="AW38" s="54"/>
-      <c r="AX38" s="54"/>
-      <c r="AY38" s="54"/>
-      <c r="AZ38" s="54"/>
-      <c r="BA38" s="54"/>
-      <c r="BB38" s="54"/>
-      <c r="BC38" s="54"/>
-      <c r="BD38" s="54"/>
-      <c r="BE38" s="54"/>
-      <c r="BF38" s="54"/>
-      <c r="BG38" s="59"/>
-      <c r="BH38" s="59"/>
-      <c r="BI38" s="59"/>
-      <c r="BJ38" s="59"/>
-      <c r="BK38" s="59"/>
-      <c r="BL38" s="54"/>
-      <c r="BM38" s="54"/>
-      <c r="BN38" s="54"/>
-      <c r="BO38" s="54"/>
-      <c r="BP38" s="60"/>
+      <c r="S38" s="45"/>
+      <c r="T38" s="45"/>
+      <c r="U38" s="45"/>
+      <c r="V38" s="45"/>
+      <c r="W38" s="45"/>
+      <c r="X38" s="45"/>
+      <c r="Y38" s="45"/>
+      <c r="Z38" s="45"/>
+      <c r="AA38" s="45"/>
+      <c r="AB38" s="45"/>
+      <c r="AC38" s="48"/>
+      <c r="AD38" s="48"/>
+      <c r="AE38" s="48"/>
+      <c r="AF38" s="48"/>
+      <c r="AG38" s="48"/>
+      <c r="AH38" s="45"/>
+      <c r="AI38" s="45"/>
+      <c r="AJ38" s="45"/>
+      <c r="AK38" s="45"/>
+      <c r="AL38" s="45"/>
+      <c r="AM38" s="45"/>
+      <c r="AN38" s="45"/>
+      <c r="AO38" s="45"/>
+      <c r="AP38" s="45"/>
+      <c r="AQ38" s="45"/>
+      <c r="AR38" s="49"/>
+      <c r="AS38" s="49"/>
+      <c r="AT38" s="49"/>
+      <c r="AU38" s="49"/>
+      <c r="AV38" s="49"/>
+      <c r="AW38" s="45"/>
+      <c r="AX38" s="45"/>
+      <c r="AY38" s="45"/>
+      <c r="AZ38" s="45"/>
+      <c r="BA38" s="45"/>
+      <c r="BB38" s="45"/>
+      <c r="BC38" s="45"/>
+      <c r="BD38" s="45"/>
+      <c r="BE38" s="45"/>
+      <c r="BF38" s="45"/>
+      <c r="BG38" s="50"/>
+      <c r="BH38" s="50"/>
+      <c r="BI38" s="50"/>
+      <c r="BJ38" s="50"/>
+      <c r="BK38" s="50"/>
+      <c r="BL38" s="45"/>
+      <c r="BM38" s="45"/>
+      <c r="BN38" s="45"/>
+      <c r="BO38" s="45"/>
+      <c r="BP38" s="51"/>
       <c r="BQ38" s="37"/>
     </row>
     <row r="39" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A39" s="37"/>
       <c r="B39" s="38">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="C39" s="39"/>
       <c r="D39" s="39" t="s">
@@ -5725,10 +5772,10 @@
       <c r="P39" s="47"/>
       <c r="Q39" s="47"/>
       <c r="R39" s="47"/>
-      <c r="S39" s="45"/>
-      <c r="T39" s="45"/>
-      <c r="U39" s="45"/>
-      <c r="V39" s="45"/>
+      <c r="S39" s="54"/>
+      <c r="T39" s="54"/>
+      <c r="U39" s="54"/>
+      <c r="V39" s="54"/>
       <c r="W39" s="54"/>
       <c r="X39" s="54"/>
       <c r="Y39" s="54"/>
@@ -5780,7 +5827,7 @@
     <row r="40" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A40" s="37"/>
       <c r="B40" s="38">
-        <v>4.4000000000000004</v>
+        <v>4.3</v>
       </c>
       <c r="C40" s="39"/>
       <c r="D40" s="39" t="s">
@@ -5791,7 +5838,7 @@
       <c r="G40" s="41">
         <v>0</v>
       </c>
-      <c r="H40" s="61">
+      <c r="H40" s="42">
         <v>0</v>
       </c>
       <c r="I40" s="52"/>
@@ -5856,76 +5903,84 @@
       <c r="BP40" s="60"/>
       <c r="BQ40" s="37"/>
     </row>
-    <row r="41" spans="1:69" ht="21" customHeight="1">
-      <c r="A41" s="21"/>
-      <c r="B41" s="21"/>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21"/>
-      <c r="G41" s="75"/>
-      <c r="H41" s="75"/>
-      <c r="I41" s="21"/>
-      <c r="J41" s="21"/>
-      <c r="K41" s="21"/>
-      <c r="L41" s="21"/>
-      <c r="M41" s="21"/>
-      <c r="N41" s="21"/>
-      <c r="O41" s="21"/>
-      <c r="P41" s="21"/>
-      <c r="Q41" s="21"/>
-      <c r="R41" s="21"/>
-      <c r="S41" s="21"/>
-      <c r="T41" s="21"/>
-      <c r="U41" s="21"/>
-      <c r="V41" s="21"/>
-      <c r="W41" s="21"/>
-      <c r="X41" s="21"/>
-      <c r="Y41" s="21"/>
-      <c r="Z41" s="21"/>
-      <c r="AA41" s="21"/>
-      <c r="AB41" s="21"/>
-      <c r="AC41" s="21"/>
-      <c r="AD41" s="21"/>
-      <c r="AE41" s="21"/>
-      <c r="AF41" s="21"/>
-      <c r="AG41" s="21"/>
-      <c r="AH41" s="21"/>
-      <c r="AI41" s="21"/>
-      <c r="AJ41" s="21"/>
-      <c r="AK41" s="21"/>
-      <c r="AL41" s="21"/>
-      <c r="AM41" s="21"/>
-      <c r="AN41" s="21"/>
-      <c r="AO41" s="21"/>
-      <c r="AP41" s="21"/>
-      <c r="AQ41" s="21"/>
-      <c r="AR41" s="21"/>
-      <c r="AS41" s="21"/>
-      <c r="AT41" s="21"/>
-      <c r="AU41" s="21"/>
-      <c r="AV41" s="21"/>
-      <c r="AW41" s="21"/>
-      <c r="AX41" s="21"/>
-      <c r="AY41" s="21"/>
-      <c r="AZ41" s="21"/>
-      <c r="BA41" s="21"/>
-      <c r="BB41" s="21"/>
-      <c r="BC41" s="21"/>
-      <c r="BD41" s="21"/>
-      <c r="BE41" s="21"/>
-      <c r="BF41" s="21"/>
-      <c r="BG41" s="21"/>
-      <c r="BH41" s="21"/>
-      <c r="BI41" s="21"/>
-      <c r="BJ41" s="21"/>
-      <c r="BK41" s="21"/>
-      <c r="BL41" s="21"/>
-      <c r="BM41" s="21"/>
-      <c r="BN41" s="21"/>
-      <c r="BO41" s="21"/>
-      <c r="BP41" s="21"/>
-      <c r="BQ41" s="21"/>
+    <row r="41" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A41" s="37"/>
+      <c r="B41" s="38">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C41" s="39"/>
+      <c r="D41" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="E41" s="40"/>
+      <c r="F41" s="40"/>
+      <c r="G41" s="41">
+        <v>0</v>
+      </c>
+      <c r="H41" s="61">
+        <v>0</v>
+      </c>
+      <c r="I41" s="52"/>
+      <c r="J41" s="53"/>
+      <c r="K41" s="54"/>
+      <c r="L41" s="54"/>
+      <c r="M41" s="54"/>
+      <c r="N41" s="47"/>
+      <c r="O41" s="47"/>
+      <c r="P41" s="47"/>
+      <c r="Q41" s="47"/>
+      <c r="R41" s="47"/>
+      <c r="S41" s="45"/>
+      <c r="T41" s="45"/>
+      <c r="U41" s="45"/>
+      <c r="V41" s="45"/>
+      <c r="W41" s="54"/>
+      <c r="X41" s="54"/>
+      <c r="Y41" s="54"/>
+      <c r="Z41" s="54"/>
+      <c r="AA41" s="54"/>
+      <c r="AB41" s="54"/>
+      <c r="AC41" s="57"/>
+      <c r="AD41" s="57"/>
+      <c r="AE41" s="57"/>
+      <c r="AF41" s="57"/>
+      <c r="AG41" s="57"/>
+      <c r="AH41" s="54"/>
+      <c r="AI41" s="54"/>
+      <c r="AJ41" s="54"/>
+      <c r="AK41" s="54"/>
+      <c r="AL41" s="54"/>
+      <c r="AM41" s="54"/>
+      <c r="AN41" s="54"/>
+      <c r="AO41" s="54"/>
+      <c r="AP41" s="54"/>
+      <c r="AQ41" s="54"/>
+      <c r="AR41" s="58"/>
+      <c r="AS41" s="58"/>
+      <c r="AT41" s="58"/>
+      <c r="AU41" s="58"/>
+      <c r="AV41" s="58"/>
+      <c r="AW41" s="54"/>
+      <c r="AX41" s="54"/>
+      <c r="AY41" s="54"/>
+      <c r="AZ41" s="54"/>
+      <c r="BA41" s="54"/>
+      <c r="BB41" s="54"/>
+      <c r="BC41" s="54"/>
+      <c r="BD41" s="54"/>
+      <c r="BE41" s="54"/>
+      <c r="BF41" s="54"/>
+      <c r="BG41" s="59"/>
+      <c r="BH41" s="59"/>
+      <c r="BI41" s="59"/>
+      <c r="BJ41" s="59"/>
+      <c r="BK41" s="59"/>
+      <c r="BL41" s="54"/>
+      <c r="BM41" s="54"/>
+      <c r="BN41" s="54"/>
+      <c r="BO41" s="54"/>
+      <c r="BP41" s="60"/>
+      <c r="BQ41" s="37"/>
     </row>
     <row r="42" spans="1:69" ht="21" customHeight="1">
       <c r="A42" s="21"/>
@@ -6069,30 +6124,79 @@
       <c r="BP43" s="21"/>
       <c r="BQ43" s="21"/>
     </row>
+    <row r="44" spans="1:69" ht="21" customHeight="1">
+      <c r="A44" s="21"/>
+      <c r="B44" s="21"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="75"/>
+      <c r="H44" s="75"/>
+      <c r="I44" s="21"/>
+      <c r="J44" s="21"/>
+      <c r="K44" s="21"/>
+      <c r="L44" s="21"/>
+      <c r="M44" s="21"/>
+      <c r="N44" s="21"/>
+      <c r="O44" s="21"/>
+      <c r="P44" s="21"/>
+      <c r="Q44" s="21"/>
+      <c r="R44" s="21"/>
+      <c r="S44" s="21"/>
+      <c r="T44" s="21"/>
+      <c r="U44" s="21"/>
+      <c r="V44" s="21"/>
+      <c r="W44" s="21"/>
+      <c r="X44" s="21"/>
+      <c r="Y44" s="21"/>
+      <c r="Z44" s="21"/>
+      <c r="AA44" s="21"/>
+      <c r="AB44" s="21"/>
+      <c r="AC44" s="21"/>
+      <c r="AD44" s="21"/>
+      <c r="AE44" s="21"/>
+      <c r="AF44" s="21"/>
+      <c r="AG44" s="21"/>
+      <c r="AH44" s="21"/>
+      <c r="AI44" s="21"/>
+      <c r="AJ44" s="21"/>
+      <c r="AK44" s="21"/>
+      <c r="AL44" s="21"/>
+      <c r="AM44" s="21"/>
+      <c r="AN44" s="21"/>
+      <c r="AO44" s="21"/>
+      <c r="AP44" s="21"/>
+      <c r="AQ44" s="21"/>
+      <c r="AR44" s="21"/>
+      <c r="AS44" s="21"/>
+      <c r="AT44" s="21"/>
+      <c r="AU44" s="21"/>
+      <c r="AV44" s="21"/>
+      <c r="AW44" s="21"/>
+      <c r="AX44" s="21"/>
+      <c r="AY44" s="21"/>
+      <c r="AZ44" s="21"/>
+      <c r="BA44" s="21"/>
+      <c r="BB44" s="21"/>
+      <c r="BC44" s="21"/>
+      <c r="BD44" s="21"/>
+      <c r="BE44" s="21"/>
+      <c r="BF44" s="21"/>
+      <c r="BG44" s="21"/>
+      <c r="BH44" s="21"/>
+      <c r="BI44" s="21"/>
+      <c r="BJ44" s="21"/>
+      <c r="BK44" s="21"/>
+      <c r="BL44" s="21"/>
+      <c r="BM44" s="21"/>
+      <c r="BN44" s="21"/>
+      <c r="BO44" s="21"/>
+      <c r="BP44" s="21"/>
+      <c r="BQ44" s="21"/>
+    </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="H8:H10"/>
-    <mergeCell ref="S9:W9"/>
-    <mergeCell ref="N9:R9"/>
-    <mergeCell ref="I9:M9"/>
-    <mergeCell ref="I8:W8"/>
-    <mergeCell ref="I2:N2"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="I5:O5"/>
-    <mergeCell ref="P5:AA5"/>
-    <mergeCell ref="I4:O4"/>
-    <mergeCell ref="P4:AB4"/>
-    <mergeCell ref="O2:AG2"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="B5:C5"/>
     <mergeCell ref="BG9:BK9"/>
     <mergeCell ref="BL9:BP9"/>
     <mergeCell ref="BB9:BF9"/>
@@ -6105,9 +6209,31 @@
     <mergeCell ref="AR9:AV9"/>
     <mergeCell ref="AW9:BA9"/>
     <mergeCell ref="AM9:AQ9"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="I2:N2"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="I5:O5"/>
+    <mergeCell ref="P5:AA5"/>
+    <mergeCell ref="I4:O4"/>
+    <mergeCell ref="P4:AB4"/>
+    <mergeCell ref="O2:AG2"/>
+    <mergeCell ref="H8:H10"/>
+    <mergeCell ref="S9:W9"/>
+    <mergeCell ref="N9:R9"/>
+    <mergeCell ref="I9:M9"/>
+    <mergeCell ref="I8:W8"/>
   </mergeCells>
   <phoneticPr fontId="30" type="noConversion"/>
-  <conditionalFormatting sqref="H12:H18 H20:H40">
+  <conditionalFormatting sqref="H12:H18 H20:H41">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -6117,7 +6243,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H12:H18 H20:H40">
+  <conditionalFormatting sqref="H12:H18 H20:H41">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>

--- a/일정/갠트 차트.xlsx
+++ b/일정/갠트 차트.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sanghee\Desktop\develop\2wda_2semester\2WDA_YJSangSa_CapstoneDesign\일정\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D62BB8EE-787D-4AA6-8AEE-32B09395FCFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62A6108C-8786-4A7A-9BA0-9410323D7385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="84">
   <si>
     <t>갠트 차트 템플릿</t>
   </si>
@@ -1099,6 +1099,92 @@
       </rPr>
       <t>)</t>
     </r>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.1.4</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">zepeto </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">통신코드 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+        <family val="3"/>
+      </rPr>
+      <t>spring</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>활용하여 제작</t>
+    </r>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>상희,태권</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.3.2</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Zepeto Component </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">활용 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">NPC </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>생성</t>
+    </r>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>신성,황주</t>
     <phoneticPr fontId="30" type="noConversion"/>
   </si>
 </sst>
@@ -1110,7 +1196,7 @@
     <numFmt numFmtId="176" formatCode="yy&quot;년 &quot;m&quot;월 &quot;d&quot;일&quot;"/>
     <numFmt numFmtId="177" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="55">
+  <fonts count="56">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1440,6 +1526,13 @@
       <color rgb="FF434343"/>
       <name val="돋움"/>
       <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF434343"/>
+      <name val="Arial Unicode MS"/>
+      <family val="3"/>
       <charset val="129"/>
     </font>
   </fonts>
@@ -2073,17 +2166,41 @@
     <xf numFmtId="0" fontId="41" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2092,10 +2209,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2105,30 +2218,10 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2490,10 +2583,10 @@
     <tabColor rgb="FF3D85C6"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BQ44"/>
+  <dimension ref="A1:BQ46"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="Q36" sqref="Q36"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1"/>
@@ -2581,44 +2674,44 @@
     </row>
     <row r="2" spans="1:69" ht="40.5">
       <c r="A2" s="1"/>
-      <c r="B2" s="96" t="s">
+      <c r="B2" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="105"/>
       <c r="H2" s="10"/>
-      <c r="I2" s="94" t="s">
+      <c r="I2" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="95"/>
-      <c r="K2" s="95"/>
-      <c r="L2" s="95"/>
-      <c r="M2" s="95"/>
-      <c r="N2" s="95"/>
-      <c r="O2" s="101" t="s">
+      <c r="J2" s="105"/>
+      <c r="K2" s="105"/>
+      <c r="L2" s="105"/>
+      <c r="M2" s="105"/>
+      <c r="N2" s="105"/>
+      <c r="O2" s="109" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="95"/>
-      <c r="Q2" s="95"/>
-      <c r="R2" s="95"/>
-      <c r="S2" s="95"/>
-      <c r="T2" s="95"/>
-      <c r="U2" s="95"/>
-      <c r="V2" s="95"/>
-      <c r="W2" s="95"/>
-      <c r="X2" s="95"/>
-      <c r="Y2" s="95"/>
-      <c r="Z2" s="95"/>
-      <c r="AA2" s="95"/>
-      <c r="AB2" s="95"/>
-      <c r="AC2" s="95"/>
-      <c r="AD2" s="95"/>
-      <c r="AE2" s="95"/>
-      <c r="AF2" s="95"/>
-      <c r="AG2" s="95"/>
+      <c r="P2" s="105"/>
+      <c r="Q2" s="105"/>
+      <c r="R2" s="105"/>
+      <c r="S2" s="105"/>
+      <c r="T2" s="105"/>
+      <c r="U2" s="105"/>
+      <c r="V2" s="105"/>
+      <c r="W2" s="105"/>
+      <c r="X2" s="105"/>
+      <c r="Y2" s="105"/>
+      <c r="Z2" s="105"/>
+      <c r="AA2" s="105"/>
+      <c r="AB2" s="105"/>
+      <c r="AC2" s="105"/>
+      <c r="AD2" s="105"/>
+      <c r="AE2" s="105"/>
+      <c r="AF2" s="105"/>
+      <c r="AG2" s="105"/>
       <c r="AH2" s="11"/>
       <c r="AI2" s="11"/>
       <c r="AJ2" s="11"/>
@@ -2729,41 +2822,41 @@
     </row>
     <row r="4" spans="1:69" ht="21" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="97" t="s">
+      <c r="B4" s="101" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="98"/>
-      <c r="D4" s="102" t="s">
+      <c r="C4" s="102"/>
+      <c r="D4" s="99" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="103"/>
-      <c r="F4" s="103"/>
-      <c r="G4" s="103"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
       <c r="H4" s="16"/>
-      <c r="I4" s="97" t="s">
+      <c r="I4" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="98"/>
-      <c r="K4" s="98"/>
-      <c r="L4" s="98"/>
-      <c r="M4" s="98"/>
-      <c r="N4" s="98"/>
-      <c r="O4" s="98"/>
-      <c r="P4" s="100" t="s">
+      <c r="J4" s="102"/>
+      <c r="K4" s="102"/>
+      <c r="L4" s="102"/>
+      <c r="M4" s="102"/>
+      <c r="N4" s="102"/>
+      <c r="O4" s="102"/>
+      <c r="P4" s="108" t="s">
         <v>39</v>
       </c>
-      <c r="Q4" s="98"/>
-      <c r="R4" s="98"/>
-      <c r="S4" s="98"/>
-      <c r="T4" s="98"/>
-      <c r="U4" s="98"/>
-      <c r="V4" s="98"/>
-      <c r="W4" s="98"/>
-      <c r="X4" s="98"/>
-      <c r="Y4" s="98"/>
-      <c r="Z4" s="98"/>
-      <c r="AA4" s="98"/>
-      <c r="AB4" s="98"/>
+      <c r="Q4" s="102"/>
+      <c r="R4" s="102"/>
+      <c r="S4" s="102"/>
+      <c r="T4" s="102"/>
+      <c r="U4" s="102"/>
+      <c r="V4" s="102"/>
+      <c r="W4" s="102"/>
+      <c r="X4" s="102"/>
+      <c r="Y4" s="102"/>
+      <c r="Z4" s="102"/>
+      <c r="AA4" s="102"/>
+      <c r="AB4" s="102"/>
       <c r="AC4" s="17"/>
       <c r="AD4" s="9"/>
       <c r="AE4" s="9"/>
@@ -2808,40 +2901,40 @@
     </row>
     <row r="5" spans="1:69" ht="21" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="97" t="s">
+      <c r="B5" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="98"/>
-      <c r="D5" s="104" t="s">
+      <c r="C5" s="102"/>
+      <c r="D5" s="103" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="98"/>
-      <c r="F5" s="98"/>
-      <c r="G5" s="98"/>
+      <c r="E5" s="102"/>
+      <c r="F5" s="102"/>
+      <c r="G5" s="102"/>
       <c r="H5" s="18"/>
-      <c r="I5" s="97" t="s">
+      <c r="I5" s="101" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="98"/>
-      <c r="K5" s="98"/>
-      <c r="L5" s="98"/>
-      <c r="M5" s="98"/>
-      <c r="N5" s="98"/>
-      <c r="O5" s="98"/>
-      <c r="P5" s="99">
+      <c r="J5" s="102"/>
+      <c r="K5" s="102"/>
+      <c r="L5" s="102"/>
+      <c r="M5" s="102"/>
+      <c r="N5" s="102"/>
+      <c r="O5" s="102"/>
+      <c r="P5" s="107">
         <v>44992</v>
       </c>
-      <c r="Q5" s="98"/>
-      <c r="R5" s="98"/>
-      <c r="S5" s="98"/>
-      <c r="T5" s="98"/>
-      <c r="U5" s="98"/>
-      <c r="V5" s="98"/>
-      <c r="W5" s="98"/>
-      <c r="X5" s="98"/>
-      <c r="Y5" s="98"/>
-      <c r="Z5" s="98"/>
-      <c r="AA5" s="98"/>
+      <c r="Q5" s="102"/>
+      <c r="R5" s="102"/>
+      <c r="S5" s="102"/>
+      <c r="T5" s="102"/>
+      <c r="U5" s="102"/>
+      <c r="V5" s="102"/>
+      <c r="W5" s="102"/>
+      <c r="X5" s="102"/>
+      <c r="Y5" s="102"/>
+      <c r="Z5" s="102"/>
+      <c r="AA5" s="102"/>
       <c r="AB5" s="19"/>
       <c r="AC5" s="17"/>
       <c r="AD5" s="1"/>
@@ -3029,201 +3122,201 @@
     </row>
     <row r="8" spans="1:69" ht="17.25" customHeight="1">
       <c r="A8" s="24"/>
-      <c r="B8" s="88" t="s">
+      <c r="B8" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="88" t="s">
+      <c r="C8" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="88" t="s">
+      <c r="D8" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="88" t="s">
+      <c r="E8" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="88" t="s">
+      <c r="F8" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="88" t="s">
+      <c r="G8" s="98" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="88" t="s">
+      <c r="H8" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="93" t="s">
+      <c r="I8" s="111" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="89"/>
-      <c r="K8" s="89"/>
-      <c r="L8" s="89"/>
-      <c r="M8" s="89"/>
-      <c r="N8" s="89"/>
-      <c r="O8" s="89"/>
-      <c r="P8" s="89"/>
-      <c r="Q8" s="89"/>
-      <c r="R8" s="89"/>
-      <c r="S8" s="89"/>
-      <c r="T8" s="89"/>
-      <c r="U8" s="89"/>
-      <c r="V8" s="89"/>
-      <c r="W8" s="89"/>
-      <c r="X8" s="110" t="s">
+      <c r="J8" s="92"/>
+      <c r="K8" s="92"/>
+      <c r="L8" s="92"/>
+      <c r="M8" s="92"/>
+      <c r="N8" s="92"/>
+      <c r="O8" s="92"/>
+      <c r="P8" s="92"/>
+      <c r="Q8" s="92"/>
+      <c r="R8" s="92"/>
+      <c r="S8" s="92"/>
+      <c r="T8" s="92"/>
+      <c r="U8" s="92"/>
+      <c r="V8" s="92"/>
+      <c r="W8" s="92"/>
+      <c r="X8" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="Y8" s="89"/>
-      <c r="Z8" s="89"/>
-      <c r="AA8" s="89"/>
-      <c r="AB8" s="89"/>
-      <c r="AC8" s="89"/>
-      <c r="AD8" s="89"/>
-      <c r="AE8" s="89"/>
-      <c r="AF8" s="89"/>
-      <c r="AG8" s="89"/>
-      <c r="AH8" s="89"/>
-      <c r="AI8" s="89"/>
-      <c r="AJ8" s="89"/>
-      <c r="AK8" s="89"/>
-      <c r="AL8" s="89"/>
-      <c r="AM8" s="109" t="s">
+      <c r="Y8" s="92"/>
+      <c r="Z8" s="92"/>
+      <c r="AA8" s="92"/>
+      <c r="AB8" s="92"/>
+      <c r="AC8" s="92"/>
+      <c r="AD8" s="92"/>
+      <c r="AE8" s="92"/>
+      <c r="AF8" s="92"/>
+      <c r="AG8" s="92"/>
+      <c r="AH8" s="92"/>
+      <c r="AI8" s="92"/>
+      <c r="AJ8" s="92"/>
+      <c r="AK8" s="92"/>
+      <c r="AL8" s="92"/>
+      <c r="AM8" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="AN8" s="89"/>
-      <c r="AO8" s="89"/>
-      <c r="AP8" s="89"/>
-      <c r="AQ8" s="89"/>
-      <c r="AR8" s="89"/>
-      <c r="AS8" s="89"/>
-      <c r="AT8" s="89"/>
-      <c r="AU8" s="89"/>
-      <c r="AV8" s="89"/>
-      <c r="AW8" s="89"/>
-      <c r="AX8" s="89"/>
-      <c r="AY8" s="89"/>
-      <c r="AZ8" s="89"/>
-      <c r="BA8" s="89"/>
-      <c r="BB8" s="106" t="s">
+      <c r="AN8" s="92"/>
+      <c r="AO8" s="92"/>
+      <c r="AP8" s="92"/>
+      <c r="AQ8" s="92"/>
+      <c r="AR8" s="92"/>
+      <c r="AS8" s="92"/>
+      <c r="AT8" s="92"/>
+      <c r="AU8" s="92"/>
+      <c r="AV8" s="92"/>
+      <c r="AW8" s="92"/>
+      <c r="AX8" s="92"/>
+      <c r="AY8" s="92"/>
+      <c r="AZ8" s="92"/>
+      <c r="BA8" s="92"/>
+      <c r="BB8" s="91" t="s">
         <v>17</v>
       </c>
-      <c r="BC8" s="89"/>
-      <c r="BD8" s="89"/>
-      <c r="BE8" s="89"/>
-      <c r="BF8" s="89"/>
-      <c r="BG8" s="89"/>
-      <c r="BH8" s="89"/>
-      <c r="BI8" s="89"/>
-      <c r="BJ8" s="89"/>
-      <c r="BK8" s="89"/>
-      <c r="BL8" s="89"/>
-      <c r="BM8" s="89"/>
-      <c r="BN8" s="89"/>
-      <c r="BO8" s="89"/>
-      <c r="BP8" s="107"/>
+      <c r="BC8" s="92"/>
+      <c r="BD8" s="92"/>
+      <c r="BE8" s="92"/>
+      <c r="BF8" s="92"/>
+      <c r="BG8" s="92"/>
+      <c r="BH8" s="92"/>
+      <c r="BI8" s="92"/>
+      <c r="BJ8" s="92"/>
+      <c r="BK8" s="92"/>
+      <c r="BL8" s="92"/>
+      <c r="BM8" s="92"/>
+      <c r="BN8" s="92"/>
+      <c r="BO8" s="92"/>
+      <c r="BP8" s="93"/>
       <c r="BQ8" s="21"/>
     </row>
     <row r="9" spans="1:69" ht="17.25" customHeight="1">
       <c r="A9" s="25"/>
-      <c r="B9" s="89"/>
-      <c r="C9" s="89"/>
-      <c r="D9" s="89"/>
-      <c r="E9" s="89"/>
-      <c r="F9" s="89"/>
-      <c r="G9" s="89"/>
-      <c r="H9" s="89"/>
-      <c r="I9" s="90" t="s">
+      <c r="B9" s="92"/>
+      <c r="C9" s="92"/>
+      <c r="D9" s="92"/>
+      <c r="E9" s="92"/>
+      <c r="F9" s="92"/>
+      <c r="G9" s="92"/>
+      <c r="H9" s="92"/>
+      <c r="I9" s="110" t="s">
         <v>18</v>
       </c>
-      <c r="J9" s="91"/>
-      <c r="K9" s="91"/>
-      <c r="L9" s="91"/>
-      <c r="M9" s="92"/>
-      <c r="N9" s="90" t="s">
+      <c r="J9" s="89"/>
+      <c r="K9" s="89"/>
+      <c r="L9" s="89"/>
+      <c r="M9" s="90"/>
+      <c r="N9" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="O9" s="91"/>
-      <c r="P9" s="91"/>
-      <c r="Q9" s="91"/>
-      <c r="R9" s="92"/>
-      <c r="S9" s="90" t="s">
+      <c r="O9" s="89"/>
+      <c r="P9" s="89"/>
+      <c r="Q9" s="89"/>
+      <c r="R9" s="90"/>
+      <c r="S9" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="T9" s="91"/>
-      <c r="U9" s="91"/>
-      <c r="V9" s="91"/>
-      <c r="W9" s="92"/>
-      <c r="X9" s="108" t="s">
+      <c r="T9" s="89"/>
+      <c r="U9" s="89"/>
+      <c r="V9" s="89"/>
+      <c r="W9" s="90"/>
+      <c r="X9" s="94" t="s">
         <v>21</v>
       </c>
-      <c r="Y9" s="91"/>
-      <c r="Z9" s="91"/>
-      <c r="AA9" s="91"/>
-      <c r="AB9" s="92"/>
-      <c r="AC9" s="108" t="s">
+      <c r="Y9" s="89"/>
+      <c r="Z9" s="89"/>
+      <c r="AA9" s="89"/>
+      <c r="AB9" s="90"/>
+      <c r="AC9" s="94" t="s">
         <v>22</v>
       </c>
-      <c r="AD9" s="91"/>
-      <c r="AE9" s="91"/>
-      <c r="AF9" s="91"/>
-      <c r="AG9" s="92"/>
-      <c r="AH9" s="108" t="s">
+      <c r="AD9" s="89"/>
+      <c r="AE9" s="89"/>
+      <c r="AF9" s="89"/>
+      <c r="AG9" s="90"/>
+      <c r="AH9" s="94" t="s">
         <v>23</v>
       </c>
-      <c r="AI9" s="91"/>
-      <c r="AJ9" s="91"/>
-      <c r="AK9" s="91"/>
-      <c r="AL9" s="92"/>
-      <c r="AM9" s="111" t="s">
+      <c r="AI9" s="89"/>
+      <c r="AJ9" s="89"/>
+      <c r="AK9" s="89"/>
+      <c r="AL9" s="90"/>
+      <c r="AM9" s="97" t="s">
         <v>24</v>
       </c>
-      <c r="AN9" s="91"/>
-      <c r="AO9" s="91"/>
-      <c r="AP9" s="91"/>
-      <c r="AQ9" s="92"/>
-      <c r="AR9" s="111" t="s">
+      <c r="AN9" s="89"/>
+      <c r="AO9" s="89"/>
+      <c r="AP9" s="89"/>
+      <c r="AQ9" s="90"/>
+      <c r="AR9" s="97" t="s">
         <v>25</v>
       </c>
-      <c r="AS9" s="91"/>
-      <c r="AT9" s="91"/>
-      <c r="AU9" s="91"/>
-      <c r="AV9" s="92"/>
-      <c r="AW9" s="111" t="s">
+      <c r="AS9" s="89"/>
+      <c r="AT9" s="89"/>
+      <c r="AU9" s="89"/>
+      <c r="AV9" s="90"/>
+      <c r="AW9" s="97" t="s">
         <v>26</v>
       </c>
-      <c r="AX9" s="91"/>
-      <c r="AY9" s="91"/>
-      <c r="AZ9" s="91"/>
-      <c r="BA9" s="92"/>
-      <c r="BB9" s="105" t="s">
+      <c r="AX9" s="89"/>
+      <c r="AY9" s="89"/>
+      <c r="AZ9" s="89"/>
+      <c r="BA9" s="90"/>
+      <c r="BB9" s="88" t="s">
         <v>27</v>
       </c>
-      <c r="BC9" s="91"/>
-      <c r="BD9" s="91"/>
-      <c r="BE9" s="91"/>
-      <c r="BF9" s="92"/>
-      <c r="BG9" s="105" t="s">
+      <c r="BC9" s="89"/>
+      <c r="BD9" s="89"/>
+      <c r="BE9" s="89"/>
+      <c r="BF9" s="90"/>
+      <c r="BG9" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="BH9" s="91"/>
-      <c r="BI9" s="91"/>
-      <c r="BJ9" s="91"/>
-      <c r="BK9" s="92"/>
-      <c r="BL9" s="105" t="s">
+      <c r="BH9" s="89"/>
+      <c r="BI9" s="89"/>
+      <c r="BJ9" s="89"/>
+      <c r="BK9" s="90"/>
+      <c r="BL9" s="88" t="s">
         <v>29</v>
       </c>
-      <c r="BM9" s="91"/>
-      <c r="BN9" s="91"/>
-      <c r="BO9" s="91"/>
-      <c r="BP9" s="92"/>
+      <c r="BM9" s="89"/>
+      <c r="BN9" s="89"/>
+      <c r="BO9" s="89"/>
+      <c r="BP9" s="90"/>
       <c r="BQ9" s="25"/>
     </row>
     <row r="10" spans="1:69" ht="17.25" customHeight="1">
       <c r="A10" s="26"/>
-      <c r="B10" s="89"/>
-      <c r="C10" s="89"/>
-      <c r="D10" s="89"/>
-      <c r="E10" s="89"/>
-      <c r="F10" s="89"/>
-      <c r="G10" s="89"/>
-      <c r="H10" s="89"/>
+      <c r="B10" s="92"/>
+      <c r="C10" s="92"/>
+      <c r="D10" s="92"/>
+      <c r="E10" s="92"/>
+      <c r="F10" s="92"/>
+      <c r="G10" s="92"/>
+      <c r="H10" s="92"/>
       <c r="I10" s="27" t="s">
         <v>30</v>
       </c>
@@ -4913,28 +5006,28 @@
       <c r="BP28" s="51"/>
       <c r="BQ28" s="37"/>
     </row>
-    <row r="29" spans="1:69" ht="27.5" customHeight="1" outlineLevel="1">
+    <row r="29" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A29" s="37"/>
-      <c r="B29" s="38">
-        <v>3.2</v>
-      </c>
-      <c r="C29" s="85" t="s">
-        <v>55</v>
-      </c>
-      <c r="D29" s="76" t="s">
-        <v>64</v>
+      <c r="B29" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" s="80" t="s">
+        <v>66</v>
+      </c>
+      <c r="D29" s="79" t="s">
+        <v>43</v>
       </c>
       <c r="E29" s="40">
-        <v>44998</v>
+        <v>45012</v>
       </c>
       <c r="F29" s="40">
-        <v>45006</v>
+        <v>45025</v>
       </c>
       <c r="G29" s="41">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="H29" s="42">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="I29" s="52"/>
       <c r="J29" s="53"/>
@@ -4946,10 +5039,10 @@
       <c r="P29" s="55"/>
       <c r="Q29" s="55"/>
       <c r="R29" s="55"/>
-      <c r="S29" s="54"/>
-      <c r="T29" s="54"/>
-      <c r="U29" s="54"/>
-      <c r="V29" s="54"/>
+      <c r="S29" s="45"/>
+      <c r="T29" s="45"/>
+      <c r="U29" s="45"/>
+      <c r="V29" s="45"/>
       <c r="W29" s="54"/>
       <c r="X29" s="54"/>
       <c r="Y29" s="54"/>
@@ -4961,15 +5054,15 @@
       <c r="AE29" s="57"/>
       <c r="AF29" s="57"/>
       <c r="AG29" s="57"/>
-      <c r="AH29" s="56"/>
-      <c r="AI29" s="56"/>
-      <c r="AJ29" s="56"/>
-      <c r="AK29" s="56"/>
-      <c r="AL29" s="56"/>
-      <c r="AM29" s="56"/>
-      <c r="AN29" s="56"/>
-      <c r="AO29" s="56"/>
-      <c r="AP29" s="56"/>
+      <c r="AH29" s="54"/>
+      <c r="AI29" s="54"/>
+      <c r="AJ29" s="54"/>
+      <c r="AK29" s="54"/>
+      <c r="AL29" s="54"/>
+      <c r="AM29" s="54"/>
+      <c r="AN29" s="54"/>
+      <c r="AO29" s="54"/>
+      <c r="AP29" s="54"/>
       <c r="AQ29" s="54"/>
       <c r="AR29" s="58"/>
       <c r="AS29" s="58"/>
@@ -5001,25 +5094,25 @@
     <row r="30" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A30" s="37"/>
       <c r="B30" s="38" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="C30" s="80" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D30" s="79" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="E30" s="40">
-        <v>45005</v>
+        <v>45012</v>
       </c>
       <c r="F30" s="40">
-        <v>45008</v>
+        <v>45018</v>
       </c>
       <c r="G30" s="41">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H30" s="42">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="I30" s="52"/>
       <c r="J30" s="53"/>
@@ -5051,10 +5144,10 @@
       <c r="AJ30" s="54"/>
       <c r="AK30" s="54"/>
       <c r="AL30" s="54"/>
-      <c r="AM30" s="56"/>
-      <c r="AN30" s="56"/>
-      <c r="AO30" s="56"/>
-      <c r="AP30" s="56"/>
+      <c r="AM30" s="54"/>
+      <c r="AN30" s="54"/>
+      <c r="AO30" s="54"/>
+      <c r="AP30" s="54"/>
       <c r="AQ30" s="54"/>
       <c r="AR30" s="58"/>
       <c r="AS30" s="58"/>
@@ -5085,26 +5178,26 @@
     </row>
     <row r="31" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A31" s="37"/>
-      <c r="B31" s="38">
-        <v>3.3</v>
-      </c>
-      <c r="C31" s="80" t="s">
-        <v>63</v>
+      <c r="B31" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31" s="87" t="s">
+        <v>75</v>
       </c>
       <c r="D31" s="79" t="s">
         <v>43</v>
       </c>
       <c r="E31" s="40">
-        <v>45009</v>
+        <v>45012</v>
       </c>
       <c r="F31" s="40">
-        <v>45009</v>
+        <v>45027</v>
       </c>
       <c r="G31" s="41">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="H31" s="42">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="I31" s="52"/>
       <c r="J31" s="53"/>
@@ -5168,28 +5261,28 @@
       <c r="BP31" s="60"/>
       <c r="BQ31" s="37"/>
     </row>
-    <row r="32" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="32" spans="1:69" ht="27.5" customHeight="1" outlineLevel="1">
       <c r="A32" s="37"/>
-      <c r="B32" s="38" t="s">
-        <v>72</v>
-      </c>
-      <c r="C32" s="86" t="s">
-        <v>65</v>
-      </c>
-      <c r="D32" s="79" t="s">
-        <v>60</v>
+      <c r="B32" s="38">
+        <v>3.2</v>
+      </c>
+      <c r="C32" s="85" t="s">
+        <v>55</v>
+      </c>
+      <c r="D32" s="76" t="s">
+        <v>64</v>
       </c>
       <c r="E32" s="40">
-        <v>45009</v>
+        <v>44998</v>
       </c>
       <c r="F32" s="40">
-        <v>45026</v>
+        <v>45006</v>
       </c>
       <c r="G32" s="41">
-        <v>15</v>
-      </c>
-      <c r="H32" s="61">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="H32" s="42">
+        <v>1</v>
       </c>
       <c r="I32" s="52"/>
       <c r="J32" s="53"/>
@@ -5201,10 +5294,10 @@
       <c r="P32" s="55"/>
       <c r="Q32" s="55"/>
       <c r="R32" s="55"/>
-      <c r="S32" s="45"/>
-      <c r="T32" s="45"/>
-      <c r="U32" s="45"/>
-      <c r="V32" s="45"/>
+      <c r="S32" s="54"/>
+      <c r="T32" s="54"/>
+      <c r="U32" s="54"/>
+      <c r="V32" s="54"/>
       <c r="W32" s="54"/>
       <c r="X32" s="54"/>
       <c r="Y32" s="54"/>
@@ -5216,15 +5309,15 @@
       <c r="AE32" s="57"/>
       <c r="AF32" s="57"/>
       <c r="AG32" s="57"/>
-      <c r="AH32" s="54"/>
-      <c r="AI32" s="54"/>
-      <c r="AJ32" s="54"/>
-      <c r="AK32" s="54"/>
-      <c r="AL32" s="54"/>
-      <c r="AM32" s="54"/>
-      <c r="AN32" s="54"/>
-      <c r="AO32" s="54"/>
-      <c r="AP32" s="54"/>
+      <c r="AH32" s="56"/>
+      <c r="AI32" s="56"/>
+      <c r="AJ32" s="56"/>
+      <c r="AK32" s="56"/>
+      <c r="AL32" s="56"/>
+      <c r="AM32" s="56"/>
+      <c r="AN32" s="56"/>
+      <c r="AO32" s="56"/>
+      <c r="AP32" s="56"/>
       <c r="AQ32" s="54"/>
       <c r="AR32" s="58"/>
       <c r="AS32" s="58"/>
@@ -5256,25 +5349,25 @@
     <row r="33" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A33" s="37"/>
       <c r="B33" s="38" t="s">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="C33" s="80" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D33" s="79" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="E33" s="40">
-        <v>45012</v>
+        <v>45005</v>
       </c>
       <c r="F33" s="40">
-        <v>45025</v>
+        <v>45008</v>
       </c>
       <c r="G33" s="41">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="H33" s="42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" s="52"/>
       <c r="J33" s="53"/>
@@ -5306,10 +5399,10 @@
       <c r="AJ33" s="54"/>
       <c r="AK33" s="54"/>
       <c r="AL33" s="54"/>
-      <c r="AM33" s="54"/>
-      <c r="AN33" s="54"/>
-      <c r="AO33" s="54"/>
-      <c r="AP33" s="54"/>
+      <c r="AM33" s="56"/>
+      <c r="AN33" s="56"/>
+      <c r="AO33" s="56"/>
+      <c r="AP33" s="56"/>
       <c r="AQ33" s="54"/>
       <c r="AR33" s="58"/>
       <c r="AS33" s="58"/>
@@ -5340,26 +5433,26 @@
     </row>
     <row r="34" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A34" s="37"/>
-      <c r="B34" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="C34" s="87" t="s">
-        <v>67</v>
+      <c r="B34" s="38">
+        <v>3.3</v>
+      </c>
+      <c r="C34" s="80" t="s">
+        <v>63</v>
       </c>
       <c r="D34" s="79" t="s">
         <v>43</v>
       </c>
       <c r="E34" s="40">
-        <v>45012</v>
+        <v>45009</v>
       </c>
       <c r="F34" s="40">
-        <v>45013</v>
+        <v>45009</v>
       </c>
       <c r="G34" s="41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H34" s="42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" s="52"/>
       <c r="J34" s="53"/>
@@ -5423,28 +5516,28 @@
       <c r="BP34" s="60"/>
       <c r="BQ34" s="37"/>
     </row>
-    <row r="35" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="35" spans="1:69" ht="17" customHeight="1" outlineLevel="1">
       <c r="A35" s="37"/>
       <c r="B35" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="C35" s="87" t="s">
-        <v>75</v>
+        <v>72</v>
+      </c>
+      <c r="C35" s="80" t="s">
+        <v>82</v>
       </c>
       <c r="D35" s="79" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="E35" s="40">
-        <v>45012</v>
+        <v>45009</v>
       </c>
       <c r="F35" s="40">
-        <v>45013</v>
+        <v>45016</v>
       </c>
       <c r="G35" s="41">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H35" s="42">
-        <v>0</v>
+        <v>0.65</v>
       </c>
       <c r="I35" s="52"/>
       <c r="J35" s="53"/>
@@ -5508,28 +5601,28 @@
       <c r="BP35" s="60"/>
       <c r="BQ35" s="37"/>
     </row>
-    <row r="36" spans="1:69" ht="33" customHeight="1" outlineLevel="1">
+    <row r="36" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A36" s="37"/>
-      <c r="B36" s="38">
-        <v>3.4</v>
-      </c>
-      <c r="C36" s="39" t="s">
-        <v>68</v>
+      <c r="B36" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="C36" s="86" t="s">
+        <v>65</v>
       </c>
       <c r="D36" s="79" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="E36" s="40">
-        <v>45005</v>
+        <v>45009</v>
       </c>
       <c r="F36" s="40">
-        <v>45025</v>
+        <v>45026</v>
       </c>
       <c r="G36" s="41">
-        <v>20</v>
-      </c>
-      <c r="H36" s="42">
-        <v>0.1</v>
+        <v>15</v>
+      </c>
+      <c r="H36" s="61">
+        <v>0</v>
       </c>
       <c r="I36" s="52"/>
       <c r="J36" s="53"/>
@@ -5563,8 +5656,8 @@
       <c r="AL36" s="54"/>
       <c r="AM36" s="54"/>
       <c r="AN36" s="54"/>
-      <c r="AO36" s="56"/>
-      <c r="AP36" s="56"/>
+      <c r="AO36" s="54"/>
+      <c r="AP36" s="54"/>
       <c r="AQ36" s="54"/>
       <c r="AR36" s="58"/>
       <c r="AS36" s="58"/>
@@ -5593,241 +5686,253 @@
       <c r="BP36" s="60"/>
       <c r="BQ36" s="37"/>
     </row>
-    <row r="37" spans="1:69" ht="21" customHeight="1">
-      <c r="A37" s="21"/>
-      <c r="B37" s="31">
-        <v>4</v>
-      </c>
-      <c r="C37" s="32"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="33"/>
-      <c r="G37" s="33"/>
-      <c r="H37" s="33"/>
-      <c r="I37" s="34"/>
-      <c r="J37" s="35"/>
-      <c r="K37" s="36"/>
-      <c r="L37" s="36"/>
-      <c r="M37" s="34"/>
-      <c r="N37" s="34"/>
-      <c r="O37" s="34"/>
-      <c r="P37" s="34"/>
-      <c r="Q37" s="34"/>
-      <c r="R37" s="34"/>
-      <c r="S37" s="34"/>
-      <c r="T37" s="34"/>
-      <c r="U37" s="34"/>
-      <c r="V37" s="34"/>
-      <c r="W37" s="34"/>
-      <c r="X37" s="34"/>
-      <c r="Y37" s="34"/>
-      <c r="Z37" s="34"/>
-      <c r="AA37" s="34"/>
-      <c r="AB37" s="34"/>
-      <c r="AC37" s="34"/>
-      <c r="AD37" s="34"/>
-      <c r="AE37" s="34"/>
-      <c r="AF37" s="34"/>
-      <c r="AG37" s="34"/>
-      <c r="AH37" s="34"/>
-      <c r="AI37" s="34"/>
-      <c r="AJ37" s="34"/>
-      <c r="AK37" s="34"/>
-      <c r="AL37" s="34"/>
-      <c r="AM37" s="34"/>
-      <c r="AN37" s="34"/>
-      <c r="AO37" s="34"/>
-      <c r="AP37" s="34"/>
-      <c r="AQ37" s="34"/>
-      <c r="AR37" s="34"/>
-      <c r="AS37" s="34"/>
-      <c r="AT37" s="34"/>
-      <c r="AU37" s="34"/>
-      <c r="AV37" s="34"/>
-      <c r="AW37" s="34"/>
-      <c r="AX37" s="34"/>
-      <c r="AY37" s="34"/>
-      <c r="AZ37" s="34"/>
-      <c r="BA37" s="34"/>
-      <c r="BB37" s="34"/>
-      <c r="BC37" s="34"/>
-      <c r="BD37" s="34"/>
-      <c r="BE37" s="34"/>
-      <c r="BF37" s="34"/>
-      <c r="BG37" s="34"/>
-      <c r="BH37" s="34"/>
-      <c r="BI37" s="34"/>
-      <c r="BJ37" s="34"/>
-      <c r="BK37" s="34"/>
-      <c r="BL37" s="34"/>
-      <c r="BM37" s="34"/>
-      <c r="BN37" s="34"/>
-      <c r="BO37" s="34"/>
-      <c r="BP37" s="34"/>
-      <c r="BQ37" s="21"/>
+    <row r="37" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A37" s="37"/>
+      <c r="B37" s="38">
+        <v>3.4</v>
+      </c>
+      <c r="C37" s="87" t="s">
+        <v>67</v>
+      </c>
+      <c r="D37" s="79" t="s">
+        <v>43</v>
+      </c>
+      <c r="E37" s="40">
+        <v>45012</v>
+      </c>
+      <c r="F37" s="40">
+        <v>45013</v>
+      </c>
+      <c r="G37" s="41">
+        <v>2</v>
+      </c>
+      <c r="H37" s="42">
+        <v>1</v>
+      </c>
+      <c r="I37" s="52"/>
+      <c r="J37" s="53"/>
+      <c r="K37" s="54"/>
+      <c r="L37" s="54"/>
+      <c r="M37" s="54"/>
+      <c r="N37" s="55"/>
+      <c r="O37" s="55"/>
+      <c r="P37" s="55"/>
+      <c r="Q37" s="55"/>
+      <c r="R37" s="55"/>
+      <c r="S37" s="45"/>
+      <c r="T37" s="45"/>
+      <c r="U37" s="45"/>
+      <c r="V37" s="45"/>
+      <c r="W37" s="54"/>
+      <c r="X37" s="54"/>
+      <c r="Y37" s="54"/>
+      <c r="Z37" s="54"/>
+      <c r="AA37" s="54"/>
+      <c r="AB37" s="54"/>
+      <c r="AC37" s="57"/>
+      <c r="AD37" s="57"/>
+      <c r="AE37" s="57"/>
+      <c r="AF37" s="57"/>
+      <c r="AG37" s="57"/>
+      <c r="AH37" s="54"/>
+      <c r="AI37" s="54"/>
+      <c r="AJ37" s="54"/>
+      <c r="AK37" s="54"/>
+      <c r="AL37" s="54"/>
+      <c r="AM37" s="54"/>
+      <c r="AN37" s="54"/>
+      <c r="AO37" s="54"/>
+      <c r="AP37" s="54"/>
+      <c r="AQ37" s="54"/>
+      <c r="AR37" s="58"/>
+      <c r="AS37" s="58"/>
+      <c r="AT37" s="58"/>
+      <c r="AU37" s="58"/>
+      <c r="AV37" s="58"/>
+      <c r="AW37" s="54"/>
+      <c r="AX37" s="54"/>
+      <c r="AY37" s="54"/>
+      <c r="AZ37" s="54"/>
+      <c r="BA37" s="54"/>
+      <c r="BB37" s="54"/>
+      <c r="BC37" s="54"/>
+      <c r="BD37" s="54"/>
+      <c r="BE37" s="54"/>
+      <c r="BF37" s="54"/>
+      <c r="BG37" s="59"/>
+      <c r="BH37" s="59"/>
+      <c r="BI37" s="59"/>
+      <c r="BJ37" s="59"/>
+      <c r="BK37" s="59"/>
+      <c r="BL37" s="54"/>
+      <c r="BM37" s="54"/>
+      <c r="BN37" s="54"/>
+      <c r="BO37" s="54"/>
+      <c r="BP37" s="60"/>
+      <c r="BQ37" s="37"/>
     </row>
-    <row r="38" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="38" spans="1:69" ht="33" customHeight="1" outlineLevel="1">
       <c r="A38" s="37"/>
       <c r="B38" s="38">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="C38" s="39"/>
-      <c r="D38" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="E38" s="40"/>
-      <c r="F38" s="40"/>
+        <v>3.5</v>
+      </c>
+      <c r="C38" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="D38" s="79" t="s">
+        <v>43</v>
+      </c>
+      <c r="E38" s="40">
+        <v>45005</v>
+      </c>
+      <c r="F38" s="40">
+        <v>45025</v>
+      </c>
       <c r="G38" s="41">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H38" s="42">
-        <v>0</v>
-      </c>
-      <c r="I38" s="43"/>
-      <c r="J38" s="44"/>
-      <c r="K38" s="45"/>
-      <c r="L38" s="45"/>
-      <c r="M38" s="45"/>
-      <c r="N38" s="47"/>
-      <c r="O38" s="47"/>
-      <c r="P38" s="47"/>
-      <c r="Q38" s="47"/>
-      <c r="R38" s="47"/>
+        <v>0.5</v>
+      </c>
+      <c r="I38" s="52"/>
+      <c r="J38" s="53"/>
+      <c r="K38" s="54"/>
+      <c r="L38" s="54"/>
+      <c r="M38" s="54"/>
+      <c r="N38" s="55"/>
+      <c r="O38" s="55"/>
+      <c r="P38" s="55"/>
+      <c r="Q38" s="55"/>
+      <c r="R38" s="55"/>
       <c r="S38" s="45"/>
       <c r="T38" s="45"/>
       <c r="U38" s="45"/>
       <c r="V38" s="45"/>
-      <c r="W38" s="45"/>
-      <c r="X38" s="45"/>
-      <c r="Y38" s="45"/>
-      <c r="Z38" s="45"/>
-      <c r="AA38" s="45"/>
-      <c r="AB38" s="45"/>
-      <c r="AC38" s="48"/>
-      <c r="AD38" s="48"/>
-      <c r="AE38" s="48"/>
-      <c r="AF38" s="48"/>
-      <c r="AG38" s="48"/>
-      <c r="AH38" s="45"/>
-      <c r="AI38" s="45"/>
-      <c r="AJ38" s="45"/>
-      <c r="AK38" s="45"/>
-      <c r="AL38" s="45"/>
-      <c r="AM38" s="45"/>
-      <c r="AN38" s="45"/>
-      <c r="AO38" s="45"/>
-      <c r="AP38" s="45"/>
-      <c r="AQ38" s="45"/>
-      <c r="AR38" s="49"/>
-      <c r="AS38" s="49"/>
-      <c r="AT38" s="49"/>
-      <c r="AU38" s="49"/>
-      <c r="AV38" s="49"/>
-      <c r="AW38" s="45"/>
-      <c r="AX38" s="45"/>
-      <c r="AY38" s="45"/>
-      <c r="AZ38" s="45"/>
-      <c r="BA38" s="45"/>
-      <c r="BB38" s="45"/>
-      <c r="BC38" s="45"/>
-      <c r="BD38" s="45"/>
-      <c r="BE38" s="45"/>
-      <c r="BF38" s="45"/>
-      <c r="BG38" s="50"/>
-      <c r="BH38" s="50"/>
-      <c r="BI38" s="50"/>
-      <c r="BJ38" s="50"/>
-      <c r="BK38" s="50"/>
-      <c r="BL38" s="45"/>
-      <c r="BM38" s="45"/>
-      <c r="BN38" s="45"/>
-      <c r="BO38" s="45"/>
-      <c r="BP38" s="51"/>
+      <c r="W38" s="54"/>
+      <c r="X38" s="54"/>
+      <c r="Y38" s="54"/>
+      <c r="Z38" s="54"/>
+      <c r="AA38" s="54"/>
+      <c r="AB38" s="54"/>
+      <c r="AC38" s="57"/>
+      <c r="AD38" s="57"/>
+      <c r="AE38" s="57"/>
+      <c r="AF38" s="57"/>
+      <c r="AG38" s="57"/>
+      <c r="AH38" s="54"/>
+      <c r="AI38" s="54"/>
+      <c r="AJ38" s="54"/>
+      <c r="AK38" s="54"/>
+      <c r="AL38" s="54"/>
+      <c r="AM38" s="54"/>
+      <c r="AN38" s="54"/>
+      <c r="AO38" s="56"/>
+      <c r="AP38" s="56"/>
+      <c r="AQ38" s="54"/>
+      <c r="AR38" s="58"/>
+      <c r="AS38" s="58"/>
+      <c r="AT38" s="58"/>
+      <c r="AU38" s="58"/>
+      <c r="AV38" s="58"/>
+      <c r="AW38" s="54"/>
+      <c r="AX38" s="54"/>
+      <c r="AY38" s="54"/>
+      <c r="AZ38" s="54"/>
+      <c r="BA38" s="54"/>
+      <c r="BB38" s="54"/>
+      <c r="BC38" s="54"/>
+      <c r="BD38" s="54"/>
+      <c r="BE38" s="54"/>
+      <c r="BF38" s="54"/>
+      <c r="BG38" s="59"/>
+      <c r="BH38" s="59"/>
+      <c r="BI38" s="59"/>
+      <c r="BJ38" s="59"/>
+      <c r="BK38" s="59"/>
+      <c r="BL38" s="54"/>
+      <c r="BM38" s="54"/>
+      <c r="BN38" s="54"/>
+      <c r="BO38" s="54"/>
+      <c r="BP38" s="60"/>
       <c r="BQ38" s="37"/>
     </row>
-    <row r="39" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A39" s="37"/>
-      <c r="B39" s="38">
-        <v>4.2</v>
-      </c>
-      <c r="C39" s="39"/>
-      <c r="D39" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="E39" s="40"/>
-      <c r="F39" s="40"/>
-      <c r="G39" s="41">
-        <v>0</v>
-      </c>
-      <c r="H39" s="42">
-        <v>0</v>
-      </c>
-      <c r="I39" s="52"/>
-      <c r="J39" s="53"/>
-      <c r="K39" s="54"/>
-      <c r="L39" s="54"/>
-      <c r="M39" s="54"/>
-      <c r="N39" s="47"/>
-      <c r="O39" s="47"/>
-      <c r="P39" s="47"/>
-      <c r="Q39" s="47"/>
-      <c r="R39" s="47"/>
-      <c r="S39" s="54"/>
-      <c r="T39" s="54"/>
-      <c r="U39" s="54"/>
-      <c r="V39" s="54"/>
-      <c r="W39" s="54"/>
-      <c r="X39" s="54"/>
-      <c r="Y39" s="54"/>
-      <c r="Z39" s="54"/>
-      <c r="AA39" s="54"/>
-      <c r="AB39" s="54"/>
-      <c r="AC39" s="57"/>
-      <c r="AD39" s="57"/>
-      <c r="AE39" s="57"/>
-      <c r="AF39" s="57"/>
-      <c r="AG39" s="57"/>
-      <c r="AH39" s="54"/>
-      <c r="AI39" s="54"/>
-      <c r="AJ39" s="54"/>
-      <c r="AK39" s="54"/>
-      <c r="AL39" s="54"/>
-      <c r="AM39" s="54"/>
-      <c r="AN39" s="54"/>
-      <c r="AO39" s="54"/>
-      <c r="AP39" s="54"/>
-      <c r="AQ39" s="54"/>
-      <c r="AR39" s="58"/>
-      <c r="AS39" s="58"/>
-      <c r="AT39" s="58"/>
-      <c r="AU39" s="58"/>
-      <c r="AV39" s="58"/>
-      <c r="AW39" s="54"/>
-      <c r="AX39" s="54"/>
-      <c r="AY39" s="54"/>
-      <c r="AZ39" s="54"/>
-      <c r="BA39" s="54"/>
-      <c r="BB39" s="54"/>
-      <c r="BC39" s="54"/>
-      <c r="BD39" s="54"/>
-      <c r="BE39" s="54"/>
-      <c r="BF39" s="54"/>
-      <c r="BG39" s="59"/>
-      <c r="BH39" s="59"/>
-      <c r="BI39" s="59"/>
-      <c r="BJ39" s="59"/>
-      <c r="BK39" s="59"/>
-      <c r="BL39" s="54"/>
-      <c r="BM39" s="54"/>
-      <c r="BN39" s="54"/>
-      <c r="BO39" s="54"/>
-      <c r="BP39" s="60"/>
-      <c r="BQ39" s="37"/>
+    <row r="39" spans="1:69" ht="21" customHeight="1">
+      <c r="A39" s="21"/>
+      <c r="B39" s="31">
+        <v>4</v>
+      </c>
+      <c r="C39" s="32"/>
+      <c r="D39" s="33"/>
+      <c r="E39" s="33"/>
+      <c r="F39" s="33"/>
+      <c r="G39" s="33"/>
+      <c r="H39" s="33"/>
+      <c r="I39" s="34"/>
+      <c r="J39" s="35"/>
+      <c r="K39" s="36"/>
+      <c r="L39" s="36"/>
+      <c r="M39" s="34"/>
+      <c r="N39" s="34"/>
+      <c r="O39" s="34"/>
+      <c r="P39" s="34"/>
+      <c r="Q39" s="34"/>
+      <c r="R39" s="34"/>
+      <c r="S39" s="34"/>
+      <c r="T39" s="34"/>
+      <c r="U39" s="34"/>
+      <c r="V39" s="34"/>
+      <c r="W39" s="34"/>
+      <c r="X39" s="34"/>
+      <c r="Y39" s="34"/>
+      <c r="Z39" s="34"/>
+      <c r="AA39" s="34"/>
+      <c r="AB39" s="34"/>
+      <c r="AC39" s="34"/>
+      <c r="AD39" s="34"/>
+      <c r="AE39" s="34"/>
+      <c r="AF39" s="34"/>
+      <c r="AG39" s="34"/>
+      <c r="AH39" s="34"/>
+      <c r="AI39" s="34"/>
+      <c r="AJ39" s="34"/>
+      <c r="AK39" s="34"/>
+      <c r="AL39" s="34"/>
+      <c r="AM39" s="34"/>
+      <c r="AN39" s="34"/>
+      <c r="AO39" s="34"/>
+      <c r="AP39" s="34"/>
+      <c r="AQ39" s="34"/>
+      <c r="AR39" s="34"/>
+      <c r="AS39" s="34"/>
+      <c r="AT39" s="34"/>
+      <c r="AU39" s="34"/>
+      <c r="AV39" s="34"/>
+      <c r="AW39" s="34"/>
+      <c r="AX39" s="34"/>
+      <c r="AY39" s="34"/>
+      <c r="AZ39" s="34"/>
+      <c r="BA39" s="34"/>
+      <c r="BB39" s="34"/>
+      <c r="BC39" s="34"/>
+      <c r="BD39" s="34"/>
+      <c r="BE39" s="34"/>
+      <c r="BF39" s="34"/>
+      <c r="BG39" s="34"/>
+      <c r="BH39" s="34"/>
+      <c r="BI39" s="34"/>
+      <c r="BJ39" s="34"/>
+      <c r="BK39" s="34"/>
+      <c r="BL39" s="34"/>
+      <c r="BM39" s="34"/>
+      <c r="BN39" s="34"/>
+      <c r="BO39" s="34"/>
+      <c r="BP39" s="34"/>
+      <c r="BQ39" s="21"/>
     </row>
     <row r="40" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A40" s="37"/>
       <c r="B40" s="38">
-        <v>4.3</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C40" s="39"/>
       <c r="D40" s="39" t="s">
@@ -5841,11 +5946,11 @@
       <c r="H40" s="42">
         <v>0</v>
       </c>
-      <c r="I40" s="52"/>
-      <c r="J40" s="53"/>
-      <c r="K40" s="54"/>
-      <c r="L40" s="54"/>
-      <c r="M40" s="54"/>
+      <c r="I40" s="43"/>
+      <c r="J40" s="44"/>
+      <c r="K40" s="45"/>
+      <c r="L40" s="45"/>
+      <c r="M40" s="45"/>
       <c r="N40" s="47"/>
       <c r="O40" s="47"/>
       <c r="P40" s="47"/>
@@ -5855,58 +5960,58 @@
       <c r="T40" s="45"/>
       <c r="U40" s="45"/>
       <c r="V40" s="45"/>
-      <c r="W40" s="54"/>
-      <c r="X40" s="54"/>
-      <c r="Y40" s="54"/>
-      <c r="Z40" s="54"/>
-      <c r="AA40" s="54"/>
-      <c r="AB40" s="54"/>
-      <c r="AC40" s="57"/>
-      <c r="AD40" s="57"/>
-      <c r="AE40" s="57"/>
-      <c r="AF40" s="57"/>
-      <c r="AG40" s="57"/>
-      <c r="AH40" s="54"/>
-      <c r="AI40" s="54"/>
-      <c r="AJ40" s="54"/>
-      <c r="AK40" s="54"/>
-      <c r="AL40" s="54"/>
-      <c r="AM40" s="54"/>
-      <c r="AN40" s="54"/>
-      <c r="AO40" s="54"/>
-      <c r="AP40" s="54"/>
-      <c r="AQ40" s="54"/>
-      <c r="AR40" s="58"/>
-      <c r="AS40" s="58"/>
-      <c r="AT40" s="58"/>
-      <c r="AU40" s="58"/>
-      <c r="AV40" s="58"/>
-      <c r="AW40" s="54"/>
-      <c r="AX40" s="54"/>
-      <c r="AY40" s="54"/>
-      <c r="AZ40" s="54"/>
-      <c r="BA40" s="54"/>
-      <c r="BB40" s="54"/>
-      <c r="BC40" s="54"/>
-      <c r="BD40" s="54"/>
-      <c r="BE40" s="54"/>
-      <c r="BF40" s="54"/>
-      <c r="BG40" s="59"/>
-      <c r="BH40" s="59"/>
-      <c r="BI40" s="59"/>
-      <c r="BJ40" s="59"/>
-      <c r="BK40" s="59"/>
-      <c r="BL40" s="54"/>
-      <c r="BM40" s="54"/>
-      <c r="BN40" s="54"/>
-      <c r="BO40" s="54"/>
-      <c r="BP40" s="60"/>
+      <c r="W40" s="45"/>
+      <c r="X40" s="45"/>
+      <c r="Y40" s="45"/>
+      <c r="Z40" s="45"/>
+      <c r="AA40" s="45"/>
+      <c r="AB40" s="45"/>
+      <c r="AC40" s="48"/>
+      <c r="AD40" s="48"/>
+      <c r="AE40" s="48"/>
+      <c r="AF40" s="48"/>
+      <c r="AG40" s="48"/>
+      <c r="AH40" s="45"/>
+      <c r="AI40" s="45"/>
+      <c r="AJ40" s="45"/>
+      <c r="AK40" s="45"/>
+      <c r="AL40" s="45"/>
+      <c r="AM40" s="45"/>
+      <c r="AN40" s="45"/>
+      <c r="AO40" s="45"/>
+      <c r="AP40" s="45"/>
+      <c r="AQ40" s="45"/>
+      <c r="AR40" s="49"/>
+      <c r="AS40" s="49"/>
+      <c r="AT40" s="49"/>
+      <c r="AU40" s="49"/>
+      <c r="AV40" s="49"/>
+      <c r="AW40" s="45"/>
+      <c r="AX40" s="45"/>
+      <c r="AY40" s="45"/>
+      <c r="AZ40" s="45"/>
+      <c r="BA40" s="45"/>
+      <c r="BB40" s="45"/>
+      <c r="BC40" s="45"/>
+      <c r="BD40" s="45"/>
+      <c r="BE40" s="45"/>
+      <c r="BF40" s="45"/>
+      <c r="BG40" s="50"/>
+      <c r="BH40" s="50"/>
+      <c r="BI40" s="50"/>
+      <c r="BJ40" s="50"/>
+      <c r="BK40" s="50"/>
+      <c r="BL40" s="45"/>
+      <c r="BM40" s="45"/>
+      <c r="BN40" s="45"/>
+      <c r="BO40" s="45"/>
+      <c r="BP40" s="51"/>
       <c r="BQ40" s="37"/>
     </row>
     <row r="41" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A41" s="37"/>
       <c r="B41" s="38">
-        <v>4.4000000000000004</v>
+        <v>4.2</v>
       </c>
       <c r="C41" s="39"/>
       <c r="D41" s="39" t="s">
@@ -5917,7 +6022,7 @@
       <c r="G41" s="41">
         <v>0</v>
       </c>
-      <c r="H41" s="61">
+      <c r="H41" s="42">
         <v>0</v>
       </c>
       <c r="I41" s="52"/>
@@ -5930,10 +6035,10 @@
       <c r="P41" s="47"/>
       <c r="Q41" s="47"/>
       <c r="R41" s="47"/>
-      <c r="S41" s="45"/>
-      <c r="T41" s="45"/>
-      <c r="U41" s="45"/>
-      <c r="V41" s="45"/>
+      <c r="S41" s="54"/>
+      <c r="T41" s="54"/>
+      <c r="U41" s="54"/>
+      <c r="V41" s="54"/>
       <c r="W41" s="54"/>
       <c r="X41" s="54"/>
       <c r="Y41" s="54"/>
@@ -5982,147 +6087,163 @@
       <c r="BP41" s="60"/>
       <c r="BQ41" s="37"/>
     </row>
-    <row r="42" spans="1:69" ht="21" customHeight="1">
-      <c r="A42" s="21"/>
-      <c r="B42" s="21"/>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21"/>
-      <c r="G42" s="75"/>
-      <c r="H42" s="75"/>
-      <c r="I42" s="21"/>
-      <c r="J42" s="21"/>
-      <c r="K42" s="21"/>
-      <c r="L42" s="21"/>
-      <c r="M42" s="21"/>
-      <c r="N42" s="21"/>
-      <c r="O42" s="21"/>
-      <c r="P42" s="21"/>
-      <c r="Q42" s="21"/>
-      <c r="R42" s="21"/>
-      <c r="S42" s="21"/>
-      <c r="T42" s="21"/>
-      <c r="U42" s="21"/>
-      <c r="V42" s="21"/>
-      <c r="W42" s="21"/>
-      <c r="X42" s="21"/>
-      <c r="Y42" s="21"/>
-      <c r="Z42" s="21"/>
-      <c r="AA42" s="21"/>
-      <c r="AB42" s="21"/>
-      <c r="AC42" s="21"/>
-      <c r="AD42" s="21"/>
-      <c r="AE42" s="21"/>
-      <c r="AF42" s="21"/>
-      <c r="AG42" s="21"/>
-      <c r="AH42" s="21"/>
-      <c r="AI42" s="21"/>
-      <c r="AJ42" s="21"/>
-      <c r="AK42" s="21"/>
-      <c r="AL42" s="21"/>
-      <c r="AM42" s="21"/>
-      <c r="AN42" s="21"/>
-      <c r="AO42" s="21"/>
-      <c r="AP42" s="21"/>
-      <c r="AQ42" s="21"/>
-      <c r="AR42" s="21"/>
-      <c r="AS42" s="21"/>
-      <c r="AT42" s="21"/>
-      <c r="AU42" s="21"/>
-      <c r="AV42" s="21"/>
-      <c r="AW42" s="21"/>
-      <c r="AX42" s="21"/>
-      <c r="AY42" s="21"/>
-      <c r="AZ42" s="21"/>
-      <c r="BA42" s="21"/>
-      <c r="BB42" s="21"/>
-      <c r="BC42" s="21"/>
-      <c r="BD42" s="21"/>
-      <c r="BE42" s="21"/>
-      <c r="BF42" s="21"/>
-      <c r="BG42" s="21"/>
-      <c r="BH42" s="21"/>
-      <c r="BI42" s="21"/>
-      <c r="BJ42" s="21"/>
-      <c r="BK42" s="21"/>
-      <c r="BL42" s="21"/>
-      <c r="BM42" s="21"/>
-      <c r="BN42" s="21"/>
-      <c r="BO42" s="21"/>
-      <c r="BP42" s="21"/>
-      <c r="BQ42" s="21"/>
+    <row r="42" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A42" s="37"/>
+      <c r="B42" s="38">
+        <v>4.3</v>
+      </c>
+      <c r="C42" s="39"/>
+      <c r="D42" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="E42" s="40"/>
+      <c r="F42" s="40"/>
+      <c r="G42" s="41">
+        <v>0</v>
+      </c>
+      <c r="H42" s="42">
+        <v>0</v>
+      </c>
+      <c r="I42" s="52"/>
+      <c r="J42" s="53"/>
+      <c r="K42" s="54"/>
+      <c r="L42" s="54"/>
+      <c r="M42" s="54"/>
+      <c r="N42" s="47"/>
+      <c r="O42" s="47"/>
+      <c r="P42" s="47"/>
+      <c r="Q42" s="47"/>
+      <c r="R42" s="47"/>
+      <c r="S42" s="45"/>
+      <c r="T42" s="45"/>
+      <c r="U42" s="45"/>
+      <c r="V42" s="45"/>
+      <c r="W42" s="54"/>
+      <c r="X42" s="54"/>
+      <c r="Y42" s="54"/>
+      <c r="Z42" s="54"/>
+      <c r="AA42" s="54"/>
+      <c r="AB42" s="54"/>
+      <c r="AC42" s="57"/>
+      <c r="AD42" s="57"/>
+      <c r="AE42" s="57"/>
+      <c r="AF42" s="57"/>
+      <c r="AG42" s="57"/>
+      <c r="AH42" s="54"/>
+      <c r="AI42" s="54"/>
+      <c r="AJ42" s="54"/>
+      <c r="AK42" s="54"/>
+      <c r="AL42" s="54"/>
+      <c r="AM42" s="54"/>
+      <c r="AN42" s="54"/>
+      <c r="AO42" s="54"/>
+      <c r="AP42" s="54"/>
+      <c r="AQ42" s="54"/>
+      <c r="AR42" s="58"/>
+      <c r="AS42" s="58"/>
+      <c r="AT42" s="58"/>
+      <c r="AU42" s="58"/>
+      <c r="AV42" s="58"/>
+      <c r="AW42" s="54"/>
+      <c r="AX42" s="54"/>
+      <c r="AY42" s="54"/>
+      <c r="AZ42" s="54"/>
+      <c r="BA42" s="54"/>
+      <c r="BB42" s="54"/>
+      <c r="BC42" s="54"/>
+      <c r="BD42" s="54"/>
+      <c r="BE42" s="54"/>
+      <c r="BF42" s="54"/>
+      <c r="BG42" s="59"/>
+      <c r="BH42" s="59"/>
+      <c r="BI42" s="59"/>
+      <c r="BJ42" s="59"/>
+      <c r="BK42" s="59"/>
+      <c r="BL42" s="54"/>
+      <c r="BM42" s="54"/>
+      <c r="BN42" s="54"/>
+      <c r="BO42" s="54"/>
+      <c r="BP42" s="60"/>
+      <c r="BQ42" s="37"/>
     </row>
-    <row r="43" spans="1:69" ht="21" customHeight="1">
-      <c r="A43" s="21"/>
-      <c r="B43" s="21"/>
-      <c r="C43" s="21"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="21"/>
-      <c r="F43" s="21"/>
-      <c r="G43" s="75"/>
-      <c r="H43" s="75"/>
-      <c r="I43" s="21"/>
-      <c r="J43" s="21"/>
-      <c r="K43" s="21"/>
-      <c r="L43" s="21"/>
-      <c r="M43" s="21"/>
-      <c r="N43" s="21"/>
-      <c r="O43" s="21"/>
-      <c r="P43" s="21"/>
-      <c r="Q43" s="21"/>
-      <c r="R43" s="21"/>
-      <c r="S43" s="21"/>
-      <c r="T43" s="21"/>
-      <c r="U43" s="21"/>
-      <c r="V43" s="21"/>
-      <c r="W43" s="21"/>
-      <c r="X43" s="21"/>
-      <c r="Y43" s="21"/>
-      <c r="Z43" s="21"/>
-      <c r="AA43" s="21"/>
-      <c r="AB43" s="21"/>
-      <c r="AC43" s="21"/>
-      <c r="AD43" s="21"/>
-      <c r="AE43" s="21"/>
-      <c r="AF43" s="21"/>
-      <c r="AG43" s="21"/>
-      <c r="AH43" s="21"/>
-      <c r="AI43" s="21"/>
-      <c r="AJ43" s="21"/>
-      <c r="AK43" s="21"/>
-      <c r="AL43" s="21"/>
-      <c r="AM43" s="21"/>
-      <c r="AN43" s="21"/>
-      <c r="AO43" s="21"/>
-      <c r="AP43" s="21"/>
-      <c r="AQ43" s="21"/>
-      <c r="AR43" s="21"/>
-      <c r="AS43" s="21"/>
-      <c r="AT43" s="21"/>
-      <c r="AU43" s="21"/>
-      <c r="AV43" s="21"/>
-      <c r="AW43" s="21"/>
-      <c r="AX43" s="21"/>
-      <c r="AY43" s="21"/>
-      <c r="AZ43" s="21"/>
-      <c r="BA43" s="21"/>
-      <c r="BB43" s="21"/>
-      <c r="BC43" s="21"/>
-      <c r="BD43" s="21"/>
-      <c r="BE43" s="21"/>
-      <c r="BF43" s="21"/>
-      <c r="BG43" s="21"/>
-      <c r="BH43" s="21"/>
-      <c r="BI43" s="21"/>
-      <c r="BJ43" s="21"/>
-      <c r="BK43" s="21"/>
-      <c r="BL43" s="21"/>
-      <c r="BM43" s="21"/>
-      <c r="BN43" s="21"/>
-      <c r="BO43" s="21"/>
-      <c r="BP43" s="21"/>
-      <c r="BQ43" s="21"/>
+    <row r="43" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A43" s="37"/>
+      <c r="B43" s="38">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C43" s="39"/>
+      <c r="D43" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="E43" s="40"/>
+      <c r="F43" s="40"/>
+      <c r="G43" s="41">
+        <v>0</v>
+      </c>
+      <c r="H43" s="61">
+        <v>0</v>
+      </c>
+      <c r="I43" s="52"/>
+      <c r="J43" s="53"/>
+      <c r="K43" s="54"/>
+      <c r="L43" s="54"/>
+      <c r="M43" s="54"/>
+      <c r="N43" s="47"/>
+      <c r="O43" s="47"/>
+      <c r="P43" s="47"/>
+      <c r="Q43" s="47"/>
+      <c r="R43" s="47"/>
+      <c r="S43" s="45"/>
+      <c r="T43" s="45"/>
+      <c r="U43" s="45"/>
+      <c r="V43" s="45"/>
+      <c r="W43" s="54"/>
+      <c r="X43" s="54"/>
+      <c r="Y43" s="54"/>
+      <c r="Z43" s="54"/>
+      <c r="AA43" s="54"/>
+      <c r="AB43" s="54"/>
+      <c r="AC43" s="57"/>
+      <c r="AD43" s="57"/>
+      <c r="AE43" s="57"/>
+      <c r="AF43" s="57"/>
+      <c r="AG43" s="57"/>
+      <c r="AH43" s="54"/>
+      <c r="AI43" s="54"/>
+      <c r="AJ43" s="54"/>
+      <c r="AK43" s="54"/>
+      <c r="AL43" s="54"/>
+      <c r="AM43" s="54"/>
+      <c r="AN43" s="54"/>
+      <c r="AO43" s="54"/>
+      <c r="AP43" s="54"/>
+      <c r="AQ43" s="54"/>
+      <c r="AR43" s="58"/>
+      <c r="AS43" s="58"/>
+      <c r="AT43" s="58"/>
+      <c r="AU43" s="58"/>
+      <c r="AV43" s="58"/>
+      <c r="AW43" s="54"/>
+      <c r="AX43" s="54"/>
+      <c r="AY43" s="54"/>
+      <c r="AZ43" s="54"/>
+      <c r="BA43" s="54"/>
+      <c r="BB43" s="54"/>
+      <c r="BC43" s="54"/>
+      <c r="BD43" s="54"/>
+      <c r="BE43" s="54"/>
+      <c r="BF43" s="54"/>
+      <c r="BG43" s="59"/>
+      <c r="BH43" s="59"/>
+      <c r="BI43" s="59"/>
+      <c r="BJ43" s="59"/>
+      <c r="BK43" s="59"/>
+      <c r="BL43" s="54"/>
+      <c r="BM43" s="54"/>
+      <c r="BN43" s="54"/>
+      <c r="BO43" s="54"/>
+      <c r="BP43" s="60"/>
+      <c r="BQ43" s="37"/>
     </row>
     <row r="44" spans="1:69" ht="21" customHeight="1">
       <c r="A44" s="21"/>
@@ -6195,8 +6316,172 @@
       <c r="BP44" s="21"/>
       <c r="BQ44" s="21"/>
     </row>
+    <row r="45" spans="1:69" ht="21" customHeight="1">
+      <c r="A45" s="21"/>
+      <c r="B45" s="21"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="75"/>
+      <c r="H45" s="75"/>
+      <c r="I45" s="21"/>
+      <c r="J45" s="21"/>
+      <c r="K45" s="21"/>
+      <c r="L45" s="21"/>
+      <c r="M45" s="21"/>
+      <c r="N45" s="21"/>
+      <c r="O45" s="21"/>
+      <c r="P45" s="21"/>
+      <c r="Q45" s="21"/>
+      <c r="R45" s="21"/>
+      <c r="S45" s="21"/>
+      <c r="T45" s="21"/>
+      <c r="U45" s="21"/>
+      <c r="V45" s="21"/>
+      <c r="W45" s="21"/>
+      <c r="X45" s="21"/>
+      <c r="Y45" s="21"/>
+      <c r="Z45" s="21"/>
+      <c r="AA45" s="21"/>
+      <c r="AB45" s="21"/>
+      <c r="AC45" s="21"/>
+      <c r="AD45" s="21"/>
+      <c r="AE45" s="21"/>
+      <c r="AF45" s="21"/>
+      <c r="AG45" s="21"/>
+      <c r="AH45" s="21"/>
+      <c r="AI45" s="21"/>
+      <c r="AJ45" s="21"/>
+      <c r="AK45" s="21"/>
+      <c r="AL45" s="21"/>
+      <c r="AM45" s="21"/>
+      <c r="AN45" s="21"/>
+      <c r="AO45" s="21"/>
+      <c r="AP45" s="21"/>
+      <c r="AQ45" s="21"/>
+      <c r="AR45" s="21"/>
+      <c r="AS45" s="21"/>
+      <c r="AT45" s="21"/>
+      <c r="AU45" s="21"/>
+      <c r="AV45" s="21"/>
+      <c r="AW45" s="21"/>
+      <c r="AX45" s="21"/>
+      <c r="AY45" s="21"/>
+      <c r="AZ45" s="21"/>
+      <c r="BA45" s="21"/>
+      <c r="BB45" s="21"/>
+      <c r="BC45" s="21"/>
+      <c r="BD45" s="21"/>
+      <c r="BE45" s="21"/>
+      <c r="BF45" s="21"/>
+      <c r="BG45" s="21"/>
+      <c r="BH45" s="21"/>
+      <c r="BI45" s="21"/>
+      <c r="BJ45" s="21"/>
+      <c r="BK45" s="21"/>
+      <c r="BL45" s="21"/>
+      <c r="BM45" s="21"/>
+      <c r="BN45" s="21"/>
+      <c r="BO45" s="21"/>
+      <c r="BP45" s="21"/>
+      <c r="BQ45" s="21"/>
+    </row>
+    <row r="46" spans="1:69" ht="21" customHeight="1">
+      <c r="A46" s="21"/>
+      <c r="B46" s="21"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="75"/>
+      <c r="H46" s="75"/>
+      <c r="I46" s="21"/>
+      <c r="J46" s="21"/>
+      <c r="K46" s="21"/>
+      <c r="L46" s="21"/>
+      <c r="M46" s="21"/>
+      <c r="N46" s="21"/>
+      <c r="O46" s="21"/>
+      <c r="P46" s="21"/>
+      <c r="Q46" s="21"/>
+      <c r="R46" s="21"/>
+      <c r="S46" s="21"/>
+      <c r="T46" s="21"/>
+      <c r="U46" s="21"/>
+      <c r="V46" s="21"/>
+      <c r="W46" s="21"/>
+      <c r="X46" s="21"/>
+      <c r="Y46" s="21"/>
+      <c r="Z46" s="21"/>
+      <c r="AA46" s="21"/>
+      <c r="AB46" s="21"/>
+      <c r="AC46" s="21"/>
+      <c r="AD46" s="21"/>
+      <c r="AE46" s="21"/>
+      <c r="AF46" s="21"/>
+      <c r="AG46" s="21"/>
+      <c r="AH46" s="21"/>
+      <c r="AI46" s="21"/>
+      <c r="AJ46" s="21"/>
+      <c r="AK46" s="21"/>
+      <c r="AL46" s="21"/>
+      <c r="AM46" s="21"/>
+      <c r="AN46" s="21"/>
+      <c r="AO46" s="21"/>
+      <c r="AP46" s="21"/>
+      <c r="AQ46" s="21"/>
+      <c r="AR46" s="21"/>
+      <c r="AS46" s="21"/>
+      <c r="AT46" s="21"/>
+      <c r="AU46" s="21"/>
+      <c r="AV46" s="21"/>
+      <c r="AW46" s="21"/>
+      <c r="AX46" s="21"/>
+      <c r="AY46" s="21"/>
+      <c r="AZ46" s="21"/>
+      <c r="BA46" s="21"/>
+      <c r="BB46" s="21"/>
+      <c r="BC46" s="21"/>
+      <c r="BD46" s="21"/>
+      <c r="BE46" s="21"/>
+      <c r="BF46" s="21"/>
+      <c r="BG46" s="21"/>
+      <c r="BH46" s="21"/>
+      <c r="BI46" s="21"/>
+      <c r="BJ46" s="21"/>
+      <c r="BK46" s="21"/>
+      <c r="BL46" s="21"/>
+      <c r="BM46" s="21"/>
+      <c r="BN46" s="21"/>
+      <c r="BO46" s="21"/>
+      <c r="BP46" s="21"/>
+      <c r="BQ46" s="21"/>
+    </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="H8:H10"/>
+    <mergeCell ref="S9:W9"/>
+    <mergeCell ref="N9:R9"/>
+    <mergeCell ref="I9:M9"/>
+    <mergeCell ref="I8:W8"/>
+    <mergeCell ref="I2:N2"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="I5:O5"/>
+    <mergeCell ref="P5:AA5"/>
+    <mergeCell ref="I4:O4"/>
+    <mergeCell ref="P4:AB4"/>
+    <mergeCell ref="O2:AG2"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="B5:C5"/>
     <mergeCell ref="BG9:BK9"/>
     <mergeCell ref="BL9:BP9"/>
     <mergeCell ref="BB9:BF9"/>
@@ -6209,31 +6494,9 @@
     <mergeCell ref="AR9:AV9"/>
     <mergeCell ref="AW9:BA9"/>
     <mergeCell ref="AM9:AQ9"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="I2:N2"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="I5:O5"/>
-    <mergeCell ref="P5:AA5"/>
-    <mergeCell ref="I4:O4"/>
-    <mergeCell ref="P4:AB4"/>
-    <mergeCell ref="O2:AG2"/>
-    <mergeCell ref="H8:H10"/>
-    <mergeCell ref="S9:W9"/>
-    <mergeCell ref="N9:R9"/>
-    <mergeCell ref="I9:M9"/>
-    <mergeCell ref="I8:W8"/>
   </mergeCells>
   <phoneticPr fontId="30" type="noConversion"/>
-  <conditionalFormatting sqref="H12:H18 H20:H41">
+  <conditionalFormatting sqref="H12:H18 H20:H43">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -6243,7 +6506,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H12:H18 H20:H41">
+  <conditionalFormatting sqref="H12:H18 H20:H43">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>

--- a/일정/갠트 차트.xlsx
+++ b/일정/갠트 차트.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sanghee\Desktop\develop\2wda_2semester\2WDA_YJSangSa_CapstoneDesign\일정\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62A6108C-8786-4A7A-9BA0-9410323D7385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D893C7E-B84B-4EE6-AC9A-EE606FBA8E8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="106">
   <si>
     <t>갠트 차트 템플릿</t>
   </si>
@@ -177,10 +177,6 @@
   </si>
   <si>
     <t>심상희</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>메타플래너</t>
     <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
@@ -1185,6 +1181,329 @@
   </si>
   <si>
     <t>신성,황주</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.5.1</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Database </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>요구사항 분석</t>
+    </r>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>WEB STORYBOARD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>만들기</t>
+    </r>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">React Spring </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>연동</t>
+    </r>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>유현</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.1.1</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B)DB </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">점검, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">DTO </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>정의</t>
+    </r>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.1.2</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>갓생플래너</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Frontend)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>웹</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>퍼블리싱</t>
+    </r>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>유현,민화</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.1.3</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.1.1</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Frontend)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">플래너 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">view </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>완성</t>
+    </r>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.1.4</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>유저</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+        <family val="2"/>
+      </rPr>
+      <t>CRUD</t>
+    </r>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>플랜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> CRUD</t>
+    </r>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>상희,신성</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>로그아웃,로그인모듈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>완성</t>
+    </r>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발 준비</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Backend) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>기능 구현</t>
+    </r>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>황주,태권</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>황주,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>태권</t>
+    </r>
     <phoneticPr fontId="30" type="noConversion"/>
   </si>
 </sst>
@@ -1196,7 +1515,7 @@
     <numFmt numFmtId="176" formatCode="yy&quot;년 &quot;m&quot;월 &quot;d&quot;일&quot;"/>
     <numFmt numFmtId="177" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="56">
+  <fonts count="57">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1532,6 +1851,14 @@
       <sz val="10"/>
       <color rgb="FF434343"/>
       <name val="Arial Unicode MS"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
@@ -1909,7 +2236,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1999,9 +2326,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2165,6 +2489,36 @@
     </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2583,10 +2937,10 @@
     <tabColor rgb="FF3D85C6"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BQ46"/>
+  <dimension ref="A1:BQ55"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1"/>
@@ -2674,44 +3028,44 @@
     </row>
     <row r="2" spans="1:69" ht="40.5">
       <c r="A2" s="1"/>
-      <c r="B2" s="106" t="s">
+      <c r="B2" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
       <c r="H2" s="10"/>
-      <c r="I2" s="104" t="s">
+      <c r="I2" s="113" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="105"/>
-      <c r="K2" s="105"/>
-      <c r="L2" s="105"/>
-      <c r="M2" s="105"/>
-      <c r="N2" s="105"/>
-      <c r="O2" s="109" t="s">
+      <c r="J2" s="114"/>
+      <c r="K2" s="114"/>
+      <c r="L2" s="114"/>
+      <c r="M2" s="114"/>
+      <c r="N2" s="114"/>
+      <c r="O2" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="105"/>
-      <c r="Q2" s="105"/>
-      <c r="R2" s="105"/>
-      <c r="S2" s="105"/>
-      <c r="T2" s="105"/>
-      <c r="U2" s="105"/>
-      <c r="V2" s="105"/>
-      <c r="W2" s="105"/>
-      <c r="X2" s="105"/>
-      <c r="Y2" s="105"/>
-      <c r="Z2" s="105"/>
-      <c r="AA2" s="105"/>
-      <c r="AB2" s="105"/>
-      <c r="AC2" s="105"/>
-      <c r="AD2" s="105"/>
-      <c r="AE2" s="105"/>
-      <c r="AF2" s="105"/>
-      <c r="AG2" s="105"/>
+      <c r="P2" s="114"/>
+      <c r="Q2" s="114"/>
+      <c r="R2" s="114"/>
+      <c r="S2" s="114"/>
+      <c r="T2" s="114"/>
+      <c r="U2" s="114"/>
+      <c r="V2" s="114"/>
+      <c r="W2" s="114"/>
+      <c r="X2" s="114"/>
+      <c r="Y2" s="114"/>
+      <c r="Z2" s="114"/>
+      <c r="AA2" s="114"/>
+      <c r="AB2" s="114"/>
+      <c r="AC2" s="114"/>
+      <c r="AD2" s="114"/>
+      <c r="AE2" s="114"/>
+      <c r="AF2" s="114"/>
+      <c r="AG2" s="114"/>
       <c r="AH2" s="11"/>
       <c r="AI2" s="11"/>
       <c r="AJ2" s="11"/>
@@ -2822,41 +3176,41 @@
     </row>
     <row r="4" spans="1:69" ht="21" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="101" t="s">
+      <c r="B4" s="110" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="102"/>
-      <c r="D4" s="99" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
+      <c r="C4" s="111"/>
+      <c r="D4" s="108" t="s">
+        <v>91</v>
+      </c>
+      <c r="E4" s="109"/>
+      <c r="F4" s="109"/>
+      <c r="G4" s="109"/>
       <c r="H4" s="16"/>
-      <c r="I4" s="101" t="s">
+      <c r="I4" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="102"/>
-      <c r="K4" s="102"/>
-      <c r="L4" s="102"/>
-      <c r="M4" s="102"/>
-      <c r="N4" s="102"/>
-      <c r="O4" s="102"/>
-      <c r="P4" s="108" t="s">
+      <c r="J4" s="111"/>
+      <c r="K4" s="111"/>
+      <c r="L4" s="111"/>
+      <c r="M4" s="111"/>
+      <c r="N4" s="111"/>
+      <c r="O4" s="111"/>
+      <c r="P4" s="117" t="s">
         <v>39</v>
       </c>
-      <c r="Q4" s="102"/>
-      <c r="R4" s="102"/>
-      <c r="S4" s="102"/>
-      <c r="T4" s="102"/>
-      <c r="U4" s="102"/>
-      <c r="V4" s="102"/>
-      <c r="W4" s="102"/>
-      <c r="X4" s="102"/>
-      <c r="Y4" s="102"/>
-      <c r="Z4" s="102"/>
-      <c r="AA4" s="102"/>
-      <c r="AB4" s="102"/>
+      <c r="Q4" s="111"/>
+      <c r="R4" s="111"/>
+      <c r="S4" s="111"/>
+      <c r="T4" s="111"/>
+      <c r="U4" s="111"/>
+      <c r="V4" s="111"/>
+      <c r="W4" s="111"/>
+      <c r="X4" s="111"/>
+      <c r="Y4" s="111"/>
+      <c r="Z4" s="111"/>
+      <c r="AA4" s="111"/>
+      <c r="AB4" s="111"/>
       <c r="AC4" s="17"/>
       <c r="AD4" s="9"/>
       <c r="AE4" s="9"/>
@@ -2901,40 +3255,40 @@
     </row>
     <row r="5" spans="1:69" ht="21" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="101" t="s">
+      <c r="B5" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="102"/>
-      <c r="D5" s="103" t="s">
+      <c r="C5" s="111"/>
+      <c r="D5" s="112" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="102"/>
-      <c r="F5" s="102"/>
-      <c r="G5" s="102"/>
+      <c r="E5" s="111"/>
+      <c r="F5" s="111"/>
+      <c r="G5" s="111"/>
       <c r="H5" s="18"/>
-      <c r="I5" s="101" t="s">
+      <c r="I5" s="110" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="102"/>
-      <c r="K5" s="102"/>
-      <c r="L5" s="102"/>
-      <c r="M5" s="102"/>
-      <c r="N5" s="102"/>
-      <c r="O5" s="102"/>
-      <c r="P5" s="107">
-        <v>44992</v>
-      </c>
-      <c r="Q5" s="102"/>
-      <c r="R5" s="102"/>
-      <c r="S5" s="102"/>
-      <c r="T5" s="102"/>
-      <c r="U5" s="102"/>
-      <c r="V5" s="102"/>
-      <c r="W5" s="102"/>
-      <c r="X5" s="102"/>
-      <c r="Y5" s="102"/>
-      <c r="Z5" s="102"/>
-      <c r="AA5" s="102"/>
+      <c r="J5" s="111"/>
+      <c r="K5" s="111"/>
+      <c r="L5" s="111"/>
+      <c r="M5" s="111"/>
+      <c r="N5" s="111"/>
+      <c r="O5" s="111"/>
+      <c r="P5" s="116">
+        <v>45022</v>
+      </c>
+      <c r="Q5" s="111"/>
+      <c r="R5" s="111"/>
+      <c r="S5" s="111"/>
+      <c r="T5" s="111"/>
+      <c r="U5" s="111"/>
+      <c r="V5" s="111"/>
+      <c r="W5" s="111"/>
+      <c r="X5" s="111"/>
+      <c r="Y5" s="111"/>
+      <c r="Z5" s="111"/>
+      <c r="AA5" s="111"/>
       <c r="AB5" s="19"/>
       <c r="AC5" s="17"/>
       <c r="AD5" s="1"/>
@@ -3122,201 +3476,201 @@
     </row>
     <row r="8" spans="1:69" ht="17.25" customHeight="1">
       <c r="A8" s="24"/>
-      <c r="B8" s="98" t="s">
+      <c r="B8" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="98" t="s">
+      <c r="C8" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="98" t="s">
+      <c r="D8" s="107" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="98" t="s">
+      <c r="E8" s="107" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="98" t="s">
+      <c r="F8" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="98" t="s">
+      <c r="G8" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="98" t="s">
+      <c r="H8" s="107" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="111" t="s">
+      <c r="I8" s="120" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="92"/>
-      <c r="K8" s="92"/>
-      <c r="L8" s="92"/>
-      <c r="M8" s="92"/>
-      <c r="N8" s="92"/>
-      <c r="O8" s="92"/>
-      <c r="P8" s="92"/>
-      <c r="Q8" s="92"/>
-      <c r="R8" s="92"/>
-      <c r="S8" s="92"/>
-      <c r="T8" s="92"/>
-      <c r="U8" s="92"/>
-      <c r="V8" s="92"/>
-      <c r="W8" s="92"/>
-      <c r="X8" s="96" t="s">
+      <c r="J8" s="101"/>
+      <c r="K8" s="101"/>
+      <c r="L8" s="101"/>
+      <c r="M8" s="101"/>
+      <c r="N8" s="101"/>
+      <c r="O8" s="101"/>
+      <c r="P8" s="101"/>
+      <c r="Q8" s="101"/>
+      <c r="R8" s="101"/>
+      <c r="S8" s="101"/>
+      <c r="T8" s="101"/>
+      <c r="U8" s="101"/>
+      <c r="V8" s="101"/>
+      <c r="W8" s="101"/>
+      <c r="X8" s="105" t="s">
         <v>15</v>
       </c>
-      <c r="Y8" s="92"/>
-      <c r="Z8" s="92"/>
-      <c r="AA8" s="92"/>
-      <c r="AB8" s="92"/>
-      <c r="AC8" s="92"/>
-      <c r="AD8" s="92"/>
-      <c r="AE8" s="92"/>
-      <c r="AF8" s="92"/>
-      <c r="AG8" s="92"/>
-      <c r="AH8" s="92"/>
-      <c r="AI8" s="92"/>
-      <c r="AJ8" s="92"/>
-      <c r="AK8" s="92"/>
-      <c r="AL8" s="92"/>
-      <c r="AM8" s="95" t="s">
+      <c r="Y8" s="101"/>
+      <c r="Z8" s="101"/>
+      <c r="AA8" s="101"/>
+      <c r="AB8" s="101"/>
+      <c r="AC8" s="101"/>
+      <c r="AD8" s="101"/>
+      <c r="AE8" s="101"/>
+      <c r="AF8" s="101"/>
+      <c r="AG8" s="101"/>
+      <c r="AH8" s="101"/>
+      <c r="AI8" s="101"/>
+      <c r="AJ8" s="101"/>
+      <c r="AK8" s="101"/>
+      <c r="AL8" s="101"/>
+      <c r="AM8" s="104" t="s">
         <v>16</v>
       </c>
-      <c r="AN8" s="92"/>
-      <c r="AO8" s="92"/>
-      <c r="AP8" s="92"/>
-      <c r="AQ8" s="92"/>
-      <c r="AR8" s="92"/>
-      <c r="AS8" s="92"/>
-      <c r="AT8" s="92"/>
-      <c r="AU8" s="92"/>
-      <c r="AV8" s="92"/>
-      <c r="AW8" s="92"/>
-      <c r="AX8" s="92"/>
-      <c r="AY8" s="92"/>
-      <c r="AZ8" s="92"/>
-      <c r="BA8" s="92"/>
-      <c r="BB8" s="91" t="s">
+      <c r="AN8" s="101"/>
+      <c r="AO8" s="101"/>
+      <c r="AP8" s="101"/>
+      <c r="AQ8" s="101"/>
+      <c r="AR8" s="101"/>
+      <c r="AS8" s="101"/>
+      <c r="AT8" s="101"/>
+      <c r="AU8" s="101"/>
+      <c r="AV8" s="101"/>
+      <c r="AW8" s="101"/>
+      <c r="AX8" s="101"/>
+      <c r="AY8" s="101"/>
+      <c r="AZ8" s="101"/>
+      <c r="BA8" s="101"/>
+      <c r="BB8" s="100" t="s">
         <v>17</v>
       </c>
-      <c r="BC8" s="92"/>
-      <c r="BD8" s="92"/>
-      <c r="BE8" s="92"/>
-      <c r="BF8" s="92"/>
-      <c r="BG8" s="92"/>
-      <c r="BH8" s="92"/>
-      <c r="BI8" s="92"/>
-      <c r="BJ8" s="92"/>
-      <c r="BK8" s="92"/>
-      <c r="BL8" s="92"/>
-      <c r="BM8" s="92"/>
-      <c r="BN8" s="92"/>
-      <c r="BO8" s="92"/>
-      <c r="BP8" s="93"/>
+      <c r="BC8" s="101"/>
+      <c r="BD8" s="101"/>
+      <c r="BE8" s="101"/>
+      <c r="BF8" s="101"/>
+      <c r="BG8" s="101"/>
+      <c r="BH8" s="101"/>
+      <c r="BI8" s="101"/>
+      <c r="BJ8" s="101"/>
+      <c r="BK8" s="101"/>
+      <c r="BL8" s="101"/>
+      <c r="BM8" s="101"/>
+      <c r="BN8" s="101"/>
+      <c r="BO8" s="101"/>
+      <c r="BP8" s="102"/>
       <c r="BQ8" s="21"/>
     </row>
     <row r="9" spans="1:69" ht="17.25" customHeight="1">
       <c r="A9" s="25"/>
-      <c r="B9" s="92"/>
-      <c r="C9" s="92"/>
-      <c r="D9" s="92"/>
-      <c r="E9" s="92"/>
-      <c r="F9" s="92"/>
-      <c r="G9" s="92"/>
-      <c r="H9" s="92"/>
-      <c r="I9" s="110" t="s">
+      <c r="B9" s="101"/>
+      <c r="C9" s="101"/>
+      <c r="D9" s="101"/>
+      <c r="E9" s="101"/>
+      <c r="F9" s="101"/>
+      <c r="G9" s="101"/>
+      <c r="H9" s="101"/>
+      <c r="I9" s="119" t="s">
         <v>18</v>
       </c>
-      <c r="J9" s="89"/>
-      <c r="K9" s="89"/>
-      <c r="L9" s="89"/>
-      <c r="M9" s="90"/>
-      <c r="N9" s="110" t="s">
+      <c r="J9" s="98"/>
+      <c r="K9" s="98"/>
+      <c r="L9" s="98"/>
+      <c r="M9" s="99"/>
+      <c r="N9" s="119" t="s">
         <v>19</v>
       </c>
-      <c r="O9" s="89"/>
-      <c r="P9" s="89"/>
-      <c r="Q9" s="89"/>
-      <c r="R9" s="90"/>
-      <c r="S9" s="110" t="s">
+      <c r="O9" s="98"/>
+      <c r="P9" s="98"/>
+      <c r="Q9" s="98"/>
+      <c r="R9" s="99"/>
+      <c r="S9" s="119" t="s">
         <v>20</v>
       </c>
-      <c r="T9" s="89"/>
-      <c r="U9" s="89"/>
-      <c r="V9" s="89"/>
-      <c r="W9" s="90"/>
-      <c r="X9" s="94" t="s">
+      <c r="T9" s="98"/>
+      <c r="U9" s="98"/>
+      <c r="V9" s="98"/>
+      <c r="W9" s="99"/>
+      <c r="X9" s="103" t="s">
         <v>21</v>
       </c>
-      <c r="Y9" s="89"/>
-      <c r="Z9" s="89"/>
-      <c r="AA9" s="89"/>
-      <c r="AB9" s="90"/>
-      <c r="AC9" s="94" t="s">
+      <c r="Y9" s="98"/>
+      <c r="Z9" s="98"/>
+      <c r="AA9" s="98"/>
+      <c r="AB9" s="99"/>
+      <c r="AC9" s="103" t="s">
         <v>22</v>
       </c>
-      <c r="AD9" s="89"/>
-      <c r="AE9" s="89"/>
-      <c r="AF9" s="89"/>
-      <c r="AG9" s="90"/>
-      <c r="AH9" s="94" t="s">
+      <c r="AD9" s="98"/>
+      <c r="AE9" s="98"/>
+      <c r="AF9" s="98"/>
+      <c r="AG9" s="99"/>
+      <c r="AH9" s="103" t="s">
         <v>23</v>
       </c>
-      <c r="AI9" s="89"/>
-      <c r="AJ9" s="89"/>
-      <c r="AK9" s="89"/>
-      <c r="AL9" s="90"/>
-      <c r="AM9" s="97" t="s">
+      <c r="AI9" s="98"/>
+      <c r="AJ9" s="98"/>
+      <c r="AK9" s="98"/>
+      <c r="AL9" s="99"/>
+      <c r="AM9" s="106" t="s">
         <v>24</v>
       </c>
-      <c r="AN9" s="89"/>
-      <c r="AO9" s="89"/>
-      <c r="AP9" s="89"/>
-      <c r="AQ9" s="90"/>
-      <c r="AR9" s="97" t="s">
+      <c r="AN9" s="98"/>
+      <c r="AO9" s="98"/>
+      <c r="AP9" s="98"/>
+      <c r="AQ9" s="99"/>
+      <c r="AR9" s="106" t="s">
         <v>25</v>
       </c>
-      <c r="AS9" s="89"/>
-      <c r="AT9" s="89"/>
-      <c r="AU9" s="89"/>
-      <c r="AV9" s="90"/>
-      <c r="AW9" s="97" t="s">
+      <c r="AS9" s="98"/>
+      <c r="AT9" s="98"/>
+      <c r="AU9" s="98"/>
+      <c r="AV9" s="99"/>
+      <c r="AW9" s="106" t="s">
         <v>26</v>
       </c>
-      <c r="AX9" s="89"/>
-      <c r="AY9" s="89"/>
-      <c r="AZ9" s="89"/>
-      <c r="BA9" s="90"/>
-      <c r="BB9" s="88" t="s">
+      <c r="AX9" s="98"/>
+      <c r="AY9" s="98"/>
+      <c r="AZ9" s="98"/>
+      <c r="BA9" s="99"/>
+      <c r="BB9" s="97" t="s">
         <v>27</v>
       </c>
-      <c r="BC9" s="89"/>
-      <c r="BD9" s="89"/>
-      <c r="BE9" s="89"/>
-      <c r="BF9" s="90"/>
-      <c r="BG9" s="88" t="s">
+      <c r="BC9" s="98"/>
+      <c r="BD9" s="98"/>
+      <c r="BE9" s="98"/>
+      <c r="BF9" s="99"/>
+      <c r="BG9" s="97" t="s">
         <v>28</v>
       </c>
-      <c r="BH9" s="89"/>
-      <c r="BI9" s="89"/>
-      <c r="BJ9" s="89"/>
-      <c r="BK9" s="90"/>
-      <c r="BL9" s="88" t="s">
+      <c r="BH9" s="98"/>
+      <c r="BI9" s="98"/>
+      <c r="BJ9" s="98"/>
+      <c r="BK9" s="99"/>
+      <c r="BL9" s="97" t="s">
         <v>29</v>
       </c>
-      <c r="BM9" s="89"/>
-      <c r="BN9" s="89"/>
-      <c r="BO9" s="89"/>
-      <c r="BP9" s="90"/>
+      <c r="BM9" s="98"/>
+      <c r="BN9" s="98"/>
+      <c r="BO9" s="98"/>
+      <c r="BP9" s="99"/>
       <c r="BQ9" s="25"/>
     </row>
     <row r="10" spans="1:69" ht="17.25" customHeight="1">
       <c r="A10" s="26"/>
-      <c r="B10" s="92"/>
-      <c r="C10" s="92"/>
-      <c r="D10" s="92"/>
-      <c r="E10" s="92"/>
-      <c r="F10" s="92"/>
-      <c r="G10" s="92"/>
-      <c r="H10" s="92"/>
+      <c r="B10" s="101"/>
+      <c r="C10" s="101"/>
+      <c r="D10" s="101"/>
+      <c r="E10" s="101"/>
+      <c r="F10" s="101"/>
+      <c r="G10" s="101"/>
+      <c r="H10" s="101"/>
       <c r="I10" s="27" t="s">
         <v>30</v>
       </c>
@@ -3504,2959 +3858,3730 @@
       <c r="B11" s="31">
         <v>1</v>
       </c>
-      <c r="C11" s="82" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="36"/>
-      <c r="L11" s="36"/>
-      <c r="M11" s="34"/>
-      <c r="N11" s="34"/>
-      <c r="O11" s="34"/>
-      <c r="P11" s="34"/>
-      <c r="Q11" s="34"/>
-      <c r="R11" s="34"/>
-      <c r="S11" s="34"/>
-      <c r="T11" s="34"/>
-      <c r="U11" s="34"/>
-      <c r="V11" s="34"/>
-      <c r="W11" s="34"/>
-      <c r="X11" s="34"/>
-      <c r="Y11" s="34"/>
-      <c r="Z11" s="34"/>
-      <c r="AA11" s="34"/>
-      <c r="AB11" s="34"/>
-      <c r="AC11" s="34"/>
-      <c r="AD11" s="34"/>
-      <c r="AE11" s="34"/>
-      <c r="AF11" s="34"/>
-      <c r="AG11" s="34"/>
-      <c r="AH11" s="34"/>
-      <c r="AI11" s="34"/>
-      <c r="AJ11" s="34"/>
-      <c r="AK11" s="34"/>
-      <c r="AL11" s="34"/>
-      <c r="AM11" s="34"/>
-      <c r="AN11" s="34"/>
-      <c r="AO11" s="34"/>
-      <c r="AP11" s="34"/>
-      <c r="AQ11" s="34"/>
-      <c r="AR11" s="34"/>
-      <c r="AS11" s="34"/>
-      <c r="AT11" s="34"/>
-      <c r="AU11" s="34"/>
-      <c r="AV11" s="34"/>
-      <c r="AW11" s="34"/>
-      <c r="AX11" s="34"/>
-      <c r="AY11" s="34"/>
-      <c r="AZ11" s="34"/>
-      <c r="BA11" s="34"/>
-      <c r="BB11" s="34"/>
-      <c r="BC11" s="34"/>
-      <c r="BD11" s="34"/>
-      <c r="BE11" s="34"/>
-      <c r="BF11" s="34"/>
-      <c r="BG11" s="34"/>
-      <c r="BH11" s="34"/>
-      <c r="BI11" s="34"/>
-      <c r="BJ11" s="34"/>
-      <c r="BK11" s="34"/>
-      <c r="BL11" s="34"/>
-      <c r="BM11" s="34"/>
-      <c r="BN11" s="34"/>
-      <c r="BO11" s="34"/>
-      <c r="BP11" s="34"/>
+      <c r="C11" s="81" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="33"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="33"/>
+      <c r="P11" s="33"/>
+      <c r="Q11" s="33"/>
+      <c r="R11" s="33"/>
+      <c r="S11" s="33"/>
+      <c r="T11" s="33"/>
+      <c r="U11" s="33"/>
+      <c r="V11" s="33"/>
+      <c r="W11" s="33"/>
+      <c r="X11" s="33"/>
+      <c r="Y11" s="33"/>
+      <c r="Z11" s="33"/>
+      <c r="AA11" s="33"/>
+      <c r="AB11" s="33"/>
+      <c r="AC11" s="33"/>
+      <c r="AD11" s="33"/>
+      <c r="AE11" s="33"/>
+      <c r="AF11" s="33"/>
+      <c r="AG11" s="33"/>
+      <c r="AH11" s="33"/>
+      <c r="AI11" s="33"/>
+      <c r="AJ11" s="33"/>
+      <c r="AK11" s="33"/>
+      <c r="AL11" s="33"/>
+      <c r="AM11" s="33"/>
+      <c r="AN11" s="33"/>
+      <c r="AO11" s="33"/>
+      <c r="AP11" s="33"/>
+      <c r="AQ11" s="33"/>
+      <c r="AR11" s="33"/>
+      <c r="AS11" s="33"/>
+      <c r="AT11" s="33"/>
+      <c r="AU11" s="33"/>
+      <c r="AV11" s="33"/>
+      <c r="AW11" s="33"/>
+      <c r="AX11" s="33"/>
+      <c r="AY11" s="33"/>
+      <c r="AZ11" s="33"/>
+      <c r="BA11" s="33"/>
+      <c r="BB11" s="33"/>
+      <c r="BC11" s="33"/>
+      <c r="BD11" s="33"/>
+      <c r="BE11" s="33"/>
+      <c r="BF11" s="33"/>
+      <c r="BG11" s="33"/>
+      <c r="BH11" s="33"/>
+      <c r="BI11" s="33"/>
+      <c r="BJ11" s="33"/>
+      <c r="BK11" s="33"/>
+      <c r="BL11" s="33"/>
+      <c r="BM11" s="33"/>
+      <c r="BN11" s="33"/>
+      <c r="BO11" s="33"/>
+      <c r="BP11" s="33"/>
       <c r="BQ11" s="21"/>
     </row>
     <row r="12" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A12" s="37"/>
-      <c r="B12" s="38">
+      <c r="A12" s="36"/>
+      <c r="B12" s="37">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C12" s="76" t="s">
+      <c r="C12" s="75" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="77" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="40">
+      <c r="E12" s="39">
         <v>44962</v>
       </c>
-      <c r="F12" s="40">
+      <c r="F12" s="39">
         <v>44968</v>
       </c>
-      <c r="G12" s="41">
+      <c r="G12" s="40">
         <f t="shared" ref="G12:G18" si="0">DAYS360(E12,F12)</f>
         <v>6</v>
       </c>
-      <c r="H12" s="42">
+      <c r="H12" s="41">
         <v>1</v>
       </c>
-      <c r="I12" s="46"/>
-      <c r="J12" s="46"/>
-      <c r="K12" s="46"/>
-      <c r="L12" s="46"/>
-      <c r="M12" s="46"/>
-      <c r="N12" s="47"/>
-      <c r="O12" s="47"/>
-      <c r="P12" s="47"/>
-      <c r="Q12" s="47"/>
-      <c r="R12" s="47"/>
-      <c r="S12" s="45"/>
-      <c r="T12" s="45"/>
-      <c r="U12" s="45"/>
-      <c r="V12" s="45"/>
-      <c r="W12" s="45"/>
-      <c r="X12" s="45"/>
-      <c r="Y12" s="45"/>
-      <c r="Z12" s="45"/>
-      <c r="AA12" s="45"/>
-      <c r="AB12" s="45"/>
-      <c r="AC12" s="48"/>
-      <c r="AD12" s="48"/>
-      <c r="AE12" s="48"/>
-      <c r="AF12" s="48"/>
-      <c r="AG12" s="48"/>
-      <c r="AH12" s="45"/>
-      <c r="AI12" s="45"/>
-      <c r="AJ12" s="45"/>
-      <c r="AK12" s="45"/>
-      <c r="AL12" s="45"/>
-      <c r="AM12" s="45"/>
-      <c r="AN12" s="45"/>
-      <c r="AO12" s="45"/>
-      <c r="AP12" s="45"/>
-      <c r="AQ12" s="45"/>
-      <c r="AR12" s="49"/>
-      <c r="AS12" s="49"/>
-      <c r="AT12" s="49"/>
-      <c r="AU12" s="49"/>
-      <c r="AV12" s="49"/>
-      <c r="AW12" s="45"/>
-      <c r="AX12" s="45"/>
-      <c r="AY12" s="45"/>
-      <c r="AZ12" s="45"/>
-      <c r="BA12" s="45"/>
-      <c r="BB12" s="45"/>
-      <c r="BC12" s="45"/>
-      <c r="BD12" s="45"/>
-      <c r="BE12" s="45"/>
-      <c r="BF12" s="45"/>
-      <c r="BG12" s="50"/>
-      <c r="BH12" s="50"/>
-      <c r="BI12" s="50"/>
-      <c r="BJ12" s="50"/>
-      <c r="BK12" s="50"/>
-      <c r="BL12" s="45"/>
-      <c r="BM12" s="45"/>
-      <c r="BN12" s="45"/>
-      <c r="BO12" s="45"/>
-      <c r="BP12" s="51"/>
-      <c r="BQ12" s="37"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="45"/>
+      <c r="K12" s="45"/>
+      <c r="L12" s="45"/>
+      <c r="M12" s="45"/>
+      <c r="N12" s="46"/>
+      <c r="O12" s="46"/>
+      <c r="P12" s="46"/>
+      <c r="Q12" s="46"/>
+      <c r="R12" s="46"/>
+      <c r="S12" s="44"/>
+      <c r="T12" s="44"/>
+      <c r="U12" s="44"/>
+      <c r="V12" s="44"/>
+      <c r="W12" s="44"/>
+      <c r="X12" s="44"/>
+      <c r="Y12" s="44"/>
+      <c r="Z12" s="44"/>
+      <c r="AA12" s="44"/>
+      <c r="AB12" s="44"/>
+      <c r="AC12" s="47"/>
+      <c r="AD12" s="47"/>
+      <c r="AE12" s="47"/>
+      <c r="AF12" s="47"/>
+      <c r="AG12" s="47"/>
+      <c r="AH12" s="44"/>
+      <c r="AI12" s="44"/>
+      <c r="AJ12" s="44"/>
+      <c r="AK12" s="44"/>
+      <c r="AL12" s="44"/>
+      <c r="AM12" s="44"/>
+      <c r="AN12" s="44"/>
+      <c r="AO12" s="44"/>
+      <c r="AP12" s="44"/>
+      <c r="AQ12" s="44"/>
+      <c r="AR12" s="48"/>
+      <c r="AS12" s="48"/>
+      <c r="AT12" s="48"/>
+      <c r="AU12" s="48"/>
+      <c r="AV12" s="48"/>
+      <c r="AW12" s="44"/>
+      <c r="AX12" s="44"/>
+      <c r="AY12" s="44"/>
+      <c r="AZ12" s="44"/>
+      <c r="BA12" s="44"/>
+      <c r="BB12" s="44"/>
+      <c r="BC12" s="44"/>
+      <c r="BD12" s="44"/>
+      <c r="BE12" s="44"/>
+      <c r="BF12" s="44"/>
+      <c r="BG12" s="49"/>
+      <c r="BH12" s="49"/>
+      <c r="BI12" s="49"/>
+      <c r="BJ12" s="49"/>
+      <c r="BK12" s="49"/>
+      <c r="BL12" s="44"/>
+      <c r="BM12" s="44"/>
+      <c r="BN12" s="44"/>
+      <c r="BO12" s="44"/>
+      <c r="BP12" s="50"/>
+      <c r="BQ12" s="36"/>
     </row>
     <row r="13" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A13" s="37"/>
-      <c r="B13" s="38" t="s">
+      <c r="A13" s="36"/>
+      <c r="B13" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="78" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" s="79" t="s">
+      <c r="C13" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="40">
+      <c r="D13" s="78" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="39">
         <v>44969</v>
       </c>
-      <c r="F13" s="40">
+      <c r="F13" s="39">
         <v>44972</v>
       </c>
-      <c r="G13" s="41">
+      <c r="G13" s="40">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="H13" s="42">
+      <c r="H13" s="41">
         <v>1</v>
       </c>
-      <c r="I13" s="52"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="54"/>
-      <c r="L13" s="54"/>
-      <c r="M13" s="54"/>
-      <c r="N13" s="56"/>
-      <c r="O13" s="56"/>
-      <c r="P13" s="56"/>
-      <c r="Q13" s="55"/>
-      <c r="R13" s="55"/>
-      <c r="S13" s="54"/>
-      <c r="T13" s="54"/>
-      <c r="U13" s="54"/>
-      <c r="V13" s="54"/>
-      <c r="W13" s="54"/>
-      <c r="X13" s="54"/>
-      <c r="Y13" s="54"/>
-      <c r="Z13" s="54"/>
-      <c r="AA13" s="54"/>
-      <c r="AB13" s="54"/>
-      <c r="AC13" s="57"/>
-      <c r="AD13" s="57"/>
-      <c r="AE13" s="57"/>
-      <c r="AF13" s="57"/>
-      <c r="AG13" s="57"/>
-      <c r="AH13" s="54"/>
-      <c r="AI13" s="54"/>
-      <c r="AJ13" s="54"/>
-      <c r="AK13" s="54"/>
-      <c r="AL13" s="54"/>
-      <c r="AM13" s="54"/>
-      <c r="AN13" s="54"/>
-      <c r="AO13" s="54"/>
-      <c r="AP13" s="54"/>
-      <c r="AQ13" s="54"/>
-      <c r="AR13" s="58"/>
-      <c r="AS13" s="58"/>
-      <c r="AT13" s="58"/>
-      <c r="AU13" s="58"/>
-      <c r="AV13" s="58"/>
-      <c r="AW13" s="54"/>
-      <c r="AX13" s="54"/>
-      <c r="AY13" s="54"/>
-      <c r="AZ13" s="54"/>
-      <c r="BA13" s="54"/>
-      <c r="BB13" s="54"/>
-      <c r="BC13" s="54"/>
-      <c r="BD13" s="54"/>
-      <c r="BE13" s="54"/>
-      <c r="BF13" s="54"/>
-      <c r="BG13" s="59"/>
-      <c r="BH13" s="59"/>
-      <c r="BI13" s="59"/>
-      <c r="BJ13" s="59"/>
-      <c r="BK13" s="59"/>
-      <c r="BL13" s="54"/>
-      <c r="BM13" s="54"/>
-      <c r="BN13" s="54"/>
-      <c r="BO13" s="54"/>
-      <c r="BP13" s="60"/>
-      <c r="BQ13" s="37"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="53"/>
+      <c r="M13" s="53"/>
+      <c r="N13" s="55"/>
+      <c r="O13" s="55"/>
+      <c r="P13" s="55"/>
+      <c r="Q13" s="54"/>
+      <c r="R13" s="54"/>
+      <c r="S13" s="53"/>
+      <c r="T13" s="53"/>
+      <c r="U13" s="53"/>
+      <c r="V13" s="53"/>
+      <c r="W13" s="53"/>
+      <c r="X13" s="53"/>
+      <c r="Y13" s="53"/>
+      <c r="Z13" s="53"/>
+      <c r="AA13" s="53"/>
+      <c r="AB13" s="53"/>
+      <c r="AC13" s="56"/>
+      <c r="AD13" s="56"/>
+      <c r="AE13" s="56"/>
+      <c r="AF13" s="56"/>
+      <c r="AG13" s="56"/>
+      <c r="AH13" s="53"/>
+      <c r="AI13" s="53"/>
+      <c r="AJ13" s="53"/>
+      <c r="AK13" s="53"/>
+      <c r="AL13" s="53"/>
+      <c r="AM13" s="53"/>
+      <c r="AN13" s="53"/>
+      <c r="AO13" s="53"/>
+      <c r="AP13" s="53"/>
+      <c r="AQ13" s="53"/>
+      <c r="AR13" s="57"/>
+      <c r="AS13" s="57"/>
+      <c r="AT13" s="57"/>
+      <c r="AU13" s="57"/>
+      <c r="AV13" s="57"/>
+      <c r="AW13" s="53"/>
+      <c r="AX13" s="53"/>
+      <c r="AY13" s="53"/>
+      <c r="AZ13" s="53"/>
+      <c r="BA13" s="53"/>
+      <c r="BB13" s="53"/>
+      <c r="BC13" s="53"/>
+      <c r="BD13" s="53"/>
+      <c r="BE13" s="53"/>
+      <c r="BF13" s="53"/>
+      <c r="BG13" s="58"/>
+      <c r="BH13" s="58"/>
+      <c r="BI13" s="58"/>
+      <c r="BJ13" s="58"/>
+      <c r="BK13" s="58"/>
+      <c r="BL13" s="53"/>
+      <c r="BM13" s="53"/>
+      <c r="BN13" s="53"/>
+      <c r="BO13" s="53"/>
+      <c r="BP13" s="59"/>
+      <c r="BQ13" s="36"/>
     </row>
     <row r="14" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A14" s="37"/>
-      <c r="B14" s="38">
+      <c r="A14" s="36"/>
+      <c r="B14" s="37">
         <v>1.2</v>
       </c>
-      <c r="C14" s="77" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="79" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" s="40">
+      <c r="C14" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="78" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="39">
         <v>44973</v>
       </c>
-      <c r="F14" s="40">
+      <c r="F14" s="39">
         <v>44976</v>
       </c>
-      <c r="G14" s="41">
+      <c r="G14" s="40">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="H14" s="42">
+      <c r="H14" s="41">
         <v>1</v>
       </c>
-      <c r="I14" s="52"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="54"/>
-      <c r="L14" s="54"/>
-      <c r="M14" s="54"/>
-      <c r="N14" s="55"/>
-      <c r="O14" s="55"/>
-      <c r="P14" s="56"/>
-      <c r="Q14" s="56"/>
-      <c r="R14" s="56"/>
-      <c r="S14" s="54"/>
-      <c r="T14" s="54"/>
-      <c r="U14" s="54"/>
-      <c r="V14" s="54"/>
-      <c r="W14" s="54"/>
-      <c r="X14" s="54"/>
-      <c r="Y14" s="54"/>
-      <c r="Z14" s="54"/>
-      <c r="AA14" s="54"/>
-      <c r="AB14" s="54"/>
-      <c r="AC14" s="57"/>
-      <c r="AD14" s="57"/>
-      <c r="AE14" s="57"/>
-      <c r="AF14" s="57"/>
-      <c r="AG14" s="57"/>
-      <c r="AH14" s="54"/>
-      <c r="AI14" s="54"/>
-      <c r="AJ14" s="54"/>
-      <c r="AK14" s="54"/>
-      <c r="AL14" s="54"/>
-      <c r="AM14" s="54"/>
-      <c r="AN14" s="54"/>
-      <c r="AO14" s="54"/>
-      <c r="AP14" s="54"/>
-      <c r="AQ14" s="54"/>
-      <c r="AR14" s="58"/>
-      <c r="AS14" s="58"/>
-      <c r="AT14" s="58"/>
-      <c r="AU14" s="58"/>
-      <c r="AV14" s="58"/>
-      <c r="AW14" s="54"/>
-      <c r="AX14" s="54"/>
-      <c r="AY14" s="54"/>
-      <c r="AZ14" s="54"/>
-      <c r="BA14" s="54"/>
-      <c r="BB14" s="54"/>
-      <c r="BC14" s="54"/>
-      <c r="BD14" s="54"/>
-      <c r="BE14" s="54"/>
-      <c r="BF14" s="54"/>
-      <c r="BG14" s="59"/>
-      <c r="BH14" s="59"/>
-      <c r="BI14" s="59"/>
-      <c r="BJ14" s="59"/>
-      <c r="BK14" s="59"/>
-      <c r="BL14" s="54"/>
-      <c r="BM14" s="54"/>
-      <c r="BN14" s="54"/>
-      <c r="BO14" s="54"/>
-      <c r="BP14" s="60"/>
-      <c r="BQ14" s="37"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="53"/>
+      <c r="M14" s="53"/>
+      <c r="N14" s="54"/>
+      <c r="O14" s="54"/>
+      <c r="P14" s="55"/>
+      <c r="Q14" s="55"/>
+      <c r="R14" s="55"/>
+      <c r="S14" s="53"/>
+      <c r="T14" s="53"/>
+      <c r="U14" s="53"/>
+      <c r="V14" s="53"/>
+      <c r="W14" s="53"/>
+      <c r="X14" s="53"/>
+      <c r="Y14" s="53"/>
+      <c r="Z14" s="53"/>
+      <c r="AA14" s="53"/>
+      <c r="AB14" s="53"/>
+      <c r="AC14" s="56"/>
+      <c r="AD14" s="56"/>
+      <c r="AE14" s="56"/>
+      <c r="AF14" s="56"/>
+      <c r="AG14" s="56"/>
+      <c r="AH14" s="53"/>
+      <c r="AI14" s="53"/>
+      <c r="AJ14" s="53"/>
+      <c r="AK14" s="53"/>
+      <c r="AL14" s="53"/>
+      <c r="AM14" s="53"/>
+      <c r="AN14" s="53"/>
+      <c r="AO14" s="53"/>
+      <c r="AP14" s="53"/>
+      <c r="AQ14" s="53"/>
+      <c r="AR14" s="57"/>
+      <c r="AS14" s="57"/>
+      <c r="AT14" s="57"/>
+      <c r="AU14" s="57"/>
+      <c r="AV14" s="57"/>
+      <c r="AW14" s="53"/>
+      <c r="AX14" s="53"/>
+      <c r="AY14" s="53"/>
+      <c r="AZ14" s="53"/>
+      <c r="BA14" s="53"/>
+      <c r="BB14" s="53"/>
+      <c r="BC14" s="53"/>
+      <c r="BD14" s="53"/>
+      <c r="BE14" s="53"/>
+      <c r="BF14" s="53"/>
+      <c r="BG14" s="58"/>
+      <c r="BH14" s="58"/>
+      <c r="BI14" s="58"/>
+      <c r="BJ14" s="58"/>
+      <c r="BK14" s="58"/>
+      <c r="BL14" s="53"/>
+      <c r="BM14" s="53"/>
+      <c r="BN14" s="53"/>
+      <c r="BO14" s="53"/>
+      <c r="BP14" s="59"/>
+      <c r="BQ14" s="36"/>
     </row>
     <row r="15" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A15" s="37"/>
-      <c r="B15" s="38">
+      <c r="A15" s="36"/>
+      <c r="B15" s="37">
         <v>1.3</v>
       </c>
-      <c r="C15" s="80" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="79" t="s">
-        <v>43</v>
-      </c>
-      <c r="E15" s="40">
+      <c r="C15" s="79" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="78" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="39">
         <v>44977</v>
       </c>
-      <c r="F15" s="40">
+      <c r="F15" s="39">
         <v>44978</v>
       </c>
-      <c r="G15" s="41">
+      <c r="G15" s="40">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H15" s="61">
+      <c r="H15" s="60">
         <v>1</v>
       </c>
-      <c r="I15" s="52"/>
-      <c r="J15" s="53"/>
-      <c r="K15" s="54"/>
-      <c r="L15" s="54"/>
-      <c r="M15" s="54"/>
-      <c r="N15" s="55"/>
-      <c r="O15" s="55"/>
-      <c r="P15" s="55"/>
-      <c r="Q15" s="55"/>
-      <c r="R15" s="55"/>
-      <c r="S15" s="56"/>
-      <c r="T15" s="56"/>
-      <c r="U15" s="54"/>
-      <c r="V15" s="54"/>
-      <c r="W15" s="54"/>
-      <c r="X15" s="54"/>
-      <c r="Y15" s="54"/>
-      <c r="Z15" s="54"/>
-      <c r="AA15" s="54"/>
-      <c r="AB15" s="54"/>
-      <c r="AC15" s="57"/>
-      <c r="AD15" s="57"/>
-      <c r="AE15" s="57"/>
-      <c r="AF15" s="57"/>
-      <c r="AG15" s="57"/>
-      <c r="AH15" s="54"/>
-      <c r="AI15" s="54"/>
-      <c r="AJ15" s="54"/>
-      <c r="AK15" s="54"/>
-      <c r="AL15" s="54"/>
-      <c r="AM15" s="54"/>
-      <c r="AN15" s="54"/>
-      <c r="AO15" s="54"/>
-      <c r="AP15" s="54"/>
-      <c r="AQ15" s="54"/>
-      <c r="AR15" s="58"/>
-      <c r="AS15" s="58"/>
-      <c r="AT15" s="58"/>
-      <c r="AU15" s="58"/>
-      <c r="AV15" s="58"/>
-      <c r="AW15" s="54"/>
-      <c r="AX15" s="54"/>
-      <c r="AY15" s="54"/>
-      <c r="AZ15" s="54"/>
-      <c r="BA15" s="54"/>
-      <c r="BB15" s="54"/>
-      <c r="BC15" s="54"/>
-      <c r="BD15" s="54"/>
-      <c r="BE15" s="54"/>
-      <c r="BF15" s="54"/>
-      <c r="BG15" s="59"/>
-      <c r="BH15" s="59"/>
-      <c r="BI15" s="59"/>
-      <c r="BJ15" s="59"/>
-      <c r="BK15" s="59"/>
-      <c r="BL15" s="54"/>
-      <c r="BM15" s="54"/>
-      <c r="BN15" s="54"/>
-      <c r="BO15" s="54"/>
-      <c r="BP15" s="60"/>
-      <c r="BQ15" s="37"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="53"/>
+      <c r="M15" s="53"/>
+      <c r="N15" s="54"/>
+      <c r="O15" s="54"/>
+      <c r="P15" s="54"/>
+      <c r="Q15" s="54"/>
+      <c r="R15" s="54"/>
+      <c r="S15" s="55"/>
+      <c r="T15" s="55"/>
+      <c r="U15" s="53"/>
+      <c r="V15" s="53"/>
+      <c r="W15" s="53"/>
+      <c r="X15" s="53"/>
+      <c r="Y15" s="53"/>
+      <c r="Z15" s="53"/>
+      <c r="AA15" s="53"/>
+      <c r="AB15" s="53"/>
+      <c r="AC15" s="56"/>
+      <c r="AD15" s="56"/>
+      <c r="AE15" s="56"/>
+      <c r="AF15" s="56"/>
+      <c r="AG15" s="56"/>
+      <c r="AH15" s="53"/>
+      <c r="AI15" s="53"/>
+      <c r="AJ15" s="53"/>
+      <c r="AK15" s="53"/>
+      <c r="AL15" s="53"/>
+      <c r="AM15" s="53"/>
+      <c r="AN15" s="53"/>
+      <c r="AO15" s="53"/>
+      <c r="AP15" s="53"/>
+      <c r="AQ15" s="53"/>
+      <c r="AR15" s="57"/>
+      <c r="AS15" s="57"/>
+      <c r="AT15" s="57"/>
+      <c r="AU15" s="57"/>
+      <c r="AV15" s="57"/>
+      <c r="AW15" s="53"/>
+      <c r="AX15" s="53"/>
+      <c r="AY15" s="53"/>
+      <c r="AZ15" s="53"/>
+      <c r="BA15" s="53"/>
+      <c r="BB15" s="53"/>
+      <c r="BC15" s="53"/>
+      <c r="BD15" s="53"/>
+      <c r="BE15" s="53"/>
+      <c r="BF15" s="53"/>
+      <c r="BG15" s="58"/>
+      <c r="BH15" s="58"/>
+      <c r="BI15" s="58"/>
+      <c r="BJ15" s="58"/>
+      <c r="BK15" s="58"/>
+      <c r="BL15" s="53"/>
+      <c r="BM15" s="53"/>
+      <c r="BN15" s="53"/>
+      <c r="BO15" s="53"/>
+      <c r="BP15" s="59"/>
+      <c r="BQ15" s="36"/>
     </row>
     <row r="16" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A16" s="37"/>
-      <c r="B16" s="38">
+      <c r="A16" s="36"/>
+      <c r="B16" s="37">
         <v>1.4</v>
       </c>
-      <c r="C16" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" s="79" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" s="40">
+      <c r="C16" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="78" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="39">
         <v>44979</v>
       </c>
-      <c r="F16" s="40">
+      <c r="F16" s="39">
         <v>44983</v>
       </c>
-      <c r="G16" s="41">
+      <c r="G16" s="40">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="H16" s="42">
+      <c r="H16" s="41">
         <v>1</v>
       </c>
-      <c r="I16" s="52"/>
-      <c r="J16" s="53"/>
-      <c r="K16" s="54"/>
-      <c r="L16" s="54"/>
-      <c r="M16" s="54"/>
-      <c r="N16" s="55"/>
-      <c r="O16" s="55"/>
-      <c r="P16" s="55"/>
-      <c r="Q16" s="55"/>
-      <c r="R16" s="55"/>
-      <c r="S16" s="54"/>
-      <c r="T16" s="54"/>
-      <c r="U16" s="56"/>
-      <c r="V16" s="56"/>
-      <c r="W16" s="56"/>
-      <c r="X16" s="54"/>
-      <c r="Y16" s="54"/>
-      <c r="Z16" s="54"/>
-      <c r="AA16" s="54"/>
-      <c r="AB16" s="54"/>
-      <c r="AC16" s="57"/>
-      <c r="AD16" s="57"/>
-      <c r="AE16" s="57"/>
-      <c r="AF16" s="57"/>
-      <c r="AG16" s="57"/>
-      <c r="AH16" s="54"/>
-      <c r="AI16" s="54"/>
-      <c r="AJ16" s="54"/>
-      <c r="AK16" s="54"/>
-      <c r="AL16" s="54"/>
-      <c r="AM16" s="54"/>
-      <c r="AN16" s="54"/>
-      <c r="AO16" s="54"/>
-      <c r="AP16" s="54"/>
-      <c r="AQ16" s="54"/>
-      <c r="AR16" s="58"/>
-      <c r="AS16" s="58"/>
-      <c r="AT16" s="58"/>
-      <c r="AU16" s="58"/>
-      <c r="AV16" s="58"/>
-      <c r="AW16" s="54"/>
-      <c r="AX16" s="54"/>
-      <c r="AY16" s="54"/>
-      <c r="AZ16" s="54"/>
-      <c r="BA16" s="54"/>
-      <c r="BB16" s="54"/>
-      <c r="BC16" s="54"/>
-      <c r="BD16" s="54"/>
-      <c r="BE16" s="54"/>
-      <c r="BF16" s="54"/>
-      <c r="BG16" s="59"/>
-      <c r="BH16" s="59"/>
-      <c r="BI16" s="59"/>
-      <c r="BJ16" s="59"/>
-      <c r="BK16" s="59"/>
-      <c r="BL16" s="54"/>
-      <c r="BM16" s="54"/>
-      <c r="BN16" s="54"/>
-      <c r="BO16" s="54"/>
-      <c r="BP16" s="60"/>
-      <c r="BQ16" s="37"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="53"/>
+      <c r="M16" s="53"/>
+      <c r="N16" s="54"/>
+      <c r="O16" s="54"/>
+      <c r="P16" s="54"/>
+      <c r="Q16" s="54"/>
+      <c r="R16" s="54"/>
+      <c r="S16" s="53"/>
+      <c r="T16" s="53"/>
+      <c r="U16" s="55"/>
+      <c r="V16" s="55"/>
+      <c r="W16" s="55"/>
+      <c r="X16" s="53"/>
+      <c r="Y16" s="53"/>
+      <c r="Z16" s="53"/>
+      <c r="AA16" s="53"/>
+      <c r="AB16" s="53"/>
+      <c r="AC16" s="56"/>
+      <c r="AD16" s="56"/>
+      <c r="AE16" s="56"/>
+      <c r="AF16" s="56"/>
+      <c r="AG16" s="56"/>
+      <c r="AH16" s="53"/>
+      <c r="AI16" s="53"/>
+      <c r="AJ16" s="53"/>
+      <c r="AK16" s="53"/>
+      <c r="AL16" s="53"/>
+      <c r="AM16" s="53"/>
+      <c r="AN16" s="53"/>
+      <c r="AO16" s="53"/>
+      <c r="AP16" s="53"/>
+      <c r="AQ16" s="53"/>
+      <c r="AR16" s="57"/>
+      <c r="AS16" s="57"/>
+      <c r="AT16" s="57"/>
+      <c r="AU16" s="57"/>
+      <c r="AV16" s="57"/>
+      <c r="AW16" s="53"/>
+      <c r="AX16" s="53"/>
+      <c r="AY16" s="53"/>
+      <c r="AZ16" s="53"/>
+      <c r="BA16" s="53"/>
+      <c r="BB16" s="53"/>
+      <c r="BC16" s="53"/>
+      <c r="BD16" s="53"/>
+      <c r="BE16" s="53"/>
+      <c r="BF16" s="53"/>
+      <c r="BG16" s="58"/>
+      <c r="BH16" s="58"/>
+      <c r="BI16" s="58"/>
+      <c r="BJ16" s="58"/>
+      <c r="BK16" s="58"/>
+      <c r="BL16" s="53"/>
+      <c r="BM16" s="53"/>
+      <c r="BN16" s="53"/>
+      <c r="BO16" s="53"/>
+      <c r="BP16" s="59"/>
+      <c r="BQ16" s="36"/>
     </row>
     <row r="17" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A17" s="37"/>
-      <c r="B17" s="38">
+      <c r="A17" s="36"/>
+      <c r="B17" s="37">
         <v>1.5</v>
       </c>
-      <c r="C17" s="81" t="s">
-        <v>48</v>
-      </c>
-      <c r="D17" s="79" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" s="40">
+      <c r="C17" s="80" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="78" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="39">
         <v>44984</v>
       </c>
-      <c r="F17" s="40">
+      <c r="F17" s="39">
         <v>44985</v>
       </c>
-      <c r="G17" s="41">
+      <c r="G17" s="40">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H17" s="83" t="s">
-        <v>51</v>
-      </c>
-      <c r="I17" s="52"/>
-      <c r="J17" s="53"/>
-      <c r="K17" s="54"/>
-      <c r="L17" s="54"/>
-      <c r="M17" s="54"/>
-      <c r="N17" s="55"/>
-      <c r="O17" s="55"/>
-      <c r="P17" s="55"/>
-      <c r="Q17" s="55"/>
-      <c r="R17" s="55"/>
-      <c r="S17" s="54"/>
-      <c r="T17" s="54"/>
-      <c r="U17" s="54"/>
-      <c r="V17" s="54"/>
-      <c r="W17" s="54"/>
-      <c r="X17" s="56"/>
-      <c r="Y17" s="56"/>
-      <c r="Z17" s="54"/>
-      <c r="AA17" s="54"/>
-      <c r="AB17" s="54"/>
-      <c r="AC17" s="57"/>
-      <c r="AD17" s="57"/>
-      <c r="AE17" s="57"/>
-      <c r="AF17" s="57"/>
-      <c r="AG17" s="57"/>
-      <c r="AH17" s="54"/>
-      <c r="AI17" s="54"/>
-      <c r="AJ17" s="54"/>
-      <c r="AK17" s="54"/>
-      <c r="AL17" s="54"/>
-      <c r="AM17" s="54"/>
-      <c r="AN17" s="54"/>
-      <c r="AO17" s="54"/>
-      <c r="AP17" s="54"/>
-      <c r="AQ17" s="54"/>
-      <c r="AR17" s="58"/>
-      <c r="AS17" s="58"/>
-      <c r="AT17" s="58"/>
-      <c r="AU17" s="58"/>
-      <c r="AV17" s="58"/>
-      <c r="AW17" s="54"/>
-      <c r="AX17" s="54"/>
-      <c r="AY17" s="54"/>
-      <c r="AZ17" s="54"/>
-      <c r="BA17" s="54"/>
-      <c r="BB17" s="54"/>
-      <c r="BC17" s="54"/>
-      <c r="BD17" s="54"/>
-      <c r="BE17" s="54"/>
-      <c r="BF17" s="54"/>
-      <c r="BG17" s="59"/>
-      <c r="BH17" s="59"/>
-      <c r="BI17" s="59"/>
-      <c r="BJ17" s="59"/>
-      <c r="BK17" s="59"/>
-      <c r="BL17" s="54"/>
-      <c r="BM17" s="54"/>
-      <c r="BN17" s="54"/>
-      <c r="BO17" s="54"/>
-      <c r="BP17" s="60"/>
-      <c r="BQ17" s="37"/>
+      <c r="H17" s="82" t="s">
+        <v>50</v>
+      </c>
+      <c r="I17" s="51"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="53"/>
+      <c r="M17" s="53"/>
+      <c r="N17" s="54"/>
+      <c r="O17" s="54"/>
+      <c r="P17" s="54"/>
+      <c r="Q17" s="54"/>
+      <c r="R17" s="54"/>
+      <c r="S17" s="53"/>
+      <c r="T17" s="53"/>
+      <c r="U17" s="53"/>
+      <c r="V17" s="53"/>
+      <c r="W17" s="53"/>
+      <c r="X17" s="55"/>
+      <c r="Y17" s="55"/>
+      <c r="Z17" s="53"/>
+      <c r="AA17" s="53"/>
+      <c r="AB17" s="53"/>
+      <c r="AC17" s="56"/>
+      <c r="AD17" s="56"/>
+      <c r="AE17" s="56"/>
+      <c r="AF17" s="56"/>
+      <c r="AG17" s="56"/>
+      <c r="AH17" s="53"/>
+      <c r="AI17" s="53"/>
+      <c r="AJ17" s="53"/>
+      <c r="AK17" s="53"/>
+      <c r="AL17" s="53"/>
+      <c r="AM17" s="53"/>
+      <c r="AN17" s="53"/>
+      <c r="AO17" s="53"/>
+      <c r="AP17" s="53"/>
+      <c r="AQ17" s="53"/>
+      <c r="AR17" s="57"/>
+      <c r="AS17" s="57"/>
+      <c r="AT17" s="57"/>
+      <c r="AU17" s="57"/>
+      <c r="AV17" s="57"/>
+      <c r="AW17" s="53"/>
+      <c r="AX17" s="53"/>
+      <c r="AY17" s="53"/>
+      <c r="AZ17" s="53"/>
+      <c r="BA17" s="53"/>
+      <c r="BB17" s="53"/>
+      <c r="BC17" s="53"/>
+      <c r="BD17" s="53"/>
+      <c r="BE17" s="53"/>
+      <c r="BF17" s="53"/>
+      <c r="BG17" s="58"/>
+      <c r="BH17" s="58"/>
+      <c r="BI17" s="58"/>
+      <c r="BJ17" s="58"/>
+      <c r="BK17" s="58"/>
+      <c r="BL17" s="53"/>
+      <c r="BM17" s="53"/>
+      <c r="BN17" s="53"/>
+      <c r="BO17" s="53"/>
+      <c r="BP17" s="59"/>
+      <c r="BQ17" s="36"/>
     </row>
     <row r="18" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A18" s="37"/>
-      <c r="B18" s="62">
+      <c r="A18" s="36"/>
+      <c r="B18" s="61">
         <v>1.6</v>
       </c>
-      <c r="C18" s="63" t="s">
+      <c r="C18" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="79" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" s="64">
+      <c r="D18" s="78" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="63">
         <v>44987</v>
       </c>
-      <c r="F18" s="64" t="s">
-        <v>49</v>
-      </c>
-      <c r="G18" s="65" t="e">
+      <c r="F18" s="63" t="s">
+        <v>48</v>
+      </c>
+      <c r="G18" s="64" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H18" s="66">
+      <c r="H18" s="65">
         <v>0.99</v>
       </c>
-      <c r="I18" s="67"/>
-      <c r="J18" s="68"/>
-      <c r="K18" s="69"/>
-      <c r="L18" s="69"/>
-      <c r="M18" s="69"/>
-      <c r="N18" s="70"/>
-      <c r="O18" s="70"/>
-      <c r="P18" s="70"/>
-      <c r="Q18" s="70"/>
-      <c r="R18" s="70"/>
-      <c r="S18" s="69"/>
-      <c r="T18" s="69"/>
-      <c r="U18" s="69"/>
-      <c r="V18" s="69"/>
-      <c r="W18" s="69"/>
-      <c r="X18" s="69"/>
-      <c r="Y18" s="69"/>
-      <c r="Z18" s="69"/>
-      <c r="AA18" s="69"/>
-      <c r="AB18" s="69"/>
-      <c r="AC18" s="71"/>
-      <c r="AD18" s="71"/>
-      <c r="AE18" s="71"/>
-      <c r="AF18" s="71"/>
-      <c r="AG18" s="71"/>
-      <c r="AH18" s="69"/>
-      <c r="AI18" s="69"/>
-      <c r="AJ18" s="69"/>
-      <c r="AK18" s="69"/>
-      <c r="AL18" s="69"/>
-      <c r="AM18" s="69"/>
-      <c r="AN18" s="69"/>
-      <c r="AO18" s="69"/>
-      <c r="AP18" s="69"/>
-      <c r="AQ18" s="69"/>
-      <c r="AR18" s="72"/>
-      <c r="AS18" s="72"/>
-      <c r="AT18" s="72"/>
-      <c r="AU18" s="72"/>
-      <c r="AV18" s="72"/>
-      <c r="AW18" s="69"/>
-      <c r="AX18" s="69"/>
-      <c r="AY18" s="69"/>
-      <c r="AZ18" s="69"/>
-      <c r="BA18" s="69"/>
-      <c r="BB18" s="69"/>
-      <c r="BC18" s="69"/>
-      <c r="BD18" s="69"/>
-      <c r="BE18" s="69"/>
-      <c r="BF18" s="69"/>
-      <c r="BG18" s="73"/>
-      <c r="BH18" s="73"/>
-      <c r="BI18" s="73"/>
-      <c r="BJ18" s="73"/>
-      <c r="BK18" s="73"/>
-      <c r="BL18" s="69"/>
-      <c r="BM18" s="69"/>
-      <c r="BN18" s="69"/>
-      <c r="BO18" s="69"/>
-      <c r="BP18" s="74"/>
-      <c r="BQ18" s="37"/>
+      <c r="I18" s="66"/>
+      <c r="J18" s="67"/>
+      <c r="K18" s="68"/>
+      <c r="L18" s="68"/>
+      <c r="M18" s="68"/>
+      <c r="N18" s="69"/>
+      <c r="O18" s="69"/>
+      <c r="P18" s="69"/>
+      <c r="Q18" s="69"/>
+      <c r="R18" s="69"/>
+      <c r="S18" s="68"/>
+      <c r="T18" s="68"/>
+      <c r="U18" s="68"/>
+      <c r="V18" s="68"/>
+      <c r="W18" s="68"/>
+      <c r="X18" s="68"/>
+      <c r="Y18" s="68"/>
+      <c r="Z18" s="68"/>
+      <c r="AA18" s="68"/>
+      <c r="AB18" s="68"/>
+      <c r="AC18" s="70"/>
+      <c r="AD18" s="70"/>
+      <c r="AE18" s="70"/>
+      <c r="AF18" s="70"/>
+      <c r="AG18" s="70"/>
+      <c r="AH18" s="68"/>
+      <c r="AI18" s="68"/>
+      <c r="AJ18" s="68"/>
+      <c r="AK18" s="68"/>
+      <c r="AL18" s="68"/>
+      <c r="AM18" s="68"/>
+      <c r="AN18" s="68"/>
+      <c r="AO18" s="68"/>
+      <c r="AP18" s="68"/>
+      <c r="AQ18" s="68"/>
+      <c r="AR18" s="71"/>
+      <c r="AS18" s="71"/>
+      <c r="AT18" s="71"/>
+      <c r="AU18" s="71"/>
+      <c r="AV18" s="71"/>
+      <c r="AW18" s="68"/>
+      <c r="AX18" s="68"/>
+      <c r="AY18" s="68"/>
+      <c r="AZ18" s="68"/>
+      <c r="BA18" s="68"/>
+      <c r="BB18" s="68"/>
+      <c r="BC18" s="68"/>
+      <c r="BD18" s="68"/>
+      <c r="BE18" s="68"/>
+      <c r="BF18" s="68"/>
+      <c r="BG18" s="72"/>
+      <c r="BH18" s="72"/>
+      <c r="BI18" s="72"/>
+      <c r="BJ18" s="72"/>
+      <c r="BK18" s="72"/>
+      <c r="BL18" s="68"/>
+      <c r="BM18" s="68"/>
+      <c r="BN18" s="68"/>
+      <c r="BO18" s="68"/>
+      <c r="BP18" s="73"/>
+      <c r="BQ18" s="36"/>
     </row>
     <row r="19" spans="1:69" ht="21" customHeight="1">
       <c r="A19" s="21"/>
       <c r="B19" s="31">
         <v>2</v>
       </c>
-      <c r="C19" s="84" t="s">
-        <v>52</v>
-      </c>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="36"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="34"/>
-      <c r="N19" s="34"/>
-      <c r="O19" s="34"/>
-      <c r="P19" s="34"/>
-      <c r="Q19" s="34"/>
-      <c r="R19" s="34"/>
-      <c r="S19" s="34"/>
-      <c r="T19" s="34"/>
-      <c r="U19" s="34"/>
-      <c r="V19" s="34"/>
-      <c r="W19" s="34"/>
-      <c r="X19" s="34"/>
-      <c r="Y19" s="34"/>
-      <c r="Z19" s="34"/>
-      <c r="AA19" s="34"/>
-      <c r="AB19" s="34"/>
-      <c r="AC19" s="34"/>
-      <c r="AD19" s="34"/>
-      <c r="AE19" s="34"/>
-      <c r="AF19" s="34"/>
-      <c r="AG19" s="34"/>
-      <c r="AH19" s="34"/>
-      <c r="AI19" s="34"/>
-      <c r="AJ19" s="34"/>
-      <c r="AK19" s="34"/>
-      <c r="AL19" s="34"/>
-      <c r="AM19" s="34"/>
-      <c r="AN19" s="34"/>
-      <c r="AO19" s="34"/>
-      <c r="AP19" s="34"/>
-      <c r="AQ19" s="34"/>
-      <c r="AR19" s="34"/>
-      <c r="AS19" s="34"/>
-      <c r="AT19" s="34"/>
-      <c r="AU19" s="34"/>
-      <c r="AV19" s="34"/>
-      <c r="AW19" s="34"/>
-      <c r="AX19" s="34"/>
-      <c r="AY19" s="34"/>
-      <c r="AZ19" s="34"/>
-      <c r="BA19" s="34"/>
-      <c r="BB19" s="34"/>
-      <c r="BC19" s="34"/>
-      <c r="BD19" s="34"/>
-      <c r="BE19" s="34"/>
-      <c r="BF19" s="34"/>
-      <c r="BG19" s="34"/>
-      <c r="BH19" s="34"/>
-      <c r="BI19" s="34"/>
-      <c r="BJ19" s="34"/>
-      <c r="BK19" s="34"/>
-      <c r="BL19" s="34"/>
-      <c r="BM19" s="34"/>
-      <c r="BN19" s="34"/>
-      <c r="BO19" s="34"/>
-      <c r="BP19" s="34"/>
+      <c r="C19" s="83" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="33"/>
+      <c r="N19" s="33"/>
+      <c r="O19" s="33"/>
+      <c r="P19" s="33"/>
+      <c r="Q19" s="33"/>
+      <c r="R19" s="33"/>
+      <c r="S19" s="33"/>
+      <c r="T19" s="33"/>
+      <c r="U19" s="33"/>
+      <c r="V19" s="33"/>
+      <c r="W19" s="33"/>
+      <c r="X19" s="33"/>
+      <c r="Y19" s="33"/>
+      <c r="Z19" s="33"/>
+      <c r="AA19" s="33"/>
+      <c r="AB19" s="33"/>
+      <c r="AC19" s="33"/>
+      <c r="AD19" s="33"/>
+      <c r="AE19" s="33"/>
+      <c r="AF19" s="33"/>
+      <c r="AG19" s="33"/>
+      <c r="AH19" s="33"/>
+      <c r="AI19" s="33"/>
+      <c r="AJ19" s="33"/>
+      <c r="AK19" s="33"/>
+      <c r="AL19" s="33"/>
+      <c r="AM19" s="33"/>
+      <c r="AN19" s="33"/>
+      <c r="AO19" s="33"/>
+      <c r="AP19" s="33"/>
+      <c r="AQ19" s="33"/>
+      <c r="AR19" s="33"/>
+      <c r="AS19" s="33"/>
+      <c r="AT19" s="33"/>
+      <c r="AU19" s="33"/>
+      <c r="AV19" s="33"/>
+      <c r="AW19" s="33"/>
+      <c r="AX19" s="33"/>
+      <c r="AY19" s="33"/>
+      <c r="AZ19" s="33"/>
+      <c r="BA19" s="33"/>
+      <c r="BB19" s="33"/>
+      <c r="BC19" s="33"/>
+      <c r="BD19" s="33"/>
+      <c r="BE19" s="33"/>
+      <c r="BF19" s="33"/>
+      <c r="BG19" s="33"/>
+      <c r="BH19" s="33"/>
+      <c r="BI19" s="33"/>
+      <c r="BJ19" s="33"/>
+      <c r="BK19" s="33"/>
+      <c r="BL19" s="33"/>
+      <c r="BM19" s="33"/>
+      <c r="BN19" s="33"/>
+      <c r="BO19" s="33"/>
+      <c r="BP19" s="33"/>
       <c r="BQ19" s="21"/>
     </row>
     <row r="20" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A20" s="37"/>
-      <c r="B20" s="38">
+      <c r="A20" s="36"/>
+      <c r="B20" s="37">
         <v>2.1</v>
       </c>
-      <c r="C20" s="39" t="s">
-        <v>76</v>
-      </c>
-      <c r="D20" s="79" t="s">
-        <v>43</v>
-      </c>
-      <c r="E20" s="40">
+      <c r="C20" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" s="78" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="39">
         <v>885045</v>
       </c>
-      <c r="F20" s="40">
+      <c r="F20" s="39">
         <v>885083</v>
       </c>
-      <c r="G20" s="41">
+      <c r="G20" s="40">
         <v>33</v>
       </c>
-      <c r="H20" s="42">
+      <c r="H20" s="41">
         <v>0.75</v>
       </c>
-      <c r="I20" s="52"/>
-      <c r="J20" s="53"/>
-      <c r="K20" s="53"/>
-      <c r="L20" s="53"/>
-      <c r="M20" s="53"/>
-      <c r="N20" s="47"/>
-      <c r="O20" s="47"/>
-      <c r="P20" s="47"/>
-      <c r="Q20" s="47"/>
-      <c r="R20" s="47"/>
-      <c r="S20" s="45"/>
-      <c r="T20" s="45"/>
-      <c r="U20" s="45"/>
-      <c r="V20" s="45"/>
-      <c r="W20" s="45"/>
-      <c r="X20" s="54"/>
-      <c r="Y20" s="54"/>
-      <c r="Z20" s="54"/>
-      <c r="AA20" s="54"/>
-      <c r="AB20" s="56"/>
-      <c r="AC20" s="56"/>
-      <c r="AD20" s="56"/>
-      <c r="AE20" s="56"/>
-      <c r="AF20" s="56"/>
-      <c r="AG20" s="56"/>
-      <c r="AH20" s="56"/>
-      <c r="AI20" s="56"/>
-      <c r="AJ20" s="56"/>
-      <c r="AK20" s="56"/>
-      <c r="AL20" s="56"/>
-      <c r="AM20" s="56"/>
-      <c r="AN20" s="56"/>
-      <c r="AO20" s="56"/>
-      <c r="AP20" s="56"/>
-      <c r="AQ20" s="45"/>
-      <c r="AR20" s="49"/>
-      <c r="AS20" s="49"/>
-      <c r="AT20" s="49"/>
-      <c r="AU20" s="49"/>
-      <c r="AV20" s="49"/>
-      <c r="AW20" s="45"/>
-      <c r="AX20" s="45"/>
-      <c r="AY20" s="45"/>
-      <c r="AZ20" s="45"/>
-      <c r="BA20" s="45"/>
-      <c r="BB20" s="45"/>
-      <c r="BC20" s="45"/>
-      <c r="BD20" s="45"/>
-      <c r="BE20" s="45"/>
-      <c r="BF20" s="45"/>
-      <c r="BG20" s="50"/>
-      <c r="BH20" s="50"/>
-      <c r="BI20" s="50"/>
-      <c r="BJ20" s="50"/>
-      <c r="BK20" s="50"/>
-      <c r="BL20" s="45"/>
-      <c r="BM20" s="45"/>
-      <c r="BN20" s="45"/>
-      <c r="BO20" s="45"/>
-      <c r="BP20" s="51"/>
-      <c r="BQ20" s="37"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="52"/>
+      <c r="M20" s="52"/>
+      <c r="N20" s="46"/>
+      <c r="O20" s="46"/>
+      <c r="P20" s="46"/>
+      <c r="Q20" s="46"/>
+      <c r="R20" s="46"/>
+      <c r="S20" s="44"/>
+      <c r="T20" s="44"/>
+      <c r="U20" s="44"/>
+      <c r="V20" s="44"/>
+      <c r="W20" s="44"/>
+      <c r="X20" s="53"/>
+      <c r="Y20" s="53"/>
+      <c r="Z20" s="53"/>
+      <c r="AA20" s="53"/>
+      <c r="AB20" s="55"/>
+      <c r="AC20" s="55"/>
+      <c r="AD20" s="55"/>
+      <c r="AE20" s="55"/>
+      <c r="AF20" s="55"/>
+      <c r="AG20" s="55"/>
+      <c r="AH20" s="55"/>
+      <c r="AI20" s="55"/>
+      <c r="AJ20" s="55"/>
+      <c r="AK20" s="55"/>
+      <c r="AL20" s="55"/>
+      <c r="AM20" s="55"/>
+      <c r="AN20" s="55"/>
+      <c r="AO20" s="55"/>
+      <c r="AP20" s="55"/>
+      <c r="AQ20" s="44"/>
+      <c r="AR20" s="48"/>
+      <c r="AS20" s="48"/>
+      <c r="AT20" s="48"/>
+      <c r="AU20" s="48"/>
+      <c r="AV20" s="48"/>
+      <c r="AW20" s="44"/>
+      <c r="AX20" s="44"/>
+      <c r="AY20" s="44"/>
+      <c r="AZ20" s="44"/>
+      <c r="BA20" s="44"/>
+      <c r="BB20" s="44"/>
+      <c r="BC20" s="44"/>
+      <c r="BD20" s="44"/>
+      <c r="BE20" s="44"/>
+      <c r="BF20" s="44"/>
+      <c r="BG20" s="49"/>
+      <c r="BH20" s="49"/>
+      <c r="BI20" s="49"/>
+      <c r="BJ20" s="49"/>
+      <c r="BK20" s="49"/>
+      <c r="BL20" s="44"/>
+      <c r="BM20" s="44"/>
+      <c r="BN20" s="44"/>
+      <c r="BO20" s="44"/>
+      <c r="BP20" s="50"/>
+      <c r="BQ20" s="36"/>
     </row>
     <row r="21" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A21" s="37"/>
-      <c r="B21" s="38">
+      <c r="A21" s="36"/>
+      <c r="B21" s="37">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C21" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="D21" s="79" t="s">
-        <v>43</v>
-      </c>
-      <c r="E21" s="40">
+      <c r="C21" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21" s="78" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" s="39">
         <v>885045</v>
       </c>
-      <c r="F21" s="40">
+      <c r="F21" s="39">
         <v>885088</v>
       </c>
-      <c r="G21" s="41">
+      <c r="G21" s="40">
         <v>33</v>
       </c>
-      <c r="H21" s="42">
+      <c r="H21" s="41">
         <v>0.4</v>
       </c>
-      <c r="I21" s="52"/>
-      <c r="J21" s="53"/>
-      <c r="K21" s="53"/>
-      <c r="L21" s="53"/>
-      <c r="M21" s="53"/>
-      <c r="N21" s="55"/>
-      <c r="O21" s="55"/>
-      <c r="P21" s="55"/>
-      <c r="Q21" s="55"/>
-      <c r="R21" s="55"/>
-      <c r="S21" s="54"/>
-      <c r="T21" s="54"/>
-      <c r="U21" s="54"/>
-      <c r="V21" s="54"/>
-      <c r="W21" s="54"/>
-      <c r="X21" s="54"/>
-      <c r="Y21" s="54"/>
-      <c r="Z21" s="54"/>
-      <c r="AA21" s="54"/>
-      <c r="AB21" s="56"/>
-      <c r="AC21" s="56"/>
-      <c r="AD21" s="56"/>
-      <c r="AE21" s="56"/>
-      <c r="AF21" s="56"/>
-      <c r="AG21" s="56"/>
-      <c r="AH21" s="56"/>
-      <c r="AI21" s="56"/>
-      <c r="AJ21" s="56"/>
-      <c r="AK21" s="56"/>
-      <c r="AL21" s="56"/>
-      <c r="AM21" s="56"/>
-      <c r="AN21" s="56"/>
-      <c r="AO21" s="56"/>
-      <c r="AP21" s="56"/>
-      <c r="AQ21" s="54"/>
-      <c r="AR21" s="58"/>
-      <c r="AS21" s="58"/>
-      <c r="AT21" s="58"/>
-      <c r="AU21" s="58"/>
-      <c r="AV21" s="58"/>
-      <c r="AW21" s="54"/>
-      <c r="AX21" s="54"/>
-      <c r="AY21" s="54"/>
-      <c r="AZ21" s="54"/>
-      <c r="BA21" s="54"/>
-      <c r="BB21" s="54"/>
-      <c r="BC21" s="54"/>
-      <c r="BD21" s="54"/>
-      <c r="BE21" s="54"/>
-      <c r="BF21" s="54"/>
-      <c r="BG21" s="59"/>
-      <c r="BH21" s="59"/>
-      <c r="BI21" s="59"/>
-      <c r="BJ21" s="59"/>
-      <c r="BK21" s="59"/>
-      <c r="BL21" s="54"/>
-      <c r="BM21" s="54"/>
-      <c r="BN21" s="54"/>
-      <c r="BO21" s="54"/>
-      <c r="BP21" s="60"/>
-      <c r="BQ21" s="37"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="52"/>
+      <c r="M21" s="52"/>
+      <c r="N21" s="54"/>
+      <c r="O21" s="54"/>
+      <c r="P21" s="54"/>
+      <c r="Q21" s="54"/>
+      <c r="R21" s="54"/>
+      <c r="S21" s="53"/>
+      <c r="T21" s="53"/>
+      <c r="U21" s="53"/>
+      <c r="V21" s="53"/>
+      <c r="W21" s="53"/>
+      <c r="X21" s="53"/>
+      <c r="Y21" s="53"/>
+      <c r="Z21" s="53"/>
+      <c r="AA21" s="53"/>
+      <c r="AB21" s="55"/>
+      <c r="AC21" s="55"/>
+      <c r="AD21" s="55"/>
+      <c r="AE21" s="55"/>
+      <c r="AF21" s="55"/>
+      <c r="AG21" s="55"/>
+      <c r="AH21" s="55"/>
+      <c r="AI21" s="55"/>
+      <c r="AJ21" s="55"/>
+      <c r="AK21" s="55"/>
+      <c r="AL21" s="55"/>
+      <c r="AM21" s="55"/>
+      <c r="AN21" s="55"/>
+      <c r="AO21" s="55"/>
+      <c r="AP21" s="55"/>
+      <c r="AQ21" s="53"/>
+      <c r="AR21" s="57"/>
+      <c r="AS21" s="57"/>
+      <c r="AT21" s="57"/>
+      <c r="AU21" s="57"/>
+      <c r="AV21" s="57"/>
+      <c r="AW21" s="53"/>
+      <c r="AX21" s="53"/>
+      <c r="AY21" s="53"/>
+      <c r="AZ21" s="53"/>
+      <c r="BA21" s="53"/>
+      <c r="BB21" s="53"/>
+      <c r="BC21" s="53"/>
+      <c r="BD21" s="53"/>
+      <c r="BE21" s="53"/>
+      <c r="BF21" s="53"/>
+      <c r="BG21" s="58"/>
+      <c r="BH21" s="58"/>
+      <c r="BI21" s="58"/>
+      <c r="BJ21" s="58"/>
+      <c r="BK21" s="58"/>
+      <c r="BL21" s="53"/>
+      <c r="BM21" s="53"/>
+      <c r="BN21" s="53"/>
+      <c r="BO21" s="53"/>
+      <c r="BP21" s="59"/>
+      <c r="BQ21" s="36"/>
     </row>
     <row r="22" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A22" s="37"/>
-      <c r="B22" s="38">
+      <c r="A22" s="36"/>
+      <c r="B22" s="37">
         <v>2.2999999999999998</v>
       </c>
-      <c r="C22" s="39" t="s">
+      <c r="C22" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="78" t="s">
         <v>57</v>
       </c>
-      <c r="D22" s="79" t="s">
-        <v>58</v>
-      </c>
-      <c r="E22" s="40">
+      <c r="E22" s="39">
         <v>885045</v>
       </c>
-      <c r="F22" s="40">
+      <c r="F22" s="39">
         <v>885073</v>
       </c>
-      <c r="G22" s="41">
+      <c r="G22" s="40">
         <v>29</v>
       </c>
-      <c r="H22" s="42">
-        <v>0.8</v>
-      </c>
-      <c r="I22" s="52"/>
-      <c r="J22" s="53"/>
-      <c r="K22" s="53"/>
-      <c r="L22" s="53"/>
-      <c r="M22" s="53"/>
-      <c r="N22" s="55"/>
-      <c r="O22" s="55"/>
-      <c r="P22" s="55"/>
-      <c r="Q22" s="55"/>
-      <c r="R22" s="55"/>
-      <c r="S22" s="54"/>
-      <c r="T22" s="54"/>
-      <c r="U22" s="54"/>
-      <c r="V22" s="54"/>
-      <c r="W22" s="54"/>
-      <c r="X22" s="54"/>
-      <c r="Y22" s="54"/>
-      <c r="Z22" s="54"/>
-      <c r="AA22" s="54"/>
-      <c r="AB22" s="56"/>
-      <c r="AC22" s="56"/>
-      <c r="AD22" s="56"/>
-      <c r="AE22" s="56"/>
-      <c r="AF22" s="56"/>
-      <c r="AG22" s="56"/>
-      <c r="AH22" s="56"/>
-      <c r="AI22" s="56"/>
-      <c r="AJ22" s="56"/>
-      <c r="AK22" s="56"/>
-      <c r="AL22" s="56"/>
-      <c r="AM22" s="56"/>
-      <c r="AN22" s="56"/>
-      <c r="AO22" s="56"/>
-      <c r="AP22" s="56"/>
-      <c r="AQ22" s="54"/>
-      <c r="AR22" s="58"/>
-      <c r="AS22" s="58"/>
-      <c r="AT22" s="58"/>
-      <c r="AU22" s="58"/>
-      <c r="AV22" s="58"/>
-      <c r="AW22" s="54"/>
-      <c r="AX22" s="54"/>
-      <c r="AY22" s="54"/>
-      <c r="AZ22" s="54"/>
-      <c r="BA22" s="54"/>
-      <c r="BB22" s="54"/>
-      <c r="BC22" s="54"/>
-      <c r="BD22" s="54"/>
-      <c r="BE22" s="54"/>
-      <c r="BF22" s="54"/>
-      <c r="BG22" s="59"/>
-      <c r="BH22" s="59"/>
-      <c r="BI22" s="59"/>
-      <c r="BJ22" s="59"/>
-      <c r="BK22" s="59"/>
-      <c r="BL22" s="54"/>
-      <c r="BM22" s="54"/>
-      <c r="BN22" s="54"/>
-      <c r="BO22" s="54"/>
-      <c r="BP22" s="60"/>
-      <c r="BQ22" s="37"/>
+      <c r="H22" s="41">
+        <v>1</v>
+      </c>
+      <c r="I22" s="51"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="52"/>
+      <c r="L22" s="52"/>
+      <c r="M22" s="52"/>
+      <c r="N22" s="54"/>
+      <c r="O22" s="54"/>
+      <c r="P22" s="54"/>
+      <c r="Q22" s="54"/>
+      <c r="R22" s="54"/>
+      <c r="S22" s="53"/>
+      <c r="T22" s="53"/>
+      <c r="U22" s="53"/>
+      <c r="V22" s="53"/>
+      <c r="W22" s="53"/>
+      <c r="X22" s="53"/>
+      <c r="Y22" s="53"/>
+      <c r="Z22" s="53"/>
+      <c r="AA22" s="53"/>
+      <c r="AB22" s="55"/>
+      <c r="AC22" s="55"/>
+      <c r="AD22" s="55"/>
+      <c r="AE22" s="55"/>
+      <c r="AF22" s="55"/>
+      <c r="AG22" s="55"/>
+      <c r="AH22" s="55"/>
+      <c r="AI22" s="55"/>
+      <c r="AJ22" s="55"/>
+      <c r="AK22" s="55"/>
+      <c r="AL22" s="55"/>
+      <c r="AM22" s="55"/>
+      <c r="AN22" s="55"/>
+      <c r="AO22" s="55"/>
+      <c r="AP22" s="55"/>
+      <c r="AQ22" s="53"/>
+      <c r="AR22" s="57"/>
+      <c r="AS22" s="57"/>
+      <c r="AT22" s="57"/>
+      <c r="AU22" s="57"/>
+      <c r="AV22" s="57"/>
+      <c r="AW22" s="53"/>
+      <c r="AX22" s="53"/>
+      <c r="AY22" s="53"/>
+      <c r="AZ22" s="53"/>
+      <c r="BA22" s="53"/>
+      <c r="BB22" s="53"/>
+      <c r="BC22" s="53"/>
+      <c r="BD22" s="53"/>
+      <c r="BE22" s="53"/>
+      <c r="BF22" s="53"/>
+      <c r="BG22" s="58"/>
+      <c r="BH22" s="58"/>
+      <c r="BI22" s="58"/>
+      <c r="BJ22" s="58"/>
+      <c r="BK22" s="58"/>
+      <c r="BL22" s="53"/>
+      <c r="BM22" s="53"/>
+      <c r="BN22" s="53"/>
+      <c r="BO22" s="53"/>
+      <c r="BP22" s="59"/>
+      <c r="BQ22" s="36"/>
     </row>
     <row r="23" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A23" s="37"/>
-      <c r="B23" s="38">
+      <c r="A23" s="36"/>
+      <c r="B23" s="37">
         <v>2.4</v>
       </c>
-      <c r="C23" s="77" t="s">
-        <v>54</v>
-      </c>
-      <c r="D23" s="79" t="s">
-        <v>43</v>
-      </c>
-      <c r="E23" s="40">
+      <c r="C23" s="76" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="78" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" s="39">
         <v>885049</v>
       </c>
-      <c r="F23" s="40">
+      <c r="F23" s="39">
         <v>885049</v>
       </c>
-      <c r="G23" s="41">
+      <c r="G23" s="40">
         <v>1</v>
       </c>
-      <c r="H23" s="61">
+      <c r="H23" s="60">
         <v>1</v>
       </c>
-      <c r="I23" s="52"/>
-      <c r="J23" s="53"/>
-      <c r="K23" s="54"/>
-      <c r="L23" s="54"/>
-      <c r="M23" s="54"/>
-      <c r="N23" s="55"/>
-      <c r="O23" s="55"/>
-      <c r="P23" s="55"/>
-      <c r="Q23" s="55"/>
-      <c r="R23" s="55"/>
-      <c r="S23" s="54"/>
-      <c r="T23" s="54"/>
-      <c r="U23" s="54"/>
-      <c r="V23" s="54"/>
-      <c r="W23" s="54"/>
-      <c r="X23" s="54"/>
-      <c r="Y23" s="54"/>
-      <c r="Z23" s="54"/>
-      <c r="AA23" s="54"/>
-      <c r="AB23" s="54"/>
-      <c r="AC23" s="57"/>
-      <c r="AD23" s="57"/>
-      <c r="AE23" s="56"/>
-      <c r="AF23" s="57"/>
-      <c r="AG23" s="57"/>
-      <c r="AH23" s="54"/>
-      <c r="AI23" s="54"/>
-      <c r="AJ23" s="54"/>
-      <c r="AK23" s="54"/>
-      <c r="AL23" s="54"/>
-      <c r="AM23" s="54"/>
-      <c r="AN23" s="54"/>
-      <c r="AO23" s="54"/>
-      <c r="AP23" s="54"/>
-      <c r="AQ23" s="54"/>
-      <c r="AR23" s="58"/>
-      <c r="AS23" s="58"/>
-      <c r="AT23" s="58"/>
-      <c r="AU23" s="58"/>
-      <c r="AV23" s="58"/>
-      <c r="AW23" s="54"/>
-      <c r="AX23" s="54"/>
-      <c r="AY23" s="54"/>
-      <c r="AZ23" s="54"/>
-      <c r="BA23" s="54"/>
-      <c r="BB23" s="54"/>
-      <c r="BC23" s="54"/>
-      <c r="BD23" s="54"/>
-      <c r="BE23" s="54"/>
-      <c r="BF23" s="54"/>
-      <c r="BG23" s="59"/>
-      <c r="BH23" s="59"/>
-      <c r="BI23" s="59"/>
-      <c r="BJ23" s="59"/>
-      <c r="BK23" s="59"/>
-      <c r="BL23" s="54"/>
-      <c r="BM23" s="54"/>
-      <c r="BN23" s="54"/>
-      <c r="BO23" s="54"/>
-      <c r="BP23" s="60"/>
-      <c r="BQ23" s="37"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="53"/>
+      <c r="L23" s="53"/>
+      <c r="M23" s="53"/>
+      <c r="N23" s="54"/>
+      <c r="O23" s="54"/>
+      <c r="P23" s="54"/>
+      <c r="Q23" s="54"/>
+      <c r="R23" s="54"/>
+      <c r="S23" s="53"/>
+      <c r="T23" s="53"/>
+      <c r="U23" s="53"/>
+      <c r="V23" s="53"/>
+      <c r="W23" s="53"/>
+      <c r="X23" s="53"/>
+      <c r="Y23" s="53"/>
+      <c r="Z23" s="53"/>
+      <c r="AA23" s="53"/>
+      <c r="AB23" s="53"/>
+      <c r="AC23" s="56"/>
+      <c r="AD23" s="56"/>
+      <c r="AE23" s="55"/>
+      <c r="AF23" s="56"/>
+      <c r="AG23" s="56"/>
+      <c r="AH23" s="53"/>
+      <c r="AI23" s="53"/>
+      <c r="AJ23" s="53"/>
+      <c r="AK23" s="53"/>
+      <c r="AL23" s="53"/>
+      <c r="AM23" s="53"/>
+      <c r="AN23" s="53"/>
+      <c r="AO23" s="53"/>
+      <c r="AP23" s="53"/>
+      <c r="AQ23" s="53"/>
+      <c r="AR23" s="57"/>
+      <c r="AS23" s="57"/>
+      <c r="AT23" s="57"/>
+      <c r="AU23" s="57"/>
+      <c r="AV23" s="57"/>
+      <c r="AW23" s="53"/>
+      <c r="AX23" s="53"/>
+      <c r="AY23" s="53"/>
+      <c r="AZ23" s="53"/>
+      <c r="BA23" s="53"/>
+      <c r="BB23" s="53"/>
+      <c r="BC23" s="53"/>
+      <c r="BD23" s="53"/>
+      <c r="BE23" s="53"/>
+      <c r="BF23" s="53"/>
+      <c r="BG23" s="58"/>
+      <c r="BH23" s="58"/>
+      <c r="BI23" s="58"/>
+      <c r="BJ23" s="58"/>
+      <c r="BK23" s="58"/>
+      <c r="BL23" s="53"/>
+      <c r="BM23" s="53"/>
+      <c r="BN23" s="53"/>
+      <c r="BO23" s="53"/>
+      <c r="BP23" s="59"/>
+      <c r="BQ23" s="36"/>
     </row>
     <row r="24" spans="1:69" ht="17" customHeight="1" outlineLevel="1">
-      <c r="A24" s="37"/>
-      <c r="B24" s="38">
+      <c r="A24" s="36"/>
+      <c r="B24" s="37">
         <v>2.5</v>
       </c>
-      <c r="C24" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="D24" s="79" t="s">
-        <v>56</v>
-      </c>
-      <c r="E24" s="40">
+      <c r="C24" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" s="78" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" s="39">
         <v>885055</v>
       </c>
-      <c r="F24" s="40">
+      <c r="F24" s="39">
         <v>885058</v>
       </c>
-      <c r="G24" s="41">
+      <c r="G24" s="40">
         <v>4</v>
       </c>
-      <c r="H24" s="42">
+      <c r="H24" s="41">
         <v>1</v>
       </c>
-      <c r="I24" s="52"/>
-      <c r="J24" s="53"/>
-      <c r="K24" s="54"/>
-      <c r="L24" s="54"/>
-      <c r="M24" s="54"/>
-      <c r="N24" s="55"/>
-      <c r="O24" s="55"/>
-      <c r="P24" s="55"/>
-      <c r="Q24" s="55"/>
-      <c r="R24" s="55"/>
-      <c r="S24" s="54"/>
-      <c r="T24" s="54"/>
-      <c r="U24" s="54"/>
-      <c r="V24" s="54"/>
-      <c r="W24" s="54"/>
-      <c r="X24" s="54"/>
-      <c r="Y24" s="54"/>
-      <c r="Z24" s="54"/>
-      <c r="AA24" s="54"/>
-      <c r="AB24" s="54"/>
-      <c r="AC24" s="57"/>
-      <c r="AD24" s="57"/>
-      <c r="AE24" s="57"/>
-      <c r="AF24" s="57"/>
-      <c r="AG24" s="57"/>
-      <c r="AH24" s="56"/>
-      <c r="AI24" s="56"/>
-      <c r="AJ24" s="56"/>
-      <c r="AK24" s="56"/>
-      <c r="AL24" s="56"/>
-      <c r="AM24" s="54"/>
-      <c r="AN24" s="54"/>
-      <c r="AO24" s="54"/>
-      <c r="AP24" s="54"/>
-      <c r="AQ24" s="54"/>
-      <c r="AR24" s="58"/>
-      <c r="AS24" s="58"/>
-      <c r="AT24" s="58"/>
-      <c r="AU24" s="58"/>
-      <c r="AV24" s="58"/>
-      <c r="AW24" s="54"/>
-      <c r="AX24" s="54"/>
-      <c r="AY24" s="54"/>
-      <c r="AZ24" s="54"/>
-      <c r="BA24" s="54"/>
-      <c r="BB24" s="54"/>
-      <c r="BC24" s="54"/>
-      <c r="BD24" s="54"/>
-      <c r="BE24" s="54"/>
-      <c r="BF24" s="54"/>
-      <c r="BG24" s="59"/>
-      <c r="BH24" s="59"/>
-      <c r="BI24" s="59"/>
-      <c r="BJ24" s="59"/>
-      <c r="BK24" s="59"/>
-      <c r="BL24" s="54"/>
-      <c r="BM24" s="54"/>
-      <c r="BN24" s="54"/>
-      <c r="BO24" s="54"/>
-      <c r="BP24" s="60"/>
-      <c r="BQ24" s="37"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="53"/>
+      <c r="L24" s="53"/>
+      <c r="M24" s="53"/>
+      <c r="N24" s="54"/>
+      <c r="O24" s="54"/>
+      <c r="P24" s="54"/>
+      <c r="Q24" s="54"/>
+      <c r="R24" s="54"/>
+      <c r="S24" s="53"/>
+      <c r="T24" s="53"/>
+      <c r="U24" s="53"/>
+      <c r="V24" s="53"/>
+      <c r="W24" s="53"/>
+      <c r="X24" s="53"/>
+      <c r="Y24" s="53"/>
+      <c r="Z24" s="53"/>
+      <c r="AA24" s="53"/>
+      <c r="AB24" s="53"/>
+      <c r="AC24" s="56"/>
+      <c r="AD24" s="56"/>
+      <c r="AE24" s="56"/>
+      <c r="AF24" s="56"/>
+      <c r="AG24" s="56"/>
+      <c r="AH24" s="55"/>
+      <c r="AI24" s="55"/>
+      <c r="AJ24" s="55"/>
+      <c r="AK24" s="55"/>
+      <c r="AL24" s="55"/>
+      <c r="AM24" s="53"/>
+      <c r="AN24" s="53"/>
+      <c r="AO24" s="53"/>
+      <c r="AP24" s="53"/>
+      <c r="AQ24" s="53"/>
+      <c r="AR24" s="57"/>
+      <c r="AS24" s="57"/>
+      <c r="AT24" s="57"/>
+      <c r="AU24" s="57"/>
+      <c r="AV24" s="57"/>
+      <c r="AW24" s="53"/>
+      <c r="AX24" s="53"/>
+      <c r="AY24" s="53"/>
+      <c r="AZ24" s="53"/>
+      <c r="BA24" s="53"/>
+      <c r="BB24" s="53"/>
+      <c r="BC24" s="53"/>
+      <c r="BD24" s="53"/>
+      <c r="BE24" s="53"/>
+      <c r="BF24" s="53"/>
+      <c r="BG24" s="58"/>
+      <c r="BH24" s="58"/>
+      <c r="BI24" s="58"/>
+      <c r="BJ24" s="58"/>
+      <c r="BK24" s="58"/>
+      <c r="BL24" s="53"/>
+      <c r="BM24" s="53"/>
+      <c r="BN24" s="53"/>
+      <c r="BO24" s="53"/>
+      <c r="BP24" s="59"/>
+      <c r="BQ24" s="36"/>
     </row>
     <row r="25" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A25" s="37"/>
-      <c r="B25" s="38">
+      <c r="A25" s="36"/>
+      <c r="B25" s="37">
         <v>2.6</v>
       </c>
-      <c r="C25" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="D25" s="79" t="s">
-        <v>61</v>
-      </c>
-      <c r="E25" s="40">
+      <c r="C25" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" s="78" t="s">
+        <v>60</v>
+      </c>
+      <c r="E25" s="39">
         <v>885055</v>
       </c>
-      <c r="F25" s="40">
+      <c r="F25" s="39">
         <v>45006</v>
       </c>
-      <c r="G25" s="41">
+      <c r="G25" s="40">
         <v>8</v>
       </c>
-      <c r="H25" s="61">
+      <c r="H25" s="60">
         <v>1</v>
       </c>
-      <c r="I25" s="52"/>
-      <c r="J25" s="53"/>
-      <c r="K25" s="54"/>
-      <c r="L25" s="54"/>
-      <c r="M25" s="54"/>
-      <c r="N25" s="55"/>
-      <c r="O25" s="55"/>
-      <c r="P25" s="55"/>
-      <c r="Q25" s="55"/>
-      <c r="R25" s="55"/>
-      <c r="S25" s="54"/>
-      <c r="T25" s="54"/>
-      <c r="U25" s="54"/>
-      <c r="V25" s="54"/>
-      <c r="W25" s="54"/>
-      <c r="X25" s="54"/>
-      <c r="Y25" s="54"/>
-      <c r="Z25" s="54"/>
-      <c r="AA25" s="54"/>
-      <c r="AB25" s="54"/>
-      <c r="AC25" s="57"/>
-      <c r="AD25" s="57"/>
-      <c r="AE25" s="57"/>
-      <c r="AF25" s="57"/>
-      <c r="AG25" s="57"/>
-      <c r="AH25" s="56"/>
-      <c r="AI25" s="56"/>
-      <c r="AJ25" s="56"/>
-      <c r="AK25" s="56"/>
-      <c r="AL25" s="56"/>
-      <c r="AM25" s="56"/>
-      <c r="AN25" s="56"/>
-      <c r="AO25" s="54"/>
-      <c r="AP25" s="54"/>
-      <c r="AQ25" s="54"/>
-      <c r="AR25" s="58"/>
-      <c r="AS25" s="58"/>
-      <c r="AT25" s="58"/>
-      <c r="AU25" s="58"/>
-      <c r="AV25" s="58"/>
-      <c r="AW25" s="54"/>
-      <c r="AX25" s="54"/>
-      <c r="AY25" s="54"/>
-      <c r="AZ25" s="54"/>
-      <c r="BA25" s="54"/>
-      <c r="BB25" s="54"/>
-      <c r="BC25" s="54"/>
-      <c r="BD25" s="54"/>
-      <c r="BE25" s="54"/>
-      <c r="BF25" s="54"/>
-      <c r="BG25" s="59"/>
-      <c r="BH25" s="59"/>
-      <c r="BI25" s="59"/>
-      <c r="BJ25" s="59"/>
-      <c r="BK25" s="59"/>
-      <c r="BL25" s="54"/>
-      <c r="BM25" s="54"/>
-      <c r="BN25" s="54"/>
-      <c r="BO25" s="54"/>
-      <c r="BP25" s="60"/>
-      <c r="BQ25" s="37"/>
+      <c r="I25" s="51"/>
+      <c r="J25" s="52"/>
+      <c r="K25" s="53"/>
+      <c r="L25" s="53"/>
+      <c r="M25" s="53"/>
+      <c r="N25" s="54"/>
+      <c r="O25" s="54"/>
+      <c r="P25" s="54"/>
+      <c r="Q25" s="54"/>
+      <c r="R25" s="54"/>
+      <c r="S25" s="53"/>
+      <c r="T25" s="53"/>
+      <c r="U25" s="53"/>
+      <c r="V25" s="53"/>
+      <c r="W25" s="53"/>
+      <c r="X25" s="53"/>
+      <c r="Y25" s="53"/>
+      <c r="Z25" s="53"/>
+      <c r="AA25" s="53"/>
+      <c r="AB25" s="53"/>
+      <c r="AC25" s="56"/>
+      <c r="AD25" s="56"/>
+      <c r="AE25" s="56"/>
+      <c r="AF25" s="56"/>
+      <c r="AG25" s="56"/>
+      <c r="AH25" s="55"/>
+      <c r="AI25" s="55"/>
+      <c r="AJ25" s="55"/>
+      <c r="AK25" s="55"/>
+      <c r="AL25" s="55"/>
+      <c r="AM25" s="55"/>
+      <c r="AN25" s="55"/>
+      <c r="AO25" s="53"/>
+      <c r="AP25" s="53"/>
+      <c r="AQ25" s="53"/>
+      <c r="AR25" s="57"/>
+      <c r="AS25" s="57"/>
+      <c r="AT25" s="57"/>
+      <c r="AU25" s="57"/>
+      <c r="AV25" s="57"/>
+      <c r="AW25" s="53"/>
+      <c r="AX25" s="53"/>
+      <c r="AY25" s="53"/>
+      <c r="AZ25" s="53"/>
+      <c r="BA25" s="53"/>
+      <c r="BB25" s="53"/>
+      <c r="BC25" s="53"/>
+      <c r="BD25" s="53"/>
+      <c r="BE25" s="53"/>
+      <c r="BF25" s="53"/>
+      <c r="BG25" s="58"/>
+      <c r="BH25" s="58"/>
+      <c r="BI25" s="58"/>
+      <c r="BJ25" s="58"/>
+      <c r="BK25" s="58"/>
+      <c r="BL25" s="53"/>
+      <c r="BM25" s="53"/>
+      <c r="BN25" s="53"/>
+      <c r="BO25" s="53"/>
+      <c r="BP25" s="59"/>
+      <c r="BQ25" s="36"/>
     </row>
     <row r="26" spans="1:69" ht="30" customHeight="1" outlineLevel="1">
-      <c r="A26" s="37"/>
-      <c r="B26" s="38">
+      <c r="A26" s="36"/>
+      <c r="B26" s="37">
         <v>2.7</v>
       </c>
-      <c r="C26" s="85" t="s">
-        <v>55</v>
-      </c>
-      <c r="D26" s="79" t="s">
-        <v>60</v>
-      </c>
-      <c r="E26" s="40">
+      <c r="C26" s="84" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" s="78" t="s">
+        <v>59</v>
+      </c>
+      <c r="E26" s="39">
         <v>885055</v>
       </c>
-      <c r="F26" s="40">
+      <c r="F26" s="39">
         <v>885063</v>
       </c>
-      <c r="G26" s="41">
+      <c r="G26" s="40">
         <v>9</v>
       </c>
-      <c r="H26" s="61">
+      <c r="H26" s="60">
         <v>1</v>
       </c>
-      <c r="I26" s="52"/>
-      <c r="J26" s="53"/>
-      <c r="K26" s="54"/>
-      <c r="L26" s="54"/>
-      <c r="M26" s="54"/>
-      <c r="N26" s="55"/>
-      <c r="O26" s="55"/>
-      <c r="P26" s="55"/>
-      <c r="Q26" s="55"/>
-      <c r="R26" s="55"/>
-      <c r="S26" s="54"/>
-      <c r="T26" s="54"/>
-      <c r="U26" s="54"/>
-      <c r="V26" s="54"/>
-      <c r="W26" s="54"/>
-      <c r="X26" s="54"/>
-      <c r="Y26" s="54"/>
-      <c r="Z26" s="54"/>
-      <c r="AA26" s="54"/>
-      <c r="AB26" s="54"/>
-      <c r="AC26" s="57"/>
-      <c r="AD26" s="57"/>
-      <c r="AE26" s="57"/>
-      <c r="AF26" s="57"/>
-      <c r="AG26" s="57"/>
-      <c r="AH26" s="56"/>
-      <c r="AI26" s="56"/>
-      <c r="AJ26" s="56"/>
-      <c r="AK26" s="56"/>
-      <c r="AL26" s="56"/>
-      <c r="AM26" s="56"/>
-      <c r="AN26" s="56"/>
-      <c r="AO26" s="56"/>
-      <c r="AP26" s="56"/>
-      <c r="AQ26" s="54"/>
-      <c r="AR26" s="58"/>
-      <c r="AS26" s="58"/>
-      <c r="AT26" s="58"/>
-      <c r="AU26" s="58"/>
-      <c r="AV26" s="58"/>
-      <c r="AW26" s="54"/>
-      <c r="AX26" s="54"/>
-      <c r="AY26" s="54"/>
-      <c r="AZ26" s="54"/>
-      <c r="BA26" s="54"/>
-      <c r="BB26" s="54"/>
-      <c r="BC26" s="54"/>
-      <c r="BD26" s="54"/>
-      <c r="BE26" s="54"/>
-      <c r="BF26" s="54"/>
-      <c r="BG26" s="59"/>
-      <c r="BH26" s="59"/>
-      <c r="BI26" s="59"/>
-      <c r="BJ26" s="59"/>
-      <c r="BK26" s="59"/>
-      <c r="BL26" s="54"/>
-      <c r="BM26" s="54"/>
-      <c r="BN26" s="54"/>
-      <c r="BO26" s="54"/>
-      <c r="BP26" s="60"/>
-      <c r="BQ26" s="37"/>
+      <c r="I26" s="51"/>
+      <c r="J26" s="52"/>
+      <c r="K26" s="53"/>
+      <c r="L26" s="53"/>
+      <c r="M26" s="53"/>
+      <c r="N26" s="54"/>
+      <c r="O26" s="54"/>
+      <c r="P26" s="54"/>
+      <c r="Q26" s="54"/>
+      <c r="R26" s="54"/>
+      <c r="S26" s="53"/>
+      <c r="T26" s="53"/>
+      <c r="U26" s="53"/>
+      <c r="V26" s="53"/>
+      <c r="W26" s="53"/>
+      <c r="X26" s="53"/>
+      <c r="Y26" s="53"/>
+      <c r="Z26" s="53"/>
+      <c r="AA26" s="53"/>
+      <c r="AB26" s="53"/>
+      <c r="AC26" s="56"/>
+      <c r="AD26" s="56"/>
+      <c r="AE26" s="56"/>
+      <c r="AF26" s="56"/>
+      <c r="AG26" s="56"/>
+      <c r="AH26" s="55"/>
+      <c r="AI26" s="55"/>
+      <c r="AJ26" s="55"/>
+      <c r="AK26" s="55"/>
+      <c r="AL26" s="55"/>
+      <c r="AM26" s="55"/>
+      <c r="AN26" s="55"/>
+      <c r="AO26" s="55"/>
+      <c r="AP26" s="55"/>
+      <c r="AQ26" s="53"/>
+      <c r="AR26" s="57"/>
+      <c r="AS26" s="57"/>
+      <c r="AT26" s="57"/>
+      <c r="AU26" s="57"/>
+      <c r="AV26" s="57"/>
+      <c r="AW26" s="53"/>
+      <c r="AX26" s="53"/>
+      <c r="AY26" s="53"/>
+      <c r="AZ26" s="53"/>
+      <c r="BA26" s="53"/>
+      <c r="BB26" s="53"/>
+      <c r="BC26" s="53"/>
+      <c r="BD26" s="53"/>
+      <c r="BE26" s="53"/>
+      <c r="BF26" s="53"/>
+      <c r="BG26" s="58"/>
+      <c r="BH26" s="58"/>
+      <c r="BI26" s="58"/>
+      <c r="BJ26" s="58"/>
+      <c r="BK26" s="58"/>
+      <c r="BL26" s="53"/>
+      <c r="BM26" s="53"/>
+      <c r="BN26" s="53"/>
+      <c r="BO26" s="53"/>
+      <c r="BP26" s="59"/>
+      <c r="BQ26" s="36"/>
     </row>
     <row r="27" spans="1:69" ht="21" customHeight="1">
       <c r="A27" s="21"/>
       <c r="B27" s="31">
         <v>3</v>
       </c>
-      <c r="C27" s="84" t="s">
-        <v>59</v>
-      </c>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="34"/>
-      <c r="J27" s="35"/>
-      <c r="K27" s="36"/>
-      <c r="L27" s="36"/>
-      <c r="M27" s="34"/>
-      <c r="N27" s="34"/>
-      <c r="O27" s="34"/>
-      <c r="P27" s="34"/>
-      <c r="Q27" s="34"/>
-      <c r="R27" s="34"/>
-      <c r="S27" s="34"/>
-      <c r="T27" s="34"/>
-      <c r="U27" s="34"/>
-      <c r="V27" s="34"/>
-      <c r="W27" s="34"/>
-      <c r="X27" s="34"/>
-      <c r="Y27" s="34"/>
-      <c r="Z27" s="34"/>
-      <c r="AA27" s="34"/>
-      <c r="AB27" s="34"/>
-      <c r="AC27" s="34"/>
-      <c r="AD27" s="34"/>
-      <c r="AE27" s="34"/>
-      <c r="AF27" s="34"/>
-      <c r="AG27" s="34"/>
-      <c r="AH27" s="34"/>
-      <c r="AI27" s="34"/>
-      <c r="AJ27" s="34"/>
-      <c r="AK27" s="34"/>
-      <c r="AL27" s="34"/>
-      <c r="AM27" s="34"/>
-      <c r="AN27" s="34"/>
-      <c r="AO27" s="34"/>
-      <c r="AP27" s="34"/>
-      <c r="AQ27" s="34"/>
-      <c r="AR27" s="34"/>
-      <c r="AS27" s="34"/>
-      <c r="AT27" s="34"/>
-      <c r="AU27" s="34"/>
-      <c r="AV27" s="34"/>
-      <c r="AW27" s="34"/>
-      <c r="AX27" s="34"/>
-      <c r="AY27" s="34"/>
-      <c r="AZ27" s="34"/>
-      <c r="BA27" s="34"/>
-      <c r="BB27" s="34"/>
-      <c r="BC27" s="34"/>
-      <c r="BD27" s="34"/>
-      <c r="BE27" s="34"/>
-      <c r="BF27" s="34"/>
-      <c r="BG27" s="34"/>
-      <c r="BH27" s="34"/>
-      <c r="BI27" s="34"/>
-      <c r="BJ27" s="34"/>
-      <c r="BK27" s="34"/>
-      <c r="BL27" s="34"/>
-      <c r="BM27" s="34"/>
-      <c r="BN27" s="34"/>
-      <c r="BO27" s="34"/>
-      <c r="BP27" s="34"/>
+      <c r="C27" s="96" t="s">
+        <v>102</v>
+      </c>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="34"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="35"/>
+      <c r="M27" s="33"/>
+      <c r="N27" s="33"/>
+      <c r="O27" s="33"/>
+      <c r="P27" s="33"/>
+      <c r="Q27" s="33"/>
+      <c r="R27" s="33"/>
+      <c r="S27" s="33"/>
+      <c r="T27" s="33"/>
+      <c r="U27" s="33"/>
+      <c r="V27" s="33"/>
+      <c r="W27" s="33"/>
+      <c r="X27" s="33"/>
+      <c r="Y27" s="33"/>
+      <c r="Z27" s="33"/>
+      <c r="AA27" s="33"/>
+      <c r="AB27" s="33"/>
+      <c r="AC27" s="33"/>
+      <c r="AD27" s="33"/>
+      <c r="AE27" s="33"/>
+      <c r="AF27" s="33"/>
+      <c r="AG27" s="33"/>
+      <c r="AH27" s="33"/>
+      <c r="AI27" s="33"/>
+      <c r="AJ27" s="33"/>
+      <c r="AK27" s="33"/>
+      <c r="AL27" s="33"/>
+      <c r="AM27" s="33"/>
+      <c r="AN27" s="33"/>
+      <c r="AO27" s="33"/>
+      <c r="AP27" s="33"/>
+      <c r="AQ27" s="33"/>
+      <c r="AR27" s="33"/>
+      <c r="AS27" s="33"/>
+      <c r="AT27" s="33"/>
+      <c r="AU27" s="33"/>
+      <c r="AV27" s="33"/>
+      <c r="AW27" s="33"/>
+      <c r="AX27" s="33"/>
+      <c r="AY27" s="33"/>
+      <c r="AZ27" s="33"/>
+      <c r="BA27" s="33"/>
+      <c r="BB27" s="33"/>
+      <c r="BC27" s="33"/>
+      <c r="BD27" s="33"/>
+      <c r="BE27" s="33"/>
+      <c r="BF27" s="33"/>
+      <c r="BG27" s="33"/>
+      <c r="BH27" s="33"/>
+      <c r="BI27" s="33"/>
+      <c r="BJ27" s="33"/>
+      <c r="BK27" s="33"/>
+      <c r="BL27" s="33"/>
+      <c r="BM27" s="33"/>
+      <c r="BN27" s="33"/>
+      <c r="BO27" s="33"/>
+      <c r="BP27" s="33"/>
       <c r="BQ27" s="21"/>
     </row>
     <row r="28" spans="1:69" ht="35.5" customHeight="1" outlineLevel="1">
-      <c r="A28" s="37"/>
-      <c r="B28" s="38">
+      <c r="A28" s="36"/>
+      <c r="B28" s="37">
         <v>3.1</v>
       </c>
-      <c r="C28" s="80" t="s">
-        <v>62</v>
-      </c>
-      <c r="D28" s="78" t="s">
-        <v>43</v>
-      </c>
-      <c r="E28" s="40">
+      <c r="C28" s="79" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" s="77" t="s">
+        <v>42</v>
+      </c>
+      <c r="E28" s="39">
         <v>45005</v>
       </c>
-      <c r="F28" s="40">
+      <c r="F28" s="39">
         <v>45031</v>
       </c>
-      <c r="G28" s="41">
+      <c r="G28" s="40">
         <v>26</v>
       </c>
-      <c r="H28" s="42">
-        <v>0.4</v>
-      </c>
-      <c r="I28" s="43"/>
-      <c r="J28" s="44"/>
-      <c r="K28" s="45"/>
-      <c r="L28" s="45"/>
-      <c r="M28" s="45"/>
-      <c r="N28" s="55"/>
-      <c r="O28" s="55"/>
-      <c r="P28" s="55"/>
-      <c r="Q28" s="55"/>
-      <c r="R28" s="55"/>
-      <c r="S28" s="45"/>
-      <c r="T28" s="45"/>
-      <c r="U28" s="45"/>
-      <c r="V28" s="45"/>
-      <c r="W28" s="45"/>
-      <c r="X28" s="45"/>
-      <c r="Y28" s="45"/>
-      <c r="Z28" s="45"/>
-      <c r="AA28" s="45"/>
-      <c r="AB28" s="45"/>
-      <c r="AC28" s="48"/>
-      <c r="AD28" s="48"/>
-      <c r="AE28" s="48"/>
-      <c r="AF28" s="48"/>
-      <c r="AG28" s="48"/>
-      <c r="AH28" s="45"/>
-      <c r="AI28" s="45"/>
-      <c r="AJ28" s="45"/>
-      <c r="AK28" s="45"/>
-      <c r="AL28" s="45"/>
-      <c r="AM28" s="45"/>
-      <c r="AN28" s="45"/>
-      <c r="AO28" s="45"/>
-      <c r="AP28" s="45"/>
-      <c r="AQ28" s="45"/>
-      <c r="AR28" s="49"/>
-      <c r="AS28" s="49"/>
-      <c r="AT28" s="49"/>
-      <c r="AU28" s="49"/>
-      <c r="AV28" s="49"/>
-      <c r="AW28" s="45"/>
-      <c r="AX28" s="45"/>
-      <c r="AY28" s="45"/>
-      <c r="AZ28" s="45"/>
-      <c r="BA28" s="45"/>
-      <c r="BB28" s="45"/>
-      <c r="BC28" s="45"/>
-      <c r="BD28" s="45"/>
-      <c r="BE28" s="45"/>
-      <c r="BF28" s="45"/>
-      <c r="BG28" s="50"/>
-      <c r="BH28" s="50"/>
-      <c r="BI28" s="50"/>
-      <c r="BJ28" s="50"/>
-      <c r="BK28" s="50"/>
-      <c r="BL28" s="45"/>
-      <c r="BM28" s="45"/>
-      <c r="BN28" s="45"/>
-      <c r="BO28" s="45"/>
-      <c r="BP28" s="51"/>
-      <c r="BQ28" s="37"/>
+      <c r="H28" s="41">
+        <v>0.6</v>
+      </c>
+      <c r="I28" s="42"/>
+      <c r="J28" s="43"/>
+      <c r="K28" s="44"/>
+      <c r="L28" s="44"/>
+      <c r="M28" s="44"/>
+      <c r="N28" s="54"/>
+      <c r="O28" s="54"/>
+      <c r="P28" s="54"/>
+      <c r="Q28" s="54"/>
+      <c r="R28" s="54"/>
+      <c r="S28" s="44"/>
+      <c r="T28" s="44"/>
+      <c r="U28" s="44"/>
+      <c r="V28" s="44"/>
+      <c r="W28" s="44"/>
+      <c r="X28" s="44"/>
+      <c r="Y28" s="44"/>
+      <c r="Z28" s="44"/>
+      <c r="AA28" s="44"/>
+      <c r="AB28" s="44"/>
+      <c r="AC28" s="47"/>
+      <c r="AD28" s="47"/>
+      <c r="AE28" s="47"/>
+      <c r="AF28" s="47"/>
+      <c r="AG28" s="47"/>
+      <c r="AH28" s="44"/>
+      <c r="AI28" s="44"/>
+      <c r="AJ28" s="44"/>
+      <c r="AK28" s="44"/>
+      <c r="AL28" s="44"/>
+      <c r="AM28" s="44"/>
+      <c r="AN28" s="44"/>
+      <c r="AO28" s="44"/>
+      <c r="AP28" s="44"/>
+      <c r="AQ28" s="44"/>
+      <c r="AR28" s="48"/>
+      <c r="AS28" s="48"/>
+      <c r="AT28" s="48"/>
+      <c r="AU28" s="48"/>
+      <c r="AV28" s="48"/>
+      <c r="AW28" s="44"/>
+      <c r="AX28" s="44"/>
+      <c r="AY28" s="44"/>
+      <c r="AZ28" s="44"/>
+      <c r="BA28" s="44"/>
+      <c r="BB28" s="44"/>
+      <c r="BC28" s="44"/>
+      <c r="BD28" s="44"/>
+      <c r="BE28" s="44"/>
+      <c r="BF28" s="44"/>
+      <c r="BG28" s="49"/>
+      <c r="BH28" s="49"/>
+      <c r="BI28" s="49"/>
+      <c r="BJ28" s="49"/>
+      <c r="BK28" s="49"/>
+      <c r="BL28" s="44"/>
+      <c r="BM28" s="44"/>
+      <c r="BN28" s="44"/>
+      <c r="BO28" s="44"/>
+      <c r="BP28" s="50"/>
+      <c r="BQ28" s="36"/>
     </row>
     <row r="29" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A29" s="37"/>
-      <c r="B29" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="C29" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="D29" s="79" t="s">
-        <v>43</v>
-      </c>
-      <c r="E29" s="40">
+      <c r="A29" s="36"/>
+      <c r="B29" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29" s="79" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" s="78" t="s">
+        <v>42</v>
+      </c>
+      <c r="E29" s="39">
         <v>45012</v>
       </c>
-      <c r="F29" s="40">
+      <c r="F29" s="39">
         <v>45025</v>
       </c>
-      <c r="G29" s="41">
+      <c r="G29" s="40">
         <v>14</v>
       </c>
-      <c r="H29" s="42">
-        <v>0.7</v>
-      </c>
-      <c r="I29" s="52"/>
-      <c r="J29" s="53"/>
-      <c r="K29" s="54"/>
-      <c r="L29" s="54"/>
-      <c r="M29" s="54"/>
-      <c r="N29" s="55"/>
-      <c r="O29" s="55"/>
-      <c r="P29" s="55"/>
-      <c r="Q29" s="55"/>
-      <c r="R29" s="55"/>
-      <c r="S29" s="45"/>
-      <c r="T29" s="45"/>
-      <c r="U29" s="45"/>
-      <c r="V29" s="45"/>
-      <c r="W29" s="54"/>
-      <c r="X29" s="54"/>
-      <c r="Y29" s="54"/>
-      <c r="Z29" s="54"/>
-      <c r="AA29" s="54"/>
-      <c r="AB29" s="54"/>
-      <c r="AC29" s="57"/>
-      <c r="AD29" s="57"/>
-      <c r="AE29" s="57"/>
-      <c r="AF29" s="57"/>
-      <c r="AG29" s="57"/>
-      <c r="AH29" s="54"/>
-      <c r="AI29" s="54"/>
-      <c r="AJ29" s="54"/>
-      <c r="AK29" s="54"/>
-      <c r="AL29" s="54"/>
-      <c r="AM29" s="54"/>
-      <c r="AN29" s="54"/>
-      <c r="AO29" s="54"/>
-      <c r="AP29" s="54"/>
-      <c r="AQ29" s="54"/>
-      <c r="AR29" s="58"/>
-      <c r="AS29" s="58"/>
-      <c r="AT29" s="58"/>
-      <c r="AU29" s="58"/>
-      <c r="AV29" s="58"/>
-      <c r="AW29" s="54"/>
-      <c r="AX29" s="54"/>
-      <c r="AY29" s="54"/>
-      <c r="AZ29" s="54"/>
-      <c r="BA29" s="54"/>
-      <c r="BB29" s="54"/>
-      <c r="BC29" s="54"/>
-      <c r="BD29" s="54"/>
-      <c r="BE29" s="54"/>
-      <c r="BF29" s="54"/>
-      <c r="BG29" s="59"/>
-      <c r="BH29" s="59"/>
-      <c r="BI29" s="59"/>
-      <c r="BJ29" s="59"/>
-      <c r="BK29" s="59"/>
-      <c r="BL29" s="54"/>
-      <c r="BM29" s="54"/>
-      <c r="BN29" s="54"/>
-      <c r="BO29" s="54"/>
-      <c r="BP29" s="60"/>
-      <c r="BQ29" s="37"/>
+      <c r="H29" s="41">
+        <v>1</v>
+      </c>
+      <c r="I29" s="51"/>
+      <c r="J29" s="52"/>
+      <c r="K29" s="53"/>
+      <c r="L29" s="53"/>
+      <c r="M29" s="53"/>
+      <c r="N29" s="54"/>
+      <c r="O29" s="54"/>
+      <c r="P29" s="54"/>
+      <c r="Q29" s="54"/>
+      <c r="R29" s="54"/>
+      <c r="S29" s="44"/>
+      <c r="T29" s="44"/>
+      <c r="U29" s="44"/>
+      <c r="V29" s="44"/>
+      <c r="W29" s="53"/>
+      <c r="X29" s="53"/>
+      <c r="Y29" s="53"/>
+      <c r="Z29" s="53"/>
+      <c r="AA29" s="53"/>
+      <c r="AB29" s="53"/>
+      <c r="AC29" s="56"/>
+      <c r="AD29" s="56"/>
+      <c r="AE29" s="56"/>
+      <c r="AF29" s="56"/>
+      <c r="AG29" s="56"/>
+      <c r="AH29" s="53"/>
+      <c r="AI29" s="53"/>
+      <c r="AJ29" s="53"/>
+      <c r="AK29" s="53"/>
+      <c r="AL29" s="53"/>
+      <c r="AM29" s="53"/>
+      <c r="AN29" s="53"/>
+      <c r="AO29" s="53"/>
+      <c r="AP29" s="53"/>
+      <c r="AQ29" s="53"/>
+      <c r="AR29" s="57"/>
+      <c r="AS29" s="57"/>
+      <c r="AT29" s="57"/>
+      <c r="AU29" s="57"/>
+      <c r="AV29" s="57"/>
+      <c r="AW29" s="53"/>
+      <c r="AX29" s="53"/>
+      <c r="AY29" s="53"/>
+      <c r="AZ29" s="53"/>
+      <c r="BA29" s="53"/>
+      <c r="BB29" s="53"/>
+      <c r="BC29" s="53"/>
+      <c r="BD29" s="53"/>
+      <c r="BE29" s="53"/>
+      <c r="BF29" s="53"/>
+      <c r="BG29" s="58"/>
+      <c r="BH29" s="58"/>
+      <c r="BI29" s="58"/>
+      <c r="BJ29" s="58"/>
+      <c r="BK29" s="58"/>
+      <c r="BL29" s="53"/>
+      <c r="BM29" s="53"/>
+      <c r="BN29" s="53"/>
+      <c r="BO29" s="53"/>
+      <c r="BP29" s="59"/>
+      <c r="BQ29" s="36"/>
     </row>
     <row r="30" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A30" s="37"/>
-      <c r="B30" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="C30" s="80" t="s">
+      <c r="A30" s="36"/>
+      <c r="B30" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="C30" s="79" t="s">
+        <v>78</v>
+      </c>
+      <c r="D30" s="78" t="s">
         <v>79</v>
       </c>
-      <c r="D30" s="79" t="s">
-        <v>80</v>
-      </c>
-      <c r="E30" s="40">
+      <c r="E30" s="39">
         <v>45012</v>
       </c>
-      <c r="F30" s="40">
+      <c r="F30" s="39">
         <v>45018</v>
       </c>
-      <c r="G30" s="41">
+      <c r="G30" s="40">
         <v>6</v>
       </c>
-      <c r="H30" s="42">
-        <v>0.8</v>
-      </c>
-      <c r="I30" s="52"/>
-      <c r="J30" s="53"/>
-      <c r="K30" s="54"/>
-      <c r="L30" s="54"/>
-      <c r="M30" s="54"/>
-      <c r="N30" s="55"/>
-      <c r="O30" s="55"/>
-      <c r="P30" s="55"/>
-      <c r="Q30" s="55"/>
-      <c r="R30" s="55"/>
-      <c r="S30" s="45"/>
-      <c r="T30" s="45"/>
-      <c r="U30" s="45"/>
-      <c r="V30" s="45"/>
-      <c r="W30" s="54"/>
-      <c r="X30" s="54"/>
-      <c r="Y30" s="54"/>
-      <c r="Z30" s="54"/>
-      <c r="AA30" s="54"/>
-      <c r="AB30" s="54"/>
-      <c r="AC30" s="57"/>
-      <c r="AD30" s="57"/>
-      <c r="AE30" s="57"/>
-      <c r="AF30" s="57"/>
-      <c r="AG30" s="57"/>
-      <c r="AH30" s="54"/>
-      <c r="AI30" s="54"/>
-      <c r="AJ30" s="54"/>
-      <c r="AK30" s="54"/>
-      <c r="AL30" s="54"/>
-      <c r="AM30" s="54"/>
-      <c r="AN30" s="54"/>
-      <c r="AO30" s="54"/>
-      <c r="AP30" s="54"/>
-      <c r="AQ30" s="54"/>
-      <c r="AR30" s="58"/>
-      <c r="AS30" s="58"/>
-      <c r="AT30" s="58"/>
-      <c r="AU30" s="58"/>
-      <c r="AV30" s="58"/>
-      <c r="AW30" s="54"/>
-      <c r="AX30" s="54"/>
-      <c r="AY30" s="54"/>
-      <c r="AZ30" s="54"/>
-      <c r="BA30" s="54"/>
-      <c r="BB30" s="54"/>
-      <c r="BC30" s="54"/>
-      <c r="BD30" s="54"/>
-      <c r="BE30" s="54"/>
-      <c r="BF30" s="54"/>
-      <c r="BG30" s="59"/>
-      <c r="BH30" s="59"/>
-      <c r="BI30" s="59"/>
-      <c r="BJ30" s="59"/>
-      <c r="BK30" s="59"/>
-      <c r="BL30" s="54"/>
-      <c r="BM30" s="54"/>
-      <c r="BN30" s="54"/>
-      <c r="BO30" s="54"/>
-      <c r="BP30" s="60"/>
-      <c r="BQ30" s="37"/>
+      <c r="H30" s="41">
+        <v>1</v>
+      </c>
+      <c r="I30" s="51"/>
+      <c r="J30" s="52"/>
+      <c r="K30" s="53"/>
+      <c r="L30" s="53"/>
+      <c r="M30" s="53"/>
+      <c r="N30" s="54"/>
+      <c r="O30" s="54"/>
+      <c r="P30" s="54"/>
+      <c r="Q30" s="54"/>
+      <c r="R30" s="54"/>
+      <c r="S30" s="44"/>
+      <c r="T30" s="44"/>
+      <c r="U30" s="44"/>
+      <c r="V30" s="44"/>
+      <c r="W30" s="53"/>
+      <c r="X30" s="53"/>
+      <c r="Y30" s="53"/>
+      <c r="Z30" s="53"/>
+      <c r="AA30" s="53"/>
+      <c r="AB30" s="53"/>
+      <c r="AC30" s="56"/>
+      <c r="AD30" s="56"/>
+      <c r="AE30" s="56"/>
+      <c r="AF30" s="56"/>
+      <c r="AG30" s="56"/>
+      <c r="AH30" s="53"/>
+      <c r="AI30" s="53"/>
+      <c r="AJ30" s="53"/>
+      <c r="AK30" s="53"/>
+      <c r="AL30" s="53"/>
+      <c r="AM30" s="53"/>
+      <c r="AN30" s="53"/>
+      <c r="AO30" s="53"/>
+      <c r="AP30" s="53"/>
+      <c r="AQ30" s="53"/>
+      <c r="AR30" s="57"/>
+      <c r="AS30" s="57"/>
+      <c r="AT30" s="57"/>
+      <c r="AU30" s="57"/>
+      <c r="AV30" s="57"/>
+      <c r="AW30" s="53"/>
+      <c r="AX30" s="53"/>
+      <c r="AY30" s="53"/>
+      <c r="AZ30" s="53"/>
+      <c r="BA30" s="53"/>
+      <c r="BB30" s="53"/>
+      <c r="BC30" s="53"/>
+      <c r="BD30" s="53"/>
+      <c r="BE30" s="53"/>
+      <c r="BF30" s="53"/>
+      <c r="BG30" s="58"/>
+      <c r="BH30" s="58"/>
+      <c r="BI30" s="58"/>
+      <c r="BJ30" s="58"/>
+      <c r="BK30" s="58"/>
+      <c r="BL30" s="53"/>
+      <c r="BM30" s="53"/>
+      <c r="BN30" s="53"/>
+      <c r="BO30" s="53"/>
+      <c r="BP30" s="59"/>
+      <c r="BQ30" s="36"/>
     </row>
     <row r="31" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A31" s="37"/>
-      <c r="B31" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="C31" s="87" t="s">
-        <v>75</v>
-      </c>
-      <c r="D31" s="79" t="s">
-        <v>43</v>
-      </c>
-      <c r="E31" s="40">
+      <c r="A31" s="36"/>
+      <c r="B31" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="C31" s="86" t="s">
+        <v>74</v>
+      </c>
+      <c r="D31" s="78" t="s">
+        <v>42</v>
+      </c>
+      <c r="E31" s="39">
         <v>45012</v>
       </c>
-      <c r="F31" s="40">
+      <c r="F31" s="39">
         <v>45027</v>
       </c>
-      <c r="G31" s="41">
+      <c r="G31" s="40">
         <v>15</v>
       </c>
-      <c r="H31" s="42">
-        <v>0.1</v>
-      </c>
-      <c r="I31" s="52"/>
-      <c r="J31" s="53"/>
-      <c r="K31" s="54"/>
-      <c r="L31" s="54"/>
-      <c r="M31" s="54"/>
-      <c r="N31" s="55"/>
-      <c r="O31" s="55"/>
-      <c r="P31" s="55"/>
-      <c r="Q31" s="55"/>
-      <c r="R31" s="55"/>
-      <c r="S31" s="45"/>
-      <c r="T31" s="45"/>
-      <c r="U31" s="45"/>
-      <c r="V31" s="45"/>
-      <c r="W31" s="54"/>
-      <c r="X31" s="54"/>
-      <c r="Y31" s="54"/>
-      <c r="Z31" s="54"/>
-      <c r="AA31" s="54"/>
-      <c r="AB31" s="54"/>
-      <c r="AC31" s="57"/>
-      <c r="AD31" s="57"/>
-      <c r="AE31" s="57"/>
-      <c r="AF31" s="57"/>
-      <c r="AG31" s="57"/>
-      <c r="AH31" s="54"/>
-      <c r="AI31" s="54"/>
-      <c r="AJ31" s="54"/>
-      <c r="AK31" s="54"/>
-      <c r="AL31" s="54"/>
-      <c r="AM31" s="54"/>
-      <c r="AN31" s="54"/>
-      <c r="AO31" s="54"/>
-      <c r="AP31" s="54"/>
-      <c r="AQ31" s="54"/>
-      <c r="AR31" s="58"/>
-      <c r="AS31" s="58"/>
-      <c r="AT31" s="58"/>
-      <c r="AU31" s="58"/>
-      <c r="AV31" s="58"/>
-      <c r="AW31" s="54"/>
-      <c r="AX31" s="54"/>
-      <c r="AY31" s="54"/>
-      <c r="AZ31" s="54"/>
-      <c r="BA31" s="54"/>
-      <c r="BB31" s="54"/>
-      <c r="BC31" s="54"/>
-      <c r="BD31" s="54"/>
-      <c r="BE31" s="54"/>
-      <c r="BF31" s="54"/>
-      <c r="BG31" s="59"/>
-      <c r="BH31" s="59"/>
-      <c r="BI31" s="59"/>
-      <c r="BJ31" s="59"/>
-      <c r="BK31" s="59"/>
-      <c r="BL31" s="54"/>
-      <c r="BM31" s="54"/>
-      <c r="BN31" s="54"/>
-      <c r="BO31" s="54"/>
-      <c r="BP31" s="60"/>
-      <c r="BQ31" s="37"/>
+      <c r="H31" s="41">
+        <v>0.6</v>
+      </c>
+      <c r="I31" s="51"/>
+      <c r="J31" s="52"/>
+      <c r="K31" s="53"/>
+      <c r="L31" s="53"/>
+      <c r="M31" s="53"/>
+      <c r="N31" s="54"/>
+      <c r="O31" s="54"/>
+      <c r="P31" s="54"/>
+      <c r="Q31" s="54"/>
+      <c r="R31" s="54"/>
+      <c r="S31" s="44"/>
+      <c r="T31" s="44"/>
+      <c r="U31" s="44"/>
+      <c r="V31" s="44"/>
+      <c r="W31" s="53"/>
+      <c r="X31" s="53"/>
+      <c r="Y31" s="53"/>
+      <c r="Z31" s="53"/>
+      <c r="AA31" s="53"/>
+      <c r="AB31" s="53"/>
+      <c r="AC31" s="56"/>
+      <c r="AD31" s="56"/>
+      <c r="AE31" s="56"/>
+      <c r="AF31" s="56"/>
+      <c r="AG31" s="56"/>
+      <c r="AH31" s="53"/>
+      <c r="AI31" s="53"/>
+      <c r="AJ31" s="53"/>
+      <c r="AK31" s="53"/>
+      <c r="AL31" s="53"/>
+      <c r="AM31" s="53"/>
+      <c r="AN31" s="53"/>
+      <c r="AO31" s="53"/>
+      <c r="AP31" s="53"/>
+      <c r="AQ31" s="53"/>
+      <c r="AR31" s="57"/>
+      <c r="AS31" s="57"/>
+      <c r="AT31" s="57"/>
+      <c r="AU31" s="57"/>
+      <c r="AV31" s="57"/>
+      <c r="AW31" s="53"/>
+      <c r="AX31" s="53"/>
+      <c r="AY31" s="53"/>
+      <c r="AZ31" s="53"/>
+      <c r="BA31" s="53"/>
+      <c r="BB31" s="53"/>
+      <c r="BC31" s="53"/>
+      <c r="BD31" s="53"/>
+      <c r="BE31" s="53"/>
+      <c r="BF31" s="53"/>
+      <c r="BG31" s="58"/>
+      <c r="BH31" s="58"/>
+      <c r="BI31" s="58"/>
+      <c r="BJ31" s="58"/>
+      <c r="BK31" s="58"/>
+      <c r="BL31" s="53"/>
+      <c r="BM31" s="53"/>
+      <c r="BN31" s="53"/>
+      <c r="BO31" s="53"/>
+      <c r="BP31" s="59"/>
+      <c r="BQ31" s="36"/>
     </row>
     <row r="32" spans="1:69" ht="27.5" customHeight="1" outlineLevel="1">
-      <c r="A32" s="37"/>
-      <c r="B32" s="38">
+      <c r="A32" s="36"/>
+      <c r="B32" s="37">
         <v>3.2</v>
       </c>
-      <c r="C32" s="85" t="s">
-        <v>55</v>
-      </c>
-      <c r="D32" s="76" t="s">
-        <v>64</v>
-      </c>
-      <c r="E32" s="40">
+      <c r="C32" s="84" t="s">
+        <v>54</v>
+      </c>
+      <c r="D32" s="75" t="s">
+        <v>63</v>
+      </c>
+      <c r="E32" s="39">
         <v>44998</v>
       </c>
-      <c r="F32" s="40">
+      <c r="F32" s="39">
         <v>45006</v>
       </c>
-      <c r="G32" s="41">
+      <c r="G32" s="40">
         <v>9</v>
       </c>
-      <c r="H32" s="42">
+      <c r="H32" s="41">
         <v>1</v>
       </c>
-      <c r="I32" s="52"/>
-      <c r="J32" s="53"/>
-      <c r="K32" s="54"/>
-      <c r="L32" s="54"/>
-      <c r="M32" s="54"/>
-      <c r="N32" s="55"/>
-      <c r="O32" s="55"/>
-      <c r="P32" s="55"/>
-      <c r="Q32" s="55"/>
-      <c r="R32" s="55"/>
-      <c r="S32" s="54"/>
-      <c r="T32" s="54"/>
-      <c r="U32" s="54"/>
-      <c r="V32" s="54"/>
-      <c r="W32" s="54"/>
-      <c r="X32" s="54"/>
-      <c r="Y32" s="54"/>
-      <c r="Z32" s="54"/>
-      <c r="AA32" s="54"/>
-      <c r="AB32" s="54"/>
-      <c r="AC32" s="57"/>
-      <c r="AD32" s="57"/>
-      <c r="AE32" s="57"/>
-      <c r="AF32" s="57"/>
-      <c r="AG32" s="57"/>
-      <c r="AH32" s="56"/>
-      <c r="AI32" s="56"/>
-      <c r="AJ32" s="56"/>
-      <c r="AK32" s="56"/>
-      <c r="AL32" s="56"/>
-      <c r="AM32" s="56"/>
-      <c r="AN32" s="56"/>
-      <c r="AO32" s="56"/>
-      <c r="AP32" s="56"/>
-      <c r="AQ32" s="54"/>
-      <c r="AR32" s="58"/>
-      <c r="AS32" s="58"/>
-      <c r="AT32" s="58"/>
-      <c r="AU32" s="58"/>
-      <c r="AV32" s="58"/>
-      <c r="AW32" s="54"/>
-      <c r="AX32" s="54"/>
-      <c r="AY32" s="54"/>
-      <c r="AZ32" s="54"/>
-      <c r="BA32" s="54"/>
-      <c r="BB32" s="54"/>
-      <c r="BC32" s="54"/>
-      <c r="BD32" s="54"/>
-      <c r="BE32" s="54"/>
-      <c r="BF32" s="54"/>
-      <c r="BG32" s="59"/>
-      <c r="BH32" s="59"/>
-      <c r="BI32" s="59"/>
-      <c r="BJ32" s="59"/>
-      <c r="BK32" s="59"/>
-      <c r="BL32" s="54"/>
-      <c r="BM32" s="54"/>
-      <c r="BN32" s="54"/>
-      <c r="BO32" s="54"/>
-      <c r="BP32" s="60"/>
-      <c r="BQ32" s="37"/>
+      <c r="I32" s="51"/>
+      <c r="J32" s="52"/>
+      <c r="K32" s="53"/>
+      <c r="L32" s="53"/>
+      <c r="M32" s="53"/>
+      <c r="N32" s="54"/>
+      <c r="O32" s="54"/>
+      <c r="P32" s="54"/>
+      <c r="Q32" s="54"/>
+      <c r="R32" s="54"/>
+      <c r="S32" s="53"/>
+      <c r="T32" s="53"/>
+      <c r="U32" s="53"/>
+      <c r="V32" s="53"/>
+      <c r="W32" s="53"/>
+      <c r="X32" s="53"/>
+      <c r="Y32" s="53"/>
+      <c r="Z32" s="53"/>
+      <c r="AA32" s="53"/>
+      <c r="AB32" s="53"/>
+      <c r="AC32" s="56"/>
+      <c r="AD32" s="56"/>
+      <c r="AE32" s="56"/>
+      <c r="AF32" s="56"/>
+      <c r="AG32" s="56"/>
+      <c r="AH32" s="55"/>
+      <c r="AI32" s="55"/>
+      <c r="AJ32" s="55"/>
+      <c r="AK32" s="55"/>
+      <c r="AL32" s="55"/>
+      <c r="AM32" s="55"/>
+      <c r="AN32" s="55"/>
+      <c r="AO32" s="55"/>
+      <c r="AP32" s="55"/>
+      <c r="AQ32" s="53"/>
+      <c r="AR32" s="57"/>
+      <c r="AS32" s="57"/>
+      <c r="AT32" s="57"/>
+      <c r="AU32" s="57"/>
+      <c r="AV32" s="57"/>
+      <c r="AW32" s="53"/>
+      <c r="AX32" s="53"/>
+      <c r="AY32" s="53"/>
+      <c r="AZ32" s="53"/>
+      <c r="BA32" s="53"/>
+      <c r="BB32" s="53"/>
+      <c r="BC32" s="53"/>
+      <c r="BD32" s="53"/>
+      <c r="BE32" s="53"/>
+      <c r="BF32" s="53"/>
+      <c r="BG32" s="58"/>
+      <c r="BH32" s="58"/>
+      <c r="BI32" s="58"/>
+      <c r="BJ32" s="58"/>
+      <c r="BK32" s="58"/>
+      <c r="BL32" s="53"/>
+      <c r="BM32" s="53"/>
+      <c r="BN32" s="53"/>
+      <c r="BO32" s="53"/>
+      <c r="BP32" s="59"/>
+      <c r="BQ32" s="36"/>
     </row>
     <row r="33" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A33" s="37"/>
-      <c r="B33" s="38" t="s">
+      <c r="A33" s="36"/>
+      <c r="B33" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="C33" s="80" t="s">
+      <c r="C33" s="79" t="s">
+        <v>69</v>
+      </c>
+      <c r="D33" s="78" t="s">
         <v>70</v>
       </c>
-      <c r="D33" s="79" t="s">
-        <v>71</v>
-      </c>
-      <c r="E33" s="40">
+      <c r="E33" s="39">
         <v>45005</v>
       </c>
-      <c r="F33" s="40">
+      <c r="F33" s="39">
         <v>45008</v>
       </c>
-      <c r="G33" s="41">
+      <c r="G33" s="40">
         <v>4</v>
       </c>
-      <c r="H33" s="42">
+      <c r="H33" s="41">
         <v>1</v>
       </c>
-      <c r="I33" s="52"/>
-      <c r="J33" s="53"/>
-      <c r="K33" s="54"/>
-      <c r="L33" s="54"/>
-      <c r="M33" s="54"/>
-      <c r="N33" s="55"/>
-      <c r="O33" s="55"/>
-      <c r="P33" s="55"/>
-      <c r="Q33" s="55"/>
-      <c r="R33" s="55"/>
-      <c r="S33" s="45"/>
-      <c r="T33" s="45"/>
-      <c r="U33" s="45"/>
-      <c r="V33" s="45"/>
-      <c r="W33" s="54"/>
-      <c r="X33" s="54"/>
-      <c r="Y33" s="54"/>
-      <c r="Z33" s="54"/>
-      <c r="AA33" s="54"/>
-      <c r="AB33" s="54"/>
-      <c r="AC33" s="57"/>
-      <c r="AD33" s="57"/>
-      <c r="AE33" s="57"/>
-      <c r="AF33" s="57"/>
-      <c r="AG33" s="57"/>
-      <c r="AH33" s="54"/>
-      <c r="AI33" s="54"/>
-      <c r="AJ33" s="54"/>
-      <c r="AK33" s="54"/>
-      <c r="AL33" s="54"/>
-      <c r="AM33" s="56"/>
-      <c r="AN33" s="56"/>
-      <c r="AO33" s="56"/>
-      <c r="AP33" s="56"/>
-      <c r="AQ33" s="54"/>
-      <c r="AR33" s="58"/>
-      <c r="AS33" s="58"/>
-      <c r="AT33" s="58"/>
-      <c r="AU33" s="58"/>
-      <c r="AV33" s="58"/>
-      <c r="AW33" s="54"/>
-      <c r="AX33" s="54"/>
-      <c r="AY33" s="54"/>
-      <c r="AZ33" s="54"/>
-      <c r="BA33" s="54"/>
-      <c r="BB33" s="54"/>
-      <c r="BC33" s="54"/>
-      <c r="BD33" s="54"/>
-      <c r="BE33" s="54"/>
-      <c r="BF33" s="54"/>
-      <c r="BG33" s="59"/>
-      <c r="BH33" s="59"/>
-      <c r="BI33" s="59"/>
-      <c r="BJ33" s="59"/>
-      <c r="BK33" s="59"/>
-      <c r="BL33" s="54"/>
-      <c r="BM33" s="54"/>
-      <c r="BN33" s="54"/>
-      <c r="BO33" s="54"/>
-      <c r="BP33" s="60"/>
-      <c r="BQ33" s="37"/>
+      <c r="I33" s="51"/>
+      <c r="J33" s="52"/>
+      <c r="K33" s="53"/>
+      <c r="L33" s="53"/>
+      <c r="M33" s="53"/>
+      <c r="N33" s="54"/>
+      <c r="O33" s="54"/>
+      <c r="P33" s="54"/>
+      <c r="Q33" s="54"/>
+      <c r="R33" s="54"/>
+      <c r="S33" s="44"/>
+      <c r="T33" s="44"/>
+      <c r="U33" s="44"/>
+      <c r="V33" s="44"/>
+      <c r="W33" s="53"/>
+      <c r="X33" s="53"/>
+      <c r="Y33" s="53"/>
+      <c r="Z33" s="53"/>
+      <c r="AA33" s="53"/>
+      <c r="AB33" s="53"/>
+      <c r="AC33" s="56"/>
+      <c r="AD33" s="56"/>
+      <c r="AE33" s="56"/>
+      <c r="AF33" s="56"/>
+      <c r="AG33" s="56"/>
+      <c r="AH33" s="53"/>
+      <c r="AI33" s="53"/>
+      <c r="AJ33" s="53"/>
+      <c r="AK33" s="53"/>
+      <c r="AL33" s="53"/>
+      <c r="AM33" s="55"/>
+      <c r="AN33" s="55"/>
+      <c r="AO33" s="55"/>
+      <c r="AP33" s="55"/>
+      <c r="AQ33" s="53"/>
+      <c r="AR33" s="57"/>
+      <c r="AS33" s="57"/>
+      <c r="AT33" s="57"/>
+      <c r="AU33" s="57"/>
+      <c r="AV33" s="57"/>
+      <c r="AW33" s="53"/>
+      <c r="AX33" s="53"/>
+      <c r="AY33" s="53"/>
+      <c r="AZ33" s="53"/>
+      <c r="BA33" s="53"/>
+      <c r="BB33" s="53"/>
+      <c r="BC33" s="53"/>
+      <c r="BD33" s="53"/>
+      <c r="BE33" s="53"/>
+      <c r="BF33" s="53"/>
+      <c r="BG33" s="58"/>
+      <c r="BH33" s="58"/>
+      <c r="BI33" s="58"/>
+      <c r="BJ33" s="58"/>
+      <c r="BK33" s="58"/>
+      <c r="BL33" s="53"/>
+      <c r="BM33" s="53"/>
+      <c r="BN33" s="53"/>
+      <c r="BO33" s="53"/>
+      <c r="BP33" s="59"/>
+      <c r="BQ33" s="36"/>
     </row>
     <row r="34" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A34" s="37"/>
-      <c r="B34" s="38">
+      <c r="A34" s="36"/>
+      <c r="B34" s="37">
         <v>3.3</v>
       </c>
-      <c r="C34" s="80" t="s">
-        <v>63</v>
-      </c>
-      <c r="D34" s="79" t="s">
-        <v>43</v>
-      </c>
-      <c r="E34" s="40">
+      <c r="C34" s="79" t="s">
+        <v>62</v>
+      </c>
+      <c r="D34" s="78" t="s">
+        <v>42</v>
+      </c>
+      <c r="E34" s="39">
         <v>45009</v>
       </c>
-      <c r="F34" s="40">
+      <c r="F34" s="39">
         <v>45009</v>
       </c>
-      <c r="G34" s="41">
+      <c r="G34" s="40">
         <v>1</v>
       </c>
-      <c r="H34" s="42">
-        <v>0</v>
-      </c>
-      <c r="I34" s="52"/>
-      <c r="J34" s="53"/>
-      <c r="K34" s="54"/>
-      <c r="L34" s="54"/>
-      <c r="M34" s="54"/>
-      <c r="N34" s="55"/>
-      <c r="O34" s="55"/>
-      <c r="P34" s="55"/>
-      <c r="Q34" s="55"/>
-      <c r="R34" s="55"/>
-      <c r="S34" s="45"/>
-      <c r="T34" s="45"/>
-      <c r="U34" s="45"/>
-      <c r="V34" s="45"/>
-      <c r="W34" s="54"/>
-      <c r="X34" s="54"/>
-      <c r="Y34" s="54"/>
-      <c r="Z34" s="54"/>
-      <c r="AA34" s="54"/>
-      <c r="AB34" s="54"/>
-      <c r="AC34" s="57"/>
-      <c r="AD34" s="57"/>
-      <c r="AE34" s="57"/>
-      <c r="AF34" s="57"/>
-      <c r="AG34" s="57"/>
-      <c r="AH34" s="54"/>
-      <c r="AI34" s="54"/>
-      <c r="AJ34" s="54"/>
-      <c r="AK34" s="54"/>
-      <c r="AL34" s="54"/>
-      <c r="AM34" s="54"/>
-      <c r="AN34" s="54"/>
-      <c r="AO34" s="54"/>
-      <c r="AP34" s="54"/>
-      <c r="AQ34" s="54"/>
-      <c r="AR34" s="58"/>
-      <c r="AS34" s="58"/>
-      <c r="AT34" s="58"/>
-      <c r="AU34" s="58"/>
-      <c r="AV34" s="58"/>
-      <c r="AW34" s="54"/>
-      <c r="AX34" s="54"/>
-      <c r="AY34" s="54"/>
-      <c r="AZ34" s="54"/>
-      <c r="BA34" s="54"/>
-      <c r="BB34" s="54"/>
-      <c r="BC34" s="54"/>
-      <c r="BD34" s="54"/>
-      <c r="BE34" s="54"/>
-      <c r="BF34" s="54"/>
-      <c r="BG34" s="59"/>
-      <c r="BH34" s="59"/>
-      <c r="BI34" s="59"/>
-      <c r="BJ34" s="59"/>
-      <c r="BK34" s="59"/>
-      <c r="BL34" s="54"/>
-      <c r="BM34" s="54"/>
-      <c r="BN34" s="54"/>
-      <c r="BO34" s="54"/>
-      <c r="BP34" s="60"/>
-      <c r="BQ34" s="37"/>
+      <c r="H34" s="82" t="s">
+        <v>50</v>
+      </c>
+      <c r="I34" s="51"/>
+      <c r="J34" s="52"/>
+      <c r="K34" s="53"/>
+      <c r="L34" s="53"/>
+      <c r="M34" s="53"/>
+      <c r="N34" s="54"/>
+      <c r="O34" s="54"/>
+      <c r="P34" s="54"/>
+      <c r="Q34" s="54"/>
+      <c r="R34" s="54"/>
+      <c r="S34" s="44"/>
+      <c r="T34" s="44"/>
+      <c r="U34" s="44"/>
+      <c r="V34" s="44"/>
+      <c r="W34" s="53"/>
+      <c r="X34" s="53"/>
+      <c r="Y34" s="53"/>
+      <c r="Z34" s="53"/>
+      <c r="AA34" s="53"/>
+      <c r="AB34" s="53"/>
+      <c r="AC34" s="56"/>
+      <c r="AD34" s="56"/>
+      <c r="AE34" s="56"/>
+      <c r="AF34" s="56"/>
+      <c r="AG34" s="56"/>
+      <c r="AH34" s="53"/>
+      <c r="AI34" s="53"/>
+      <c r="AJ34" s="53"/>
+      <c r="AK34" s="53"/>
+      <c r="AL34" s="53"/>
+      <c r="AM34" s="53"/>
+      <c r="AN34" s="53"/>
+      <c r="AO34" s="53"/>
+      <c r="AP34" s="53"/>
+      <c r="AQ34" s="53"/>
+      <c r="AR34" s="57"/>
+      <c r="AS34" s="57"/>
+      <c r="AT34" s="57"/>
+      <c r="AU34" s="57"/>
+      <c r="AV34" s="57"/>
+      <c r="AW34" s="53"/>
+      <c r="AX34" s="53"/>
+      <c r="AY34" s="53"/>
+      <c r="AZ34" s="53"/>
+      <c r="BA34" s="53"/>
+      <c r="BB34" s="53"/>
+      <c r="BC34" s="53"/>
+      <c r="BD34" s="53"/>
+      <c r="BE34" s="53"/>
+      <c r="BF34" s="53"/>
+      <c r="BG34" s="58"/>
+      <c r="BH34" s="58"/>
+      <c r="BI34" s="58"/>
+      <c r="BJ34" s="58"/>
+      <c r="BK34" s="58"/>
+      <c r="BL34" s="53"/>
+      <c r="BM34" s="53"/>
+      <c r="BN34" s="53"/>
+      <c r="BO34" s="53"/>
+      <c r="BP34" s="59"/>
+      <c r="BQ34" s="36"/>
     </row>
     <row r="35" spans="1:69" ht="17" customHeight="1" outlineLevel="1">
-      <c r="A35" s="37"/>
-      <c r="B35" s="38" t="s">
-        <v>72</v>
-      </c>
-      <c r="C35" s="80" t="s">
+      <c r="A35" s="36"/>
+      <c r="B35" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" s="79" t="s">
+        <v>81</v>
+      </c>
+      <c r="D35" s="78" t="s">
         <v>82</v>
       </c>
-      <c r="D35" s="79" t="s">
-        <v>83</v>
-      </c>
-      <c r="E35" s="40">
+      <c r="E35" s="39">
         <v>45009</v>
       </c>
-      <c r="F35" s="40">
+      <c r="F35" s="39">
         <v>45016</v>
       </c>
-      <c r="G35" s="41">
+      <c r="G35" s="40">
         <v>8</v>
       </c>
-      <c r="H35" s="42">
+      <c r="H35" s="41">
         <v>0.65</v>
       </c>
-      <c r="I35" s="52"/>
-      <c r="J35" s="53"/>
-      <c r="K35" s="54"/>
-      <c r="L35" s="54"/>
-      <c r="M35" s="54"/>
-      <c r="N35" s="55"/>
-      <c r="O35" s="55"/>
-      <c r="P35" s="55"/>
-      <c r="Q35" s="55"/>
-      <c r="R35" s="55"/>
-      <c r="S35" s="45"/>
-      <c r="T35" s="45"/>
-      <c r="U35" s="45"/>
-      <c r="V35" s="45"/>
-      <c r="W35" s="54"/>
-      <c r="X35" s="54"/>
-      <c r="Y35" s="54"/>
-      <c r="Z35" s="54"/>
-      <c r="AA35" s="54"/>
-      <c r="AB35" s="54"/>
-      <c r="AC35" s="57"/>
-      <c r="AD35" s="57"/>
-      <c r="AE35" s="57"/>
-      <c r="AF35" s="57"/>
-      <c r="AG35" s="57"/>
-      <c r="AH35" s="54"/>
-      <c r="AI35" s="54"/>
-      <c r="AJ35" s="54"/>
-      <c r="AK35" s="54"/>
-      <c r="AL35" s="54"/>
-      <c r="AM35" s="54"/>
-      <c r="AN35" s="54"/>
-      <c r="AO35" s="54"/>
-      <c r="AP35" s="54"/>
-      <c r="AQ35" s="54"/>
-      <c r="AR35" s="58"/>
-      <c r="AS35" s="58"/>
-      <c r="AT35" s="58"/>
-      <c r="AU35" s="58"/>
-      <c r="AV35" s="58"/>
-      <c r="AW35" s="54"/>
-      <c r="AX35" s="54"/>
-      <c r="AY35" s="54"/>
-      <c r="AZ35" s="54"/>
-      <c r="BA35" s="54"/>
-      <c r="BB35" s="54"/>
-      <c r="BC35" s="54"/>
-      <c r="BD35" s="54"/>
-      <c r="BE35" s="54"/>
-      <c r="BF35" s="54"/>
-      <c r="BG35" s="59"/>
-      <c r="BH35" s="59"/>
-      <c r="BI35" s="59"/>
-      <c r="BJ35" s="59"/>
-      <c r="BK35" s="59"/>
-      <c r="BL35" s="54"/>
-      <c r="BM35" s="54"/>
-      <c r="BN35" s="54"/>
-      <c r="BO35" s="54"/>
-      <c r="BP35" s="60"/>
-      <c r="BQ35" s="37"/>
+      <c r="I35" s="51"/>
+      <c r="J35" s="52"/>
+      <c r="K35" s="53"/>
+      <c r="L35" s="53"/>
+      <c r="M35" s="53"/>
+      <c r="N35" s="54"/>
+      <c r="O35" s="54"/>
+      <c r="P35" s="54"/>
+      <c r="Q35" s="54"/>
+      <c r="R35" s="54"/>
+      <c r="S35" s="44"/>
+      <c r="T35" s="44"/>
+      <c r="U35" s="44"/>
+      <c r="V35" s="44"/>
+      <c r="W35" s="53"/>
+      <c r="X35" s="53"/>
+      <c r="Y35" s="53"/>
+      <c r="Z35" s="53"/>
+      <c r="AA35" s="53"/>
+      <c r="AB35" s="53"/>
+      <c r="AC35" s="56"/>
+      <c r="AD35" s="56"/>
+      <c r="AE35" s="56"/>
+      <c r="AF35" s="56"/>
+      <c r="AG35" s="56"/>
+      <c r="AH35" s="53"/>
+      <c r="AI35" s="53"/>
+      <c r="AJ35" s="53"/>
+      <c r="AK35" s="53"/>
+      <c r="AL35" s="53"/>
+      <c r="AM35" s="53"/>
+      <c r="AN35" s="53"/>
+      <c r="AO35" s="53"/>
+      <c r="AP35" s="53"/>
+      <c r="AQ35" s="53"/>
+      <c r="AR35" s="57"/>
+      <c r="AS35" s="57"/>
+      <c r="AT35" s="57"/>
+      <c r="AU35" s="57"/>
+      <c r="AV35" s="57"/>
+      <c r="AW35" s="53"/>
+      <c r="AX35" s="53"/>
+      <c r="AY35" s="53"/>
+      <c r="AZ35" s="53"/>
+      <c r="BA35" s="53"/>
+      <c r="BB35" s="53"/>
+      <c r="BC35" s="53"/>
+      <c r="BD35" s="53"/>
+      <c r="BE35" s="53"/>
+      <c r="BF35" s="53"/>
+      <c r="BG35" s="58"/>
+      <c r="BH35" s="58"/>
+      <c r="BI35" s="58"/>
+      <c r="BJ35" s="58"/>
+      <c r="BK35" s="58"/>
+      <c r="BL35" s="53"/>
+      <c r="BM35" s="53"/>
+      <c r="BN35" s="53"/>
+      <c r="BO35" s="53"/>
+      <c r="BP35" s="59"/>
+      <c r="BQ35" s="36"/>
     </row>
     <row r="36" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A36" s="37"/>
-      <c r="B36" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="C36" s="86" t="s">
-        <v>65</v>
-      </c>
-      <c r="D36" s="79" t="s">
-        <v>60</v>
-      </c>
-      <c r="E36" s="40">
+      <c r="A36" s="36"/>
+      <c r="B36" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="C36" s="85" t="s">
+        <v>64</v>
+      </c>
+      <c r="D36" s="78" t="s">
+        <v>59</v>
+      </c>
+      <c r="E36" s="39">
         <v>45009</v>
       </c>
-      <c r="F36" s="40">
+      <c r="F36" s="39">
         <v>45026</v>
       </c>
-      <c r="G36" s="41">
+      <c r="G36" s="40">
         <v>15</v>
       </c>
-      <c r="H36" s="61">
+      <c r="H36" s="60">
         <v>0</v>
       </c>
-      <c r="I36" s="52"/>
-      <c r="J36" s="53"/>
-      <c r="K36" s="54"/>
-      <c r="L36" s="54"/>
-      <c r="M36" s="54"/>
-      <c r="N36" s="55"/>
-      <c r="O36" s="55"/>
-      <c r="P36" s="55"/>
-      <c r="Q36" s="55"/>
-      <c r="R36" s="55"/>
-      <c r="S36" s="45"/>
-      <c r="T36" s="45"/>
-      <c r="U36" s="45"/>
-      <c r="V36" s="45"/>
-      <c r="W36" s="54"/>
-      <c r="X36" s="54"/>
-      <c r="Y36" s="54"/>
-      <c r="Z36" s="54"/>
-      <c r="AA36" s="54"/>
-      <c r="AB36" s="54"/>
-      <c r="AC36" s="57"/>
-      <c r="AD36" s="57"/>
-      <c r="AE36" s="57"/>
-      <c r="AF36" s="57"/>
-      <c r="AG36" s="57"/>
-      <c r="AH36" s="54"/>
-      <c r="AI36" s="54"/>
-      <c r="AJ36" s="54"/>
-      <c r="AK36" s="54"/>
-      <c r="AL36" s="54"/>
-      <c r="AM36" s="54"/>
-      <c r="AN36" s="54"/>
-      <c r="AO36" s="54"/>
-      <c r="AP36" s="54"/>
-      <c r="AQ36" s="54"/>
-      <c r="AR36" s="58"/>
-      <c r="AS36" s="58"/>
-      <c r="AT36" s="58"/>
-      <c r="AU36" s="58"/>
-      <c r="AV36" s="58"/>
-      <c r="AW36" s="54"/>
-      <c r="AX36" s="54"/>
-      <c r="AY36" s="54"/>
-      <c r="AZ36" s="54"/>
-      <c r="BA36" s="54"/>
-      <c r="BB36" s="54"/>
-      <c r="BC36" s="54"/>
-      <c r="BD36" s="54"/>
-      <c r="BE36" s="54"/>
-      <c r="BF36" s="54"/>
-      <c r="BG36" s="59"/>
-      <c r="BH36" s="59"/>
-      <c r="BI36" s="59"/>
-      <c r="BJ36" s="59"/>
-      <c r="BK36" s="59"/>
-      <c r="BL36" s="54"/>
-      <c r="BM36" s="54"/>
-      <c r="BN36" s="54"/>
-      <c r="BO36" s="54"/>
-      <c r="BP36" s="60"/>
-      <c r="BQ36" s="37"/>
+      <c r="I36" s="51"/>
+      <c r="J36" s="52"/>
+      <c r="K36" s="53"/>
+      <c r="L36" s="53"/>
+      <c r="M36" s="53"/>
+      <c r="N36" s="54"/>
+      <c r="O36" s="54"/>
+      <c r="P36" s="54"/>
+      <c r="Q36" s="54"/>
+      <c r="R36" s="54"/>
+      <c r="S36" s="44"/>
+      <c r="T36" s="44"/>
+      <c r="U36" s="44"/>
+      <c r="V36" s="44"/>
+      <c r="W36" s="53"/>
+      <c r="X36" s="53"/>
+      <c r="Y36" s="53"/>
+      <c r="Z36" s="53"/>
+      <c r="AA36" s="53"/>
+      <c r="AB36" s="53"/>
+      <c r="AC36" s="56"/>
+      <c r="AD36" s="56"/>
+      <c r="AE36" s="56"/>
+      <c r="AF36" s="56"/>
+      <c r="AG36" s="56"/>
+      <c r="AH36" s="53"/>
+      <c r="AI36" s="53"/>
+      <c r="AJ36" s="53"/>
+      <c r="AK36" s="53"/>
+      <c r="AL36" s="53"/>
+      <c r="AM36" s="53"/>
+      <c r="AN36" s="53"/>
+      <c r="AO36" s="53"/>
+      <c r="AP36" s="53"/>
+      <c r="AQ36" s="53"/>
+      <c r="AR36" s="57"/>
+      <c r="AS36" s="57"/>
+      <c r="AT36" s="57"/>
+      <c r="AU36" s="57"/>
+      <c r="AV36" s="57"/>
+      <c r="AW36" s="53"/>
+      <c r="AX36" s="53"/>
+      <c r="AY36" s="53"/>
+      <c r="AZ36" s="53"/>
+      <c r="BA36" s="53"/>
+      <c r="BB36" s="53"/>
+      <c r="BC36" s="53"/>
+      <c r="BD36" s="53"/>
+      <c r="BE36" s="53"/>
+      <c r="BF36" s="53"/>
+      <c r="BG36" s="58"/>
+      <c r="BH36" s="58"/>
+      <c r="BI36" s="58"/>
+      <c r="BJ36" s="58"/>
+      <c r="BK36" s="58"/>
+      <c r="BL36" s="53"/>
+      <c r="BM36" s="53"/>
+      <c r="BN36" s="53"/>
+      <c r="BO36" s="53"/>
+      <c r="BP36" s="59"/>
+      <c r="BQ36" s="36"/>
     </row>
     <row r="37" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A37" s="37"/>
-      <c r="B37" s="38">
+      <c r="A37" s="36"/>
+      <c r="B37" s="37">
         <v>3.4</v>
       </c>
-      <c r="C37" s="87" t="s">
-        <v>67</v>
-      </c>
-      <c r="D37" s="79" t="s">
-        <v>43</v>
-      </c>
-      <c r="E37" s="40">
+      <c r="C37" s="86" t="s">
+        <v>66</v>
+      </c>
+      <c r="D37" s="78" t="s">
+        <v>42</v>
+      </c>
+      <c r="E37" s="39">
         <v>45012</v>
       </c>
-      <c r="F37" s="40">
+      <c r="F37" s="39">
         <v>45013</v>
       </c>
-      <c r="G37" s="41">
+      <c r="G37" s="40">
         <v>2</v>
       </c>
-      <c r="H37" s="42">
+      <c r="H37" s="41">
         <v>1</v>
       </c>
-      <c r="I37" s="52"/>
-      <c r="J37" s="53"/>
-      <c r="K37" s="54"/>
-      <c r="L37" s="54"/>
-      <c r="M37" s="54"/>
-      <c r="N37" s="55"/>
-      <c r="O37" s="55"/>
-      <c r="P37" s="55"/>
-      <c r="Q37" s="55"/>
-      <c r="R37" s="55"/>
-      <c r="S37" s="45"/>
-      <c r="T37" s="45"/>
-      <c r="U37" s="45"/>
-      <c r="V37" s="45"/>
-      <c r="W37" s="54"/>
-      <c r="X37" s="54"/>
-      <c r="Y37" s="54"/>
-      <c r="Z37" s="54"/>
-      <c r="AA37" s="54"/>
-      <c r="AB37" s="54"/>
-      <c r="AC37" s="57"/>
-      <c r="AD37" s="57"/>
-      <c r="AE37" s="57"/>
-      <c r="AF37" s="57"/>
-      <c r="AG37" s="57"/>
-      <c r="AH37" s="54"/>
-      <c r="AI37" s="54"/>
-      <c r="AJ37" s="54"/>
-      <c r="AK37" s="54"/>
-      <c r="AL37" s="54"/>
-      <c r="AM37" s="54"/>
-      <c r="AN37" s="54"/>
-      <c r="AO37" s="54"/>
-      <c r="AP37" s="54"/>
-      <c r="AQ37" s="54"/>
-      <c r="AR37" s="58"/>
-      <c r="AS37" s="58"/>
-      <c r="AT37" s="58"/>
-      <c r="AU37" s="58"/>
-      <c r="AV37" s="58"/>
-      <c r="AW37" s="54"/>
-      <c r="AX37" s="54"/>
-      <c r="AY37" s="54"/>
-      <c r="AZ37" s="54"/>
-      <c r="BA37" s="54"/>
-      <c r="BB37" s="54"/>
-      <c r="BC37" s="54"/>
-      <c r="BD37" s="54"/>
-      <c r="BE37" s="54"/>
-      <c r="BF37" s="54"/>
-      <c r="BG37" s="59"/>
-      <c r="BH37" s="59"/>
-      <c r="BI37" s="59"/>
-      <c r="BJ37" s="59"/>
-      <c r="BK37" s="59"/>
-      <c r="BL37" s="54"/>
-      <c r="BM37" s="54"/>
-      <c r="BN37" s="54"/>
-      <c r="BO37" s="54"/>
-      <c r="BP37" s="60"/>
-      <c r="BQ37" s="37"/>
+      <c r="I37" s="51"/>
+      <c r="J37" s="52"/>
+      <c r="K37" s="53"/>
+      <c r="L37" s="53"/>
+      <c r="M37" s="53"/>
+      <c r="N37" s="54"/>
+      <c r="O37" s="54"/>
+      <c r="P37" s="54"/>
+      <c r="Q37" s="54"/>
+      <c r="R37" s="54"/>
+      <c r="S37" s="44"/>
+      <c r="T37" s="44"/>
+      <c r="U37" s="44"/>
+      <c r="V37" s="44"/>
+      <c r="W37" s="53"/>
+      <c r="X37" s="53"/>
+      <c r="Y37" s="53"/>
+      <c r="Z37" s="53"/>
+      <c r="AA37" s="53"/>
+      <c r="AB37" s="53"/>
+      <c r="AC37" s="56"/>
+      <c r="AD37" s="56"/>
+      <c r="AE37" s="56"/>
+      <c r="AF37" s="56"/>
+      <c r="AG37" s="56"/>
+      <c r="AH37" s="53"/>
+      <c r="AI37" s="53"/>
+      <c r="AJ37" s="53"/>
+      <c r="AK37" s="53"/>
+      <c r="AL37" s="53"/>
+      <c r="AM37" s="53"/>
+      <c r="AN37" s="53"/>
+      <c r="AO37" s="53"/>
+      <c r="AP37" s="53"/>
+      <c r="AQ37" s="53"/>
+      <c r="AR37" s="57"/>
+      <c r="AS37" s="57"/>
+      <c r="AT37" s="57"/>
+      <c r="AU37" s="57"/>
+      <c r="AV37" s="57"/>
+      <c r="AW37" s="53"/>
+      <c r="AX37" s="53"/>
+      <c r="AY37" s="53"/>
+      <c r="AZ37" s="53"/>
+      <c r="BA37" s="53"/>
+      <c r="BB37" s="53"/>
+      <c r="BC37" s="53"/>
+      <c r="BD37" s="53"/>
+      <c r="BE37" s="53"/>
+      <c r="BF37" s="53"/>
+      <c r="BG37" s="58"/>
+      <c r="BH37" s="58"/>
+      <c r="BI37" s="58"/>
+      <c r="BJ37" s="58"/>
+      <c r="BK37" s="58"/>
+      <c r="BL37" s="53"/>
+      <c r="BM37" s="53"/>
+      <c r="BN37" s="53"/>
+      <c r="BO37" s="53"/>
+      <c r="BP37" s="59"/>
+      <c r="BQ37" s="36"/>
     </row>
     <row r="38" spans="1:69" ht="33" customHeight="1" outlineLevel="1">
-      <c r="A38" s="37"/>
-      <c r="B38" s="38">
+      <c r="A38" s="36"/>
+      <c r="B38" s="37">
         <v>3.5</v>
       </c>
-      <c r="C38" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="D38" s="79" t="s">
-        <v>43</v>
-      </c>
-      <c r="E38" s="40">
+      <c r="C38" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="D38" s="78" t="s">
+        <v>42</v>
+      </c>
+      <c r="E38" s="39">
         <v>45005</v>
       </c>
-      <c r="F38" s="40">
+      <c r="F38" s="39">
         <v>45025</v>
       </c>
-      <c r="G38" s="41">
+      <c r="G38" s="40">
         <v>20</v>
       </c>
-      <c r="H38" s="42">
-        <v>0.5</v>
-      </c>
-      <c r="I38" s="52"/>
-      <c r="J38" s="53"/>
-      <c r="K38" s="54"/>
-      <c r="L38" s="54"/>
-      <c r="M38" s="54"/>
-      <c r="N38" s="55"/>
-      <c r="O38" s="55"/>
-      <c r="P38" s="55"/>
-      <c r="Q38" s="55"/>
-      <c r="R38" s="55"/>
-      <c r="S38" s="45"/>
-      <c r="T38" s="45"/>
-      <c r="U38" s="45"/>
-      <c r="V38" s="45"/>
-      <c r="W38" s="54"/>
-      <c r="X38" s="54"/>
-      <c r="Y38" s="54"/>
-      <c r="Z38" s="54"/>
-      <c r="AA38" s="54"/>
-      <c r="AB38" s="54"/>
-      <c r="AC38" s="57"/>
-      <c r="AD38" s="57"/>
-      <c r="AE38" s="57"/>
-      <c r="AF38" s="57"/>
-      <c r="AG38" s="57"/>
-      <c r="AH38" s="54"/>
-      <c r="AI38" s="54"/>
-      <c r="AJ38" s="54"/>
-      <c r="AK38" s="54"/>
-      <c r="AL38" s="54"/>
-      <c r="AM38" s="54"/>
-      <c r="AN38" s="54"/>
-      <c r="AO38" s="56"/>
-      <c r="AP38" s="56"/>
-      <c r="AQ38" s="54"/>
-      <c r="AR38" s="58"/>
-      <c r="AS38" s="58"/>
-      <c r="AT38" s="58"/>
-      <c r="AU38" s="58"/>
-      <c r="AV38" s="58"/>
-      <c r="AW38" s="54"/>
-      <c r="AX38" s="54"/>
-      <c r="AY38" s="54"/>
-      <c r="AZ38" s="54"/>
-      <c r="BA38" s="54"/>
-      <c r="BB38" s="54"/>
-      <c r="BC38" s="54"/>
-      <c r="BD38" s="54"/>
-      <c r="BE38" s="54"/>
-      <c r="BF38" s="54"/>
-      <c r="BG38" s="59"/>
-      <c r="BH38" s="59"/>
-      <c r="BI38" s="59"/>
-      <c r="BJ38" s="59"/>
-      <c r="BK38" s="59"/>
-      <c r="BL38" s="54"/>
-      <c r="BM38" s="54"/>
-      <c r="BN38" s="54"/>
-      <c r="BO38" s="54"/>
-      <c r="BP38" s="60"/>
-      <c r="BQ38" s="37"/>
+      <c r="H38" s="41">
+        <v>0.7</v>
+      </c>
+      <c r="I38" s="51"/>
+      <c r="J38" s="52"/>
+      <c r="K38" s="53"/>
+      <c r="L38" s="53"/>
+      <c r="M38" s="53"/>
+      <c r="N38" s="54"/>
+      <c r="O38" s="54"/>
+      <c r="P38" s="54"/>
+      <c r="Q38" s="54"/>
+      <c r="R38" s="54"/>
+      <c r="S38" s="44"/>
+      <c r="T38" s="44"/>
+      <c r="U38" s="44"/>
+      <c r="V38" s="44"/>
+      <c r="W38" s="53"/>
+      <c r="X38" s="53"/>
+      <c r="Y38" s="53"/>
+      <c r="Z38" s="53"/>
+      <c r="AA38" s="53"/>
+      <c r="AB38" s="53"/>
+      <c r="AC38" s="56"/>
+      <c r="AD38" s="56"/>
+      <c r="AE38" s="56"/>
+      <c r="AF38" s="56"/>
+      <c r="AG38" s="56"/>
+      <c r="AH38" s="53"/>
+      <c r="AI38" s="53"/>
+      <c r="AJ38" s="53"/>
+      <c r="AK38" s="53"/>
+      <c r="AL38" s="53"/>
+      <c r="AM38" s="53"/>
+      <c r="AN38" s="53"/>
+      <c r="AO38" s="55"/>
+      <c r="AP38" s="55"/>
+      <c r="AQ38" s="53"/>
+      <c r="AR38" s="57"/>
+      <c r="AS38" s="57"/>
+      <c r="AT38" s="57"/>
+      <c r="AU38" s="57"/>
+      <c r="AV38" s="57"/>
+      <c r="AW38" s="53"/>
+      <c r="AX38" s="53"/>
+      <c r="AY38" s="53"/>
+      <c r="AZ38" s="53"/>
+      <c r="BA38" s="53"/>
+      <c r="BB38" s="53"/>
+      <c r="BC38" s="53"/>
+      <c r="BD38" s="53"/>
+      <c r="BE38" s="53"/>
+      <c r="BF38" s="53"/>
+      <c r="BG38" s="58"/>
+      <c r="BH38" s="58"/>
+      <c r="BI38" s="58"/>
+      <c r="BJ38" s="58"/>
+      <c r="BK38" s="58"/>
+      <c r="BL38" s="53"/>
+      <c r="BM38" s="53"/>
+      <c r="BN38" s="53"/>
+      <c r="BO38" s="53"/>
+      <c r="BP38" s="59"/>
+      <c r="BQ38" s="36"/>
     </row>
-    <row r="39" spans="1:69" ht="21" customHeight="1">
-      <c r="A39" s="21"/>
-      <c r="B39" s="31">
-        <v>4</v>
-      </c>
-      <c r="C39" s="32"/>
-      <c r="D39" s="33"/>
-      <c r="E39" s="33"/>
-      <c r="F39" s="33"/>
-      <c r="G39" s="33"/>
-      <c r="H39" s="33"/>
-      <c r="I39" s="34"/>
-      <c r="J39" s="35"/>
-      <c r="K39" s="36"/>
-      <c r="L39" s="36"/>
-      <c r="M39" s="34"/>
-      <c r="N39" s="34"/>
-      <c r="O39" s="34"/>
-      <c r="P39" s="34"/>
-      <c r="Q39" s="34"/>
-      <c r="R39" s="34"/>
-      <c r="S39" s="34"/>
-      <c r="T39" s="34"/>
-      <c r="U39" s="34"/>
-      <c r="V39" s="34"/>
-      <c r="W39" s="34"/>
-      <c r="X39" s="34"/>
-      <c r="Y39" s="34"/>
-      <c r="Z39" s="34"/>
-      <c r="AA39" s="34"/>
-      <c r="AB39" s="34"/>
-      <c r="AC39" s="34"/>
-      <c r="AD39" s="34"/>
-      <c r="AE39" s="34"/>
-      <c r="AF39" s="34"/>
-      <c r="AG39" s="34"/>
-      <c r="AH39" s="34"/>
-      <c r="AI39" s="34"/>
-      <c r="AJ39" s="34"/>
-      <c r="AK39" s="34"/>
-      <c r="AL39" s="34"/>
-      <c r="AM39" s="34"/>
-      <c r="AN39" s="34"/>
-      <c r="AO39" s="34"/>
-      <c r="AP39" s="34"/>
-      <c r="AQ39" s="34"/>
-      <c r="AR39" s="34"/>
-      <c r="AS39" s="34"/>
-      <c r="AT39" s="34"/>
-      <c r="AU39" s="34"/>
-      <c r="AV39" s="34"/>
-      <c r="AW39" s="34"/>
-      <c r="AX39" s="34"/>
-      <c r="AY39" s="34"/>
-      <c r="AZ39" s="34"/>
-      <c r="BA39" s="34"/>
-      <c r="BB39" s="34"/>
-      <c r="BC39" s="34"/>
-      <c r="BD39" s="34"/>
-      <c r="BE39" s="34"/>
-      <c r="BF39" s="34"/>
-      <c r="BG39" s="34"/>
-      <c r="BH39" s="34"/>
-      <c r="BI39" s="34"/>
-      <c r="BJ39" s="34"/>
-      <c r="BK39" s="34"/>
-      <c r="BL39" s="34"/>
-      <c r="BM39" s="34"/>
-      <c r="BN39" s="34"/>
-      <c r="BO39" s="34"/>
-      <c r="BP39" s="34"/>
-      <c r="BQ39" s="21"/>
+    <row r="39" spans="1:69" ht="19" customHeight="1" outlineLevel="1">
+      <c r="A39" s="36"/>
+      <c r="B39" s="61" t="s">
+        <v>83</v>
+      </c>
+      <c r="C39" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="D39" s="87" t="s">
+        <v>42</v>
+      </c>
+      <c r="E39" s="63">
+        <v>885074</v>
+      </c>
+      <c r="F39" s="63">
+        <v>885080</v>
+      </c>
+      <c r="G39" s="64">
+        <v>7</v>
+      </c>
+      <c r="H39" s="65">
+        <v>0.85</v>
+      </c>
+      <c r="I39" s="88"/>
+      <c r="J39" s="89"/>
+      <c r="K39" s="90"/>
+      <c r="L39" s="90"/>
+      <c r="M39" s="90"/>
+      <c r="N39" s="91"/>
+      <c r="O39" s="91"/>
+      <c r="P39" s="91"/>
+      <c r="Q39" s="91"/>
+      <c r="R39" s="91"/>
+      <c r="S39" s="90"/>
+      <c r="T39" s="90"/>
+      <c r="U39" s="90"/>
+      <c r="V39" s="90"/>
+      <c r="W39" s="90"/>
+      <c r="X39" s="90"/>
+      <c r="Y39" s="90"/>
+      <c r="Z39" s="90"/>
+      <c r="AA39" s="90"/>
+      <c r="AB39" s="90"/>
+      <c r="AC39" s="92"/>
+      <c r="AD39" s="92"/>
+      <c r="AE39" s="92"/>
+      <c r="AF39" s="92"/>
+      <c r="AG39" s="92"/>
+      <c r="AH39" s="90"/>
+      <c r="AI39" s="90"/>
+      <c r="AJ39" s="90"/>
+      <c r="AK39" s="90"/>
+      <c r="AL39" s="90"/>
+      <c r="AM39" s="90"/>
+      <c r="AN39" s="90"/>
+      <c r="AO39" s="93"/>
+      <c r="AP39" s="93"/>
+      <c r="AQ39" s="90"/>
+      <c r="AR39" s="94"/>
+      <c r="AS39" s="94"/>
+      <c r="AT39" s="94"/>
+      <c r="AU39" s="94"/>
+      <c r="AV39" s="94"/>
+      <c r="AW39" s="90"/>
+      <c r="AX39" s="90"/>
+      <c r="AY39" s="90"/>
+      <c r="AZ39" s="90"/>
+      <c r="BA39" s="90"/>
+      <c r="BB39" s="90"/>
+      <c r="BC39" s="90"/>
+      <c r="BD39" s="90"/>
+      <c r="BE39" s="90"/>
+      <c r="BF39" s="90"/>
+      <c r="BG39" s="95"/>
+      <c r="BH39" s="95"/>
+      <c r="BI39" s="95"/>
+      <c r="BJ39" s="95"/>
+      <c r="BK39" s="95"/>
+      <c r="BL39" s="90"/>
+      <c r="BM39" s="90"/>
+      <c r="BN39" s="90"/>
+      <c r="BO39" s="90"/>
+      <c r="BP39" s="90"/>
+      <c r="BQ39" s="36"/>
     </row>
-    <row r="40" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A40" s="37"/>
-      <c r="B40" s="38">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="C40" s="39"/>
-      <c r="D40" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="E40" s="40"/>
-      <c r="F40" s="40"/>
-      <c r="G40" s="41">
-        <v>0</v>
-      </c>
-      <c r="H40" s="42">
-        <v>0</v>
-      </c>
-      <c r="I40" s="43"/>
-      <c r="J40" s="44"/>
-      <c r="K40" s="45"/>
-      <c r="L40" s="45"/>
-      <c r="M40" s="45"/>
-      <c r="N40" s="47"/>
-      <c r="O40" s="47"/>
-      <c r="P40" s="47"/>
-      <c r="Q40" s="47"/>
-      <c r="R40" s="47"/>
-      <c r="S40" s="45"/>
-      <c r="T40" s="45"/>
-      <c r="U40" s="45"/>
-      <c r="V40" s="45"/>
-      <c r="W40" s="45"/>
-      <c r="X40" s="45"/>
-      <c r="Y40" s="45"/>
-      <c r="Z40" s="45"/>
-      <c r="AA40" s="45"/>
-      <c r="AB40" s="45"/>
-      <c r="AC40" s="48"/>
-      <c r="AD40" s="48"/>
-      <c r="AE40" s="48"/>
-      <c r="AF40" s="48"/>
-      <c r="AG40" s="48"/>
-      <c r="AH40" s="45"/>
-      <c r="AI40" s="45"/>
-      <c r="AJ40" s="45"/>
-      <c r="AK40" s="45"/>
-      <c r="AL40" s="45"/>
-      <c r="AM40" s="45"/>
-      <c r="AN40" s="45"/>
-      <c r="AO40" s="45"/>
-      <c r="AP40" s="45"/>
-      <c r="AQ40" s="45"/>
-      <c r="AR40" s="49"/>
-      <c r="AS40" s="49"/>
-      <c r="AT40" s="49"/>
-      <c r="AU40" s="49"/>
-      <c r="AV40" s="49"/>
-      <c r="AW40" s="45"/>
-      <c r="AX40" s="45"/>
-      <c r="AY40" s="45"/>
-      <c r="AZ40" s="45"/>
-      <c r="BA40" s="45"/>
-      <c r="BB40" s="45"/>
-      <c r="BC40" s="45"/>
-      <c r="BD40" s="45"/>
-      <c r="BE40" s="45"/>
-      <c r="BF40" s="45"/>
-      <c r="BG40" s="50"/>
-      <c r="BH40" s="50"/>
-      <c r="BI40" s="50"/>
-      <c r="BJ40" s="50"/>
-      <c r="BK40" s="50"/>
-      <c r="BL40" s="45"/>
-      <c r="BM40" s="45"/>
-      <c r="BN40" s="45"/>
-      <c r="BO40" s="45"/>
-      <c r="BP40" s="51"/>
-      <c r="BQ40" s="37"/>
+    <row r="40" spans="1:69" ht="19" customHeight="1" outlineLevel="1">
+      <c r="A40" s="36"/>
+      <c r="B40" s="61">
+        <v>3.6</v>
+      </c>
+      <c r="C40" s="62" t="s">
+        <v>85</v>
+      </c>
+      <c r="D40" s="87" t="s">
+        <v>57</v>
+      </c>
+      <c r="E40" s="63">
+        <v>885070</v>
+      </c>
+      <c r="F40" s="63">
+        <v>885084</v>
+      </c>
+      <c r="G40" s="64">
+        <v>15</v>
+      </c>
+      <c r="H40" s="65">
+        <v>1</v>
+      </c>
+      <c r="I40" s="88"/>
+      <c r="J40" s="89"/>
+      <c r="K40" s="90"/>
+      <c r="L40" s="90"/>
+      <c r="M40" s="90"/>
+      <c r="N40" s="91"/>
+      <c r="O40" s="91"/>
+      <c r="P40" s="91"/>
+      <c r="Q40" s="91"/>
+      <c r="R40" s="91"/>
+      <c r="S40" s="90"/>
+      <c r="T40" s="90"/>
+      <c r="U40" s="90"/>
+      <c r="V40" s="90"/>
+      <c r="W40" s="90"/>
+      <c r="X40" s="90"/>
+      <c r="Y40" s="90"/>
+      <c r="Z40" s="90"/>
+      <c r="AA40" s="90"/>
+      <c r="AB40" s="90"/>
+      <c r="AC40" s="92"/>
+      <c r="AD40" s="92"/>
+      <c r="AE40" s="92"/>
+      <c r="AF40" s="92"/>
+      <c r="AG40" s="92"/>
+      <c r="AH40" s="90"/>
+      <c r="AI40" s="90"/>
+      <c r="AJ40" s="90"/>
+      <c r="AK40" s="90"/>
+      <c r="AL40" s="90"/>
+      <c r="AM40" s="90"/>
+      <c r="AN40" s="90"/>
+      <c r="AO40" s="93"/>
+      <c r="AP40" s="93"/>
+      <c r="AQ40" s="90"/>
+      <c r="AR40" s="94"/>
+      <c r="AS40" s="94"/>
+      <c r="AT40" s="94"/>
+      <c r="AU40" s="94"/>
+      <c r="AV40" s="94"/>
+      <c r="AW40" s="90"/>
+      <c r="AX40" s="90"/>
+      <c r="AY40" s="90"/>
+      <c r="AZ40" s="90"/>
+      <c r="BA40" s="90"/>
+      <c r="BB40" s="90"/>
+      <c r="BC40" s="90"/>
+      <c r="BD40" s="90"/>
+      <c r="BE40" s="90"/>
+      <c r="BF40" s="90"/>
+      <c r="BG40" s="95"/>
+      <c r="BH40" s="95"/>
+      <c r="BI40" s="95"/>
+      <c r="BJ40" s="95"/>
+      <c r="BK40" s="95"/>
+      <c r="BL40" s="90"/>
+      <c r="BM40" s="90"/>
+      <c r="BN40" s="90"/>
+      <c r="BO40" s="90"/>
+      <c r="BP40" s="90"/>
+      <c r="BQ40" s="36"/>
     </row>
     <row r="41" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A41" s="37"/>
-      <c r="B41" s="38">
-        <v>4.2</v>
-      </c>
-      <c r="C41" s="39"/>
-      <c r="D41" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="E41" s="40"/>
-      <c r="F41" s="40"/>
-      <c r="G41" s="41">
-        <v>0</v>
-      </c>
-      <c r="H41" s="42">
-        <v>0</v>
-      </c>
-      <c r="I41" s="52"/>
-      <c r="J41" s="53"/>
-      <c r="K41" s="54"/>
-      <c r="L41" s="54"/>
-      <c r="M41" s="54"/>
-      <c r="N41" s="47"/>
-      <c r="O41" s="47"/>
-      <c r="P41" s="47"/>
-      <c r="Q41" s="47"/>
-      <c r="R41" s="47"/>
-      <c r="S41" s="54"/>
-      <c r="T41" s="54"/>
-      <c r="U41" s="54"/>
-      <c r="V41" s="54"/>
-      <c r="W41" s="54"/>
-      <c r="X41" s="54"/>
-      <c r="Y41" s="54"/>
-      <c r="Z41" s="54"/>
-      <c r="AA41" s="54"/>
-      <c r="AB41" s="54"/>
-      <c r="AC41" s="57"/>
-      <c r="AD41" s="57"/>
-      <c r="AE41" s="57"/>
-      <c r="AF41" s="57"/>
-      <c r="AG41" s="57"/>
-      <c r="AH41" s="54"/>
-      <c r="AI41" s="54"/>
-      <c r="AJ41" s="54"/>
-      <c r="AK41" s="54"/>
-      <c r="AL41" s="54"/>
-      <c r="AM41" s="54"/>
-      <c r="AN41" s="54"/>
-      <c r="AO41" s="54"/>
-      <c r="AP41" s="54"/>
-      <c r="AQ41" s="54"/>
-      <c r="AR41" s="58"/>
-      <c r="AS41" s="58"/>
-      <c r="AT41" s="58"/>
-      <c r="AU41" s="58"/>
-      <c r="AV41" s="58"/>
-      <c r="AW41" s="54"/>
-      <c r="AX41" s="54"/>
-      <c r="AY41" s="54"/>
-      <c r="AZ41" s="54"/>
-      <c r="BA41" s="54"/>
-      <c r="BB41" s="54"/>
-      <c r="BC41" s="54"/>
-      <c r="BD41" s="54"/>
-      <c r="BE41" s="54"/>
-      <c r="BF41" s="54"/>
-      <c r="BG41" s="59"/>
-      <c r="BH41" s="59"/>
-      <c r="BI41" s="59"/>
-      <c r="BJ41" s="59"/>
-      <c r="BK41" s="59"/>
-      <c r="BL41" s="54"/>
-      <c r="BM41" s="54"/>
-      <c r="BN41" s="54"/>
-      <c r="BO41" s="54"/>
-      <c r="BP41" s="60"/>
-      <c r="BQ41" s="37"/>
+      <c r="A41" s="36"/>
+      <c r="B41" s="37">
+        <v>3.3</v>
+      </c>
+      <c r="C41" s="79" t="s">
+        <v>86</v>
+      </c>
+      <c r="D41" s="78" t="s">
+        <v>87</v>
+      </c>
+      <c r="E41" s="39">
+        <v>885074</v>
+      </c>
+      <c r="F41" s="39">
+        <v>885080</v>
+      </c>
+      <c r="G41" s="40">
+        <v>7</v>
+      </c>
+      <c r="H41" s="82">
+        <v>1</v>
+      </c>
+      <c r="I41" s="51"/>
+      <c r="J41" s="52"/>
+      <c r="K41" s="53"/>
+      <c r="L41" s="53"/>
+      <c r="M41" s="53"/>
+      <c r="N41" s="54"/>
+      <c r="O41" s="54"/>
+      <c r="P41" s="54"/>
+      <c r="Q41" s="54"/>
+      <c r="R41" s="54"/>
+      <c r="S41" s="44"/>
+      <c r="T41" s="44"/>
+      <c r="U41" s="44"/>
+      <c r="V41" s="44"/>
+      <c r="W41" s="53"/>
+      <c r="X41" s="53"/>
+      <c r="Y41" s="53"/>
+      <c r="Z41" s="53"/>
+      <c r="AA41" s="53"/>
+      <c r="AB41" s="53"/>
+      <c r="AC41" s="56"/>
+      <c r="AD41" s="56"/>
+      <c r="AE41" s="56"/>
+      <c r="AF41" s="56"/>
+      <c r="AG41" s="56"/>
+      <c r="AH41" s="53"/>
+      <c r="AI41" s="53"/>
+      <c r="AJ41" s="53"/>
+      <c r="AK41" s="53"/>
+      <c r="AL41" s="53"/>
+      <c r="AM41" s="53"/>
+      <c r="AN41" s="53"/>
+      <c r="AO41" s="53"/>
+      <c r="AP41" s="53"/>
+      <c r="AQ41" s="53"/>
+      <c r="AR41" s="57"/>
+      <c r="AS41" s="57"/>
+      <c r="AT41" s="57"/>
+      <c r="AU41" s="57"/>
+      <c r="AV41" s="57"/>
+      <c r="AW41" s="53"/>
+      <c r="AX41" s="53"/>
+      <c r="AY41" s="53"/>
+      <c r="AZ41" s="53"/>
+      <c r="BA41" s="53"/>
+      <c r="BB41" s="53"/>
+      <c r="BC41" s="53"/>
+      <c r="BD41" s="53"/>
+      <c r="BE41" s="53"/>
+      <c r="BF41" s="53"/>
+      <c r="BG41" s="58"/>
+      <c r="BH41" s="58"/>
+      <c r="BI41" s="58"/>
+      <c r="BJ41" s="58"/>
+      <c r="BK41" s="58"/>
+      <c r="BL41" s="53"/>
+      <c r="BM41" s="53"/>
+      <c r="BN41" s="53"/>
+      <c r="BO41" s="53"/>
+      <c r="BP41" s="59"/>
+      <c r="BQ41" s="36"/>
     </row>
     <row r="42" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A42" s="37"/>
-      <c r="B42" s="38">
-        <v>4.3</v>
-      </c>
-      <c r="C42" s="39"/>
-      <c r="D42" s="39" t="s">
+      <c r="A42" s="36"/>
+      <c r="B42" s="37">
+        <v>3.3</v>
+      </c>
+      <c r="C42" s="79" t="s">
+        <v>62</v>
+      </c>
+      <c r="D42" s="78" t="s">
+        <v>42</v>
+      </c>
+      <c r="E42" s="39">
+        <v>45009</v>
+      </c>
+      <c r="F42" s="39">
+        <v>45009</v>
+      </c>
+      <c r="G42" s="40">
+        <v>1</v>
+      </c>
+      <c r="H42" s="82" t="s">
+        <v>50</v>
+      </c>
+      <c r="I42" s="51"/>
+      <c r="J42" s="52"/>
+      <c r="K42" s="53"/>
+      <c r="L42" s="53"/>
+      <c r="M42" s="53"/>
+      <c r="N42" s="54"/>
+      <c r="O42" s="54"/>
+      <c r="P42" s="54"/>
+      <c r="Q42" s="54"/>
+      <c r="R42" s="54"/>
+      <c r="S42" s="44"/>
+      <c r="T42" s="44"/>
+      <c r="U42" s="44"/>
+      <c r="V42" s="44"/>
+      <c r="W42" s="53"/>
+      <c r="X42" s="53"/>
+      <c r="Y42" s="53"/>
+      <c r="Z42" s="53"/>
+      <c r="AA42" s="53"/>
+      <c r="AB42" s="53"/>
+      <c r="AC42" s="56"/>
+      <c r="AD42" s="56"/>
+      <c r="AE42" s="56"/>
+      <c r="AF42" s="56"/>
+      <c r="AG42" s="56"/>
+      <c r="AH42" s="53"/>
+      <c r="AI42" s="53"/>
+      <c r="AJ42" s="53"/>
+      <c r="AK42" s="53"/>
+      <c r="AL42" s="53"/>
+      <c r="AM42" s="53"/>
+      <c r="AN42" s="53"/>
+      <c r="AO42" s="53"/>
+      <c r="AP42" s="53"/>
+      <c r="AQ42" s="53"/>
+      <c r="AR42" s="57"/>
+      <c r="AS42" s="57"/>
+      <c r="AT42" s="57"/>
+      <c r="AU42" s="57"/>
+      <c r="AV42" s="57"/>
+      <c r="AW42" s="53"/>
+      <c r="AX42" s="53"/>
+      <c r="AY42" s="53"/>
+      <c r="AZ42" s="53"/>
+      <c r="BA42" s="53"/>
+      <c r="BB42" s="53"/>
+      <c r="BC42" s="53"/>
+      <c r="BD42" s="53"/>
+      <c r="BE42" s="53"/>
+      <c r="BF42" s="53"/>
+      <c r="BG42" s="58"/>
+      <c r="BH42" s="58"/>
+      <c r="BI42" s="58"/>
+      <c r="BJ42" s="58"/>
+      <c r="BK42" s="58"/>
+      <c r="BL42" s="53"/>
+      <c r="BM42" s="53"/>
+      <c r="BN42" s="53"/>
+      <c r="BO42" s="53"/>
+      <c r="BP42" s="59"/>
+      <c r="BQ42" s="36"/>
+    </row>
+    <row r="43" spans="1:69" ht="21" customHeight="1">
+      <c r="A43" s="21"/>
+      <c r="B43" s="31">
+        <v>4</v>
+      </c>
+      <c r="C43" s="83" t="s">
+        <v>58</v>
+      </c>
+      <c r="D43" s="32"/>
+      <c r="E43" s="32"/>
+      <c r="F43" s="32"/>
+      <c r="G43" s="32"/>
+      <c r="H43" s="32"/>
+      <c r="I43" s="33"/>
+      <c r="J43" s="34"/>
+      <c r="K43" s="35"/>
+      <c r="L43" s="35"/>
+      <c r="M43" s="33"/>
+      <c r="N43" s="33"/>
+      <c r="O43" s="33"/>
+      <c r="P43" s="33"/>
+      <c r="Q43" s="33"/>
+      <c r="R43" s="33"/>
+      <c r="S43" s="33"/>
+      <c r="T43" s="33"/>
+      <c r="U43" s="33"/>
+      <c r="V43" s="33"/>
+      <c r="W43" s="33"/>
+      <c r="X43" s="33"/>
+      <c r="Y43" s="33"/>
+      <c r="Z43" s="33"/>
+      <c r="AA43" s="33"/>
+      <c r="AB43" s="33"/>
+      <c r="AC43" s="33"/>
+      <c r="AD43" s="33"/>
+      <c r="AE43" s="33"/>
+      <c r="AF43" s="33"/>
+      <c r="AG43" s="33"/>
+      <c r="AH43" s="33"/>
+      <c r="AI43" s="33"/>
+      <c r="AJ43" s="33"/>
+      <c r="AK43" s="33"/>
+      <c r="AL43" s="33"/>
+      <c r="AM43" s="33"/>
+      <c r="AN43" s="33"/>
+      <c r="AO43" s="33"/>
+      <c r="AP43" s="33"/>
+      <c r="AQ43" s="33"/>
+      <c r="AR43" s="33"/>
+      <c r="AS43" s="33"/>
+      <c r="AT43" s="33"/>
+      <c r="AU43" s="33"/>
+      <c r="AV43" s="33"/>
+      <c r="AW43" s="33"/>
+      <c r="AX43" s="33"/>
+      <c r="AY43" s="33"/>
+      <c r="AZ43" s="33"/>
+      <c r="BA43" s="33"/>
+      <c r="BB43" s="33"/>
+      <c r="BC43" s="33"/>
+      <c r="BD43" s="33"/>
+      <c r="BE43" s="33"/>
+      <c r="BF43" s="33"/>
+      <c r="BG43" s="33"/>
+      <c r="BH43" s="33"/>
+      <c r="BI43" s="33"/>
+      <c r="BJ43" s="33"/>
+      <c r="BK43" s="33"/>
+      <c r="BL43" s="33"/>
+      <c r="BM43" s="33"/>
+      <c r="BN43" s="33"/>
+      <c r="BO43" s="33"/>
+      <c r="BP43" s="33"/>
+      <c r="BQ43" s="21"/>
+    </row>
+    <row r="44" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A44" s="36"/>
+      <c r="B44" s="37">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C44" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="D44" s="76" t="s">
+        <v>42</v>
+      </c>
+      <c r="E44" s="39">
+        <v>45026</v>
+      </c>
+      <c r="F44" s="39">
+        <v>45046</v>
+      </c>
+      <c r="G44" s="40">
+        <v>21</v>
+      </c>
+      <c r="H44" s="41">
+        <v>0</v>
+      </c>
+      <c r="I44" s="42"/>
+      <c r="J44" s="43"/>
+      <c r="K44" s="44"/>
+      <c r="L44" s="44"/>
+      <c r="M44" s="44"/>
+      <c r="N44" s="46"/>
+      <c r="O44" s="46"/>
+      <c r="P44" s="46"/>
+      <c r="Q44" s="46"/>
+      <c r="R44" s="46"/>
+      <c r="S44" s="44"/>
+      <c r="T44" s="44"/>
+      <c r="U44" s="44"/>
+      <c r="V44" s="44"/>
+      <c r="W44" s="44"/>
+      <c r="X44" s="44"/>
+      <c r="Y44" s="44"/>
+      <c r="Z44" s="44"/>
+      <c r="AA44" s="44"/>
+      <c r="AB44" s="44"/>
+      <c r="AC44" s="47"/>
+      <c r="AD44" s="47"/>
+      <c r="AE44" s="47"/>
+      <c r="AF44" s="47"/>
+      <c r="AG44" s="47"/>
+      <c r="AH44" s="44"/>
+      <c r="AI44" s="44"/>
+      <c r="AJ44" s="44"/>
+      <c r="AK44" s="44"/>
+      <c r="AL44" s="44"/>
+      <c r="AM44" s="44"/>
+      <c r="AN44" s="44"/>
+      <c r="AO44" s="44"/>
+      <c r="AP44" s="44"/>
+      <c r="AQ44" s="44"/>
+      <c r="AR44" s="48"/>
+      <c r="AS44" s="48"/>
+      <c r="AT44" s="48"/>
+      <c r="AU44" s="48"/>
+      <c r="AV44" s="48"/>
+      <c r="AW44" s="44"/>
+      <c r="AX44" s="44"/>
+      <c r="AY44" s="44"/>
+      <c r="AZ44" s="44"/>
+      <c r="BA44" s="44"/>
+      <c r="BB44" s="44"/>
+      <c r="BC44" s="44"/>
+      <c r="BD44" s="44"/>
+      <c r="BE44" s="44"/>
+      <c r="BF44" s="44"/>
+      <c r="BG44" s="49"/>
+      <c r="BH44" s="49"/>
+      <c r="BI44" s="49"/>
+      <c r="BJ44" s="49"/>
+      <c r="BK44" s="49"/>
+      <c r="BL44" s="44"/>
+      <c r="BM44" s="44"/>
+      <c r="BN44" s="44"/>
+      <c r="BO44" s="44"/>
+      <c r="BP44" s="50"/>
+      <c r="BQ44" s="36"/>
+    </row>
+    <row r="45" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A45" s="36"/>
+      <c r="B45" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="C45" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="D45" s="76" t="s">
+        <v>42</v>
+      </c>
+      <c r="E45" s="39">
+        <v>885083</v>
+      </c>
+      <c r="F45" s="39">
+        <v>885089</v>
+      </c>
+      <c r="G45" s="40">
+        <v>7</v>
+      </c>
+      <c r="H45" s="41">
+        <v>0</v>
+      </c>
+      <c r="I45" s="51"/>
+      <c r="J45" s="52"/>
+      <c r="K45" s="53"/>
+      <c r="L45" s="53"/>
+      <c r="M45" s="53"/>
+      <c r="N45" s="46"/>
+      <c r="O45" s="46"/>
+      <c r="P45" s="46"/>
+      <c r="Q45" s="46"/>
+      <c r="R45" s="46"/>
+      <c r="S45" s="53"/>
+      <c r="T45" s="53"/>
+      <c r="U45" s="53"/>
+      <c r="V45" s="53"/>
+      <c r="W45" s="53"/>
+      <c r="X45" s="53"/>
+      <c r="Y45" s="53"/>
+      <c r="Z45" s="53"/>
+      <c r="AA45" s="53"/>
+      <c r="AB45" s="53"/>
+      <c r="AC45" s="56"/>
+      <c r="AD45" s="56"/>
+      <c r="AE45" s="56"/>
+      <c r="AF45" s="56"/>
+      <c r="AG45" s="56"/>
+      <c r="AH45" s="53"/>
+      <c r="AI45" s="53"/>
+      <c r="AJ45" s="53"/>
+      <c r="AK45" s="53"/>
+      <c r="AL45" s="53"/>
+      <c r="AM45" s="53"/>
+      <c r="AN45" s="53"/>
+      <c r="AO45" s="53"/>
+      <c r="AP45" s="53"/>
+      <c r="AQ45" s="53"/>
+      <c r="AR45" s="57"/>
+      <c r="AS45" s="57"/>
+      <c r="AT45" s="57"/>
+      <c r="AU45" s="57"/>
+      <c r="AV45" s="57"/>
+      <c r="AW45" s="53"/>
+      <c r="AX45" s="53"/>
+      <c r="AY45" s="53"/>
+      <c r="AZ45" s="53"/>
+      <c r="BA45" s="53"/>
+      <c r="BB45" s="53"/>
+      <c r="BC45" s="53"/>
+      <c r="BD45" s="53"/>
+      <c r="BE45" s="53"/>
+      <c r="BF45" s="53"/>
+      <c r="BG45" s="58"/>
+      <c r="BH45" s="58"/>
+      <c r="BI45" s="58"/>
+      <c r="BJ45" s="58"/>
+      <c r="BK45" s="58"/>
+      <c r="BL45" s="53"/>
+      <c r="BM45" s="53"/>
+      <c r="BN45" s="53"/>
+      <c r="BO45" s="53"/>
+      <c r="BP45" s="59"/>
+      <c r="BQ45" s="36"/>
+    </row>
+    <row r="46" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A46" s="36"/>
+      <c r="B46" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="C46" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="D46" s="76" t="s">
+        <v>100</v>
+      </c>
+      <c r="E46" s="39">
+        <v>45026</v>
+      </c>
+      <c r="F46" s="39">
+        <v>45032</v>
+      </c>
+      <c r="G46" s="40">
+        <v>7</v>
+      </c>
+      <c r="H46" s="41">
+        <v>0</v>
+      </c>
+      <c r="I46" s="51"/>
+      <c r="J46" s="52"/>
+      <c r="K46" s="53"/>
+      <c r="L46" s="53"/>
+      <c r="M46" s="53"/>
+      <c r="N46" s="46"/>
+      <c r="O46" s="46"/>
+      <c r="P46" s="46"/>
+      <c r="Q46" s="46"/>
+      <c r="R46" s="46"/>
+      <c r="S46" s="44"/>
+      <c r="T46" s="44"/>
+      <c r="U46" s="44"/>
+      <c r="V46" s="44"/>
+      <c r="W46" s="53"/>
+      <c r="X46" s="53"/>
+      <c r="Y46" s="53"/>
+      <c r="Z46" s="53"/>
+      <c r="AA46" s="53"/>
+      <c r="AB46" s="53"/>
+      <c r="AC46" s="56"/>
+      <c r="AD46" s="56"/>
+      <c r="AE46" s="56"/>
+      <c r="AF46" s="56"/>
+      <c r="AG46" s="56"/>
+      <c r="AH46" s="53"/>
+      <c r="AI46" s="53"/>
+      <c r="AJ46" s="53"/>
+      <c r="AK46" s="53"/>
+      <c r="AL46" s="53"/>
+      <c r="AM46" s="53"/>
+      <c r="AN46" s="53"/>
+      <c r="AO46" s="53"/>
+      <c r="AP46" s="53"/>
+      <c r="AQ46" s="53"/>
+      <c r="AR46" s="57"/>
+      <c r="AS46" s="57"/>
+      <c r="AT46" s="57"/>
+      <c r="AU46" s="57"/>
+      <c r="AV46" s="57"/>
+      <c r="AW46" s="53"/>
+      <c r="AX46" s="53"/>
+      <c r="AY46" s="53"/>
+      <c r="AZ46" s="53"/>
+      <c r="BA46" s="53"/>
+      <c r="BB46" s="53"/>
+      <c r="BC46" s="53"/>
+      <c r="BD46" s="53"/>
+      <c r="BE46" s="53"/>
+      <c r="BF46" s="53"/>
+      <c r="BG46" s="58"/>
+      <c r="BH46" s="58"/>
+      <c r="BI46" s="58"/>
+      <c r="BJ46" s="58"/>
+      <c r="BK46" s="58"/>
+      <c r="BL46" s="53"/>
+      <c r="BM46" s="53"/>
+      <c r="BN46" s="53"/>
+      <c r="BO46" s="53"/>
+      <c r="BP46" s="59"/>
+      <c r="BQ46" s="36"/>
+    </row>
+    <row r="47" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A47" s="36"/>
+      <c r="B47" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="C47" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="D47" s="86" t="s">
+        <v>104</v>
+      </c>
+      <c r="E47" s="39">
+        <v>885083</v>
+      </c>
+      <c r="F47" s="39">
+        <v>885089</v>
+      </c>
+      <c r="G47" s="40">
+        <v>7</v>
+      </c>
+      <c r="H47" s="41">
+        <v>0</v>
+      </c>
+      <c r="I47" s="51"/>
+      <c r="J47" s="52"/>
+      <c r="K47" s="53"/>
+      <c r="L47" s="53"/>
+      <c r="M47" s="53"/>
+      <c r="N47" s="46"/>
+      <c r="O47" s="46"/>
+      <c r="P47" s="46"/>
+      <c r="Q47" s="46"/>
+      <c r="R47" s="46"/>
+      <c r="S47" s="44"/>
+      <c r="T47" s="44"/>
+      <c r="U47" s="44"/>
+      <c r="V47" s="44"/>
+      <c r="W47" s="53"/>
+      <c r="X47" s="53"/>
+      <c r="Y47" s="53"/>
+      <c r="Z47" s="53"/>
+      <c r="AA47" s="53"/>
+      <c r="AB47" s="53"/>
+      <c r="AC47" s="56"/>
+      <c r="AD47" s="56"/>
+      <c r="AE47" s="56"/>
+      <c r="AF47" s="56"/>
+      <c r="AG47" s="56"/>
+      <c r="AH47" s="53"/>
+      <c r="AI47" s="53"/>
+      <c r="AJ47" s="53"/>
+      <c r="AK47" s="53"/>
+      <c r="AL47" s="53"/>
+      <c r="AM47" s="53"/>
+      <c r="AN47" s="53"/>
+      <c r="AO47" s="53"/>
+      <c r="AP47" s="53"/>
+      <c r="AQ47" s="53"/>
+      <c r="AR47" s="57"/>
+      <c r="AS47" s="57"/>
+      <c r="AT47" s="57"/>
+      <c r="AU47" s="57"/>
+      <c r="AV47" s="57"/>
+      <c r="AW47" s="53"/>
+      <c r="AX47" s="53"/>
+      <c r="AY47" s="53"/>
+      <c r="AZ47" s="53"/>
+      <c r="BA47" s="53"/>
+      <c r="BB47" s="53"/>
+      <c r="BC47" s="53"/>
+      <c r="BD47" s="53"/>
+      <c r="BE47" s="53"/>
+      <c r="BF47" s="53"/>
+      <c r="BG47" s="58"/>
+      <c r="BH47" s="58"/>
+      <c r="BI47" s="58"/>
+      <c r="BJ47" s="58"/>
+      <c r="BK47" s="58"/>
+      <c r="BL47" s="53"/>
+      <c r="BM47" s="53"/>
+      <c r="BN47" s="53"/>
+      <c r="BO47" s="53"/>
+      <c r="BP47" s="59"/>
+      <c r="BQ47" s="36"/>
+    </row>
+    <row r="48" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A48" s="36"/>
+      <c r="B48" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="C48" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="D48" s="76" t="s">
+        <v>105</v>
+      </c>
+      <c r="E48" s="39">
+        <v>45026</v>
+      </c>
+      <c r="F48" s="39">
+        <v>45032</v>
+      </c>
+      <c r="G48" s="40">
+        <v>7</v>
+      </c>
+      <c r="H48" s="41">
+        <v>0</v>
+      </c>
+      <c r="I48" s="51"/>
+      <c r="J48" s="52"/>
+      <c r="K48" s="53"/>
+      <c r="L48" s="53"/>
+      <c r="M48" s="53"/>
+      <c r="N48" s="46"/>
+      <c r="O48" s="46"/>
+      <c r="P48" s="46"/>
+      <c r="Q48" s="46"/>
+      <c r="R48" s="46"/>
+      <c r="S48" s="44"/>
+      <c r="T48" s="44"/>
+      <c r="U48" s="44"/>
+      <c r="V48" s="44"/>
+      <c r="W48" s="53"/>
+      <c r="X48" s="53"/>
+      <c r="Y48" s="53"/>
+      <c r="Z48" s="53"/>
+      <c r="AA48" s="53"/>
+      <c r="AB48" s="53"/>
+      <c r="AC48" s="56"/>
+      <c r="AD48" s="56"/>
+      <c r="AE48" s="56"/>
+      <c r="AF48" s="56"/>
+      <c r="AG48" s="56"/>
+      <c r="AH48" s="53"/>
+      <c r="AI48" s="53"/>
+      <c r="AJ48" s="53"/>
+      <c r="AK48" s="53"/>
+      <c r="AL48" s="53"/>
+      <c r="AM48" s="53"/>
+      <c r="AN48" s="53"/>
+      <c r="AO48" s="53"/>
+      <c r="AP48" s="53"/>
+      <c r="AQ48" s="53"/>
+      <c r="AR48" s="57"/>
+      <c r="AS48" s="57"/>
+      <c r="AT48" s="57"/>
+      <c r="AU48" s="57"/>
+      <c r="AV48" s="57"/>
+      <c r="AW48" s="53"/>
+      <c r="AX48" s="53"/>
+      <c r="AY48" s="53"/>
+      <c r="AZ48" s="53"/>
+      <c r="BA48" s="53"/>
+      <c r="BB48" s="53"/>
+      <c r="BC48" s="53"/>
+      <c r="BD48" s="53"/>
+      <c r="BE48" s="53"/>
+      <c r="BF48" s="53"/>
+      <c r="BG48" s="58"/>
+      <c r="BH48" s="58"/>
+      <c r="BI48" s="58"/>
+      <c r="BJ48" s="58"/>
+      <c r="BK48" s="58"/>
+      <c r="BL48" s="53"/>
+      <c r="BM48" s="53"/>
+      <c r="BN48" s="53"/>
+      <c r="BO48" s="53"/>
+      <c r="BP48" s="59"/>
+      <c r="BQ48" s="36"/>
+    </row>
+    <row r="49" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A49" s="36"/>
+      <c r="B49" s="37">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C49" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="D49" s="76" t="s">
+        <v>93</v>
+      </c>
+      <c r="E49" s="39">
+        <v>885083</v>
+      </c>
+      <c r="F49" s="39">
+        <v>885103</v>
+      </c>
+      <c r="G49" s="40">
+        <v>21</v>
+      </c>
+      <c r="H49" s="41">
+        <v>0</v>
+      </c>
+      <c r="I49" s="51"/>
+      <c r="J49" s="52"/>
+      <c r="K49" s="53"/>
+      <c r="L49" s="53"/>
+      <c r="M49" s="53"/>
+      <c r="N49" s="46"/>
+      <c r="O49" s="46"/>
+      <c r="P49" s="46"/>
+      <c r="Q49" s="46"/>
+      <c r="R49" s="46"/>
+      <c r="S49" s="44"/>
+      <c r="T49" s="44"/>
+      <c r="U49" s="44"/>
+      <c r="V49" s="44"/>
+      <c r="W49" s="53"/>
+      <c r="X49" s="53"/>
+      <c r="Y49" s="53"/>
+      <c r="Z49" s="53"/>
+      <c r="AA49" s="53"/>
+      <c r="AB49" s="53"/>
+      <c r="AC49" s="56"/>
+      <c r="AD49" s="56"/>
+      <c r="AE49" s="56"/>
+      <c r="AF49" s="56"/>
+      <c r="AG49" s="56"/>
+      <c r="AH49" s="53"/>
+      <c r="AI49" s="53"/>
+      <c r="AJ49" s="53"/>
+      <c r="AK49" s="53"/>
+      <c r="AL49" s="53"/>
+      <c r="AM49" s="53"/>
+      <c r="AN49" s="53"/>
+      <c r="AO49" s="53"/>
+      <c r="AP49" s="53"/>
+      <c r="AQ49" s="53"/>
+      <c r="AR49" s="57"/>
+      <c r="AS49" s="57"/>
+      <c r="AT49" s="57"/>
+      <c r="AU49" s="57"/>
+      <c r="AV49" s="57"/>
+      <c r="AW49" s="53"/>
+      <c r="AX49" s="53"/>
+      <c r="AY49" s="53"/>
+      <c r="AZ49" s="53"/>
+      <c r="BA49" s="53"/>
+      <c r="BB49" s="53"/>
+      <c r="BC49" s="53"/>
+      <c r="BD49" s="53"/>
+      <c r="BE49" s="53"/>
+      <c r="BF49" s="53"/>
+      <c r="BG49" s="58"/>
+      <c r="BH49" s="58"/>
+      <c r="BI49" s="58"/>
+      <c r="BJ49" s="58"/>
+      <c r="BK49" s="58"/>
+      <c r="BL49" s="53"/>
+      <c r="BM49" s="53"/>
+      <c r="BN49" s="53"/>
+      <c r="BO49" s="53"/>
+      <c r="BP49" s="59"/>
+      <c r="BQ49" s="36"/>
+    </row>
+    <row r="50" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A50" s="36"/>
+      <c r="B50" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="C50" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="D50" s="76" t="s">
+        <v>93</v>
+      </c>
+      <c r="E50" s="39">
+        <v>885083</v>
+      </c>
+      <c r="F50" s="39">
+        <v>885089</v>
+      </c>
+      <c r="G50" s="40">
+        <v>7</v>
+      </c>
+      <c r="H50" s="41">
+        <v>0</v>
+      </c>
+      <c r="I50" s="51"/>
+      <c r="J50" s="52"/>
+      <c r="K50" s="53"/>
+      <c r="L50" s="53"/>
+      <c r="M50" s="53"/>
+      <c r="N50" s="46"/>
+      <c r="O50" s="46"/>
+      <c r="P50" s="46"/>
+      <c r="Q50" s="46"/>
+      <c r="R50" s="46"/>
+      <c r="S50" s="44"/>
+      <c r="T50" s="44"/>
+      <c r="U50" s="44"/>
+      <c r="V50" s="44"/>
+      <c r="W50" s="53"/>
+      <c r="X50" s="53"/>
+      <c r="Y50" s="53"/>
+      <c r="Z50" s="53"/>
+      <c r="AA50" s="53"/>
+      <c r="AB50" s="53"/>
+      <c r="AC50" s="56"/>
+      <c r="AD50" s="56"/>
+      <c r="AE50" s="56"/>
+      <c r="AF50" s="56"/>
+      <c r="AG50" s="56"/>
+      <c r="AH50" s="53"/>
+      <c r="AI50" s="53"/>
+      <c r="AJ50" s="53"/>
+      <c r="AK50" s="53"/>
+      <c r="AL50" s="53"/>
+      <c r="AM50" s="53"/>
+      <c r="AN50" s="53"/>
+      <c r="AO50" s="53"/>
+      <c r="AP50" s="53"/>
+      <c r="AQ50" s="53"/>
+      <c r="AR50" s="57"/>
+      <c r="AS50" s="57"/>
+      <c r="AT50" s="57"/>
+      <c r="AU50" s="57"/>
+      <c r="AV50" s="57"/>
+      <c r="AW50" s="53"/>
+      <c r="AX50" s="53"/>
+      <c r="AY50" s="53"/>
+      <c r="AZ50" s="53"/>
+      <c r="BA50" s="53"/>
+      <c r="BB50" s="53"/>
+      <c r="BC50" s="53"/>
+      <c r="BD50" s="53"/>
+      <c r="BE50" s="53"/>
+      <c r="BF50" s="53"/>
+      <c r="BG50" s="58"/>
+      <c r="BH50" s="58"/>
+      <c r="BI50" s="58"/>
+      <c r="BJ50" s="58"/>
+      <c r="BK50" s="58"/>
+      <c r="BL50" s="53"/>
+      <c r="BM50" s="53"/>
+      <c r="BN50" s="53"/>
+      <c r="BO50" s="53"/>
+      <c r="BP50" s="59"/>
+      <c r="BQ50" s="36"/>
+    </row>
+    <row r="51" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A51" s="36"/>
+      <c r="B51" s="37"/>
+      <c r="C51" s="38"/>
+      <c r="D51" s="38"/>
+      <c r="E51" s="39"/>
+      <c r="F51" s="39"/>
+      <c r="G51" s="40"/>
+      <c r="H51" s="41"/>
+      <c r="I51" s="51"/>
+      <c r="J51" s="52"/>
+      <c r="K51" s="53"/>
+      <c r="L51" s="53"/>
+      <c r="M51" s="53"/>
+      <c r="N51" s="46"/>
+      <c r="O51" s="46"/>
+      <c r="P51" s="46"/>
+      <c r="Q51" s="46"/>
+      <c r="R51" s="46"/>
+      <c r="S51" s="44"/>
+      <c r="T51" s="44"/>
+      <c r="U51" s="44"/>
+      <c r="V51" s="44"/>
+      <c r="W51" s="53"/>
+      <c r="X51" s="53"/>
+      <c r="Y51" s="53"/>
+      <c r="Z51" s="53"/>
+      <c r="AA51" s="53"/>
+      <c r="AB51" s="53"/>
+      <c r="AC51" s="56"/>
+      <c r="AD51" s="56"/>
+      <c r="AE51" s="56"/>
+      <c r="AF51" s="56"/>
+      <c r="AG51" s="56"/>
+      <c r="AH51" s="53"/>
+      <c r="AI51" s="53"/>
+      <c r="AJ51" s="53"/>
+      <c r="AK51" s="53"/>
+      <c r="AL51" s="53"/>
+      <c r="AM51" s="53"/>
+      <c r="AN51" s="53"/>
+      <c r="AO51" s="53"/>
+      <c r="AP51" s="53"/>
+      <c r="AQ51" s="53"/>
+      <c r="AR51" s="57"/>
+      <c r="AS51" s="57"/>
+      <c r="AT51" s="57"/>
+      <c r="AU51" s="57"/>
+      <c r="AV51" s="57"/>
+      <c r="AW51" s="53"/>
+      <c r="AX51" s="53"/>
+      <c r="AY51" s="53"/>
+      <c r="AZ51" s="53"/>
+      <c r="BA51" s="53"/>
+      <c r="BB51" s="53"/>
+      <c r="BC51" s="53"/>
+      <c r="BD51" s="53"/>
+      <c r="BE51" s="53"/>
+      <c r="BF51" s="53"/>
+      <c r="BG51" s="58"/>
+      <c r="BH51" s="58"/>
+      <c r="BI51" s="58"/>
+      <c r="BJ51" s="58"/>
+      <c r="BK51" s="58"/>
+      <c r="BL51" s="53"/>
+      <c r="BM51" s="53"/>
+      <c r="BN51" s="53"/>
+      <c r="BO51" s="53"/>
+      <c r="BP51" s="59"/>
+      <c r="BQ51" s="36"/>
+    </row>
+    <row r="52" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A52" s="36"/>
+      <c r="B52" s="37">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C52" s="38"/>
+      <c r="D52" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="E42" s="40"/>
-      <c r="F42" s="40"/>
-      <c r="G42" s="41">
+      <c r="E52" s="39"/>
+      <c r="F52" s="39"/>
+      <c r="G52" s="40">
         <v>0</v>
       </c>
-      <c r="H42" s="42">
+      <c r="H52" s="60">
         <v>0</v>
       </c>
-      <c r="I42" s="52"/>
-      <c r="J42" s="53"/>
-      <c r="K42" s="54"/>
-      <c r="L42" s="54"/>
-      <c r="M42" s="54"/>
-      <c r="N42" s="47"/>
-      <c r="O42" s="47"/>
-      <c r="P42" s="47"/>
-      <c r="Q42" s="47"/>
-      <c r="R42" s="47"/>
-      <c r="S42" s="45"/>
-      <c r="T42" s="45"/>
-      <c r="U42" s="45"/>
-      <c r="V42" s="45"/>
-      <c r="W42" s="54"/>
-      <c r="X42" s="54"/>
-      <c r="Y42" s="54"/>
-      <c r="Z42" s="54"/>
-      <c r="AA42" s="54"/>
-      <c r="AB42" s="54"/>
-      <c r="AC42" s="57"/>
-      <c r="AD42" s="57"/>
-      <c r="AE42" s="57"/>
-      <c r="AF42" s="57"/>
-      <c r="AG42" s="57"/>
-      <c r="AH42" s="54"/>
-      <c r="AI42" s="54"/>
-      <c r="AJ42" s="54"/>
-      <c r="AK42" s="54"/>
-      <c r="AL42" s="54"/>
-      <c r="AM42" s="54"/>
-      <c r="AN42" s="54"/>
-      <c r="AO42" s="54"/>
-      <c r="AP42" s="54"/>
-      <c r="AQ42" s="54"/>
-      <c r="AR42" s="58"/>
-      <c r="AS42" s="58"/>
-      <c r="AT42" s="58"/>
-      <c r="AU42" s="58"/>
-      <c r="AV42" s="58"/>
-      <c r="AW42" s="54"/>
-      <c r="AX42" s="54"/>
-      <c r="AY42" s="54"/>
-      <c r="AZ42" s="54"/>
-      <c r="BA42" s="54"/>
-      <c r="BB42" s="54"/>
-      <c r="BC42" s="54"/>
-      <c r="BD42" s="54"/>
-      <c r="BE42" s="54"/>
-      <c r="BF42" s="54"/>
-      <c r="BG42" s="59"/>
-      <c r="BH42" s="59"/>
-      <c r="BI42" s="59"/>
-      <c r="BJ42" s="59"/>
-      <c r="BK42" s="59"/>
-      <c r="BL42" s="54"/>
-      <c r="BM42" s="54"/>
-      <c r="BN42" s="54"/>
-      <c r="BO42" s="54"/>
-      <c r="BP42" s="60"/>
-      <c r="BQ42" s="37"/>
+      <c r="I52" s="51"/>
+      <c r="J52" s="52"/>
+      <c r="K52" s="53"/>
+      <c r="L52" s="53"/>
+      <c r="M52" s="53"/>
+      <c r="N52" s="46"/>
+      <c r="O52" s="46"/>
+      <c r="P52" s="46"/>
+      <c r="Q52" s="46"/>
+      <c r="R52" s="46"/>
+      <c r="S52" s="44"/>
+      <c r="T52" s="44"/>
+      <c r="U52" s="44"/>
+      <c r="V52" s="44"/>
+      <c r="W52" s="53"/>
+      <c r="X52" s="53"/>
+      <c r="Y52" s="53"/>
+      <c r="Z52" s="53"/>
+      <c r="AA52" s="53"/>
+      <c r="AB52" s="53"/>
+      <c r="AC52" s="56"/>
+      <c r="AD52" s="56"/>
+      <c r="AE52" s="56"/>
+      <c r="AF52" s="56"/>
+      <c r="AG52" s="56"/>
+      <c r="AH52" s="53"/>
+      <c r="AI52" s="53"/>
+      <c r="AJ52" s="53"/>
+      <c r="AK52" s="53"/>
+      <c r="AL52" s="53"/>
+      <c r="AM52" s="53"/>
+      <c r="AN52" s="53"/>
+      <c r="AO52" s="53"/>
+      <c r="AP52" s="53"/>
+      <c r="AQ52" s="53"/>
+      <c r="AR52" s="57"/>
+      <c r="AS52" s="57"/>
+      <c r="AT52" s="57"/>
+      <c r="AU52" s="57"/>
+      <c r="AV52" s="57"/>
+      <c r="AW52" s="53"/>
+      <c r="AX52" s="53"/>
+      <c r="AY52" s="53"/>
+      <c r="AZ52" s="53"/>
+      <c r="BA52" s="53"/>
+      <c r="BB52" s="53"/>
+      <c r="BC52" s="53"/>
+      <c r="BD52" s="53"/>
+      <c r="BE52" s="53"/>
+      <c r="BF52" s="53"/>
+      <c r="BG52" s="58"/>
+      <c r="BH52" s="58"/>
+      <c r="BI52" s="58"/>
+      <c r="BJ52" s="58"/>
+      <c r="BK52" s="58"/>
+      <c r="BL52" s="53"/>
+      <c r="BM52" s="53"/>
+      <c r="BN52" s="53"/>
+      <c r="BO52" s="53"/>
+      <c r="BP52" s="59"/>
+      <c r="BQ52" s="36"/>
     </row>
-    <row r="43" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A43" s="37"/>
-      <c r="B43" s="38">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="C43" s="39"/>
-      <c r="D43" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="E43" s="40"/>
-      <c r="F43" s="40"/>
-      <c r="G43" s="41">
-        <v>0</v>
-      </c>
-      <c r="H43" s="61">
-        <v>0</v>
-      </c>
-      <c r="I43" s="52"/>
-      <c r="J43" s="53"/>
-      <c r="K43" s="54"/>
-      <c r="L43" s="54"/>
-      <c r="M43" s="54"/>
-      <c r="N43" s="47"/>
-      <c r="O43" s="47"/>
-      <c r="P43" s="47"/>
-      <c r="Q43" s="47"/>
-      <c r="R43" s="47"/>
-      <c r="S43" s="45"/>
-      <c r="T43" s="45"/>
-      <c r="U43" s="45"/>
-      <c r="V43" s="45"/>
-      <c r="W43" s="54"/>
-      <c r="X43" s="54"/>
-      <c r="Y43" s="54"/>
-      <c r="Z43" s="54"/>
-      <c r="AA43" s="54"/>
-      <c r="AB43" s="54"/>
-      <c r="AC43" s="57"/>
-      <c r="AD43" s="57"/>
-      <c r="AE43" s="57"/>
-      <c r="AF43" s="57"/>
-      <c r="AG43" s="57"/>
-      <c r="AH43" s="54"/>
-      <c r="AI43" s="54"/>
-      <c r="AJ43" s="54"/>
-      <c r="AK43" s="54"/>
-      <c r="AL43" s="54"/>
-      <c r="AM43" s="54"/>
-      <c r="AN43" s="54"/>
-      <c r="AO43" s="54"/>
-      <c r="AP43" s="54"/>
-      <c r="AQ43" s="54"/>
-      <c r="AR43" s="58"/>
-      <c r="AS43" s="58"/>
-      <c r="AT43" s="58"/>
-      <c r="AU43" s="58"/>
-      <c r="AV43" s="58"/>
-      <c r="AW43" s="54"/>
-      <c r="AX43" s="54"/>
-      <c r="AY43" s="54"/>
-      <c r="AZ43" s="54"/>
-      <c r="BA43" s="54"/>
-      <c r="BB43" s="54"/>
-      <c r="BC43" s="54"/>
-      <c r="BD43" s="54"/>
-      <c r="BE43" s="54"/>
-      <c r="BF43" s="54"/>
-      <c r="BG43" s="59"/>
-      <c r="BH43" s="59"/>
-      <c r="BI43" s="59"/>
-      <c r="BJ43" s="59"/>
-      <c r="BK43" s="59"/>
-      <c r="BL43" s="54"/>
-      <c r="BM43" s="54"/>
-      <c r="BN43" s="54"/>
-      <c r="BO43" s="54"/>
-      <c r="BP43" s="60"/>
-      <c r="BQ43" s="37"/>
+    <row r="53" spans="1:69" ht="21" customHeight="1">
+      <c r="A53" s="21"/>
+      <c r="B53" s="21"/>
+      <c r="C53" s="21"/>
+      <c r="D53" s="21"/>
+      <c r="E53" s="21"/>
+      <c r="F53" s="21"/>
+      <c r="G53" s="74"/>
+      <c r="H53" s="74"/>
+      <c r="I53" s="21"/>
+      <c r="J53" s="21"/>
+      <c r="K53" s="21"/>
+      <c r="L53" s="21"/>
+      <c r="M53" s="21"/>
+      <c r="N53" s="21"/>
+      <c r="O53" s="21"/>
+      <c r="P53" s="21"/>
+      <c r="Q53" s="21"/>
+      <c r="R53" s="21"/>
+      <c r="S53" s="21"/>
+      <c r="T53" s="21"/>
+      <c r="U53" s="21"/>
+      <c r="V53" s="21"/>
+      <c r="W53" s="21"/>
+      <c r="X53" s="21"/>
+      <c r="Y53" s="21"/>
+      <c r="Z53" s="21"/>
+      <c r="AA53" s="21"/>
+      <c r="AB53" s="21"/>
+      <c r="AC53" s="21"/>
+      <c r="AD53" s="21"/>
+      <c r="AE53" s="21"/>
+      <c r="AF53" s="21"/>
+      <c r="AG53" s="21"/>
+      <c r="AH53" s="21"/>
+      <c r="AI53" s="21"/>
+      <c r="AJ53" s="21"/>
+      <c r="AK53" s="21"/>
+      <c r="AL53" s="21"/>
+      <c r="AM53" s="21"/>
+      <c r="AN53" s="21"/>
+      <c r="AO53" s="21"/>
+      <c r="AP53" s="21"/>
+      <c r="AQ53" s="21"/>
+      <c r="AR53" s="21"/>
+      <c r="AS53" s="21"/>
+      <c r="AT53" s="21"/>
+      <c r="AU53" s="21"/>
+      <c r="AV53" s="21"/>
+      <c r="AW53" s="21"/>
+      <c r="AX53" s="21"/>
+      <c r="AY53" s="21"/>
+      <c r="AZ53" s="21"/>
+      <c r="BA53" s="21"/>
+      <c r="BB53" s="21"/>
+      <c r="BC53" s="21"/>
+      <c r="BD53" s="21"/>
+      <c r="BE53" s="21"/>
+      <c r="BF53" s="21"/>
+      <c r="BG53" s="21"/>
+      <c r="BH53" s="21"/>
+      <c r="BI53" s="21"/>
+      <c r="BJ53" s="21"/>
+      <c r="BK53" s="21"/>
+      <c r="BL53" s="21"/>
+      <c r="BM53" s="21"/>
+      <c r="BN53" s="21"/>
+      <c r="BO53" s="21"/>
+      <c r="BP53" s="21"/>
+      <c r="BQ53" s="21"/>
     </row>
-    <row r="44" spans="1:69" ht="21" customHeight="1">
-      <c r="A44" s="21"/>
-      <c r="B44" s="21"/>
-      <c r="C44" s="21"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="21"/>
-      <c r="F44" s="21"/>
-      <c r="G44" s="75"/>
-      <c r="H44" s="75"/>
-      <c r="I44" s="21"/>
-      <c r="J44" s="21"/>
-      <c r="K44" s="21"/>
-      <c r="L44" s="21"/>
-      <c r="M44" s="21"/>
-      <c r="N44" s="21"/>
-      <c r="O44" s="21"/>
-      <c r="P44" s="21"/>
-      <c r="Q44" s="21"/>
-      <c r="R44" s="21"/>
-      <c r="S44" s="21"/>
-      <c r="T44" s="21"/>
-      <c r="U44" s="21"/>
-      <c r="V44" s="21"/>
-      <c r="W44" s="21"/>
-      <c r="X44" s="21"/>
-      <c r="Y44" s="21"/>
-      <c r="Z44" s="21"/>
-      <c r="AA44" s="21"/>
-      <c r="AB44" s="21"/>
-      <c r="AC44" s="21"/>
-      <c r="AD44" s="21"/>
-      <c r="AE44" s="21"/>
-      <c r="AF44" s="21"/>
-      <c r="AG44" s="21"/>
-      <c r="AH44" s="21"/>
-      <c r="AI44" s="21"/>
-      <c r="AJ44" s="21"/>
-      <c r="AK44" s="21"/>
-      <c r="AL44" s="21"/>
-      <c r="AM44" s="21"/>
-      <c r="AN44" s="21"/>
-      <c r="AO44" s="21"/>
-      <c r="AP44" s="21"/>
-      <c r="AQ44" s="21"/>
-      <c r="AR44" s="21"/>
-      <c r="AS44" s="21"/>
-      <c r="AT44" s="21"/>
-      <c r="AU44" s="21"/>
-      <c r="AV44" s="21"/>
-      <c r="AW44" s="21"/>
-      <c r="AX44" s="21"/>
-      <c r="AY44" s="21"/>
-      <c r="AZ44" s="21"/>
-      <c r="BA44" s="21"/>
-      <c r="BB44" s="21"/>
-      <c r="BC44" s="21"/>
-      <c r="BD44" s="21"/>
-      <c r="BE44" s="21"/>
-      <c r="BF44" s="21"/>
-      <c r="BG44" s="21"/>
-      <c r="BH44" s="21"/>
-      <c r="BI44" s="21"/>
-      <c r="BJ44" s="21"/>
-      <c r="BK44" s="21"/>
-      <c r="BL44" s="21"/>
-      <c r="BM44" s="21"/>
-      <c r="BN44" s="21"/>
-      <c r="BO44" s="21"/>
-      <c r="BP44" s="21"/>
-      <c r="BQ44" s="21"/>
+    <row r="54" spans="1:69" ht="21" customHeight="1">
+      <c r="A54" s="21"/>
+      <c r="B54" s="21"/>
+      <c r="C54" s="21"/>
+      <c r="D54" s="21"/>
+      <c r="E54" s="21"/>
+      <c r="F54" s="21"/>
+      <c r="G54" s="74"/>
+      <c r="H54" s="74"/>
+      <c r="I54" s="21"/>
+      <c r="J54" s="21"/>
+      <c r="K54" s="21"/>
+      <c r="L54" s="21"/>
+      <c r="M54" s="21"/>
+      <c r="N54" s="21"/>
+      <c r="O54" s="21"/>
+      <c r="P54" s="21"/>
+      <c r="Q54" s="21"/>
+      <c r="R54" s="21"/>
+      <c r="S54" s="21"/>
+      <c r="T54" s="21"/>
+      <c r="U54" s="21"/>
+      <c r="V54" s="21"/>
+      <c r="W54" s="21"/>
+      <c r="X54" s="21"/>
+      <c r="Y54" s="21"/>
+      <c r="Z54" s="21"/>
+      <c r="AA54" s="21"/>
+      <c r="AB54" s="21"/>
+      <c r="AC54" s="21"/>
+      <c r="AD54" s="21"/>
+      <c r="AE54" s="21"/>
+      <c r="AF54" s="21"/>
+      <c r="AG54" s="21"/>
+      <c r="AH54" s="21"/>
+      <c r="AI54" s="21"/>
+      <c r="AJ54" s="21"/>
+      <c r="AK54" s="21"/>
+      <c r="AL54" s="21"/>
+      <c r="AM54" s="21"/>
+      <c r="AN54" s="21"/>
+      <c r="AO54" s="21"/>
+      <c r="AP54" s="21"/>
+      <c r="AQ54" s="21"/>
+      <c r="AR54" s="21"/>
+      <c r="AS54" s="21"/>
+      <c r="AT54" s="21"/>
+      <c r="AU54" s="21"/>
+      <c r="AV54" s="21"/>
+      <c r="AW54" s="21"/>
+      <c r="AX54" s="21"/>
+      <c r="AY54" s="21"/>
+      <c r="AZ54" s="21"/>
+      <c r="BA54" s="21"/>
+      <c r="BB54" s="21"/>
+      <c r="BC54" s="21"/>
+      <c r="BD54" s="21"/>
+      <c r="BE54" s="21"/>
+      <c r="BF54" s="21"/>
+      <c r="BG54" s="21"/>
+      <c r="BH54" s="21"/>
+      <c r="BI54" s="21"/>
+      <c r="BJ54" s="21"/>
+      <c r="BK54" s="21"/>
+      <c r="BL54" s="21"/>
+      <c r="BM54" s="21"/>
+      <c r="BN54" s="21"/>
+      <c r="BO54" s="21"/>
+      <c r="BP54" s="21"/>
+      <c r="BQ54" s="21"/>
     </row>
-    <row r="45" spans="1:69" ht="21" customHeight="1">
-      <c r="A45" s="21"/>
-      <c r="B45" s="21"/>
-      <c r="C45" s="21"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="21"/>
-      <c r="F45" s="21"/>
-      <c r="G45" s="75"/>
-      <c r="H45" s="75"/>
-      <c r="I45" s="21"/>
-      <c r="J45" s="21"/>
-      <c r="K45" s="21"/>
-      <c r="L45" s="21"/>
-      <c r="M45" s="21"/>
-      <c r="N45" s="21"/>
-      <c r="O45" s="21"/>
-      <c r="P45" s="21"/>
-      <c r="Q45" s="21"/>
-      <c r="R45" s="21"/>
-      <c r="S45" s="21"/>
-      <c r="T45" s="21"/>
-      <c r="U45" s="21"/>
-      <c r="V45" s="21"/>
-      <c r="W45" s="21"/>
-      <c r="X45" s="21"/>
-      <c r="Y45" s="21"/>
-      <c r="Z45" s="21"/>
-      <c r="AA45" s="21"/>
-      <c r="AB45" s="21"/>
-      <c r="AC45" s="21"/>
-      <c r="AD45" s="21"/>
-      <c r="AE45" s="21"/>
-      <c r="AF45" s="21"/>
-      <c r="AG45" s="21"/>
-      <c r="AH45" s="21"/>
-      <c r="AI45" s="21"/>
-      <c r="AJ45" s="21"/>
-      <c r="AK45" s="21"/>
-      <c r="AL45" s="21"/>
-      <c r="AM45" s="21"/>
-      <c r="AN45" s="21"/>
-      <c r="AO45" s="21"/>
-      <c r="AP45" s="21"/>
-      <c r="AQ45" s="21"/>
-      <c r="AR45" s="21"/>
-      <c r="AS45" s="21"/>
-      <c r="AT45" s="21"/>
-      <c r="AU45" s="21"/>
-      <c r="AV45" s="21"/>
-      <c r="AW45" s="21"/>
-      <c r="AX45" s="21"/>
-      <c r="AY45" s="21"/>
-      <c r="AZ45" s="21"/>
-      <c r="BA45" s="21"/>
-      <c r="BB45" s="21"/>
-      <c r="BC45" s="21"/>
-      <c r="BD45" s="21"/>
-      <c r="BE45" s="21"/>
-      <c r="BF45" s="21"/>
-      <c r="BG45" s="21"/>
-      <c r="BH45" s="21"/>
-      <c r="BI45" s="21"/>
-      <c r="BJ45" s="21"/>
-      <c r="BK45" s="21"/>
-      <c r="BL45" s="21"/>
-      <c r="BM45" s="21"/>
-      <c r="BN45" s="21"/>
-      <c r="BO45" s="21"/>
-      <c r="BP45" s="21"/>
-      <c r="BQ45" s="21"/>
-    </row>
-    <row r="46" spans="1:69" ht="21" customHeight="1">
-      <c r="A46" s="21"/>
-      <c r="B46" s="21"/>
-      <c r="C46" s="21"/>
-      <c r="D46" s="21"/>
-      <c r="E46" s="21"/>
-      <c r="F46" s="21"/>
-      <c r="G46" s="75"/>
-      <c r="H46" s="75"/>
-      <c r="I46" s="21"/>
-      <c r="J46" s="21"/>
-      <c r="K46" s="21"/>
-      <c r="L46" s="21"/>
-      <c r="M46" s="21"/>
-      <c r="N46" s="21"/>
-      <c r="O46" s="21"/>
-      <c r="P46" s="21"/>
-      <c r="Q46" s="21"/>
-      <c r="R46" s="21"/>
-      <c r="S46" s="21"/>
-      <c r="T46" s="21"/>
-      <c r="U46" s="21"/>
-      <c r="V46" s="21"/>
-      <c r="W46" s="21"/>
-      <c r="X46" s="21"/>
-      <c r="Y46" s="21"/>
-      <c r="Z46" s="21"/>
-      <c r="AA46" s="21"/>
-      <c r="AB46" s="21"/>
-      <c r="AC46" s="21"/>
-      <c r="AD46" s="21"/>
-      <c r="AE46" s="21"/>
-      <c r="AF46" s="21"/>
-      <c r="AG46" s="21"/>
-      <c r="AH46" s="21"/>
-      <c r="AI46" s="21"/>
-      <c r="AJ46" s="21"/>
-      <c r="AK46" s="21"/>
-      <c r="AL46" s="21"/>
-      <c r="AM46" s="21"/>
-      <c r="AN46" s="21"/>
-      <c r="AO46" s="21"/>
-      <c r="AP46" s="21"/>
-      <c r="AQ46" s="21"/>
-      <c r="AR46" s="21"/>
-      <c r="AS46" s="21"/>
-      <c r="AT46" s="21"/>
-      <c r="AU46" s="21"/>
-      <c r="AV46" s="21"/>
-      <c r="AW46" s="21"/>
-      <c r="AX46" s="21"/>
-      <c r="AY46" s="21"/>
-      <c r="AZ46" s="21"/>
-      <c r="BA46" s="21"/>
-      <c r="BB46" s="21"/>
-      <c r="BC46" s="21"/>
-      <c r="BD46" s="21"/>
-      <c r="BE46" s="21"/>
-      <c r="BF46" s="21"/>
-      <c r="BG46" s="21"/>
-      <c r="BH46" s="21"/>
-      <c r="BI46" s="21"/>
-      <c r="BJ46" s="21"/>
-      <c r="BK46" s="21"/>
-      <c r="BL46" s="21"/>
-      <c r="BM46" s="21"/>
-      <c r="BN46" s="21"/>
-      <c r="BO46" s="21"/>
-      <c r="BP46" s="21"/>
-      <c r="BQ46" s="21"/>
+    <row r="55" spans="1:69" ht="21" customHeight="1">
+      <c r="A55" s="21"/>
+      <c r="B55" s="21"/>
+      <c r="C55" s="21"/>
+      <c r="D55" s="21"/>
+      <c r="E55" s="21"/>
+      <c r="F55" s="21"/>
+      <c r="G55" s="74"/>
+      <c r="H55" s="74"/>
+      <c r="I55" s="21"/>
+      <c r="J55" s="21"/>
+      <c r="K55" s="21"/>
+      <c r="L55" s="21"/>
+      <c r="M55" s="21"/>
+      <c r="N55" s="21"/>
+      <c r="O55" s="21"/>
+      <c r="P55" s="21"/>
+      <c r="Q55" s="21"/>
+      <c r="R55" s="21"/>
+      <c r="S55" s="21"/>
+      <c r="T55" s="21"/>
+      <c r="U55" s="21"/>
+      <c r="V55" s="21"/>
+      <c r="W55" s="21"/>
+      <c r="X55" s="21"/>
+      <c r="Y55" s="21"/>
+      <c r="Z55" s="21"/>
+      <c r="AA55" s="21"/>
+      <c r="AB55" s="21"/>
+      <c r="AC55" s="21"/>
+      <c r="AD55" s="21"/>
+      <c r="AE55" s="21"/>
+      <c r="AF55" s="21"/>
+      <c r="AG55" s="21"/>
+      <c r="AH55" s="21"/>
+      <c r="AI55" s="21"/>
+      <c r="AJ55" s="21"/>
+      <c r="AK55" s="21"/>
+      <c r="AL55" s="21"/>
+      <c r="AM55" s="21"/>
+      <c r="AN55" s="21"/>
+      <c r="AO55" s="21"/>
+      <c r="AP55" s="21"/>
+      <c r="AQ55" s="21"/>
+      <c r="AR55" s="21"/>
+      <c r="AS55" s="21"/>
+      <c r="AT55" s="21"/>
+      <c r="AU55" s="21"/>
+      <c r="AV55" s="21"/>
+      <c r="AW55" s="21"/>
+      <c r="AX55" s="21"/>
+      <c r="AY55" s="21"/>
+      <c r="AZ55" s="21"/>
+      <c r="BA55" s="21"/>
+      <c r="BB55" s="21"/>
+      <c r="BC55" s="21"/>
+      <c r="BD55" s="21"/>
+      <c r="BE55" s="21"/>
+      <c r="BF55" s="21"/>
+      <c r="BG55" s="21"/>
+      <c r="BH55" s="21"/>
+      <c r="BI55" s="21"/>
+      <c r="BJ55" s="21"/>
+      <c r="BK55" s="21"/>
+      <c r="BL55" s="21"/>
+      <c r="BM55" s="21"/>
+      <c r="BN55" s="21"/>
+      <c r="BO55" s="21"/>
+      <c r="BP55" s="21"/>
+      <c r="BQ55" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="34">
@@ -6496,26 +7621,6 @@
     <mergeCell ref="AM9:AQ9"/>
   </mergeCells>
   <phoneticPr fontId="30" type="noConversion"/>
-  <conditionalFormatting sqref="H12:H18 H20:H43">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFFFFF"/>
-        <color rgb="FF57BB8A"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H12:H18 H20:H43">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF57BB8A"/>
-        <color rgb="FFFFFFFF"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="K14">
     <cfRule type="notContainsBlanks" dxfId="1" priority="3">
       <formula>LEN(TRIM(K14))&gt;0</formula>
@@ -6526,6 +7631,26 @@
       <formula>LEN(TRIM(K14))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="H12:H18 H20:H52">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FF57BB8A"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12:H18 H20:H52">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF57BB8A"/>
+        <color rgb="FFFFFFFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/일정/갠트 차트.xlsx
+++ b/일정/갠트 차트.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sanghee\Desktop\develop\2wda_2semester\2WDA_YJSangSa_CapstoneDesign\일정\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\바탕 화면\2WDA_YJSangSa_CapstoneDesign\일정\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62A6108C-8786-4A7A-9BA0-9410323D7385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BE40636-3BEE-481F-8FCD-A91127969D04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="갠트 차트 템플릿" sheetId="1" r:id="rId1"/>
@@ -1909,7 +1909,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2040,9 +2040,6 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2166,15 +2163,51 @@
     <xf numFmtId="0" fontId="41" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2186,42 +2219,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2585,20 +2582,20 @@
   </sheetPr>
   <dimension ref="A1:BQ46"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="4.81640625" customWidth="1"/>
-    <col min="2" max="2" width="12.7265625" customWidth="1"/>
-    <col min="3" max="3" width="31.7265625" customWidth="1"/>
-    <col min="4" max="4" width="13.81640625" customWidth="1"/>
-    <col min="5" max="6" width="14.26953125" customWidth="1"/>
-    <col min="7" max="7" width="9.81640625" customWidth="1"/>
-    <col min="9" max="68" width="3.453125" customWidth="1"/>
-    <col min="69" max="69" width="3.81640625" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="31.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" customWidth="1"/>
+    <col min="5" max="6" width="14.28515625" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" customWidth="1"/>
+    <col min="9" max="68" width="3.42578125" customWidth="1"/>
+    <col min="69" max="69" width="3.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:69" ht="21" customHeight="1">
@@ -2672,46 +2669,46 @@
       <c r="BP1" s="1"/>
       <c r="BQ1" s="1"/>
     </row>
-    <row r="2" spans="1:69" ht="40.5">
+    <row r="2" spans="1:69" ht="41.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="106" t="s">
+      <c r="B2" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
       <c r="H2" s="10"/>
-      <c r="I2" s="104" t="s">
+      <c r="I2" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="105"/>
-      <c r="K2" s="105"/>
-      <c r="L2" s="105"/>
-      <c r="M2" s="105"/>
-      <c r="N2" s="105"/>
-      <c r="O2" s="109" t="s">
+      <c r="J2" s="94"/>
+      <c r="K2" s="94"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="94"/>
+      <c r="N2" s="94"/>
+      <c r="O2" s="100" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="105"/>
-      <c r="Q2" s="105"/>
-      <c r="R2" s="105"/>
-      <c r="S2" s="105"/>
-      <c r="T2" s="105"/>
-      <c r="U2" s="105"/>
-      <c r="V2" s="105"/>
-      <c r="W2" s="105"/>
-      <c r="X2" s="105"/>
-      <c r="Y2" s="105"/>
-      <c r="Z2" s="105"/>
-      <c r="AA2" s="105"/>
-      <c r="AB2" s="105"/>
-      <c r="AC2" s="105"/>
-      <c r="AD2" s="105"/>
-      <c r="AE2" s="105"/>
-      <c r="AF2" s="105"/>
-      <c r="AG2" s="105"/>
+      <c r="P2" s="94"/>
+      <c r="Q2" s="94"/>
+      <c r="R2" s="94"/>
+      <c r="S2" s="94"/>
+      <c r="T2" s="94"/>
+      <c r="U2" s="94"/>
+      <c r="V2" s="94"/>
+      <c r="W2" s="94"/>
+      <c r="X2" s="94"/>
+      <c r="Y2" s="94"/>
+      <c r="Z2" s="94"/>
+      <c r="AA2" s="94"/>
+      <c r="AB2" s="94"/>
+      <c r="AC2" s="94"/>
+      <c r="AD2" s="94"/>
+      <c r="AE2" s="94"/>
+      <c r="AF2" s="94"/>
+      <c r="AG2" s="94"/>
       <c r="AH2" s="11"/>
       <c r="AI2" s="11"/>
       <c r="AJ2" s="11"/>
@@ -2822,41 +2819,41 @@
     </row>
     <row r="4" spans="1:69" ht="21" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="101" t="s">
+      <c r="B4" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="102"/>
-      <c r="D4" s="99" t="s">
+      <c r="C4" s="97"/>
+      <c r="D4" s="101" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="102"/>
       <c r="H4" s="16"/>
-      <c r="I4" s="101" t="s">
+      <c r="I4" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="102"/>
-      <c r="K4" s="102"/>
-      <c r="L4" s="102"/>
-      <c r="M4" s="102"/>
-      <c r="N4" s="102"/>
-      <c r="O4" s="102"/>
-      <c r="P4" s="108" t="s">
+      <c r="J4" s="97"/>
+      <c r="K4" s="97"/>
+      <c r="L4" s="97"/>
+      <c r="M4" s="97"/>
+      <c r="N4" s="97"/>
+      <c r="O4" s="97"/>
+      <c r="P4" s="99" t="s">
         <v>39</v>
       </c>
-      <c r="Q4" s="102"/>
-      <c r="R4" s="102"/>
-      <c r="S4" s="102"/>
-      <c r="T4" s="102"/>
-      <c r="U4" s="102"/>
-      <c r="V4" s="102"/>
-      <c r="W4" s="102"/>
-      <c r="X4" s="102"/>
-      <c r="Y4" s="102"/>
-      <c r="Z4" s="102"/>
-      <c r="AA4" s="102"/>
-      <c r="AB4" s="102"/>
+      <c r="Q4" s="97"/>
+      <c r="R4" s="97"/>
+      <c r="S4" s="97"/>
+      <c r="T4" s="97"/>
+      <c r="U4" s="97"/>
+      <c r="V4" s="97"/>
+      <c r="W4" s="97"/>
+      <c r="X4" s="97"/>
+      <c r="Y4" s="97"/>
+      <c r="Z4" s="97"/>
+      <c r="AA4" s="97"/>
+      <c r="AB4" s="97"/>
       <c r="AC4" s="17"/>
       <c r="AD4" s="9"/>
       <c r="AE4" s="9"/>
@@ -2901,40 +2898,40 @@
     </row>
     <row r="5" spans="1:69" ht="21" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="101" t="s">
+      <c r="B5" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="102"/>
+      <c r="C5" s="97"/>
       <c r="D5" s="103" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="102"/>
-      <c r="F5" s="102"/>
-      <c r="G5" s="102"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="97"/>
+      <c r="G5" s="97"/>
       <c r="H5" s="18"/>
-      <c r="I5" s="101" t="s">
+      <c r="I5" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="102"/>
-      <c r="K5" s="102"/>
-      <c r="L5" s="102"/>
-      <c r="M5" s="102"/>
-      <c r="N5" s="102"/>
-      <c r="O5" s="102"/>
-      <c r="P5" s="107">
+      <c r="J5" s="97"/>
+      <c r="K5" s="97"/>
+      <c r="L5" s="97"/>
+      <c r="M5" s="97"/>
+      <c r="N5" s="97"/>
+      <c r="O5" s="97"/>
+      <c r="P5" s="98">
         <v>44992</v>
       </c>
-      <c r="Q5" s="102"/>
-      <c r="R5" s="102"/>
-      <c r="S5" s="102"/>
-      <c r="T5" s="102"/>
-      <c r="U5" s="102"/>
-      <c r="V5" s="102"/>
-      <c r="W5" s="102"/>
-      <c r="X5" s="102"/>
-      <c r="Y5" s="102"/>
-      <c r="Z5" s="102"/>
-      <c r="AA5" s="102"/>
+      <c r="Q5" s="97"/>
+      <c r="R5" s="97"/>
+      <c r="S5" s="97"/>
+      <c r="T5" s="97"/>
+      <c r="U5" s="97"/>
+      <c r="V5" s="97"/>
+      <c r="W5" s="97"/>
+      <c r="X5" s="97"/>
+      <c r="Y5" s="97"/>
+      <c r="Z5" s="97"/>
+      <c r="AA5" s="97"/>
       <c r="AB5" s="19"/>
       <c r="AC5" s="17"/>
       <c r="AD5" s="1"/>
@@ -3122,201 +3119,201 @@
     </row>
     <row r="8" spans="1:69" ht="17.25" customHeight="1">
       <c r="A8" s="24"/>
-      <c r="B8" s="98" t="s">
+      <c r="B8" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="98" t="s">
+      <c r="C8" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="98" t="s">
+      <c r="D8" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="98" t="s">
+      <c r="E8" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="98" t="s">
+      <c r="F8" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="98" t="s">
+      <c r="G8" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="98" t="s">
+      <c r="H8" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="111" t="s">
+      <c r="I8" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="92"/>
-      <c r="K8" s="92"/>
-      <c r="L8" s="92"/>
-      <c r="M8" s="92"/>
-      <c r="N8" s="92"/>
-      <c r="O8" s="92"/>
-      <c r="P8" s="92"/>
-      <c r="Q8" s="92"/>
-      <c r="R8" s="92"/>
-      <c r="S8" s="92"/>
-      <c r="T8" s="92"/>
-      <c r="U8" s="92"/>
-      <c r="V8" s="92"/>
-      <c r="W8" s="92"/>
-      <c r="X8" s="96" t="s">
+      <c r="J8" s="88"/>
+      <c r="K8" s="88"/>
+      <c r="L8" s="88"/>
+      <c r="M8" s="88"/>
+      <c r="N8" s="88"/>
+      <c r="O8" s="88"/>
+      <c r="P8" s="88"/>
+      <c r="Q8" s="88"/>
+      <c r="R8" s="88"/>
+      <c r="S8" s="88"/>
+      <c r="T8" s="88"/>
+      <c r="U8" s="88"/>
+      <c r="V8" s="88"/>
+      <c r="W8" s="88"/>
+      <c r="X8" s="109" t="s">
         <v>15</v>
       </c>
-      <c r="Y8" s="92"/>
-      <c r="Z8" s="92"/>
-      <c r="AA8" s="92"/>
-      <c r="AB8" s="92"/>
-      <c r="AC8" s="92"/>
-      <c r="AD8" s="92"/>
-      <c r="AE8" s="92"/>
-      <c r="AF8" s="92"/>
-      <c r="AG8" s="92"/>
-      <c r="AH8" s="92"/>
-      <c r="AI8" s="92"/>
-      <c r="AJ8" s="92"/>
-      <c r="AK8" s="92"/>
-      <c r="AL8" s="92"/>
-      <c r="AM8" s="95" t="s">
+      <c r="Y8" s="88"/>
+      <c r="Z8" s="88"/>
+      <c r="AA8" s="88"/>
+      <c r="AB8" s="88"/>
+      <c r="AC8" s="88"/>
+      <c r="AD8" s="88"/>
+      <c r="AE8" s="88"/>
+      <c r="AF8" s="88"/>
+      <c r="AG8" s="88"/>
+      <c r="AH8" s="88"/>
+      <c r="AI8" s="88"/>
+      <c r="AJ8" s="88"/>
+      <c r="AK8" s="88"/>
+      <c r="AL8" s="88"/>
+      <c r="AM8" s="108" t="s">
         <v>16</v>
       </c>
-      <c r="AN8" s="92"/>
-      <c r="AO8" s="92"/>
-      <c r="AP8" s="92"/>
-      <c r="AQ8" s="92"/>
-      <c r="AR8" s="92"/>
-      <c r="AS8" s="92"/>
-      <c r="AT8" s="92"/>
-      <c r="AU8" s="92"/>
-      <c r="AV8" s="92"/>
-      <c r="AW8" s="92"/>
-      <c r="AX8" s="92"/>
-      <c r="AY8" s="92"/>
-      <c r="AZ8" s="92"/>
-      <c r="BA8" s="92"/>
-      <c r="BB8" s="91" t="s">
+      <c r="AN8" s="88"/>
+      <c r="AO8" s="88"/>
+      <c r="AP8" s="88"/>
+      <c r="AQ8" s="88"/>
+      <c r="AR8" s="88"/>
+      <c r="AS8" s="88"/>
+      <c r="AT8" s="88"/>
+      <c r="AU8" s="88"/>
+      <c r="AV8" s="88"/>
+      <c r="AW8" s="88"/>
+      <c r="AX8" s="88"/>
+      <c r="AY8" s="88"/>
+      <c r="AZ8" s="88"/>
+      <c r="BA8" s="88"/>
+      <c r="BB8" s="105" t="s">
         <v>17</v>
       </c>
-      <c r="BC8" s="92"/>
-      <c r="BD8" s="92"/>
-      <c r="BE8" s="92"/>
-      <c r="BF8" s="92"/>
-      <c r="BG8" s="92"/>
-      <c r="BH8" s="92"/>
-      <c r="BI8" s="92"/>
-      <c r="BJ8" s="92"/>
-      <c r="BK8" s="92"/>
-      <c r="BL8" s="92"/>
-      <c r="BM8" s="92"/>
-      <c r="BN8" s="92"/>
-      <c r="BO8" s="92"/>
-      <c r="BP8" s="93"/>
+      <c r="BC8" s="88"/>
+      <c r="BD8" s="88"/>
+      <c r="BE8" s="88"/>
+      <c r="BF8" s="88"/>
+      <c r="BG8" s="88"/>
+      <c r="BH8" s="88"/>
+      <c r="BI8" s="88"/>
+      <c r="BJ8" s="88"/>
+      <c r="BK8" s="88"/>
+      <c r="BL8" s="88"/>
+      <c r="BM8" s="88"/>
+      <c r="BN8" s="88"/>
+      <c r="BO8" s="88"/>
+      <c r="BP8" s="106"/>
       <c r="BQ8" s="21"/>
     </row>
     <row r="9" spans="1:69" ht="17.25" customHeight="1">
       <c r="A9" s="25"/>
-      <c r="B9" s="92"/>
-      <c r="C9" s="92"/>
-      <c r="D9" s="92"/>
-      <c r="E9" s="92"/>
-      <c r="F9" s="92"/>
-      <c r="G9" s="92"/>
-      <c r="H9" s="92"/>
-      <c r="I9" s="110" t="s">
+      <c r="B9" s="88"/>
+      <c r="C9" s="88"/>
+      <c r="D9" s="88"/>
+      <c r="E9" s="88"/>
+      <c r="F9" s="88"/>
+      <c r="G9" s="88"/>
+      <c r="H9" s="88"/>
+      <c r="I9" s="89" t="s">
         <v>18</v>
       </c>
-      <c r="J9" s="89"/>
-      <c r="K9" s="89"/>
-      <c r="L9" s="89"/>
-      <c r="M9" s="90"/>
-      <c r="N9" s="110" t="s">
+      <c r="J9" s="90"/>
+      <c r="K9" s="90"/>
+      <c r="L9" s="90"/>
+      <c r="M9" s="91"/>
+      <c r="N9" s="89" t="s">
         <v>19</v>
       </c>
-      <c r="O9" s="89"/>
-      <c r="P9" s="89"/>
-      <c r="Q9" s="89"/>
-      <c r="R9" s="90"/>
-      <c r="S9" s="110" t="s">
+      <c r="O9" s="90"/>
+      <c r="P9" s="90"/>
+      <c r="Q9" s="90"/>
+      <c r="R9" s="91"/>
+      <c r="S9" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="T9" s="89"/>
-      <c r="U9" s="89"/>
-      <c r="V9" s="89"/>
-      <c r="W9" s="90"/>
-      <c r="X9" s="94" t="s">
+      <c r="T9" s="90"/>
+      <c r="U9" s="90"/>
+      <c r="V9" s="90"/>
+      <c r="W9" s="91"/>
+      <c r="X9" s="107" t="s">
         <v>21</v>
       </c>
-      <c r="Y9" s="89"/>
-      <c r="Z9" s="89"/>
-      <c r="AA9" s="89"/>
-      <c r="AB9" s="90"/>
-      <c r="AC9" s="94" t="s">
+      <c r="Y9" s="90"/>
+      <c r="Z9" s="90"/>
+      <c r="AA9" s="90"/>
+      <c r="AB9" s="91"/>
+      <c r="AC9" s="107" t="s">
         <v>22</v>
       </c>
-      <c r="AD9" s="89"/>
-      <c r="AE9" s="89"/>
-      <c r="AF9" s="89"/>
-      <c r="AG9" s="90"/>
-      <c r="AH9" s="94" t="s">
+      <c r="AD9" s="90"/>
+      <c r="AE9" s="90"/>
+      <c r="AF9" s="90"/>
+      <c r="AG9" s="91"/>
+      <c r="AH9" s="107" t="s">
         <v>23</v>
       </c>
-      <c r="AI9" s="89"/>
-      <c r="AJ9" s="89"/>
-      <c r="AK9" s="89"/>
-      <c r="AL9" s="90"/>
-      <c r="AM9" s="97" t="s">
+      <c r="AI9" s="90"/>
+      <c r="AJ9" s="90"/>
+      <c r="AK9" s="90"/>
+      <c r="AL9" s="91"/>
+      <c r="AM9" s="110" t="s">
         <v>24</v>
       </c>
-      <c r="AN9" s="89"/>
-      <c r="AO9" s="89"/>
-      <c r="AP9" s="89"/>
-      <c r="AQ9" s="90"/>
-      <c r="AR9" s="97" t="s">
+      <c r="AN9" s="90"/>
+      <c r="AO9" s="90"/>
+      <c r="AP9" s="90"/>
+      <c r="AQ9" s="91"/>
+      <c r="AR9" s="110" t="s">
         <v>25</v>
       </c>
-      <c r="AS9" s="89"/>
-      <c r="AT9" s="89"/>
-      <c r="AU9" s="89"/>
-      <c r="AV9" s="90"/>
-      <c r="AW9" s="97" t="s">
+      <c r="AS9" s="90"/>
+      <c r="AT9" s="90"/>
+      <c r="AU9" s="90"/>
+      <c r="AV9" s="91"/>
+      <c r="AW9" s="110" t="s">
         <v>26</v>
       </c>
-      <c r="AX9" s="89"/>
-      <c r="AY9" s="89"/>
-      <c r="AZ9" s="89"/>
-      <c r="BA9" s="90"/>
-      <c r="BB9" s="88" t="s">
+      <c r="AX9" s="90"/>
+      <c r="AY9" s="90"/>
+      <c r="AZ9" s="90"/>
+      <c r="BA9" s="91"/>
+      <c r="BB9" s="104" t="s">
         <v>27</v>
       </c>
-      <c r="BC9" s="89"/>
-      <c r="BD9" s="89"/>
-      <c r="BE9" s="89"/>
-      <c r="BF9" s="90"/>
-      <c r="BG9" s="88" t="s">
+      <c r="BC9" s="90"/>
+      <c r="BD9" s="90"/>
+      <c r="BE9" s="90"/>
+      <c r="BF9" s="91"/>
+      <c r="BG9" s="104" t="s">
         <v>28</v>
       </c>
-      <c r="BH9" s="89"/>
-      <c r="BI9" s="89"/>
-      <c r="BJ9" s="89"/>
-      <c r="BK9" s="90"/>
-      <c r="BL9" s="88" t="s">
+      <c r="BH9" s="90"/>
+      <c r="BI9" s="90"/>
+      <c r="BJ9" s="90"/>
+      <c r="BK9" s="91"/>
+      <c r="BL9" s="104" t="s">
         <v>29</v>
       </c>
-      <c r="BM9" s="89"/>
-      <c r="BN9" s="89"/>
-      <c r="BO9" s="89"/>
-      <c r="BP9" s="90"/>
+      <c r="BM9" s="90"/>
+      <c r="BN9" s="90"/>
+      <c r="BO9" s="90"/>
+      <c r="BP9" s="91"/>
       <c r="BQ9" s="25"/>
     </row>
     <row r="10" spans="1:69" ht="17.25" customHeight="1">
       <c r="A10" s="26"/>
-      <c r="B10" s="92"/>
-      <c r="C10" s="92"/>
-      <c r="D10" s="92"/>
-      <c r="E10" s="92"/>
-      <c r="F10" s="92"/>
-      <c r="G10" s="92"/>
-      <c r="H10" s="92"/>
+      <c r="B10" s="88"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="88"/>
+      <c r="E10" s="88"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="88"/>
+      <c r="H10" s="88"/>
       <c r="I10" s="27" t="s">
         <v>30</v>
       </c>
@@ -3504,7 +3501,7 @@
       <c r="B11" s="31">
         <v>1</v>
       </c>
-      <c r="C11" s="82" t="s">
+      <c r="C11" s="81" t="s">
         <v>50</v>
       </c>
       <c r="D11" s="33"/>
@@ -3579,10 +3576,10 @@
       <c r="B12" s="38">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C12" s="76" t="s">
+      <c r="C12" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="77" t="s">
+      <c r="D12" s="76" t="s">
         <v>43</v>
       </c>
       <c r="E12" s="40">
@@ -3598,16 +3595,16 @@
       <c r="H12" s="42">
         <v>1</v>
       </c>
-      <c r="I12" s="46"/>
-      <c r="J12" s="46"/>
-      <c r="K12" s="46"/>
-      <c r="L12" s="46"/>
-      <c r="M12" s="46"/>
-      <c r="N12" s="47"/>
-      <c r="O12" s="47"/>
-      <c r="P12" s="47"/>
-      <c r="Q12" s="47"/>
-      <c r="R12" s="47"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="53"/>
+      <c r="M12" s="53"/>
+      <c r="N12" s="69"/>
+      <c r="O12" s="69"/>
+      <c r="P12" s="69"/>
+      <c r="Q12" s="69"/>
+      <c r="R12" s="69"/>
       <c r="S12" s="45"/>
       <c r="T12" s="45"/>
       <c r="U12" s="45"/>
@@ -3618,11 +3615,11 @@
       <c r="Z12" s="45"/>
       <c r="AA12" s="45"/>
       <c r="AB12" s="45"/>
-      <c r="AC12" s="48"/>
-      <c r="AD12" s="48"/>
-      <c r="AE12" s="48"/>
-      <c r="AF12" s="48"/>
-      <c r="AG12" s="48"/>
+      <c r="AC12" s="47"/>
+      <c r="AD12" s="47"/>
+      <c r="AE12" s="47"/>
+      <c r="AF12" s="47"/>
+      <c r="AG12" s="47"/>
       <c r="AH12" s="45"/>
       <c r="AI12" s="45"/>
       <c r="AJ12" s="45"/>
@@ -3633,11 +3630,11 @@
       <c r="AO12" s="45"/>
       <c r="AP12" s="45"/>
       <c r="AQ12" s="45"/>
-      <c r="AR12" s="49"/>
-      <c r="AS12" s="49"/>
-      <c r="AT12" s="49"/>
-      <c r="AU12" s="49"/>
-      <c r="AV12" s="49"/>
+      <c r="AR12" s="48"/>
+      <c r="AS12" s="48"/>
+      <c r="AT12" s="48"/>
+      <c r="AU12" s="48"/>
+      <c r="AV12" s="48"/>
       <c r="AW12" s="45"/>
       <c r="AX12" s="45"/>
       <c r="AY12" s="45"/>
@@ -3648,16 +3645,16 @@
       <c r="BD12" s="45"/>
       <c r="BE12" s="45"/>
       <c r="BF12" s="45"/>
-      <c r="BG12" s="50"/>
-      <c r="BH12" s="50"/>
-      <c r="BI12" s="50"/>
-      <c r="BJ12" s="50"/>
-      <c r="BK12" s="50"/>
+      <c r="BG12" s="49"/>
+      <c r="BH12" s="49"/>
+      <c r="BI12" s="49"/>
+      <c r="BJ12" s="49"/>
+      <c r="BK12" s="49"/>
       <c r="BL12" s="45"/>
       <c r="BM12" s="45"/>
       <c r="BN12" s="45"/>
       <c r="BO12" s="45"/>
-      <c r="BP12" s="51"/>
+      <c r="BP12" s="50"/>
       <c r="BQ12" s="37"/>
     </row>
     <row r="13" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
@@ -3665,10 +3662,10 @@
       <c r="B13" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="78" t="s">
+      <c r="C13" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="79" t="s">
+      <c r="D13" s="78" t="s">
         <v>43</v>
       </c>
       <c r="E13" s="40">
@@ -3684,66 +3681,66 @@
       <c r="H13" s="42">
         <v>1</v>
       </c>
-      <c r="I13" s="52"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="54"/>
-      <c r="L13" s="54"/>
-      <c r="M13" s="54"/>
-      <c r="N13" s="56"/>
-      <c r="O13" s="56"/>
-      <c r="P13" s="56"/>
-      <c r="Q13" s="55"/>
-      <c r="R13" s="55"/>
-      <c r="S13" s="54"/>
-      <c r="T13" s="54"/>
-      <c r="U13" s="54"/>
-      <c r="V13" s="54"/>
-      <c r="W13" s="54"/>
-      <c r="X13" s="54"/>
-      <c r="Y13" s="54"/>
-      <c r="Z13" s="54"/>
-      <c r="AA13" s="54"/>
-      <c r="AB13" s="54"/>
-      <c r="AC13" s="57"/>
-      <c r="AD13" s="57"/>
-      <c r="AE13" s="57"/>
-      <c r="AF13" s="57"/>
-      <c r="AG13" s="57"/>
-      <c r="AH13" s="54"/>
-      <c r="AI13" s="54"/>
-      <c r="AJ13" s="54"/>
-      <c r="AK13" s="54"/>
-      <c r="AL13" s="54"/>
-      <c r="AM13" s="54"/>
-      <c r="AN13" s="54"/>
-      <c r="AO13" s="54"/>
-      <c r="AP13" s="54"/>
-      <c r="AQ13" s="54"/>
-      <c r="AR13" s="58"/>
-      <c r="AS13" s="58"/>
-      <c r="AT13" s="58"/>
-      <c r="AU13" s="58"/>
-      <c r="AV13" s="58"/>
-      <c r="AW13" s="54"/>
-      <c r="AX13" s="54"/>
-      <c r="AY13" s="54"/>
-      <c r="AZ13" s="54"/>
-      <c r="BA13" s="54"/>
-      <c r="BB13" s="54"/>
-      <c r="BC13" s="54"/>
-      <c r="BD13" s="54"/>
-      <c r="BE13" s="54"/>
-      <c r="BF13" s="54"/>
-      <c r="BG13" s="59"/>
-      <c r="BH13" s="59"/>
-      <c r="BI13" s="59"/>
-      <c r="BJ13" s="59"/>
-      <c r="BK13" s="59"/>
-      <c r="BL13" s="54"/>
-      <c r="BM13" s="54"/>
-      <c r="BN13" s="54"/>
-      <c r="BO13" s="54"/>
-      <c r="BP13" s="60"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="53"/>
+      <c r="M13" s="53"/>
+      <c r="N13" s="69"/>
+      <c r="O13" s="69"/>
+      <c r="P13" s="69"/>
+      <c r="Q13" s="69"/>
+      <c r="R13" s="69"/>
+      <c r="S13" s="53"/>
+      <c r="T13" s="53"/>
+      <c r="U13" s="53"/>
+      <c r="V13" s="53"/>
+      <c r="W13" s="53"/>
+      <c r="X13" s="53"/>
+      <c r="Y13" s="53"/>
+      <c r="Z13" s="53"/>
+      <c r="AA13" s="53"/>
+      <c r="AB13" s="53"/>
+      <c r="AC13" s="56"/>
+      <c r="AD13" s="56"/>
+      <c r="AE13" s="56"/>
+      <c r="AF13" s="56"/>
+      <c r="AG13" s="56"/>
+      <c r="AH13" s="53"/>
+      <c r="AI13" s="53"/>
+      <c r="AJ13" s="53"/>
+      <c r="AK13" s="53"/>
+      <c r="AL13" s="53"/>
+      <c r="AM13" s="53"/>
+      <c r="AN13" s="53"/>
+      <c r="AO13" s="53"/>
+      <c r="AP13" s="53"/>
+      <c r="AQ13" s="53"/>
+      <c r="AR13" s="57"/>
+      <c r="AS13" s="57"/>
+      <c r="AT13" s="57"/>
+      <c r="AU13" s="57"/>
+      <c r="AV13" s="57"/>
+      <c r="AW13" s="53"/>
+      <c r="AX13" s="53"/>
+      <c r="AY13" s="53"/>
+      <c r="AZ13" s="53"/>
+      <c r="BA13" s="53"/>
+      <c r="BB13" s="53"/>
+      <c r="BC13" s="53"/>
+      <c r="BD13" s="53"/>
+      <c r="BE13" s="53"/>
+      <c r="BF13" s="53"/>
+      <c r="BG13" s="58"/>
+      <c r="BH13" s="58"/>
+      <c r="BI13" s="58"/>
+      <c r="BJ13" s="58"/>
+      <c r="BK13" s="58"/>
+      <c r="BL13" s="53"/>
+      <c r="BM13" s="53"/>
+      <c r="BN13" s="53"/>
+      <c r="BO13" s="53"/>
+      <c r="BP13" s="59"/>
       <c r="BQ13" s="37"/>
     </row>
     <row r="14" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
@@ -3751,10 +3748,10 @@
       <c r="B14" s="38">
         <v>1.2</v>
       </c>
-      <c r="C14" s="77" t="s">
+      <c r="C14" s="76" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="79" t="s">
+      <c r="D14" s="78" t="s">
         <v>43</v>
       </c>
       <c r="E14" s="40">
@@ -3770,66 +3767,66 @@
       <c r="H14" s="42">
         <v>1</v>
       </c>
-      <c r="I14" s="52"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="54"/>
-      <c r="L14" s="54"/>
-      <c r="M14" s="54"/>
-      <c r="N14" s="55"/>
-      <c r="O14" s="55"/>
-      <c r="P14" s="56"/>
-      <c r="Q14" s="56"/>
-      <c r="R14" s="56"/>
-      <c r="S14" s="54"/>
-      <c r="T14" s="54"/>
-      <c r="U14" s="54"/>
-      <c r="V14" s="54"/>
-      <c r="W14" s="54"/>
-      <c r="X14" s="54"/>
-      <c r="Y14" s="54"/>
-      <c r="Z14" s="54"/>
-      <c r="AA14" s="54"/>
-      <c r="AB14" s="54"/>
-      <c r="AC14" s="57"/>
-      <c r="AD14" s="57"/>
-      <c r="AE14" s="57"/>
-      <c r="AF14" s="57"/>
-      <c r="AG14" s="57"/>
-      <c r="AH14" s="54"/>
-      <c r="AI14" s="54"/>
-      <c r="AJ14" s="54"/>
-      <c r="AK14" s="54"/>
-      <c r="AL14" s="54"/>
-      <c r="AM14" s="54"/>
-      <c r="AN14" s="54"/>
-      <c r="AO14" s="54"/>
-      <c r="AP14" s="54"/>
-      <c r="AQ14" s="54"/>
-      <c r="AR14" s="58"/>
-      <c r="AS14" s="58"/>
-      <c r="AT14" s="58"/>
-      <c r="AU14" s="58"/>
-      <c r="AV14" s="58"/>
-      <c r="AW14" s="54"/>
-      <c r="AX14" s="54"/>
-      <c r="AY14" s="54"/>
-      <c r="AZ14" s="54"/>
-      <c r="BA14" s="54"/>
-      <c r="BB14" s="54"/>
-      <c r="BC14" s="54"/>
-      <c r="BD14" s="54"/>
-      <c r="BE14" s="54"/>
-      <c r="BF14" s="54"/>
-      <c r="BG14" s="59"/>
-      <c r="BH14" s="59"/>
-      <c r="BI14" s="59"/>
-      <c r="BJ14" s="59"/>
-      <c r="BK14" s="59"/>
-      <c r="BL14" s="54"/>
-      <c r="BM14" s="54"/>
-      <c r="BN14" s="54"/>
-      <c r="BO14" s="54"/>
-      <c r="BP14" s="60"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="53"/>
+      <c r="M14" s="53"/>
+      <c r="N14" s="69"/>
+      <c r="O14" s="69"/>
+      <c r="P14" s="69"/>
+      <c r="Q14" s="69"/>
+      <c r="R14" s="69"/>
+      <c r="S14" s="53"/>
+      <c r="T14" s="53"/>
+      <c r="U14" s="53"/>
+      <c r="V14" s="53"/>
+      <c r="W14" s="53"/>
+      <c r="X14" s="53"/>
+      <c r="Y14" s="53"/>
+      <c r="Z14" s="53"/>
+      <c r="AA14" s="53"/>
+      <c r="AB14" s="53"/>
+      <c r="AC14" s="56"/>
+      <c r="AD14" s="56"/>
+      <c r="AE14" s="56"/>
+      <c r="AF14" s="56"/>
+      <c r="AG14" s="56"/>
+      <c r="AH14" s="53"/>
+      <c r="AI14" s="53"/>
+      <c r="AJ14" s="53"/>
+      <c r="AK14" s="53"/>
+      <c r="AL14" s="53"/>
+      <c r="AM14" s="53"/>
+      <c r="AN14" s="53"/>
+      <c r="AO14" s="53"/>
+      <c r="AP14" s="53"/>
+      <c r="AQ14" s="53"/>
+      <c r="AR14" s="57"/>
+      <c r="AS14" s="57"/>
+      <c r="AT14" s="57"/>
+      <c r="AU14" s="57"/>
+      <c r="AV14" s="57"/>
+      <c r="AW14" s="53"/>
+      <c r="AX14" s="53"/>
+      <c r="AY14" s="53"/>
+      <c r="AZ14" s="53"/>
+      <c r="BA14" s="53"/>
+      <c r="BB14" s="53"/>
+      <c r="BC14" s="53"/>
+      <c r="BD14" s="53"/>
+      <c r="BE14" s="53"/>
+      <c r="BF14" s="53"/>
+      <c r="BG14" s="58"/>
+      <c r="BH14" s="58"/>
+      <c r="BI14" s="58"/>
+      <c r="BJ14" s="58"/>
+      <c r="BK14" s="58"/>
+      <c r="BL14" s="53"/>
+      <c r="BM14" s="53"/>
+      <c r="BN14" s="53"/>
+      <c r="BO14" s="53"/>
+      <c r="BP14" s="59"/>
       <c r="BQ14" s="37"/>
     </row>
     <row r="15" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
@@ -3837,10 +3834,10 @@
       <c r="B15" s="38">
         <v>1.3</v>
       </c>
-      <c r="C15" s="80" t="s">
+      <c r="C15" s="79" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="79" t="s">
+      <c r="D15" s="78" t="s">
         <v>43</v>
       </c>
       <c r="E15" s="40">
@@ -3853,69 +3850,69 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H15" s="61">
+      <c r="H15" s="60">
         <v>1</v>
       </c>
-      <c r="I15" s="52"/>
-      <c r="J15" s="53"/>
-      <c r="K15" s="54"/>
-      <c r="L15" s="54"/>
-      <c r="M15" s="54"/>
-      <c r="N15" s="55"/>
-      <c r="O15" s="55"/>
-      <c r="P15" s="55"/>
-      <c r="Q15" s="55"/>
-      <c r="R15" s="55"/>
-      <c r="S15" s="56"/>
-      <c r="T15" s="56"/>
-      <c r="U15" s="54"/>
-      <c r="V15" s="54"/>
-      <c r="W15" s="54"/>
-      <c r="X15" s="54"/>
-      <c r="Y15" s="54"/>
-      <c r="Z15" s="54"/>
-      <c r="AA15" s="54"/>
-      <c r="AB15" s="54"/>
-      <c r="AC15" s="57"/>
-      <c r="AD15" s="57"/>
-      <c r="AE15" s="57"/>
-      <c r="AF15" s="57"/>
-      <c r="AG15" s="57"/>
-      <c r="AH15" s="54"/>
-      <c r="AI15" s="54"/>
-      <c r="AJ15" s="54"/>
-      <c r="AK15" s="54"/>
-      <c r="AL15" s="54"/>
-      <c r="AM15" s="54"/>
-      <c r="AN15" s="54"/>
-      <c r="AO15" s="54"/>
-      <c r="AP15" s="54"/>
-      <c r="AQ15" s="54"/>
-      <c r="AR15" s="58"/>
-      <c r="AS15" s="58"/>
-      <c r="AT15" s="58"/>
-      <c r="AU15" s="58"/>
-      <c r="AV15" s="58"/>
-      <c r="AW15" s="54"/>
-      <c r="AX15" s="54"/>
-      <c r="AY15" s="54"/>
-      <c r="AZ15" s="54"/>
-      <c r="BA15" s="54"/>
-      <c r="BB15" s="54"/>
-      <c r="BC15" s="54"/>
-      <c r="BD15" s="54"/>
-      <c r="BE15" s="54"/>
-      <c r="BF15" s="54"/>
-      <c r="BG15" s="59"/>
-      <c r="BH15" s="59"/>
-      <c r="BI15" s="59"/>
-      <c r="BJ15" s="59"/>
-      <c r="BK15" s="59"/>
-      <c r="BL15" s="54"/>
-      <c r="BM15" s="54"/>
-      <c r="BN15" s="54"/>
-      <c r="BO15" s="54"/>
-      <c r="BP15" s="60"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="53"/>
+      <c r="M15" s="53"/>
+      <c r="N15" s="69"/>
+      <c r="O15" s="69"/>
+      <c r="P15" s="69"/>
+      <c r="Q15" s="69"/>
+      <c r="R15" s="69"/>
+      <c r="S15" s="53"/>
+      <c r="T15" s="53"/>
+      <c r="U15" s="53"/>
+      <c r="V15" s="53"/>
+      <c r="W15" s="53"/>
+      <c r="X15" s="53"/>
+      <c r="Y15" s="53"/>
+      <c r="Z15" s="53"/>
+      <c r="AA15" s="53"/>
+      <c r="AB15" s="53"/>
+      <c r="AC15" s="56"/>
+      <c r="AD15" s="56"/>
+      <c r="AE15" s="56"/>
+      <c r="AF15" s="56"/>
+      <c r="AG15" s="56"/>
+      <c r="AH15" s="53"/>
+      <c r="AI15" s="53"/>
+      <c r="AJ15" s="53"/>
+      <c r="AK15" s="53"/>
+      <c r="AL15" s="53"/>
+      <c r="AM15" s="53"/>
+      <c r="AN15" s="53"/>
+      <c r="AO15" s="53"/>
+      <c r="AP15" s="53"/>
+      <c r="AQ15" s="53"/>
+      <c r="AR15" s="57"/>
+      <c r="AS15" s="57"/>
+      <c r="AT15" s="57"/>
+      <c r="AU15" s="57"/>
+      <c r="AV15" s="57"/>
+      <c r="AW15" s="53"/>
+      <c r="AX15" s="53"/>
+      <c r="AY15" s="53"/>
+      <c r="AZ15" s="53"/>
+      <c r="BA15" s="53"/>
+      <c r="BB15" s="53"/>
+      <c r="BC15" s="53"/>
+      <c r="BD15" s="53"/>
+      <c r="BE15" s="53"/>
+      <c r="BF15" s="53"/>
+      <c r="BG15" s="58"/>
+      <c r="BH15" s="58"/>
+      <c r="BI15" s="58"/>
+      <c r="BJ15" s="58"/>
+      <c r="BK15" s="58"/>
+      <c r="BL15" s="53"/>
+      <c r="BM15" s="53"/>
+      <c r="BN15" s="53"/>
+      <c r="BO15" s="53"/>
+      <c r="BP15" s="59"/>
       <c r="BQ15" s="37"/>
     </row>
     <row r="16" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
@@ -3926,7 +3923,7 @@
       <c r="C16" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="79" t="s">
+      <c r="D16" s="78" t="s">
         <v>43</v>
       </c>
       <c r="E16" s="40">
@@ -3942,66 +3939,66 @@
       <c r="H16" s="42">
         <v>1</v>
       </c>
-      <c r="I16" s="52"/>
-      <c r="J16" s="53"/>
-      <c r="K16" s="54"/>
-      <c r="L16" s="54"/>
-      <c r="M16" s="54"/>
-      <c r="N16" s="55"/>
-      <c r="O16" s="55"/>
-      <c r="P16" s="55"/>
-      <c r="Q16" s="55"/>
-      <c r="R16" s="55"/>
-      <c r="S16" s="54"/>
-      <c r="T16" s="54"/>
-      <c r="U16" s="56"/>
-      <c r="V16" s="56"/>
-      <c r="W16" s="56"/>
-      <c r="X16" s="54"/>
-      <c r="Y16" s="54"/>
-      <c r="Z16" s="54"/>
-      <c r="AA16" s="54"/>
-      <c r="AB16" s="54"/>
-      <c r="AC16" s="57"/>
-      <c r="AD16" s="57"/>
-      <c r="AE16" s="57"/>
-      <c r="AF16" s="57"/>
-      <c r="AG16" s="57"/>
-      <c r="AH16" s="54"/>
-      <c r="AI16" s="54"/>
-      <c r="AJ16" s="54"/>
-      <c r="AK16" s="54"/>
-      <c r="AL16" s="54"/>
-      <c r="AM16" s="54"/>
-      <c r="AN16" s="54"/>
-      <c r="AO16" s="54"/>
-      <c r="AP16" s="54"/>
-      <c r="AQ16" s="54"/>
-      <c r="AR16" s="58"/>
-      <c r="AS16" s="58"/>
-      <c r="AT16" s="58"/>
-      <c r="AU16" s="58"/>
-      <c r="AV16" s="58"/>
-      <c r="AW16" s="54"/>
-      <c r="AX16" s="54"/>
-      <c r="AY16" s="54"/>
-      <c r="AZ16" s="54"/>
-      <c r="BA16" s="54"/>
-      <c r="BB16" s="54"/>
-      <c r="BC16" s="54"/>
-      <c r="BD16" s="54"/>
-      <c r="BE16" s="54"/>
-      <c r="BF16" s="54"/>
-      <c r="BG16" s="59"/>
-      <c r="BH16" s="59"/>
-      <c r="BI16" s="59"/>
-      <c r="BJ16" s="59"/>
-      <c r="BK16" s="59"/>
-      <c r="BL16" s="54"/>
-      <c r="BM16" s="54"/>
-      <c r="BN16" s="54"/>
-      <c r="BO16" s="54"/>
-      <c r="BP16" s="60"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="53"/>
+      <c r="M16" s="53"/>
+      <c r="N16" s="69"/>
+      <c r="O16" s="69"/>
+      <c r="P16" s="69"/>
+      <c r="Q16" s="69"/>
+      <c r="R16" s="69"/>
+      <c r="S16" s="53"/>
+      <c r="T16" s="53"/>
+      <c r="U16" s="53"/>
+      <c r="V16" s="53"/>
+      <c r="W16" s="53"/>
+      <c r="X16" s="53"/>
+      <c r="Y16" s="53"/>
+      <c r="Z16" s="53"/>
+      <c r="AA16" s="53"/>
+      <c r="AB16" s="53"/>
+      <c r="AC16" s="56"/>
+      <c r="AD16" s="56"/>
+      <c r="AE16" s="56"/>
+      <c r="AF16" s="56"/>
+      <c r="AG16" s="56"/>
+      <c r="AH16" s="53"/>
+      <c r="AI16" s="53"/>
+      <c r="AJ16" s="53"/>
+      <c r="AK16" s="53"/>
+      <c r="AL16" s="53"/>
+      <c r="AM16" s="53"/>
+      <c r="AN16" s="53"/>
+      <c r="AO16" s="53"/>
+      <c r="AP16" s="53"/>
+      <c r="AQ16" s="53"/>
+      <c r="AR16" s="57"/>
+      <c r="AS16" s="57"/>
+      <c r="AT16" s="57"/>
+      <c r="AU16" s="57"/>
+      <c r="AV16" s="57"/>
+      <c r="AW16" s="53"/>
+      <c r="AX16" s="53"/>
+      <c r="AY16" s="53"/>
+      <c r="AZ16" s="53"/>
+      <c r="BA16" s="53"/>
+      <c r="BB16" s="53"/>
+      <c r="BC16" s="53"/>
+      <c r="BD16" s="53"/>
+      <c r="BE16" s="53"/>
+      <c r="BF16" s="53"/>
+      <c r="BG16" s="58"/>
+      <c r="BH16" s="58"/>
+      <c r="BI16" s="58"/>
+      <c r="BJ16" s="58"/>
+      <c r="BK16" s="58"/>
+      <c r="BL16" s="53"/>
+      <c r="BM16" s="53"/>
+      <c r="BN16" s="53"/>
+      <c r="BO16" s="53"/>
+      <c r="BP16" s="59"/>
       <c r="BQ16" s="37"/>
     </row>
     <row r="17" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
@@ -4009,10 +4006,10 @@
       <c r="B17" s="38">
         <v>1.5</v>
       </c>
-      <c r="C17" s="81" t="s">
+      <c r="C17" s="80" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="79" t="s">
+      <c r="D17" s="78" t="s">
         <v>43</v>
       </c>
       <c r="E17" s="40">
@@ -4025,155 +4022,155 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H17" s="83" t="s">
+      <c r="H17" s="82" t="s">
         <v>51</v>
       </c>
-      <c r="I17" s="52"/>
-      <c r="J17" s="53"/>
-      <c r="K17" s="54"/>
-      <c r="L17" s="54"/>
-      <c r="M17" s="54"/>
-      <c r="N17" s="55"/>
-      <c r="O17" s="55"/>
-      <c r="P17" s="55"/>
-      <c r="Q17" s="55"/>
-      <c r="R17" s="55"/>
-      <c r="S17" s="54"/>
-      <c r="T17" s="54"/>
-      <c r="U17" s="54"/>
-      <c r="V17" s="54"/>
-      <c r="W17" s="54"/>
-      <c r="X17" s="56"/>
-      <c r="Y17" s="56"/>
-      <c r="Z17" s="54"/>
-      <c r="AA17" s="54"/>
-      <c r="AB17" s="54"/>
-      <c r="AC17" s="57"/>
-      <c r="AD17" s="57"/>
-      <c r="AE17" s="57"/>
-      <c r="AF17" s="57"/>
-      <c r="AG17" s="57"/>
-      <c r="AH17" s="54"/>
-      <c r="AI17" s="54"/>
-      <c r="AJ17" s="54"/>
-      <c r="AK17" s="54"/>
-      <c r="AL17" s="54"/>
-      <c r="AM17" s="54"/>
-      <c r="AN17" s="54"/>
-      <c r="AO17" s="54"/>
-      <c r="AP17" s="54"/>
-      <c r="AQ17" s="54"/>
-      <c r="AR17" s="58"/>
-      <c r="AS17" s="58"/>
-      <c r="AT17" s="58"/>
-      <c r="AU17" s="58"/>
-      <c r="AV17" s="58"/>
-      <c r="AW17" s="54"/>
-      <c r="AX17" s="54"/>
-      <c r="AY17" s="54"/>
-      <c r="AZ17" s="54"/>
-      <c r="BA17" s="54"/>
-      <c r="BB17" s="54"/>
-      <c r="BC17" s="54"/>
-      <c r="BD17" s="54"/>
-      <c r="BE17" s="54"/>
-      <c r="BF17" s="54"/>
-      <c r="BG17" s="59"/>
-      <c r="BH17" s="59"/>
-      <c r="BI17" s="59"/>
-      <c r="BJ17" s="59"/>
-      <c r="BK17" s="59"/>
-      <c r="BL17" s="54"/>
-      <c r="BM17" s="54"/>
-      <c r="BN17" s="54"/>
-      <c r="BO17" s="54"/>
-      <c r="BP17" s="60"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="53"/>
+      <c r="M17" s="53"/>
+      <c r="N17" s="69"/>
+      <c r="O17" s="69"/>
+      <c r="P17" s="69"/>
+      <c r="Q17" s="69"/>
+      <c r="R17" s="69"/>
+      <c r="S17" s="53"/>
+      <c r="T17" s="53"/>
+      <c r="U17" s="53"/>
+      <c r="V17" s="53"/>
+      <c r="W17" s="53"/>
+      <c r="X17" s="53"/>
+      <c r="Y17" s="53"/>
+      <c r="Z17" s="53"/>
+      <c r="AA17" s="53"/>
+      <c r="AB17" s="53"/>
+      <c r="AC17" s="56"/>
+      <c r="AD17" s="56"/>
+      <c r="AE17" s="56"/>
+      <c r="AF17" s="56"/>
+      <c r="AG17" s="56"/>
+      <c r="AH17" s="53"/>
+      <c r="AI17" s="53"/>
+      <c r="AJ17" s="53"/>
+      <c r="AK17" s="53"/>
+      <c r="AL17" s="53"/>
+      <c r="AM17" s="53"/>
+      <c r="AN17" s="53"/>
+      <c r="AO17" s="53"/>
+      <c r="AP17" s="53"/>
+      <c r="AQ17" s="53"/>
+      <c r="AR17" s="57"/>
+      <c r="AS17" s="57"/>
+      <c r="AT17" s="57"/>
+      <c r="AU17" s="57"/>
+      <c r="AV17" s="57"/>
+      <c r="AW17" s="53"/>
+      <c r="AX17" s="53"/>
+      <c r="AY17" s="53"/>
+      <c r="AZ17" s="53"/>
+      <c r="BA17" s="53"/>
+      <c r="BB17" s="53"/>
+      <c r="BC17" s="53"/>
+      <c r="BD17" s="53"/>
+      <c r="BE17" s="53"/>
+      <c r="BF17" s="53"/>
+      <c r="BG17" s="58"/>
+      <c r="BH17" s="58"/>
+      <c r="BI17" s="58"/>
+      <c r="BJ17" s="58"/>
+      <c r="BK17" s="58"/>
+      <c r="BL17" s="53"/>
+      <c r="BM17" s="53"/>
+      <c r="BN17" s="53"/>
+      <c r="BO17" s="53"/>
+      <c r="BP17" s="59"/>
       <c r="BQ17" s="37"/>
     </row>
     <row r="18" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A18" s="37"/>
-      <c r="B18" s="62">
+      <c r="B18" s="61">
         <v>1.6</v>
       </c>
-      <c r="C18" s="63" t="s">
+      <c r="C18" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="79" t="s">
+      <c r="D18" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="E18" s="64">
+      <c r="E18" s="63">
         <v>44987</v>
       </c>
-      <c r="F18" s="64" t="s">
+      <c r="F18" s="63" t="s">
         <v>49</v>
       </c>
-      <c r="G18" s="65" t="e">
+      <c r="G18" s="64" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H18" s="66">
+      <c r="H18" s="65">
         <v>0.99</v>
       </c>
-      <c r="I18" s="67"/>
-      <c r="J18" s="68"/>
-      <c r="K18" s="69"/>
-      <c r="L18" s="69"/>
-      <c r="M18" s="69"/>
-      <c r="N18" s="70"/>
-      <c r="O18" s="70"/>
-      <c r="P18" s="70"/>
-      <c r="Q18" s="70"/>
-      <c r="R18" s="70"/>
-      <c r="S18" s="69"/>
-      <c r="T18" s="69"/>
-      <c r="U18" s="69"/>
-      <c r="V18" s="69"/>
-      <c r="W18" s="69"/>
-      <c r="X18" s="69"/>
-      <c r="Y18" s="69"/>
-      <c r="Z18" s="69"/>
-      <c r="AA18" s="69"/>
-      <c r="AB18" s="69"/>
-      <c r="AC18" s="71"/>
-      <c r="AD18" s="71"/>
-      <c r="AE18" s="71"/>
-      <c r="AF18" s="71"/>
-      <c r="AG18" s="71"/>
-      <c r="AH18" s="69"/>
-      <c r="AI18" s="69"/>
-      <c r="AJ18" s="69"/>
-      <c r="AK18" s="69"/>
-      <c r="AL18" s="69"/>
-      <c r="AM18" s="69"/>
-      <c r="AN18" s="69"/>
-      <c r="AO18" s="69"/>
-      <c r="AP18" s="69"/>
-      <c r="AQ18" s="69"/>
-      <c r="AR18" s="72"/>
-      <c r="AS18" s="72"/>
-      <c r="AT18" s="72"/>
-      <c r="AU18" s="72"/>
-      <c r="AV18" s="72"/>
-      <c r="AW18" s="69"/>
-      <c r="AX18" s="69"/>
-      <c r="AY18" s="69"/>
-      <c r="AZ18" s="69"/>
-      <c r="BA18" s="69"/>
-      <c r="BB18" s="69"/>
-      <c r="BC18" s="69"/>
-      <c r="BD18" s="69"/>
-      <c r="BE18" s="69"/>
-      <c r="BF18" s="69"/>
-      <c r="BG18" s="73"/>
-      <c r="BH18" s="73"/>
-      <c r="BI18" s="73"/>
-      <c r="BJ18" s="73"/>
-      <c r="BK18" s="73"/>
-      <c r="BL18" s="69"/>
-      <c r="BM18" s="69"/>
-      <c r="BN18" s="69"/>
-      <c r="BO18" s="69"/>
-      <c r="BP18" s="74"/>
+      <c r="I18" s="66"/>
+      <c r="J18" s="67"/>
+      <c r="K18" s="68"/>
+      <c r="L18" s="68"/>
+      <c r="M18" s="68"/>
+      <c r="N18" s="69"/>
+      <c r="O18" s="69"/>
+      <c r="P18" s="69"/>
+      <c r="Q18" s="69"/>
+      <c r="R18" s="69"/>
+      <c r="S18" s="68"/>
+      <c r="T18" s="68"/>
+      <c r="U18" s="68"/>
+      <c r="V18" s="68"/>
+      <c r="W18" s="68"/>
+      <c r="X18" s="68"/>
+      <c r="Y18" s="68"/>
+      <c r="Z18" s="68"/>
+      <c r="AA18" s="68"/>
+      <c r="AB18" s="68"/>
+      <c r="AC18" s="70"/>
+      <c r="AD18" s="70"/>
+      <c r="AE18" s="70"/>
+      <c r="AF18" s="70"/>
+      <c r="AG18" s="70"/>
+      <c r="AH18" s="68"/>
+      <c r="AI18" s="68"/>
+      <c r="AJ18" s="68"/>
+      <c r="AK18" s="68"/>
+      <c r="AL18" s="68"/>
+      <c r="AM18" s="68"/>
+      <c r="AN18" s="68"/>
+      <c r="AO18" s="68"/>
+      <c r="AP18" s="68"/>
+      <c r="AQ18" s="68"/>
+      <c r="AR18" s="71"/>
+      <c r="AS18" s="71"/>
+      <c r="AT18" s="71"/>
+      <c r="AU18" s="71"/>
+      <c r="AV18" s="71"/>
+      <c r="AW18" s="68"/>
+      <c r="AX18" s="68"/>
+      <c r="AY18" s="68"/>
+      <c r="AZ18" s="68"/>
+      <c r="BA18" s="68"/>
+      <c r="BB18" s="68"/>
+      <c r="BC18" s="68"/>
+      <c r="BD18" s="68"/>
+      <c r="BE18" s="68"/>
+      <c r="BF18" s="68"/>
+      <c r="BG18" s="72"/>
+      <c r="BH18" s="72"/>
+      <c r="BI18" s="72"/>
+      <c r="BJ18" s="72"/>
+      <c r="BK18" s="72"/>
+      <c r="BL18" s="68"/>
+      <c r="BM18" s="68"/>
+      <c r="BN18" s="68"/>
+      <c r="BO18" s="68"/>
+      <c r="BP18" s="73"/>
       <c r="BQ18" s="37"/>
     </row>
     <row r="19" spans="1:69" ht="21" customHeight="1">
@@ -4181,7 +4178,7 @@
       <c r="B19" s="31">
         <v>2</v>
       </c>
-      <c r="C19" s="84" t="s">
+      <c r="C19" s="83" t="s">
         <v>52</v>
       </c>
       <c r="D19" s="33"/>
@@ -4259,7 +4256,7 @@
       <c r="C20" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="D20" s="79" t="s">
+      <c r="D20" s="78" t="s">
         <v>43</v>
       </c>
       <c r="E20" s="40">
@@ -4274,46 +4271,46 @@
       <c r="H20" s="42">
         <v>0.75</v>
       </c>
-      <c r="I20" s="52"/>
-      <c r="J20" s="53"/>
-      <c r="K20" s="53"/>
-      <c r="L20" s="53"/>
-      <c r="M20" s="53"/>
-      <c r="N20" s="47"/>
-      <c r="O20" s="47"/>
-      <c r="P20" s="47"/>
-      <c r="Q20" s="47"/>
-      <c r="R20" s="47"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="52"/>
+      <c r="M20" s="52"/>
+      <c r="N20" s="46"/>
+      <c r="O20" s="46"/>
+      <c r="P20" s="46"/>
+      <c r="Q20" s="46"/>
+      <c r="R20" s="46"/>
       <c r="S20" s="45"/>
       <c r="T20" s="45"/>
       <c r="U20" s="45"/>
       <c r="V20" s="45"/>
       <c r="W20" s="45"/>
-      <c r="X20" s="54"/>
-      <c r="Y20" s="54"/>
-      <c r="Z20" s="54"/>
-      <c r="AA20" s="54"/>
-      <c r="AB20" s="56"/>
+      <c r="X20" s="53"/>
+      <c r="Y20" s="53"/>
+      <c r="Z20" s="53"/>
+      <c r="AA20" s="53"/>
+      <c r="AB20" s="53"/>
       <c r="AC20" s="56"/>
       <c r="AD20" s="56"/>
       <c r="AE20" s="56"/>
       <c r="AF20" s="56"/>
       <c r="AG20" s="56"/>
-      <c r="AH20" s="56"/>
-      <c r="AI20" s="56"/>
-      <c r="AJ20" s="56"/>
-      <c r="AK20" s="56"/>
-      <c r="AL20" s="56"/>
-      <c r="AM20" s="56"/>
-      <c r="AN20" s="56"/>
-      <c r="AO20" s="56"/>
-      <c r="AP20" s="56"/>
+      <c r="AH20" s="45"/>
+      <c r="AI20" s="45"/>
+      <c r="AJ20" s="45"/>
+      <c r="AK20" s="45"/>
+      <c r="AL20" s="45"/>
+      <c r="AM20" s="45"/>
+      <c r="AN20" s="45"/>
+      <c r="AO20" s="45"/>
+      <c r="AP20" s="45"/>
       <c r="AQ20" s="45"/>
-      <c r="AR20" s="49"/>
-      <c r="AS20" s="49"/>
-      <c r="AT20" s="49"/>
-      <c r="AU20" s="49"/>
-      <c r="AV20" s="49"/>
+      <c r="AR20" s="48"/>
+      <c r="AS20" s="48"/>
+      <c r="AT20" s="48"/>
+      <c r="AU20" s="48"/>
+      <c r="AV20" s="48"/>
       <c r="AW20" s="45"/>
       <c r="AX20" s="45"/>
       <c r="AY20" s="45"/>
@@ -4324,16 +4321,16 @@
       <c r="BD20" s="45"/>
       <c r="BE20" s="45"/>
       <c r="BF20" s="45"/>
-      <c r="BG20" s="50"/>
-      <c r="BH20" s="50"/>
-      <c r="BI20" s="50"/>
-      <c r="BJ20" s="50"/>
-      <c r="BK20" s="50"/>
+      <c r="BG20" s="49"/>
+      <c r="BH20" s="49"/>
+      <c r="BI20" s="49"/>
+      <c r="BJ20" s="49"/>
+      <c r="BK20" s="49"/>
       <c r="BL20" s="45"/>
       <c r="BM20" s="45"/>
       <c r="BN20" s="45"/>
       <c r="BO20" s="45"/>
-      <c r="BP20" s="51"/>
+      <c r="BP20" s="50"/>
       <c r="BQ20" s="37"/>
     </row>
     <row r="21" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
@@ -4344,7 +4341,7 @@
       <c r="C21" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="D21" s="79" t="s">
+      <c r="D21" s="78" t="s">
         <v>43</v>
       </c>
       <c r="E21" s="40">
@@ -4359,66 +4356,66 @@
       <c r="H21" s="42">
         <v>0.4</v>
       </c>
-      <c r="I21" s="52"/>
-      <c r="J21" s="53"/>
-      <c r="K21" s="53"/>
-      <c r="L21" s="53"/>
-      <c r="M21" s="53"/>
-      <c r="N21" s="55"/>
-      <c r="O21" s="55"/>
-      <c r="P21" s="55"/>
-      <c r="Q21" s="55"/>
-      <c r="R21" s="55"/>
-      <c r="S21" s="54"/>
-      <c r="T21" s="54"/>
-      <c r="U21" s="54"/>
-      <c r="V21" s="54"/>
-      <c r="W21" s="54"/>
-      <c r="X21" s="54"/>
-      <c r="Y21" s="54"/>
-      <c r="Z21" s="54"/>
-      <c r="AA21" s="54"/>
-      <c r="AB21" s="56"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="52"/>
+      <c r="M21" s="52"/>
+      <c r="N21" s="54"/>
+      <c r="O21" s="54"/>
+      <c r="P21" s="54"/>
+      <c r="Q21" s="54"/>
+      <c r="R21" s="54"/>
+      <c r="S21" s="53"/>
+      <c r="T21" s="53"/>
+      <c r="U21" s="53"/>
+      <c r="V21" s="53"/>
+      <c r="W21" s="53"/>
+      <c r="X21" s="53"/>
+      <c r="Y21" s="53"/>
+      <c r="Z21" s="53"/>
+      <c r="AA21" s="53"/>
+      <c r="AB21" s="53"/>
       <c r="AC21" s="56"/>
       <c r="AD21" s="56"/>
       <c r="AE21" s="56"/>
       <c r="AF21" s="56"/>
       <c r="AG21" s="56"/>
-      <c r="AH21" s="56"/>
-      <c r="AI21" s="56"/>
-      <c r="AJ21" s="56"/>
-      <c r="AK21" s="56"/>
-      <c r="AL21" s="56"/>
-      <c r="AM21" s="56"/>
-      <c r="AN21" s="56"/>
-      <c r="AO21" s="56"/>
-      <c r="AP21" s="56"/>
-      <c r="AQ21" s="54"/>
-      <c r="AR21" s="58"/>
-      <c r="AS21" s="58"/>
-      <c r="AT21" s="58"/>
-      <c r="AU21" s="58"/>
-      <c r="AV21" s="58"/>
-      <c r="AW21" s="54"/>
-      <c r="AX21" s="54"/>
-      <c r="AY21" s="54"/>
-      <c r="AZ21" s="54"/>
-      <c r="BA21" s="54"/>
-      <c r="BB21" s="54"/>
-      <c r="BC21" s="54"/>
-      <c r="BD21" s="54"/>
-      <c r="BE21" s="54"/>
-      <c r="BF21" s="54"/>
-      <c r="BG21" s="59"/>
-      <c r="BH21" s="59"/>
-      <c r="BI21" s="59"/>
-      <c r="BJ21" s="59"/>
-      <c r="BK21" s="59"/>
-      <c r="BL21" s="54"/>
-      <c r="BM21" s="54"/>
-      <c r="BN21" s="54"/>
-      <c r="BO21" s="54"/>
-      <c r="BP21" s="60"/>
+      <c r="AH21" s="53"/>
+      <c r="AI21" s="53"/>
+      <c r="AJ21" s="53"/>
+      <c r="AK21" s="53"/>
+      <c r="AL21" s="53"/>
+      <c r="AM21" s="53"/>
+      <c r="AN21" s="53"/>
+      <c r="AO21" s="53"/>
+      <c r="AP21" s="53"/>
+      <c r="AQ21" s="53"/>
+      <c r="AR21" s="57"/>
+      <c r="AS21" s="57"/>
+      <c r="AT21" s="57"/>
+      <c r="AU21" s="57"/>
+      <c r="AV21" s="57"/>
+      <c r="AW21" s="53"/>
+      <c r="AX21" s="53"/>
+      <c r="AY21" s="53"/>
+      <c r="AZ21" s="53"/>
+      <c r="BA21" s="53"/>
+      <c r="BB21" s="53"/>
+      <c r="BC21" s="53"/>
+      <c r="BD21" s="53"/>
+      <c r="BE21" s="53"/>
+      <c r="BF21" s="53"/>
+      <c r="BG21" s="58"/>
+      <c r="BH21" s="58"/>
+      <c r="BI21" s="58"/>
+      <c r="BJ21" s="58"/>
+      <c r="BK21" s="58"/>
+      <c r="BL21" s="53"/>
+      <c r="BM21" s="53"/>
+      <c r="BN21" s="53"/>
+      <c r="BO21" s="53"/>
+      <c r="BP21" s="59"/>
       <c r="BQ21" s="37"/>
     </row>
     <row r="22" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
@@ -4429,7 +4426,7 @@
       <c r="C22" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="D22" s="79" t="s">
+      <c r="D22" s="78" t="s">
         <v>58</v>
       </c>
       <c r="E22" s="40">
@@ -4444,66 +4441,66 @@
       <c r="H22" s="42">
         <v>0.8</v>
       </c>
-      <c r="I22" s="52"/>
-      <c r="J22" s="53"/>
-      <c r="K22" s="53"/>
-      <c r="L22" s="53"/>
-      <c r="M22" s="53"/>
-      <c r="N22" s="55"/>
-      <c r="O22" s="55"/>
-      <c r="P22" s="55"/>
-      <c r="Q22" s="55"/>
-      <c r="R22" s="55"/>
-      <c r="S22" s="54"/>
-      <c r="T22" s="54"/>
-      <c r="U22" s="54"/>
-      <c r="V22" s="54"/>
-      <c r="W22" s="54"/>
-      <c r="X22" s="54"/>
-      <c r="Y22" s="54"/>
-      <c r="Z22" s="54"/>
-      <c r="AA22" s="54"/>
-      <c r="AB22" s="56"/>
+      <c r="I22" s="51"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="52"/>
+      <c r="L22" s="52"/>
+      <c r="M22" s="52"/>
+      <c r="N22" s="54"/>
+      <c r="O22" s="54"/>
+      <c r="P22" s="54"/>
+      <c r="Q22" s="54"/>
+      <c r="R22" s="54"/>
+      <c r="S22" s="53"/>
+      <c r="T22" s="53"/>
+      <c r="U22" s="53"/>
+      <c r="V22" s="53"/>
+      <c r="W22" s="53"/>
+      <c r="X22" s="53"/>
+      <c r="Y22" s="53"/>
+      <c r="Z22" s="53"/>
+      <c r="AA22" s="53"/>
+      <c r="AB22" s="53"/>
       <c r="AC22" s="56"/>
       <c r="AD22" s="56"/>
       <c r="AE22" s="56"/>
       <c r="AF22" s="56"/>
       <c r="AG22" s="56"/>
-      <c r="AH22" s="56"/>
-      <c r="AI22" s="56"/>
-      <c r="AJ22" s="56"/>
-      <c r="AK22" s="56"/>
-      <c r="AL22" s="56"/>
-      <c r="AM22" s="56"/>
-      <c r="AN22" s="56"/>
-      <c r="AO22" s="56"/>
-      <c r="AP22" s="56"/>
-      <c r="AQ22" s="54"/>
-      <c r="AR22" s="58"/>
-      <c r="AS22" s="58"/>
-      <c r="AT22" s="58"/>
-      <c r="AU22" s="58"/>
-      <c r="AV22" s="58"/>
-      <c r="AW22" s="54"/>
-      <c r="AX22" s="54"/>
-      <c r="AY22" s="54"/>
-      <c r="AZ22" s="54"/>
-      <c r="BA22" s="54"/>
-      <c r="BB22" s="54"/>
-      <c r="BC22" s="54"/>
-      <c r="BD22" s="54"/>
-      <c r="BE22" s="54"/>
-      <c r="BF22" s="54"/>
-      <c r="BG22" s="59"/>
-      <c r="BH22" s="59"/>
-      <c r="BI22" s="59"/>
-      <c r="BJ22" s="59"/>
-      <c r="BK22" s="59"/>
-      <c r="BL22" s="54"/>
-      <c r="BM22" s="54"/>
-      <c r="BN22" s="54"/>
-      <c r="BO22" s="54"/>
-      <c r="BP22" s="60"/>
+      <c r="AH22" s="53"/>
+      <c r="AI22" s="53"/>
+      <c r="AJ22" s="53"/>
+      <c r="AK22" s="53"/>
+      <c r="AL22" s="53"/>
+      <c r="AM22" s="53"/>
+      <c r="AN22" s="53"/>
+      <c r="AO22" s="53"/>
+      <c r="AP22" s="53"/>
+      <c r="AQ22" s="53"/>
+      <c r="AR22" s="57"/>
+      <c r="AS22" s="57"/>
+      <c r="AT22" s="57"/>
+      <c r="AU22" s="57"/>
+      <c r="AV22" s="57"/>
+      <c r="AW22" s="53"/>
+      <c r="AX22" s="53"/>
+      <c r="AY22" s="53"/>
+      <c r="AZ22" s="53"/>
+      <c r="BA22" s="53"/>
+      <c r="BB22" s="53"/>
+      <c r="BC22" s="53"/>
+      <c r="BD22" s="53"/>
+      <c r="BE22" s="53"/>
+      <c r="BF22" s="53"/>
+      <c r="BG22" s="58"/>
+      <c r="BH22" s="58"/>
+      <c r="BI22" s="58"/>
+      <c r="BJ22" s="58"/>
+      <c r="BK22" s="58"/>
+      <c r="BL22" s="53"/>
+      <c r="BM22" s="53"/>
+      <c r="BN22" s="53"/>
+      <c r="BO22" s="53"/>
+      <c r="BP22" s="59"/>
       <c r="BQ22" s="37"/>
     </row>
     <row r="23" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
@@ -4511,10 +4508,10 @@
       <c r="B23" s="38">
         <v>2.4</v>
       </c>
-      <c r="C23" s="77" t="s">
+      <c r="C23" s="76" t="s">
         <v>54</v>
       </c>
-      <c r="D23" s="79" t="s">
+      <c r="D23" s="78" t="s">
         <v>43</v>
       </c>
       <c r="E23" s="40">
@@ -4526,72 +4523,72 @@
       <c r="G23" s="41">
         <v>1</v>
       </c>
-      <c r="H23" s="61">
+      <c r="H23" s="60">
         <v>1</v>
       </c>
-      <c r="I23" s="52"/>
-      <c r="J23" s="53"/>
-      <c r="K23" s="54"/>
-      <c r="L23" s="54"/>
-      <c r="M23" s="54"/>
-      <c r="N23" s="55"/>
-      <c r="O23" s="55"/>
-      <c r="P23" s="55"/>
-      <c r="Q23" s="55"/>
-      <c r="R23" s="55"/>
-      <c r="S23" s="54"/>
-      <c r="T23" s="54"/>
-      <c r="U23" s="54"/>
-      <c r="V23" s="54"/>
-      <c r="W23" s="54"/>
-      <c r="X23" s="54"/>
-      <c r="Y23" s="54"/>
-      <c r="Z23" s="54"/>
-      <c r="AA23" s="54"/>
-      <c r="AB23" s="54"/>
-      <c r="AC23" s="57"/>
-      <c r="AD23" s="57"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="53"/>
+      <c r="L23" s="53"/>
+      <c r="M23" s="53"/>
+      <c r="N23" s="54"/>
+      <c r="O23" s="54"/>
+      <c r="P23" s="54"/>
+      <c r="Q23" s="54"/>
+      <c r="R23" s="54"/>
+      <c r="S23" s="53"/>
+      <c r="T23" s="53"/>
+      <c r="U23" s="53"/>
+      <c r="V23" s="53"/>
+      <c r="W23" s="53"/>
+      <c r="X23" s="53"/>
+      <c r="Y23" s="53"/>
+      <c r="Z23" s="53"/>
+      <c r="AA23" s="53"/>
+      <c r="AB23" s="53"/>
+      <c r="AC23" s="56"/>
+      <c r="AD23" s="56"/>
       <c r="AE23" s="56"/>
-      <c r="AF23" s="57"/>
-      <c r="AG23" s="57"/>
-      <c r="AH23" s="54"/>
-      <c r="AI23" s="54"/>
-      <c r="AJ23" s="54"/>
-      <c r="AK23" s="54"/>
-      <c r="AL23" s="54"/>
-      <c r="AM23" s="54"/>
-      <c r="AN23" s="54"/>
-      <c r="AO23" s="54"/>
-      <c r="AP23" s="54"/>
-      <c r="AQ23" s="54"/>
-      <c r="AR23" s="58"/>
-      <c r="AS23" s="58"/>
-      <c r="AT23" s="58"/>
-      <c r="AU23" s="58"/>
-      <c r="AV23" s="58"/>
-      <c r="AW23" s="54"/>
-      <c r="AX23" s="54"/>
-      <c r="AY23" s="54"/>
-      <c r="AZ23" s="54"/>
-      <c r="BA23" s="54"/>
-      <c r="BB23" s="54"/>
-      <c r="BC23" s="54"/>
-      <c r="BD23" s="54"/>
-      <c r="BE23" s="54"/>
-      <c r="BF23" s="54"/>
-      <c r="BG23" s="59"/>
-      <c r="BH23" s="59"/>
-      <c r="BI23" s="59"/>
-      <c r="BJ23" s="59"/>
-      <c r="BK23" s="59"/>
-      <c r="BL23" s="54"/>
-      <c r="BM23" s="54"/>
-      <c r="BN23" s="54"/>
-      <c r="BO23" s="54"/>
-      <c r="BP23" s="60"/>
+      <c r="AF23" s="56"/>
+      <c r="AG23" s="56"/>
+      <c r="AH23" s="53"/>
+      <c r="AI23" s="53"/>
+      <c r="AJ23" s="53"/>
+      <c r="AK23" s="53"/>
+      <c r="AL23" s="53"/>
+      <c r="AM23" s="53"/>
+      <c r="AN23" s="53"/>
+      <c r="AO23" s="53"/>
+      <c r="AP23" s="53"/>
+      <c r="AQ23" s="53"/>
+      <c r="AR23" s="57"/>
+      <c r="AS23" s="57"/>
+      <c r="AT23" s="57"/>
+      <c r="AU23" s="57"/>
+      <c r="AV23" s="57"/>
+      <c r="AW23" s="53"/>
+      <c r="AX23" s="53"/>
+      <c r="AY23" s="53"/>
+      <c r="AZ23" s="53"/>
+      <c r="BA23" s="53"/>
+      <c r="BB23" s="53"/>
+      <c r="BC23" s="53"/>
+      <c r="BD23" s="53"/>
+      <c r="BE23" s="53"/>
+      <c r="BF23" s="53"/>
+      <c r="BG23" s="58"/>
+      <c r="BH23" s="58"/>
+      <c r="BI23" s="58"/>
+      <c r="BJ23" s="58"/>
+      <c r="BK23" s="58"/>
+      <c r="BL23" s="53"/>
+      <c r="BM23" s="53"/>
+      <c r="BN23" s="53"/>
+      <c r="BO23" s="53"/>
+      <c r="BP23" s="59"/>
       <c r="BQ23" s="37"/>
     </row>
-    <row r="24" spans="1:69" ht="17" customHeight="1" outlineLevel="1">
+    <row r="24" spans="1:69" ht="17.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A24" s="37"/>
       <c r="B24" s="38">
         <v>2.5</v>
@@ -4599,7 +4596,7 @@
       <c r="C24" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="D24" s="79" t="s">
+      <c r="D24" s="78" t="s">
         <v>56</v>
       </c>
       <c r="E24" s="40">
@@ -4614,66 +4611,66 @@
       <c r="H24" s="42">
         <v>1</v>
       </c>
-      <c r="I24" s="52"/>
-      <c r="J24" s="53"/>
-      <c r="K24" s="54"/>
-      <c r="L24" s="54"/>
-      <c r="M24" s="54"/>
-      <c r="N24" s="55"/>
-      <c r="O24" s="55"/>
-      <c r="P24" s="55"/>
-      <c r="Q24" s="55"/>
-      <c r="R24" s="55"/>
-      <c r="S24" s="54"/>
-      <c r="T24" s="54"/>
-      <c r="U24" s="54"/>
-      <c r="V24" s="54"/>
-      <c r="W24" s="54"/>
-      <c r="X24" s="54"/>
-      <c r="Y24" s="54"/>
-      <c r="Z24" s="54"/>
-      <c r="AA24" s="54"/>
-      <c r="AB24" s="54"/>
-      <c r="AC24" s="57"/>
-      <c r="AD24" s="57"/>
-      <c r="AE24" s="57"/>
-      <c r="AF24" s="57"/>
-      <c r="AG24" s="57"/>
-      <c r="AH24" s="56"/>
-      <c r="AI24" s="56"/>
-      <c r="AJ24" s="56"/>
-      <c r="AK24" s="56"/>
-      <c r="AL24" s="56"/>
-      <c r="AM24" s="54"/>
-      <c r="AN24" s="54"/>
-      <c r="AO24" s="54"/>
-      <c r="AP24" s="54"/>
-      <c r="AQ24" s="54"/>
-      <c r="AR24" s="58"/>
-      <c r="AS24" s="58"/>
-      <c r="AT24" s="58"/>
-      <c r="AU24" s="58"/>
-      <c r="AV24" s="58"/>
-      <c r="AW24" s="54"/>
-      <c r="AX24" s="54"/>
-      <c r="AY24" s="54"/>
-      <c r="AZ24" s="54"/>
-      <c r="BA24" s="54"/>
-      <c r="BB24" s="54"/>
-      <c r="BC24" s="54"/>
-      <c r="BD24" s="54"/>
-      <c r="BE24" s="54"/>
-      <c r="BF24" s="54"/>
-      <c r="BG24" s="59"/>
-      <c r="BH24" s="59"/>
-      <c r="BI24" s="59"/>
-      <c r="BJ24" s="59"/>
-      <c r="BK24" s="59"/>
-      <c r="BL24" s="54"/>
-      <c r="BM24" s="54"/>
-      <c r="BN24" s="54"/>
-      <c r="BO24" s="54"/>
-      <c r="BP24" s="60"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="53"/>
+      <c r="L24" s="53"/>
+      <c r="M24" s="53"/>
+      <c r="N24" s="54"/>
+      <c r="O24" s="54"/>
+      <c r="P24" s="54"/>
+      <c r="Q24" s="54"/>
+      <c r="R24" s="54"/>
+      <c r="S24" s="53"/>
+      <c r="T24" s="53"/>
+      <c r="U24" s="53"/>
+      <c r="V24" s="53"/>
+      <c r="W24" s="53"/>
+      <c r="X24" s="53"/>
+      <c r="Y24" s="53"/>
+      <c r="Z24" s="53"/>
+      <c r="AA24" s="53"/>
+      <c r="AB24" s="53"/>
+      <c r="AC24" s="56"/>
+      <c r="AD24" s="56"/>
+      <c r="AE24" s="56"/>
+      <c r="AF24" s="56"/>
+      <c r="AG24" s="56"/>
+      <c r="AH24" s="53"/>
+      <c r="AI24" s="53"/>
+      <c r="AJ24" s="53"/>
+      <c r="AK24" s="53"/>
+      <c r="AL24" s="53"/>
+      <c r="AM24" s="53"/>
+      <c r="AN24" s="53"/>
+      <c r="AO24" s="53"/>
+      <c r="AP24" s="53"/>
+      <c r="AQ24" s="53"/>
+      <c r="AR24" s="57"/>
+      <c r="AS24" s="57"/>
+      <c r="AT24" s="57"/>
+      <c r="AU24" s="57"/>
+      <c r="AV24" s="57"/>
+      <c r="AW24" s="53"/>
+      <c r="AX24" s="53"/>
+      <c r="AY24" s="53"/>
+      <c r="AZ24" s="53"/>
+      <c r="BA24" s="53"/>
+      <c r="BB24" s="53"/>
+      <c r="BC24" s="53"/>
+      <c r="BD24" s="53"/>
+      <c r="BE24" s="53"/>
+      <c r="BF24" s="53"/>
+      <c r="BG24" s="58"/>
+      <c r="BH24" s="58"/>
+      <c r="BI24" s="58"/>
+      <c r="BJ24" s="58"/>
+      <c r="BK24" s="58"/>
+      <c r="BL24" s="53"/>
+      <c r="BM24" s="53"/>
+      <c r="BN24" s="53"/>
+      <c r="BO24" s="53"/>
+      <c r="BP24" s="59"/>
       <c r="BQ24" s="37"/>
     </row>
     <row r="25" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
@@ -4684,7 +4681,7 @@
       <c r="C25" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="D25" s="79" t="s">
+      <c r="D25" s="78" t="s">
         <v>61</v>
       </c>
       <c r="E25" s="40">
@@ -4696,69 +4693,69 @@
       <c r="G25" s="41">
         <v>8</v>
       </c>
-      <c r="H25" s="61">
+      <c r="H25" s="60">
         <v>1</v>
       </c>
-      <c r="I25" s="52"/>
-      <c r="J25" s="53"/>
-      <c r="K25" s="54"/>
-      <c r="L25" s="54"/>
-      <c r="M25" s="54"/>
-      <c r="N25" s="55"/>
-      <c r="O25" s="55"/>
-      <c r="P25" s="55"/>
-      <c r="Q25" s="55"/>
-      <c r="R25" s="55"/>
-      <c r="S25" s="54"/>
-      <c r="T25" s="54"/>
-      <c r="U25" s="54"/>
-      <c r="V25" s="54"/>
-      <c r="W25" s="54"/>
-      <c r="X25" s="54"/>
-      <c r="Y25" s="54"/>
-      <c r="Z25" s="54"/>
-      <c r="AA25" s="54"/>
-      <c r="AB25" s="54"/>
-      <c r="AC25" s="57"/>
-      <c r="AD25" s="57"/>
-      <c r="AE25" s="57"/>
-      <c r="AF25" s="57"/>
-      <c r="AG25" s="57"/>
-      <c r="AH25" s="56"/>
-      <c r="AI25" s="56"/>
-      <c r="AJ25" s="56"/>
-      <c r="AK25" s="56"/>
-      <c r="AL25" s="56"/>
-      <c r="AM25" s="56"/>
-      <c r="AN25" s="56"/>
-      <c r="AO25" s="54"/>
-      <c r="AP25" s="54"/>
-      <c r="AQ25" s="54"/>
-      <c r="AR25" s="58"/>
-      <c r="AS25" s="58"/>
-      <c r="AT25" s="58"/>
-      <c r="AU25" s="58"/>
-      <c r="AV25" s="58"/>
-      <c r="AW25" s="54"/>
-      <c r="AX25" s="54"/>
-      <c r="AY25" s="54"/>
-      <c r="AZ25" s="54"/>
-      <c r="BA25" s="54"/>
-      <c r="BB25" s="54"/>
-      <c r="BC25" s="54"/>
-      <c r="BD25" s="54"/>
-      <c r="BE25" s="54"/>
-      <c r="BF25" s="54"/>
-      <c r="BG25" s="59"/>
-      <c r="BH25" s="59"/>
-      <c r="BI25" s="59"/>
-      <c r="BJ25" s="59"/>
-      <c r="BK25" s="59"/>
-      <c r="BL25" s="54"/>
-      <c r="BM25" s="54"/>
-      <c r="BN25" s="54"/>
-      <c r="BO25" s="54"/>
-      <c r="BP25" s="60"/>
+      <c r="I25" s="51"/>
+      <c r="J25" s="52"/>
+      <c r="K25" s="53"/>
+      <c r="L25" s="53"/>
+      <c r="M25" s="53"/>
+      <c r="N25" s="54"/>
+      <c r="O25" s="54"/>
+      <c r="P25" s="54"/>
+      <c r="Q25" s="54"/>
+      <c r="R25" s="54"/>
+      <c r="S25" s="53"/>
+      <c r="T25" s="53"/>
+      <c r="U25" s="53"/>
+      <c r="V25" s="53"/>
+      <c r="W25" s="53"/>
+      <c r="X25" s="53"/>
+      <c r="Y25" s="53"/>
+      <c r="Z25" s="53"/>
+      <c r="AA25" s="53"/>
+      <c r="AB25" s="53"/>
+      <c r="AC25" s="56"/>
+      <c r="AD25" s="56"/>
+      <c r="AE25" s="56"/>
+      <c r="AF25" s="56"/>
+      <c r="AG25" s="56"/>
+      <c r="AH25" s="53"/>
+      <c r="AI25" s="53"/>
+      <c r="AJ25" s="53"/>
+      <c r="AK25" s="53"/>
+      <c r="AL25" s="53"/>
+      <c r="AM25" s="53"/>
+      <c r="AN25" s="53"/>
+      <c r="AO25" s="53"/>
+      <c r="AP25" s="53"/>
+      <c r="AQ25" s="53"/>
+      <c r="AR25" s="57"/>
+      <c r="AS25" s="57"/>
+      <c r="AT25" s="57"/>
+      <c r="AU25" s="57"/>
+      <c r="AV25" s="57"/>
+      <c r="AW25" s="53"/>
+      <c r="AX25" s="53"/>
+      <c r="AY25" s="53"/>
+      <c r="AZ25" s="53"/>
+      <c r="BA25" s="53"/>
+      <c r="BB25" s="53"/>
+      <c r="BC25" s="53"/>
+      <c r="BD25" s="53"/>
+      <c r="BE25" s="53"/>
+      <c r="BF25" s="53"/>
+      <c r="BG25" s="58"/>
+      <c r="BH25" s="58"/>
+      <c r="BI25" s="58"/>
+      <c r="BJ25" s="58"/>
+      <c r="BK25" s="58"/>
+      <c r="BL25" s="53"/>
+      <c r="BM25" s="53"/>
+      <c r="BN25" s="53"/>
+      <c r="BO25" s="53"/>
+      <c r="BP25" s="59"/>
       <c r="BQ25" s="37"/>
     </row>
     <row r="26" spans="1:69" ht="30" customHeight="1" outlineLevel="1">
@@ -4766,10 +4763,10 @@
       <c r="B26" s="38">
         <v>2.7</v>
       </c>
-      <c r="C26" s="85" t="s">
+      <c r="C26" s="84" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="79" t="s">
+      <c r="D26" s="78" t="s">
         <v>60</v>
       </c>
       <c r="E26" s="40">
@@ -4781,69 +4778,69 @@
       <c r="G26" s="41">
         <v>9</v>
       </c>
-      <c r="H26" s="61">
+      <c r="H26" s="60">
         <v>1</v>
       </c>
-      <c r="I26" s="52"/>
-      <c r="J26" s="53"/>
-      <c r="K26" s="54"/>
-      <c r="L26" s="54"/>
-      <c r="M26" s="54"/>
-      <c r="N26" s="55"/>
-      <c r="O26" s="55"/>
-      <c r="P26" s="55"/>
-      <c r="Q26" s="55"/>
-      <c r="R26" s="55"/>
-      <c r="S26" s="54"/>
-      <c r="T26" s="54"/>
-      <c r="U26" s="54"/>
-      <c r="V26" s="54"/>
-      <c r="W26" s="54"/>
-      <c r="X26" s="54"/>
-      <c r="Y26" s="54"/>
-      <c r="Z26" s="54"/>
-      <c r="AA26" s="54"/>
-      <c r="AB26" s="54"/>
-      <c r="AC26" s="57"/>
-      <c r="AD26" s="57"/>
-      <c r="AE26" s="57"/>
-      <c r="AF26" s="57"/>
-      <c r="AG26" s="57"/>
-      <c r="AH26" s="56"/>
-      <c r="AI26" s="56"/>
-      <c r="AJ26" s="56"/>
-      <c r="AK26" s="56"/>
-      <c r="AL26" s="56"/>
-      <c r="AM26" s="56"/>
-      <c r="AN26" s="56"/>
-      <c r="AO26" s="56"/>
-      <c r="AP26" s="56"/>
-      <c r="AQ26" s="54"/>
-      <c r="AR26" s="58"/>
-      <c r="AS26" s="58"/>
-      <c r="AT26" s="58"/>
-      <c r="AU26" s="58"/>
-      <c r="AV26" s="58"/>
-      <c r="AW26" s="54"/>
-      <c r="AX26" s="54"/>
-      <c r="AY26" s="54"/>
-      <c r="AZ26" s="54"/>
-      <c r="BA26" s="54"/>
-      <c r="BB26" s="54"/>
-      <c r="BC26" s="54"/>
-      <c r="BD26" s="54"/>
-      <c r="BE26" s="54"/>
-      <c r="BF26" s="54"/>
-      <c r="BG26" s="59"/>
-      <c r="BH26" s="59"/>
-      <c r="BI26" s="59"/>
-      <c r="BJ26" s="59"/>
-      <c r="BK26" s="59"/>
-      <c r="BL26" s="54"/>
-      <c r="BM26" s="54"/>
-      <c r="BN26" s="54"/>
-      <c r="BO26" s="54"/>
-      <c r="BP26" s="60"/>
+      <c r="I26" s="51"/>
+      <c r="J26" s="52"/>
+      <c r="K26" s="53"/>
+      <c r="L26" s="53"/>
+      <c r="M26" s="53"/>
+      <c r="N26" s="54"/>
+      <c r="O26" s="54"/>
+      <c r="P26" s="54"/>
+      <c r="Q26" s="54"/>
+      <c r="R26" s="54"/>
+      <c r="S26" s="53"/>
+      <c r="T26" s="53"/>
+      <c r="U26" s="53"/>
+      <c r="V26" s="53"/>
+      <c r="W26" s="53"/>
+      <c r="X26" s="53"/>
+      <c r="Y26" s="53"/>
+      <c r="Z26" s="53"/>
+      <c r="AA26" s="53"/>
+      <c r="AB26" s="53"/>
+      <c r="AC26" s="56"/>
+      <c r="AD26" s="56"/>
+      <c r="AE26" s="56"/>
+      <c r="AF26" s="56"/>
+      <c r="AG26" s="56"/>
+      <c r="AH26" s="53"/>
+      <c r="AI26" s="53"/>
+      <c r="AJ26" s="53"/>
+      <c r="AK26" s="53"/>
+      <c r="AL26" s="53"/>
+      <c r="AM26" s="53"/>
+      <c r="AN26" s="53"/>
+      <c r="AO26" s="53"/>
+      <c r="AP26" s="53"/>
+      <c r="AQ26" s="53"/>
+      <c r="AR26" s="57"/>
+      <c r="AS26" s="57"/>
+      <c r="AT26" s="57"/>
+      <c r="AU26" s="57"/>
+      <c r="AV26" s="57"/>
+      <c r="AW26" s="53"/>
+      <c r="AX26" s="53"/>
+      <c r="AY26" s="53"/>
+      <c r="AZ26" s="53"/>
+      <c r="BA26" s="53"/>
+      <c r="BB26" s="53"/>
+      <c r="BC26" s="53"/>
+      <c r="BD26" s="53"/>
+      <c r="BE26" s="53"/>
+      <c r="BF26" s="53"/>
+      <c r="BG26" s="58"/>
+      <c r="BH26" s="58"/>
+      <c r="BI26" s="58"/>
+      <c r="BJ26" s="58"/>
+      <c r="BK26" s="58"/>
+      <c r="BL26" s="53"/>
+      <c r="BM26" s="53"/>
+      <c r="BN26" s="53"/>
+      <c r="BO26" s="53"/>
+      <c r="BP26" s="59"/>
       <c r="BQ26" s="37"/>
     </row>
     <row r="27" spans="1:69" ht="21" customHeight="1">
@@ -4851,7 +4848,7 @@
       <c r="B27" s="31">
         <v>3</v>
       </c>
-      <c r="C27" s="84" t="s">
+      <c r="C27" s="83" t="s">
         <v>59</v>
       </c>
       <c r="D27" s="33"/>
@@ -4921,15 +4918,15 @@
       <c r="BP27" s="34"/>
       <c r="BQ27" s="21"/>
     </row>
-    <row r="28" spans="1:69" ht="35.5" customHeight="1" outlineLevel="1">
+    <row r="28" spans="1:69" ht="35.450000000000003" customHeight="1" outlineLevel="1">
       <c r="A28" s="37"/>
       <c r="B28" s="38">
         <v>3.1</v>
       </c>
-      <c r="C28" s="80" t="s">
+      <c r="C28" s="79" t="s">
         <v>62</v>
       </c>
-      <c r="D28" s="78" t="s">
+      <c r="D28" s="77" t="s">
         <v>43</v>
       </c>
       <c r="E28" s="40">
@@ -4949,11 +4946,11 @@
       <c r="K28" s="45"/>
       <c r="L28" s="45"/>
       <c r="M28" s="45"/>
-      <c r="N28" s="55"/>
-      <c r="O28" s="55"/>
-      <c r="P28" s="55"/>
-      <c r="Q28" s="55"/>
-      <c r="R28" s="55"/>
+      <c r="N28" s="54"/>
+      <c r="O28" s="54"/>
+      <c r="P28" s="54"/>
+      <c r="Q28" s="54"/>
+      <c r="R28" s="54"/>
       <c r="S28" s="45"/>
       <c r="T28" s="45"/>
       <c r="U28" s="45"/>
@@ -4964,11 +4961,11 @@
       <c r="Z28" s="45"/>
       <c r="AA28" s="45"/>
       <c r="AB28" s="45"/>
-      <c r="AC28" s="48"/>
-      <c r="AD28" s="48"/>
-      <c r="AE28" s="48"/>
-      <c r="AF28" s="48"/>
-      <c r="AG28" s="48"/>
+      <c r="AC28" s="47"/>
+      <c r="AD28" s="47"/>
+      <c r="AE28" s="47"/>
+      <c r="AF28" s="47"/>
+      <c r="AG28" s="47"/>
       <c r="AH28" s="45"/>
       <c r="AI28" s="45"/>
       <c r="AJ28" s="45"/>
@@ -4979,11 +4976,11 @@
       <c r="AO28" s="45"/>
       <c r="AP28" s="45"/>
       <c r="AQ28" s="45"/>
-      <c r="AR28" s="49"/>
-      <c r="AS28" s="49"/>
-      <c r="AT28" s="49"/>
-      <c r="AU28" s="49"/>
-      <c r="AV28" s="49"/>
+      <c r="AR28" s="48"/>
+      <c r="AS28" s="48"/>
+      <c r="AT28" s="48"/>
+      <c r="AU28" s="48"/>
+      <c r="AV28" s="48"/>
       <c r="AW28" s="45"/>
       <c r="AX28" s="45"/>
       <c r="AY28" s="45"/>
@@ -4994,16 +4991,16 @@
       <c r="BD28" s="45"/>
       <c r="BE28" s="45"/>
       <c r="BF28" s="45"/>
-      <c r="BG28" s="50"/>
-      <c r="BH28" s="50"/>
-      <c r="BI28" s="50"/>
-      <c r="BJ28" s="50"/>
-      <c r="BK28" s="50"/>
+      <c r="BG28" s="49"/>
+      <c r="BH28" s="49"/>
+      <c r="BI28" s="49"/>
+      <c r="BJ28" s="49"/>
+      <c r="BK28" s="49"/>
       <c r="BL28" s="45"/>
       <c r="BM28" s="45"/>
       <c r="BN28" s="45"/>
       <c r="BO28" s="45"/>
-      <c r="BP28" s="51"/>
+      <c r="BP28" s="50"/>
       <c r="BQ28" s="37"/>
     </row>
     <row r="29" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
@@ -5011,10 +5008,10 @@
       <c r="B29" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="C29" s="80" t="s">
+      <c r="C29" s="79" t="s">
         <v>66</v>
       </c>
-      <c r="D29" s="79" t="s">
+      <c r="D29" s="78" t="s">
         <v>43</v>
       </c>
       <c r="E29" s="40">
@@ -5029,66 +5026,66 @@
       <c r="H29" s="42">
         <v>0.7</v>
       </c>
-      <c r="I29" s="52"/>
-      <c r="J29" s="53"/>
-      <c r="K29" s="54"/>
-      <c r="L29" s="54"/>
-      <c r="M29" s="54"/>
-      <c r="N29" s="55"/>
-      <c r="O29" s="55"/>
-      <c r="P29" s="55"/>
-      <c r="Q29" s="55"/>
-      <c r="R29" s="55"/>
+      <c r="I29" s="51"/>
+      <c r="J29" s="52"/>
+      <c r="K29" s="53"/>
+      <c r="L29" s="53"/>
+      <c r="M29" s="53"/>
+      <c r="N29" s="54"/>
+      <c r="O29" s="54"/>
+      <c r="P29" s="54"/>
+      <c r="Q29" s="54"/>
+      <c r="R29" s="54"/>
       <c r="S29" s="45"/>
       <c r="T29" s="45"/>
       <c r="U29" s="45"/>
       <c r="V29" s="45"/>
-      <c r="W29" s="54"/>
-      <c r="X29" s="54"/>
-      <c r="Y29" s="54"/>
-      <c r="Z29" s="54"/>
-      <c r="AA29" s="54"/>
-      <c r="AB29" s="54"/>
-      <c r="AC29" s="57"/>
-      <c r="AD29" s="57"/>
-      <c r="AE29" s="57"/>
-      <c r="AF29" s="57"/>
-      <c r="AG29" s="57"/>
-      <c r="AH29" s="54"/>
-      <c r="AI29" s="54"/>
-      <c r="AJ29" s="54"/>
-      <c r="AK29" s="54"/>
-      <c r="AL29" s="54"/>
-      <c r="AM29" s="54"/>
-      <c r="AN29" s="54"/>
-      <c r="AO29" s="54"/>
-      <c r="AP29" s="54"/>
-      <c r="AQ29" s="54"/>
-      <c r="AR29" s="58"/>
-      <c r="AS29" s="58"/>
-      <c r="AT29" s="58"/>
-      <c r="AU29" s="58"/>
-      <c r="AV29" s="58"/>
-      <c r="AW29" s="54"/>
-      <c r="AX29" s="54"/>
-      <c r="AY29" s="54"/>
-      <c r="AZ29" s="54"/>
-      <c r="BA29" s="54"/>
-      <c r="BB29" s="54"/>
-      <c r="BC29" s="54"/>
-      <c r="BD29" s="54"/>
-      <c r="BE29" s="54"/>
-      <c r="BF29" s="54"/>
-      <c r="BG29" s="59"/>
-      <c r="BH29" s="59"/>
-      <c r="BI29" s="59"/>
-      <c r="BJ29" s="59"/>
-      <c r="BK29" s="59"/>
-      <c r="BL29" s="54"/>
-      <c r="BM29" s="54"/>
-      <c r="BN29" s="54"/>
-      <c r="BO29" s="54"/>
-      <c r="BP29" s="60"/>
+      <c r="W29" s="53"/>
+      <c r="X29" s="53"/>
+      <c r="Y29" s="53"/>
+      <c r="Z29" s="53"/>
+      <c r="AA29" s="53"/>
+      <c r="AB29" s="53"/>
+      <c r="AC29" s="56"/>
+      <c r="AD29" s="56"/>
+      <c r="AE29" s="56"/>
+      <c r="AF29" s="56"/>
+      <c r="AG29" s="56"/>
+      <c r="AH29" s="53"/>
+      <c r="AI29" s="53"/>
+      <c r="AJ29" s="53"/>
+      <c r="AK29" s="53"/>
+      <c r="AL29" s="53"/>
+      <c r="AM29" s="53"/>
+      <c r="AN29" s="53"/>
+      <c r="AO29" s="53"/>
+      <c r="AP29" s="53"/>
+      <c r="AQ29" s="53"/>
+      <c r="AR29" s="57"/>
+      <c r="AS29" s="57"/>
+      <c r="AT29" s="57"/>
+      <c r="AU29" s="57"/>
+      <c r="AV29" s="57"/>
+      <c r="AW29" s="53"/>
+      <c r="AX29" s="53"/>
+      <c r="AY29" s="53"/>
+      <c r="AZ29" s="53"/>
+      <c r="BA29" s="53"/>
+      <c r="BB29" s="53"/>
+      <c r="BC29" s="53"/>
+      <c r="BD29" s="53"/>
+      <c r="BE29" s="53"/>
+      <c r="BF29" s="53"/>
+      <c r="BG29" s="58"/>
+      <c r="BH29" s="58"/>
+      <c r="BI29" s="58"/>
+      <c r="BJ29" s="58"/>
+      <c r="BK29" s="58"/>
+      <c r="BL29" s="53"/>
+      <c r="BM29" s="53"/>
+      <c r="BN29" s="53"/>
+      <c r="BO29" s="53"/>
+      <c r="BP29" s="59"/>
       <c r="BQ29" s="37"/>
     </row>
     <row r="30" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
@@ -5096,10 +5093,10 @@
       <c r="B30" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="C30" s="80" t="s">
+      <c r="C30" s="79" t="s">
         <v>79</v>
       </c>
-      <c r="D30" s="79" t="s">
+      <c r="D30" s="78" t="s">
         <v>80</v>
       </c>
       <c r="E30" s="40">
@@ -5114,66 +5111,66 @@
       <c r="H30" s="42">
         <v>0.8</v>
       </c>
-      <c r="I30" s="52"/>
-      <c r="J30" s="53"/>
-      <c r="K30" s="54"/>
-      <c r="L30" s="54"/>
-      <c r="M30" s="54"/>
-      <c r="N30" s="55"/>
-      <c r="O30" s="55"/>
-      <c r="P30" s="55"/>
-      <c r="Q30" s="55"/>
-      <c r="R30" s="55"/>
+      <c r="I30" s="51"/>
+      <c r="J30" s="52"/>
+      <c r="K30" s="53"/>
+      <c r="L30" s="53"/>
+      <c r="M30" s="53"/>
+      <c r="N30" s="54"/>
+      <c r="O30" s="54"/>
+      <c r="P30" s="54"/>
+      <c r="Q30" s="54"/>
+      <c r="R30" s="54"/>
       <c r="S30" s="45"/>
       <c r="T30" s="45"/>
       <c r="U30" s="45"/>
       <c r="V30" s="45"/>
-      <c r="W30" s="54"/>
-      <c r="X30" s="54"/>
-      <c r="Y30" s="54"/>
-      <c r="Z30" s="54"/>
-      <c r="AA30" s="54"/>
-      <c r="AB30" s="54"/>
-      <c r="AC30" s="57"/>
-      <c r="AD30" s="57"/>
-      <c r="AE30" s="57"/>
-      <c r="AF30" s="57"/>
-      <c r="AG30" s="57"/>
-      <c r="AH30" s="54"/>
-      <c r="AI30" s="54"/>
-      <c r="AJ30" s="54"/>
-      <c r="AK30" s="54"/>
-      <c r="AL30" s="54"/>
-      <c r="AM30" s="54"/>
-      <c r="AN30" s="54"/>
-      <c r="AO30" s="54"/>
-      <c r="AP30" s="54"/>
-      <c r="AQ30" s="54"/>
-      <c r="AR30" s="58"/>
-      <c r="AS30" s="58"/>
-      <c r="AT30" s="58"/>
-      <c r="AU30" s="58"/>
-      <c r="AV30" s="58"/>
-      <c r="AW30" s="54"/>
-      <c r="AX30" s="54"/>
-      <c r="AY30" s="54"/>
-      <c r="AZ30" s="54"/>
-      <c r="BA30" s="54"/>
-      <c r="BB30" s="54"/>
-      <c r="BC30" s="54"/>
-      <c r="BD30" s="54"/>
-      <c r="BE30" s="54"/>
-      <c r="BF30" s="54"/>
-      <c r="BG30" s="59"/>
-      <c r="BH30" s="59"/>
-      <c r="BI30" s="59"/>
-      <c r="BJ30" s="59"/>
-      <c r="BK30" s="59"/>
-      <c r="BL30" s="54"/>
-      <c r="BM30" s="54"/>
-      <c r="BN30" s="54"/>
-      <c r="BO30" s="54"/>
-      <c r="BP30" s="60"/>
+      <c r="W30" s="53"/>
+      <c r="X30" s="53"/>
+      <c r="Y30" s="53"/>
+      <c r="Z30" s="53"/>
+      <c r="AA30" s="53"/>
+      <c r="AB30" s="53"/>
+      <c r="AC30" s="56"/>
+      <c r="AD30" s="56"/>
+      <c r="AE30" s="56"/>
+      <c r="AF30" s="56"/>
+      <c r="AG30" s="56"/>
+      <c r="AH30" s="53"/>
+      <c r="AI30" s="53"/>
+      <c r="AJ30" s="53"/>
+      <c r="AK30" s="53"/>
+      <c r="AL30" s="53"/>
+      <c r="AM30" s="53"/>
+      <c r="AN30" s="53"/>
+      <c r="AO30" s="53"/>
+      <c r="AP30" s="53"/>
+      <c r="AQ30" s="53"/>
+      <c r="AR30" s="57"/>
+      <c r="AS30" s="57"/>
+      <c r="AT30" s="57"/>
+      <c r="AU30" s="57"/>
+      <c r="AV30" s="57"/>
+      <c r="AW30" s="53"/>
+      <c r="AX30" s="53"/>
+      <c r="AY30" s="53"/>
+      <c r="AZ30" s="53"/>
+      <c r="BA30" s="53"/>
+      <c r="BB30" s="53"/>
+      <c r="BC30" s="53"/>
+      <c r="BD30" s="53"/>
+      <c r="BE30" s="53"/>
+      <c r="BF30" s="53"/>
+      <c r="BG30" s="58"/>
+      <c r="BH30" s="58"/>
+      <c r="BI30" s="58"/>
+      <c r="BJ30" s="58"/>
+      <c r="BK30" s="58"/>
+      <c r="BL30" s="53"/>
+      <c r="BM30" s="53"/>
+      <c r="BN30" s="53"/>
+      <c r="BO30" s="53"/>
+      <c r="BP30" s="59"/>
       <c r="BQ30" s="37"/>
     </row>
     <row r="31" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
@@ -5181,10 +5178,10 @@
       <c r="B31" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="C31" s="87" t="s">
+      <c r="C31" s="86" t="s">
         <v>75</v>
       </c>
-      <c r="D31" s="79" t="s">
+      <c r="D31" s="78" t="s">
         <v>43</v>
       </c>
       <c r="E31" s="40">
@@ -5199,77 +5196,77 @@
       <c r="H31" s="42">
         <v>0.1</v>
       </c>
-      <c r="I31" s="52"/>
-      <c r="J31" s="53"/>
-      <c r="K31" s="54"/>
-      <c r="L31" s="54"/>
-      <c r="M31" s="54"/>
-      <c r="N31" s="55"/>
-      <c r="O31" s="55"/>
-      <c r="P31" s="55"/>
-      <c r="Q31" s="55"/>
-      <c r="R31" s="55"/>
+      <c r="I31" s="51"/>
+      <c r="J31" s="52"/>
+      <c r="K31" s="53"/>
+      <c r="L31" s="53"/>
+      <c r="M31" s="53"/>
+      <c r="N31" s="54"/>
+      <c r="O31" s="54"/>
+      <c r="P31" s="54"/>
+      <c r="Q31" s="54"/>
+      <c r="R31" s="54"/>
       <c r="S31" s="45"/>
       <c r="T31" s="45"/>
       <c r="U31" s="45"/>
       <c r="V31" s="45"/>
-      <c r="W31" s="54"/>
-      <c r="X31" s="54"/>
-      <c r="Y31" s="54"/>
-      <c r="Z31" s="54"/>
-      <c r="AA31" s="54"/>
-      <c r="AB31" s="54"/>
-      <c r="AC31" s="57"/>
-      <c r="AD31" s="57"/>
-      <c r="AE31" s="57"/>
-      <c r="AF31" s="57"/>
-      <c r="AG31" s="57"/>
-      <c r="AH31" s="54"/>
-      <c r="AI31" s="54"/>
-      <c r="AJ31" s="54"/>
-      <c r="AK31" s="54"/>
-      <c r="AL31" s="54"/>
-      <c r="AM31" s="54"/>
-      <c r="AN31" s="54"/>
-      <c r="AO31" s="54"/>
-      <c r="AP31" s="54"/>
-      <c r="AQ31" s="54"/>
-      <c r="AR31" s="58"/>
-      <c r="AS31" s="58"/>
-      <c r="AT31" s="58"/>
-      <c r="AU31" s="58"/>
-      <c r="AV31" s="58"/>
-      <c r="AW31" s="54"/>
-      <c r="AX31" s="54"/>
-      <c r="AY31" s="54"/>
-      <c r="AZ31" s="54"/>
-      <c r="BA31" s="54"/>
-      <c r="BB31" s="54"/>
-      <c r="BC31" s="54"/>
-      <c r="BD31" s="54"/>
-      <c r="BE31" s="54"/>
-      <c r="BF31" s="54"/>
-      <c r="BG31" s="59"/>
-      <c r="BH31" s="59"/>
-      <c r="BI31" s="59"/>
-      <c r="BJ31" s="59"/>
-      <c r="BK31" s="59"/>
-      <c r="BL31" s="54"/>
-      <c r="BM31" s="54"/>
-      <c r="BN31" s="54"/>
-      <c r="BO31" s="54"/>
-      <c r="BP31" s="60"/>
+      <c r="W31" s="53"/>
+      <c r="X31" s="53"/>
+      <c r="Y31" s="53"/>
+      <c r="Z31" s="53"/>
+      <c r="AA31" s="53"/>
+      <c r="AB31" s="53"/>
+      <c r="AC31" s="56"/>
+      <c r="AD31" s="56"/>
+      <c r="AE31" s="56"/>
+      <c r="AF31" s="56"/>
+      <c r="AG31" s="56"/>
+      <c r="AH31" s="53"/>
+      <c r="AI31" s="53"/>
+      <c r="AJ31" s="53"/>
+      <c r="AK31" s="53"/>
+      <c r="AL31" s="53"/>
+      <c r="AM31" s="53"/>
+      <c r="AN31" s="53"/>
+      <c r="AO31" s="53"/>
+      <c r="AP31" s="53"/>
+      <c r="AQ31" s="53"/>
+      <c r="AR31" s="57"/>
+      <c r="AS31" s="57"/>
+      <c r="AT31" s="57"/>
+      <c r="AU31" s="57"/>
+      <c r="AV31" s="57"/>
+      <c r="AW31" s="53"/>
+      <c r="AX31" s="53"/>
+      <c r="AY31" s="53"/>
+      <c r="AZ31" s="53"/>
+      <c r="BA31" s="53"/>
+      <c r="BB31" s="53"/>
+      <c r="BC31" s="53"/>
+      <c r="BD31" s="53"/>
+      <c r="BE31" s="53"/>
+      <c r="BF31" s="53"/>
+      <c r="BG31" s="58"/>
+      <c r="BH31" s="58"/>
+      <c r="BI31" s="58"/>
+      <c r="BJ31" s="58"/>
+      <c r="BK31" s="58"/>
+      <c r="BL31" s="53"/>
+      <c r="BM31" s="53"/>
+      <c r="BN31" s="53"/>
+      <c r="BO31" s="53"/>
+      <c r="BP31" s="59"/>
       <c r="BQ31" s="37"/>
     </row>
-    <row r="32" spans="1:69" ht="27.5" customHeight="1" outlineLevel="1">
+    <row r="32" spans="1:69" ht="27.6" customHeight="1" outlineLevel="1">
       <c r="A32" s="37"/>
       <c r="B32" s="38">
         <v>3.2</v>
       </c>
-      <c r="C32" s="85" t="s">
+      <c r="C32" s="84" t="s">
         <v>55</v>
       </c>
-      <c r="D32" s="76" t="s">
+      <c r="D32" s="75" t="s">
         <v>64</v>
       </c>
       <c r="E32" s="40">
@@ -5284,66 +5281,66 @@
       <c r="H32" s="42">
         <v>1</v>
       </c>
-      <c r="I32" s="52"/>
-      <c r="J32" s="53"/>
-      <c r="K32" s="54"/>
-      <c r="L32" s="54"/>
-      <c r="M32" s="54"/>
-      <c r="N32" s="55"/>
-      <c r="O32" s="55"/>
-      <c r="P32" s="55"/>
-      <c r="Q32" s="55"/>
-      <c r="R32" s="55"/>
-      <c r="S32" s="54"/>
-      <c r="T32" s="54"/>
-      <c r="U32" s="54"/>
-      <c r="V32" s="54"/>
-      <c r="W32" s="54"/>
-      <c r="X32" s="54"/>
-      <c r="Y32" s="54"/>
-      <c r="Z32" s="54"/>
-      <c r="AA32" s="54"/>
-      <c r="AB32" s="54"/>
-      <c r="AC32" s="57"/>
-      <c r="AD32" s="57"/>
-      <c r="AE32" s="57"/>
-      <c r="AF32" s="57"/>
-      <c r="AG32" s="57"/>
-      <c r="AH32" s="56"/>
-      <c r="AI32" s="56"/>
-      <c r="AJ32" s="56"/>
-      <c r="AK32" s="56"/>
-      <c r="AL32" s="56"/>
-      <c r="AM32" s="56"/>
-      <c r="AN32" s="56"/>
-      <c r="AO32" s="56"/>
-      <c r="AP32" s="56"/>
-      <c r="AQ32" s="54"/>
-      <c r="AR32" s="58"/>
-      <c r="AS32" s="58"/>
-      <c r="AT32" s="58"/>
-      <c r="AU32" s="58"/>
-      <c r="AV32" s="58"/>
-      <c r="AW32" s="54"/>
-      <c r="AX32" s="54"/>
-      <c r="AY32" s="54"/>
-      <c r="AZ32" s="54"/>
-      <c r="BA32" s="54"/>
-      <c r="BB32" s="54"/>
-      <c r="BC32" s="54"/>
-      <c r="BD32" s="54"/>
-      <c r="BE32" s="54"/>
-      <c r="BF32" s="54"/>
-      <c r="BG32" s="59"/>
-      <c r="BH32" s="59"/>
-      <c r="BI32" s="59"/>
-      <c r="BJ32" s="59"/>
-      <c r="BK32" s="59"/>
-      <c r="BL32" s="54"/>
-      <c r="BM32" s="54"/>
-      <c r="BN32" s="54"/>
-      <c r="BO32" s="54"/>
-      <c r="BP32" s="60"/>
+      <c r="I32" s="51"/>
+      <c r="J32" s="52"/>
+      <c r="K32" s="53"/>
+      <c r="L32" s="53"/>
+      <c r="M32" s="53"/>
+      <c r="N32" s="54"/>
+      <c r="O32" s="54"/>
+      <c r="P32" s="54"/>
+      <c r="Q32" s="54"/>
+      <c r="R32" s="54"/>
+      <c r="S32" s="53"/>
+      <c r="T32" s="53"/>
+      <c r="U32" s="53"/>
+      <c r="V32" s="53"/>
+      <c r="W32" s="53"/>
+      <c r="X32" s="53"/>
+      <c r="Y32" s="53"/>
+      <c r="Z32" s="53"/>
+      <c r="AA32" s="53"/>
+      <c r="AB32" s="53"/>
+      <c r="AC32" s="56"/>
+      <c r="AD32" s="56"/>
+      <c r="AE32" s="56"/>
+      <c r="AF32" s="56"/>
+      <c r="AG32" s="56"/>
+      <c r="AH32" s="55"/>
+      <c r="AI32" s="55"/>
+      <c r="AJ32" s="55"/>
+      <c r="AK32" s="55"/>
+      <c r="AL32" s="55"/>
+      <c r="AM32" s="55"/>
+      <c r="AN32" s="55"/>
+      <c r="AO32" s="55"/>
+      <c r="AP32" s="55"/>
+      <c r="AQ32" s="53"/>
+      <c r="AR32" s="57"/>
+      <c r="AS32" s="57"/>
+      <c r="AT32" s="57"/>
+      <c r="AU32" s="57"/>
+      <c r="AV32" s="57"/>
+      <c r="AW32" s="53"/>
+      <c r="AX32" s="53"/>
+      <c r="AY32" s="53"/>
+      <c r="AZ32" s="53"/>
+      <c r="BA32" s="53"/>
+      <c r="BB32" s="53"/>
+      <c r="BC32" s="53"/>
+      <c r="BD32" s="53"/>
+      <c r="BE32" s="53"/>
+      <c r="BF32" s="53"/>
+      <c r="BG32" s="58"/>
+      <c r="BH32" s="58"/>
+      <c r="BI32" s="58"/>
+      <c r="BJ32" s="58"/>
+      <c r="BK32" s="58"/>
+      <c r="BL32" s="53"/>
+      <c r="BM32" s="53"/>
+      <c r="BN32" s="53"/>
+      <c r="BO32" s="53"/>
+      <c r="BP32" s="59"/>
       <c r="BQ32" s="37"/>
     </row>
     <row r="33" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
@@ -5351,10 +5348,10 @@
       <c r="B33" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="C33" s="80" t="s">
+      <c r="C33" s="79" t="s">
         <v>70</v>
       </c>
-      <c r="D33" s="79" t="s">
+      <c r="D33" s="78" t="s">
         <v>71</v>
       </c>
       <c r="E33" s="40">
@@ -5369,66 +5366,66 @@
       <c r="H33" s="42">
         <v>1</v>
       </c>
-      <c r="I33" s="52"/>
-      <c r="J33" s="53"/>
-      <c r="K33" s="54"/>
-      <c r="L33" s="54"/>
-      <c r="M33" s="54"/>
-      <c r="N33" s="55"/>
-      <c r="O33" s="55"/>
-      <c r="P33" s="55"/>
-      <c r="Q33" s="55"/>
-      <c r="R33" s="55"/>
+      <c r="I33" s="51"/>
+      <c r="J33" s="52"/>
+      <c r="K33" s="53"/>
+      <c r="L33" s="53"/>
+      <c r="M33" s="53"/>
+      <c r="N33" s="54"/>
+      <c r="O33" s="54"/>
+      <c r="P33" s="54"/>
+      <c r="Q33" s="54"/>
+      <c r="R33" s="54"/>
       <c r="S33" s="45"/>
       <c r="T33" s="45"/>
       <c r="U33" s="45"/>
       <c r="V33" s="45"/>
-      <c r="W33" s="54"/>
-      <c r="X33" s="54"/>
-      <c r="Y33" s="54"/>
-      <c r="Z33" s="54"/>
-      <c r="AA33" s="54"/>
-      <c r="AB33" s="54"/>
-      <c r="AC33" s="57"/>
-      <c r="AD33" s="57"/>
-      <c r="AE33" s="57"/>
-      <c r="AF33" s="57"/>
-      <c r="AG33" s="57"/>
-      <c r="AH33" s="54"/>
-      <c r="AI33" s="54"/>
-      <c r="AJ33" s="54"/>
-      <c r="AK33" s="54"/>
-      <c r="AL33" s="54"/>
-      <c r="AM33" s="56"/>
-      <c r="AN33" s="56"/>
-      <c r="AO33" s="56"/>
-      <c r="AP33" s="56"/>
-      <c r="AQ33" s="54"/>
-      <c r="AR33" s="58"/>
-      <c r="AS33" s="58"/>
-      <c r="AT33" s="58"/>
-      <c r="AU33" s="58"/>
-      <c r="AV33" s="58"/>
-      <c r="AW33" s="54"/>
-      <c r="AX33" s="54"/>
-      <c r="AY33" s="54"/>
-      <c r="AZ33" s="54"/>
-      <c r="BA33" s="54"/>
-      <c r="BB33" s="54"/>
-      <c r="BC33" s="54"/>
-      <c r="BD33" s="54"/>
-      <c r="BE33" s="54"/>
-      <c r="BF33" s="54"/>
-      <c r="BG33" s="59"/>
-      <c r="BH33" s="59"/>
-      <c r="BI33" s="59"/>
-      <c r="BJ33" s="59"/>
-      <c r="BK33" s="59"/>
-      <c r="BL33" s="54"/>
-      <c r="BM33" s="54"/>
-      <c r="BN33" s="54"/>
-      <c r="BO33" s="54"/>
-      <c r="BP33" s="60"/>
+      <c r="W33" s="53"/>
+      <c r="X33" s="53"/>
+      <c r="Y33" s="53"/>
+      <c r="Z33" s="53"/>
+      <c r="AA33" s="53"/>
+      <c r="AB33" s="53"/>
+      <c r="AC33" s="56"/>
+      <c r="AD33" s="56"/>
+      <c r="AE33" s="56"/>
+      <c r="AF33" s="56"/>
+      <c r="AG33" s="56"/>
+      <c r="AH33" s="53"/>
+      <c r="AI33" s="53"/>
+      <c r="AJ33" s="53"/>
+      <c r="AK33" s="53"/>
+      <c r="AL33" s="53"/>
+      <c r="AM33" s="55"/>
+      <c r="AN33" s="55"/>
+      <c r="AO33" s="55"/>
+      <c r="AP33" s="55"/>
+      <c r="AQ33" s="53"/>
+      <c r="AR33" s="57"/>
+      <c r="AS33" s="57"/>
+      <c r="AT33" s="57"/>
+      <c r="AU33" s="57"/>
+      <c r="AV33" s="57"/>
+      <c r="AW33" s="53"/>
+      <c r="AX33" s="53"/>
+      <c r="AY33" s="53"/>
+      <c r="AZ33" s="53"/>
+      <c r="BA33" s="53"/>
+      <c r="BB33" s="53"/>
+      <c r="BC33" s="53"/>
+      <c r="BD33" s="53"/>
+      <c r="BE33" s="53"/>
+      <c r="BF33" s="53"/>
+      <c r="BG33" s="58"/>
+      <c r="BH33" s="58"/>
+      <c r="BI33" s="58"/>
+      <c r="BJ33" s="58"/>
+      <c r="BK33" s="58"/>
+      <c r="BL33" s="53"/>
+      <c r="BM33" s="53"/>
+      <c r="BN33" s="53"/>
+      <c r="BO33" s="53"/>
+      <c r="BP33" s="59"/>
       <c r="BQ33" s="37"/>
     </row>
     <row r="34" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
@@ -5436,10 +5433,10 @@
       <c r="B34" s="38">
         <v>3.3</v>
       </c>
-      <c r="C34" s="80" t="s">
+      <c r="C34" s="79" t="s">
         <v>63</v>
       </c>
-      <c r="D34" s="79" t="s">
+      <c r="D34" s="78" t="s">
         <v>43</v>
       </c>
       <c r="E34" s="40">
@@ -5454,77 +5451,77 @@
       <c r="H34" s="42">
         <v>0</v>
       </c>
-      <c r="I34" s="52"/>
-      <c r="J34" s="53"/>
-      <c r="K34" s="54"/>
-      <c r="L34" s="54"/>
-      <c r="M34" s="54"/>
-      <c r="N34" s="55"/>
-      <c r="O34" s="55"/>
-      <c r="P34" s="55"/>
-      <c r="Q34" s="55"/>
-      <c r="R34" s="55"/>
+      <c r="I34" s="51"/>
+      <c r="J34" s="52"/>
+      <c r="K34" s="53"/>
+      <c r="L34" s="53"/>
+      <c r="M34" s="53"/>
+      <c r="N34" s="54"/>
+      <c r="O34" s="54"/>
+      <c r="P34" s="54"/>
+      <c r="Q34" s="54"/>
+      <c r="R34" s="54"/>
       <c r="S34" s="45"/>
       <c r="T34" s="45"/>
       <c r="U34" s="45"/>
       <c r="V34" s="45"/>
-      <c r="W34" s="54"/>
-      <c r="X34" s="54"/>
-      <c r="Y34" s="54"/>
-      <c r="Z34" s="54"/>
-      <c r="AA34" s="54"/>
-      <c r="AB34" s="54"/>
-      <c r="AC34" s="57"/>
-      <c r="AD34" s="57"/>
-      <c r="AE34" s="57"/>
-      <c r="AF34" s="57"/>
-      <c r="AG34" s="57"/>
-      <c r="AH34" s="54"/>
-      <c r="AI34" s="54"/>
-      <c r="AJ34" s="54"/>
-      <c r="AK34" s="54"/>
-      <c r="AL34" s="54"/>
-      <c r="AM34" s="54"/>
-      <c r="AN34" s="54"/>
-      <c r="AO34" s="54"/>
-      <c r="AP34" s="54"/>
-      <c r="AQ34" s="54"/>
-      <c r="AR34" s="58"/>
-      <c r="AS34" s="58"/>
-      <c r="AT34" s="58"/>
-      <c r="AU34" s="58"/>
-      <c r="AV34" s="58"/>
-      <c r="AW34" s="54"/>
-      <c r="AX34" s="54"/>
-      <c r="AY34" s="54"/>
-      <c r="AZ34" s="54"/>
-      <c r="BA34" s="54"/>
-      <c r="BB34" s="54"/>
-      <c r="BC34" s="54"/>
-      <c r="BD34" s="54"/>
-      <c r="BE34" s="54"/>
-      <c r="BF34" s="54"/>
-      <c r="BG34" s="59"/>
-      <c r="BH34" s="59"/>
-      <c r="BI34" s="59"/>
-      <c r="BJ34" s="59"/>
-      <c r="BK34" s="59"/>
-      <c r="BL34" s="54"/>
-      <c r="BM34" s="54"/>
-      <c r="BN34" s="54"/>
-      <c r="BO34" s="54"/>
-      <c r="BP34" s="60"/>
+      <c r="W34" s="53"/>
+      <c r="X34" s="53"/>
+      <c r="Y34" s="53"/>
+      <c r="Z34" s="53"/>
+      <c r="AA34" s="53"/>
+      <c r="AB34" s="53"/>
+      <c r="AC34" s="56"/>
+      <c r="AD34" s="56"/>
+      <c r="AE34" s="56"/>
+      <c r="AF34" s="56"/>
+      <c r="AG34" s="56"/>
+      <c r="AH34" s="53"/>
+      <c r="AI34" s="53"/>
+      <c r="AJ34" s="53"/>
+      <c r="AK34" s="53"/>
+      <c r="AL34" s="53"/>
+      <c r="AM34" s="53"/>
+      <c r="AN34" s="53"/>
+      <c r="AO34" s="53"/>
+      <c r="AP34" s="53"/>
+      <c r="AQ34" s="53"/>
+      <c r="AR34" s="57"/>
+      <c r="AS34" s="57"/>
+      <c r="AT34" s="57"/>
+      <c r="AU34" s="57"/>
+      <c r="AV34" s="57"/>
+      <c r="AW34" s="53"/>
+      <c r="AX34" s="53"/>
+      <c r="AY34" s="53"/>
+      <c r="AZ34" s="53"/>
+      <c r="BA34" s="53"/>
+      <c r="BB34" s="53"/>
+      <c r="BC34" s="53"/>
+      <c r="BD34" s="53"/>
+      <c r="BE34" s="53"/>
+      <c r="BF34" s="53"/>
+      <c r="BG34" s="58"/>
+      <c r="BH34" s="58"/>
+      <c r="BI34" s="58"/>
+      <c r="BJ34" s="58"/>
+      <c r="BK34" s="58"/>
+      <c r="BL34" s="53"/>
+      <c r="BM34" s="53"/>
+      <c r="BN34" s="53"/>
+      <c r="BO34" s="53"/>
+      <c r="BP34" s="59"/>
       <c r="BQ34" s="37"/>
     </row>
-    <row r="35" spans="1:69" ht="17" customHeight="1" outlineLevel="1">
+    <row r="35" spans="1:69" ht="17.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A35" s="37"/>
       <c r="B35" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="C35" s="80" t="s">
+      <c r="C35" s="79" t="s">
         <v>82</v>
       </c>
-      <c r="D35" s="79" t="s">
+      <c r="D35" s="78" t="s">
         <v>83</v>
       </c>
       <c r="E35" s="40">
@@ -5539,66 +5536,66 @@
       <c r="H35" s="42">
         <v>0.65</v>
       </c>
-      <c r="I35" s="52"/>
-      <c r="J35" s="53"/>
-      <c r="K35" s="54"/>
-      <c r="L35" s="54"/>
-      <c r="M35" s="54"/>
-      <c r="N35" s="55"/>
-      <c r="O35" s="55"/>
-      <c r="P35" s="55"/>
-      <c r="Q35" s="55"/>
-      <c r="R35" s="55"/>
+      <c r="I35" s="51"/>
+      <c r="J35" s="52"/>
+      <c r="K35" s="53"/>
+      <c r="L35" s="53"/>
+      <c r="M35" s="53"/>
+      <c r="N35" s="54"/>
+      <c r="O35" s="54"/>
+      <c r="P35" s="54"/>
+      <c r="Q35" s="54"/>
+      <c r="R35" s="54"/>
       <c r="S35" s="45"/>
       <c r="T35" s="45"/>
       <c r="U35" s="45"/>
       <c r="V35" s="45"/>
-      <c r="W35" s="54"/>
-      <c r="X35" s="54"/>
-      <c r="Y35" s="54"/>
-      <c r="Z35" s="54"/>
-      <c r="AA35" s="54"/>
-      <c r="AB35" s="54"/>
-      <c r="AC35" s="57"/>
-      <c r="AD35" s="57"/>
-      <c r="AE35" s="57"/>
-      <c r="AF35" s="57"/>
-      <c r="AG35" s="57"/>
-      <c r="AH35" s="54"/>
-      <c r="AI35" s="54"/>
-      <c r="AJ35" s="54"/>
-      <c r="AK35" s="54"/>
-      <c r="AL35" s="54"/>
-      <c r="AM35" s="54"/>
-      <c r="AN35" s="54"/>
-      <c r="AO35" s="54"/>
-      <c r="AP35" s="54"/>
-      <c r="AQ35" s="54"/>
-      <c r="AR35" s="58"/>
-      <c r="AS35" s="58"/>
-      <c r="AT35" s="58"/>
-      <c r="AU35" s="58"/>
-      <c r="AV35" s="58"/>
-      <c r="AW35" s="54"/>
-      <c r="AX35" s="54"/>
-      <c r="AY35" s="54"/>
-      <c r="AZ35" s="54"/>
-      <c r="BA35" s="54"/>
-      <c r="BB35" s="54"/>
-      <c r="BC35" s="54"/>
-      <c r="BD35" s="54"/>
-      <c r="BE35" s="54"/>
-      <c r="BF35" s="54"/>
-      <c r="BG35" s="59"/>
-      <c r="BH35" s="59"/>
-      <c r="BI35" s="59"/>
-      <c r="BJ35" s="59"/>
-      <c r="BK35" s="59"/>
-      <c r="BL35" s="54"/>
-      <c r="BM35" s="54"/>
-      <c r="BN35" s="54"/>
-      <c r="BO35" s="54"/>
-      <c r="BP35" s="60"/>
+      <c r="W35" s="53"/>
+      <c r="X35" s="53"/>
+      <c r="Y35" s="53"/>
+      <c r="Z35" s="53"/>
+      <c r="AA35" s="53"/>
+      <c r="AB35" s="53"/>
+      <c r="AC35" s="56"/>
+      <c r="AD35" s="56"/>
+      <c r="AE35" s="56"/>
+      <c r="AF35" s="56"/>
+      <c r="AG35" s="56"/>
+      <c r="AH35" s="53"/>
+      <c r="AI35" s="53"/>
+      <c r="AJ35" s="53"/>
+      <c r="AK35" s="53"/>
+      <c r="AL35" s="53"/>
+      <c r="AM35" s="53"/>
+      <c r="AN35" s="53"/>
+      <c r="AO35" s="53"/>
+      <c r="AP35" s="53"/>
+      <c r="AQ35" s="53"/>
+      <c r="AR35" s="57"/>
+      <c r="AS35" s="57"/>
+      <c r="AT35" s="57"/>
+      <c r="AU35" s="57"/>
+      <c r="AV35" s="57"/>
+      <c r="AW35" s="53"/>
+      <c r="AX35" s="53"/>
+      <c r="AY35" s="53"/>
+      <c r="AZ35" s="53"/>
+      <c r="BA35" s="53"/>
+      <c r="BB35" s="53"/>
+      <c r="BC35" s="53"/>
+      <c r="BD35" s="53"/>
+      <c r="BE35" s="53"/>
+      <c r="BF35" s="53"/>
+      <c r="BG35" s="58"/>
+      <c r="BH35" s="58"/>
+      <c r="BI35" s="58"/>
+      <c r="BJ35" s="58"/>
+      <c r="BK35" s="58"/>
+      <c r="BL35" s="53"/>
+      <c r="BM35" s="53"/>
+      <c r="BN35" s="53"/>
+      <c r="BO35" s="53"/>
+      <c r="BP35" s="59"/>
       <c r="BQ35" s="37"/>
     </row>
     <row r="36" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
@@ -5606,10 +5603,10 @@
       <c r="B36" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="C36" s="86" t="s">
+      <c r="C36" s="85" t="s">
         <v>65</v>
       </c>
-      <c r="D36" s="79" t="s">
+      <c r="D36" s="78" t="s">
         <v>60</v>
       </c>
       <c r="E36" s="40">
@@ -5621,69 +5618,69 @@
       <c r="G36" s="41">
         <v>15</v>
       </c>
-      <c r="H36" s="61">
+      <c r="H36" s="60">
         <v>0</v>
       </c>
-      <c r="I36" s="52"/>
-      <c r="J36" s="53"/>
-      <c r="K36" s="54"/>
-      <c r="L36" s="54"/>
-      <c r="M36" s="54"/>
-      <c r="N36" s="55"/>
-      <c r="O36" s="55"/>
-      <c r="P36" s="55"/>
-      <c r="Q36" s="55"/>
-      <c r="R36" s="55"/>
+      <c r="I36" s="51"/>
+      <c r="J36" s="52"/>
+      <c r="K36" s="53"/>
+      <c r="L36" s="53"/>
+      <c r="M36" s="53"/>
+      <c r="N36" s="54"/>
+      <c r="O36" s="54"/>
+      <c r="P36" s="54"/>
+      <c r="Q36" s="54"/>
+      <c r="R36" s="54"/>
       <c r="S36" s="45"/>
       <c r="T36" s="45"/>
       <c r="U36" s="45"/>
       <c r="V36" s="45"/>
-      <c r="W36" s="54"/>
-      <c r="X36" s="54"/>
-      <c r="Y36" s="54"/>
-      <c r="Z36" s="54"/>
-      <c r="AA36" s="54"/>
-      <c r="AB36" s="54"/>
-      <c r="AC36" s="57"/>
-      <c r="AD36" s="57"/>
-      <c r="AE36" s="57"/>
-      <c r="AF36" s="57"/>
-      <c r="AG36" s="57"/>
-      <c r="AH36" s="54"/>
-      <c r="AI36" s="54"/>
-      <c r="AJ36" s="54"/>
-      <c r="AK36" s="54"/>
-      <c r="AL36" s="54"/>
-      <c r="AM36" s="54"/>
-      <c r="AN36" s="54"/>
-      <c r="AO36" s="54"/>
-      <c r="AP36" s="54"/>
-      <c r="AQ36" s="54"/>
-      <c r="AR36" s="58"/>
-      <c r="AS36" s="58"/>
-      <c r="AT36" s="58"/>
-      <c r="AU36" s="58"/>
-      <c r="AV36" s="58"/>
-      <c r="AW36" s="54"/>
-      <c r="AX36" s="54"/>
-      <c r="AY36" s="54"/>
-      <c r="AZ36" s="54"/>
-      <c r="BA36" s="54"/>
-      <c r="BB36" s="54"/>
-      <c r="BC36" s="54"/>
-      <c r="BD36" s="54"/>
-      <c r="BE36" s="54"/>
-      <c r="BF36" s="54"/>
-      <c r="BG36" s="59"/>
-      <c r="BH36" s="59"/>
-      <c r="BI36" s="59"/>
-      <c r="BJ36" s="59"/>
-      <c r="BK36" s="59"/>
-      <c r="BL36" s="54"/>
-      <c r="BM36" s="54"/>
-      <c r="BN36" s="54"/>
-      <c r="BO36" s="54"/>
-      <c r="BP36" s="60"/>
+      <c r="W36" s="53"/>
+      <c r="X36" s="53"/>
+      <c r="Y36" s="53"/>
+      <c r="Z36" s="53"/>
+      <c r="AA36" s="53"/>
+      <c r="AB36" s="53"/>
+      <c r="AC36" s="56"/>
+      <c r="AD36" s="56"/>
+      <c r="AE36" s="56"/>
+      <c r="AF36" s="56"/>
+      <c r="AG36" s="56"/>
+      <c r="AH36" s="53"/>
+      <c r="AI36" s="53"/>
+      <c r="AJ36" s="53"/>
+      <c r="AK36" s="53"/>
+      <c r="AL36" s="53"/>
+      <c r="AM36" s="53"/>
+      <c r="AN36" s="53"/>
+      <c r="AO36" s="53"/>
+      <c r="AP36" s="53"/>
+      <c r="AQ36" s="53"/>
+      <c r="AR36" s="57"/>
+      <c r="AS36" s="57"/>
+      <c r="AT36" s="57"/>
+      <c r="AU36" s="57"/>
+      <c r="AV36" s="57"/>
+      <c r="AW36" s="53"/>
+      <c r="AX36" s="53"/>
+      <c r="AY36" s="53"/>
+      <c r="AZ36" s="53"/>
+      <c r="BA36" s="53"/>
+      <c r="BB36" s="53"/>
+      <c r="BC36" s="53"/>
+      <c r="BD36" s="53"/>
+      <c r="BE36" s="53"/>
+      <c r="BF36" s="53"/>
+      <c r="BG36" s="58"/>
+      <c r="BH36" s="58"/>
+      <c r="BI36" s="58"/>
+      <c r="BJ36" s="58"/>
+      <c r="BK36" s="58"/>
+      <c r="BL36" s="53"/>
+      <c r="BM36" s="53"/>
+      <c r="BN36" s="53"/>
+      <c r="BO36" s="53"/>
+      <c r="BP36" s="59"/>
       <c r="BQ36" s="37"/>
     </row>
     <row r="37" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
@@ -5691,10 +5688,10 @@
       <c r="B37" s="38">
         <v>3.4</v>
       </c>
-      <c r="C37" s="87" t="s">
+      <c r="C37" s="86" t="s">
         <v>67</v>
       </c>
-      <c r="D37" s="79" t="s">
+      <c r="D37" s="78" t="s">
         <v>43</v>
       </c>
       <c r="E37" s="40">
@@ -5709,66 +5706,66 @@
       <c r="H37" s="42">
         <v>1</v>
       </c>
-      <c r="I37" s="52"/>
-      <c r="J37" s="53"/>
-      <c r="K37" s="54"/>
-      <c r="L37" s="54"/>
-      <c r="M37" s="54"/>
-      <c r="N37" s="55"/>
-      <c r="O37" s="55"/>
-      <c r="P37" s="55"/>
-      <c r="Q37" s="55"/>
-      <c r="R37" s="55"/>
+      <c r="I37" s="51"/>
+      <c r="J37" s="52"/>
+      <c r="K37" s="53"/>
+      <c r="L37" s="53"/>
+      <c r="M37" s="53"/>
+      <c r="N37" s="54"/>
+      <c r="O37" s="54"/>
+      <c r="P37" s="54"/>
+      <c r="Q37" s="54"/>
+      <c r="R37" s="54"/>
       <c r="S37" s="45"/>
       <c r="T37" s="45"/>
       <c r="U37" s="45"/>
       <c r="V37" s="45"/>
-      <c r="W37" s="54"/>
-      <c r="X37" s="54"/>
-      <c r="Y37" s="54"/>
-      <c r="Z37" s="54"/>
-      <c r="AA37" s="54"/>
-      <c r="AB37" s="54"/>
-      <c r="AC37" s="57"/>
-      <c r="AD37" s="57"/>
-      <c r="AE37" s="57"/>
-      <c r="AF37" s="57"/>
-      <c r="AG37" s="57"/>
-      <c r="AH37" s="54"/>
-      <c r="AI37" s="54"/>
-      <c r="AJ37" s="54"/>
-      <c r="AK37" s="54"/>
-      <c r="AL37" s="54"/>
-      <c r="AM37" s="54"/>
-      <c r="AN37" s="54"/>
-      <c r="AO37" s="54"/>
-      <c r="AP37" s="54"/>
-      <c r="AQ37" s="54"/>
-      <c r="AR37" s="58"/>
-      <c r="AS37" s="58"/>
-      <c r="AT37" s="58"/>
-      <c r="AU37" s="58"/>
-      <c r="AV37" s="58"/>
-      <c r="AW37" s="54"/>
-      <c r="AX37" s="54"/>
-      <c r="AY37" s="54"/>
-      <c r="AZ37" s="54"/>
-      <c r="BA37" s="54"/>
-      <c r="BB37" s="54"/>
-      <c r="BC37" s="54"/>
-      <c r="BD37" s="54"/>
-      <c r="BE37" s="54"/>
-      <c r="BF37" s="54"/>
-      <c r="BG37" s="59"/>
-      <c r="BH37" s="59"/>
-      <c r="BI37" s="59"/>
-      <c r="BJ37" s="59"/>
-      <c r="BK37" s="59"/>
-      <c r="BL37" s="54"/>
-      <c r="BM37" s="54"/>
-      <c r="BN37" s="54"/>
-      <c r="BO37" s="54"/>
-      <c r="BP37" s="60"/>
+      <c r="W37" s="53"/>
+      <c r="X37" s="53"/>
+      <c r="Y37" s="53"/>
+      <c r="Z37" s="53"/>
+      <c r="AA37" s="53"/>
+      <c r="AB37" s="53"/>
+      <c r="AC37" s="56"/>
+      <c r="AD37" s="56"/>
+      <c r="AE37" s="56"/>
+      <c r="AF37" s="56"/>
+      <c r="AG37" s="56"/>
+      <c r="AH37" s="53"/>
+      <c r="AI37" s="53"/>
+      <c r="AJ37" s="53"/>
+      <c r="AK37" s="53"/>
+      <c r="AL37" s="53"/>
+      <c r="AM37" s="53"/>
+      <c r="AN37" s="53"/>
+      <c r="AO37" s="53"/>
+      <c r="AP37" s="53"/>
+      <c r="AQ37" s="53"/>
+      <c r="AR37" s="57"/>
+      <c r="AS37" s="57"/>
+      <c r="AT37" s="57"/>
+      <c r="AU37" s="57"/>
+      <c r="AV37" s="57"/>
+      <c r="AW37" s="53"/>
+      <c r="AX37" s="53"/>
+      <c r="AY37" s="53"/>
+      <c r="AZ37" s="53"/>
+      <c r="BA37" s="53"/>
+      <c r="BB37" s="53"/>
+      <c r="BC37" s="53"/>
+      <c r="BD37" s="53"/>
+      <c r="BE37" s="53"/>
+      <c r="BF37" s="53"/>
+      <c r="BG37" s="58"/>
+      <c r="BH37" s="58"/>
+      <c r="BI37" s="58"/>
+      <c r="BJ37" s="58"/>
+      <c r="BK37" s="58"/>
+      <c r="BL37" s="53"/>
+      <c r="BM37" s="53"/>
+      <c r="BN37" s="53"/>
+      <c r="BO37" s="53"/>
+      <c r="BP37" s="59"/>
       <c r="BQ37" s="37"/>
     </row>
     <row r="38" spans="1:69" ht="33" customHeight="1" outlineLevel="1">
@@ -5779,7 +5776,7 @@
       <c r="C38" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="D38" s="79" t="s">
+      <c r="D38" s="78" t="s">
         <v>43</v>
       </c>
       <c r="E38" s="40">
@@ -5794,66 +5791,66 @@
       <c r="H38" s="42">
         <v>0.5</v>
       </c>
-      <c r="I38" s="52"/>
-      <c r="J38" s="53"/>
-      <c r="K38" s="54"/>
-      <c r="L38" s="54"/>
-      <c r="M38" s="54"/>
-      <c r="N38" s="55"/>
-      <c r="O38" s="55"/>
-      <c r="P38" s="55"/>
-      <c r="Q38" s="55"/>
-      <c r="R38" s="55"/>
+      <c r="I38" s="51"/>
+      <c r="J38" s="52"/>
+      <c r="K38" s="53"/>
+      <c r="L38" s="53"/>
+      <c r="M38" s="53"/>
+      <c r="N38" s="54"/>
+      <c r="O38" s="54"/>
+      <c r="P38" s="54"/>
+      <c r="Q38" s="54"/>
+      <c r="R38" s="54"/>
       <c r="S38" s="45"/>
       <c r="T38" s="45"/>
       <c r="U38" s="45"/>
       <c r="V38" s="45"/>
-      <c r="W38" s="54"/>
-      <c r="X38" s="54"/>
-      <c r="Y38" s="54"/>
-      <c r="Z38" s="54"/>
-      <c r="AA38" s="54"/>
-      <c r="AB38" s="54"/>
-      <c r="AC38" s="57"/>
-      <c r="AD38" s="57"/>
-      <c r="AE38" s="57"/>
-      <c r="AF38" s="57"/>
-      <c r="AG38" s="57"/>
-      <c r="AH38" s="54"/>
-      <c r="AI38" s="54"/>
-      <c r="AJ38" s="54"/>
-      <c r="AK38" s="54"/>
-      <c r="AL38" s="54"/>
-      <c r="AM38" s="54"/>
-      <c r="AN38" s="54"/>
-      <c r="AO38" s="56"/>
-      <c r="AP38" s="56"/>
-      <c r="AQ38" s="54"/>
-      <c r="AR38" s="58"/>
-      <c r="AS38" s="58"/>
-      <c r="AT38" s="58"/>
-      <c r="AU38" s="58"/>
-      <c r="AV38" s="58"/>
-      <c r="AW38" s="54"/>
-      <c r="AX38" s="54"/>
-      <c r="AY38" s="54"/>
-      <c r="AZ38" s="54"/>
-      <c r="BA38" s="54"/>
-      <c r="BB38" s="54"/>
-      <c r="BC38" s="54"/>
-      <c r="BD38" s="54"/>
-      <c r="BE38" s="54"/>
-      <c r="BF38" s="54"/>
-      <c r="BG38" s="59"/>
-      <c r="BH38" s="59"/>
-      <c r="BI38" s="59"/>
-      <c r="BJ38" s="59"/>
-      <c r="BK38" s="59"/>
-      <c r="BL38" s="54"/>
-      <c r="BM38" s="54"/>
-      <c r="BN38" s="54"/>
-      <c r="BO38" s="54"/>
-      <c r="BP38" s="60"/>
+      <c r="W38" s="53"/>
+      <c r="X38" s="53"/>
+      <c r="Y38" s="53"/>
+      <c r="Z38" s="53"/>
+      <c r="AA38" s="53"/>
+      <c r="AB38" s="53"/>
+      <c r="AC38" s="56"/>
+      <c r="AD38" s="56"/>
+      <c r="AE38" s="56"/>
+      <c r="AF38" s="56"/>
+      <c r="AG38" s="56"/>
+      <c r="AH38" s="53"/>
+      <c r="AI38" s="53"/>
+      <c r="AJ38" s="53"/>
+      <c r="AK38" s="53"/>
+      <c r="AL38" s="53"/>
+      <c r="AM38" s="53"/>
+      <c r="AN38" s="53"/>
+      <c r="AO38" s="55"/>
+      <c r="AP38" s="55"/>
+      <c r="AQ38" s="53"/>
+      <c r="AR38" s="57"/>
+      <c r="AS38" s="57"/>
+      <c r="AT38" s="57"/>
+      <c r="AU38" s="57"/>
+      <c r="AV38" s="57"/>
+      <c r="AW38" s="53"/>
+      <c r="AX38" s="53"/>
+      <c r="AY38" s="53"/>
+      <c r="AZ38" s="53"/>
+      <c r="BA38" s="53"/>
+      <c r="BB38" s="53"/>
+      <c r="BC38" s="53"/>
+      <c r="BD38" s="53"/>
+      <c r="BE38" s="53"/>
+      <c r="BF38" s="53"/>
+      <c r="BG38" s="58"/>
+      <c r="BH38" s="58"/>
+      <c r="BI38" s="58"/>
+      <c r="BJ38" s="58"/>
+      <c r="BK38" s="58"/>
+      <c r="BL38" s="53"/>
+      <c r="BM38" s="53"/>
+      <c r="BN38" s="53"/>
+      <c r="BO38" s="53"/>
+      <c r="BP38" s="59"/>
       <c r="BQ38" s="37"/>
     </row>
     <row r="39" spans="1:69" ht="21" customHeight="1">
@@ -5951,11 +5948,11 @@
       <c r="K40" s="45"/>
       <c r="L40" s="45"/>
       <c r="M40" s="45"/>
-      <c r="N40" s="47"/>
-      <c r="O40" s="47"/>
-      <c r="P40" s="47"/>
-      <c r="Q40" s="47"/>
-      <c r="R40" s="47"/>
+      <c r="N40" s="46"/>
+      <c r="O40" s="46"/>
+      <c r="P40" s="46"/>
+      <c r="Q40" s="46"/>
+      <c r="R40" s="46"/>
       <c r="S40" s="45"/>
       <c r="T40" s="45"/>
       <c r="U40" s="45"/>
@@ -5966,11 +5963,11 @@
       <c r="Z40" s="45"/>
       <c r="AA40" s="45"/>
       <c r="AB40" s="45"/>
-      <c r="AC40" s="48"/>
-      <c r="AD40" s="48"/>
-      <c r="AE40" s="48"/>
-      <c r="AF40" s="48"/>
-      <c r="AG40" s="48"/>
+      <c r="AC40" s="47"/>
+      <c r="AD40" s="47"/>
+      <c r="AE40" s="47"/>
+      <c r="AF40" s="47"/>
+      <c r="AG40" s="47"/>
       <c r="AH40" s="45"/>
       <c r="AI40" s="45"/>
       <c r="AJ40" s="45"/>
@@ -5981,11 +5978,11 @@
       <c r="AO40" s="45"/>
       <c r="AP40" s="45"/>
       <c r="AQ40" s="45"/>
-      <c r="AR40" s="49"/>
-      <c r="AS40" s="49"/>
-      <c r="AT40" s="49"/>
-      <c r="AU40" s="49"/>
-      <c r="AV40" s="49"/>
+      <c r="AR40" s="48"/>
+      <c r="AS40" s="48"/>
+      <c r="AT40" s="48"/>
+      <c r="AU40" s="48"/>
+      <c r="AV40" s="48"/>
       <c r="AW40" s="45"/>
       <c r="AX40" s="45"/>
       <c r="AY40" s="45"/>
@@ -5996,16 +5993,16 @@
       <c r="BD40" s="45"/>
       <c r="BE40" s="45"/>
       <c r="BF40" s="45"/>
-      <c r="BG40" s="50"/>
-      <c r="BH40" s="50"/>
-      <c r="BI40" s="50"/>
-      <c r="BJ40" s="50"/>
-      <c r="BK40" s="50"/>
+      <c r="BG40" s="49"/>
+      <c r="BH40" s="49"/>
+      <c r="BI40" s="49"/>
+      <c r="BJ40" s="49"/>
+      <c r="BK40" s="49"/>
       <c r="BL40" s="45"/>
       <c r="BM40" s="45"/>
       <c r="BN40" s="45"/>
       <c r="BO40" s="45"/>
-      <c r="BP40" s="51"/>
+      <c r="BP40" s="50"/>
       <c r="BQ40" s="37"/>
     </row>
     <row r="41" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
@@ -6025,66 +6022,66 @@
       <c r="H41" s="42">
         <v>0</v>
       </c>
-      <c r="I41" s="52"/>
-      <c r="J41" s="53"/>
-      <c r="K41" s="54"/>
-      <c r="L41" s="54"/>
-      <c r="M41" s="54"/>
-      <c r="N41" s="47"/>
-      <c r="O41" s="47"/>
-      <c r="P41" s="47"/>
-      <c r="Q41" s="47"/>
-      <c r="R41" s="47"/>
-      <c r="S41" s="54"/>
-      <c r="T41" s="54"/>
-      <c r="U41" s="54"/>
-      <c r="V41" s="54"/>
-      <c r="W41" s="54"/>
-      <c r="X41" s="54"/>
-      <c r="Y41" s="54"/>
-      <c r="Z41" s="54"/>
-      <c r="AA41" s="54"/>
-      <c r="AB41" s="54"/>
-      <c r="AC41" s="57"/>
-      <c r="AD41" s="57"/>
-      <c r="AE41" s="57"/>
-      <c r="AF41" s="57"/>
-      <c r="AG41" s="57"/>
-      <c r="AH41" s="54"/>
-      <c r="AI41" s="54"/>
-      <c r="AJ41" s="54"/>
-      <c r="AK41" s="54"/>
-      <c r="AL41" s="54"/>
-      <c r="AM41" s="54"/>
-      <c r="AN41" s="54"/>
-      <c r="AO41" s="54"/>
-      <c r="AP41" s="54"/>
-      <c r="AQ41" s="54"/>
-      <c r="AR41" s="58"/>
-      <c r="AS41" s="58"/>
-      <c r="AT41" s="58"/>
-      <c r="AU41" s="58"/>
-      <c r="AV41" s="58"/>
-      <c r="AW41" s="54"/>
-      <c r="AX41" s="54"/>
-      <c r="AY41" s="54"/>
-      <c r="AZ41" s="54"/>
-      <c r="BA41" s="54"/>
-      <c r="BB41" s="54"/>
-      <c r="BC41" s="54"/>
-      <c r="BD41" s="54"/>
-      <c r="BE41" s="54"/>
-      <c r="BF41" s="54"/>
-      <c r="BG41" s="59"/>
-      <c r="BH41" s="59"/>
-      <c r="BI41" s="59"/>
-      <c r="BJ41" s="59"/>
-      <c r="BK41" s="59"/>
-      <c r="BL41" s="54"/>
-      <c r="BM41" s="54"/>
-      <c r="BN41" s="54"/>
-      <c r="BO41" s="54"/>
-      <c r="BP41" s="60"/>
+      <c r="I41" s="51"/>
+      <c r="J41" s="52"/>
+      <c r="K41" s="53"/>
+      <c r="L41" s="53"/>
+      <c r="M41" s="53"/>
+      <c r="N41" s="46"/>
+      <c r="O41" s="46"/>
+      <c r="P41" s="46"/>
+      <c r="Q41" s="46"/>
+      <c r="R41" s="46"/>
+      <c r="S41" s="53"/>
+      <c r="T41" s="53"/>
+      <c r="U41" s="53"/>
+      <c r="V41" s="53"/>
+      <c r="W41" s="53"/>
+      <c r="X41" s="53"/>
+      <c r="Y41" s="53"/>
+      <c r="Z41" s="53"/>
+      <c r="AA41" s="53"/>
+      <c r="AB41" s="53"/>
+      <c r="AC41" s="56"/>
+      <c r="AD41" s="56"/>
+      <c r="AE41" s="56"/>
+      <c r="AF41" s="56"/>
+      <c r="AG41" s="56"/>
+      <c r="AH41" s="53"/>
+      <c r="AI41" s="53"/>
+      <c r="AJ41" s="53"/>
+      <c r="AK41" s="53"/>
+      <c r="AL41" s="53"/>
+      <c r="AM41" s="53"/>
+      <c r="AN41" s="53"/>
+      <c r="AO41" s="53"/>
+      <c r="AP41" s="53"/>
+      <c r="AQ41" s="53"/>
+      <c r="AR41" s="57"/>
+      <c r="AS41" s="57"/>
+      <c r="AT41" s="57"/>
+      <c r="AU41" s="57"/>
+      <c r="AV41" s="57"/>
+      <c r="AW41" s="53"/>
+      <c r="AX41" s="53"/>
+      <c r="AY41" s="53"/>
+      <c r="AZ41" s="53"/>
+      <c r="BA41" s="53"/>
+      <c r="BB41" s="53"/>
+      <c r="BC41" s="53"/>
+      <c r="BD41" s="53"/>
+      <c r="BE41" s="53"/>
+      <c r="BF41" s="53"/>
+      <c r="BG41" s="58"/>
+      <c r="BH41" s="58"/>
+      <c r="BI41" s="58"/>
+      <c r="BJ41" s="58"/>
+      <c r="BK41" s="58"/>
+      <c r="BL41" s="53"/>
+      <c r="BM41" s="53"/>
+      <c r="BN41" s="53"/>
+      <c r="BO41" s="53"/>
+      <c r="BP41" s="59"/>
       <c r="BQ41" s="37"/>
     </row>
     <row r="42" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
@@ -6104,66 +6101,66 @@
       <c r="H42" s="42">
         <v>0</v>
       </c>
-      <c r="I42" s="52"/>
-      <c r="J42" s="53"/>
-      <c r="K42" s="54"/>
-      <c r="L42" s="54"/>
-      <c r="M42" s="54"/>
-      <c r="N42" s="47"/>
-      <c r="O42" s="47"/>
-      <c r="P42" s="47"/>
-      <c r="Q42" s="47"/>
-      <c r="R42" s="47"/>
+      <c r="I42" s="51"/>
+      <c r="J42" s="52"/>
+      <c r="K42" s="53"/>
+      <c r="L42" s="53"/>
+      <c r="M42" s="53"/>
+      <c r="N42" s="46"/>
+      <c r="O42" s="46"/>
+      <c r="P42" s="46"/>
+      <c r="Q42" s="46"/>
+      <c r="R42" s="46"/>
       <c r="S42" s="45"/>
       <c r="T42" s="45"/>
       <c r="U42" s="45"/>
       <c r="V42" s="45"/>
-      <c r="W42" s="54"/>
-      <c r="X42" s="54"/>
-      <c r="Y42" s="54"/>
-      <c r="Z42" s="54"/>
-      <c r="AA42" s="54"/>
-      <c r="AB42" s="54"/>
-      <c r="AC42" s="57"/>
-      <c r="AD42" s="57"/>
-      <c r="AE42" s="57"/>
-      <c r="AF42" s="57"/>
-      <c r="AG42" s="57"/>
-      <c r="AH42" s="54"/>
-      <c r="AI42" s="54"/>
-      <c r="AJ42" s="54"/>
-      <c r="AK42" s="54"/>
-      <c r="AL42" s="54"/>
-      <c r="AM42" s="54"/>
-      <c r="AN42" s="54"/>
-      <c r="AO42" s="54"/>
-      <c r="AP42" s="54"/>
-      <c r="AQ42" s="54"/>
-      <c r="AR42" s="58"/>
-      <c r="AS42" s="58"/>
-      <c r="AT42" s="58"/>
-      <c r="AU42" s="58"/>
-      <c r="AV42" s="58"/>
-      <c r="AW42" s="54"/>
-      <c r="AX42" s="54"/>
-      <c r="AY42" s="54"/>
-      <c r="AZ42" s="54"/>
-      <c r="BA42" s="54"/>
-      <c r="BB42" s="54"/>
-      <c r="BC42" s="54"/>
-      <c r="BD42" s="54"/>
-      <c r="BE42" s="54"/>
-      <c r="BF42" s="54"/>
-      <c r="BG42" s="59"/>
-      <c r="BH42" s="59"/>
-      <c r="BI42" s="59"/>
-      <c r="BJ42" s="59"/>
-      <c r="BK42" s="59"/>
-      <c r="BL42" s="54"/>
-      <c r="BM42" s="54"/>
-      <c r="BN42" s="54"/>
-      <c r="BO42" s="54"/>
-      <c r="BP42" s="60"/>
+      <c r="W42" s="53"/>
+      <c r="X42" s="53"/>
+      <c r="Y42" s="53"/>
+      <c r="Z42" s="53"/>
+      <c r="AA42" s="53"/>
+      <c r="AB42" s="53"/>
+      <c r="AC42" s="56"/>
+      <c r="AD42" s="56"/>
+      <c r="AE42" s="56"/>
+      <c r="AF42" s="56"/>
+      <c r="AG42" s="56"/>
+      <c r="AH42" s="53"/>
+      <c r="AI42" s="53"/>
+      <c r="AJ42" s="53"/>
+      <c r="AK42" s="53"/>
+      <c r="AL42" s="53"/>
+      <c r="AM42" s="53"/>
+      <c r="AN42" s="53"/>
+      <c r="AO42" s="53"/>
+      <c r="AP42" s="53"/>
+      <c r="AQ42" s="53"/>
+      <c r="AR42" s="57"/>
+      <c r="AS42" s="57"/>
+      <c r="AT42" s="57"/>
+      <c r="AU42" s="57"/>
+      <c r="AV42" s="57"/>
+      <c r="AW42" s="53"/>
+      <c r="AX42" s="53"/>
+      <c r="AY42" s="53"/>
+      <c r="AZ42" s="53"/>
+      <c r="BA42" s="53"/>
+      <c r="BB42" s="53"/>
+      <c r="BC42" s="53"/>
+      <c r="BD42" s="53"/>
+      <c r="BE42" s="53"/>
+      <c r="BF42" s="53"/>
+      <c r="BG42" s="58"/>
+      <c r="BH42" s="58"/>
+      <c r="BI42" s="58"/>
+      <c r="BJ42" s="58"/>
+      <c r="BK42" s="58"/>
+      <c r="BL42" s="53"/>
+      <c r="BM42" s="53"/>
+      <c r="BN42" s="53"/>
+      <c r="BO42" s="53"/>
+      <c r="BP42" s="59"/>
       <c r="BQ42" s="37"/>
     </row>
     <row r="43" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
@@ -6180,69 +6177,69 @@
       <c r="G43" s="41">
         <v>0</v>
       </c>
-      <c r="H43" s="61">
+      <c r="H43" s="60">
         <v>0</v>
       </c>
-      <c r="I43" s="52"/>
-      <c r="J43" s="53"/>
-      <c r="K43" s="54"/>
-      <c r="L43" s="54"/>
-      <c r="M43" s="54"/>
-      <c r="N43" s="47"/>
-      <c r="O43" s="47"/>
-      <c r="P43" s="47"/>
-      <c r="Q43" s="47"/>
-      <c r="R43" s="47"/>
+      <c r="I43" s="51"/>
+      <c r="J43" s="52"/>
+      <c r="K43" s="53"/>
+      <c r="L43" s="53"/>
+      <c r="M43" s="53"/>
+      <c r="N43" s="46"/>
+      <c r="O43" s="46"/>
+      <c r="P43" s="46"/>
+      <c r="Q43" s="46"/>
+      <c r="R43" s="46"/>
       <c r="S43" s="45"/>
       <c r="T43" s="45"/>
       <c r="U43" s="45"/>
       <c r="V43" s="45"/>
-      <c r="W43" s="54"/>
-      <c r="X43" s="54"/>
-      <c r="Y43" s="54"/>
-      <c r="Z43" s="54"/>
-      <c r="AA43" s="54"/>
-      <c r="AB43" s="54"/>
-      <c r="AC43" s="57"/>
-      <c r="AD43" s="57"/>
-      <c r="AE43" s="57"/>
-      <c r="AF43" s="57"/>
-      <c r="AG43" s="57"/>
-      <c r="AH43" s="54"/>
-      <c r="AI43" s="54"/>
-      <c r="AJ43" s="54"/>
-      <c r="AK43" s="54"/>
-      <c r="AL43" s="54"/>
-      <c r="AM43" s="54"/>
-      <c r="AN43" s="54"/>
-      <c r="AO43" s="54"/>
-      <c r="AP43" s="54"/>
-      <c r="AQ43" s="54"/>
-      <c r="AR43" s="58"/>
-      <c r="AS43" s="58"/>
-      <c r="AT43" s="58"/>
-      <c r="AU43" s="58"/>
-      <c r="AV43" s="58"/>
-      <c r="AW43" s="54"/>
-      <c r="AX43" s="54"/>
-      <c r="AY43" s="54"/>
-      <c r="AZ43" s="54"/>
-      <c r="BA43" s="54"/>
-      <c r="BB43" s="54"/>
-      <c r="BC43" s="54"/>
-      <c r="BD43" s="54"/>
-      <c r="BE43" s="54"/>
-      <c r="BF43" s="54"/>
-      <c r="BG43" s="59"/>
-      <c r="BH43" s="59"/>
-      <c r="BI43" s="59"/>
-      <c r="BJ43" s="59"/>
-      <c r="BK43" s="59"/>
-      <c r="BL43" s="54"/>
-      <c r="BM43" s="54"/>
-      <c r="BN43" s="54"/>
-      <c r="BO43" s="54"/>
-      <c r="BP43" s="60"/>
+      <c r="W43" s="53"/>
+      <c r="X43" s="53"/>
+      <c r="Y43" s="53"/>
+      <c r="Z43" s="53"/>
+      <c r="AA43" s="53"/>
+      <c r="AB43" s="53"/>
+      <c r="AC43" s="56"/>
+      <c r="AD43" s="56"/>
+      <c r="AE43" s="56"/>
+      <c r="AF43" s="56"/>
+      <c r="AG43" s="56"/>
+      <c r="AH43" s="53"/>
+      <c r="AI43" s="53"/>
+      <c r="AJ43" s="53"/>
+      <c r="AK43" s="53"/>
+      <c r="AL43" s="53"/>
+      <c r="AM43" s="53"/>
+      <c r="AN43" s="53"/>
+      <c r="AO43" s="53"/>
+      <c r="AP43" s="53"/>
+      <c r="AQ43" s="53"/>
+      <c r="AR43" s="57"/>
+      <c r="AS43" s="57"/>
+      <c r="AT43" s="57"/>
+      <c r="AU43" s="57"/>
+      <c r="AV43" s="57"/>
+      <c r="AW43" s="53"/>
+      <c r="AX43" s="53"/>
+      <c r="AY43" s="53"/>
+      <c r="AZ43" s="53"/>
+      <c r="BA43" s="53"/>
+      <c r="BB43" s="53"/>
+      <c r="BC43" s="53"/>
+      <c r="BD43" s="53"/>
+      <c r="BE43" s="53"/>
+      <c r="BF43" s="53"/>
+      <c r="BG43" s="58"/>
+      <c r="BH43" s="58"/>
+      <c r="BI43" s="58"/>
+      <c r="BJ43" s="58"/>
+      <c r="BK43" s="58"/>
+      <c r="BL43" s="53"/>
+      <c r="BM43" s="53"/>
+      <c r="BN43" s="53"/>
+      <c r="BO43" s="53"/>
+      <c r="BP43" s="59"/>
       <c r="BQ43" s="37"/>
     </row>
     <row r="44" spans="1:69" ht="21" customHeight="1">
@@ -6252,8 +6249,8 @@
       <c r="D44" s="21"/>
       <c r="E44" s="21"/>
       <c r="F44" s="21"/>
-      <c r="G44" s="75"/>
-      <c r="H44" s="75"/>
+      <c r="G44" s="74"/>
+      <c r="H44" s="74"/>
       <c r="I44" s="21"/>
       <c r="J44" s="21"/>
       <c r="K44" s="21"/>
@@ -6323,8 +6320,8 @@
       <c r="D45" s="21"/>
       <c r="E45" s="21"/>
       <c r="F45" s="21"/>
-      <c r="G45" s="75"/>
-      <c r="H45" s="75"/>
+      <c r="G45" s="74"/>
+      <c r="H45" s="74"/>
       <c r="I45" s="21"/>
       <c r="J45" s="21"/>
       <c r="K45" s="21"/>
@@ -6394,8 +6391,8 @@
       <c r="D46" s="21"/>
       <c r="E46" s="21"/>
       <c r="F46" s="21"/>
-      <c r="G46" s="75"/>
-      <c r="H46" s="75"/>
+      <c r="G46" s="74"/>
+      <c r="H46" s="74"/>
       <c r="I46" s="21"/>
       <c r="J46" s="21"/>
       <c r="K46" s="21"/>
@@ -6460,28 +6457,6 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="H8:H10"/>
-    <mergeCell ref="S9:W9"/>
-    <mergeCell ref="N9:R9"/>
-    <mergeCell ref="I9:M9"/>
-    <mergeCell ref="I8:W8"/>
-    <mergeCell ref="I2:N2"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="I5:O5"/>
-    <mergeCell ref="P5:AA5"/>
-    <mergeCell ref="I4:O4"/>
-    <mergeCell ref="P4:AB4"/>
-    <mergeCell ref="O2:AG2"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="B5:C5"/>
     <mergeCell ref="BG9:BK9"/>
     <mergeCell ref="BL9:BP9"/>
     <mergeCell ref="BB9:BF9"/>
@@ -6494,6 +6469,28 @@
     <mergeCell ref="AR9:AV9"/>
     <mergeCell ref="AW9:BA9"/>
     <mergeCell ref="AM9:AQ9"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="I2:N2"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="I5:O5"/>
+    <mergeCell ref="P5:AA5"/>
+    <mergeCell ref="I4:O4"/>
+    <mergeCell ref="P4:AB4"/>
+    <mergeCell ref="O2:AG2"/>
+    <mergeCell ref="H8:H10"/>
+    <mergeCell ref="S9:W9"/>
+    <mergeCell ref="N9:R9"/>
+    <mergeCell ref="I9:M9"/>
+    <mergeCell ref="I8:W8"/>
   </mergeCells>
   <phoneticPr fontId="30" type="noConversion"/>
   <conditionalFormatting sqref="H12:H18 H20:H43">

--- a/일정/갠트 차트.xlsx
+++ b/일정/갠트 차트.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\바탕 화면\2WDA_YJSangSa_CapstoneDesign\일정\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sanghee\Desktop\develop\2wda_2semester\2WDA_YJSangSa_CapstoneDesign\일정\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BE40636-3BEE-481F-8FCD-A91127969D04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{731FA1B2-AAA1-4C2E-97C5-28C32B006C99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="갠트 차트 템플릿" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="118">
   <si>
     <t>갠트 차트 템플릿</t>
   </si>
@@ -139,9 +139,6 @@
   </si>
   <si>
     <t>금</t>
-  </si>
-  <si>
-    <t>사람 이름</t>
   </si>
   <si>
     <t>1.1.1</t>
@@ -394,10 +391,6 @@
     <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
-    <t>프로젝트 준비</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">ZEPETO </t>
     </r>
@@ -485,10 +478,6 @@
   </si>
   <si>
     <t>민화</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>개발</t>
     <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
@@ -1185,6 +1174,677 @@
   </si>
   <si>
     <t>신성,황주</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발 준비</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Backend)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>기능 구현</t>
+    </r>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B)DB </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>점검</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">DTO </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>, ENTITY</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>정의</t>
+    </r>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">플랜 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+        <family val="2"/>
+      </rPr>
+      <t>CRUD</t>
+    </r>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.1.1</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.1.2</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.1.3</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.1.4</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">유저 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+        <family val="2"/>
+      </rPr>
+      <t>CRUD</t>
+    </r>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">게시판 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+        <family val="2"/>
+      </rPr>
+      <t>CRUD</t>
+    </r>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.1.5</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>프로젝트</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>준비</t>
+    </r>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Frontend)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>웹 퍼블리싱</t>
+    </r>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>유현,민화</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.1.2</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>챌린지 CRUD</t>
+    </r>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.1.6</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">댓글 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+        <family val="2"/>
+      </rPr>
+      <t>CRUD</t>
+    </r>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.1.7</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>결제</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>모듈</t>
+    </r>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.1.8</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.1.9</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.1.10</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>로그인 모듈</t>
+    </r>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.1.1</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>F)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>웹</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>퍼블리싱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>챌린지,결제</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>(view)</t>
+    </r>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>F)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>웹</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>퍼블리싱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> plan</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>파트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>view)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>게시판</t>
+    </r>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>제페토</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>모듈</t>
+    </r>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>영진상사</t>
+    </r>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사람</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이름</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상희</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>신성</t>
+    </r>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>황주</t>
+    </r>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>태권</t>
+    </r>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상희</t>
+    </r>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>신성</t>
+    </r>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>관리자 모듈</t>
+    </r>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹 개발</t>
     <phoneticPr fontId="30" type="noConversion"/>
   </si>
 </sst>
@@ -1196,7 +1856,7 @@
     <numFmt numFmtId="176" formatCode="yy&quot;년 &quot;m&quot;월 &quot;d&quot;일&quot;"/>
     <numFmt numFmtId="177" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="56">
+  <fonts count="58">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1495,13 +2155,6 @@
       <charset val="129"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial Unicode MS"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF434343"/>
       <name val="Roboto"/>
@@ -1535,8 +2188,31 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="23">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1631,12 +2307,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFCCCCCC"/>
         <bgColor rgb="FFCCCCCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF5B9BD5"/>
-        <bgColor rgb="FF5B9BD5"/>
       </patternFill>
     </fill>
     <fill>
@@ -1909,7 +2579,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1999,9 +2669,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2040,6 +2707,9 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2049,9 +2719,6 @@
     <xf numFmtId="0" fontId="29" fillId="20" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="21" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2064,25 +2731,22 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="18" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="17" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="19" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="20" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="21" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="28" fillId="22" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="28" fillId="21" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2109,6 +2773,9 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="18" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2118,9 +2785,6 @@
     <xf numFmtId="0" fontId="29" fillId="20" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="21" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2151,29 +2815,50 @@
     <xf numFmtId="9" fontId="36" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2182,10 +2867,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2195,31 +2876,17 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="57" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2580,22 +3247,22 @@
     <tabColor rgb="FF3D85C6"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BQ46"/>
+  <dimension ref="A1:BQ56"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="S6" sqref="S6"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="31.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" customWidth="1"/>
-    <col min="5" max="6" width="14.28515625" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" customWidth="1"/>
-    <col min="9" max="68" width="3.42578125" customWidth="1"/>
-    <col min="69" max="69" width="3.85546875" customWidth="1"/>
+    <col min="1" max="1" width="4.81640625" customWidth="1"/>
+    <col min="2" max="2" width="12.7265625" customWidth="1"/>
+    <col min="3" max="3" width="31.7265625" customWidth="1"/>
+    <col min="4" max="4" width="13.81640625" customWidth="1"/>
+    <col min="5" max="6" width="14.26953125" customWidth="1"/>
+    <col min="7" max="7" width="9.81640625" customWidth="1"/>
+    <col min="9" max="68" width="3.453125" customWidth="1"/>
+    <col min="69" max="69" width="3.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:69" ht="21" customHeight="1">
@@ -2669,46 +3336,46 @@
       <c r="BP1" s="1"/>
       <c r="BQ1" s="1"/>
     </row>
-    <row r="2" spans="1:69" ht="41.25">
+    <row r="2" spans="1:69" ht="40.5">
       <c r="A2" s="1"/>
-      <c r="B2" s="95" t="s">
+      <c r="B2" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
       <c r="H2" s="10"/>
-      <c r="I2" s="93" t="s">
+      <c r="I2" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="94"/>
-      <c r="K2" s="94"/>
-      <c r="L2" s="94"/>
-      <c r="M2" s="94"/>
-      <c r="N2" s="94"/>
-      <c r="O2" s="100" t="s">
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="101"/>
+      <c r="M2" s="101"/>
+      <c r="N2" s="101"/>
+      <c r="O2" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="94"/>
-      <c r="Q2" s="94"/>
-      <c r="R2" s="94"/>
-      <c r="S2" s="94"/>
-      <c r="T2" s="94"/>
-      <c r="U2" s="94"/>
-      <c r="V2" s="94"/>
-      <c r="W2" s="94"/>
-      <c r="X2" s="94"/>
-      <c r="Y2" s="94"/>
-      <c r="Z2" s="94"/>
-      <c r="AA2" s="94"/>
-      <c r="AB2" s="94"/>
-      <c r="AC2" s="94"/>
-      <c r="AD2" s="94"/>
-      <c r="AE2" s="94"/>
-      <c r="AF2" s="94"/>
-      <c r="AG2" s="94"/>
+      <c r="P2" s="101"/>
+      <c r="Q2" s="101"/>
+      <c r="R2" s="101"/>
+      <c r="S2" s="101"/>
+      <c r="T2" s="101"/>
+      <c r="U2" s="101"/>
+      <c r="V2" s="101"/>
+      <c r="W2" s="101"/>
+      <c r="X2" s="101"/>
+      <c r="Y2" s="101"/>
+      <c r="Z2" s="101"/>
+      <c r="AA2" s="101"/>
+      <c r="AB2" s="101"/>
+      <c r="AC2" s="101"/>
+      <c r="AD2" s="101"/>
+      <c r="AE2" s="101"/>
+      <c r="AF2" s="101"/>
+      <c r="AG2" s="101"/>
       <c r="AH2" s="11"/>
       <c r="AI2" s="11"/>
       <c r="AJ2" s="11"/>
@@ -2819,41 +3486,41 @@
     </row>
     <row r="4" spans="1:69" ht="21" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="96" t="s">
+      <c r="B4" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="97"/>
-      <c r="D4" s="101" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" s="102"/>
-      <c r="F4" s="102"/>
-      <c r="G4" s="102"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="95" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="96"/>
       <c r="H4" s="16"/>
-      <c r="I4" s="96" t="s">
+      <c r="I4" s="97" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="97"/>
-      <c r="K4" s="97"/>
-      <c r="L4" s="97"/>
-      <c r="M4" s="97"/>
-      <c r="N4" s="97"/>
-      <c r="O4" s="97"/>
-      <c r="P4" s="99" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q4" s="97"/>
-      <c r="R4" s="97"/>
-      <c r="S4" s="97"/>
-      <c r="T4" s="97"/>
-      <c r="U4" s="97"/>
-      <c r="V4" s="97"/>
-      <c r="W4" s="97"/>
-      <c r="X4" s="97"/>
-      <c r="Y4" s="97"/>
-      <c r="Z4" s="97"/>
-      <c r="AA4" s="97"/>
-      <c r="AB4" s="97"/>
+      <c r="J4" s="98"/>
+      <c r="K4" s="98"/>
+      <c r="L4" s="98"/>
+      <c r="M4" s="98"/>
+      <c r="N4" s="98"/>
+      <c r="O4" s="98"/>
+      <c r="P4" s="104" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q4" s="98"/>
+      <c r="R4" s="98"/>
+      <c r="S4" s="98"/>
+      <c r="T4" s="98"/>
+      <c r="U4" s="98"/>
+      <c r="V4" s="98"/>
+      <c r="W4" s="98"/>
+      <c r="X4" s="98"/>
+      <c r="Y4" s="98"/>
+      <c r="Z4" s="98"/>
+      <c r="AA4" s="98"/>
+      <c r="AB4" s="98"/>
       <c r="AC4" s="17"/>
       <c r="AD4" s="9"/>
       <c r="AE4" s="9"/>
@@ -2898,40 +3565,40 @@
     </row>
     <row r="5" spans="1:69" ht="21" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="96" t="s">
+      <c r="B5" s="97" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="97"/>
-      <c r="D5" s="103" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" s="97"/>
-      <c r="F5" s="97"/>
-      <c r="G5" s="97"/>
+      <c r="C5" s="98"/>
+      <c r="D5" s="99" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="98"/>
+      <c r="F5" s="98"/>
+      <c r="G5" s="98"/>
       <c r="H5" s="18"/>
-      <c r="I5" s="96" t="s">
+      <c r="I5" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="97"/>
-      <c r="K5" s="97"/>
-      <c r="L5" s="97"/>
-      <c r="M5" s="97"/>
-      <c r="N5" s="97"/>
-      <c r="O5" s="97"/>
-      <c r="P5" s="98">
+      <c r="J5" s="98"/>
+      <c r="K5" s="98"/>
+      <c r="L5" s="98"/>
+      <c r="M5" s="98"/>
+      <c r="N5" s="98"/>
+      <c r="O5" s="98"/>
+      <c r="P5" s="103">
         <v>44992</v>
       </c>
-      <c r="Q5" s="97"/>
-      <c r="R5" s="97"/>
-      <c r="S5" s="97"/>
-      <c r="T5" s="97"/>
-      <c r="U5" s="97"/>
-      <c r="V5" s="97"/>
-      <c r="W5" s="97"/>
-      <c r="X5" s="97"/>
-      <c r="Y5" s="97"/>
-      <c r="Z5" s="97"/>
-      <c r="AA5" s="97"/>
+      <c r="Q5" s="98"/>
+      <c r="R5" s="98"/>
+      <c r="S5" s="98"/>
+      <c r="T5" s="98"/>
+      <c r="U5" s="98"/>
+      <c r="V5" s="98"/>
+      <c r="W5" s="98"/>
+      <c r="X5" s="98"/>
+      <c r="Y5" s="98"/>
+      <c r="Z5" s="98"/>
+      <c r="AA5" s="98"/>
       <c r="AB5" s="19"/>
       <c r="AC5" s="17"/>
       <c r="AD5" s="1"/>
@@ -3119,28 +3786,28 @@
     </row>
     <row r="8" spans="1:69" ht="17.25" customHeight="1">
       <c r="A8" s="24"/>
-      <c r="B8" s="87" t="s">
+      <c r="B8" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="87" t="s">
+      <c r="C8" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="87" t="s">
+      <c r="D8" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="87" t="s">
+      <c r="E8" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="87" t="s">
+      <c r="F8" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="87" t="s">
+      <c r="G8" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="87" t="s">
+      <c r="H8" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="92" t="s">
+      <c r="I8" s="107" t="s">
         <v>14</v>
       </c>
       <c r="J8" s="88"/>
@@ -3157,7 +3824,7 @@
       <c r="U8" s="88"/>
       <c r="V8" s="88"/>
       <c r="W8" s="88"/>
-      <c r="X8" s="109" t="s">
+      <c r="X8" s="92" t="s">
         <v>15</v>
       </c>
       <c r="Y8" s="88"/>
@@ -3174,7 +3841,7 @@
       <c r="AJ8" s="88"/>
       <c r="AK8" s="88"/>
       <c r="AL8" s="88"/>
-      <c r="AM8" s="108" t="s">
+      <c r="AM8" s="91" t="s">
         <v>16</v>
       </c>
       <c r="AN8" s="88"/>
@@ -3191,7 +3858,7 @@
       <c r="AY8" s="88"/>
       <c r="AZ8" s="88"/>
       <c r="BA8" s="88"/>
-      <c r="BB8" s="105" t="s">
+      <c r="BB8" s="87" t="s">
         <v>17</v>
       </c>
       <c r="BC8" s="88"/>
@@ -3207,7 +3874,7 @@
       <c r="BM8" s="88"/>
       <c r="BN8" s="88"/>
       <c r="BO8" s="88"/>
-      <c r="BP8" s="106"/>
+      <c r="BP8" s="89"/>
       <c r="BQ8" s="21"/>
     </row>
     <row r="9" spans="1:69" ht="17.25" customHeight="1">
@@ -3219,90 +3886,90 @@
       <c r="F9" s="88"/>
       <c r="G9" s="88"/>
       <c r="H9" s="88"/>
-      <c r="I9" s="89" t="s">
+      <c r="I9" s="106" t="s">
         <v>18</v>
       </c>
-      <c r="J9" s="90"/>
-      <c r="K9" s="90"/>
-      <c r="L9" s="90"/>
-      <c r="M9" s="91"/>
-      <c r="N9" s="89" t="s">
+      <c r="J9" s="85"/>
+      <c r="K9" s="85"/>
+      <c r="L9" s="85"/>
+      <c r="M9" s="86"/>
+      <c r="N9" s="106" t="s">
         <v>19</v>
       </c>
-      <c r="O9" s="90"/>
-      <c r="P9" s="90"/>
-      <c r="Q9" s="90"/>
-      <c r="R9" s="91"/>
-      <c r="S9" s="89" t="s">
+      <c r="O9" s="85"/>
+      <c r="P9" s="85"/>
+      <c r="Q9" s="85"/>
+      <c r="R9" s="86"/>
+      <c r="S9" s="106" t="s">
         <v>20</v>
       </c>
-      <c r="T9" s="90"/>
-      <c r="U9" s="90"/>
-      <c r="V9" s="90"/>
-      <c r="W9" s="91"/>
-      <c r="X9" s="107" t="s">
+      <c r="T9" s="85"/>
+      <c r="U9" s="85"/>
+      <c r="V9" s="85"/>
+      <c r="W9" s="86"/>
+      <c r="X9" s="90" t="s">
         <v>21</v>
       </c>
-      <c r="Y9" s="90"/>
-      <c r="Z9" s="90"/>
-      <c r="AA9" s="90"/>
-      <c r="AB9" s="91"/>
-      <c r="AC9" s="107" t="s">
+      <c r="Y9" s="85"/>
+      <c r="Z9" s="85"/>
+      <c r="AA9" s="85"/>
+      <c r="AB9" s="86"/>
+      <c r="AC9" s="90" t="s">
         <v>22</v>
       </c>
-      <c r="AD9" s="90"/>
-      <c r="AE9" s="90"/>
-      <c r="AF9" s="90"/>
-      <c r="AG9" s="91"/>
-      <c r="AH9" s="107" t="s">
+      <c r="AD9" s="85"/>
+      <c r="AE9" s="85"/>
+      <c r="AF9" s="85"/>
+      <c r="AG9" s="86"/>
+      <c r="AH9" s="90" t="s">
         <v>23</v>
       </c>
-      <c r="AI9" s="90"/>
-      <c r="AJ9" s="90"/>
-      <c r="AK9" s="90"/>
-      <c r="AL9" s="91"/>
-      <c r="AM9" s="110" t="s">
+      <c r="AI9" s="85"/>
+      <c r="AJ9" s="85"/>
+      <c r="AK9" s="85"/>
+      <c r="AL9" s="86"/>
+      <c r="AM9" s="93" t="s">
         <v>24</v>
       </c>
-      <c r="AN9" s="90"/>
-      <c r="AO9" s="90"/>
-      <c r="AP9" s="90"/>
-      <c r="AQ9" s="91"/>
-      <c r="AR9" s="110" t="s">
+      <c r="AN9" s="85"/>
+      <c r="AO9" s="85"/>
+      <c r="AP9" s="85"/>
+      <c r="AQ9" s="86"/>
+      <c r="AR9" s="93" t="s">
         <v>25</v>
       </c>
-      <c r="AS9" s="90"/>
-      <c r="AT9" s="90"/>
-      <c r="AU9" s="90"/>
-      <c r="AV9" s="91"/>
-      <c r="AW9" s="110" t="s">
+      <c r="AS9" s="85"/>
+      <c r="AT9" s="85"/>
+      <c r="AU9" s="85"/>
+      <c r="AV9" s="86"/>
+      <c r="AW9" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="AX9" s="90"/>
-      <c r="AY9" s="90"/>
-      <c r="AZ9" s="90"/>
-      <c r="BA9" s="91"/>
-      <c r="BB9" s="104" t="s">
+      <c r="AX9" s="85"/>
+      <c r="AY9" s="85"/>
+      <c r="AZ9" s="85"/>
+      <c r="BA9" s="86"/>
+      <c r="BB9" s="84" t="s">
         <v>27</v>
       </c>
-      <c r="BC9" s="90"/>
-      <c r="BD9" s="90"/>
-      <c r="BE9" s="90"/>
-      <c r="BF9" s="91"/>
-      <c r="BG9" s="104" t="s">
+      <c r="BC9" s="85"/>
+      <c r="BD9" s="85"/>
+      <c r="BE9" s="85"/>
+      <c r="BF9" s="86"/>
+      <c r="BG9" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="BH9" s="90"/>
-      <c r="BI9" s="90"/>
-      <c r="BJ9" s="90"/>
-      <c r="BK9" s="91"/>
-      <c r="BL9" s="104" t="s">
+      <c r="BH9" s="85"/>
+      <c r="BI9" s="85"/>
+      <c r="BJ9" s="85"/>
+      <c r="BK9" s="86"/>
+      <c r="BL9" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="BM9" s="90"/>
-      <c r="BN9" s="90"/>
-      <c r="BO9" s="90"/>
-      <c r="BP9" s="91"/>
+      <c r="BM9" s="85"/>
+      <c r="BN9" s="85"/>
+      <c r="BO9" s="85"/>
+      <c r="BP9" s="86"/>
       <c r="BQ9" s="25"/>
     </row>
     <row r="10" spans="1:69" ht="17.25" customHeight="1">
@@ -3501,2962 +4168,3856 @@
       <c r="B11" s="31">
         <v>1</v>
       </c>
-      <c r="C11" s="81" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="36"/>
-      <c r="L11" s="36"/>
-      <c r="M11" s="34"/>
-      <c r="N11" s="34"/>
-      <c r="O11" s="34"/>
-      <c r="P11" s="34"/>
-      <c r="Q11" s="34"/>
-      <c r="R11" s="34"/>
-      <c r="S11" s="34"/>
-      <c r="T11" s="34"/>
-      <c r="U11" s="34"/>
-      <c r="V11" s="34"/>
-      <c r="W11" s="34"/>
-      <c r="X11" s="34"/>
-      <c r="Y11" s="34"/>
-      <c r="Z11" s="34"/>
-      <c r="AA11" s="34"/>
-      <c r="AB11" s="34"/>
-      <c r="AC11" s="34"/>
-      <c r="AD11" s="34"/>
-      <c r="AE11" s="34"/>
-      <c r="AF11" s="34"/>
-      <c r="AG11" s="34"/>
-      <c r="AH11" s="34"/>
-      <c r="AI11" s="34"/>
-      <c r="AJ11" s="34"/>
-      <c r="AK11" s="34"/>
-      <c r="AL11" s="34"/>
-      <c r="AM11" s="34"/>
-      <c r="AN11" s="34"/>
-      <c r="AO11" s="34"/>
-      <c r="AP11" s="34"/>
-      <c r="AQ11" s="34"/>
-      <c r="AR11" s="34"/>
-      <c r="AS11" s="34"/>
-      <c r="AT11" s="34"/>
-      <c r="AU11" s="34"/>
-      <c r="AV11" s="34"/>
-      <c r="AW11" s="34"/>
-      <c r="AX11" s="34"/>
-      <c r="AY11" s="34"/>
-      <c r="AZ11" s="34"/>
-      <c r="BA11" s="34"/>
-      <c r="BB11" s="34"/>
-      <c r="BC11" s="34"/>
-      <c r="BD11" s="34"/>
-      <c r="BE11" s="34"/>
-      <c r="BF11" s="34"/>
-      <c r="BG11" s="34"/>
-      <c r="BH11" s="34"/>
-      <c r="BI11" s="34"/>
-      <c r="BJ11" s="34"/>
-      <c r="BK11" s="34"/>
-      <c r="BL11" s="34"/>
-      <c r="BM11" s="34"/>
-      <c r="BN11" s="34"/>
-      <c r="BO11" s="34"/>
-      <c r="BP11" s="34"/>
+      <c r="C11" s="79" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="33"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="33"/>
+      <c r="P11" s="33"/>
+      <c r="Q11" s="33"/>
+      <c r="R11" s="33"/>
+      <c r="S11" s="33"/>
+      <c r="T11" s="33"/>
+      <c r="U11" s="33"/>
+      <c r="V11" s="33"/>
+      <c r="W11" s="33"/>
+      <c r="X11" s="33"/>
+      <c r="Y11" s="33"/>
+      <c r="Z11" s="33"/>
+      <c r="AA11" s="33"/>
+      <c r="AB11" s="33"/>
+      <c r="AC11" s="33"/>
+      <c r="AD11" s="33"/>
+      <c r="AE11" s="33"/>
+      <c r="AF11" s="33"/>
+      <c r="AG11" s="33"/>
+      <c r="AH11" s="33"/>
+      <c r="AI11" s="33"/>
+      <c r="AJ11" s="33"/>
+      <c r="AK11" s="33"/>
+      <c r="AL11" s="33"/>
+      <c r="AM11" s="33"/>
+      <c r="AN11" s="33"/>
+      <c r="AO11" s="33"/>
+      <c r="AP11" s="33"/>
+      <c r="AQ11" s="33"/>
+      <c r="AR11" s="33"/>
+      <c r="AS11" s="33"/>
+      <c r="AT11" s="33"/>
+      <c r="AU11" s="33"/>
+      <c r="AV11" s="33"/>
+      <c r="AW11" s="33"/>
+      <c r="AX11" s="33"/>
+      <c r="AY11" s="33"/>
+      <c r="AZ11" s="33"/>
+      <c r="BA11" s="33"/>
+      <c r="BB11" s="33"/>
+      <c r="BC11" s="33"/>
+      <c r="BD11" s="33"/>
+      <c r="BE11" s="33"/>
+      <c r="BF11" s="33"/>
+      <c r="BG11" s="33"/>
+      <c r="BH11" s="33"/>
+      <c r="BI11" s="33"/>
+      <c r="BJ11" s="33"/>
+      <c r="BK11" s="33"/>
+      <c r="BL11" s="33"/>
+      <c r="BM11" s="33"/>
+      <c r="BN11" s="33"/>
+      <c r="BO11" s="33"/>
+      <c r="BP11" s="33"/>
       <c r="BQ11" s="21"/>
     </row>
     <row r="12" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A12" s="37"/>
-      <c r="B12" s="38">
+      <c r="A12" s="36"/>
+      <c r="B12" s="37">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C12" s="75" t="s">
+      <c r="C12" s="73" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="76" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="40">
+      <c r="E12" s="39">
         <v>44962</v>
       </c>
-      <c r="F12" s="40">
+      <c r="F12" s="39">
         <v>44968</v>
       </c>
-      <c r="G12" s="41">
+      <c r="G12" s="40">
         <f t="shared" ref="G12:G18" si="0">DAYS360(E12,F12)</f>
         <v>6</v>
       </c>
-      <c r="H12" s="42">
+      <c r="H12" s="41">
         <v>1</v>
       </c>
-      <c r="I12" s="51"/>
-      <c r="J12" s="52"/>
-      <c r="K12" s="53"/>
-      <c r="L12" s="53"/>
-      <c r="M12" s="53"/>
-      <c r="N12" s="69"/>
-      <c r="O12" s="69"/>
-      <c r="P12" s="69"/>
-      <c r="Q12" s="69"/>
-      <c r="R12" s="69"/>
-      <c r="S12" s="45"/>
-      <c r="T12" s="45"/>
-      <c r="U12" s="45"/>
-      <c r="V12" s="45"/>
-      <c r="W12" s="45"/>
-      <c r="X12" s="45"/>
-      <c r="Y12" s="45"/>
-      <c r="Z12" s="45"/>
-      <c r="AA12" s="45"/>
-      <c r="AB12" s="45"/>
-      <c r="AC12" s="47"/>
-      <c r="AD12" s="47"/>
-      <c r="AE12" s="47"/>
-      <c r="AF12" s="47"/>
-      <c r="AG12" s="47"/>
-      <c r="AH12" s="45"/>
-      <c r="AI12" s="45"/>
-      <c r="AJ12" s="45"/>
-      <c r="AK12" s="45"/>
-      <c r="AL12" s="45"/>
-      <c r="AM12" s="45"/>
-      <c r="AN12" s="45"/>
-      <c r="AO12" s="45"/>
-      <c r="AP12" s="45"/>
-      <c r="AQ12" s="45"/>
-      <c r="AR12" s="48"/>
-      <c r="AS12" s="48"/>
-      <c r="AT12" s="48"/>
-      <c r="AU12" s="48"/>
-      <c r="AV12" s="48"/>
-      <c r="AW12" s="45"/>
-      <c r="AX12" s="45"/>
-      <c r="AY12" s="45"/>
-      <c r="AZ12" s="45"/>
-      <c r="BA12" s="45"/>
-      <c r="BB12" s="45"/>
-      <c r="BC12" s="45"/>
-      <c r="BD12" s="45"/>
-      <c r="BE12" s="45"/>
-      <c r="BF12" s="45"/>
-      <c r="BG12" s="49"/>
-      <c r="BH12" s="49"/>
-      <c r="BI12" s="49"/>
-      <c r="BJ12" s="49"/>
-      <c r="BK12" s="49"/>
-      <c r="BL12" s="45"/>
-      <c r="BM12" s="45"/>
-      <c r="BN12" s="45"/>
-      <c r="BO12" s="45"/>
-      <c r="BP12" s="50"/>
-      <c r="BQ12" s="37"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="51"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="52"/>
+      <c r="M12" s="52"/>
+      <c r="N12" s="67"/>
+      <c r="O12" s="67"/>
+      <c r="P12" s="67"/>
+      <c r="Q12" s="67"/>
+      <c r="R12" s="67"/>
+      <c r="S12" s="44"/>
+      <c r="T12" s="44"/>
+      <c r="U12" s="44"/>
+      <c r="V12" s="44"/>
+      <c r="W12" s="44"/>
+      <c r="X12" s="44"/>
+      <c r="Y12" s="44"/>
+      <c r="Z12" s="44"/>
+      <c r="AA12" s="44"/>
+      <c r="AB12" s="44"/>
+      <c r="AC12" s="46"/>
+      <c r="AD12" s="46"/>
+      <c r="AE12" s="46"/>
+      <c r="AF12" s="46"/>
+      <c r="AG12" s="46"/>
+      <c r="AH12" s="44"/>
+      <c r="AI12" s="44"/>
+      <c r="AJ12" s="44"/>
+      <c r="AK12" s="44"/>
+      <c r="AL12" s="44"/>
+      <c r="AM12" s="44"/>
+      <c r="AN12" s="44"/>
+      <c r="AO12" s="44"/>
+      <c r="AP12" s="44"/>
+      <c r="AQ12" s="44"/>
+      <c r="AR12" s="47"/>
+      <c r="AS12" s="47"/>
+      <c r="AT12" s="47"/>
+      <c r="AU12" s="47"/>
+      <c r="AV12" s="47"/>
+      <c r="AW12" s="44"/>
+      <c r="AX12" s="44"/>
+      <c r="AY12" s="44"/>
+      <c r="AZ12" s="44"/>
+      <c r="BA12" s="44"/>
+      <c r="BB12" s="44"/>
+      <c r="BC12" s="44"/>
+      <c r="BD12" s="44"/>
+      <c r="BE12" s="44"/>
+      <c r="BF12" s="44"/>
+      <c r="BG12" s="48"/>
+      <c r="BH12" s="48"/>
+      <c r="BI12" s="48"/>
+      <c r="BJ12" s="48"/>
+      <c r="BK12" s="48"/>
+      <c r="BL12" s="44"/>
+      <c r="BM12" s="44"/>
+      <c r="BN12" s="44"/>
+      <c r="BO12" s="44"/>
+      <c r="BP12" s="49"/>
+      <c r="BQ12" s="36"/>
     </row>
     <row r="13" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A13" s="37"/>
-      <c r="B13" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="77" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" s="78" t="s">
+      <c r="A13" s="36"/>
+      <c r="B13" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="75" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="40">
+      <c r="D13" s="76" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="39">
         <v>44969</v>
       </c>
-      <c r="F13" s="40">
+      <c r="F13" s="39">
         <v>44972</v>
       </c>
-      <c r="G13" s="41">
+      <c r="G13" s="40">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="H13" s="42">
+      <c r="H13" s="41">
         <v>1</v>
       </c>
-      <c r="I13" s="51"/>
-      <c r="J13" s="52"/>
-      <c r="K13" s="53"/>
-      <c r="L13" s="53"/>
-      <c r="M13" s="53"/>
-      <c r="N13" s="69"/>
-      <c r="O13" s="69"/>
-      <c r="P13" s="69"/>
-      <c r="Q13" s="69"/>
-      <c r="R13" s="69"/>
-      <c r="S13" s="53"/>
-      <c r="T13" s="53"/>
-      <c r="U13" s="53"/>
-      <c r="V13" s="53"/>
-      <c r="W13" s="53"/>
-      <c r="X13" s="53"/>
-      <c r="Y13" s="53"/>
-      <c r="Z13" s="53"/>
-      <c r="AA13" s="53"/>
-      <c r="AB13" s="53"/>
-      <c r="AC13" s="56"/>
-      <c r="AD13" s="56"/>
-      <c r="AE13" s="56"/>
-      <c r="AF13" s="56"/>
-      <c r="AG13" s="56"/>
-      <c r="AH13" s="53"/>
-      <c r="AI13" s="53"/>
-      <c r="AJ13" s="53"/>
-      <c r="AK13" s="53"/>
-      <c r="AL13" s="53"/>
-      <c r="AM13" s="53"/>
-      <c r="AN13" s="53"/>
-      <c r="AO13" s="53"/>
-      <c r="AP13" s="53"/>
-      <c r="AQ13" s="53"/>
-      <c r="AR13" s="57"/>
-      <c r="AS13" s="57"/>
-      <c r="AT13" s="57"/>
-      <c r="AU13" s="57"/>
-      <c r="AV13" s="57"/>
-      <c r="AW13" s="53"/>
-      <c r="AX13" s="53"/>
-      <c r="AY13" s="53"/>
-      <c r="AZ13" s="53"/>
-      <c r="BA13" s="53"/>
-      <c r="BB13" s="53"/>
-      <c r="BC13" s="53"/>
-      <c r="BD13" s="53"/>
-      <c r="BE13" s="53"/>
-      <c r="BF13" s="53"/>
-      <c r="BG13" s="58"/>
-      <c r="BH13" s="58"/>
-      <c r="BI13" s="58"/>
-      <c r="BJ13" s="58"/>
-      <c r="BK13" s="58"/>
-      <c r="BL13" s="53"/>
-      <c r="BM13" s="53"/>
-      <c r="BN13" s="53"/>
-      <c r="BO13" s="53"/>
-      <c r="BP13" s="59"/>
-      <c r="BQ13" s="37"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="52"/>
+      <c r="N13" s="67"/>
+      <c r="O13" s="67"/>
+      <c r="P13" s="67"/>
+      <c r="Q13" s="67"/>
+      <c r="R13" s="67"/>
+      <c r="S13" s="52"/>
+      <c r="T13" s="52"/>
+      <c r="U13" s="52"/>
+      <c r="V13" s="52"/>
+      <c r="W13" s="52"/>
+      <c r="X13" s="52"/>
+      <c r="Y13" s="52"/>
+      <c r="Z13" s="52"/>
+      <c r="AA13" s="52"/>
+      <c r="AB13" s="52"/>
+      <c r="AC13" s="54"/>
+      <c r="AD13" s="54"/>
+      <c r="AE13" s="54"/>
+      <c r="AF13" s="54"/>
+      <c r="AG13" s="54"/>
+      <c r="AH13" s="52"/>
+      <c r="AI13" s="52"/>
+      <c r="AJ13" s="52"/>
+      <c r="AK13" s="52"/>
+      <c r="AL13" s="52"/>
+      <c r="AM13" s="52"/>
+      <c r="AN13" s="52"/>
+      <c r="AO13" s="52"/>
+      <c r="AP13" s="52"/>
+      <c r="AQ13" s="52"/>
+      <c r="AR13" s="55"/>
+      <c r="AS13" s="55"/>
+      <c r="AT13" s="55"/>
+      <c r="AU13" s="55"/>
+      <c r="AV13" s="55"/>
+      <c r="AW13" s="52"/>
+      <c r="AX13" s="52"/>
+      <c r="AY13" s="52"/>
+      <c r="AZ13" s="52"/>
+      <c r="BA13" s="52"/>
+      <c r="BB13" s="52"/>
+      <c r="BC13" s="52"/>
+      <c r="BD13" s="52"/>
+      <c r="BE13" s="52"/>
+      <c r="BF13" s="52"/>
+      <c r="BG13" s="56"/>
+      <c r="BH13" s="56"/>
+      <c r="BI13" s="56"/>
+      <c r="BJ13" s="56"/>
+      <c r="BK13" s="56"/>
+      <c r="BL13" s="52"/>
+      <c r="BM13" s="52"/>
+      <c r="BN13" s="52"/>
+      <c r="BO13" s="52"/>
+      <c r="BP13" s="57"/>
+      <c r="BQ13" s="36"/>
     </row>
     <row r="14" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A14" s="37"/>
-      <c r="B14" s="38">
+      <c r="A14" s="36"/>
+      <c r="B14" s="37">
         <v>1.2</v>
       </c>
-      <c r="C14" s="76" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="78" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" s="40">
+      <c r="C14" s="74" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="76" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="39">
         <v>44973</v>
       </c>
-      <c r="F14" s="40">
+      <c r="F14" s="39">
         <v>44976</v>
       </c>
-      <c r="G14" s="41">
+      <c r="G14" s="40">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="H14" s="42">
+      <c r="H14" s="41">
         <v>1</v>
       </c>
-      <c r="I14" s="51"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="53"/>
-      <c r="L14" s="53"/>
-      <c r="M14" s="53"/>
-      <c r="N14" s="69"/>
-      <c r="O14" s="69"/>
-      <c r="P14" s="69"/>
-      <c r="Q14" s="69"/>
-      <c r="R14" s="69"/>
-      <c r="S14" s="53"/>
-      <c r="T14" s="53"/>
-      <c r="U14" s="53"/>
-      <c r="V14" s="53"/>
-      <c r="W14" s="53"/>
-      <c r="X14" s="53"/>
-      <c r="Y14" s="53"/>
-      <c r="Z14" s="53"/>
-      <c r="AA14" s="53"/>
-      <c r="AB14" s="53"/>
-      <c r="AC14" s="56"/>
-      <c r="AD14" s="56"/>
-      <c r="AE14" s="56"/>
-      <c r="AF14" s="56"/>
-      <c r="AG14" s="56"/>
-      <c r="AH14" s="53"/>
-      <c r="AI14" s="53"/>
-      <c r="AJ14" s="53"/>
-      <c r="AK14" s="53"/>
-      <c r="AL14" s="53"/>
-      <c r="AM14" s="53"/>
-      <c r="AN14" s="53"/>
-      <c r="AO14" s="53"/>
-      <c r="AP14" s="53"/>
-      <c r="AQ14" s="53"/>
-      <c r="AR14" s="57"/>
-      <c r="AS14" s="57"/>
-      <c r="AT14" s="57"/>
-      <c r="AU14" s="57"/>
-      <c r="AV14" s="57"/>
-      <c r="AW14" s="53"/>
-      <c r="AX14" s="53"/>
-      <c r="AY14" s="53"/>
-      <c r="AZ14" s="53"/>
-      <c r="BA14" s="53"/>
-      <c r="BB14" s="53"/>
-      <c r="BC14" s="53"/>
-      <c r="BD14" s="53"/>
-      <c r="BE14" s="53"/>
-      <c r="BF14" s="53"/>
-      <c r="BG14" s="58"/>
-      <c r="BH14" s="58"/>
-      <c r="BI14" s="58"/>
-      <c r="BJ14" s="58"/>
-      <c r="BK14" s="58"/>
-      <c r="BL14" s="53"/>
-      <c r="BM14" s="53"/>
-      <c r="BN14" s="53"/>
-      <c r="BO14" s="53"/>
-      <c r="BP14" s="59"/>
-      <c r="BQ14" s="37"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="51"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="52"/>
+      <c r="M14" s="52"/>
+      <c r="N14" s="67"/>
+      <c r="O14" s="67"/>
+      <c r="P14" s="67"/>
+      <c r="Q14" s="67"/>
+      <c r="R14" s="67"/>
+      <c r="S14" s="52"/>
+      <c r="T14" s="52"/>
+      <c r="U14" s="52"/>
+      <c r="V14" s="52"/>
+      <c r="W14" s="52"/>
+      <c r="X14" s="52"/>
+      <c r="Y14" s="52"/>
+      <c r="Z14" s="52"/>
+      <c r="AA14" s="52"/>
+      <c r="AB14" s="52"/>
+      <c r="AC14" s="54"/>
+      <c r="AD14" s="54"/>
+      <c r="AE14" s="54"/>
+      <c r="AF14" s="54"/>
+      <c r="AG14" s="54"/>
+      <c r="AH14" s="52"/>
+      <c r="AI14" s="52"/>
+      <c r="AJ14" s="52"/>
+      <c r="AK14" s="52"/>
+      <c r="AL14" s="52"/>
+      <c r="AM14" s="52"/>
+      <c r="AN14" s="52"/>
+      <c r="AO14" s="52"/>
+      <c r="AP14" s="52"/>
+      <c r="AQ14" s="52"/>
+      <c r="AR14" s="55"/>
+      <c r="AS14" s="55"/>
+      <c r="AT14" s="55"/>
+      <c r="AU14" s="55"/>
+      <c r="AV14" s="55"/>
+      <c r="AW14" s="52"/>
+      <c r="AX14" s="52"/>
+      <c r="AY14" s="52"/>
+      <c r="AZ14" s="52"/>
+      <c r="BA14" s="52"/>
+      <c r="BB14" s="52"/>
+      <c r="BC14" s="52"/>
+      <c r="BD14" s="52"/>
+      <c r="BE14" s="52"/>
+      <c r="BF14" s="52"/>
+      <c r="BG14" s="56"/>
+      <c r="BH14" s="56"/>
+      <c r="BI14" s="56"/>
+      <c r="BJ14" s="56"/>
+      <c r="BK14" s="56"/>
+      <c r="BL14" s="52"/>
+      <c r="BM14" s="52"/>
+      <c r="BN14" s="52"/>
+      <c r="BO14" s="52"/>
+      <c r="BP14" s="57"/>
+      <c r="BQ14" s="36"/>
     </row>
     <row r="15" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A15" s="37"/>
-      <c r="B15" s="38">
+      <c r="A15" s="36"/>
+      <c r="B15" s="37">
         <v>1.3</v>
       </c>
-      <c r="C15" s="79" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="78" t="s">
-        <v>43</v>
-      </c>
-      <c r="E15" s="40">
+      <c r="C15" s="77" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="76" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="39">
         <v>44977</v>
       </c>
-      <c r="F15" s="40">
+      <c r="F15" s="39">
         <v>44978</v>
       </c>
-      <c r="G15" s="41">
+      <c r="G15" s="40">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H15" s="60">
+      <c r="H15" s="58">
         <v>1</v>
       </c>
-      <c r="I15" s="51"/>
-      <c r="J15" s="52"/>
-      <c r="K15" s="53"/>
-      <c r="L15" s="53"/>
-      <c r="M15" s="53"/>
-      <c r="N15" s="69"/>
-      <c r="O15" s="69"/>
-      <c r="P15" s="69"/>
-      <c r="Q15" s="69"/>
-      <c r="R15" s="69"/>
-      <c r="S15" s="53"/>
-      <c r="T15" s="53"/>
-      <c r="U15" s="53"/>
-      <c r="V15" s="53"/>
-      <c r="W15" s="53"/>
-      <c r="X15" s="53"/>
-      <c r="Y15" s="53"/>
-      <c r="Z15" s="53"/>
-      <c r="AA15" s="53"/>
-      <c r="AB15" s="53"/>
-      <c r="AC15" s="56"/>
-      <c r="AD15" s="56"/>
-      <c r="AE15" s="56"/>
-      <c r="AF15" s="56"/>
-      <c r="AG15" s="56"/>
-      <c r="AH15" s="53"/>
-      <c r="AI15" s="53"/>
-      <c r="AJ15" s="53"/>
-      <c r="AK15" s="53"/>
-      <c r="AL15" s="53"/>
-      <c r="AM15" s="53"/>
-      <c r="AN15" s="53"/>
-      <c r="AO15" s="53"/>
-      <c r="AP15" s="53"/>
-      <c r="AQ15" s="53"/>
-      <c r="AR15" s="57"/>
-      <c r="AS15" s="57"/>
-      <c r="AT15" s="57"/>
-      <c r="AU15" s="57"/>
-      <c r="AV15" s="57"/>
-      <c r="AW15" s="53"/>
-      <c r="AX15" s="53"/>
-      <c r="AY15" s="53"/>
-      <c r="AZ15" s="53"/>
-      <c r="BA15" s="53"/>
-      <c r="BB15" s="53"/>
-      <c r="BC15" s="53"/>
-      <c r="BD15" s="53"/>
-      <c r="BE15" s="53"/>
-      <c r="BF15" s="53"/>
-      <c r="BG15" s="58"/>
-      <c r="BH15" s="58"/>
-      <c r="BI15" s="58"/>
-      <c r="BJ15" s="58"/>
-      <c r="BK15" s="58"/>
-      <c r="BL15" s="53"/>
-      <c r="BM15" s="53"/>
-      <c r="BN15" s="53"/>
-      <c r="BO15" s="53"/>
-      <c r="BP15" s="59"/>
-      <c r="BQ15" s="37"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="52"/>
+      <c r="M15" s="52"/>
+      <c r="N15" s="67"/>
+      <c r="O15" s="67"/>
+      <c r="P15" s="67"/>
+      <c r="Q15" s="67"/>
+      <c r="R15" s="67"/>
+      <c r="S15" s="52"/>
+      <c r="T15" s="52"/>
+      <c r="U15" s="52"/>
+      <c r="V15" s="52"/>
+      <c r="W15" s="52"/>
+      <c r="X15" s="52"/>
+      <c r="Y15" s="52"/>
+      <c r="Z15" s="52"/>
+      <c r="AA15" s="52"/>
+      <c r="AB15" s="52"/>
+      <c r="AC15" s="54"/>
+      <c r="AD15" s="54"/>
+      <c r="AE15" s="54"/>
+      <c r="AF15" s="54"/>
+      <c r="AG15" s="54"/>
+      <c r="AH15" s="52"/>
+      <c r="AI15" s="52"/>
+      <c r="AJ15" s="52"/>
+      <c r="AK15" s="52"/>
+      <c r="AL15" s="52"/>
+      <c r="AM15" s="52"/>
+      <c r="AN15" s="52"/>
+      <c r="AO15" s="52"/>
+      <c r="AP15" s="52"/>
+      <c r="AQ15" s="52"/>
+      <c r="AR15" s="55"/>
+      <c r="AS15" s="55"/>
+      <c r="AT15" s="55"/>
+      <c r="AU15" s="55"/>
+      <c r="AV15" s="55"/>
+      <c r="AW15" s="52"/>
+      <c r="AX15" s="52"/>
+      <c r="AY15" s="52"/>
+      <c r="AZ15" s="52"/>
+      <c r="BA15" s="52"/>
+      <c r="BB15" s="52"/>
+      <c r="BC15" s="52"/>
+      <c r="BD15" s="52"/>
+      <c r="BE15" s="52"/>
+      <c r="BF15" s="52"/>
+      <c r="BG15" s="56"/>
+      <c r="BH15" s="56"/>
+      <c r="BI15" s="56"/>
+      <c r="BJ15" s="56"/>
+      <c r="BK15" s="56"/>
+      <c r="BL15" s="52"/>
+      <c r="BM15" s="52"/>
+      <c r="BN15" s="52"/>
+      <c r="BO15" s="52"/>
+      <c r="BP15" s="57"/>
+      <c r="BQ15" s="36"/>
     </row>
     <row r="16" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A16" s="37"/>
-      <c r="B16" s="38">
+      <c r="A16" s="36"/>
+      <c r="B16" s="37">
         <v>1.4</v>
       </c>
-      <c r="C16" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" s="78" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" s="40">
+      <c r="C16" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="76" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="39">
         <v>44979</v>
       </c>
-      <c r="F16" s="40">
+      <c r="F16" s="39">
         <v>44983</v>
       </c>
-      <c r="G16" s="41">
+      <c r="G16" s="40">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="H16" s="42">
+      <c r="H16" s="41">
         <v>1</v>
       </c>
-      <c r="I16" s="51"/>
-      <c r="J16" s="52"/>
-      <c r="K16" s="53"/>
-      <c r="L16" s="53"/>
-      <c r="M16" s="53"/>
-      <c r="N16" s="69"/>
-      <c r="O16" s="69"/>
-      <c r="P16" s="69"/>
-      <c r="Q16" s="69"/>
-      <c r="R16" s="69"/>
-      <c r="S16" s="53"/>
-      <c r="T16" s="53"/>
-      <c r="U16" s="53"/>
-      <c r="V16" s="53"/>
-      <c r="W16" s="53"/>
-      <c r="X16" s="53"/>
-      <c r="Y16" s="53"/>
-      <c r="Z16" s="53"/>
-      <c r="AA16" s="53"/>
-      <c r="AB16" s="53"/>
-      <c r="AC16" s="56"/>
-      <c r="AD16" s="56"/>
-      <c r="AE16" s="56"/>
-      <c r="AF16" s="56"/>
-      <c r="AG16" s="56"/>
-      <c r="AH16" s="53"/>
-      <c r="AI16" s="53"/>
-      <c r="AJ16" s="53"/>
-      <c r="AK16" s="53"/>
-      <c r="AL16" s="53"/>
-      <c r="AM16" s="53"/>
-      <c r="AN16" s="53"/>
-      <c r="AO16" s="53"/>
-      <c r="AP16" s="53"/>
-      <c r="AQ16" s="53"/>
-      <c r="AR16" s="57"/>
-      <c r="AS16" s="57"/>
-      <c r="AT16" s="57"/>
-      <c r="AU16" s="57"/>
-      <c r="AV16" s="57"/>
-      <c r="AW16" s="53"/>
-      <c r="AX16" s="53"/>
-      <c r="AY16" s="53"/>
-      <c r="AZ16" s="53"/>
-      <c r="BA16" s="53"/>
-      <c r="BB16" s="53"/>
-      <c r="BC16" s="53"/>
-      <c r="BD16" s="53"/>
-      <c r="BE16" s="53"/>
-      <c r="BF16" s="53"/>
-      <c r="BG16" s="58"/>
-      <c r="BH16" s="58"/>
-      <c r="BI16" s="58"/>
-      <c r="BJ16" s="58"/>
-      <c r="BK16" s="58"/>
-      <c r="BL16" s="53"/>
-      <c r="BM16" s="53"/>
-      <c r="BN16" s="53"/>
-      <c r="BO16" s="53"/>
-      <c r="BP16" s="59"/>
-      <c r="BQ16" s="37"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="51"/>
+      <c r="K16" s="52"/>
+      <c r="L16" s="52"/>
+      <c r="M16" s="52"/>
+      <c r="N16" s="67"/>
+      <c r="O16" s="67"/>
+      <c r="P16" s="67"/>
+      <c r="Q16" s="67"/>
+      <c r="R16" s="67"/>
+      <c r="S16" s="52"/>
+      <c r="T16" s="52"/>
+      <c r="U16" s="52"/>
+      <c r="V16" s="52"/>
+      <c r="W16" s="52"/>
+      <c r="X16" s="52"/>
+      <c r="Y16" s="52"/>
+      <c r="Z16" s="52"/>
+      <c r="AA16" s="52"/>
+      <c r="AB16" s="52"/>
+      <c r="AC16" s="54"/>
+      <c r="AD16" s="54"/>
+      <c r="AE16" s="54"/>
+      <c r="AF16" s="54"/>
+      <c r="AG16" s="54"/>
+      <c r="AH16" s="52"/>
+      <c r="AI16" s="52"/>
+      <c r="AJ16" s="52"/>
+      <c r="AK16" s="52"/>
+      <c r="AL16" s="52"/>
+      <c r="AM16" s="52"/>
+      <c r="AN16" s="52"/>
+      <c r="AO16" s="52"/>
+      <c r="AP16" s="52"/>
+      <c r="AQ16" s="52"/>
+      <c r="AR16" s="55"/>
+      <c r="AS16" s="55"/>
+      <c r="AT16" s="55"/>
+      <c r="AU16" s="55"/>
+      <c r="AV16" s="55"/>
+      <c r="AW16" s="52"/>
+      <c r="AX16" s="52"/>
+      <c r="AY16" s="52"/>
+      <c r="AZ16" s="52"/>
+      <c r="BA16" s="52"/>
+      <c r="BB16" s="52"/>
+      <c r="BC16" s="52"/>
+      <c r="BD16" s="52"/>
+      <c r="BE16" s="52"/>
+      <c r="BF16" s="52"/>
+      <c r="BG16" s="56"/>
+      <c r="BH16" s="56"/>
+      <c r="BI16" s="56"/>
+      <c r="BJ16" s="56"/>
+      <c r="BK16" s="56"/>
+      <c r="BL16" s="52"/>
+      <c r="BM16" s="52"/>
+      <c r="BN16" s="52"/>
+      <c r="BO16" s="52"/>
+      <c r="BP16" s="57"/>
+      <c r="BQ16" s="36"/>
     </row>
     <row r="17" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A17" s="37"/>
-      <c r="B17" s="38">
+      <c r="A17" s="36"/>
+      <c r="B17" s="37">
         <v>1.5</v>
       </c>
-      <c r="C17" s="80" t="s">
-        <v>48</v>
-      </c>
-      <c r="D17" s="78" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" s="40">
+      <c r="C17" s="78" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="76" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="39">
         <v>44984</v>
       </c>
-      <c r="F17" s="40">
+      <c r="F17" s="39">
         <v>44985</v>
       </c>
-      <c r="G17" s="41">
+      <c r="G17" s="40">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H17" s="82" t="s">
-        <v>51</v>
-      </c>
-      <c r="I17" s="51"/>
-      <c r="J17" s="52"/>
-      <c r="K17" s="53"/>
-      <c r="L17" s="53"/>
-      <c r="M17" s="53"/>
-      <c r="N17" s="69"/>
-      <c r="O17" s="69"/>
-      <c r="P17" s="69"/>
-      <c r="Q17" s="69"/>
-      <c r="R17" s="69"/>
-      <c r="S17" s="53"/>
-      <c r="T17" s="53"/>
-      <c r="U17" s="53"/>
-      <c r="V17" s="53"/>
-      <c r="W17" s="53"/>
-      <c r="X17" s="53"/>
-      <c r="Y17" s="53"/>
-      <c r="Z17" s="53"/>
-      <c r="AA17" s="53"/>
-      <c r="AB17" s="53"/>
-      <c r="AC17" s="56"/>
-      <c r="AD17" s="56"/>
-      <c r="AE17" s="56"/>
-      <c r="AF17" s="56"/>
-      <c r="AG17" s="56"/>
-      <c r="AH17" s="53"/>
-      <c r="AI17" s="53"/>
-      <c r="AJ17" s="53"/>
-      <c r="AK17" s="53"/>
-      <c r="AL17" s="53"/>
-      <c r="AM17" s="53"/>
-      <c r="AN17" s="53"/>
-      <c r="AO17" s="53"/>
-      <c r="AP17" s="53"/>
-      <c r="AQ17" s="53"/>
-      <c r="AR17" s="57"/>
-      <c r="AS17" s="57"/>
-      <c r="AT17" s="57"/>
-      <c r="AU17" s="57"/>
-      <c r="AV17" s="57"/>
-      <c r="AW17" s="53"/>
-      <c r="AX17" s="53"/>
-      <c r="AY17" s="53"/>
-      <c r="AZ17" s="53"/>
-      <c r="BA17" s="53"/>
-      <c r="BB17" s="53"/>
-      <c r="BC17" s="53"/>
-      <c r="BD17" s="53"/>
-      <c r="BE17" s="53"/>
-      <c r="BF17" s="53"/>
-      <c r="BG17" s="58"/>
-      <c r="BH17" s="58"/>
-      <c r="BI17" s="58"/>
-      <c r="BJ17" s="58"/>
-      <c r="BK17" s="58"/>
-      <c r="BL17" s="53"/>
-      <c r="BM17" s="53"/>
-      <c r="BN17" s="53"/>
-      <c r="BO17" s="53"/>
-      <c r="BP17" s="59"/>
-      <c r="BQ17" s="37"/>
+      <c r="H17" s="80" t="s">
+        <v>50</v>
+      </c>
+      <c r="I17" s="50"/>
+      <c r="J17" s="51"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="52"/>
+      <c r="M17" s="52"/>
+      <c r="N17" s="67"/>
+      <c r="O17" s="67"/>
+      <c r="P17" s="67"/>
+      <c r="Q17" s="67"/>
+      <c r="R17" s="67"/>
+      <c r="S17" s="52"/>
+      <c r="T17" s="52"/>
+      <c r="U17" s="52"/>
+      <c r="V17" s="52"/>
+      <c r="W17" s="52"/>
+      <c r="X17" s="52"/>
+      <c r="Y17" s="52"/>
+      <c r="Z17" s="52"/>
+      <c r="AA17" s="52"/>
+      <c r="AB17" s="52"/>
+      <c r="AC17" s="54"/>
+      <c r="AD17" s="54"/>
+      <c r="AE17" s="54"/>
+      <c r="AF17" s="54"/>
+      <c r="AG17" s="54"/>
+      <c r="AH17" s="52"/>
+      <c r="AI17" s="52"/>
+      <c r="AJ17" s="52"/>
+      <c r="AK17" s="52"/>
+      <c r="AL17" s="52"/>
+      <c r="AM17" s="52"/>
+      <c r="AN17" s="52"/>
+      <c r="AO17" s="52"/>
+      <c r="AP17" s="52"/>
+      <c r="AQ17" s="52"/>
+      <c r="AR17" s="55"/>
+      <c r="AS17" s="55"/>
+      <c r="AT17" s="55"/>
+      <c r="AU17" s="55"/>
+      <c r="AV17" s="55"/>
+      <c r="AW17" s="52"/>
+      <c r="AX17" s="52"/>
+      <c r="AY17" s="52"/>
+      <c r="AZ17" s="52"/>
+      <c r="BA17" s="52"/>
+      <c r="BB17" s="52"/>
+      <c r="BC17" s="52"/>
+      <c r="BD17" s="52"/>
+      <c r="BE17" s="52"/>
+      <c r="BF17" s="52"/>
+      <c r="BG17" s="56"/>
+      <c r="BH17" s="56"/>
+      <c r="BI17" s="56"/>
+      <c r="BJ17" s="56"/>
+      <c r="BK17" s="56"/>
+      <c r="BL17" s="52"/>
+      <c r="BM17" s="52"/>
+      <c r="BN17" s="52"/>
+      <c r="BO17" s="52"/>
+      <c r="BP17" s="57"/>
+      <c r="BQ17" s="36"/>
     </row>
     <row r="18" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A18" s="37"/>
-      <c r="B18" s="61">
+      <c r="A18" s="36"/>
+      <c r="B18" s="59">
         <v>1.6</v>
       </c>
-      <c r="C18" s="62" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" s="78" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" s="63">
+      <c r="C18" s="60" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="76" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="61">
         <v>44987</v>
       </c>
-      <c r="F18" s="63" t="s">
-        <v>49</v>
-      </c>
-      <c r="G18" s="64" t="e">
+      <c r="F18" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="G18" s="62" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H18" s="65">
+      <c r="H18" s="63">
         <v>0.99</v>
       </c>
-      <c r="I18" s="66"/>
-      <c r="J18" s="67"/>
-      <c r="K18" s="68"/>
-      <c r="L18" s="68"/>
-      <c r="M18" s="68"/>
-      <c r="N18" s="69"/>
-      <c r="O18" s="69"/>
-      <c r="P18" s="69"/>
-      <c r="Q18" s="69"/>
-      <c r="R18" s="69"/>
-      <c r="S18" s="68"/>
-      <c r="T18" s="68"/>
-      <c r="U18" s="68"/>
-      <c r="V18" s="68"/>
-      <c r="W18" s="68"/>
-      <c r="X18" s="68"/>
-      <c r="Y18" s="68"/>
-      <c r="Z18" s="68"/>
-      <c r="AA18" s="68"/>
-      <c r="AB18" s="68"/>
-      <c r="AC18" s="70"/>
-      <c r="AD18" s="70"/>
-      <c r="AE18" s="70"/>
-      <c r="AF18" s="70"/>
-      <c r="AG18" s="70"/>
-      <c r="AH18" s="68"/>
-      <c r="AI18" s="68"/>
-      <c r="AJ18" s="68"/>
-      <c r="AK18" s="68"/>
-      <c r="AL18" s="68"/>
-      <c r="AM18" s="68"/>
-      <c r="AN18" s="68"/>
-      <c r="AO18" s="68"/>
-      <c r="AP18" s="68"/>
-      <c r="AQ18" s="68"/>
-      <c r="AR18" s="71"/>
-      <c r="AS18" s="71"/>
-      <c r="AT18" s="71"/>
-      <c r="AU18" s="71"/>
-      <c r="AV18" s="71"/>
-      <c r="AW18" s="68"/>
-      <c r="AX18" s="68"/>
-      <c r="AY18" s="68"/>
-      <c r="AZ18" s="68"/>
-      <c r="BA18" s="68"/>
-      <c r="BB18" s="68"/>
-      <c r="BC18" s="68"/>
-      <c r="BD18" s="68"/>
-      <c r="BE18" s="68"/>
-      <c r="BF18" s="68"/>
-      <c r="BG18" s="72"/>
-      <c r="BH18" s="72"/>
-      <c r="BI18" s="72"/>
-      <c r="BJ18" s="72"/>
-      <c r="BK18" s="72"/>
-      <c r="BL18" s="68"/>
-      <c r="BM18" s="68"/>
-      <c r="BN18" s="68"/>
-      <c r="BO18" s="68"/>
-      <c r="BP18" s="73"/>
-      <c r="BQ18" s="37"/>
+      <c r="I18" s="64"/>
+      <c r="J18" s="65"/>
+      <c r="K18" s="66"/>
+      <c r="L18" s="66"/>
+      <c r="M18" s="66"/>
+      <c r="N18" s="67"/>
+      <c r="O18" s="67"/>
+      <c r="P18" s="67"/>
+      <c r="Q18" s="67"/>
+      <c r="R18" s="67"/>
+      <c r="S18" s="66"/>
+      <c r="T18" s="66"/>
+      <c r="U18" s="66"/>
+      <c r="V18" s="66"/>
+      <c r="W18" s="66"/>
+      <c r="X18" s="66"/>
+      <c r="Y18" s="66"/>
+      <c r="Z18" s="66"/>
+      <c r="AA18" s="66"/>
+      <c r="AB18" s="66"/>
+      <c r="AC18" s="68"/>
+      <c r="AD18" s="68"/>
+      <c r="AE18" s="68"/>
+      <c r="AF18" s="68"/>
+      <c r="AG18" s="68"/>
+      <c r="AH18" s="66"/>
+      <c r="AI18" s="66"/>
+      <c r="AJ18" s="66"/>
+      <c r="AK18" s="66"/>
+      <c r="AL18" s="66"/>
+      <c r="AM18" s="66"/>
+      <c r="AN18" s="66"/>
+      <c r="AO18" s="66"/>
+      <c r="AP18" s="66"/>
+      <c r="AQ18" s="66"/>
+      <c r="AR18" s="69"/>
+      <c r="AS18" s="69"/>
+      <c r="AT18" s="69"/>
+      <c r="AU18" s="69"/>
+      <c r="AV18" s="69"/>
+      <c r="AW18" s="66"/>
+      <c r="AX18" s="66"/>
+      <c r="AY18" s="66"/>
+      <c r="AZ18" s="66"/>
+      <c r="BA18" s="66"/>
+      <c r="BB18" s="66"/>
+      <c r="BC18" s="66"/>
+      <c r="BD18" s="66"/>
+      <c r="BE18" s="66"/>
+      <c r="BF18" s="66"/>
+      <c r="BG18" s="70"/>
+      <c r="BH18" s="70"/>
+      <c r="BI18" s="70"/>
+      <c r="BJ18" s="70"/>
+      <c r="BK18" s="70"/>
+      <c r="BL18" s="66"/>
+      <c r="BM18" s="66"/>
+      <c r="BN18" s="66"/>
+      <c r="BO18" s="66"/>
+      <c r="BP18" s="71"/>
+      <c r="BQ18" s="36"/>
     </row>
     <row r="19" spans="1:69" ht="21" customHeight="1">
       <c r="A19" s="21"/>
       <c r="B19" s="31">
         <v>2</v>
       </c>
-      <c r="C19" s="83" t="s">
-        <v>52</v>
-      </c>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="36"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="34"/>
-      <c r="N19" s="34"/>
-      <c r="O19" s="34"/>
-      <c r="P19" s="34"/>
-      <c r="Q19" s="34"/>
-      <c r="R19" s="34"/>
-      <c r="S19" s="34"/>
-      <c r="T19" s="34"/>
-      <c r="U19" s="34"/>
-      <c r="V19" s="34"/>
-      <c r="W19" s="34"/>
-      <c r="X19" s="34"/>
-      <c r="Y19" s="34"/>
-      <c r="Z19" s="34"/>
-      <c r="AA19" s="34"/>
-      <c r="AB19" s="34"/>
-      <c r="AC19" s="34"/>
-      <c r="AD19" s="34"/>
-      <c r="AE19" s="34"/>
-      <c r="AF19" s="34"/>
-      <c r="AG19" s="34"/>
-      <c r="AH19" s="34"/>
-      <c r="AI19" s="34"/>
-      <c r="AJ19" s="34"/>
-      <c r="AK19" s="34"/>
-      <c r="AL19" s="34"/>
-      <c r="AM19" s="34"/>
-      <c r="AN19" s="34"/>
-      <c r="AO19" s="34"/>
-      <c r="AP19" s="34"/>
-      <c r="AQ19" s="34"/>
-      <c r="AR19" s="34"/>
-      <c r="AS19" s="34"/>
-      <c r="AT19" s="34"/>
-      <c r="AU19" s="34"/>
-      <c r="AV19" s="34"/>
-      <c r="AW19" s="34"/>
-      <c r="AX19" s="34"/>
-      <c r="AY19" s="34"/>
-      <c r="AZ19" s="34"/>
-      <c r="BA19" s="34"/>
-      <c r="BB19" s="34"/>
-      <c r="BC19" s="34"/>
-      <c r="BD19" s="34"/>
-      <c r="BE19" s="34"/>
-      <c r="BF19" s="34"/>
-      <c r="BG19" s="34"/>
-      <c r="BH19" s="34"/>
-      <c r="BI19" s="34"/>
-      <c r="BJ19" s="34"/>
-      <c r="BK19" s="34"/>
-      <c r="BL19" s="34"/>
-      <c r="BM19" s="34"/>
-      <c r="BN19" s="34"/>
-      <c r="BO19" s="34"/>
-      <c r="BP19" s="34"/>
+      <c r="C19" s="109" t="s">
+        <v>92</v>
+      </c>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="33"/>
+      <c r="N19" s="33"/>
+      <c r="O19" s="33"/>
+      <c r="P19" s="33"/>
+      <c r="Q19" s="33"/>
+      <c r="R19" s="33"/>
+      <c r="S19" s="33"/>
+      <c r="T19" s="33"/>
+      <c r="U19" s="33"/>
+      <c r="V19" s="33"/>
+      <c r="W19" s="33"/>
+      <c r="X19" s="33"/>
+      <c r="Y19" s="33"/>
+      <c r="Z19" s="33"/>
+      <c r="AA19" s="33"/>
+      <c r="AB19" s="33"/>
+      <c r="AC19" s="33"/>
+      <c r="AD19" s="33"/>
+      <c r="AE19" s="33"/>
+      <c r="AF19" s="33"/>
+      <c r="AG19" s="33"/>
+      <c r="AH19" s="33"/>
+      <c r="AI19" s="33"/>
+      <c r="AJ19" s="33"/>
+      <c r="AK19" s="33"/>
+      <c r="AL19" s="33"/>
+      <c r="AM19" s="33"/>
+      <c r="AN19" s="33"/>
+      <c r="AO19" s="33"/>
+      <c r="AP19" s="33"/>
+      <c r="AQ19" s="33"/>
+      <c r="AR19" s="33"/>
+      <c r="AS19" s="33"/>
+      <c r="AT19" s="33"/>
+      <c r="AU19" s="33"/>
+      <c r="AV19" s="33"/>
+      <c r="AW19" s="33"/>
+      <c r="AX19" s="33"/>
+      <c r="AY19" s="33"/>
+      <c r="AZ19" s="33"/>
+      <c r="BA19" s="33"/>
+      <c r="BB19" s="33"/>
+      <c r="BC19" s="33"/>
+      <c r="BD19" s="33"/>
+      <c r="BE19" s="33"/>
+      <c r="BF19" s="33"/>
+      <c r="BG19" s="33"/>
+      <c r="BH19" s="33"/>
+      <c r="BI19" s="33"/>
+      <c r="BJ19" s="33"/>
+      <c r="BK19" s="33"/>
+      <c r="BL19" s="33"/>
+      <c r="BM19" s="33"/>
+      <c r="BN19" s="33"/>
+      <c r="BO19" s="33"/>
+      <c r="BP19" s="33"/>
       <c r="BQ19" s="21"/>
     </row>
     <row r="20" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A20" s="37"/>
-      <c r="B20" s="38">
+      <c r="A20" s="36"/>
+      <c r="B20" s="37">
         <v>2.1</v>
       </c>
-      <c r="C20" s="39" t="s">
-        <v>76</v>
-      </c>
-      <c r="D20" s="78" t="s">
-        <v>43</v>
-      </c>
-      <c r="E20" s="40">
+      <c r="C20" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" s="76" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="39">
         <v>885045</v>
       </c>
-      <c r="F20" s="40">
+      <c r="F20" s="39">
         <v>885083</v>
       </c>
-      <c r="G20" s="41">
+      <c r="G20" s="40">
         <v>33</v>
       </c>
-      <c r="H20" s="42">
+      <c r="H20" s="41">
         <v>0.75</v>
       </c>
-      <c r="I20" s="51"/>
-      <c r="J20" s="52"/>
-      <c r="K20" s="52"/>
-      <c r="L20" s="52"/>
-      <c r="M20" s="52"/>
-      <c r="N20" s="46"/>
-      <c r="O20" s="46"/>
-      <c r="P20" s="46"/>
-      <c r="Q20" s="46"/>
-      <c r="R20" s="46"/>
-      <c r="S20" s="45"/>
-      <c r="T20" s="45"/>
-      <c r="U20" s="45"/>
-      <c r="V20" s="45"/>
-      <c r="W20" s="45"/>
-      <c r="X20" s="53"/>
-      <c r="Y20" s="53"/>
-      <c r="Z20" s="53"/>
-      <c r="AA20" s="53"/>
-      <c r="AB20" s="53"/>
-      <c r="AC20" s="56"/>
-      <c r="AD20" s="56"/>
-      <c r="AE20" s="56"/>
-      <c r="AF20" s="56"/>
-      <c r="AG20" s="56"/>
-      <c r="AH20" s="45"/>
-      <c r="AI20" s="45"/>
-      <c r="AJ20" s="45"/>
-      <c r="AK20" s="45"/>
-      <c r="AL20" s="45"/>
-      <c r="AM20" s="45"/>
-      <c r="AN20" s="45"/>
-      <c r="AO20" s="45"/>
-      <c r="AP20" s="45"/>
-      <c r="AQ20" s="45"/>
-      <c r="AR20" s="48"/>
-      <c r="AS20" s="48"/>
-      <c r="AT20" s="48"/>
-      <c r="AU20" s="48"/>
-      <c r="AV20" s="48"/>
-      <c r="AW20" s="45"/>
-      <c r="AX20" s="45"/>
-      <c r="AY20" s="45"/>
-      <c r="AZ20" s="45"/>
-      <c r="BA20" s="45"/>
-      <c r="BB20" s="45"/>
-      <c r="BC20" s="45"/>
-      <c r="BD20" s="45"/>
-      <c r="BE20" s="45"/>
-      <c r="BF20" s="45"/>
-      <c r="BG20" s="49"/>
-      <c r="BH20" s="49"/>
-      <c r="BI20" s="49"/>
-      <c r="BJ20" s="49"/>
-      <c r="BK20" s="49"/>
-      <c r="BL20" s="45"/>
-      <c r="BM20" s="45"/>
-      <c r="BN20" s="45"/>
-      <c r="BO20" s="45"/>
-      <c r="BP20" s="50"/>
-      <c r="BQ20" s="37"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="51"/>
+      <c r="K20" s="51"/>
+      <c r="L20" s="51"/>
+      <c r="M20" s="51"/>
+      <c r="N20" s="45"/>
+      <c r="O20" s="45"/>
+      <c r="P20" s="45"/>
+      <c r="Q20" s="45"/>
+      <c r="R20" s="45"/>
+      <c r="S20" s="44"/>
+      <c r="T20" s="44"/>
+      <c r="U20" s="44"/>
+      <c r="V20" s="44"/>
+      <c r="W20" s="44"/>
+      <c r="X20" s="52"/>
+      <c r="Y20" s="52"/>
+      <c r="Z20" s="52"/>
+      <c r="AA20" s="52"/>
+      <c r="AB20" s="52"/>
+      <c r="AC20" s="54"/>
+      <c r="AD20" s="54"/>
+      <c r="AE20" s="54"/>
+      <c r="AF20" s="54"/>
+      <c r="AG20" s="54"/>
+      <c r="AH20" s="44"/>
+      <c r="AI20" s="44"/>
+      <c r="AJ20" s="44"/>
+      <c r="AK20" s="44"/>
+      <c r="AL20" s="44"/>
+      <c r="AM20" s="44"/>
+      <c r="AN20" s="44"/>
+      <c r="AO20" s="44"/>
+      <c r="AP20" s="44"/>
+      <c r="AQ20" s="44"/>
+      <c r="AR20" s="47"/>
+      <c r="AS20" s="47"/>
+      <c r="AT20" s="47"/>
+      <c r="AU20" s="47"/>
+      <c r="AV20" s="47"/>
+      <c r="AW20" s="44"/>
+      <c r="AX20" s="44"/>
+      <c r="AY20" s="44"/>
+      <c r="AZ20" s="44"/>
+      <c r="BA20" s="44"/>
+      <c r="BB20" s="44"/>
+      <c r="BC20" s="44"/>
+      <c r="BD20" s="44"/>
+      <c r="BE20" s="44"/>
+      <c r="BF20" s="44"/>
+      <c r="BG20" s="48"/>
+      <c r="BH20" s="48"/>
+      <c r="BI20" s="48"/>
+      <c r="BJ20" s="48"/>
+      <c r="BK20" s="48"/>
+      <c r="BL20" s="44"/>
+      <c r="BM20" s="44"/>
+      <c r="BN20" s="44"/>
+      <c r="BO20" s="44"/>
+      <c r="BP20" s="49"/>
+      <c r="BQ20" s="36"/>
     </row>
     <row r="21" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A21" s="37"/>
-      <c r="B21" s="38">
+      <c r="A21" s="36"/>
+      <c r="B21" s="37">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C21" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="D21" s="78" t="s">
-        <v>43</v>
-      </c>
-      <c r="E21" s="40">
+      <c r="C21" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" s="76" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" s="39">
         <v>885045</v>
       </c>
-      <c r="F21" s="40">
+      <c r="F21" s="39">
         <v>885088</v>
       </c>
-      <c r="G21" s="41">
+      <c r="G21" s="40">
         <v>33</v>
       </c>
-      <c r="H21" s="42">
+      <c r="H21" s="41">
         <v>0.4</v>
       </c>
-      <c r="I21" s="51"/>
-      <c r="J21" s="52"/>
-      <c r="K21" s="52"/>
-      <c r="L21" s="52"/>
-      <c r="M21" s="52"/>
-      <c r="N21" s="54"/>
-      <c r="O21" s="54"/>
-      <c r="P21" s="54"/>
-      <c r="Q21" s="54"/>
-      <c r="R21" s="54"/>
-      <c r="S21" s="53"/>
-      <c r="T21" s="53"/>
-      <c r="U21" s="53"/>
-      <c r="V21" s="53"/>
-      <c r="W21" s="53"/>
-      <c r="X21" s="53"/>
-      <c r="Y21" s="53"/>
-      <c r="Z21" s="53"/>
-      <c r="AA21" s="53"/>
-      <c r="AB21" s="53"/>
-      <c r="AC21" s="56"/>
-      <c r="AD21" s="56"/>
-      <c r="AE21" s="56"/>
-      <c r="AF21" s="56"/>
-      <c r="AG21" s="56"/>
-      <c r="AH21" s="53"/>
-      <c r="AI21" s="53"/>
-      <c r="AJ21" s="53"/>
-      <c r="AK21" s="53"/>
-      <c r="AL21" s="53"/>
-      <c r="AM21" s="53"/>
-      <c r="AN21" s="53"/>
-      <c r="AO21" s="53"/>
-      <c r="AP21" s="53"/>
-      <c r="AQ21" s="53"/>
-      <c r="AR21" s="57"/>
-      <c r="AS21" s="57"/>
-      <c r="AT21" s="57"/>
-      <c r="AU21" s="57"/>
-      <c r="AV21" s="57"/>
-      <c r="AW21" s="53"/>
-      <c r="AX21" s="53"/>
-      <c r="AY21" s="53"/>
-      <c r="AZ21" s="53"/>
-      <c r="BA21" s="53"/>
-      <c r="BB21" s="53"/>
-      <c r="BC21" s="53"/>
-      <c r="BD21" s="53"/>
-      <c r="BE21" s="53"/>
-      <c r="BF21" s="53"/>
-      <c r="BG21" s="58"/>
-      <c r="BH21" s="58"/>
-      <c r="BI21" s="58"/>
-      <c r="BJ21" s="58"/>
-      <c r="BK21" s="58"/>
-      <c r="BL21" s="53"/>
-      <c r="BM21" s="53"/>
-      <c r="BN21" s="53"/>
-      <c r="BO21" s="53"/>
-      <c r="BP21" s="59"/>
-      <c r="BQ21" s="37"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="51"/>
+      <c r="K21" s="51"/>
+      <c r="L21" s="51"/>
+      <c r="M21" s="51"/>
+      <c r="N21" s="53"/>
+      <c r="O21" s="53"/>
+      <c r="P21" s="53"/>
+      <c r="Q21" s="53"/>
+      <c r="R21" s="53"/>
+      <c r="S21" s="52"/>
+      <c r="T21" s="52"/>
+      <c r="U21" s="52"/>
+      <c r="V21" s="52"/>
+      <c r="W21" s="52"/>
+      <c r="X21" s="52"/>
+      <c r="Y21" s="52"/>
+      <c r="Z21" s="52"/>
+      <c r="AA21" s="52"/>
+      <c r="AB21" s="52"/>
+      <c r="AC21" s="54"/>
+      <c r="AD21" s="54"/>
+      <c r="AE21" s="54"/>
+      <c r="AF21" s="54"/>
+      <c r="AG21" s="54"/>
+      <c r="AH21" s="52"/>
+      <c r="AI21" s="52"/>
+      <c r="AJ21" s="52"/>
+      <c r="AK21" s="52"/>
+      <c r="AL21" s="52"/>
+      <c r="AM21" s="52"/>
+      <c r="AN21" s="52"/>
+      <c r="AO21" s="52"/>
+      <c r="AP21" s="52"/>
+      <c r="AQ21" s="52"/>
+      <c r="AR21" s="55"/>
+      <c r="AS21" s="55"/>
+      <c r="AT21" s="55"/>
+      <c r="AU21" s="55"/>
+      <c r="AV21" s="55"/>
+      <c r="AW21" s="52"/>
+      <c r="AX21" s="52"/>
+      <c r="AY21" s="52"/>
+      <c r="AZ21" s="52"/>
+      <c r="BA21" s="52"/>
+      <c r="BB21" s="52"/>
+      <c r="BC21" s="52"/>
+      <c r="BD21" s="52"/>
+      <c r="BE21" s="52"/>
+      <c r="BF21" s="52"/>
+      <c r="BG21" s="56"/>
+      <c r="BH21" s="56"/>
+      <c r="BI21" s="56"/>
+      <c r="BJ21" s="56"/>
+      <c r="BK21" s="56"/>
+      <c r="BL21" s="52"/>
+      <c r="BM21" s="52"/>
+      <c r="BN21" s="52"/>
+      <c r="BO21" s="52"/>
+      <c r="BP21" s="57"/>
+      <c r="BQ21" s="36"/>
     </row>
     <row r="22" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A22" s="37"/>
-      <c r="B22" s="38">
+      <c r="A22" s="36"/>
+      <c r="B22" s="37">
         <v>2.2999999999999998</v>
       </c>
-      <c r="C22" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="D22" s="78" t="s">
-        <v>58</v>
-      </c>
-      <c r="E22" s="40">
+      <c r="C22" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" s="76" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22" s="39">
         <v>885045</v>
       </c>
-      <c r="F22" s="40">
+      <c r="F22" s="39">
         <v>885073</v>
       </c>
-      <c r="G22" s="41">
+      <c r="G22" s="40">
         <v>29</v>
       </c>
-      <c r="H22" s="42">
+      <c r="H22" s="41">
         <v>0.8</v>
       </c>
-      <c r="I22" s="51"/>
-      <c r="J22" s="52"/>
-      <c r="K22" s="52"/>
-      <c r="L22" s="52"/>
-      <c r="M22" s="52"/>
-      <c r="N22" s="54"/>
-      <c r="O22" s="54"/>
-      <c r="P22" s="54"/>
-      <c r="Q22" s="54"/>
-      <c r="R22" s="54"/>
-      <c r="S22" s="53"/>
-      <c r="T22" s="53"/>
-      <c r="U22" s="53"/>
-      <c r="V22" s="53"/>
-      <c r="W22" s="53"/>
-      <c r="X22" s="53"/>
-      <c r="Y22" s="53"/>
-      <c r="Z22" s="53"/>
-      <c r="AA22" s="53"/>
-      <c r="AB22" s="53"/>
-      <c r="AC22" s="56"/>
-      <c r="AD22" s="56"/>
-      <c r="AE22" s="56"/>
-      <c r="AF22" s="56"/>
-      <c r="AG22" s="56"/>
-      <c r="AH22" s="53"/>
-      <c r="AI22" s="53"/>
-      <c r="AJ22" s="53"/>
-      <c r="AK22" s="53"/>
-      <c r="AL22" s="53"/>
-      <c r="AM22" s="53"/>
-      <c r="AN22" s="53"/>
-      <c r="AO22" s="53"/>
-      <c r="AP22" s="53"/>
-      <c r="AQ22" s="53"/>
-      <c r="AR22" s="57"/>
-      <c r="AS22" s="57"/>
-      <c r="AT22" s="57"/>
-      <c r="AU22" s="57"/>
-      <c r="AV22" s="57"/>
-      <c r="AW22" s="53"/>
-      <c r="AX22" s="53"/>
-      <c r="AY22" s="53"/>
-      <c r="AZ22" s="53"/>
-      <c r="BA22" s="53"/>
-      <c r="BB22" s="53"/>
-      <c r="BC22" s="53"/>
-      <c r="BD22" s="53"/>
-      <c r="BE22" s="53"/>
-      <c r="BF22" s="53"/>
-      <c r="BG22" s="58"/>
-      <c r="BH22" s="58"/>
-      <c r="BI22" s="58"/>
-      <c r="BJ22" s="58"/>
-      <c r="BK22" s="58"/>
-      <c r="BL22" s="53"/>
-      <c r="BM22" s="53"/>
-      <c r="BN22" s="53"/>
-      <c r="BO22" s="53"/>
-      <c r="BP22" s="59"/>
-      <c r="BQ22" s="37"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="51"/>
+      <c r="K22" s="51"/>
+      <c r="L22" s="51"/>
+      <c r="M22" s="51"/>
+      <c r="N22" s="53"/>
+      <c r="O22" s="53"/>
+      <c r="P22" s="53"/>
+      <c r="Q22" s="53"/>
+      <c r="R22" s="53"/>
+      <c r="S22" s="52"/>
+      <c r="T22" s="52"/>
+      <c r="U22" s="52"/>
+      <c r="V22" s="52"/>
+      <c r="W22" s="52"/>
+      <c r="X22" s="52"/>
+      <c r="Y22" s="52"/>
+      <c r="Z22" s="52"/>
+      <c r="AA22" s="52"/>
+      <c r="AB22" s="52"/>
+      <c r="AC22" s="54"/>
+      <c r="AD22" s="54"/>
+      <c r="AE22" s="54"/>
+      <c r="AF22" s="54"/>
+      <c r="AG22" s="54"/>
+      <c r="AH22" s="52"/>
+      <c r="AI22" s="52"/>
+      <c r="AJ22" s="52"/>
+      <c r="AK22" s="52"/>
+      <c r="AL22" s="52"/>
+      <c r="AM22" s="52"/>
+      <c r="AN22" s="52"/>
+      <c r="AO22" s="52"/>
+      <c r="AP22" s="52"/>
+      <c r="AQ22" s="52"/>
+      <c r="AR22" s="55"/>
+      <c r="AS22" s="55"/>
+      <c r="AT22" s="55"/>
+      <c r="AU22" s="55"/>
+      <c r="AV22" s="55"/>
+      <c r="AW22" s="52"/>
+      <c r="AX22" s="52"/>
+      <c r="AY22" s="52"/>
+      <c r="AZ22" s="52"/>
+      <c r="BA22" s="52"/>
+      <c r="BB22" s="52"/>
+      <c r="BC22" s="52"/>
+      <c r="BD22" s="52"/>
+      <c r="BE22" s="52"/>
+      <c r="BF22" s="52"/>
+      <c r="BG22" s="56"/>
+      <c r="BH22" s="56"/>
+      <c r="BI22" s="56"/>
+      <c r="BJ22" s="56"/>
+      <c r="BK22" s="56"/>
+      <c r="BL22" s="52"/>
+      <c r="BM22" s="52"/>
+      <c r="BN22" s="52"/>
+      <c r="BO22" s="52"/>
+      <c r="BP22" s="57"/>
+      <c r="BQ22" s="36"/>
     </row>
     <row r="23" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A23" s="37"/>
-      <c r="B23" s="38">
+      <c r="A23" s="36"/>
+      <c r="B23" s="37">
         <v>2.4</v>
       </c>
-      <c r="C23" s="76" t="s">
+      <c r="C23" s="74" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="76" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" s="39">
+        <v>885049</v>
+      </c>
+      <c r="F23" s="39">
+        <v>885049</v>
+      </c>
+      <c r="G23" s="40">
+        <v>1</v>
+      </c>
+      <c r="H23" s="58">
+        <v>1</v>
+      </c>
+      <c r="I23" s="50"/>
+      <c r="J23" s="51"/>
+      <c r="K23" s="52"/>
+      <c r="L23" s="52"/>
+      <c r="M23" s="52"/>
+      <c r="N23" s="53"/>
+      <c r="O23" s="53"/>
+      <c r="P23" s="53"/>
+      <c r="Q23" s="53"/>
+      <c r="R23" s="53"/>
+      <c r="S23" s="52"/>
+      <c r="T23" s="52"/>
+      <c r="U23" s="52"/>
+      <c r="V23" s="52"/>
+      <c r="W23" s="52"/>
+      <c r="X23" s="52"/>
+      <c r="Y23" s="52"/>
+      <c r="Z23" s="52"/>
+      <c r="AA23" s="52"/>
+      <c r="AB23" s="52"/>
+      <c r="AC23" s="54"/>
+      <c r="AD23" s="54"/>
+      <c r="AE23" s="54"/>
+      <c r="AF23" s="54"/>
+      <c r="AG23" s="54"/>
+      <c r="AH23" s="52"/>
+      <c r="AI23" s="52"/>
+      <c r="AJ23" s="52"/>
+      <c r="AK23" s="52"/>
+      <c r="AL23" s="52"/>
+      <c r="AM23" s="52"/>
+      <c r="AN23" s="52"/>
+      <c r="AO23" s="52"/>
+      <c r="AP23" s="52"/>
+      <c r="AQ23" s="52"/>
+      <c r="AR23" s="55"/>
+      <c r="AS23" s="55"/>
+      <c r="AT23" s="55"/>
+      <c r="AU23" s="55"/>
+      <c r="AV23" s="55"/>
+      <c r="AW23" s="52"/>
+      <c r="AX23" s="52"/>
+      <c r="AY23" s="52"/>
+      <c r="AZ23" s="52"/>
+      <c r="BA23" s="52"/>
+      <c r="BB23" s="52"/>
+      <c r="BC23" s="52"/>
+      <c r="BD23" s="52"/>
+      <c r="BE23" s="52"/>
+      <c r="BF23" s="52"/>
+      <c r="BG23" s="56"/>
+      <c r="BH23" s="56"/>
+      <c r="BI23" s="56"/>
+      <c r="BJ23" s="56"/>
+      <c r="BK23" s="56"/>
+      <c r="BL23" s="52"/>
+      <c r="BM23" s="52"/>
+      <c r="BN23" s="52"/>
+      <c r="BO23" s="52"/>
+      <c r="BP23" s="57"/>
+      <c r="BQ23" s="36"/>
+    </row>
+    <row r="24" spans="1:69" ht="17.149999999999999" customHeight="1" outlineLevel="1">
+      <c r="A24" s="36"/>
+      <c r="B24" s="37">
+        <v>2.5</v>
+      </c>
+      <c r="C24" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" s="76" t="s">
         <v>54</v>
       </c>
-      <c r="D23" s="78" t="s">
-        <v>43</v>
-      </c>
-      <c r="E23" s="40">
-        <v>885049</v>
-      </c>
-      <c r="F23" s="40">
-        <v>885049</v>
-      </c>
-      <c r="G23" s="41">
+      <c r="E24" s="39">
+        <v>885055</v>
+      </c>
+      <c r="F24" s="39">
+        <v>885058</v>
+      </c>
+      <c r="G24" s="40">
+        <v>4</v>
+      </c>
+      <c r="H24" s="41">
         <v>1</v>
       </c>
-      <c r="H23" s="60">
-        <v>1</v>
-      </c>
-      <c r="I23" s="51"/>
-      <c r="J23" s="52"/>
-      <c r="K23" s="53"/>
-      <c r="L23" s="53"/>
-      <c r="M23" s="53"/>
-      <c r="N23" s="54"/>
-      <c r="O23" s="54"/>
-      <c r="P23" s="54"/>
-      <c r="Q23" s="54"/>
-      <c r="R23" s="54"/>
-      <c r="S23" s="53"/>
-      <c r="T23" s="53"/>
-      <c r="U23" s="53"/>
-      <c r="V23" s="53"/>
-      <c r="W23" s="53"/>
-      <c r="X23" s="53"/>
-      <c r="Y23" s="53"/>
-      <c r="Z23" s="53"/>
-      <c r="AA23" s="53"/>
-      <c r="AB23" s="53"/>
-      <c r="AC23" s="56"/>
-      <c r="AD23" s="56"/>
-      <c r="AE23" s="56"/>
-      <c r="AF23" s="56"/>
-      <c r="AG23" s="56"/>
-      <c r="AH23" s="53"/>
-      <c r="AI23" s="53"/>
-      <c r="AJ23" s="53"/>
-      <c r="AK23" s="53"/>
-      <c r="AL23" s="53"/>
-      <c r="AM23" s="53"/>
-      <c r="AN23" s="53"/>
-      <c r="AO23" s="53"/>
-      <c r="AP23" s="53"/>
-      <c r="AQ23" s="53"/>
-      <c r="AR23" s="57"/>
-      <c r="AS23" s="57"/>
-      <c r="AT23" s="57"/>
-      <c r="AU23" s="57"/>
-      <c r="AV23" s="57"/>
-      <c r="AW23" s="53"/>
-      <c r="AX23" s="53"/>
-      <c r="AY23" s="53"/>
-      <c r="AZ23" s="53"/>
-      <c r="BA23" s="53"/>
-      <c r="BB23" s="53"/>
-      <c r="BC23" s="53"/>
-      <c r="BD23" s="53"/>
-      <c r="BE23" s="53"/>
-      <c r="BF23" s="53"/>
-      <c r="BG23" s="58"/>
-      <c r="BH23" s="58"/>
-      <c r="BI23" s="58"/>
-      <c r="BJ23" s="58"/>
-      <c r="BK23" s="58"/>
-      <c r="BL23" s="53"/>
-      <c r="BM23" s="53"/>
-      <c r="BN23" s="53"/>
-      <c r="BO23" s="53"/>
-      <c r="BP23" s="59"/>
-      <c r="BQ23" s="37"/>
-    </row>
-    <row r="24" spans="1:69" ht="17.100000000000001" customHeight="1" outlineLevel="1">
-      <c r="A24" s="37"/>
-      <c r="B24" s="38">
-        <v>2.5</v>
-      </c>
-      <c r="C24" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="D24" s="78" t="s">
-        <v>56</v>
-      </c>
-      <c r="E24" s="40">
-        <v>885055</v>
-      </c>
-      <c r="F24" s="40">
-        <v>885058</v>
-      </c>
-      <c r="G24" s="41">
-        <v>4</v>
-      </c>
-      <c r="H24" s="42">
-        <v>1</v>
-      </c>
-      <c r="I24" s="51"/>
-      <c r="J24" s="52"/>
-      <c r="K24" s="53"/>
-      <c r="L24" s="53"/>
-      <c r="M24" s="53"/>
-      <c r="N24" s="54"/>
-      <c r="O24" s="54"/>
-      <c r="P24" s="54"/>
-      <c r="Q24" s="54"/>
-      <c r="R24" s="54"/>
-      <c r="S24" s="53"/>
-      <c r="T24" s="53"/>
-      <c r="U24" s="53"/>
-      <c r="V24" s="53"/>
-      <c r="W24" s="53"/>
-      <c r="X24" s="53"/>
-      <c r="Y24" s="53"/>
-      <c r="Z24" s="53"/>
-      <c r="AA24" s="53"/>
-      <c r="AB24" s="53"/>
-      <c r="AC24" s="56"/>
-      <c r="AD24" s="56"/>
-      <c r="AE24" s="56"/>
-      <c r="AF24" s="56"/>
-      <c r="AG24" s="56"/>
-      <c r="AH24" s="53"/>
-      <c r="AI24" s="53"/>
-      <c r="AJ24" s="53"/>
-      <c r="AK24" s="53"/>
-      <c r="AL24" s="53"/>
-      <c r="AM24" s="53"/>
-      <c r="AN24" s="53"/>
-      <c r="AO24" s="53"/>
-      <c r="AP24" s="53"/>
-      <c r="AQ24" s="53"/>
-      <c r="AR24" s="57"/>
-      <c r="AS24" s="57"/>
-      <c r="AT24" s="57"/>
-      <c r="AU24" s="57"/>
-      <c r="AV24" s="57"/>
-      <c r="AW24" s="53"/>
-      <c r="AX24" s="53"/>
-      <c r="AY24" s="53"/>
-      <c r="AZ24" s="53"/>
-      <c r="BA24" s="53"/>
-      <c r="BB24" s="53"/>
-      <c r="BC24" s="53"/>
-      <c r="BD24" s="53"/>
-      <c r="BE24" s="53"/>
-      <c r="BF24" s="53"/>
-      <c r="BG24" s="58"/>
-      <c r="BH24" s="58"/>
-      <c r="BI24" s="58"/>
-      <c r="BJ24" s="58"/>
-      <c r="BK24" s="58"/>
-      <c r="BL24" s="53"/>
-      <c r="BM24" s="53"/>
-      <c r="BN24" s="53"/>
-      <c r="BO24" s="53"/>
-      <c r="BP24" s="59"/>
-      <c r="BQ24" s="37"/>
+      <c r="I24" s="50"/>
+      <c r="J24" s="51"/>
+      <c r="K24" s="52"/>
+      <c r="L24" s="52"/>
+      <c r="M24" s="52"/>
+      <c r="N24" s="53"/>
+      <c r="O24" s="53"/>
+      <c r="P24" s="53"/>
+      <c r="Q24" s="53"/>
+      <c r="R24" s="53"/>
+      <c r="S24" s="52"/>
+      <c r="T24" s="52"/>
+      <c r="U24" s="52"/>
+      <c r="V24" s="52"/>
+      <c r="W24" s="52"/>
+      <c r="X24" s="52"/>
+      <c r="Y24" s="52"/>
+      <c r="Z24" s="52"/>
+      <c r="AA24" s="52"/>
+      <c r="AB24" s="52"/>
+      <c r="AC24" s="54"/>
+      <c r="AD24" s="54"/>
+      <c r="AE24" s="54"/>
+      <c r="AF24" s="54"/>
+      <c r="AG24" s="54"/>
+      <c r="AH24" s="52"/>
+      <c r="AI24" s="52"/>
+      <c r="AJ24" s="52"/>
+      <c r="AK24" s="52"/>
+      <c r="AL24" s="52"/>
+      <c r="AM24" s="52"/>
+      <c r="AN24" s="52"/>
+      <c r="AO24" s="52"/>
+      <c r="AP24" s="52"/>
+      <c r="AQ24" s="52"/>
+      <c r="AR24" s="55"/>
+      <c r="AS24" s="55"/>
+      <c r="AT24" s="55"/>
+      <c r="AU24" s="55"/>
+      <c r="AV24" s="55"/>
+      <c r="AW24" s="52"/>
+      <c r="AX24" s="52"/>
+      <c r="AY24" s="52"/>
+      <c r="AZ24" s="52"/>
+      <c r="BA24" s="52"/>
+      <c r="BB24" s="52"/>
+      <c r="BC24" s="52"/>
+      <c r="BD24" s="52"/>
+      <c r="BE24" s="52"/>
+      <c r="BF24" s="52"/>
+      <c r="BG24" s="56"/>
+      <c r="BH24" s="56"/>
+      <c r="BI24" s="56"/>
+      <c r="BJ24" s="56"/>
+      <c r="BK24" s="56"/>
+      <c r="BL24" s="52"/>
+      <c r="BM24" s="52"/>
+      <c r="BN24" s="52"/>
+      <c r="BO24" s="52"/>
+      <c r="BP24" s="57"/>
+      <c r="BQ24" s="36"/>
     </row>
     <row r="25" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A25" s="37"/>
-      <c r="B25" s="38">
+      <c r="A25" s="36"/>
+      <c r="B25" s="37">
         <v>2.6</v>
       </c>
-      <c r="C25" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="D25" s="78" t="s">
-        <v>61</v>
-      </c>
-      <c r="E25" s="40">
+      <c r="C25" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="76" t="s">
+        <v>58</v>
+      </c>
+      <c r="E25" s="39">
         <v>885055</v>
       </c>
-      <c r="F25" s="40">
+      <c r="F25" s="39">
         <v>45006</v>
       </c>
-      <c r="G25" s="41">
+      <c r="G25" s="40">
         <v>8</v>
       </c>
-      <c r="H25" s="60">
+      <c r="H25" s="58">
         <v>1</v>
       </c>
-      <c r="I25" s="51"/>
-      <c r="J25" s="52"/>
-      <c r="K25" s="53"/>
-      <c r="L25" s="53"/>
-      <c r="M25" s="53"/>
-      <c r="N25" s="54"/>
-      <c r="O25" s="54"/>
-      <c r="P25" s="54"/>
-      <c r="Q25" s="54"/>
-      <c r="R25" s="54"/>
-      <c r="S25" s="53"/>
-      <c r="T25" s="53"/>
-      <c r="U25" s="53"/>
-      <c r="V25" s="53"/>
-      <c r="W25" s="53"/>
-      <c r="X25" s="53"/>
-      <c r="Y25" s="53"/>
-      <c r="Z25" s="53"/>
-      <c r="AA25" s="53"/>
-      <c r="AB25" s="53"/>
-      <c r="AC25" s="56"/>
-      <c r="AD25" s="56"/>
-      <c r="AE25" s="56"/>
-      <c r="AF25" s="56"/>
-      <c r="AG25" s="56"/>
-      <c r="AH25" s="53"/>
-      <c r="AI25" s="53"/>
-      <c r="AJ25" s="53"/>
-      <c r="AK25" s="53"/>
-      <c r="AL25" s="53"/>
-      <c r="AM25" s="53"/>
-      <c r="AN25" s="53"/>
-      <c r="AO25" s="53"/>
-      <c r="AP25" s="53"/>
-      <c r="AQ25" s="53"/>
-      <c r="AR25" s="57"/>
-      <c r="AS25" s="57"/>
-      <c r="AT25" s="57"/>
-      <c r="AU25" s="57"/>
-      <c r="AV25" s="57"/>
-      <c r="AW25" s="53"/>
-      <c r="AX25" s="53"/>
-      <c r="AY25" s="53"/>
-      <c r="AZ25" s="53"/>
-      <c r="BA25" s="53"/>
-      <c r="BB25" s="53"/>
-      <c r="BC25" s="53"/>
-      <c r="BD25" s="53"/>
-      <c r="BE25" s="53"/>
-      <c r="BF25" s="53"/>
-      <c r="BG25" s="58"/>
-      <c r="BH25" s="58"/>
-      <c r="BI25" s="58"/>
-      <c r="BJ25" s="58"/>
-      <c r="BK25" s="58"/>
-      <c r="BL25" s="53"/>
-      <c r="BM25" s="53"/>
-      <c r="BN25" s="53"/>
-      <c r="BO25" s="53"/>
-      <c r="BP25" s="59"/>
-      <c r="BQ25" s="37"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="51"/>
+      <c r="K25" s="52"/>
+      <c r="L25" s="52"/>
+      <c r="M25" s="52"/>
+      <c r="N25" s="53"/>
+      <c r="O25" s="53"/>
+      <c r="P25" s="53"/>
+      <c r="Q25" s="53"/>
+      <c r="R25" s="53"/>
+      <c r="S25" s="52"/>
+      <c r="T25" s="52"/>
+      <c r="U25" s="52"/>
+      <c r="V25" s="52"/>
+      <c r="W25" s="52"/>
+      <c r="X25" s="52"/>
+      <c r="Y25" s="52"/>
+      <c r="Z25" s="52"/>
+      <c r="AA25" s="52"/>
+      <c r="AB25" s="52"/>
+      <c r="AC25" s="54"/>
+      <c r="AD25" s="54"/>
+      <c r="AE25" s="54"/>
+      <c r="AF25" s="54"/>
+      <c r="AG25" s="54"/>
+      <c r="AH25" s="52"/>
+      <c r="AI25" s="52"/>
+      <c r="AJ25" s="52"/>
+      <c r="AK25" s="52"/>
+      <c r="AL25" s="52"/>
+      <c r="AM25" s="52"/>
+      <c r="AN25" s="52"/>
+      <c r="AO25" s="52"/>
+      <c r="AP25" s="52"/>
+      <c r="AQ25" s="52"/>
+      <c r="AR25" s="55"/>
+      <c r="AS25" s="55"/>
+      <c r="AT25" s="55"/>
+      <c r="AU25" s="55"/>
+      <c r="AV25" s="55"/>
+      <c r="AW25" s="52"/>
+      <c r="AX25" s="52"/>
+      <c r="AY25" s="52"/>
+      <c r="AZ25" s="52"/>
+      <c r="BA25" s="52"/>
+      <c r="BB25" s="52"/>
+      <c r="BC25" s="52"/>
+      <c r="BD25" s="52"/>
+      <c r="BE25" s="52"/>
+      <c r="BF25" s="52"/>
+      <c r="BG25" s="56"/>
+      <c r="BH25" s="56"/>
+      <c r="BI25" s="56"/>
+      <c r="BJ25" s="56"/>
+      <c r="BK25" s="56"/>
+      <c r="BL25" s="52"/>
+      <c r="BM25" s="52"/>
+      <c r="BN25" s="52"/>
+      <c r="BO25" s="52"/>
+      <c r="BP25" s="57"/>
+      <c r="BQ25" s="36"/>
     </row>
     <row r="26" spans="1:69" ht="30" customHeight="1" outlineLevel="1">
-      <c r="A26" s="37"/>
-      <c r="B26" s="38">
+      <c r="A26" s="36"/>
+      <c r="B26" s="37">
         <v>2.7</v>
       </c>
-      <c r="C26" s="84" t="s">
-        <v>55</v>
-      </c>
-      <c r="D26" s="78" t="s">
-        <v>60</v>
-      </c>
-      <c r="E26" s="40">
+      <c r="C26" s="81" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" s="76" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" s="39">
         <v>885055</v>
       </c>
-      <c r="F26" s="40">
+      <c r="F26" s="39">
         <v>885063</v>
       </c>
-      <c r="G26" s="41">
+      <c r="G26" s="40">
         <v>9</v>
       </c>
-      <c r="H26" s="60">
+      <c r="H26" s="58">
         <v>1</v>
       </c>
-      <c r="I26" s="51"/>
-      <c r="J26" s="52"/>
-      <c r="K26" s="53"/>
-      <c r="L26" s="53"/>
-      <c r="M26" s="53"/>
-      <c r="N26" s="54"/>
-      <c r="O26" s="54"/>
-      <c r="P26" s="54"/>
-      <c r="Q26" s="54"/>
-      <c r="R26" s="54"/>
-      <c r="S26" s="53"/>
-      <c r="T26" s="53"/>
-      <c r="U26" s="53"/>
-      <c r="V26" s="53"/>
-      <c r="W26" s="53"/>
-      <c r="X26" s="53"/>
-      <c r="Y26" s="53"/>
-      <c r="Z26" s="53"/>
-      <c r="AA26" s="53"/>
-      <c r="AB26" s="53"/>
-      <c r="AC26" s="56"/>
-      <c r="AD26" s="56"/>
-      <c r="AE26" s="56"/>
-      <c r="AF26" s="56"/>
-      <c r="AG26" s="56"/>
-      <c r="AH26" s="53"/>
-      <c r="AI26" s="53"/>
-      <c r="AJ26" s="53"/>
-      <c r="AK26" s="53"/>
-      <c r="AL26" s="53"/>
-      <c r="AM26" s="53"/>
-      <c r="AN26" s="53"/>
-      <c r="AO26" s="53"/>
-      <c r="AP26" s="53"/>
-      <c r="AQ26" s="53"/>
-      <c r="AR26" s="57"/>
-      <c r="AS26" s="57"/>
-      <c r="AT26" s="57"/>
-      <c r="AU26" s="57"/>
-      <c r="AV26" s="57"/>
-      <c r="AW26" s="53"/>
-      <c r="AX26" s="53"/>
-      <c r="AY26" s="53"/>
-      <c r="AZ26" s="53"/>
-      <c r="BA26" s="53"/>
-      <c r="BB26" s="53"/>
-      <c r="BC26" s="53"/>
-      <c r="BD26" s="53"/>
-      <c r="BE26" s="53"/>
-      <c r="BF26" s="53"/>
-      <c r="BG26" s="58"/>
-      <c r="BH26" s="58"/>
-      <c r="BI26" s="58"/>
-      <c r="BJ26" s="58"/>
-      <c r="BK26" s="58"/>
-      <c r="BL26" s="53"/>
-      <c r="BM26" s="53"/>
-      <c r="BN26" s="53"/>
-      <c r="BO26" s="53"/>
-      <c r="BP26" s="59"/>
-      <c r="BQ26" s="37"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="51"/>
+      <c r="K26" s="52"/>
+      <c r="L26" s="52"/>
+      <c r="M26" s="52"/>
+      <c r="N26" s="53"/>
+      <c r="O26" s="53"/>
+      <c r="P26" s="53"/>
+      <c r="Q26" s="53"/>
+      <c r="R26" s="53"/>
+      <c r="S26" s="52"/>
+      <c r="T26" s="52"/>
+      <c r="U26" s="52"/>
+      <c r="V26" s="52"/>
+      <c r="W26" s="52"/>
+      <c r="X26" s="52"/>
+      <c r="Y26" s="52"/>
+      <c r="Z26" s="52"/>
+      <c r="AA26" s="52"/>
+      <c r="AB26" s="52"/>
+      <c r="AC26" s="54"/>
+      <c r="AD26" s="54"/>
+      <c r="AE26" s="54"/>
+      <c r="AF26" s="54"/>
+      <c r="AG26" s="54"/>
+      <c r="AH26" s="52"/>
+      <c r="AI26" s="52"/>
+      <c r="AJ26" s="52"/>
+      <c r="AK26" s="52"/>
+      <c r="AL26" s="52"/>
+      <c r="AM26" s="52"/>
+      <c r="AN26" s="52"/>
+      <c r="AO26" s="52"/>
+      <c r="AP26" s="52"/>
+      <c r="AQ26" s="52"/>
+      <c r="AR26" s="55"/>
+      <c r="AS26" s="55"/>
+      <c r="AT26" s="55"/>
+      <c r="AU26" s="55"/>
+      <c r="AV26" s="55"/>
+      <c r="AW26" s="52"/>
+      <c r="AX26" s="52"/>
+      <c r="AY26" s="52"/>
+      <c r="AZ26" s="52"/>
+      <c r="BA26" s="52"/>
+      <c r="BB26" s="52"/>
+      <c r="BC26" s="52"/>
+      <c r="BD26" s="52"/>
+      <c r="BE26" s="52"/>
+      <c r="BF26" s="52"/>
+      <c r="BG26" s="56"/>
+      <c r="BH26" s="56"/>
+      <c r="BI26" s="56"/>
+      <c r="BJ26" s="56"/>
+      <c r="BK26" s="56"/>
+      <c r="BL26" s="52"/>
+      <c r="BM26" s="52"/>
+      <c r="BN26" s="52"/>
+      <c r="BO26" s="52"/>
+      <c r="BP26" s="57"/>
+      <c r="BQ26" s="36"/>
     </row>
     <row r="27" spans="1:69" ht="21" customHeight="1">
       <c r="A27" s="21"/>
       <c r="B27" s="31">
         <v>3</v>
       </c>
-      <c r="C27" s="83" t="s">
-        <v>59</v>
-      </c>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="34"/>
-      <c r="J27" s="35"/>
-      <c r="K27" s="36"/>
-      <c r="L27" s="36"/>
-      <c r="M27" s="34"/>
-      <c r="N27" s="34"/>
-      <c r="O27" s="34"/>
-      <c r="P27" s="34"/>
-      <c r="Q27" s="34"/>
-      <c r="R27" s="34"/>
-      <c r="S27" s="34"/>
-      <c r="T27" s="34"/>
-      <c r="U27" s="34"/>
-      <c r="V27" s="34"/>
-      <c r="W27" s="34"/>
-      <c r="X27" s="34"/>
-      <c r="Y27" s="34"/>
-      <c r="Z27" s="34"/>
-      <c r="AA27" s="34"/>
-      <c r="AB27" s="34"/>
-      <c r="AC27" s="34"/>
-      <c r="AD27" s="34"/>
-      <c r="AE27" s="34"/>
-      <c r="AF27" s="34"/>
-      <c r="AG27" s="34"/>
-      <c r="AH27" s="34"/>
-      <c r="AI27" s="34"/>
-      <c r="AJ27" s="34"/>
-      <c r="AK27" s="34"/>
-      <c r="AL27" s="34"/>
-      <c r="AM27" s="34"/>
-      <c r="AN27" s="34"/>
-      <c r="AO27" s="34"/>
-      <c r="AP27" s="34"/>
-      <c r="AQ27" s="34"/>
-      <c r="AR27" s="34"/>
-      <c r="AS27" s="34"/>
-      <c r="AT27" s="34"/>
-      <c r="AU27" s="34"/>
-      <c r="AV27" s="34"/>
-      <c r="AW27" s="34"/>
-      <c r="AX27" s="34"/>
-      <c r="AY27" s="34"/>
-      <c r="AZ27" s="34"/>
-      <c r="BA27" s="34"/>
-      <c r="BB27" s="34"/>
-      <c r="BC27" s="34"/>
-      <c r="BD27" s="34"/>
-      <c r="BE27" s="34"/>
-      <c r="BF27" s="34"/>
-      <c r="BG27" s="34"/>
-      <c r="BH27" s="34"/>
-      <c r="BI27" s="34"/>
-      <c r="BJ27" s="34"/>
-      <c r="BK27" s="34"/>
-      <c r="BL27" s="34"/>
-      <c r="BM27" s="34"/>
-      <c r="BN27" s="34"/>
-      <c r="BO27" s="34"/>
-      <c r="BP27" s="34"/>
+      <c r="C27" s="108" t="s">
+        <v>81</v>
+      </c>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="34"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="35"/>
+      <c r="M27" s="33"/>
+      <c r="N27" s="33"/>
+      <c r="O27" s="33"/>
+      <c r="P27" s="33"/>
+      <c r="Q27" s="33"/>
+      <c r="R27" s="33"/>
+      <c r="S27" s="33"/>
+      <c r="T27" s="33"/>
+      <c r="U27" s="33"/>
+      <c r="V27" s="33"/>
+      <c r="W27" s="33"/>
+      <c r="X27" s="33"/>
+      <c r="Y27" s="33"/>
+      <c r="Z27" s="33"/>
+      <c r="AA27" s="33"/>
+      <c r="AB27" s="33"/>
+      <c r="AC27" s="33"/>
+      <c r="AD27" s="33"/>
+      <c r="AE27" s="33"/>
+      <c r="AF27" s="33"/>
+      <c r="AG27" s="33"/>
+      <c r="AH27" s="33"/>
+      <c r="AI27" s="33"/>
+      <c r="AJ27" s="33"/>
+      <c r="AK27" s="33"/>
+      <c r="AL27" s="33"/>
+      <c r="AM27" s="33"/>
+      <c r="AN27" s="33"/>
+      <c r="AO27" s="33"/>
+      <c r="AP27" s="33"/>
+      <c r="AQ27" s="33"/>
+      <c r="AR27" s="33"/>
+      <c r="AS27" s="33"/>
+      <c r="AT27" s="33"/>
+      <c r="AU27" s="33"/>
+      <c r="AV27" s="33"/>
+      <c r="AW27" s="33"/>
+      <c r="AX27" s="33"/>
+      <c r="AY27" s="33"/>
+      <c r="AZ27" s="33"/>
+      <c r="BA27" s="33"/>
+      <c r="BB27" s="33"/>
+      <c r="BC27" s="33"/>
+      <c r="BD27" s="33"/>
+      <c r="BE27" s="33"/>
+      <c r="BF27" s="33"/>
+      <c r="BG27" s="33"/>
+      <c r="BH27" s="33"/>
+      <c r="BI27" s="33"/>
+      <c r="BJ27" s="33"/>
+      <c r="BK27" s="33"/>
+      <c r="BL27" s="33"/>
+      <c r="BM27" s="33"/>
+      <c r="BN27" s="33"/>
+      <c r="BO27" s="33"/>
+      <c r="BP27" s="33"/>
       <c r="BQ27" s="21"/>
     </row>
-    <row r="28" spans="1:69" ht="35.450000000000003" customHeight="1" outlineLevel="1">
-      <c r="A28" s="37"/>
-      <c r="B28" s="38">
+    <row r="28" spans="1:69" ht="35.5" customHeight="1" outlineLevel="1">
+      <c r="A28" s="36"/>
+      <c r="B28" s="37">
         <v>3.1</v>
       </c>
-      <c r="C28" s="79" t="s">
-        <v>62</v>
-      </c>
-      <c r="D28" s="77" t="s">
-        <v>43</v>
-      </c>
-      <c r="E28" s="40">
+      <c r="C28" s="77" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" s="75" t="s">
+        <v>42</v>
+      </c>
+      <c r="E28" s="39">
         <v>45005</v>
       </c>
-      <c r="F28" s="40">
+      <c r="F28" s="39">
         <v>45031</v>
       </c>
-      <c r="G28" s="41">
+      <c r="G28" s="40">
         <v>26</v>
       </c>
-      <c r="H28" s="42">
+      <c r="H28" s="41">
         <v>0.4</v>
       </c>
-      <c r="I28" s="43"/>
-      <c r="J28" s="44"/>
-      <c r="K28" s="45"/>
-      <c r="L28" s="45"/>
-      <c r="M28" s="45"/>
-      <c r="N28" s="54"/>
-      <c r="O28" s="54"/>
-      <c r="P28" s="54"/>
-      <c r="Q28" s="54"/>
-      <c r="R28" s="54"/>
-      <c r="S28" s="45"/>
-      <c r="T28" s="45"/>
-      <c r="U28" s="45"/>
-      <c r="V28" s="45"/>
-      <c r="W28" s="45"/>
-      <c r="X28" s="45"/>
-      <c r="Y28" s="45"/>
-      <c r="Z28" s="45"/>
-      <c r="AA28" s="45"/>
-      <c r="AB28" s="45"/>
-      <c r="AC28" s="47"/>
-      <c r="AD28" s="47"/>
-      <c r="AE28" s="47"/>
-      <c r="AF28" s="47"/>
-      <c r="AG28" s="47"/>
-      <c r="AH28" s="45"/>
-      <c r="AI28" s="45"/>
-      <c r="AJ28" s="45"/>
-      <c r="AK28" s="45"/>
-      <c r="AL28" s="45"/>
-      <c r="AM28" s="45"/>
-      <c r="AN28" s="45"/>
-      <c r="AO28" s="45"/>
-      <c r="AP28" s="45"/>
-      <c r="AQ28" s="45"/>
-      <c r="AR28" s="48"/>
-      <c r="AS28" s="48"/>
-      <c r="AT28" s="48"/>
-      <c r="AU28" s="48"/>
-      <c r="AV28" s="48"/>
-      <c r="AW28" s="45"/>
-      <c r="AX28" s="45"/>
-      <c r="AY28" s="45"/>
-      <c r="AZ28" s="45"/>
-      <c r="BA28" s="45"/>
-      <c r="BB28" s="45"/>
-      <c r="BC28" s="45"/>
-      <c r="BD28" s="45"/>
-      <c r="BE28" s="45"/>
-      <c r="BF28" s="45"/>
-      <c r="BG28" s="49"/>
-      <c r="BH28" s="49"/>
-      <c r="BI28" s="49"/>
-      <c r="BJ28" s="49"/>
-      <c r="BK28" s="49"/>
-      <c r="BL28" s="45"/>
-      <c r="BM28" s="45"/>
-      <c r="BN28" s="45"/>
-      <c r="BO28" s="45"/>
-      <c r="BP28" s="50"/>
-      <c r="BQ28" s="37"/>
+      <c r="I28" s="42"/>
+      <c r="J28" s="43"/>
+      <c r="K28" s="44"/>
+      <c r="L28" s="44"/>
+      <c r="M28" s="44"/>
+      <c r="N28" s="53"/>
+      <c r="O28" s="53"/>
+      <c r="P28" s="53"/>
+      <c r="Q28" s="53"/>
+      <c r="R28" s="53"/>
+      <c r="S28" s="44"/>
+      <c r="T28" s="44"/>
+      <c r="U28" s="44"/>
+      <c r="V28" s="44"/>
+      <c r="W28" s="44"/>
+      <c r="X28" s="44"/>
+      <c r="Y28" s="44"/>
+      <c r="Z28" s="44"/>
+      <c r="AA28" s="44"/>
+      <c r="AB28" s="44"/>
+      <c r="AC28" s="46"/>
+      <c r="AD28" s="46"/>
+      <c r="AE28" s="46"/>
+      <c r="AF28" s="46"/>
+      <c r="AG28" s="46"/>
+      <c r="AH28" s="44"/>
+      <c r="AI28" s="44"/>
+      <c r="AJ28" s="44"/>
+      <c r="AK28" s="44"/>
+      <c r="AL28" s="44"/>
+      <c r="AM28" s="44"/>
+      <c r="AN28" s="44"/>
+      <c r="AO28" s="44"/>
+      <c r="AP28" s="44"/>
+      <c r="AQ28" s="44"/>
+      <c r="AR28" s="47"/>
+      <c r="AS28" s="47"/>
+      <c r="AT28" s="47"/>
+      <c r="AU28" s="47"/>
+      <c r="AV28" s="47"/>
+      <c r="AW28" s="44"/>
+      <c r="AX28" s="44"/>
+      <c r="AY28" s="44"/>
+      <c r="AZ28" s="44"/>
+      <c r="BA28" s="44"/>
+      <c r="BB28" s="44"/>
+      <c r="BC28" s="44"/>
+      <c r="BD28" s="44"/>
+      <c r="BE28" s="44"/>
+      <c r="BF28" s="44"/>
+      <c r="BG28" s="48"/>
+      <c r="BH28" s="48"/>
+      <c r="BI28" s="48"/>
+      <c r="BJ28" s="48"/>
+      <c r="BK28" s="48"/>
+      <c r="BL28" s="44"/>
+      <c r="BM28" s="44"/>
+      <c r="BN28" s="44"/>
+      <c r="BO28" s="44"/>
+      <c r="BP28" s="49"/>
+      <c r="BQ28" s="36"/>
     </row>
     <row r="29" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A29" s="37"/>
-      <c r="B29" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="C29" s="79" t="s">
-        <v>66</v>
-      </c>
-      <c r="D29" s="78" t="s">
-        <v>43</v>
-      </c>
-      <c r="E29" s="40">
+      <c r="A29" s="36"/>
+      <c r="B29" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" s="77" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" s="76" t="s">
+        <v>42</v>
+      </c>
+      <c r="E29" s="39">
         <v>45012</v>
       </c>
-      <c r="F29" s="40">
+      <c r="F29" s="39">
         <v>45025</v>
       </c>
-      <c r="G29" s="41">
+      <c r="G29" s="40">
         <v>14</v>
       </c>
-      <c r="H29" s="42">
+      <c r="H29" s="41">
         <v>0.7</v>
       </c>
-      <c r="I29" s="51"/>
-      <c r="J29" s="52"/>
-      <c r="K29" s="53"/>
-      <c r="L29" s="53"/>
-      <c r="M29" s="53"/>
-      <c r="N29" s="54"/>
-      <c r="O29" s="54"/>
-      <c r="P29" s="54"/>
-      <c r="Q29" s="54"/>
-      <c r="R29" s="54"/>
-      <c r="S29" s="45"/>
-      <c r="T29" s="45"/>
-      <c r="U29" s="45"/>
-      <c r="V29" s="45"/>
-      <c r="W29" s="53"/>
-      <c r="X29" s="53"/>
-      <c r="Y29" s="53"/>
-      <c r="Z29" s="53"/>
-      <c r="AA29" s="53"/>
-      <c r="AB29" s="53"/>
-      <c r="AC29" s="56"/>
-      <c r="AD29" s="56"/>
-      <c r="AE29" s="56"/>
-      <c r="AF29" s="56"/>
-      <c r="AG29" s="56"/>
-      <c r="AH29" s="53"/>
-      <c r="AI29" s="53"/>
-      <c r="AJ29" s="53"/>
-      <c r="AK29" s="53"/>
-      <c r="AL29" s="53"/>
-      <c r="AM29" s="53"/>
-      <c r="AN29" s="53"/>
-      <c r="AO29" s="53"/>
-      <c r="AP29" s="53"/>
-      <c r="AQ29" s="53"/>
-      <c r="AR29" s="57"/>
-      <c r="AS29" s="57"/>
-      <c r="AT29" s="57"/>
-      <c r="AU29" s="57"/>
-      <c r="AV29" s="57"/>
-      <c r="AW29" s="53"/>
-      <c r="AX29" s="53"/>
-      <c r="AY29" s="53"/>
-      <c r="AZ29" s="53"/>
-      <c r="BA29" s="53"/>
-      <c r="BB29" s="53"/>
-      <c r="BC29" s="53"/>
-      <c r="BD29" s="53"/>
-      <c r="BE29" s="53"/>
-      <c r="BF29" s="53"/>
-      <c r="BG29" s="58"/>
-      <c r="BH29" s="58"/>
-      <c r="BI29" s="58"/>
-      <c r="BJ29" s="58"/>
-      <c r="BK29" s="58"/>
-      <c r="BL29" s="53"/>
-      <c r="BM29" s="53"/>
-      <c r="BN29" s="53"/>
-      <c r="BO29" s="53"/>
-      <c r="BP29" s="59"/>
-      <c r="BQ29" s="37"/>
+      <c r="I29" s="50"/>
+      <c r="J29" s="51"/>
+      <c r="K29" s="52"/>
+      <c r="L29" s="52"/>
+      <c r="M29" s="52"/>
+      <c r="N29" s="53"/>
+      <c r="O29" s="53"/>
+      <c r="P29" s="53"/>
+      <c r="Q29" s="53"/>
+      <c r="R29" s="53"/>
+      <c r="S29" s="44"/>
+      <c r="T29" s="44"/>
+      <c r="U29" s="44"/>
+      <c r="V29" s="44"/>
+      <c r="W29" s="52"/>
+      <c r="X29" s="52"/>
+      <c r="Y29" s="52"/>
+      <c r="Z29" s="52"/>
+      <c r="AA29" s="52"/>
+      <c r="AB29" s="52"/>
+      <c r="AC29" s="54"/>
+      <c r="AD29" s="54"/>
+      <c r="AE29" s="54"/>
+      <c r="AF29" s="54"/>
+      <c r="AG29" s="54"/>
+      <c r="AH29" s="52"/>
+      <c r="AI29" s="52"/>
+      <c r="AJ29" s="52"/>
+      <c r="AK29" s="52"/>
+      <c r="AL29" s="52"/>
+      <c r="AM29" s="52"/>
+      <c r="AN29" s="52"/>
+      <c r="AO29" s="52"/>
+      <c r="AP29" s="52"/>
+      <c r="AQ29" s="52"/>
+      <c r="AR29" s="55"/>
+      <c r="AS29" s="55"/>
+      <c r="AT29" s="55"/>
+      <c r="AU29" s="55"/>
+      <c r="AV29" s="55"/>
+      <c r="AW29" s="52"/>
+      <c r="AX29" s="52"/>
+      <c r="AY29" s="52"/>
+      <c r="AZ29" s="52"/>
+      <c r="BA29" s="52"/>
+      <c r="BB29" s="52"/>
+      <c r="BC29" s="52"/>
+      <c r="BD29" s="52"/>
+      <c r="BE29" s="52"/>
+      <c r="BF29" s="52"/>
+      <c r="BG29" s="56"/>
+      <c r="BH29" s="56"/>
+      <c r="BI29" s="56"/>
+      <c r="BJ29" s="56"/>
+      <c r="BK29" s="56"/>
+      <c r="BL29" s="52"/>
+      <c r="BM29" s="52"/>
+      <c r="BN29" s="52"/>
+      <c r="BO29" s="52"/>
+      <c r="BP29" s="57"/>
+      <c r="BQ29" s="36"/>
     </row>
     <row r="30" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A30" s="37"/>
-      <c r="B30" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="C30" s="79" t="s">
-        <v>79</v>
-      </c>
-      <c r="D30" s="78" t="s">
-        <v>80</v>
-      </c>
-      <c r="E30" s="40">
+      <c r="A30" s="36"/>
+      <c r="B30" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" s="77" t="s">
+        <v>76</v>
+      </c>
+      <c r="D30" s="76" t="s">
+        <v>77</v>
+      </c>
+      <c r="E30" s="39">
         <v>45012</v>
       </c>
-      <c r="F30" s="40">
+      <c r="F30" s="39">
         <v>45018</v>
       </c>
-      <c r="G30" s="41">
+      <c r="G30" s="40">
         <v>6</v>
       </c>
-      <c r="H30" s="42">
+      <c r="H30" s="41">
         <v>0.8</v>
       </c>
-      <c r="I30" s="51"/>
-      <c r="J30" s="52"/>
-      <c r="K30" s="53"/>
-      <c r="L30" s="53"/>
-      <c r="M30" s="53"/>
-      <c r="N30" s="54"/>
-      <c r="O30" s="54"/>
-      <c r="P30" s="54"/>
-      <c r="Q30" s="54"/>
-      <c r="R30" s="54"/>
-      <c r="S30" s="45"/>
-      <c r="T30" s="45"/>
-      <c r="U30" s="45"/>
-      <c r="V30" s="45"/>
-      <c r="W30" s="53"/>
-      <c r="X30" s="53"/>
-      <c r="Y30" s="53"/>
-      <c r="Z30" s="53"/>
-      <c r="AA30" s="53"/>
-      <c r="AB30" s="53"/>
-      <c r="AC30" s="56"/>
-      <c r="AD30" s="56"/>
-      <c r="AE30" s="56"/>
-      <c r="AF30" s="56"/>
-      <c r="AG30" s="56"/>
-      <c r="AH30" s="53"/>
-      <c r="AI30" s="53"/>
-      <c r="AJ30" s="53"/>
-      <c r="AK30" s="53"/>
-      <c r="AL30" s="53"/>
-      <c r="AM30" s="53"/>
-      <c r="AN30" s="53"/>
-      <c r="AO30" s="53"/>
-      <c r="AP30" s="53"/>
-      <c r="AQ30" s="53"/>
-      <c r="AR30" s="57"/>
-      <c r="AS30" s="57"/>
-      <c r="AT30" s="57"/>
-      <c r="AU30" s="57"/>
-      <c r="AV30" s="57"/>
-      <c r="AW30" s="53"/>
-      <c r="AX30" s="53"/>
-      <c r="AY30" s="53"/>
-      <c r="AZ30" s="53"/>
-      <c r="BA30" s="53"/>
-      <c r="BB30" s="53"/>
-      <c r="BC30" s="53"/>
-      <c r="BD30" s="53"/>
-      <c r="BE30" s="53"/>
-      <c r="BF30" s="53"/>
-      <c r="BG30" s="58"/>
-      <c r="BH30" s="58"/>
-      <c r="BI30" s="58"/>
-      <c r="BJ30" s="58"/>
-      <c r="BK30" s="58"/>
-      <c r="BL30" s="53"/>
-      <c r="BM30" s="53"/>
-      <c r="BN30" s="53"/>
-      <c r="BO30" s="53"/>
-      <c r="BP30" s="59"/>
-      <c r="BQ30" s="37"/>
+      <c r="I30" s="50"/>
+      <c r="J30" s="51"/>
+      <c r="K30" s="52"/>
+      <c r="L30" s="52"/>
+      <c r="M30" s="52"/>
+      <c r="N30" s="53"/>
+      <c r="O30" s="53"/>
+      <c r="P30" s="53"/>
+      <c r="Q30" s="53"/>
+      <c r="R30" s="53"/>
+      <c r="S30" s="44"/>
+      <c r="T30" s="44"/>
+      <c r="U30" s="44"/>
+      <c r="V30" s="44"/>
+      <c r="W30" s="52"/>
+      <c r="X30" s="52"/>
+      <c r="Y30" s="52"/>
+      <c r="Z30" s="52"/>
+      <c r="AA30" s="52"/>
+      <c r="AB30" s="52"/>
+      <c r="AC30" s="54"/>
+      <c r="AD30" s="54"/>
+      <c r="AE30" s="54"/>
+      <c r="AF30" s="54"/>
+      <c r="AG30" s="54"/>
+      <c r="AH30" s="52"/>
+      <c r="AI30" s="52"/>
+      <c r="AJ30" s="52"/>
+      <c r="AK30" s="52"/>
+      <c r="AL30" s="52"/>
+      <c r="AM30" s="52"/>
+      <c r="AN30" s="52"/>
+      <c r="AO30" s="52"/>
+      <c r="AP30" s="52"/>
+      <c r="AQ30" s="52"/>
+      <c r="AR30" s="55"/>
+      <c r="AS30" s="55"/>
+      <c r="AT30" s="55"/>
+      <c r="AU30" s="55"/>
+      <c r="AV30" s="55"/>
+      <c r="AW30" s="52"/>
+      <c r="AX30" s="52"/>
+      <c r="AY30" s="52"/>
+      <c r="AZ30" s="52"/>
+      <c r="BA30" s="52"/>
+      <c r="BB30" s="52"/>
+      <c r="BC30" s="52"/>
+      <c r="BD30" s="52"/>
+      <c r="BE30" s="52"/>
+      <c r="BF30" s="52"/>
+      <c r="BG30" s="56"/>
+      <c r="BH30" s="56"/>
+      <c r="BI30" s="56"/>
+      <c r="BJ30" s="56"/>
+      <c r="BK30" s="56"/>
+      <c r="BL30" s="52"/>
+      <c r="BM30" s="52"/>
+      <c r="BN30" s="52"/>
+      <c r="BO30" s="52"/>
+      <c r="BP30" s="57"/>
+      <c r="BQ30" s="36"/>
     </row>
     <row r="31" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A31" s="37"/>
-      <c r="B31" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="C31" s="86" t="s">
+      <c r="A31" s="36"/>
+      <c r="B31" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="D31" s="78" t="s">
-        <v>43</v>
-      </c>
-      <c r="E31" s="40">
+      <c r="C31" s="83" t="s">
+        <v>72</v>
+      </c>
+      <c r="D31" s="76" t="s">
+        <v>42</v>
+      </c>
+      <c r="E31" s="39">
         <v>45012</v>
       </c>
-      <c r="F31" s="40">
+      <c r="F31" s="39">
         <v>45027</v>
       </c>
-      <c r="G31" s="41">
+      <c r="G31" s="40">
         <v>15</v>
       </c>
-      <c r="H31" s="42">
+      <c r="H31" s="41">
         <v>0.1</v>
       </c>
-      <c r="I31" s="51"/>
-      <c r="J31" s="52"/>
-      <c r="K31" s="53"/>
-      <c r="L31" s="53"/>
-      <c r="M31" s="53"/>
-      <c r="N31" s="54"/>
-      <c r="O31" s="54"/>
-      <c r="P31" s="54"/>
-      <c r="Q31" s="54"/>
-      <c r="R31" s="54"/>
-      <c r="S31" s="45"/>
-      <c r="T31" s="45"/>
-      <c r="U31" s="45"/>
-      <c r="V31" s="45"/>
-      <c r="W31" s="53"/>
-      <c r="X31" s="53"/>
-      <c r="Y31" s="53"/>
-      <c r="Z31" s="53"/>
-      <c r="AA31" s="53"/>
-      <c r="AB31" s="53"/>
-      <c r="AC31" s="56"/>
-      <c r="AD31" s="56"/>
-      <c r="AE31" s="56"/>
-      <c r="AF31" s="56"/>
-      <c r="AG31" s="56"/>
-      <c r="AH31" s="53"/>
-      <c r="AI31" s="53"/>
-      <c r="AJ31" s="53"/>
-      <c r="AK31" s="53"/>
-      <c r="AL31" s="53"/>
-      <c r="AM31" s="53"/>
-      <c r="AN31" s="53"/>
-      <c r="AO31" s="53"/>
-      <c r="AP31" s="53"/>
-      <c r="AQ31" s="53"/>
-      <c r="AR31" s="57"/>
-      <c r="AS31" s="57"/>
-      <c r="AT31" s="57"/>
-      <c r="AU31" s="57"/>
-      <c r="AV31" s="57"/>
-      <c r="AW31" s="53"/>
-      <c r="AX31" s="53"/>
-      <c r="AY31" s="53"/>
-      <c r="AZ31" s="53"/>
-      <c r="BA31" s="53"/>
-      <c r="BB31" s="53"/>
-      <c r="BC31" s="53"/>
-      <c r="BD31" s="53"/>
-      <c r="BE31" s="53"/>
-      <c r="BF31" s="53"/>
-      <c r="BG31" s="58"/>
-      <c r="BH31" s="58"/>
-      <c r="BI31" s="58"/>
-      <c r="BJ31" s="58"/>
-      <c r="BK31" s="58"/>
-      <c r="BL31" s="53"/>
-      <c r="BM31" s="53"/>
-      <c r="BN31" s="53"/>
-      <c r="BO31" s="53"/>
-      <c r="BP31" s="59"/>
-      <c r="BQ31" s="37"/>
+      <c r="I31" s="50"/>
+      <c r="J31" s="51"/>
+      <c r="K31" s="52"/>
+      <c r="L31" s="52"/>
+      <c r="M31" s="52"/>
+      <c r="N31" s="53"/>
+      <c r="O31" s="53"/>
+      <c r="P31" s="53"/>
+      <c r="Q31" s="53"/>
+      <c r="R31" s="53"/>
+      <c r="S31" s="44"/>
+      <c r="T31" s="44"/>
+      <c r="U31" s="44"/>
+      <c r="V31" s="44"/>
+      <c r="W31" s="52"/>
+      <c r="X31" s="52"/>
+      <c r="Y31" s="52"/>
+      <c r="Z31" s="52"/>
+      <c r="AA31" s="52"/>
+      <c r="AB31" s="52"/>
+      <c r="AC31" s="54"/>
+      <c r="AD31" s="54"/>
+      <c r="AE31" s="54"/>
+      <c r="AF31" s="54"/>
+      <c r="AG31" s="54"/>
+      <c r="AH31" s="52"/>
+      <c r="AI31" s="52"/>
+      <c r="AJ31" s="52"/>
+      <c r="AK31" s="52"/>
+      <c r="AL31" s="52"/>
+      <c r="AM31" s="52"/>
+      <c r="AN31" s="52"/>
+      <c r="AO31" s="52"/>
+      <c r="AP31" s="52"/>
+      <c r="AQ31" s="52"/>
+      <c r="AR31" s="55"/>
+      <c r="AS31" s="55"/>
+      <c r="AT31" s="55"/>
+      <c r="AU31" s="55"/>
+      <c r="AV31" s="55"/>
+      <c r="AW31" s="52"/>
+      <c r="AX31" s="52"/>
+      <c r="AY31" s="52"/>
+      <c r="AZ31" s="52"/>
+      <c r="BA31" s="52"/>
+      <c r="BB31" s="52"/>
+      <c r="BC31" s="52"/>
+      <c r="BD31" s="52"/>
+      <c r="BE31" s="52"/>
+      <c r="BF31" s="52"/>
+      <c r="BG31" s="56"/>
+      <c r="BH31" s="56"/>
+      <c r="BI31" s="56"/>
+      <c r="BJ31" s="56"/>
+      <c r="BK31" s="56"/>
+      <c r="BL31" s="52"/>
+      <c r="BM31" s="52"/>
+      <c r="BN31" s="52"/>
+      <c r="BO31" s="52"/>
+      <c r="BP31" s="57"/>
+      <c r="BQ31" s="36"/>
     </row>
-    <row r="32" spans="1:69" ht="27.6" customHeight="1" outlineLevel="1">
-      <c r="A32" s="37"/>
-      <c r="B32" s="38">
+    <row r="32" spans="1:69" ht="27.65" customHeight="1" outlineLevel="1">
+      <c r="A32" s="36"/>
+      <c r="B32" s="37">
         <v>3.2</v>
       </c>
-      <c r="C32" s="84" t="s">
-        <v>55</v>
-      </c>
-      <c r="D32" s="75" t="s">
-        <v>64</v>
-      </c>
-      <c r="E32" s="40">
+      <c r="C32" s="81" t="s">
+        <v>53</v>
+      </c>
+      <c r="D32" s="73" t="s">
+        <v>61</v>
+      </c>
+      <c r="E32" s="39">
         <v>44998</v>
       </c>
-      <c r="F32" s="40">
+      <c r="F32" s="39">
         <v>45006</v>
       </c>
-      <c r="G32" s="41">
+      <c r="G32" s="40">
         <v>9</v>
       </c>
-      <c r="H32" s="42">
+      <c r="H32" s="41">
         <v>1</v>
       </c>
-      <c r="I32" s="51"/>
-      <c r="J32" s="52"/>
-      <c r="K32" s="53"/>
-      <c r="L32" s="53"/>
-      <c r="M32" s="53"/>
-      <c r="N32" s="54"/>
-      <c r="O32" s="54"/>
-      <c r="P32" s="54"/>
-      <c r="Q32" s="54"/>
-      <c r="R32" s="54"/>
-      <c r="S32" s="53"/>
-      <c r="T32" s="53"/>
-      <c r="U32" s="53"/>
-      <c r="V32" s="53"/>
-      <c r="W32" s="53"/>
-      <c r="X32" s="53"/>
-      <c r="Y32" s="53"/>
-      <c r="Z32" s="53"/>
-      <c r="AA32" s="53"/>
-      <c r="AB32" s="53"/>
-      <c r="AC32" s="56"/>
-      <c r="AD32" s="56"/>
-      <c r="AE32" s="56"/>
-      <c r="AF32" s="56"/>
-      <c r="AG32" s="56"/>
-      <c r="AH32" s="55"/>
-      <c r="AI32" s="55"/>
-      <c r="AJ32" s="55"/>
-      <c r="AK32" s="55"/>
-      <c r="AL32" s="55"/>
-      <c r="AM32" s="55"/>
-      <c r="AN32" s="55"/>
-      <c r="AO32" s="55"/>
-      <c r="AP32" s="55"/>
-      <c r="AQ32" s="53"/>
-      <c r="AR32" s="57"/>
-      <c r="AS32" s="57"/>
-      <c r="AT32" s="57"/>
-      <c r="AU32" s="57"/>
-      <c r="AV32" s="57"/>
-      <c r="AW32" s="53"/>
-      <c r="AX32" s="53"/>
-      <c r="AY32" s="53"/>
-      <c r="AZ32" s="53"/>
-      <c r="BA32" s="53"/>
-      <c r="BB32" s="53"/>
-      <c r="BC32" s="53"/>
-      <c r="BD32" s="53"/>
-      <c r="BE32" s="53"/>
-      <c r="BF32" s="53"/>
-      <c r="BG32" s="58"/>
-      <c r="BH32" s="58"/>
-      <c r="BI32" s="58"/>
-      <c r="BJ32" s="58"/>
-      <c r="BK32" s="58"/>
-      <c r="BL32" s="53"/>
-      <c r="BM32" s="53"/>
-      <c r="BN32" s="53"/>
-      <c r="BO32" s="53"/>
-      <c r="BP32" s="59"/>
-      <c r="BQ32" s="37"/>
+      <c r="I32" s="50"/>
+      <c r="J32" s="51"/>
+      <c r="K32" s="52"/>
+      <c r="L32" s="52"/>
+      <c r="M32" s="52"/>
+      <c r="N32" s="53"/>
+      <c r="O32" s="53"/>
+      <c r="P32" s="53"/>
+      <c r="Q32" s="53"/>
+      <c r="R32" s="53"/>
+      <c r="S32" s="52"/>
+      <c r="T32" s="52"/>
+      <c r="U32" s="52"/>
+      <c r="V32" s="52"/>
+      <c r="W32" s="52"/>
+      <c r="X32" s="52"/>
+      <c r="Y32" s="52"/>
+      <c r="Z32" s="52"/>
+      <c r="AA32" s="52"/>
+      <c r="AB32" s="52"/>
+      <c r="AC32" s="54"/>
+      <c r="AD32" s="54"/>
+      <c r="AE32" s="54"/>
+      <c r="AF32" s="54"/>
+      <c r="AG32" s="54"/>
+      <c r="AH32" s="44"/>
+      <c r="AI32" s="44"/>
+      <c r="AJ32" s="44"/>
+      <c r="AK32" s="44"/>
+      <c r="AL32" s="44"/>
+      <c r="AM32" s="44"/>
+      <c r="AN32" s="44"/>
+      <c r="AO32" s="44"/>
+      <c r="AP32" s="44"/>
+      <c r="AQ32" s="52"/>
+      <c r="AR32" s="55"/>
+      <c r="AS32" s="55"/>
+      <c r="AT32" s="55"/>
+      <c r="AU32" s="55"/>
+      <c r="AV32" s="55"/>
+      <c r="AW32" s="52"/>
+      <c r="AX32" s="52"/>
+      <c r="AY32" s="52"/>
+      <c r="AZ32" s="52"/>
+      <c r="BA32" s="52"/>
+      <c r="BB32" s="52"/>
+      <c r="BC32" s="52"/>
+      <c r="BD32" s="52"/>
+      <c r="BE32" s="52"/>
+      <c r="BF32" s="52"/>
+      <c r="BG32" s="56"/>
+      <c r="BH32" s="56"/>
+      <c r="BI32" s="56"/>
+      <c r="BJ32" s="56"/>
+      <c r="BK32" s="56"/>
+      <c r="BL32" s="52"/>
+      <c r="BM32" s="52"/>
+      <c r="BN32" s="52"/>
+      <c r="BO32" s="52"/>
+      <c r="BP32" s="57"/>
+      <c r="BQ32" s="36"/>
     </row>
     <row r="33" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A33" s="37"/>
-      <c r="B33" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="C33" s="79" t="s">
-        <v>70</v>
-      </c>
-      <c r="D33" s="78" t="s">
-        <v>71</v>
-      </c>
-      <c r="E33" s="40">
+      <c r="A33" s="36"/>
+      <c r="B33" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="D33" s="76" t="s">
+        <v>68</v>
+      </c>
+      <c r="E33" s="39">
         <v>45005</v>
       </c>
-      <c r="F33" s="40">
+      <c r="F33" s="39">
         <v>45008</v>
       </c>
-      <c r="G33" s="41">
+      <c r="G33" s="40">
         <v>4</v>
       </c>
-      <c r="H33" s="42">
+      <c r="H33" s="41">
         <v>1</v>
       </c>
-      <c r="I33" s="51"/>
-      <c r="J33" s="52"/>
-      <c r="K33" s="53"/>
-      <c r="L33" s="53"/>
-      <c r="M33" s="53"/>
-      <c r="N33" s="54"/>
-      <c r="O33" s="54"/>
-      <c r="P33" s="54"/>
-      <c r="Q33" s="54"/>
-      <c r="R33" s="54"/>
-      <c r="S33" s="45"/>
-      <c r="T33" s="45"/>
-      <c r="U33" s="45"/>
-      <c r="V33" s="45"/>
-      <c r="W33" s="53"/>
-      <c r="X33" s="53"/>
-      <c r="Y33" s="53"/>
-      <c r="Z33" s="53"/>
-      <c r="AA33" s="53"/>
-      <c r="AB33" s="53"/>
-      <c r="AC33" s="56"/>
-      <c r="AD33" s="56"/>
-      <c r="AE33" s="56"/>
-      <c r="AF33" s="56"/>
-      <c r="AG33" s="56"/>
-      <c r="AH33" s="53"/>
-      <c r="AI33" s="53"/>
-      <c r="AJ33" s="53"/>
-      <c r="AK33" s="53"/>
-      <c r="AL33" s="53"/>
-      <c r="AM33" s="55"/>
-      <c r="AN33" s="55"/>
-      <c r="AO33" s="55"/>
-      <c r="AP33" s="55"/>
-      <c r="AQ33" s="53"/>
-      <c r="AR33" s="57"/>
-      <c r="AS33" s="57"/>
-      <c r="AT33" s="57"/>
-      <c r="AU33" s="57"/>
-      <c r="AV33" s="57"/>
-      <c r="AW33" s="53"/>
-      <c r="AX33" s="53"/>
-      <c r="AY33" s="53"/>
-      <c r="AZ33" s="53"/>
-      <c r="BA33" s="53"/>
-      <c r="BB33" s="53"/>
-      <c r="BC33" s="53"/>
-      <c r="BD33" s="53"/>
-      <c r="BE33" s="53"/>
-      <c r="BF33" s="53"/>
-      <c r="BG33" s="58"/>
-      <c r="BH33" s="58"/>
-      <c r="BI33" s="58"/>
-      <c r="BJ33" s="58"/>
-      <c r="BK33" s="58"/>
-      <c r="BL33" s="53"/>
-      <c r="BM33" s="53"/>
-      <c r="BN33" s="53"/>
-      <c r="BO33" s="53"/>
-      <c r="BP33" s="59"/>
-      <c r="BQ33" s="37"/>
+      <c r="I33" s="50"/>
+      <c r="J33" s="51"/>
+      <c r="K33" s="52"/>
+      <c r="L33" s="52"/>
+      <c r="M33" s="52"/>
+      <c r="N33" s="53"/>
+      <c r="O33" s="53"/>
+      <c r="P33" s="53"/>
+      <c r="Q33" s="53"/>
+      <c r="R33" s="53"/>
+      <c r="S33" s="44"/>
+      <c r="T33" s="44"/>
+      <c r="U33" s="44"/>
+      <c r="V33" s="44"/>
+      <c r="W33" s="52"/>
+      <c r="X33" s="52"/>
+      <c r="Y33" s="52"/>
+      <c r="Z33" s="52"/>
+      <c r="AA33" s="52"/>
+      <c r="AB33" s="52"/>
+      <c r="AC33" s="54"/>
+      <c r="AD33" s="54"/>
+      <c r="AE33" s="54"/>
+      <c r="AF33" s="54"/>
+      <c r="AG33" s="54"/>
+      <c r="AH33" s="52"/>
+      <c r="AI33" s="52"/>
+      <c r="AJ33" s="52"/>
+      <c r="AK33" s="52"/>
+      <c r="AL33" s="52"/>
+      <c r="AM33" s="52"/>
+      <c r="AN33" s="52"/>
+      <c r="AO33" s="52"/>
+      <c r="AP33" s="52"/>
+      <c r="AQ33" s="52"/>
+      <c r="AR33" s="55"/>
+      <c r="AS33" s="55"/>
+      <c r="AT33" s="55"/>
+      <c r="AU33" s="55"/>
+      <c r="AV33" s="55"/>
+      <c r="AW33" s="52"/>
+      <c r="AX33" s="52"/>
+      <c r="AY33" s="52"/>
+      <c r="AZ33" s="52"/>
+      <c r="BA33" s="52"/>
+      <c r="BB33" s="52"/>
+      <c r="BC33" s="52"/>
+      <c r="BD33" s="52"/>
+      <c r="BE33" s="52"/>
+      <c r="BF33" s="52"/>
+      <c r="BG33" s="56"/>
+      <c r="BH33" s="56"/>
+      <c r="BI33" s="56"/>
+      <c r="BJ33" s="56"/>
+      <c r="BK33" s="56"/>
+      <c r="BL33" s="52"/>
+      <c r="BM33" s="52"/>
+      <c r="BN33" s="52"/>
+      <c r="BO33" s="52"/>
+      <c r="BP33" s="57"/>
+      <c r="BQ33" s="36"/>
     </row>
     <row r="34" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A34" s="37"/>
-      <c r="B34" s="38">
+      <c r="A34" s="36"/>
+      <c r="B34" s="37">
         <v>3.3</v>
       </c>
-      <c r="C34" s="79" t="s">
-        <v>63</v>
-      </c>
-      <c r="D34" s="78" t="s">
-        <v>43</v>
-      </c>
-      <c r="E34" s="40">
+      <c r="C34" s="77" t="s">
+        <v>60</v>
+      </c>
+      <c r="D34" s="76" t="s">
+        <v>42</v>
+      </c>
+      <c r="E34" s="39">
         <v>45009</v>
       </c>
-      <c r="F34" s="40">
+      <c r="F34" s="39">
         <v>45009</v>
       </c>
-      <c r="G34" s="41">
+      <c r="G34" s="40">
         <v>1</v>
       </c>
-      <c r="H34" s="42">
+      <c r="H34" s="41">
         <v>0</v>
       </c>
-      <c r="I34" s="51"/>
-      <c r="J34" s="52"/>
-      <c r="K34" s="53"/>
-      <c r="L34" s="53"/>
-      <c r="M34" s="53"/>
-      <c r="N34" s="54"/>
-      <c r="O34" s="54"/>
-      <c r="P34" s="54"/>
-      <c r="Q34" s="54"/>
-      <c r="R34" s="54"/>
-      <c r="S34" s="45"/>
-      <c r="T34" s="45"/>
-      <c r="U34" s="45"/>
-      <c r="V34" s="45"/>
-      <c r="W34" s="53"/>
-      <c r="X34" s="53"/>
-      <c r="Y34" s="53"/>
-      <c r="Z34" s="53"/>
-      <c r="AA34" s="53"/>
-      <c r="AB34" s="53"/>
-      <c r="AC34" s="56"/>
-      <c r="AD34" s="56"/>
-      <c r="AE34" s="56"/>
-      <c r="AF34" s="56"/>
-      <c r="AG34" s="56"/>
-      <c r="AH34" s="53"/>
-      <c r="AI34" s="53"/>
-      <c r="AJ34" s="53"/>
-      <c r="AK34" s="53"/>
-      <c r="AL34" s="53"/>
-      <c r="AM34" s="53"/>
-      <c r="AN34" s="53"/>
-      <c r="AO34" s="53"/>
-      <c r="AP34" s="53"/>
-      <c r="AQ34" s="53"/>
-      <c r="AR34" s="57"/>
-      <c r="AS34" s="57"/>
-      <c r="AT34" s="57"/>
-      <c r="AU34" s="57"/>
-      <c r="AV34" s="57"/>
-      <c r="AW34" s="53"/>
-      <c r="AX34" s="53"/>
-      <c r="AY34" s="53"/>
-      <c r="AZ34" s="53"/>
-      <c r="BA34" s="53"/>
-      <c r="BB34" s="53"/>
-      <c r="BC34" s="53"/>
-      <c r="BD34" s="53"/>
-      <c r="BE34" s="53"/>
-      <c r="BF34" s="53"/>
-      <c r="BG34" s="58"/>
-      <c r="BH34" s="58"/>
-      <c r="BI34" s="58"/>
-      <c r="BJ34" s="58"/>
-      <c r="BK34" s="58"/>
-      <c r="BL34" s="53"/>
-      <c r="BM34" s="53"/>
-      <c r="BN34" s="53"/>
-      <c r="BO34" s="53"/>
-      <c r="BP34" s="59"/>
-      <c r="BQ34" s="37"/>
+      <c r="I34" s="50"/>
+      <c r="J34" s="51"/>
+      <c r="K34" s="52"/>
+      <c r="L34" s="52"/>
+      <c r="M34" s="52"/>
+      <c r="N34" s="53"/>
+      <c r="O34" s="53"/>
+      <c r="P34" s="53"/>
+      <c r="Q34" s="53"/>
+      <c r="R34" s="53"/>
+      <c r="S34" s="44"/>
+      <c r="T34" s="44"/>
+      <c r="U34" s="44"/>
+      <c r="V34" s="44"/>
+      <c r="W34" s="52"/>
+      <c r="X34" s="52"/>
+      <c r="Y34" s="52"/>
+      <c r="Z34" s="52"/>
+      <c r="AA34" s="52"/>
+      <c r="AB34" s="52"/>
+      <c r="AC34" s="54"/>
+      <c r="AD34" s="54"/>
+      <c r="AE34" s="54"/>
+      <c r="AF34" s="54"/>
+      <c r="AG34" s="54"/>
+      <c r="AH34" s="52"/>
+      <c r="AI34" s="52"/>
+      <c r="AJ34" s="52"/>
+      <c r="AK34" s="52"/>
+      <c r="AL34" s="52"/>
+      <c r="AM34" s="52"/>
+      <c r="AN34" s="52"/>
+      <c r="AO34" s="52"/>
+      <c r="AP34" s="52"/>
+      <c r="AQ34" s="52"/>
+      <c r="AR34" s="55"/>
+      <c r="AS34" s="55"/>
+      <c r="AT34" s="55"/>
+      <c r="AU34" s="55"/>
+      <c r="AV34" s="55"/>
+      <c r="AW34" s="52"/>
+      <c r="AX34" s="52"/>
+      <c r="AY34" s="52"/>
+      <c r="AZ34" s="52"/>
+      <c r="BA34" s="52"/>
+      <c r="BB34" s="52"/>
+      <c r="BC34" s="52"/>
+      <c r="BD34" s="52"/>
+      <c r="BE34" s="52"/>
+      <c r="BF34" s="52"/>
+      <c r="BG34" s="56"/>
+      <c r="BH34" s="56"/>
+      <c r="BI34" s="56"/>
+      <c r="BJ34" s="56"/>
+      <c r="BK34" s="56"/>
+      <c r="BL34" s="52"/>
+      <c r="BM34" s="52"/>
+      <c r="BN34" s="52"/>
+      <c r="BO34" s="52"/>
+      <c r="BP34" s="57"/>
+      <c r="BQ34" s="36"/>
     </row>
-    <row r="35" spans="1:69" ht="17.100000000000001" customHeight="1" outlineLevel="1">
-      <c r="A35" s="37"/>
-      <c r="B35" s="38" t="s">
-        <v>72</v>
-      </c>
-      <c r="C35" s="79" t="s">
-        <v>82</v>
-      </c>
-      <c r="D35" s="78" t="s">
-        <v>83</v>
-      </c>
-      <c r="E35" s="40">
+    <row r="35" spans="1:69" ht="17.149999999999999" customHeight="1" outlineLevel="1">
+      <c r="A35" s="36"/>
+      <c r="B35" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" s="77" t="s">
+        <v>79</v>
+      </c>
+      <c r="D35" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="E35" s="39">
         <v>45009</v>
       </c>
-      <c r="F35" s="40">
+      <c r="F35" s="39">
         <v>45016</v>
       </c>
-      <c r="G35" s="41">
+      <c r="G35" s="40">
         <v>8</v>
       </c>
-      <c r="H35" s="42">
+      <c r="H35" s="41">
         <v>0.65</v>
       </c>
-      <c r="I35" s="51"/>
-      <c r="J35" s="52"/>
-      <c r="K35" s="53"/>
-      <c r="L35" s="53"/>
-      <c r="M35" s="53"/>
-      <c r="N35" s="54"/>
-      <c r="O35" s="54"/>
-      <c r="P35" s="54"/>
-      <c r="Q35" s="54"/>
-      <c r="R35" s="54"/>
-      <c r="S35" s="45"/>
-      <c r="T35" s="45"/>
-      <c r="U35" s="45"/>
-      <c r="V35" s="45"/>
-      <c r="W35" s="53"/>
-      <c r="X35" s="53"/>
-      <c r="Y35" s="53"/>
-      <c r="Z35" s="53"/>
-      <c r="AA35" s="53"/>
-      <c r="AB35" s="53"/>
-      <c r="AC35" s="56"/>
-      <c r="AD35" s="56"/>
-      <c r="AE35" s="56"/>
-      <c r="AF35" s="56"/>
-      <c r="AG35" s="56"/>
-      <c r="AH35" s="53"/>
-      <c r="AI35" s="53"/>
-      <c r="AJ35" s="53"/>
-      <c r="AK35" s="53"/>
-      <c r="AL35" s="53"/>
-      <c r="AM35" s="53"/>
-      <c r="AN35" s="53"/>
-      <c r="AO35" s="53"/>
-      <c r="AP35" s="53"/>
-      <c r="AQ35" s="53"/>
-      <c r="AR35" s="57"/>
-      <c r="AS35" s="57"/>
-      <c r="AT35" s="57"/>
-      <c r="AU35" s="57"/>
-      <c r="AV35" s="57"/>
-      <c r="AW35" s="53"/>
-      <c r="AX35" s="53"/>
-      <c r="AY35" s="53"/>
-      <c r="AZ35" s="53"/>
-      <c r="BA35" s="53"/>
-      <c r="BB35" s="53"/>
-      <c r="BC35" s="53"/>
-      <c r="BD35" s="53"/>
-      <c r="BE35" s="53"/>
-      <c r="BF35" s="53"/>
-      <c r="BG35" s="58"/>
-      <c r="BH35" s="58"/>
-      <c r="BI35" s="58"/>
-      <c r="BJ35" s="58"/>
-      <c r="BK35" s="58"/>
-      <c r="BL35" s="53"/>
-      <c r="BM35" s="53"/>
-      <c r="BN35" s="53"/>
-      <c r="BO35" s="53"/>
-      <c r="BP35" s="59"/>
-      <c r="BQ35" s="37"/>
+      <c r="I35" s="50"/>
+      <c r="J35" s="51"/>
+      <c r="K35" s="52"/>
+      <c r="L35" s="52"/>
+      <c r="M35" s="52"/>
+      <c r="N35" s="53"/>
+      <c r="O35" s="53"/>
+      <c r="P35" s="53"/>
+      <c r="Q35" s="53"/>
+      <c r="R35" s="53"/>
+      <c r="S35" s="44"/>
+      <c r="T35" s="44"/>
+      <c r="U35" s="44"/>
+      <c r="V35" s="44"/>
+      <c r="W35" s="52"/>
+      <c r="X35" s="52"/>
+      <c r="Y35" s="52"/>
+      <c r="Z35" s="52"/>
+      <c r="AA35" s="52"/>
+      <c r="AB35" s="52"/>
+      <c r="AC35" s="54"/>
+      <c r="AD35" s="54"/>
+      <c r="AE35" s="54"/>
+      <c r="AF35" s="54"/>
+      <c r="AG35" s="54"/>
+      <c r="AH35" s="52"/>
+      <c r="AI35" s="52"/>
+      <c r="AJ35" s="52"/>
+      <c r="AK35" s="52"/>
+      <c r="AL35" s="52"/>
+      <c r="AM35" s="52"/>
+      <c r="AN35" s="52"/>
+      <c r="AO35" s="52"/>
+      <c r="AP35" s="52"/>
+      <c r="AQ35" s="52"/>
+      <c r="AR35" s="55"/>
+      <c r="AS35" s="55"/>
+      <c r="AT35" s="55"/>
+      <c r="AU35" s="55"/>
+      <c r="AV35" s="55"/>
+      <c r="AW35" s="52"/>
+      <c r="AX35" s="52"/>
+      <c r="AY35" s="52"/>
+      <c r="AZ35" s="52"/>
+      <c r="BA35" s="52"/>
+      <c r="BB35" s="52"/>
+      <c r="BC35" s="52"/>
+      <c r="BD35" s="52"/>
+      <c r="BE35" s="52"/>
+      <c r="BF35" s="52"/>
+      <c r="BG35" s="56"/>
+      <c r="BH35" s="56"/>
+      <c r="BI35" s="56"/>
+      <c r="BJ35" s="56"/>
+      <c r="BK35" s="56"/>
+      <c r="BL35" s="52"/>
+      <c r="BM35" s="52"/>
+      <c r="BN35" s="52"/>
+      <c r="BO35" s="52"/>
+      <c r="BP35" s="57"/>
+      <c r="BQ35" s="36"/>
     </row>
     <row r="36" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A36" s="37"/>
-      <c r="B36" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="C36" s="85" t="s">
-        <v>65</v>
-      </c>
-      <c r="D36" s="78" t="s">
-        <v>60</v>
-      </c>
-      <c r="E36" s="40">
+      <c r="A36" s="36"/>
+      <c r="B36" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="C36" s="82" t="s">
+        <v>62</v>
+      </c>
+      <c r="D36" s="76" t="s">
+        <v>57</v>
+      </c>
+      <c r="E36" s="39">
         <v>45009</v>
       </c>
-      <c r="F36" s="40">
+      <c r="F36" s="39">
         <v>45026</v>
       </c>
-      <c r="G36" s="41">
+      <c r="G36" s="40">
         <v>15</v>
       </c>
-      <c r="H36" s="60">
+      <c r="H36" s="58">
         <v>0</v>
       </c>
-      <c r="I36" s="51"/>
-      <c r="J36" s="52"/>
-      <c r="K36" s="53"/>
-      <c r="L36" s="53"/>
-      <c r="M36" s="53"/>
-      <c r="N36" s="54"/>
-      <c r="O36" s="54"/>
-      <c r="P36" s="54"/>
-      <c r="Q36" s="54"/>
-      <c r="R36" s="54"/>
-      <c r="S36" s="45"/>
-      <c r="T36" s="45"/>
-      <c r="U36" s="45"/>
-      <c r="V36" s="45"/>
-      <c r="W36" s="53"/>
-      <c r="X36" s="53"/>
-      <c r="Y36" s="53"/>
-      <c r="Z36" s="53"/>
-      <c r="AA36" s="53"/>
-      <c r="AB36" s="53"/>
-      <c r="AC36" s="56"/>
-      <c r="AD36" s="56"/>
-      <c r="AE36" s="56"/>
-      <c r="AF36" s="56"/>
-      <c r="AG36" s="56"/>
-      <c r="AH36" s="53"/>
-      <c r="AI36" s="53"/>
-      <c r="AJ36" s="53"/>
-      <c r="AK36" s="53"/>
-      <c r="AL36" s="53"/>
-      <c r="AM36" s="53"/>
-      <c r="AN36" s="53"/>
-      <c r="AO36" s="53"/>
-      <c r="AP36" s="53"/>
-      <c r="AQ36" s="53"/>
-      <c r="AR36" s="57"/>
-      <c r="AS36" s="57"/>
-      <c r="AT36" s="57"/>
-      <c r="AU36" s="57"/>
-      <c r="AV36" s="57"/>
-      <c r="AW36" s="53"/>
-      <c r="AX36" s="53"/>
-      <c r="AY36" s="53"/>
-      <c r="AZ36" s="53"/>
-      <c r="BA36" s="53"/>
-      <c r="BB36" s="53"/>
-      <c r="BC36" s="53"/>
-      <c r="BD36" s="53"/>
-      <c r="BE36" s="53"/>
-      <c r="BF36" s="53"/>
-      <c r="BG36" s="58"/>
-      <c r="BH36" s="58"/>
-      <c r="BI36" s="58"/>
-      <c r="BJ36" s="58"/>
-      <c r="BK36" s="58"/>
-      <c r="BL36" s="53"/>
-      <c r="BM36" s="53"/>
-      <c r="BN36" s="53"/>
-      <c r="BO36" s="53"/>
-      <c r="BP36" s="59"/>
-      <c r="BQ36" s="37"/>
+      <c r="I36" s="50"/>
+      <c r="J36" s="51"/>
+      <c r="K36" s="52"/>
+      <c r="L36" s="52"/>
+      <c r="M36" s="52"/>
+      <c r="N36" s="53"/>
+      <c r="O36" s="53"/>
+      <c r="P36" s="53"/>
+      <c r="Q36" s="53"/>
+      <c r="R36" s="53"/>
+      <c r="S36" s="44"/>
+      <c r="T36" s="44"/>
+      <c r="U36" s="44"/>
+      <c r="V36" s="44"/>
+      <c r="W36" s="52"/>
+      <c r="X36" s="52"/>
+      <c r="Y36" s="52"/>
+      <c r="Z36" s="52"/>
+      <c r="AA36" s="52"/>
+      <c r="AB36" s="52"/>
+      <c r="AC36" s="54"/>
+      <c r="AD36" s="54"/>
+      <c r="AE36" s="54"/>
+      <c r="AF36" s="54"/>
+      <c r="AG36" s="54"/>
+      <c r="AH36" s="44"/>
+      <c r="AI36" s="44"/>
+      <c r="AJ36" s="44"/>
+      <c r="AK36" s="44"/>
+      <c r="AL36" s="44"/>
+      <c r="AM36" s="44"/>
+      <c r="AN36" s="44"/>
+      <c r="AO36" s="44"/>
+      <c r="AP36" s="44"/>
+      <c r="AQ36" s="52"/>
+      <c r="AR36" s="55"/>
+      <c r="AS36" s="55"/>
+      <c r="AT36" s="55"/>
+      <c r="AU36" s="55"/>
+      <c r="AV36" s="55"/>
+      <c r="AW36" s="52"/>
+      <c r="AX36" s="52"/>
+      <c r="AY36" s="52"/>
+      <c r="AZ36" s="52"/>
+      <c r="BA36" s="52"/>
+      <c r="BB36" s="52"/>
+      <c r="BC36" s="52"/>
+      <c r="BD36" s="52"/>
+      <c r="BE36" s="52"/>
+      <c r="BF36" s="52"/>
+      <c r="BG36" s="56"/>
+      <c r="BH36" s="56"/>
+      <c r="BI36" s="56"/>
+      <c r="BJ36" s="56"/>
+      <c r="BK36" s="56"/>
+      <c r="BL36" s="52"/>
+      <c r="BM36" s="52"/>
+      <c r="BN36" s="52"/>
+      <c r="BO36" s="52"/>
+      <c r="BP36" s="57"/>
+      <c r="BQ36" s="36"/>
     </row>
     <row r="37" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A37" s="37"/>
-      <c r="B37" s="38">
+      <c r="A37" s="36"/>
+      <c r="B37" s="37">
         <v>3.4</v>
       </c>
-      <c r="C37" s="86" t="s">
-        <v>67</v>
-      </c>
-      <c r="D37" s="78" t="s">
-        <v>43</v>
-      </c>
-      <c r="E37" s="40">
+      <c r="C37" s="83" t="s">
+        <v>64</v>
+      </c>
+      <c r="D37" s="76" t="s">
+        <v>42</v>
+      </c>
+      <c r="E37" s="39">
         <v>45012</v>
       </c>
-      <c r="F37" s="40">
+      <c r="F37" s="39">
         <v>45013</v>
       </c>
-      <c r="G37" s="41">
+      <c r="G37" s="40">
         <v>2</v>
       </c>
-      <c r="H37" s="42">
+      <c r="H37" s="41">
         <v>1</v>
       </c>
-      <c r="I37" s="51"/>
-      <c r="J37" s="52"/>
-      <c r="K37" s="53"/>
-      <c r="L37" s="53"/>
-      <c r="M37" s="53"/>
-      <c r="N37" s="54"/>
-      <c r="O37" s="54"/>
-      <c r="P37" s="54"/>
-      <c r="Q37" s="54"/>
-      <c r="R37" s="54"/>
-      <c r="S37" s="45"/>
-      <c r="T37" s="45"/>
-      <c r="U37" s="45"/>
-      <c r="V37" s="45"/>
-      <c r="W37" s="53"/>
-      <c r="X37" s="53"/>
-      <c r="Y37" s="53"/>
-      <c r="Z37" s="53"/>
-      <c r="AA37" s="53"/>
-      <c r="AB37" s="53"/>
-      <c r="AC37" s="56"/>
-      <c r="AD37" s="56"/>
-      <c r="AE37" s="56"/>
-      <c r="AF37" s="56"/>
-      <c r="AG37" s="56"/>
-      <c r="AH37" s="53"/>
-      <c r="AI37" s="53"/>
-      <c r="AJ37" s="53"/>
-      <c r="AK37" s="53"/>
-      <c r="AL37" s="53"/>
-      <c r="AM37" s="53"/>
-      <c r="AN37" s="53"/>
-      <c r="AO37" s="53"/>
-      <c r="AP37" s="53"/>
-      <c r="AQ37" s="53"/>
-      <c r="AR37" s="57"/>
-      <c r="AS37" s="57"/>
-      <c r="AT37" s="57"/>
-      <c r="AU37" s="57"/>
-      <c r="AV37" s="57"/>
-      <c r="AW37" s="53"/>
-      <c r="AX37" s="53"/>
-      <c r="AY37" s="53"/>
-      <c r="AZ37" s="53"/>
-      <c r="BA37" s="53"/>
-      <c r="BB37" s="53"/>
-      <c r="BC37" s="53"/>
-      <c r="BD37" s="53"/>
-      <c r="BE37" s="53"/>
-      <c r="BF37" s="53"/>
-      <c r="BG37" s="58"/>
-      <c r="BH37" s="58"/>
-      <c r="BI37" s="58"/>
-      <c r="BJ37" s="58"/>
-      <c r="BK37" s="58"/>
-      <c r="BL37" s="53"/>
-      <c r="BM37" s="53"/>
-      <c r="BN37" s="53"/>
-      <c r="BO37" s="53"/>
-      <c r="BP37" s="59"/>
-      <c r="BQ37" s="37"/>
+      <c r="I37" s="50"/>
+      <c r="J37" s="51"/>
+      <c r="K37" s="52"/>
+      <c r="L37" s="52"/>
+      <c r="M37" s="52"/>
+      <c r="N37" s="53"/>
+      <c r="O37" s="53"/>
+      <c r="P37" s="53"/>
+      <c r="Q37" s="53"/>
+      <c r="R37" s="53"/>
+      <c r="S37" s="44"/>
+      <c r="T37" s="44"/>
+      <c r="U37" s="44"/>
+      <c r="V37" s="44"/>
+      <c r="W37" s="52"/>
+      <c r="X37" s="52"/>
+      <c r="Y37" s="52"/>
+      <c r="Z37" s="52"/>
+      <c r="AA37" s="52"/>
+      <c r="AB37" s="52"/>
+      <c r="AC37" s="54"/>
+      <c r="AD37" s="54"/>
+      <c r="AE37" s="54"/>
+      <c r="AF37" s="54"/>
+      <c r="AG37" s="54"/>
+      <c r="AH37" s="52"/>
+      <c r="AI37" s="52"/>
+      <c r="AJ37" s="52"/>
+      <c r="AK37" s="52"/>
+      <c r="AL37" s="52"/>
+      <c r="AM37" s="52"/>
+      <c r="AN37" s="52"/>
+      <c r="AO37" s="52"/>
+      <c r="AP37" s="52"/>
+      <c r="AQ37" s="52"/>
+      <c r="AR37" s="55"/>
+      <c r="AS37" s="55"/>
+      <c r="AT37" s="55"/>
+      <c r="AU37" s="55"/>
+      <c r="AV37" s="55"/>
+      <c r="AW37" s="52"/>
+      <c r="AX37" s="52"/>
+      <c r="AY37" s="52"/>
+      <c r="AZ37" s="52"/>
+      <c r="BA37" s="52"/>
+      <c r="BB37" s="52"/>
+      <c r="BC37" s="52"/>
+      <c r="BD37" s="52"/>
+      <c r="BE37" s="52"/>
+      <c r="BF37" s="52"/>
+      <c r="BG37" s="56"/>
+      <c r="BH37" s="56"/>
+      <c r="BI37" s="56"/>
+      <c r="BJ37" s="56"/>
+      <c r="BK37" s="56"/>
+      <c r="BL37" s="52"/>
+      <c r="BM37" s="52"/>
+      <c r="BN37" s="52"/>
+      <c r="BO37" s="52"/>
+      <c r="BP37" s="57"/>
+      <c r="BQ37" s="36"/>
     </row>
     <row r="38" spans="1:69" ht="33" customHeight="1" outlineLevel="1">
-      <c r="A38" s="37"/>
-      <c r="B38" s="38">
+      <c r="A38" s="36"/>
+      <c r="B38" s="37">
         <v>3.5</v>
       </c>
-      <c r="C38" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="D38" s="78" t="s">
-        <v>43</v>
-      </c>
-      <c r="E38" s="40">
+      <c r="C38" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="D38" s="76" t="s">
+        <v>42</v>
+      </c>
+      <c r="E38" s="39">
         <v>45005</v>
       </c>
-      <c r="F38" s="40">
+      <c r="F38" s="39">
         <v>45025</v>
       </c>
-      <c r="G38" s="41">
+      <c r="G38" s="40">
         <v>20</v>
       </c>
-      <c r="H38" s="42">
+      <c r="H38" s="41">
         <v>0.5</v>
       </c>
-      <c r="I38" s="51"/>
-      <c r="J38" s="52"/>
-      <c r="K38" s="53"/>
-      <c r="L38" s="53"/>
-      <c r="M38" s="53"/>
-      <c r="N38" s="54"/>
-      <c r="O38" s="54"/>
-      <c r="P38" s="54"/>
-      <c r="Q38" s="54"/>
-      <c r="R38" s="54"/>
-      <c r="S38" s="45"/>
-      <c r="T38" s="45"/>
-      <c r="U38" s="45"/>
-      <c r="V38" s="45"/>
-      <c r="W38" s="53"/>
-      <c r="X38" s="53"/>
-      <c r="Y38" s="53"/>
-      <c r="Z38" s="53"/>
-      <c r="AA38" s="53"/>
-      <c r="AB38" s="53"/>
-      <c r="AC38" s="56"/>
-      <c r="AD38" s="56"/>
-      <c r="AE38" s="56"/>
-      <c r="AF38" s="56"/>
-      <c r="AG38" s="56"/>
-      <c r="AH38" s="53"/>
-      <c r="AI38" s="53"/>
-      <c r="AJ38" s="53"/>
-      <c r="AK38" s="53"/>
-      <c r="AL38" s="53"/>
-      <c r="AM38" s="53"/>
-      <c r="AN38" s="53"/>
-      <c r="AO38" s="55"/>
-      <c r="AP38" s="55"/>
-      <c r="AQ38" s="53"/>
-      <c r="AR38" s="57"/>
-      <c r="AS38" s="57"/>
-      <c r="AT38" s="57"/>
-      <c r="AU38" s="57"/>
-      <c r="AV38" s="57"/>
-      <c r="AW38" s="53"/>
-      <c r="AX38" s="53"/>
-      <c r="AY38" s="53"/>
-      <c r="AZ38" s="53"/>
-      <c r="BA38" s="53"/>
-      <c r="BB38" s="53"/>
-      <c r="BC38" s="53"/>
-      <c r="BD38" s="53"/>
-      <c r="BE38" s="53"/>
-      <c r="BF38" s="53"/>
-      <c r="BG38" s="58"/>
-      <c r="BH38" s="58"/>
-      <c r="BI38" s="58"/>
-      <c r="BJ38" s="58"/>
-      <c r="BK38" s="58"/>
-      <c r="BL38" s="53"/>
-      <c r="BM38" s="53"/>
-      <c r="BN38" s="53"/>
-      <c r="BO38" s="53"/>
-      <c r="BP38" s="59"/>
-      <c r="BQ38" s="37"/>
+      <c r="I38" s="50"/>
+      <c r="J38" s="51"/>
+      <c r="K38" s="52"/>
+      <c r="L38" s="52"/>
+      <c r="M38" s="52"/>
+      <c r="N38" s="53"/>
+      <c r="O38" s="53"/>
+      <c r="P38" s="53"/>
+      <c r="Q38" s="53"/>
+      <c r="R38" s="53"/>
+      <c r="S38" s="44"/>
+      <c r="T38" s="44"/>
+      <c r="U38" s="44"/>
+      <c r="V38" s="44"/>
+      <c r="W38" s="52"/>
+      <c r="X38" s="52"/>
+      <c r="Y38" s="52"/>
+      <c r="Z38" s="52"/>
+      <c r="AA38" s="52"/>
+      <c r="AB38" s="52"/>
+      <c r="AC38" s="54"/>
+      <c r="AD38" s="54"/>
+      <c r="AE38" s="54"/>
+      <c r="AF38" s="54"/>
+      <c r="AG38" s="54"/>
+      <c r="AH38" s="52"/>
+      <c r="AI38" s="52"/>
+      <c r="AJ38" s="52"/>
+      <c r="AK38" s="52"/>
+      <c r="AL38" s="52"/>
+      <c r="AM38" s="52"/>
+      <c r="AN38" s="52"/>
+      <c r="AO38" s="52"/>
+      <c r="AP38" s="52"/>
+      <c r="AQ38" s="52"/>
+      <c r="AR38" s="55"/>
+      <c r="AS38" s="55"/>
+      <c r="AT38" s="55"/>
+      <c r="AU38" s="55"/>
+      <c r="AV38" s="55"/>
+      <c r="AW38" s="52"/>
+      <c r="AX38" s="52"/>
+      <c r="AY38" s="52"/>
+      <c r="AZ38" s="52"/>
+      <c r="BA38" s="52"/>
+      <c r="BB38" s="52"/>
+      <c r="BC38" s="52"/>
+      <c r="BD38" s="52"/>
+      <c r="BE38" s="52"/>
+      <c r="BF38" s="52"/>
+      <c r="BG38" s="56"/>
+      <c r="BH38" s="56"/>
+      <c r="BI38" s="56"/>
+      <c r="BJ38" s="56"/>
+      <c r="BK38" s="56"/>
+      <c r="BL38" s="52"/>
+      <c r="BM38" s="52"/>
+      <c r="BN38" s="52"/>
+      <c r="BO38" s="52"/>
+      <c r="BP38" s="57"/>
+      <c r="BQ38" s="36"/>
     </row>
     <row r="39" spans="1:69" ht="21" customHeight="1">
       <c r="A39" s="21"/>
       <c r="B39" s="31">
         <v>4</v>
       </c>
-      <c r="C39" s="32"/>
-      <c r="D39" s="33"/>
-      <c r="E39" s="33"/>
-      <c r="F39" s="33"/>
-      <c r="G39" s="33"/>
-      <c r="H39" s="33"/>
-      <c r="I39" s="34"/>
-      <c r="J39" s="35"/>
-      <c r="K39" s="36"/>
-      <c r="L39" s="36"/>
-      <c r="M39" s="34"/>
-      <c r="N39" s="34"/>
-      <c r="O39" s="34"/>
-      <c r="P39" s="34"/>
-      <c r="Q39" s="34"/>
-      <c r="R39" s="34"/>
-      <c r="S39" s="34"/>
-      <c r="T39" s="34"/>
-      <c r="U39" s="34"/>
-      <c r="V39" s="34"/>
-      <c r="W39" s="34"/>
-      <c r="X39" s="34"/>
-      <c r="Y39" s="34"/>
-      <c r="Z39" s="34"/>
-      <c r="AA39" s="34"/>
-      <c r="AB39" s="34"/>
-      <c r="AC39" s="34"/>
-      <c r="AD39" s="34"/>
-      <c r="AE39" s="34"/>
-      <c r="AF39" s="34"/>
-      <c r="AG39" s="34"/>
-      <c r="AH39" s="34"/>
-      <c r="AI39" s="34"/>
-      <c r="AJ39" s="34"/>
-      <c r="AK39" s="34"/>
-      <c r="AL39" s="34"/>
-      <c r="AM39" s="34"/>
-      <c r="AN39" s="34"/>
-      <c r="AO39" s="34"/>
-      <c r="AP39" s="34"/>
-      <c r="AQ39" s="34"/>
-      <c r="AR39" s="34"/>
-      <c r="AS39" s="34"/>
-      <c r="AT39" s="34"/>
-      <c r="AU39" s="34"/>
-      <c r="AV39" s="34"/>
-      <c r="AW39" s="34"/>
-      <c r="AX39" s="34"/>
-      <c r="AY39" s="34"/>
-      <c r="AZ39" s="34"/>
-      <c r="BA39" s="34"/>
-      <c r="BB39" s="34"/>
-      <c r="BC39" s="34"/>
-      <c r="BD39" s="34"/>
-      <c r="BE39" s="34"/>
-      <c r="BF39" s="34"/>
-      <c r="BG39" s="34"/>
-      <c r="BH39" s="34"/>
-      <c r="BI39" s="34"/>
-      <c r="BJ39" s="34"/>
-      <c r="BK39" s="34"/>
-      <c r="BL39" s="34"/>
-      <c r="BM39" s="34"/>
-      <c r="BN39" s="34"/>
-      <c r="BO39" s="34"/>
-      <c r="BP39" s="34"/>
+      <c r="C39" s="108" t="s">
+        <v>117</v>
+      </c>
+      <c r="D39" s="32"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="32"/>
+      <c r="G39" s="32"/>
+      <c r="H39" s="32"/>
+      <c r="I39" s="33"/>
+      <c r="J39" s="34"/>
+      <c r="K39" s="35"/>
+      <c r="L39" s="35"/>
+      <c r="M39" s="33"/>
+      <c r="N39" s="33"/>
+      <c r="O39" s="33"/>
+      <c r="P39" s="33"/>
+      <c r="Q39" s="33"/>
+      <c r="R39" s="33"/>
+      <c r="S39" s="33"/>
+      <c r="T39" s="33"/>
+      <c r="U39" s="33"/>
+      <c r="V39" s="33"/>
+      <c r="W39" s="33"/>
+      <c r="X39" s="33"/>
+      <c r="Y39" s="33"/>
+      <c r="Z39" s="33"/>
+      <c r="AA39" s="33"/>
+      <c r="AB39" s="33"/>
+      <c r="AC39" s="33"/>
+      <c r="AD39" s="33"/>
+      <c r="AE39" s="33"/>
+      <c r="AF39" s="33"/>
+      <c r="AG39" s="33"/>
+      <c r="AH39" s="33"/>
+      <c r="AI39" s="33"/>
+      <c r="AJ39" s="33"/>
+      <c r="AK39" s="33"/>
+      <c r="AL39" s="33"/>
+      <c r="AM39" s="33"/>
+      <c r="AN39" s="33"/>
+      <c r="AO39" s="33"/>
+      <c r="AP39" s="33"/>
+      <c r="AQ39" s="33"/>
+      <c r="AR39" s="33"/>
+      <c r="AS39" s="33"/>
+      <c r="AT39" s="33"/>
+      <c r="AU39" s="33"/>
+      <c r="AV39" s="33"/>
+      <c r="AW39" s="33"/>
+      <c r="AX39" s="33"/>
+      <c r="AY39" s="33"/>
+      <c r="AZ39" s="33"/>
+      <c r="BA39" s="33"/>
+      <c r="BB39" s="33"/>
+      <c r="BC39" s="33"/>
+      <c r="BD39" s="33"/>
+      <c r="BE39" s="33"/>
+      <c r="BF39" s="33"/>
+      <c r="BG39" s="33"/>
+      <c r="BH39" s="33"/>
+      <c r="BI39" s="33"/>
+      <c r="BJ39" s="33"/>
+      <c r="BK39" s="33"/>
+      <c r="BL39" s="33"/>
+      <c r="BM39" s="33"/>
+      <c r="BN39" s="33"/>
+      <c r="BO39" s="33"/>
+      <c r="BP39" s="33"/>
       <c r="BQ39" s="21"/>
     </row>
     <row r="40" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A40" s="37"/>
-      <c r="B40" s="38">
+      <c r="A40" s="36"/>
+      <c r="B40" s="37">
         <v>4.0999999999999996</v>
       </c>
-      <c r="C40" s="39"/>
-      <c r="D40" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="E40" s="40"/>
-      <c r="F40" s="40"/>
-      <c r="G40" s="41">
+      <c r="C40" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="D40" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="E40" s="39">
+        <v>45026</v>
+      </c>
+      <c r="F40" s="39">
+        <v>45046</v>
+      </c>
+      <c r="G40" s="40">
+        <v>21</v>
+      </c>
+      <c r="H40" s="41">
         <v>0</v>
       </c>
-      <c r="H40" s="42">
-        <v>0</v>
-      </c>
-      <c r="I40" s="43"/>
-      <c r="J40" s="44"/>
-      <c r="K40" s="45"/>
-      <c r="L40" s="45"/>
-      <c r="M40" s="45"/>
-      <c r="N40" s="46"/>
-      <c r="O40" s="46"/>
-      <c r="P40" s="46"/>
-      <c r="Q40" s="46"/>
-      <c r="R40" s="46"/>
-      <c r="S40" s="45"/>
-      <c r="T40" s="45"/>
-      <c r="U40" s="45"/>
-      <c r="V40" s="45"/>
-      <c r="W40" s="45"/>
-      <c r="X40" s="45"/>
-      <c r="Y40" s="45"/>
-      <c r="Z40" s="45"/>
-      <c r="AA40" s="45"/>
-      <c r="AB40" s="45"/>
-      <c r="AC40" s="47"/>
-      <c r="AD40" s="47"/>
-      <c r="AE40" s="47"/>
-      <c r="AF40" s="47"/>
-      <c r="AG40" s="47"/>
-      <c r="AH40" s="45"/>
-      <c r="AI40" s="45"/>
-      <c r="AJ40" s="45"/>
-      <c r="AK40" s="45"/>
-      <c r="AL40" s="45"/>
-      <c r="AM40" s="45"/>
-      <c r="AN40" s="45"/>
-      <c r="AO40" s="45"/>
-      <c r="AP40" s="45"/>
-      <c r="AQ40" s="45"/>
-      <c r="AR40" s="48"/>
-      <c r="AS40" s="48"/>
-      <c r="AT40" s="48"/>
-      <c r="AU40" s="48"/>
-      <c r="AV40" s="48"/>
-      <c r="AW40" s="45"/>
-      <c r="AX40" s="45"/>
-      <c r="AY40" s="45"/>
-      <c r="AZ40" s="45"/>
-      <c r="BA40" s="45"/>
-      <c r="BB40" s="45"/>
-      <c r="BC40" s="45"/>
-      <c r="BD40" s="45"/>
-      <c r="BE40" s="45"/>
-      <c r="BF40" s="45"/>
-      <c r="BG40" s="49"/>
-      <c r="BH40" s="49"/>
-      <c r="BI40" s="49"/>
-      <c r="BJ40" s="49"/>
-      <c r="BK40" s="49"/>
-      <c r="BL40" s="45"/>
-      <c r="BM40" s="45"/>
-      <c r="BN40" s="45"/>
-      <c r="BO40" s="45"/>
-      <c r="BP40" s="50"/>
-      <c r="BQ40" s="37"/>
+      <c r="I40" s="42"/>
+      <c r="J40" s="43"/>
+      <c r="K40" s="44"/>
+      <c r="L40" s="44"/>
+      <c r="M40" s="44"/>
+      <c r="N40" s="45"/>
+      <c r="O40" s="45"/>
+      <c r="P40" s="45"/>
+      <c r="Q40" s="45"/>
+      <c r="R40" s="45"/>
+      <c r="S40" s="44"/>
+      <c r="T40" s="44"/>
+      <c r="U40" s="44"/>
+      <c r="V40" s="44"/>
+      <c r="W40" s="44"/>
+      <c r="X40" s="44"/>
+      <c r="Y40" s="44"/>
+      <c r="Z40" s="44"/>
+      <c r="AA40" s="44"/>
+      <c r="AB40" s="44"/>
+      <c r="AC40" s="46"/>
+      <c r="AD40" s="46"/>
+      <c r="AE40" s="46"/>
+      <c r="AF40" s="46"/>
+      <c r="AG40" s="46"/>
+      <c r="AH40" s="44"/>
+      <c r="AI40" s="44"/>
+      <c r="AJ40" s="44"/>
+      <c r="AK40" s="44"/>
+      <c r="AL40" s="44"/>
+      <c r="AM40" s="44"/>
+      <c r="AN40" s="44"/>
+      <c r="AO40" s="44"/>
+      <c r="AP40" s="44"/>
+      <c r="AQ40" s="44"/>
+      <c r="AR40" s="47"/>
+      <c r="AS40" s="47"/>
+      <c r="AT40" s="47"/>
+      <c r="AU40" s="47"/>
+      <c r="AV40" s="47"/>
+      <c r="AW40" s="44"/>
+      <c r="AX40" s="44"/>
+      <c r="AY40" s="44"/>
+      <c r="AZ40" s="44"/>
+      <c r="BA40" s="44"/>
+      <c r="BB40" s="44"/>
+      <c r="BC40" s="44"/>
+      <c r="BD40" s="44"/>
+      <c r="BE40" s="44"/>
+      <c r="BF40" s="44"/>
+      <c r="BG40" s="48"/>
+      <c r="BH40" s="48"/>
+      <c r="BI40" s="48"/>
+      <c r="BJ40" s="48"/>
+      <c r="BK40" s="48"/>
+      <c r="BL40" s="44"/>
+      <c r="BM40" s="44"/>
+      <c r="BN40" s="44"/>
+      <c r="BO40" s="44"/>
+      <c r="BP40" s="49"/>
+      <c r="BQ40" s="36"/>
     </row>
     <row r="41" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A41" s="37"/>
-      <c r="B41" s="38">
-        <v>4.2</v>
-      </c>
-      <c r="C41" s="39"/>
-      <c r="D41" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="E41" s="40"/>
-      <c r="F41" s="40"/>
-      <c r="G41" s="41">
+      <c r="A41" s="36"/>
+      <c r="B41" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="C41" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="D41" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="E41" s="39">
+        <v>885083</v>
+      </c>
+      <c r="F41" s="39">
+        <v>885089</v>
+      </c>
+      <c r="G41" s="40">
+        <v>7</v>
+      </c>
+      <c r="H41" s="41">
         <v>0</v>
       </c>
-      <c r="H41" s="42">
-        <v>0</v>
-      </c>
-      <c r="I41" s="51"/>
-      <c r="J41" s="52"/>
-      <c r="K41" s="53"/>
-      <c r="L41" s="53"/>
-      <c r="M41" s="53"/>
-      <c r="N41" s="46"/>
-      <c r="O41" s="46"/>
-      <c r="P41" s="46"/>
-      <c r="Q41" s="46"/>
-      <c r="R41" s="46"/>
-      <c r="S41" s="53"/>
-      <c r="T41" s="53"/>
-      <c r="U41" s="53"/>
-      <c r="V41" s="53"/>
-      <c r="W41" s="53"/>
-      <c r="X41" s="53"/>
-      <c r="Y41" s="53"/>
-      <c r="Z41" s="53"/>
-      <c r="AA41" s="53"/>
-      <c r="AB41" s="53"/>
-      <c r="AC41" s="56"/>
-      <c r="AD41" s="56"/>
-      <c r="AE41" s="56"/>
-      <c r="AF41" s="56"/>
-      <c r="AG41" s="56"/>
-      <c r="AH41" s="53"/>
-      <c r="AI41" s="53"/>
-      <c r="AJ41" s="53"/>
-      <c r="AK41" s="53"/>
-      <c r="AL41" s="53"/>
-      <c r="AM41" s="53"/>
-      <c r="AN41" s="53"/>
-      <c r="AO41" s="53"/>
-      <c r="AP41" s="53"/>
-      <c r="AQ41" s="53"/>
-      <c r="AR41" s="57"/>
-      <c r="AS41" s="57"/>
-      <c r="AT41" s="57"/>
-      <c r="AU41" s="57"/>
-      <c r="AV41" s="57"/>
-      <c r="AW41" s="53"/>
-      <c r="AX41" s="53"/>
-      <c r="AY41" s="53"/>
-      <c r="AZ41" s="53"/>
-      <c r="BA41" s="53"/>
-      <c r="BB41" s="53"/>
-      <c r="BC41" s="53"/>
-      <c r="BD41" s="53"/>
-      <c r="BE41" s="53"/>
-      <c r="BF41" s="53"/>
-      <c r="BG41" s="58"/>
-      <c r="BH41" s="58"/>
-      <c r="BI41" s="58"/>
-      <c r="BJ41" s="58"/>
-      <c r="BK41" s="58"/>
-      <c r="BL41" s="53"/>
-      <c r="BM41" s="53"/>
-      <c r="BN41" s="53"/>
-      <c r="BO41" s="53"/>
-      <c r="BP41" s="59"/>
-      <c r="BQ41" s="37"/>
+      <c r="I41" s="50"/>
+      <c r="J41" s="51"/>
+      <c r="K41" s="52"/>
+      <c r="L41" s="52"/>
+      <c r="M41" s="52"/>
+      <c r="N41" s="45"/>
+      <c r="O41" s="45"/>
+      <c r="P41" s="45"/>
+      <c r="Q41" s="45"/>
+      <c r="R41" s="45"/>
+      <c r="S41" s="52"/>
+      <c r="T41" s="52"/>
+      <c r="U41" s="52"/>
+      <c r="V41" s="52"/>
+      <c r="W41" s="52"/>
+      <c r="X41" s="52"/>
+      <c r="Y41" s="52"/>
+      <c r="Z41" s="52"/>
+      <c r="AA41" s="52"/>
+      <c r="AB41" s="52"/>
+      <c r="AC41" s="54"/>
+      <c r="AD41" s="54"/>
+      <c r="AE41" s="54"/>
+      <c r="AF41" s="54"/>
+      <c r="AG41" s="54"/>
+      <c r="AH41" s="52"/>
+      <c r="AI41" s="52"/>
+      <c r="AJ41" s="52"/>
+      <c r="AK41" s="52"/>
+      <c r="AL41" s="52"/>
+      <c r="AM41" s="52"/>
+      <c r="AN41" s="52"/>
+      <c r="AO41" s="52"/>
+      <c r="AP41" s="52"/>
+      <c r="AQ41" s="52"/>
+      <c r="AR41" s="55"/>
+      <c r="AS41" s="55"/>
+      <c r="AT41" s="55"/>
+      <c r="AU41" s="55"/>
+      <c r="AV41" s="55"/>
+      <c r="AW41" s="52"/>
+      <c r="AX41" s="52"/>
+      <c r="AY41" s="52"/>
+      <c r="AZ41" s="52"/>
+      <c r="BA41" s="52"/>
+      <c r="BB41" s="52"/>
+      <c r="BC41" s="52"/>
+      <c r="BD41" s="52"/>
+      <c r="BE41" s="52"/>
+      <c r="BF41" s="52"/>
+      <c r="BG41" s="56"/>
+      <c r="BH41" s="56"/>
+      <c r="BI41" s="56"/>
+      <c r="BJ41" s="56"/>
+      <c r="BK41" s="56"/>
+      <c r="BL41" s="52"/>
+      <c r="BM41" s="52"/>
+      <c r="BN41" s="52"/>
+      <c r="BO41" s="52"/>
+      <c r="BP41" s="57"/>
+      <c r="BQ41" s="36"/>
     </row>
     <row r="42" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A42" s="37"/>
-      <c r="B42" s="38">
-        <v>4.3</v>
-      </c>
-      <c r="C42" s="39"/>
-      <c r="D42" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="E42" s="40"/>
-      <c r="F42" s="40"/>
-      <c r="G42" s="41">
+      <c r="A42" s="36"/>
+      <c r="B42" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="C42" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="D42" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="E42" s="39">
+        <v>885083</v>
+      </c>
+      <c r="F42" s="39">
+        <v>885089</v>
+      </c>
+      <c r="G42" s="40">
+        <v>7</v>
+      </c>
+      <c r="H42" s="41">
         <v>0</v>
       </c>
-      <c r="H42" s="42">
-        <v>0</v>
-      </c>
-      <c r="I42" s="51"/>
-      <c r="J42" s="52"/>
-      <c r="K42" s="53"/>
-      <c r="L42" s="53"/>
-      <c r="M42" s="53"/>
-      <c r="N42" s="46"/>
-      <c r="O42" s="46"/>
-      <c r="P42" s="46"/>
-      <c r="Q42" s="46"/>
-      <c r="R42" s="46"/>
-      <c r="S42" s="45"/>
-      <c r="T42" s="45"/>
-      <c r="U42" s="45"/>
-      <c r="V42" s="45"/>
-      <c r="W42" s="53"/>
-      <c r="X42" s="53"/>
-      <c r="Y42" s="53"/>
-      <c r="Z42" s="53"/>
-      <c r="AA42" s="53"/>
-      <c r="AB42" s="53"/>
-      <c r="AC42" s="56"/>
-      <c r="AD42" s="56"/>
-      <c r="AE42" s="56"/>
-      <c r="AF42" s="56"/>
-      <c r="AG42" s="56"/>
-      <c r="AH42" s="53"/>
-      <c r="AI42" s="53"/>
-      <c r="AJ42" s="53"/>
-      <c r="AK42" s="53"/>
-      <c r="AL42" s="53"/>
-      <c r="AM42" s="53"/>
-      <c r="AN42" s="53"/>
-      <c r="AO42" s="53"/>
-      <c r="AP42" s="53"/>
-      <c r="AQ42" s="53"/>
-      <c r="AR42" s="57"/>
-      <c r="AS42" s="57"/>
-      <c r="AT42" s="57"/>
-      <c r="AU42" s="57"/>
-      <c r="AV42" s="57"/>
-      <c r="AW42" s="53"/>
-      <c r="AX42" s="53"/>
-      <c r="AY42" s="53"/>
-      <c r="AZ42" s="53"/>
-      <c r="BA42" s="53"/>
-      <c r="BB42" s="53"/>
-      <c r="BC42" s="53"/>
-      <c r="BD42" s="53"/>
-      <c r="BE42" s="53"/>
-      <c r="BF42" s="53"/>
-      <c r="BG42" s="58"/>
-      <c r="BH42" s="58"/>
-      <c r="BI42" s="58"/>
-      <c r="BJ42" s="58"/>
-      <c r="BK42" s="58"/>
-      <c r="BL42" s="53"/>
-      <c r="BM42" s="53"/>
-      <c r="BN42" s="53"/>
-      <c r="BO42" s="53"/>
-      <c r="BP42" s="59"/>
-      <c r="BQ42" s="37"/>
+      <c r="I42" s="50"/>
+      <c r="J42" s="51"/>
+      <c r="K42" s="52"/>
+      <c r="L42" s="52"/>
+      <c r="M42" s="52"/>
+      <c r="N42" s="45"/>
+      <c r="O42" s="45"/>
+      <c r="P42" s="45"/>
+      <c r="Q42" s="45"/>
+      <c r="R42" s="45"/>
+      <c r="S42" s="44"/>
+      <c r="T42" s="44"/>
+      <c r="U42" s="44"/>
+      <c r="V42" s="44"/>
+      <c r="W42" s="52"/>
+      <c r="X42" s="52"/>
+      <c r="Y42" s="52"/>
+      <c r="Z42" s="52"/>
+      <c r="AA42" s="52"/>
+      <c r="AB42" s="52"/>
+      <c r="AC42" s="54"/>
+      <c r="AD42" s="54"/>
+      <c r="AE42" s="54"/>
+      <c r="AF42" s="54"/>
+      <c r="AG42" s="54"/>
+      <c r="AH42" s="52"/>
+      <c r="AI42" s="52"/>
+      <c r="AJ42" s="52"/>
+      <c r="AK42" s="52"/>
+      <c r="AL42" s="52"/>
+      <c r="AM42" s="52"/>
+      <c r="AN42" s="52"/>
+      <c r="AO42" s="52"/>
+      <c r="AP42" s="52"/>
+      <c r="AQ42" s="52"/>
+      <c r="AR42" s="55"/>
+      <c r="AS42" s="55"/>
+      <c r="AT42" s="55"/>
+      <c r="AU42" s="55"/>
+      <c r="AV42" s="55"/>
+      <c r="AW42" s="52"/>
+      <c r="AX42" s="52"/>
+      <c r="AY42" s="52"/>
+      <c r="AZ42" s="52"/>
+      <c r="BA42" s="52"/>
+      <c r="BB42" s="52"/>
+      <c r="BC42" s="52"/>
+      <c r="BD42" s="52"/>
+      <c r="BE42" s="52"/>
+      <c r="BF42" s="52"/>
+      <c r="BG42" s="56"/>
+      <c r="BH42" s="56"/>
+      <c r="BI42" s="56"/>
+      <c r="BJ42" s="56"/>
+      <c r="BK42" s="56"/>
+      <c r="BL42" s="52"/>
+      <c r="BM42" s="52"/>
+      <c r="BN42" s="52"/>
+      <c r="BO42" s="52"/>
+      <c r="BP42" s="57"/>
+      <c r="BQ42" s="36"/>
     </row>
     <row r="43" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A43" s="37"/>
-      <c r="B43" s="38">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="C43" s="39"/>
-      <c r="D43" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="E43" s="40"/>
-      <c r="F43" s="40"/>
-      <c r="G43" s="41">
+      <c r="A43" s="36"/>
+      <c r="B43" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="C43" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="D43" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="E43" s="39">
+        <v>885083</v>
+      </c>
+      <c r="F43" s="39">
+        <v>885089</v>
+      </c>
+      <c r="G43" s="40">
+        <v>7</v>
+      </c>
+      <c r="H43" s="41">
         <v>0</v>
       </c>
-      <c r="H43" s="60">
+      <c r="I43" s="50"/>
+      <c r="J43" s="51"/>
+      <c r="K43" s="52"/>
+      <c r="L43" s="52"/>
+      <c r="M43" s="52"/>
+      <c r="N43" s="45"/>
+      <c r="O43" s="45"/>
+      <c r="P43" s="45"/>
+      <c r="Q43" s="45"/>
+      <c r="R43" s="45"/>
+      <c r="S43" s="44"/>
+      <c r="T43" s="44"/>
+      <c r="U43" s="44"/>
+      <c r="V43" s="44"/>
+      <c r="W43" s="52"/>
+      <c r="X43" s="52"/>
+      <c r="Y43" s="52"/>
+      <c r="Z43" s="52"/>
+      <c r="AA43" s="52"/>
+      <c r="AB43" s="52"/>
+      <c r="AC43" s="54"/>
+      <c r="AD43" s="54"/>
+      <c r="AE43" s="54"/>
+      <c r="AF43" s="54"/>
+      <c r="AG43" s="54"/>
+      <c r="AH43" s="52"/>
+      <c r="AI43" s="52"/>
+      <c r="AJ43" s="52"/>
+      <c r="AK43" s="52"/>
+      <c r="AL43" s="52"/>
+      <c r="AM43" s="52"/>
+      <c r="AN43" s="52"/>
+      <c r="AO43" s="52"/>
+      <c r="AP43" s="52"/>
+      <c r="AQ43" s="52"/>
+      <c r="AR43" s="55"/>
+      <c r="AS43" s="55"/>
+      <c r="AT43" s="55"/>
+      <c r="AU43" s="55"/>
+      <c r="AV43" s="55"/>
+      <c r="AW43" s="52"/>
+      <c r="AX43" s="52"/>
+      <c r="AY43" s="52"/>
+      <c r="AZ43" s="52"/>
+      <c r="BA43" s="52"/>
+      <c r="BB43" s="52"/>
+      <c r="BC43" s="52"/>
+      <c r="BD43" s="52"/>
+      <c r="BE43" s="52"/>
+      <c r="BF43" s="52"/>
+      <c r="BG43" s="56"/>
+      <c r="BH43" s="56"/>
+      <c r="BI43" s="56"/>
+      <c r="BJ43" s="56"/>
+      <c r="BK43" s="56"/>
+      <c r="BL43" s="52"/>
+      <c r="BM43" s="52"/>
+      <c r="BN43" s="52"/>
+      <c r="BO43" s="52"/>
+      <c r="BP43" s="57"/>
+      <c r="BQ43" s="36"/>
+    </row>
+    <row r="44" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A44" s="36"/>
+      <c r="B44" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="C44" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="D44" s="38" t="s">
+        <v>113</v>
+      </c>
+      <c r="E44" s="39">
+        <v>885083</v>
+      </c>
+      <c r="F44" s="39">
+        <v>885089</v>
+      </c>
+      <c r="G44" s="40">
+        <v>7</v>
+      </c>
+      <c r="H44" s="41">
         <v>0</v>
       </c>
-      <c r="I43" s="51"/>
-      <c r="J43" s="52"/>
-      <c r="K43" s="53"/>
-      <c r="L43" s="53"/>
-      <c r="M43" s="53"/>
-      <c r="N43" s="46"/>
-      <c r="O43" s="46"/>
-      <c r="P43" s="46"/>
-      <c r="Q43" s="46"/>
-      <c r="R43" s="46"/>
-      <c r="S43" s="45"/>
-      <c r="T43" s="45"/>
-      <c r="U43" s="45"/>
-      <c r="V43" s="45"/>
-      <c r="W43" s="53"/>
-      <c r="X43" s="53"/>
-      <c r="Y43" s="53"/>
-      <c r="Z43" s="53"/>
-      <c r="AA43" s="53"/>
-      <c r="AB43" s="53"/>
-      <c r="AC43" s="56"/>
-      <c r="AD43" s="56"/>
-      <c r="AE43" s="56"/>
-      <c r="AF43" s="56"/>
-      <c r="AG43" s="56"/>
-      <c r="AH43" s="53"/>
-      <c r="AI43" s="53"/>
-      <c r="AJ43" s="53"/>
-      <c r="AK43" s="53"/>
-      <c r="AL43" s="53"/>
-      <c r="AM43" s="53"/>
-      <c r="AN43" s="53"/>
-      <c r="AO43" s="53"/>
-      <c r="AP43" s="53"/>
-      <c r="AQ43" s="53"/>
-      <c r="AR43" s="57"/>
-      <c r="AS43" s="57"/>
-      <c r="AT43" s="57"/>
-      <c r="AU43" s="57"/>
-      <c r="AV43" s="57"/>
-      <c r="AW43" s="53"/>
-      <c r="AX43" s="53"/>
-      <c r="AY43" s="53"/>
-      <c r="AZ43" s="53"/>
-      <c r="BA43" s="53"/>
-      <c r="BB43" s="53"/>
-      <c r="BC43" s="53"/>
-      <c r="BD43" s="53"/>
-      <c r="BE43" s="53"/>
-      <c r="BF43" s="53"/>
-      <c r="BG43" s="58"/>
-      <c r="BH43" s="58"/>
-      <c r="BI43" s="58"/>
-      <c r="BJ43" s="58"/>
-      <c r="BK43" s="58"/>
-      <c r="BL43" s="53"/>
-      <c r="BM43" s="53"/>
-      <c r="BN43" s="53"/>
-      <c r="BO43" s="53"/>
-      <c r="BP43" s="59"/>
-      <c r="BQ43" s="37"/>
+      <c r="I44" s="50"/>
+      <c r="J44" s="51"/>
+      <c r="K44" s="52"/>
+      <c r="L44" s="52"/>
+      <c r="M44" s="52"/>
+      <c r="N44" s="45"/>
+      <c r="O44" s="45"/>
+      <c r="P44" s="45"/>
+      <c r="Q44" s="45"/>
+      <c r="R44" s="45"/>
+      <c r="S44" s="44"/>
+      <c r="T44" s="44"/>
+      <c r="U44" s="44"/>
+      <c r="V44" s="44"/>
+      <c r="W44" s="52"/>
+      <c r="X44" s="52"/>
+      <c r="Y44" s="52"/>
+      <c r="Z44" s="52"/>
+      <c r="AA44" s="52"/>
+      <c r="AB44" s="52"/>
+      <c r="AC44" s="54"/>
+      <c r="AD44" s="54"/>
+      <c r="AE44" s="54"/>
+      <c r="AF44" s="54"/>
+      <c r="AG44" s="54"/>
+      <c r="AH44" s="52"/>
+      <c r="AI44" s="52"/>
+      <c r="AJ44" s="52"/>
+      <c r="AK44" s="52"/>
+      <c r="AL44" s="52"/>
+      <c r="AM44" s="52"/>
+      <c r="AN44" s="52"/>
+      <c r="AO44" s="52"/>
+      <c r="AP44" s="52"/>
+      <c r="AQ44" s="52"/>
+      <c r="AR44" s="55"/>
+      <c r="AS44" s="55"/>
+      <c r="AT44" s="55"/>
+      <c r="AU44" s="55"/>
+      <c r="AV44" s="55"/>
+      <c r="AW44" s="52"/>
+      <c r="AX44" s="52"/>
+      <c r="AY44" s="52"/>
+      <c r="AZ44" s="52"/>
+      <c r="BA44" s="52"/>
+      <c r="BB44" s="52"/>
+      <c r="BC44" s="52"/>
+      <c r="BD44" s="52"/>
+      <c r="BE44" s="52"/>
+      <c r="BF44" s="52"/>
+      <c r="BG44" s="56"/>
+      <c r="BH44" s="56"/>
+      <c r="BI44" s="56"/>
+      <c r="BJ44" s="56"/>
+      <c r="BK44" s="56"/>
+      <c r="BL44" s="52"/>
+      <c r="BM44" s="52"/>
+      <c r="BN44" s="52"/>
+      <c r="BO44" s="52"/>
+      <c r="BP44" s="57"/>
+      <c r="BQ44" s="36"/>
     </row>
-    <row r="44" spans="1:69" ht="21" customHeight="1">
-      <c r="A44" s="21"/>
-      <c r="B44" s="21"/>
-      <c r="C44" s="21"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="21"/>
-      <c r="F44" s="21"/>
-      <c r="G44" s="74"/>
-      <c r="H44" s="74"/>
-      <c r="I44" s="21"/>
-      <c r="J44" s="21"/>
-      <c r="K44" s="21"/>
-      <c r="L44" s="21"/>
-      <c r="M44" s="21"/>
-      <c r="N44" s="21"/>
-      <c r="O44" s="21"/>
-      <c r="P44" s="21"/>
-      <c r="Q44" s="21"/>
-      <c r="R44" s="21"/>
-      <c r="S44" s="21"/>
-      <c r="T44" s="21"/>
-      <c r="U44" s="21"/>
-      <c r="V44" s="21"/>
-      <c r="W44" s="21"/>
-      <c r="X44" s="21"/>
-      <c r="Y44" s="21"/>
-      <c r="Z44" s="21"/>
-      <c r="AA44" s="21"/>
-      <c r="AB44" s="21"/>
-      <c r="AC44" s="21"/>
-      <c r="AD44" s="21"/>
-      <c r="AE44" s="21"/>
-      <c r="AF44" s="21"/>
-      <c r="AG44" s="21"/>
-      <c r="AH44" s="21"/>
-      <c r="AI44" s="21"/>
-      <c r="AJ44" s="21"/>
-      <c r="AK44" s="21"/>
-      <c r="AL44" s="21"/>
-      <c r="AM44" s="21"/>
-      <c r="AN44" s="21"/>
-      <c r="AO44" s="21"/>
-      <c r="AP44" s="21"/>
-      <c r="AQ44" s="21"/>
-      <c r="AR44" s="21"/>
-      <c r="AS44" s="21"/>
-      <c r="AT44" s="21"/>
-      <c r="AU44" s="21"/>
-      <c r="AV44" s="21"/>
-      <c r="AW44" s="21"/>
-      <c r="AX44" s="21"/>
-      <c r="AY44" s="21"/>
-      <c r="AZ44" s="21"/>
-      <c r="BA44" s="21"/>
-      <c r="BB44" s="21"/>
-      <c r="BC44" s="21"/>
-      <c r="BD44" s="21"/>
-      <c r="BE44" s="21"/>
-      <c r="BF44" s="21"/>
-      <c r="BG44" s="21"/>
-      <c r="BH44" s="21"/>
-      <c r="BI44" s="21"/>
-      <c r="BJ44" s="21"/>
-      <c r="BK44" s="21"/>
-      <c r="BL44" s="21"/>
-      <c r="BM44" s="21"/>
-      <c r="BN44" s="21"/>
-      <c r="BO44" s="21"/>
-      <c r="BP44" s="21"/>
-      <c r="BQ44" s="21"/>
+    <row r="45" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A45" s="36"/>
+      <c r="B45" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="C45" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="D45" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="E45" s="39">
+        <v>45033</v>
+      </c>
+      <c r="F45" s="39">
+        <v>45039</v>
+      </c>
+      <c r="G45" s="40">
+        <v>7</v>
+      </c>
+      <c r="H45" s="41">
+        <v>0</v>
+      </c>
+      <c r="I45" s="50"/>
+      <c r="J45" s="51"/>
+      <c r="K45" s="52"/>
+      <c r="L45" s="52"/>
+      <c r="M45" s="52"/>
+      <c r="N45" s="45"/>
+      <c r="O45" s="45"/>
+      <c r="P45" s="45"/>
+      <c r="Q45" s="45"/>
+      <c r="R45" s="45"/>
+      <c r="S45" s="44"/>
+      <c r="T45" s="44"/>
+      <c r="U45" s="44"/>
+      <c r="V45" s="44"/>
+      <c r="W45" s="52"/>
+      <c r="X45" s="52"/>
+      <c r="Y45" s="52"/>
+      <c r="Z45" s="52"/>
+      <c r="AA45" s="52"/>
+      <c r="AB45" s="52"/>
+      <c r="AC45" s="54"/>
+      <c r="AD45" s="54"/>
+      <c r="AE45" s="54"/>
+      <c r="AF45" s="54"/>
+      <c r="AG45" s="54"/>
+      <c r="AH45" s="52"/>
+      <c r="AI45" s="52"/>
+      <c r="AJ45" s="52"/>
+      <c r="AK45" s="52"/>
+      <c r="AL45" s="52"/>
+      <c r="AM45" s="52"/>
+      <c r="AN45" s="52"/>
+      <c r="AO45" s="52"/>
+      <c r="AP45" s="52"/>
+      <c r="AQ45" s="52"/>
+      <c r="AR45" s="55"/>
+      <c r="AS45" s="55"/>
+      <c r="AT45" s="55"/>
+      <c r="AU45" s="55"/>
+      <c r="AV45" s="55"/>
+      <c r="AW45" s="52"/>
+      <c r="AX45" s="52"/>
+      <c r="AY45" s="52"/>
+      <c r="AZ45" s="52"/>
+      <c r="BA45" s="52"/>
+      <c r="BB45" s="52"/>
+      <c r="BC45" s="52"/>
+      <c r="BD45" s="52"/>
+      <c r="BE45" s="52"/>
+      <c r="BF45" s="52"/>
+      <c r="BG45" s="56"/>
+      <c r="BH45" s="56"/>
+      <c r="BI45" s="56"/>
+      <c r="BJ45" s="56"/>
+      <c r="BK45" s="56"/>
+      <c r="BL45" s="52"/>
+      <c r="BM45" s="52"/>
+      <c r="BN45" s="52"/>
+      <c r="BO45" s="52"/>
+      <c r="BP45" s="57"/>
+      <c r="BQ45" s="36"/>
     </row>
-    <row r="45" spans="1:69" ht="21" customHeight="1">
-      <c r="A45" s="21"/>
-      <c r="B45" s="21"/>
-      <c r="C45" s="21"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="21"/>
-      <c r="F45" s="21"/>
-      <c r="G45" s="74"/>
-      <c r="H45" s="74"/>
-      <c r="I45" s="21"/>
-      <c r="J45" s="21"/>
-      <c r="K45" s="21"/>
-      <c r="L45" s="21"/>
-      <c r="M45" s="21"/>
-      <c r="N45" s="21"/>
-      <c r="O45" s="21"/>
-      <c r="P45" s="21"/>
-      <c r="Q45" s="21"/>
-      <c r="R45" s="21"/>
-      <c r="S45" s="21"/>
-      <c r="T45" s="21"/>
-      <c r="U45" s="21"/>
-      <c r="V45" s="21"/>
-      <c r="W45" s="21"/>
-      <c r="X45" s="21"/>
-      <c r="Y45" s="21"/>
-      <c r="Z45" s="21"/>
-      <c r="AA45" s="21"/>
-      <c r="AB45" s="21"/>
-      <c r="AC45" s="21"/>
-      <c r="AD45" s="21"/>
-      <c r="AE45" s="21"/>
-      <c r="AF45" s="21"/>
-      <c r="AG45" s="21"/>
-      <c r="AH45" s="21"/>
-      <c r="AI45" s="21"/>
-      <c r="AJ45" s="21"/>
-      <c r="AK45" s="21"/>
-      <c r="AL45" s="21"/>
-      <c r="AM45" s="21"/>
-      <c r="AN45" s="21"/>
-      <c r="AO45" s="21"/>
-      <c r="AP45" s="21"/>
-      <c r="AQ45" s="21"/>
-      <c r="AR45" s="21"/>
-      <c r="AS45" s="21"/>
-      <c r="AT45" s="21"/>
-      <c r="AU45" s="21"/>
-      <c r="AV45" s="21"/>
-      <c r="AW45" s="21"/>
-      <c r="AX45" s="21"/>
-      <c r="AY45" s="21"/>
-      <c r="AZ45" s="21"/>
-      <c r="BA45" s="21"/>
-      <c r="BB45" s="21"/>
-      <c r="BC45" s="21"/>
-      <c r="BD45" s="21"/>
-      <c r="BE45" s="21"/>
-      <c r="BF45" s="21"/>
-      <c r="BG45" s="21"/>
-      <c r="BH45" s="21"/>
-      <c r="BI45" s="21"/>
-      <c r="BJ45" s="21"/>
-      <c r="BK45" s="21"/>
-      <c r="BL45" s="21"/>
-      <c r="BM45" s="21"/>
-      <c r="BN45" s="21"/>
-      <c r="BO45" s="21"/>
-      <c r="BP45" s="21"/>
-      <c r="BQ45" s="21"/>
+    <row r="46" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A46" s="36"/>
+      <c r="B46" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="C46" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="D46" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="E46" s="39">
+        <v>45033</v>
+      </c>
+      <c r="F46" s="39">
+        <v>45039</v>
+      </c>
+      <c r="G46" s="40">
+        <v>7</v>
+      </c>
+      <c r="H46" s="41">
+        <v>0</v>
+      </c>
+      <c r="I46" s="50"/>
+      <c r="J46" s="51"/>
+      <c r="K46" s="52"/>
+      <c r="L46" s="52"/>
+      <c r="M46" s="52"/>
+      <c r="N46" s="45"/>
+      <c r="O46" s="45"/>
+      <c r="P46" s="45"/>
+      <c r="Q46" s="45"/>
+      <c r="R46" s="45"/>
+      <c r="S46" s="44"/>
+      <c r="T46" s="44"/>
+      <c r="U46" s="44"/>
+      <c r="V46" s="44"/>
+      <c r="W46" s="52"/>
+      <c r="X46" s="52"/>
+      <c r="Y46" s="52"/>
+      <c r="Z46" s="52"/>
+      <c r="AA46" s="52"/>
+      <c r="AB46" s="52"/>
+      <c r="AC46" s="54"/>
+      <c r="AD46" s="54"/>
+      <c r="AE46" s="54"/>
+      <c r="AF46" s="54"/>
+      <c r="AG46" s="54"/>
+      <c r="AH46" s="52"/>
+      <c r="AI46" s="52"/>
+      <c r="AJ46" s="52"/>
+      <c r="AK46" s="52"/>
+      <c r="AL46" s="52"/>
+      <c r="AM46" s="52"/>
+      <c r="AN46" s="52"/>
+      <c r="AO46" s="52"/>
+      <c r="AP46" s="52"/>
+      <c r="AQ46" s="52"/>
+      <c r="AR46" s="55"/>
+      <c r="AS46" s="55"/>
+      <c r="AT46" s="55"/>
+      <c r="AU46" s="55"/>
+      <c r="AV46" s="55"/>
+      <c r="AW46" s="52"/>
+      <c r="AX46" s="52"/>
+      <c r="AY46" s="52"/>
+      <c r="AZ46" s="52"/>
+      <c r="BA46" s="52"/>
+      <c r="BB46" s="52"/>
+      <c r="BC46" s="52"/>
+      <c r="BD46" s="52"/>
+      <c r="BE46" s="52"/>
+      <c r="BF46" s="52"/>
+      <c r="BG46" s="56"/>
+      <c r="BH46" s="56"/>
+      <c r="BI46" s="56"/>
+      <c r="BJ46" s="56"/>
+      <c r="BK46" s="56"/>
+      <c r="BL46" s="52"/>
+      <c r="BM46" s="52"/>
+      <c r="BN46" s="52"/>
+      <c r="BO46" s="52"/>
+      <c r="BP46" s="57"/>
+      <c r="BQ46" s="36"/>
     </row>
-    <row r="46" spans="1:69" ht="21" customHeight="1">
-      <c r="A46" s="21"/>
-      <c r="B46" s="21"/>
-      <c r="C46" s="21"/>
-      <c r="D46" s="21"/>
-      <c r="E46" s="21"/>
-      <c r="F46" s="21"/>
-      <c r="G46" s="74"/>
-      <c r="H46" s="74"/>
-      <c r="I46" s="21"/>
-      <c r="J46" s="21"/>
-      <c r="K46" s="21"/>
-      <c r="L46" s="21"/>
-      <c r="M46" s="21"/>
-      <c r="N46" s="21"/>
-      <c r="O46" s="21"/>
-      <c r="P46" s="21"/>
-      <c r="Q46" s="21"/>
-      <c r="R46" s="21"/>
-      <c r="S46" s="21"/>
-      <c r="T46" s="21"/>
-      <c r="U46" s="21"/>
-      <c r="V46" s="21"/>
-      <c r="W46" s="21"/>
-      <c r="X46" s="21"/>
-      <c r="Y46" s="21"/>
-      <c r="Z46" s="21"/>
-      <c r="AA46" s="21"/>
-      <c r="AB46" s="21"/>
-      <c r="AC46" s="21"/>
-      <c r="AD46" s="21"/>
-      <c r="AE46" s="21"/>
-      <c r="AF46" s="21"/>
-      <c r="AG46" s="21"/>
-      <c r="AH46" s="21"/>
-      <c r="AI46" s="21"/>
-      <c r="AJ46" s="21"/>
-      <c r="AK46" s="21"/>
-      <c r="AL46" s="21"/>
-      <c r="AM46" s="21"/>
-      <c r="AN46" s="21"/>
-      <c r="AO46" s="21"/>
-      <c r="AP46" s="21"/>
-      <c r="AQ46" s="21"/>
-      <c r="AR46" s="21"/>
-      <c r="AS46" s="21"/>
-      <c r="AT46" s="21"/>
-      <c r="AU46" s="21"/>
-      <c r="AV46" s="21"/>
-      <c r="AW46" s="21"/>
-      <c r="AX46" s="21"/>
-      <c r="AY46" s="21"/>
-      <c r="AZ46" s="21"/>
-      <c r="BA46" s="21"/>
-      <c r="BB46" s="21"/>
-      <c r="BC46" s="21"/>
-      <c r="BD46" s="21"/>
-      <c r="BE46" s="21"/>
-      <c r="BF46" s="21"/>
-      <c r="BG46" s="21"/>
-      <c r="BH46" s="21"/>
-      <c r="BI46" s="21"/>
-      <c r="BJ46" s="21"/>
-      <c r="BK46" s="21"/>
-      <c r="BL46" s="21"/>
-      <c r="BM46" s="21"/>
-      <c r="BN46" s="21"/>
-      <c r="BO46" s="21"/>
-      <c r="BP46" s="21"/>
-      <c r="BQ46" s="21"/>
+    <row r="47" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A47" s="36"/>
+      <c r="B47" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="C47" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="D47" s="38" t="s">
+        <v>113</v>
+      </c>
+      <c r="E47" s="39">
+        <v>45033</v>
+      </c>
+      <c r="F47" s="39">
+        <v>45039</v>
+      </c>
+      <c r="G47" s="40">
+        <v>7</v>
+      </c>
+      <c r="H47" s="41">
+        <v>0</v>
+      </c>
+      <c r="I47" s="50"/>
+      <c r="J47" s="51"/>
+      <c r="K47" s="52"/>
+      <c r="L47" s="52"/>
+      <c r="M47" s="52"/>
+      <c r="N47" s="45"/>
+      <c r="O47" s="45"/>
+      <c r="P47" s="45"/>
+      <c r="Q47" s="45"/>
+      <c r="R47" s="45"/>
+      <c r="S47" s="44"/>
+      <c r="T47" s="44"/>
+      <c r="U47" s="44"/>
+      <c r="V47" s="44"/>
+      <c r="W47" s="52"/>
+      <c r="X47" s="52"/>
+      <c r="Y47" s="52"/>
+      <c r="Z47" s="52"/>
+      <c r="AA47" s="52"/>
+      <c r="AB47" s="52"/>
+      <c r="AC47" s="54"/>
+      <c r="AD47" s="54"/>
+      <c r="AE47" s="54"/>
+      <c r="AF47" s="54"/>
+      <c r="AG47" s="54"/>
+      <c r="AH47" s="52"/>
+      <c r="AI47" s="52"/>
+      <c r="AJ47" s="52"/>
+      <c r="AK47" s="52"/>
+      <c r="AL47" s="52"/>
+      <c r="AM47" s="52"/>
+      <c r="AN47" s="52"/>
+      <c r="AO47" s="52"/>
+      <c r="AP47" s="52"/>
+      <c r="AQ47" s="52"/>
+      <c r="AR47" s="55"/>
+      <c r="AS47" s="55"/>
+      <c r="AT47" s="55"/>
+      <c r="AU47" s="55"/>
+      <c r="AV47" s="55"/>
+      <c r="AW47" s="52"/>
+      <c r="AX47" s="52"/>
+      <c r="AY47" s="52"/>
+      <c r="AZ47" s="52"/>
+      <c r="BA47" s="52"/>
+      <c r="BB47" s="52"/>
+      <c r="BC47" s="52"/>
+      <c r="BD47" s="52"/>
+      <c r="BE47" s="52"/>
+      <c r="BF47" s="52"/>
+      <c r="BG47" s="56"/>
+      <c r="BH47" s="56"/>
+      <c r="BI47" s="56"/>
+      <c r="BJ47" s="56"/>
+      <c r="BK47" s="56"/>
+      <c r="BL47" s="52"/>
+      <c r="BM47" s="52"/>
+      <c r="BN47" s="52"/>
+      <c r="BO47" s="52"/>
+      <c r="BP47" s="57"/>
+      <c r="BQ47" s="36"/>
+    </row>
+    <row r="48" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A48" s="36"/>
+      <c r="B48" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="C48" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="D48" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="E48" s="39">
+        <v>45033</v>
+      </c>
+      <c r="F48" s="39">
+        <v>45039</v>
+      </c>
+      <c r="G48" s="40">
+        <v>7</v>
+      </c>
+      <c r="H48" s="41">
+        <v>0</v>
+      </c>
+      <c r="I48" s="50"/>
+      <c r="J48" s="51"/>
+      <c r="K48" s="52"/>
+      <c r="L48" s="52"/>
+      <c r="M48" s="52"/>
+      <c r="N48" s="45"/>
+      <c r="O48" s="45"/>
+      <c r="P48" s="45"/>
+      <c r="Q48" s="45"/>
+      <c r="R48" s="45"/>
+      <c r="S48" s="44"/>
+      <c r="T48" s="44"/>
+      <c r="U48" s="44"/>
+      <c r="V48" s="44"/>
+      <c r="W48" s="52"/>
+      <c r="X48" s="52"/>
+      <c r="Y48" s="52"/>
+      <c r="Z48" s="52"/>
+      <c r="AA48" s="52"/>
+      <c r="AB48" s="52"/>
+      <c r="AC48" s="54"/>
+      <c r="AD48" s="54"/>
+      <c r="AE48" s="54"/>
+      <c r="AF48" s="54"/>
+      <c r="AG48" s="54"/>
+      <c r="AH48" s="52"/>
+      <c r="AI48" s="52"/>
+      <c r="AJ48" s="52"/>
+      <c r="AK48" s="52"/>
+      <c r="AL48" s="52"/>
+      <c r="AM48" s="52"/>
+      <c r="AN48" s="52"/>
+      <c r="AO48" s="52"/>
+      <c r="AP48" s="52"/>
+      <c r="AQ48" s="52"/>
+      <c r="AR48" s="55"/>
+      <c r="AS48" s="55"/>
+      <c r="AT48" s="55"/>
+      <c r="AU48" s="55"/>
+      <c r="AV48" s="55"/>
+      <c r="AW48" s="52"/>
+      <c r="AX48" s="52"/>
+      <c r="AY48" s="52"/>
+      <c r="AZ48" s="52"/>
+      <c r="BA48" s="52"/>
+      <c r="BB48" s="52"/>
+      <c r="BC48" s="52"/>
+      <c r="BD48" s="52"/>
+      <c r="BE48" s="52"/>
+      <c r="BF48" s="52"/>
+      <c r="BG48" s="56"/>
+      <c r="BH48" s="56"/>
+      <c r="BI48" s="56"/>
+      <c r="BJ48" s="56"/>
+      <c r="BK48" s="56"/>
+      <c r="BL48" s="52"/>
+      <c r="BM48" s="52"/>
+      <c r="BN48" s="52"/>
+      <c r="BO48" s="52"/>
+      <c r="BP48" s="57"/>
+      <c r="BQ48" s="36"/>
+    </row>
+    <row r="49" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A49" s="36"/>
+      <c r="B49" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="C49" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="D49" s="82"/>
+      <c r="E49" s="39">
+        <v>45040</v>
+      </c>
+      <c r="F49" s="39">
+        <v>45046</v>
+      </c>
+      <c r="G49" s="40">
+        <v>7</v>
+      </c>
+      <c r="H49" s="41">
+        <v>0</v>
+      </c>
+      <c r="I49" s="50"/>
+      <c r="J49" s="51"/>
+      <c r="K49" s="52"/>
+      <c r="L49" s="52"/>
+      <c r="M49" s="52"/>
+      <c r="N49" s="45"/>
+      <c r="O49" s="45"/>
+      <c r="P49" s="45"/>
+      <c r="Q49" s="45"/>
+      <c r="R49" s="45"/>
+      <c r="S49" s="44"/>
+      <c r="T49" s="44"/>
+      <c r="U49" s="44"/>
+      <c r="V49" s="44"/>
+      <c r="W49" s="52"/>
+      <c r="X49" s="52"/>
+      <c r="Y49" s="52"/>
+      <c r="Z49" s="52"/>
+      <c r="AA49" s="52"/>
+      <c r="AB49" s="52"/>
+      <c r="AC49" s="54"/>
+      <c r="AD49" s="54"/>
+      <c r="AE49" s="54"/>
+      <c r="AF49" s="54"/>
+      <c r="AG49" s="54"/>
+      <c r="AH49" s="52"/>
+      <c r="AI49" s="52"/>
+      <c r="AJ49" s="52"/>
+      <c r="AK49" s="52"/>
+      <c r="AL49" s="52"/>
+      <c r="AM49" s="52"/>
+      <c r="AN49" s="52"/>
+      <c r="AO49" s="52"/>
+      <c r="AP49" s="52"/>
+      <c r="AQ49" s="52"/>
+      <c r="AR49" s="55"/>
+      <c r="AS49" s="55"/>
+      <c r="AT49" s="55"/>
+      <c r="AU49" s="55"/>
+      <c r="AV49" s="55"/>
+      <c r="AW49" s="52"/>
+      <c r="AX49" s="52"/>
+      <c r="AY49" s="52"/>
+      <c r="AZ49" s="52"/>
+      <c r="BA49" s="52"/>
+      <c r="BB49" s="52"/>
+      <c r="BC49" s="52"/>
+      <c r="BD49" s="52"/>
+      <c r="BE49" s="52"/>
+      <c r="BF49" s="52"/>
+      <c r="BG49" s="56"/>
+      <c r="BH49" s="56"/>
+      <c r="BI49" s="56"/>
+      <c r="BJ49" s="56"/>
+      <c r="BK49" s="56"/>
+      <c r="BL49" s="52"/>
+      <c r="BM49" s="52"/>
+      <c r="BN49" s="52"/>
+      <c r="BO49" s="52"/>
+      <c r="BP49" s="57"/>
+      <c r="BQ49" s="36"/>
+    </row>
+    <row r="50" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A50" s="36"/>
+      <c r="B50" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="C50" s="38" t="s">
+        <v>116</v>
+      </c>
+      <c r="D50" s="82"/>
+      <c r="E50" s="39">
+        <v>45040</v>
+      </c>
+      <c r="F50" s="39">
+        <v>45046</v>
+      </c>
+      <c r="G50" s="40">
+        <v>7</v>
+      </c>
+      <c r="H50" s="41">
+        <v>0</v>
+      </c>
+      <c r="I50" s="50"/>
+      <c r="J50" s="51"/>
+      <c r="K50" s="52"/>
+      <c r="L50" s="52"/>
+      <c r="M50" s="52"/>
+      <c r="N50" s="45"/>
+      <c r="O50" s="45"/>
+      <c r="P50" s="45"/>
+      <c r="Q50" s="45"/>
+      <c r="R50" s="45"/>
+      <c r="S50" s="44"/>
+      <c r="T50" s="44"/>
+      <c r="U50" s="44"/>
+      <c r="V50" s="44"/>
+      <c r="W50" s="52"/>
+      <c r="X50" s="52"/>
+      <c r="Y50" s="52"/>
+      <c r="Z50" s="52"/>
+      <c r="AA50" s="52"/>
+      <c r="AB50" s="52"/>
+      <c r="AC50" s="54"/>
+      <c r="AD50" s="54"/>
+      <c r="AE50" s="54"/>
+      <c r="AF50" s="54"/>
+      <c r="AG50" s="54"/>
+      <c r="AH50" s="52"/>
+      <c r="AI50" s="52"/>
+      <c r="AJ50" s="52"/>
+      <c r="AK50" s="52"/>
+      <c r="AL50" s="52"/>
+      <c r="AM50" s="52"/>
+      <c r="AN50" s="52"/>
+      <c r="AO50" s="52"/>
+      <c r="AP50" s="52"/>
+      <c r="AQ50" s="52"/>
+      <c r="AR50" s="55"/>
+      <c r="AS50" s="55"/>
+      <c r="AT50" s="55"/>
+      <c r="AU50" s="55"/>
+      <c r="AV50" s="55"/>
+      <c r="AW50" s="52"/>
+      <c r="AX50" s="52"/>
+      <c r="AY50" s="52"/>
+      <c r="AZ50" s="52"/>
+      <c r="BA50" s="52"/>
+      <c r="BB50" s="52"/>
+      <c r="BC50" s="52"/>
+      <c r="BD50" s="52"/>
+      <c r="BE50" s="52"/>
+      <c r="BF50" s="52"/>
+      <c r="BG50" s="56"/>
+      <c r="BH50" s="56"/>
+      <c r="BI50" s="56"/>
+      <c r="BJ50" s="56"/>
+      <c r="BK50" s="56"/>
+      <c r="BL50" s="52"/>
+      <c r="BM50" s="52"/>
+      <c r="BN50" s="52"/>
+      <c r="BO50" s="52"/>
+      <c r="BP50" s="57"/>
+      <c r="BQ50" s="36"/>
+    </row>
+    <row r="51" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A51" s="36"/>
+      <c r="B51" s="37">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C51" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="D51" s="74" t="s">
+        <v>94</v>
+      </c>
+      <c r="E51" s="39">
+        <v>885083</v>
+      </c>
+      <c r="F51" s="39">
+        <v>885103</v>
+      </c>
+      <c r="G51" s="40">
+        <v>21</v>
+      </c>
+      <c r="H51" s="41">
+        <v>0</v>
+      </c>
+      <c r="I51" s="50"/>
+      <c r="J51" s="51"/>
+      <c r="K51" s="52"/>
+      <c r="L51" s="52"/>
+      <c r="M51" s="52"/>
+      <c r="N51" s="45"/>
+      <c r="O51" s="45"/>
+      <c r="P51" s="45"/>
+      <c r="Q51" s="45"/>
+      <c r="R51" s="45"/>
+      <c r="S51" s="44"/>
+      <c r="T51" s="44"/>
+      <c r="U51" s="44"/>
+      <c r="V51" s="44"/>
+      <c r="W51" s="52"/>
+      <c r="X51" s="52"/>
+      <c r="Y51" s="52"/>
+      <c r="Z51" s="52"/>
+      <c r="AA51" s="52"/>
+      <c r="AB51" s="52"/>
+      <c r="AC51" s="54"/>
+      <c r="AD51" s="54"/>
+      <c r="AE51" s="54"/>
+      <c r="AF51" s="54"/>
+      <c r="AG51" s="54"/>
+      <c r="AH51" s="52"/>
+      <c r="AI51" s="52"/>
+      <c r="AJ51" s="52"/>
+      <c r="AK51" s="52"/>
+      <c r="AL51" s="52"/>
+      <c r="AM51" s="52"/>
+      <c r="AN51" s="52"/>
+      <c r="AO51" s="52"/>
+      <c r="AP51" s="52"/>
+      <c r="AQ51" s="52"/>
+      <c r="AR51" s="55"/>
+      <c r="AS51" s="55"/>
+      <c r="AT51" s="55"/>
+      <c r="AU51" s="55"/>
+      <c r="AV51" s="55"/>
+      <c r="AW51" s="52"/>
+      <c r="AX51" s="52"/>
+      <c r="AY51" s="52"/>
+      <c r="AZ51" s="52"/>
+      <c r="BA51" s="52"/>
+      <c r="BB51" s="52"/>
+      <c r="BC51" s="52"/>
+      <c r="BD51" s="52"/>
+      <c r="BE51" s="52"/>
+      <c r="BF51" s="52"/>
+      <c r="BG51" s="56"/>
+      <c r="BH51" s="56"/>
+      <c r="BI51" s="56"/>
+      <c r="BJ51" s="56"/>
+      <c r="BK51" s="56"/>
+      <c r="BL51" s="52"/>
+      <c r="BM51" s="52"/>
+      <c r="BN51" s="52"/>
+      <c r="BO51" s="52"/>
+      <c r="BP51" s="57"/>
+      <c r="BQ51" s="36"/>
+    </row>
+    <row r="52" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A52" s="36"/>
+      <c r="B52" s="37" t="s">
+        <v>105</v>
+      </c>
+      <c r="C52" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="D52" s="74" t="s">
+        <v>94</v>
+      </c>
+      <c r="E52" s="39">
+        <v>885083</v>
+      </c>
+      <c r="F52" s="39">
+        <v>885089</v>
+      </c>
+      <c r="G52" s="40">
+        <v>7</v>
+      </c>
+      <c r="H52" s="41">
+        <v>0</v>
+      </c>
+      <c r="I52" s="50"/>
+      <c r="J52" s="51"/>
+      <c r="K52" s="52"/>
+      <c r="L52" s="52"/>
+      <c r="M52" s="52"/>
+      <c r="N52" s="45"/>
+      <c r="O52" s="45"/>
+      <c r="P52" s="45"/>
+      <c r="Q52" s="45"/>
+      <c r="R52" s="45"/>
+      <c r="S52" s="44"/>
+      <c r="T52" s="44"/>
+      <c r="U52" s="44"/>
+      <c r="V52" s="44"/>
+      <c r="W52" s="52"/>
+      <c r="X52" s="52"/>
+      <c r="Y52" s="52"/>
+      <c r="Z52" s="52"/>
+      <c r="AA52" s="52"/>
+      <c r="AB52" s="52"/>
+      <c r="AC52" s="54"/>
+      <c r="AD52" s="54"/>
+      <c r="AE52" s="54"/>
+      <c r="AF52" s="54"/>
+      <c r="AG52" s="54"/>
+      <c r="AH52" s="52"/>
+      <c r="AI52" s="52"/>
+      <c r="AJ52" s="52"/>
+      <c r="AK52" s="52"/>
+      <c r="AL52" s="52"/>
+      <c r="AM52" s="52"/>
+      <c r="AN52" s="52"/>
+      <c r="AO52" s="52"/>
+      <c r="AP52" s="52"/>
+      <c r="AQ52" s="52"/>
+      <c r="AR52" s="55"/>
+      <c r="AS52" s="55"/>
+      <c r="AT52" s="55"/>
+      <c r="AU52" s="55"/>
+      <c r="AV52" s="55"/>
+      <c r="AW52" s="52"/>
+      <c r="AX52" s="52"/>
+      <c r="AY52" s="52"/>
+      <c r="AZ52" s="52"/>
+      <c r="BA52" s="52"/>
+      <c r="BB52" s="52"/>
+      <c r="BC52" s="52"/>
+      <c r="BD52" s="52"/>
+      <c r="BE52" s="52"/>
+      <c r="BF52" s="52"/>
+      <c r="BG52" s="56"/>
+      <c r="BH52" s="56"/>
+      <c r="BI52" s="56"/>
+      <c r="BJ52" s="56"/>
+      <c r="BK52" s="56"/>
+      <c r="BL52" s="52"/>
+      <c r="BM52" s="52"/>
+      <c r="BN52" s="52"/>
+      <c r="BO52" s="52"/>
+      <c r="BP52" s="57"/>
+      <c r="BQ52" s="36"/>
+    </row>
+    <row r="53" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A53" s="36"/>
+      <c r="B53" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="C53" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="D53" s="74" t="s">
+        <v>94</v>
+      </c>
+      <c r="E53" s="39">
+        <v>45033</v>
+      </c>
+      <c r="F53" s="39">
+        <v>45039</v>
+      </c>
+      <c r="G53" s="40">
+        <v>7</v>
+      </c>
+      <c r="H53" s="41">
+        <v>0</v>
+      </c>
+      <c r="I53" s="50"/>
+      <c r="J53" s="51"/>
+      <c r="K53" s="52"/>
+      <c r="L53" s="52"/>
+      <c r="M53" s="52"/>
+      <c r="N53" s="45"/>
+      <c r="O53" s="45"/>
+      <c r="P53" s="45"/>
+      <c r="Q53" s="45"/>
+      <c r="R53" s="45"/>
+      <c r="S53" s="44"/>
+      <c r="T53" s="44"/>
+      <c r="U53" s="44"/>
+      <c r="V53" s="44"/>
+      <c r="W53" s="52"/>
+      <c r="X53" s="52"/>
+      <c r="Y53" s="52"/>
+      <c r="Z53" s="52"/>
+      <c r="AA53" s="52"/>
+      <c r="AB53" s="52"/>
+      <c r="AC53" s="54"/>
+      <c r="AD53" s="54"/>
+      <c r="AE53" s="54"/>
+      <c r="AF53" s="54"/>
+      <c r="AG53" s="54"/>
+      <c r="AH53" s="52"/>
+      <c r="AI53" s="52"/>
+      <c r="AJ53" s="52"/>
+      <c r="AK53" s="52"/>
+      <c r="AL53" s="52"/>
+      <c r="AM53" s="52"/>
+      <c r="AN53" s="52"/>
+      <c r="AO53" s="52"/>
+      <c r="AP53" s="52"/>
+      <c r="AQ53" s="52"/>
+      <c r="AR53" s="55"/>
+      <c r="AS53" s="55"/>
+      <c r="AT53" s="55"/>
+      <c r="AU53" s="55"/>
+      <c r="AV53" s="55"/>
+      <c r="AW53" s="52"/>
+      <c r="AX53" s="52"/>
+      <c r="AY53" s="52"/>
+      <c r="AZ53" s="52"/>
+      <c r="BA53" s="52"/>
+      <c r="BB53" s="52"/>
+      <c r="BC53" s="52"/>
+      <c r="BD53" s="52"/>
+      <c r="BE53" s="52"/>
+      <c r="BF53" s="52"/>
+      <c r="BG53" s="56"/>
+      <c r="BH53" s="56"/>
+      <c r="BI53" s="56"/>
+      <c r="BJ53" s="56"/>
+      <c r="BK53" s="56"/>
+      <c r="BL53" s="52"/>
+      <c r="BM53" s="52"/>
+      <c r="BN53" s="52"/>
+      <c r="BO53" s="52"/>
+      <c r="BP53" s="57"/>
+      <c r="BQ53" s="36"/>
+    </row>
+    <row r="54" spans="1:69" ht="21" customHeight="1">
+      <c r="A54" s="21"/>
+      <c r="B54" s="21"/>
+      <c r="C54" s="21"/>
+      <c r="D54" s="21"/>
+      <c r="E54" s="21"/>
+      <c r="F54" s="21"/>
+      <c r="G54" s="72"/>
+      <c r="H54" s="72"/>
+      <c r="I54" s="21"/>
+      <c r="J54" s="21"/>
+      <c r="K54" s="21"/>
+      <c r="L54" s="21"/>
+      <c r="M54" s="21"/>
+      <c r="N54" s="21"/>
+      <c r="O54" s="21"/>
+      <c r="P54" s="21"/>
+      <c r="Q54" s="21"/>
+      <c r="R54" s="21"/>
+      <c r="S54" s="21"/>
+      <c r="T54" s="21"/>
+      <c r="U54" s="21"/>
+      <c r="V54" s="21"/>
+      <c r="W54" s="21"/>
+      <c r="X54" s="21"/>
+      <c r="Y54" s="21"/>
+      <c r="Z54" s="21"/>
+      <c r="AA54" s="21"/>
+      <c r="AB54" s="21"/>
+      <c r="AC54" s="21"/>
+      <c r="AD54" s="21"/>
+      <c r="AE54" s="21"/>
+      <c r="AF54" s="21"/>
+      <c r="AG54" s="21"/>
+      <c r="AH54" s="21"/>
+      <c r="AI54" s="21"/>
+      <c r="AJ54" s="21"/>
+      <c r="AK54" s="21"/>
+      <c r="AL54" s="21"/>
+      <c r="AM54" s="21"/>
+      <c r="AN54" s="21"/>
+      <c r="AO54" s="21"/>
+      <c r="AP54" s="21"/>
+      <c r="AQ54" s="21"/>
+      <c r="AR54" s="21"/>
+      <c r="AS54" s="21"/>
+      <c r="AT54" s="21"/>
+      <c r="AU54" s="21"/>
+      <c r="AV54" s="21"/>
+      <c r="AW54" s="21"/>
+      <c r="AX54" s="21"/>
+      <c r="AY54" s="21"/>
+      <c r="AZ54" s="21"/>
+      <c r="BA54" s="21"/>
+      <c r="BB54" s="21"/>
+      <c r="BC54" s="21"/>
+      <c r="BD54" s="21"/>
+      <c r="BE54" s="21"/>
+      <c r="BF54" s="21"/>
+      <c r="BG54" s="21"/>
+      <c r="BH54" s="21"/>
+      <c r="BI54" s="21"/>
+      <c r="BJ54" s="21"/>
+      <c r="BK54" s="21"/>
+      <c r="BL54" s="21"/>
+      <c r="BM54" s="21"/>
+      <c r="BN54" s="21"/>
+      <c r="BO54" s="21"/>
+      <c r="BP54" s="21"/>
+      <c r="BQ54" s="21"/>
+    </row>
+    <row r="55" spans="1:69" ht="21" customHeight="1">
+      <c r="A55" s="21"/>
+      <c r="B55" s="21"/>
+      <c r="C55" s="21"/>
+      <c r="D55" s="21"/>
+      <c r="E55" s="21"/>
+      <c r="F55" s="21"/>
+      <c r="G55" s="72"/>
+      <c r="H55" s="72"/>
+      <c r="I55" s="21"/>
+      <c r="J55" s="21"/>
+      <c r="K55" s="21"/>
+      <c r="L55" s="21"/>
+      <c r="M55" s="21"/>
+      <c r="N55" s="21"/>
+      <c r="O55" s="21"/>
+      <c r="P55" s="21"/>
+      <c r="Q55" s="21"/>
+      <c r="R55" s="21"/>
+      <c r="S55" s="21"/>
+      <c r="T55" s="21"/>
+      <c r="U55" s="21"/>
+      <c r="V55" s="21"/>
+      <c r="W55" s="21"/>
+      <c r="X55" s="21"/>
+      <c r="Y55" s="21"/>
+      <c r="Z55" s="21"/>
+      <c r="AA55" s="21"/>
+      <c r="AB55" s="21"/>
+      <c r="AC55" s="21"/>
+      <c r="AD55" s="21"/>
+      <c r="AE55" s="21"/>
+      <c r="AF55" s="21"/>
+      <c r="AG55" s="21"/>
+      <c r="AH55" s="21"/>
+      <c r="AI55" s="21"/>
+      <c r="AJ55" s="21"/>
+      <c r="AK55" s="21"/>
+      <c r="AL55" s="21"/>
+      <c r="AM55" s="21"/>
+      <c r="AN55" s="21"/>
+      <c r="AO55" s="21"/>
+      <c r="AP55" s="21"/>
+      <c r="AQ55" s="21"/>
+      <c r="AR55" s="21"/>
+      <c r="AS55" s="21"/>
+      <c r="AT55" s="21"/>
+      <c r="AU55" s="21"/>
+      <c r="AV55" s="21"/>
+      <c r="AW55" s="21"/>
+      <c r="AX55" s="21"/>
+      <c r="AY55" s="21"/>
+      <c r="AZ55" s="21"/>
+      <c r="BA55" s="21"/>
+      <c r="BB55" s="21"/>
+      <c r="BC55" s="21"/>
+      <c r="BD55" s="21"/>
+      <c r="BE55" s="21"/>
+      <c r="BF55" s="21"/>
+      <c r="BG55" s="21"/>
+      <c r="BH55" s="21"/>
+      <c r="BI55" s="21"/>
+      <c r="BJ55" s="21"/>
+      <c r="BK55" s="21"/>
+      <c r="BL55" s="21"/>
+      <c r="BM55" s="21"/>
+      <c r="BN55" s="21"/>
+      <c r="BO55" s="21"/>
+      <c r="BP55" s="21"/>
+      <c r="BQ55" s="21"/>
+    </row>
+    <row r="56" spans="1:69" ht="21" customHeight="1">
+      <c r="A56" s="21"/>
+      <c r="B56" s="21"/>
+      <c r="C56" s="21"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="21"/>
+      <c r="F56" s="21"/>
+      <c r="G56" s="72"/>
+      <c r="H56" s="72"/>
+      <c r="I56" s="21"/>
+      <c r="J56" s="21"/>
+      <c r="K56" s="21"/>
+      <c r="L56" s="21"/>
+      <c r="M56" s="21"/>
+      <c r="N56" s="21"/>
+      <c r="O56" s="21"/>
+      <c r="P56" s="21"/>
+      <c r="Q56" s="21"/>
+      <c r="R56" s="21"/>
+      <c r="S56" s="21"/>
+      <c r="T56" s="21"/>
+      <c r="U56" s="21"/>
+      <c r="V56" s="21"/>
+      <c r="W56" s="21"/>
+      <c r="X56" s="21"/>
+      <c r="Y56" s="21"/>
+      <c r="Z56" s="21"/>
+      <c r="AA56" s="21"/>
+      <c r="AB56" s="21"/>
+      <c r="AC56" s="21"/>
+      <c r="AD56" s="21"/>
+      <c r="AE56" s="21"/>
+      <c r="AF56" s="21"/>
+      <c r="AG56" s="21"/>
+      <c r="AH56" s="21"/>
+      <c r="AI56" s="21"/>
+      <c r="AJ56" s="21"/>
+      <c r="AK56" s="21"/>
+      <c r="AL56" s="21"/>
+      <c r="AM56" s="21"/>
+      <c r="AN56" s="21"/>
+      <c r="AO56" s="21"/>
+      <c r="AP56" s="21"/>
+      <c r="AQ56" s="21"/>
+      <c r="AR56" s="21"/>
+      <c r="AS56" s="21"/>
+      <c r="AT56" s="21"/>
+      <c r="AU56" s="21"/>
+      <c r="AV56" s="21"/>
+      <c r="AW56" s="21"/>
+      <c r="AX56" s="21"/>
+      <c r="AY56" s="21"/>
+      <c r="AZ56" s="21"/>
+      <c r="BA56" s="21"/>
+      <c r="BB56" s="21"/>
+      <c r="BC56" s="21"/>
+      <c r="BD56" s="21"/>
+      <c r="BE56" s="21"/>
+      <c r="BF56" s="21"/>
+      <c r="BG56" s="21"/>
+      <c r="BH56" s="21"/>
+      <c r="BI56" s="21"/>
+      <c r="BJ56" s="21"/>
+      <c r="BK56" s="21"/>
+      <c r="BL56" s="21"/>
+      <c r="BM56" s="21"/>
+      <c r="BN56" s="21"/>
+      <c r="BO56" s="21"/>
+      <c r="BP56" s="21"/>
+      <c r="BQ56" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="H8:H10"/>
+    <mergeCell ref="S9:W9"/>
+    <mergeCell ref="N9:R9"/>
+    <mergeCell ref="I9:M9"/>
+    <mergeCell ref="I8:W8"/>
+    <mergeCell ref="I2:N2"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="I5:O5"/>
+    <mergeCell ref="P5:AA5"/>
+    <mergeCell ref="I4:O4"/>
+    <mergeCell ref="P4:AB4"/>
+    <mergeCell ref="O2:AG2"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="B5:C5"/>
     <mergeCell ref="BG9:BK9"/>
     <mergeCell ref="BL9:BP9"/>
     <mergeCell ref="BB9:BF9"/>
@@ -6469,50 +8030,8 @@
     <mergeCell ref="AR9:AV9"/>
     <mergeCell ref="AW9:BA9"/>
     <mergeCell ref="AM9:AQ9"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="I2:N2"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="I5:O5"/>
-    <mergeCell ref="P5:AA5"/>
-    <mergeCell ref="I4:O4"/>
-    <mergeCell ref="P4:AB4"/>
-    <mergeCell ref="O2:AG2"/>
-    <mergeCell ref="H8:H10"/>
-    <mergeCell ref="S9:W9"/>
-    <mergeCell ref="N9:R9"/>
-    <mergeCell ref="I9:M9"/>
-    <mergeCell ref="I8:W8"/>
   </mergeCells>
   <phoneticPr fontId="30" type="noConversion"/>
-  <conditionalFormatting sqref="H12:H18 H20:H43">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFFFFF"/>
-        <color rgb="FF57BB8A"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H12:H18 H20:H43">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF57BB8A"/>
-        <color rgb="FFFFFFFF"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="K14">
     <cfRule type="notContainsBlanks" dxfId="1" priority="3">
       <formula>LEN(TRIM(K14))&gt;0</formula>
@@ -6523,6 +8042,26 @@
       <formula>LEN(TRIM(K14))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="H12:H18 H20:H53">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FF57BB8A"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12:H18 H20:H53">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF57BB8A"/>
+        <color rgb="FFFFFFFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/일정/갠트 차트.xlsx
+++ b/일정/갠트 차트.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sanghee\Desktop\develop\2wda_2semester\2WDA_YJSangSa_CapstoneDesign\일정\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{731FA1B2-AAA1-4C2E-97C5-28C32B006C99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C736205E-B280-4D43-A909-645FF0F65045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="124">
   <si>
     <t>갠트 차트 템플릿</t>
   </si>
@@ -1754,16 +1754,11 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>상희</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t>,</t>
-    </r>
+      <t>황주</t>
+    </r>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -1772,7 +1767,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>신성</t>
+      <t>태권</t>
     </r>
     <phoneticPr fontId="30" type="noConversion"/>
   </si>
@@ -1785,52 +1780,128 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>황주</t>
+      <t>상희</t>
     </r>
     <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
+      <t>B)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>관리자 모듈</t>
+    </r>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹 개발</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>상희</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.1.11</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>신성</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>황주,신성</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>태권</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.1.3</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>리마인더 모듈</t>
+    </r>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>F)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>태권</t>
-    </r>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
+      <t>웹</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>상희</t>
-    </r>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
+      <t>퍼블리싱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>신성</t>
-    </r>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>B)</t>
+      <t>멘토</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
     </r>
     <r>
       <rPr>
@@ -1839,12 +1910,17 @@
         <rFont val="Arial Unicode MS"/>
         <family val="2"/>
       </rPr>
-      <t>관리자 모듈</t>
-    </r>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>웹 개발</t>
+      <t>리마인더(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>view)</t>
+    </r>
     <phoneticPr fontId="30" type="noConversion"/>
   </si>
 </sst>
@@ -1856,7 +1932,7 @@
     <numFmt numFmtId="176" formatCode="yy&quot;년 &quot;m&quot;월 &quot;d&quot;일&quot;"/>
     <numFmt numFmtId="177" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="58">
+  <fonts count="59">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2208,6 +2284,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial Unicode MS"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="돋움"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
@@ -2579,7 +2661,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2824,15 +2906,57 @@
     <xf numFmtId="0" fontId="41" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="55" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2846,46 +2970,7 @@
     <xf numFmtId="0" fontId="22" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3247,10 +3332,10 @@
     <tabColor rgb="FF3D85C6"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BQ56"/>
+  <dimension ref="A1:BQ67"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="M42" sqref="M42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1"/>
@@ -3338,44 +3423,44 @@
     </row>
     <row r="2" spans="1:69" ht="40.5">
       <c r="A2" s="1"/>
-      <c r="B2" s="102" t="s">
+      <c r="B2" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
       <c r="H2" s="10"/>
-      <c r="I2" s="100" t="s">
+      <c r="I2" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="101"/>
-      <c r="K2" s="101"/>
-      <c r="L2" s="101"/>
-      <c r="M2" s="101"/>
-      <c r="N2" s="101"/>
-      <c r="O2" s="105" t="s">
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="93"/>
+      <c r="O2" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="101"/>
-      <c r="Q2" s="101"/>
-      <c r="R2" s="101"/>
-      <c r="S2" s="101"/>
-      <c r="T2" s="101"/>
-      <c r="U2" s="101"/>
-      <c r="V2" s="101"/>
-      <c r="W2" s="101"/>
-      <c r="X2" s="101"/>
-      <c r="Y2" s="101"/>
-      <c r="Z2" s="101"/>
-      <c r="AA2" s="101"/>
-      <c r="AB2" s="101"/>
-      <c r="AC2" s="101"/>
-      <c r="AD2" s="101"/>
-      <c r="AE2" s="101"/>
-      <c r="AF2" s="101"/>
-      <c r="AG2" s="101"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="93"/>
+      <c r="R2" s="93"/>
+      <c r="S2" s="93"/>
+      <c r="T2" s="93"/>
+      <c r="U2" s="93"/>
+      <c r="V2" s="93"/>
+      <c r="W2" s="93"/>
+      <c r="X2" s="93"/>
+      <c r="Y2" s="93"/>
+      <c r="Z2" s="93"/>
+      <c r="AA2" s="93"/>
+      <c r="AB2" s="93"/>
+      <c r="AC2" s="93"/>
+      <c r="AD2" s="93"/>
+      <c r="AE2" s="93"/>
+      <c r="AF2" s="93"/>
+      <c r="AG2" s="93"/>
       <c r="AH2" s="11"/>
       <c r="AI2" s="11"/>
       <c r="AJ2" s="11"/>
@@ -3486,41 +3571,41 @@
     </row>
     <row r="4" spans="1:69" ht="21" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="97" t="s">
+      <c r="B4" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="98"/>
-      <c r="D4" s="95" t="s">
+      <c r="C4" s="96"/>
+      <c r="D4" s="100" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="96"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="101"/>
       <c r="H4" s="16"/>
-      <c r="I4" s="97" t="s">
+      <c r="I4" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="98"/>
-      <c r="K4" s="98"/>
-      <c r="L4" s="98"/>
-      <c r="M4" s="98"/>
-      <c r="N4" s="98"/>
-      <c r="O4" s="98"/>
-      <c r="P4" s="104" t="s">
+      <c r="J4" s="96"/>
+      <c r="K4" s="96"/>
+      <c r="L4" s="96"/>
+      <c r="M4" s="96"/>
+      <c r="N4" s="96"/>
+      <c r="O4" s="96"/>
+      <c r="P4" s="98" t="s">
         <v>38</v>
       </c>
-      <c r="Q4" s="98"/>
-      <c r="R4" s="98"/>
-      <c r="S4" s="98"/>
-      <c r="T4" s="98"/>
-      <c r="U4" s="98"/>
-      <c r="V4" s="98"/>
-      <c r="W4" s="98"/>
-      <c r="X4" s="98"/>
-      <c r="Y4" s="98"/>
-      <c r="Z4" s="98"/>
-      <c r="AA4" s="98"/>
-      <c r="AB4" s="98"/>
+      <c r="Q4" s="96"/>
+      <c r="R4" s="96"/>
+      <c r="S4" s="96"/>
+      <c r="T4" s="96"/>
+      <c r="U4" s="96"/>
+      <c r="V4" s="96"/>
+      <c r="W4" s="96"/>
+      <c r="X4" s="96"/>
+      <c r="Y4" s="96"/>
+      <c r="Z4" s="96"/>
+      <c r="AA4" s="96"/>
+      <c r="AB4" s="96"/>
       <c r="AC4" s="17"/>
       <c r="AD4" s="9"/>
       <c r="AE4" s="9"/>
@@ -3565,40 +3650,40 @@
     </row>
     <row r="5" spans="1:69" ht="21" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="97" t="s">
+      <c r="B5" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="98"/>
-      <c r="D5" s="99" t="s">
+      <c r="C5" s="96"/>
+      <c r="D5" s="102" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="98"/>
-      <c r="F5" s="98"/>
-      <c r="G5" s="98"/>
+      <c r="E5" s="96"/>
+      <c r="F5" s="96"/>
+      <c r="G5" s="96"/>
       <c r="H5" s="18"/>
-      <c r="I5" s="97" t="s">
+      <c r="I5" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="98"/>
-      <c r="K5" s="98"/>
-      <c r="L5" s="98"/>
-      <c r="M5" s="98"/>
-      <c r="N5" s="98"/>
-      <c r="O5" s="98"/>
-      <c r="P5" s="103">
+      <c r="J5" s="96"/>
+      <c r="K5" s="96"/>
+      <c r="L5" s="96"/>
+      <c r="M5" s="96"/>
+      <c r="N5" s="96"/>
+      <c r="O5" s="96"/>
+      <c r="P5" s="97">
         <v>44992</v>
       </c>
-      <c r="Q5" s="98"/>
-      <c r="R5" s="98"/>
-      <c r="S5" s="98"/>
-      <c r="T5" s="98"/>
-      <c r="U5" s="98"/>
-      <c r="V5" s="98"/>
-      <c r="W5" s="98"/>
-      <c r="X5" s="98"/>
-      <c r="Y5" s="98"/>
-      <c r="Z5" s="98"/>
-      <c r="AA5" s="98"/>
+      <c r="Q5" s="96"/>
+      <c r="R5" s="96"/>
+      <c r="S5" s="96"/>
+      <c r="T5" s="96"/>
+      <c r="U5" s="96"/>
+      <c r="V5" s="96"/>
+      <c r="W5" s="96"/>
+      <c r="X5" s="96"/>
+      <c r="Y5" s="96"/>
+      <c r="Z5" s="96"/>
+      <c r="AA5" s="96"/>
       <c r="AB5" s="19"/>
       <c r="AC5" s="17"/>
       <c r="AD5" s="1"/>
@@ -3786,201 +3871,201 @@
     </row>
     <row r="8" spans="1:69" ht="17.25" customHeight="1">
       <c r="A8" s="24"/>
-      <c r="B8" s="94" t="s">
+      <c r="B8" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="94" t="s">
+      <c r="C8" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="94" t="s">
+      <c r="D8" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="94" t="s">
+      <c r="E8" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="94" t="s">
+      <c r="F8" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="94" t="s">
+      <c r="G8" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="94" t="s">
+      <c r="H8" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="107" t="s">
+      <c r="I8" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="88"/>
-      <c r="K8" s="88"/>
-      <c r="L8" s="88"/>
-      <c r="M8" s="88"/>
-      <c r="N8" s="88"/>
-      <c r="O8" s="88"/>
-      <c r="P8" s="88"/>
-      <c r="Q8" s="88"/>
-      <c r="R8" s="88"/>
-      <c r="S8" s="88"/>
-      <c r="T8" s="88"/>
-      <c r="U8" s="88"/>
-      <c r="V8" s="88"/>
-      <c r="W8" s="88"/>
-      <c r="X8" s="92" t="s">
+      <c r="J8" s="87"/>
+      <c r="K8" s="87"/>
+      <c r="L8" s="87"/>
+      <c r="M8" s="87"/>
+      <c r="N8" s="87"/>
+      <c r="O8" s="87"/>
+      <c r="P8" s="87"/>
+      <c r="Q8" s="87"/>
+      <c r="R8" s="87"/>
+      <c r="S8" s="87"/>
+      <c r="T8" s="87"/>
+      <c r="U8" s="87"/>
+      <c r="V8" s="87"/>
+      <c r="W8" s="87"/>
+      <c r="X8" s="108" t="s">
         <v>15</v>
       </c>
-      <c r="Y8" s="88"/>
-      <c r="Z8" s="88"/>
-      <c r="AA8" s="88"/>
-      <c r="AB8" s="88"/>
-      <c r="AC8" s="88"/>
-      <c r="AD8" s="88"/>
-      <c r="AE8" s="88"/>
-      <c r="AF8" s="88"/>
-      <c r="AG8" s="88"/>
-      <c r="AH8" s="88"/>
-      <c r="AI8" s="88"/>
-      <c r="AJ8" s="88"/>
-      <c r="AK8" s="88"/>
-      <c r="AL8" s="88"/>
-      <c r="AM8" s="91" t="s">
+      <c r="Y8" s="87"/>
+      <c r="Z8" s="87"/>
+      <c r="AA8" s="87"/>
+      <c r="AB8" s="87"/>
+      <c r="AC8" s="87"/>
+      <c r="AD8" s="87"/>
+      <c r="AE8" s="87"/>
+      <c r="AF8" s="87"/>
+      <c r="AG8" s="87"/>
+      <c r="AH8" s="87"/>
+      <c r="AI8" s="87"/>
+      <c r="AJ8" s="87"/>
+      <c r="AK8" s="87"/>
+      <c r="AL8" s="87"/>
+      <c r="AM8" s="107" t="s">
         <v>16</v>
       </c>
-      <c r="AN8" s="88"/>
-      <c r="AO8" s="88"/>
-      <c r="AP8" s="88"/>
-      <c r="AQ8" s="88"/>
-      <c r="AR8" s="88"/>
-      <c r="AS8" s="88"/>
-      <c r="AT8" s="88"/>
-      <c r="AU8" s="88"/>
-      <c r="AV8" s="88"/>
-      <c r="AW8" s="88"/>
-      <c r="AX8" s="88"/>
-      <c r="AY8" s="88"/>
-      <c r="AZ8" s="88"/>
-      <c r="BA8" s="88"/>
-      <c r="BB8" s="87" t="s">
+      <c r="AN8" s="87"/>
+      <c r="AO8" s="87"/>
+      <c r="AP8" s="87"/>
+      <c r="AQ8" s="87"/>
+      <c r="AR8" s="87"/>
+      <c r="AS8" s="87"/>
+      <c r="AT8" s="87"/>
+      <c r="AU8" s="87"/>
+      <c r="AV8" s="87"/>
+      <c r="AW8" s="87"/>
+      <c r="AX8" s="87"/>
+      <c r="AY8" s="87"/>
+      <c r="AZ8" s="87"/>
+      <c r="BA8" s="87"/>
+      <c r="BB8" s="104" t="s">
         <v>17</v>
       </c>
-      <c r="BC8" s="88"/>
-      <c r="BD8" s="88"/>
-      <c r="BE8" s="88"/>
-      <c r="BF8" s="88"/>
-      <c r="BG8" s="88"/>
-      <c r="BH8" s="88"/>
-      <c r="BI8" s="88"/>
-      <c r="BJ8" s="88"/>
-      <c r="BK8" s="88"/>
-      <c r="BL8" s="88"/>
-      <c r="BM8" s="88"/>
-      <c r="BN8" s="88"/>
-      <c r="BO8" s="88"/>
-      <c r="BP8" s="89"/>
+      <c r="BC8" s="87"/>
+      <c r="BD8" s="87"/>
+      <c r="BE8" s="87"/>
+      <c r="BF8" s="87"/>
+      <c r="BG8" s="87"/>
+      <c r="BH8" s="87"/>
+      <c r="BI8" s="87"/>
+      <c r="BJ8" s="87"/>
+      <c r="BK8" s="87"/>
+      <c r="BL8" s="87"/>
+      <c r="BM8" s="87"/>
+      <c r="BN8" s="87"/>
+      <c r="BO8" s="87"/>
+      <c r="BP8" s="105"/>
       <c r="BQ8" s="21"/>
     </row>
     <row r="9" spans="1:69" ht="17.25" customHeight="1">
       <c r="A9" s="25"/>
-      <c r="B9" s="88"/>
-      <c r="C9" s="88"/>
-      <c r="D9" s="88"/>
-      <c r="E9" s="88"/>
-      <c r="F9" s="88"/>
-      <c r="G9" s="88"/>
-      <c r="H9" s="88"/>
-      <c r="I9" s="106" t="s">
+      <c r="B9" s="87"/>
+      <c r="C9" s="87"/>
+      <c r="D9" s="87"/>
+      <c r="E9" s="87"/>
+      <c r="F9" s="87"/>
+      <c r="G9" s="87"/>
+      <c r="H9" s="87"/>
+      <c r="I9" s="88" t="s">
         <v>18</v>
       </c>
-      <c r="J9" s="85"/>
-      <c r="K9" s="85"/>
-      <c r="L9" s="85"/>
-      <c r="M9" s="86"/>
-      <c r="N9" s="106" t="s">
+      <c r="J9" s="89"/>
+      <c r="K9" s="89"/>
+      <c r="L9" s="89"/>
+      <c r="M9" s="90"/>
+      <c r="N9" s="88" t="s">
         <v>19</v>
       </c>
-      <c r="O9" s="85"/>
-      <c r="P9" s="85"/>
-      <c r="Q9" s="85"/>
-      <c r="R9" s="86"/>
-      <c r="S9" s="106" t="s">
+      <c r="O9" s="89"/>
+      <c r="P9" s="89"/>
+      <c r="Q9" s="89"/>
+      <c r="R9" s="90"/>
+      <c r="S9" s="88" t="s">
         <v>20</v>
       </c>
-      <c r="T9" s="85"/>
-      <c r="U9" s="85"/>
-      <c r="V9" s="85"/>
-      <c r="W9" s="86"/>
-      <c r="X9" s="90" t="s">
+      <c r="T9" s="89"/>
+      <c r="U9" s="89"/>
+      <c r="V9" s="89"/>
+      <c r="W9" s="90"/>
+      <c r="X9" s="106" t="s">
         <v>21</v>
       </c>
-      <c r="Y9" s="85"/>
-      <c r="Z9" s="85"/>
-      <c r="AA9" s="85"/>
-      <c r="AB9" s="86"/>
-      <c r="AC9" s="90" t="s">
+      <c r="Y9" s="89"/>
+      <c r="Z9" s="89"/>
+      <c r="AA9" s="89"/>
+      <c r="AB9" s="90"/>
+      <c r="AC9" s="106" t="s">
         <v>22</v>
       </c>
-      <c r="AD9" s="85"/>
-      <c r="AE9" s="85"/>
-      <c r="AF9" s="85"/>
-      <c r="AG9" s="86"/>
-      <c r="AH9" s="90" t="s">
+      <c r="AD9" s="89"/>
+      <c r="AE9" s="89"/>
+      <c r="AF9" s="89"/>
+      <c r="AG9" s="90"/>
+      <c r="AH9" s="106" t="s">
         <v>23</v>
       </c>
-      <c r="AI9" s="85"/>
-      <c r="AJ9" s="85"/>
-      <c r="AK9" s="85"/>
-      <c r="AL9" s="86"/>
-      <c r="AM9" s="93" t="s">
+      <c r="AI9" s="89"/>
+      <c r="AJ9" s="89"/>
+      <c r="AK9" s="89"/>
+      <c r="AL9" s="90"/>
+      <c r="AM9" s="109" t="s">
         <v>24</v>
       </c>
-      <c r="AN9" s="85"/>
-      <c r="AO9" s="85"/>
-      <c r="AP9" s="85"/>
-      <c r="AQ9" s="86"/>
-      <c r="AR9" s="93" t="s">
+      <c r="AN9" s="89"/>
+      <c r="AO9" s="89"/>
+      <c r="AP9" s="89"/>
+      <c r="AQ9" s="90"/>
+      <c r="AR9" s="109" t="s">
         <v>25</v>
       </c>
-      <c r="AS9" s="85"/>
-      <c r="AT9" s="85"/>
-      <c r="AU9" s="85"/>
-      <c r="AV9" s="86"/>
-      <c r="AW9" s="93" t="s">
+      <c r="AS9" s="89"/>
+      <c r="AT9" s="89"/>
+      <c r="AU9" s="89"/>
+      <c r="AV9" s="90"/>
+      <c r="AW9" s="109" t="s">
         <v>26</v>
       </c>
-      <c r="AX9" s="85"/>
-      <c r="AY9" s="85"/>
-      <c r="AZ9" s="85"/>
-      <c r="BA9" s="86"/>
-      <c r="BB9" s="84" t="s">
+      <c r="AX9" s="89"/>
+      <c r="AY9" s="89"/>
+      <c r="AZ9" s="89"/>
+      <c r="BA9" s="90"/>
+      <c r="BB9" s="103" t="s">
         <v>27</v>
       </c>
-      <c r="BC9" s="85"/>
-      <c r="BD9" s="85"/>
-      <c r="BE9" s="85"/>
-      <c r="BF9" s="86"/>
-      <c r="BG9" s="84" t="s">
+      <c r="BC9" s="89"/>
+      <c r="BD9" s="89"/>
+      <c r="BE9" s="89"/>
+      <c r="BF9" s="90"/>
+      <c r="BG9" s="103" t="s">
         <v>28</v>
       </c>
-      <c r="BH9" s="85"/>
-      <c r="BI9" s="85"/>
-      <c r="BJ9" s="85"/>
-      <c r="BK9" s="86"/>
-      <c r="BL9" s="84" t="s">
+      <c r="BH9" s="89"/>
+      <c r="BI9" s="89"/>
+      <c r="BJ9" s="89"/>
+      <c r="BK9" s="90"/>
+      <c r="BL9" s="103" t="s">
         <v>29</v>
       </c>
-      <c r="BM9" s="85"/>
-      <c r="BN9" s="85"/>
-      <c r="BO9" s="85"/>
-      <c r="BP9" s="86"/>
+      <c r="BM9" s="89"/>
+      <c r="BN9" s="89"/>
+      <c r="BO9" s="89"/>
+      <c r="BP9" s="90"/>
       <c r="BQ9" s="25"/>
     </row>
     <row r="10" spans="1:69" ht="17.25" customHeight="1">
       <c r="A10" s="26"/>
-      <c r="B10" s="88"/>
-      <c r="C10" s="88"/>
-      <c r="D10" s="88"/>
-      <c r="E10" s="88"/>
-      <c r="F10" s="88"/>
-      <c r="G10" s="88"/>
-      <c r="H10" s="88"/>
+      <c r="B10" s="87"/>
+      <c r="C10" s="87"/>
+      <c r="D10" s="87"/>
+      <c r="E10" s="87"/>
+      <c r="F10" s="87"/>
+      <c r="G10" s="87"/>
+      <c r="H10" s="87"/>
       <c r="I10" s="27" t="s">
         <v>30</v>
       </c>
@@ -4845,7 +4930,7 @@
       <c r="B19" s="31">
         <v>2</v>
       </c>
-      <c r="C19" s="109" t="s">
+      <c r="C19" s="85" t="s">
         <v>92</v>
       </c>
       <c r="D19" s="32"/>
@@ -5515,7 +5600,7 @@
       <c r="B27" s="31">
         <v>3</v>
       </c>
-      <c r="C27" s="108" t="s">
+      <c r="C27" s="84" t="s">
         <v>81</v>
       </c>
       <c r="D27" s="32"/>
@@ -5606,7 +5691,7 @@
         <v>26</v>
       </c>
       <c r="H28" s="41">
-        <v>0.4</v>
+        <v>0.75</v>
       </c>
       <c r="I28" s="42"/>
       <c r="J28" s="43"/>
@@ -5861,7 +5946,7 @@
         <v>15</v>
       </c>
       <c r="H31" s="41">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="I31" s="50"/>
       <c r="J31" s="51"/>
@@ -6525,8 +6610,8 @@
       <c r="B39" s="31">
         <v>4</v>
       </c>
-      <c r="C39" s="108" t="s">
-        <v>117</v>
+      <c r="C39" s="84" t="s">
+        <v>115</v>
       </c>
       <c r="D39" s="32"/>
       <c r="E39" s="32"/>
@@ -6616,7 +6701,7 @@
         <v>21</v>
       </c>
       <c r="H40" s="41">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="I40" s="42"/>
       <c r="J40" s="43"/>
@@ -6701,7 +6786,7 @@
         <v>7</v>
       </c>
       <c r="H41" s="41">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="I41" s="50"/>
       <c r="J41" s="51"/>
@@ -6773,8 +6858,8 @@
       <c r="C42" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="D42" s="38" t="s">
-        <v>111</v>
+      <c r="D42" s="82" t="s">
+        <v>116</v>
       </c>
       <c r="E42" s="39">
         <v>885083</v>
@@ -6786,7 +6871,7 @@
         <v>7</v>
       </c>
       <c r="H42" s="41">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="I42" s="50"/>
       <c r="J42" s="51"/>
@@ -6859,7 +6944,7 @@
         <v>89</v>
       </c>
       <c r="D43" s="38" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E43" s="39">
         <v>885083</v>
@@ -6871,7 +6956,7 @@
         <v>7</v>
       </c>
       <c r="H43" s="41">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I43" s="50"/>
       <c r="J43" s="51"/>
@@ -6944,7 +7029,7 @@
         <v>90</v>
       </c>
       <c r="D44" s="38" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E44" s="39">
         <v>885083</v>
@@ -6956,7 +7041,7 @@
         <v>7</v>
       </c>
       <c r="H44" s="41">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="I44" s="50"/>
       <c r="J44" s="51"/>
@@ -7028,20 +7113,20 @@
       <c r="C45" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="D45" s="38" t="s">
-        <v>112</v>
+      <c r="D45" s="74" t="s">
+        <v>118</v>
       </c>
       <c r="E45" s="39">
-        <v>45033</v>
+        <v>45026</v>
       </c>
       <c r="F45" s="39">
-        <v>45039</v>
+        <v>45032</v>
       </c>
       <c r="G45" s="40">
         <v>7</v>
       </c>
       <c r="H45" s="41">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="I45" s="50"/>
       <c r="J45" s="51"/>
@@ -7114,7 +7199,7 @@
         <v>96</v>
       </c>
       <c r="D46" s="38" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E46" s="39">
         <v>45033</v>
@@ -7199,7 +7284,7 @@
         <v>104</v>
       </c>
       <c r="D47" s="38" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E47" s="39">
         <v>45033</v>
@@ -7283,8 +7368,8 @@
       <c r="C48" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="D48" s="38" t="s">
-        <v>115</v>
+      <c r="D48" s="82" t="s">
+        <v>119</v>
       </c>
       <c r="E48" s="39">
         <v>45033</v>
@@ -7368,9 +7453,11 @@
       <c r="C49" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="D49" s="82"/>
+      <c r="D49" s="82" t="s">
+        <v>119</v>
+      </c>
       <c r="E49" s="39">
-        <v>45040</v>
+        <v>45033</v>
       </c>
       <c r="F49" s="39">
         <v>45046</v>
@@ -7449,11 +7536,13 @@
         <v>103</v>
       </c>
       <c r="C50" s="38" t="s">
-        <v>116</v>
-      </c>
-      <c r="D50" s="82"/>
+        <v>114</v>
+      </c>
+      <c r="D50" s="82" t="s">
+        <v>120</v>
+      </c>
       <c r="E50" s="39">
-        <v>45040</v>
+        <v>45033</v>
       </c>
       <c r="F50" s="39">
         <v>45046</v>
@@ -7528,23 +7617,23 @@
     </row>
     <row r="51" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A51" s="36"/>
-      <c r="B51" s="37">
-        <v>5.0999999999999996</v>
+      <c r="B51" s="37" t="s">
+        <v>117</v>
       </c>
       <c r="C51" s="38" t="s">
-        <v>93</v>
-      </c>
-      <c r="D51" s="74" t="s">
-        <v>94</v>
+        <v>122</v>
+      </c>
+      <c r="D51" s="82" t="s">
+        <v>116</v>
       </c>
       <c r="E51" s="39">
-        <v>885083</v>
+        <v>45033</v>
       </c>
       <c r="F51" s="39">
-        <v>885103</v>
+        <v>45046</v>
       </c>
       <c r="G51" s="40">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="H51" s="41">
         <v>0</v>
@@ -7613,11 +7702,11 @@
     </row>
     <row r="52" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A52" s="36"/>
-      <c r="B52" s="37" t="s">
-        <v>105</v>
+      <c r="B52" s="37">
+        <v>5.0999999999999996</v>
       </c>
       <c r="C52" s="38" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="D52" s="74" t="s">
         <v>94</v>
@@ -7626,13 +7715,13 @@
         <v>885083</v>
       </c>
       <c r="F52" s="39">
-        <v>885089</v>
+        <v>885103</v>
       </c>
       <c r="G52" s="40">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="H52" s="41">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="I52" s="50"/>
       <c r="J52" s="51"/>
@@ -7699,25 +7788,25 @@
     <row r="53" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A53" s="36"/>
       <c r="B53" s="37" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="C53" s="38" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D53" s="74" t="s">
         <v>94</v>
       </c>
       <c r="E53" s="39">
-        <v>45033</v>
+        <v>885083</v>
       </c>
       <c r="F53" s="39">
-        <v>45039</v>
+        <v>885089</v>
       </c>
       <c r="G53" s="40">
         <v>7</v>
       </c>
       <c r="H53" s="41">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="I53" s="50"/>
       <c r="J53" s="51"/>
@@ -7781,243 +7870,1030 @@
       <c r="BP53" s="57"/>
       <c r="BQ53" s="36"/>
     </row>
-    <row r="54" spans="1:69" ht="21" customHeight="1">
-      <c r="A54" s="21"/>
-      <c r="B54" s="21"/>
-      <c r="C54" s="21"/>
-      <c r="D54" s="21"/>
-      <c r="E54" s="21"/>
-      <c r="F54" s="21"/>
-      <c r="G54" s="72"/>
-      <c r="H54" s="72"/>
-      <c r="I54" s="21"/>
-      <c r="J54" s="21"/>
-      <c r="K54" s="21"/>
-      <c r="L54" s="21"/>
-      <c r="M54" s="21"/>
-      <c r="N54" s="21"/>
-      <c r="O54" s="21"/>
-      <c r="P54" s="21"/>
-      <c r="Q54" s="21"/>
-      <c r="R54" s="21"/>
-      <c r="S54" s="21"/>
-      <c r="T54" s="21"/>
-      <c r="U54" s="21"/>
-      <c r="V54" s="21"/>
-      <c r="W54" s="21"/>
-      <c r="X54" s="21"/>
-      <c r="Y54" s="21"/>
-      <c r="Z54" s="21"/>
-      <c r="AA54" s="21"/>
-      <c r="AB54" s="21"/>
-      <c r="AC54" s="21"/>
-      <c r="AD54" s="21"/>
-      <c r="AE54" s="21"/>
-      <c r="AF54" s="21"/>
-      <c r="AG54" s="21"/>
-      <c r="AH54" s="21"/>
-      <c r="AI54" s="21"/>
-      <c r="AJ54" s="21"/>
-      <c r="AK54" s="21"/>
-      <c r="AL54" s="21"/>
-      <c r="AM54" s="21"/>
-      <c r="AN54" s="21"/>
-      <c r="AO54" s="21"/>
-      <c r="AP54" s="21"/>
-      <c r="AQ54" s="21"/>
-      <c r="AR54" s="21"/>
-      <c r="AS54" s="21"/>
-      <c r="AT54" s="21"/>
-      <c r="AU54" s="21"/>
-      <c r="AV54" s="21"/>
-      <c r="AW54" s="21"/>
-      <c r="AX54" s="21"/>
-      <c r="AY54" s="21"/>
-      <c r="AZ54" s="21"/>
-      <c r="BA54" s="21"/>
-      <c r="BB54" s="21"/>
-      <c r="BC54" s="21"/>
-      <c r="BD54" s="21"/>
-      <c r="BE54" s="21"/>
-      <c r="BF54" s="21"/>
-      <c r="BG54" s="21"/>
-      <c r="BH54" s="21"/>
-      <c r="BI54" s="21"/>
-      <c r="BJ54" s="21"/>
-      <c r="BK54" s="21"/>
-      <c r="BL54" s="21"/>
-      <c r="BM54" s="21"/>
-      <c r="BN54" s="21"/>
-      <c r="BO54" s="21"/>
-      <c r="BP54" s="21"/>
-      <c r="BQ54" s="21"/>
+    <row r="54" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A54" s="36"/>
+      <c r="B54" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="C54" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="D54" s="74" t="s">
+        <v>94</v>
+      </c>
+      <c r="E54" s="39">
+        <v>45033</v>
+      </c>
+      <c r="F54" s="39">
+        <v>45039</v>
+      </c>
+      <c r="G54" s="40">
+        <v>7</v>
+      </c>
+      <c r="H54" s="41">
+        <v>0</v>
+      </c>
+      <c r="I54" s="50"/>
+      <c r="J54" s="51"/>
+      <c r="K54" s="52"/>
+      <c r="L54" s="52"/>
+      <c r="M54" s="52"/>
+      <c r="N54" s="45"/>
+      <c r="O54" s="45"/>
+      <c r="P54" s="45"/>
+      <c r="Q54" s="45"/>
+      <c r="R54" s="45"/>
+      <c r="S54" s="44"/>
+      <c r="T54" s="44"/>
+      <c r="U54" s="44"/>
+      <c r="V54" s="44"/>
+      <c r="W54" s="52"/>
+      <c r="X54" s="52"/>
+      <c r="Y54" s="52"/>
+      <c r="Z54" s="52"/>
+      <c r="AA54" s="52"/>
+      <c r="AB54" s="52"/>
+      <c r="AC54" s="54"/>
+      <c r="AD54" s="54"/>
+      <c r="AE54" s="54"/>
+      <c r="AF54" s="54"/>
+      <c r="AG54" s="54"/>
+      <c r="AH54" s="52"/>
+      <c r="AI54" s="52"/>
+      <c r="AJ54" s="52"/>
+      <c r="AK54" s="52"/>
+      <c r="AL54" s="52"/>
+      <c r="AM54" s="52"/>
+      <c r="AN54" s="52"/>
+      <c r="AO54" s="52"/>
+      <c r="AP54" s="52"/>
+      <c r="AQ54" s="52"/>
+      <c r="AR54" s="55"/>
+      <c r="AS54" s="55"/>
+      <c r="AT54" s="55"/>
+      <c r="AU54" s="55"/>
+      <c r="AV54" s="55"/>
+      <c r="AW54" s="52"/>
+      <c r="AX54" s="52"/>
+      <c r="AY54" s="52"/>
+      <c r="AZ54" s="52"/>
+      <c r="BA54" s="52"/>
+      <c r="BB54" s="52"/>
+      <c r="BC54" s="52"/>
+      <c r="BD54" s="52"/>
+      <c r="BE54" s="52"/>
+      <c r="BF54" s="52"/>
+      <c r="BG54" s="56"/>
+      <c r="BH54" s="56"/>
+      <c r="BI54" s="56"/>
+      <c r="BJ54" s="56"/>
+      <c r="BK54" s="56"/>
+      <c r="BL54" s="52"/>
+      <c r="BM54" s="52"/>
+      <c r="BN54" s="52"/>
+      <c r="BO54" s="52"/>
+      <c r="BP54" s="57"/>
+      <c r="BQ54" s="36"/>
     </row>
-    <row r="55" spans="1:69" ht="21" customHeight="1">
-      <c r="A55" s="21"/>
-      <c r="B55" s="21"/>
-      <c r="C55" s="21"/>
-      <c r="D55" s="21"/>
-      <c r="E55" s="21"/>
-      <c r="F55" s="21"/>
-      <c r="G55" s="72"/>
-      <c r="H55" s="72"/>
-      <c r="I55" s="21"/>
-      <c r="J55" s="21"/>
-      <c r="K55" s="21"/>
-      <c r="L55" s="21"/>
-      <c r="M55" s="21"/>
-      <c r="N55" s="21"/>
-      <c r="O55" s="21"/>
-      <c r="P55" s="21"/>
-      <c r="Q55" s="21"/>
-      <c r="R55" s="21"/>
-      <c r="S55" s="21"/>
-      <c r="T55" s="21"/>
-      <c r="U55" s="21"/>
-      <c r="V55" s="21"/>
-      <c r="W55" s="21"/>
-      <c r="X55" s="21"/>
-      <c r="Y55" s="21"/>
-      <c r="Z55" s="21"/>
-      <c r="AA55" s="21"/>
-      <c r="AB55" s="21"/>
-      <c r="AC55" s="21"/>
-      <c r="AD55" s="21"/>
-      <c r="AE55" s="21"/>
-      <c r="AF55" s="21"/>
-      <c r="AG55" s="21"/>
-      <c r="AH55" s="21"/>
-      <c r="AI55" s="21"/>
-      <c r="AJ55" s="21"/>
-      <c r="AK55" s="21"/>
-      <c r="AL55" s="21"/>
-      <c r="AM55" s="21"/>
-      <c r="AN55" s="21"/>
-      <c r="AO55" s="21"/>
-      <c r="AP55" s="21"/>
-      <c r="AQ55" s="21"/>
-      <c r="AR55" s="21"/>
-      <c r="AS55" s="21"/>
-      <c r="AT55" s="21"/>
-      <c r="AU55" s="21"/>
-      <c r="AV55" s="21"/>
-      <c r="AW55" s="21"/>
-      <c r="AX55" s="21"/>
-      <c r="AY55" s="21"/>
-      <c r="AZ55" s="21"/>
-      <c r="BA55" s="21"/>
-      <c r="BB55" s="21"/>
-      <c r="BC55" s="21"/>
-      <c r="BD55" s="21"/>
-      <c r="BE55" s="21"/>
-      <c r="BF55" s="21"/>
-      <c r="BG55" s="21"/>
-      <c r="BH55" s="21"/>
-      <c r="BI55" s="21"/>
-      <c r="BJ55" s="21"/>
-      <c r="BK55" s="21"/>
-      <c r="BL55" s="21"/>
-      <c r="BM55" s="21"/>
-      <c r="BN55" s="21"/>
-      <c r="BO55" s="21"/>
-      <c r="BP55" s="21"/>
-      <c r="BQ55" s="21"/>
+    <row r="55" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A55" s="36"/>
+      <c r="B55" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="C55" s="38" t="s">
+        <v>123</v>
+      </c>
+      <c r="D55" s="74" t="s">
+        <v>94</v>
+      </c>
+      <c r="E55" s="39">
+        <v>45040</v>
+      </c>
+      <c r="F55" s="39">
+        <v>45046</v>
+      </c>
+      <c r="G55" s="40">
+        <v>7</v>
+      </c>
+      <c r="H55" s="41">
+        <v>0</v>
+      </c>
+      <c r="I55" s="50"/>
+      <c r="J55" s="51"/>
+      <c r="K55" s="52"/>
+      <c r="L55" s="52"/>
+      <c r="M55" s="52"/>
+      <c r="N55" s="45"/>
+      <c r="O55" s="45"/>
+      <c r="P55" s="45"/>
+      <c r="Q55" s="45"/>
+      <c r="R55" s="45"/>
+      <c r="S55" s="44"/>
+      <c r="T55" s="44"/>
+      <c r="U55" s="44"/>
+      <c r="V55" s="44"/>
+      <c r="W55" s="52"/>
+      <c r="X55" s="52"/>
+      <c r="Y55" s="52"/>
+      <c r="Z55" s="52"/>
+      <c r="AA55" s="52"/>
+      <c r="AB55" s="52"/>
+      <c r="AC55" s="54"/>
+      <c r="AD55" s="54"/>
+      <c r="AE55" s="54"/>
+      <c r="AF55" s="54"/>
+      <c r="AG55" s="54"/>
+      <c r="AH55" s="52"/>
+      <c r="AI55" s="52"/>
+      <c r="AJ55" s="52"/>
+      <c r="AK55" s="52"/>
+      <c r="AL55" s="52"/>
+      <c r="AM55" s="52"/>
+      <c r="AN55" s="52"/>
+      <c r="AO55" s="52"/>
+      <c r="AP55" s="52"/>
+      <c r="AQ55" s="52"/>
+      <c r="AR55" s="55"/>
+      <c r="AS55" s="55"/>
+      <c r="AT55" s="55"/>
+      <c r="AU55" s="55"/>
+      <c r="AV55" s="55"/>
+      <c r="AW55" s="52"/>
+      <c r="AX55" s="52"/>
+      <c r="AY55" s="52"/>
+      <c r="AZ55" s="52"/>
+      <c r="BA55" s="52"/>
+      <c r="BB55" s="52"/>
+      <c r="BC55" s="52"/>
+      <c r="BD55" s="52"/>
+      <c r="BE55" s="52"/>
+      <c r="BF55" s="52"/>
+      <c r="BG55" s="56"/>
+      <c r="BH55" s="56"/>
+      <c r="BI55" s="56"/>
+      <c r="BJ55" s="56"/>
+      <c r="BK55" s="56"/>
+      <c r="BL55" s="52"/>
+      <c r="BM55" s="52"/>
+      <c r="BN55" s="52"/>
+      <c r="BO55" s="52"/>
+      <c r="BP55" s="57"/>
+      <c r="BQ55" s="36"/>
     </row>
-    <row r="56" spans="1:69" ht="21" customHeight="1">
-      <c r="A56" s="21"/>
-      <c r="B56" s="21"/>
-      <c r="C56" s="21"/>
-      <c r="D56" s="21"/>
-      <c r="E56" s="21"/>
-      <c r="F56" s="21"/>
-      <c r="G56" s="72"/>
-      <c r="H56" s="72"/>
-      <c r="I56" s="21"/>
-      <c r="J56" s="21"/>
-      <c r="K56" s="21"/>
-      <c r="L56" s="21"/>
-      <c r="M56" s="21"/>
-      <c r="N56" s="21"/>
-      <c r="O56" s="21"/>
-      <c r="P56" s="21"/>
-      <c r="Q56" s="21"/>
-      <c r="R56" s="21"/>
-      <c r="S56" s="21"/>
-      <c r="T56" s="21"/>
-      <c r="U56" s="21"/>
-      <c r="V56" s="21"/>
-      <c r="W56" s="21"/>
-      <c r="X56" s="21"/>
-      <c r="Y56" s="21"/>
-      <c r="Z56" s="21"/>
-      <c r="AA56" s="21"/>
-      <c r="AB56" s="21"/>
-      <c r="AC56" s="21"/>
-      <c r="AD56" s="21"/>
-      <c r="AE56" s="21"/>
-      <c r="AF56" s="21"/>
-      <c r="AG56" s="21"/>
-      <c r="AH56" s="21"/>
-      <c r="AI56" s="21"/>
-      <c r="AJ56" s="21"/>
-      <c r="AK56" s="21"/>
-      <c r="AL56" s="21"/>
-      <c r="AM56" s="21"/>
-      <c r="AN56" s="21"/>
-      <c r="AO56" s="21"/>
-      <c r="AP56" s="21"/>
-      <c r="AQ56" s="21"/>
-      <c r="AR56" s="21"/>
-      <c r="AS56" s="21"/>
-      <c r="AT56" s="21"/>
-      <c r="AU56" s="21"/>
-      <c r="AV56" s="21"/>
-      <c r="AW56" s="21"/>
-      <c r="AX56" s="21"/>
-      <c r="AY56" s="21"/>
-      <c r="AZ56" s="21"/>
-      <c r="BA56" s="21"/>
-      <c r="BB56" s="21"/>
-      <c r="BC56" s="21"/>
-      <c r="BD56" s="21"/>
-      <c r="BE56" s="21"/>
-      <c r="BF56" s="21"/>
-      <c r="BG56" s="21"/>
-      <c r="BH56" s="21"/>
-      <c r="BI56" s="21"/>
-      <c r="BJ56" s="21"/>
-      <c r="BK56" s="21"/>
-      <c r="BL56" s="21"/>
-      <c r="BM56" s="21"/>
-      <c r="BN56" s="21"/>
-      <c r="BO56" s="21"/>
-      <c r="BP56" s="21"/>
-      <c r="BQ56" s="21"/>
+    <row r="56" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A56" s="36"/>
+      <c r="B56" s="37"/>
+      <c r="C56" s="38"/>
+      <c r="D56" s="74"/>
+      <c r="E56" s="39"/>
+      <c r="F56" s="39"/>
+      <c r="G56" s="40"/>
+      <c r="H56" s="41"/>
+      <c r="I56" s="50"/>
+      <c r="J56" s="51"/>
+      <c r="K56" s="52"/>
+      <c r="L56" s="52"/>
+      <c r="M56" s="52"/>
+      <c r="N56" s="45"/>
+      <c r="O56" s="45"/>
+      <c r="P56" s="45"/>
+      <c r="Q56" s="45"/>
+      <c r="R56" s="45"/>
+      <c r="S56" s="44"/>
+      <c r="T56" s="44"/>
+      <c r="U56" s="44"/>
+      <c r="V56" s="44"/>
+      <c r="W56" s="52"/>
+      <c r="X56" s="52"/>
+      <c r="Y56" s="52"/>
+      <c r="Z56" s="52"/>
+      <c r="AA56" s="52"/>
+      <c r="AB56" s="52"/>
+      <c r="AC56" s="54"/>
+      <c r="AD56" s="54"/>
+      <c r="AE56" s="54"/>
+      <c r="AF56" s="54"/>
+      <c r="AG56" s="54"/>
+      <c r="AH56" s="52"/>
+      <c r="AI56" s="52"/>
+      <c r="AJ56" s="52"/>
+      <c r="AK56" s="52"/>
+      <c r="AL56" s="52"/>
+      <c r="AM56" s="52"/>
+      <c r="AN56" s="52"/>
+      <c r="AO56" s="52"/>
+      <c r="AP56" s="52"/>
+      <c r="AQ56" s="52"/>
+      <c r="AR56" s="55"/>
+      <c r="AS56" s="55"/>
+      <c r="AT56" s="55"/>
+      <c r="AU56" s="55"/>
+      <c r="AV56" s="55"/>
+      <c r="AW56" s="52"/>
+      <c r="AX56" s="52"/>
+      <c r="AY56" s="52"/>
+      <c r="AZ56" s="52"/>
+      <c r="BA56" s="52"/>
+      <c r="BB56" s="52"/>
+      <c r="BC56" s="52"/>
+      <c r="BD56" s="52"/>
+      <c r="BE56" s="52"/>
+      <c r="BF56" s="52"/>
+      <c r="BG56" s="56"/>
+      <c r="BH56" s="56"/>
+      <c r="BI56" s="56"/>
+      <c r="BJ56" s="56"/>
+      <c r="BK56" s="56"/>
+      <c r="BL56" s="52"/>
+      <c r="BM56" s="52"/>
+      <c r="BN56" s="52"/>
+      <c r="BO56" s="52"/>
+      <c r="BP56" s="57"/>
+      <c r="BQ56" s="36"/>
+    </row>
+    <row r="57" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A57" s="36"/>
+      <c r="B57" s="37"/>
+      <c r="C57" s="38"/>
+      <c r="D57" s="74"/>
+      <c r="E57" s="39"/>
+      <c r="F57" s="39"/>
+      <c r="G57" s="40"/>
+      <c r="H57" s="41"/>
+      <c r="I57" s="50"/>
+      <c r="J57" s="51"/>
+      <c r="K57" s="52"/>
+      <c r="L57" s="52"/>
+      <c r="M57" s="52"/>
+      <c r="N57" s="45"/>
+      <c r="O57" s="45"/>
+      <c r="P57" s="45"/>
+      <c r="Q57" s="45"/>
+      <c r="R57" s="45"/>
+      <c r="S57" s="44"/>
+      <c r="T57" s="44"/>
+      <c r="U57" s="44"/>
+      <c r="V57" s="44"/>
+      <c r="W57" s="52"/>
+      <c r="X57" s="52"/>
+      <c r="Y57" s="52"/>
+      <c r="Z57" s="52"/>
+      <c r="AA57" s="52"/>
+      <c r="AB57" s="52"/>
+      <c r="AC57" s="54"/>
+      <c r="AD57" s="54"/>
+      <c r="AE57" s="54"/>
+      <c r="AF57" s="54"/>
+      <c r="AG57" s="54"/>
+      <c r="AH57" s="52"/>
+      <c r="AI57" s="52"/>
+      <c r="AJ57" s="52"/>
+      <c r="AK57" s="52"/>
+      <c r="AL57" s="52"/>
+      <c r="AM57" s="52"/>
+      <c r="AN57" s="52"/>
+      <c r="AO57" s="52"/>
+      <c r="AP57" s="52"/>
+      <c r="AQ57" s="52"/>
+      <c r="AR57" s="55"/>
+      <c r="AS57" s="55"/>
+      <c r="AT57" s="55"/>
+      <c r="AU57" s="55"/>
+      <c r="AV57" s="55"/>
+      <c r="AW57" s="52"/>
+      <c r="AX57" s="52"/>
+      <c r="AY57" s="52"/>
+      <c r="AZ57" s="52"/>
+      <c r="BA57" s="52"/>
+      <c r="BB57" s="52"/>
+      <c r="BC57" s="52"/>
+      <c r="BD57" s="52"/>
+      <c r="BE57" s="52"/>
+      <c r="BF57" s="52"/>
+      <c r="BG57" s="56"/>
+      <c r="BH57" s="56"/>
+      <c r="BI57" s="56"/>
+      <c r="BJ57" s="56"/>
+      <c r="BK57" s="56"/>
+      <c r="BL57" s="52"/>
+      <c r="BM57" s="52"/>
+      <c r="BN57" s="52"/>
+      <c r="BO57" s="52"/>
+      <c r="BP57" s="57"/>
+      <c r="BQ57" s="36"/>
+    </row>
+    <row r="58" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A58" s="36"/>
+      <c r="B58" s="37"/>
+      <c r="C58" s="38"/>
+      <c r="D58" s="74"/>
+      <c r="E58" s="39"/>
+      <c r="F58" s="39"/>
+      <c r="G58" s="40"/>
+      <c r="H58" s="41"/>
+      <c r="I58" s="50"/>
+      <c r="J58" s="51"/>
+      <c r="K58" s="52"/>
+      <c r="L58" s="52"/>
+      <c r="M58" s="52"/>
+      <c r="N58" s="45"/>
+      <c r="O58" s="45"/>
+      <c r="P58" s="45"/>
+      <c r="Q58" s="45"/>
+      <c r="R58" s="45"/>
+      <c r="S58" s="44"/>
+      <c r="T58" s="44"/>
+      <c r="U58" s="44"/>
+      <c r="V58" s="44"/>
+      <c r="W58" s="52"/>
+      <c r="X58" s="52"/>
+      <c r="Y58" s="52"/>
+      <c r="Z58" s="52"/>
+      <c r="AA58" s="52"/>
+      <c r="AB58" s="52"/>
+      <c r="AC58" s="54"/>
+      <c r="AD58" s="54"/>
+      <c r="AE58" s="54"/>
+      <c r="AF58" s="54"/>
+      <c r="AG58" s="54"/>
+      <c r="AH58" s="52"/>
+      <c r="AI58" s="52"/>
+      <c r="AJ58" s="52"/>
+      <c r="AK58" s="52"/>
+      <c r="AL58" s="52"/>
+      <c r="AM58" s="52"/>
+      <c r="AN58" s="52"/>
+      <c r="AO58" s="52"/>
+      <c r="AP58" s="52"/>
+      <c r="AQ58" s="52"/>
+      <c r="AR58" s="55"/>
+      <c r="AS58" s="55"/>
+      <c r="AT58" s="55"/>
+      <c r="AU58" s="55"/>
+      <c r="AV58" s="55"/>
+      <c r="AW58" s="52"/>
+      <c r="AX58" s="52"/>
+      <c r="AY58" s="52"/>
+      <c r="AZ58" s="52"/>
+      <c r="BA58" s="52"/>
+      <c r="BB58" s="52"/>
+      <c r="BC58" s="52"/>
+      <c r="BD58" s="52"/>
+      <c r="BE58" s="52"/>
+      <c r="BF58" s="52"/>
+      <c r="BG58" s="56"/>
+      <c r="BH58" s="56"/>
+      <c r="BI58" s="56"/>
+      <c r="BJ58" s="56"/>
+      <c r="BK58" s="56"/>
+      <c r="BL58" s="52"/>
+      <c r="BM58" s="52"/>
+      <c r="BN58" s="52"/>
+      <c r="BO58" s="52"/>
+      <c r="BP58" s="57"/>
+      <c r="BQ58" s="36"/>
+    </row>
+    <row r="59" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A59" s="110"/>
+      <c r="B59" s="37"/>
+      <c r="C59" s="38"/>
+      <c r="D59" s="74"/>
+      <c r="E59" s="39"/>
+      <c r="F59" s="39"/>
+      <c r="G59" s="40"/>
+      <c r="H59" s="41"/>
+      <c r="I59" s="50"/>
+      <c r="J59" s="51"/>
+      <c r="K59" s="52"/>
+      <c r="L59" s="52"/>
+      <c r="M59" s="52"/>
+      <c r="N59" s="45"/>
+      <c r="O59" s="45"/>
+      <c r="P59" s="45"/>
+      <c r="Q59" s="45"/>
+      <c r="R59" s="45"/>
+      <c r="S59" s="44"/>
+      <c r="T59" s="44"/>
+      <c r="U59" s="44"/>
+      <c r="V59" s="44"/>
+      <c r="W59" s="52"/>
+      <c r="X59" s="52"/>
+      <c r="Y59" s="52"/>
+      <c r="Z59" s="52"/>
+      <c r="AA59" s="52"/>
+      <c r="AB59" s="52"/>
+      <c r="AC59" s="54"/>
+      <c r="AD59" s="54"/>
+      <c r="AE59" s="54"/>
+      <c r="AF59" s="54"/>
+      <c r="AG59" s="54"/>
+      <c r="AH59" s="52"/>
+      <c r="AI59" s="52"/>
+      <c r="AJ59" s="52"/>
+      <c r="AK59" s="52"/>
+      <c r="AL59" s="52"/>
+      <c r="AM59" s="52"/>
+      <c r="AN59" s="52"/>
+      <c r="AO59" s="52"/>
+      <c r="AP59" s="52"/>
+      <c r="AQ59" s="52"/>
+      <c r="AR59" s="55"/>
+      <c r="AS59" s="55"/>
+      <c r="AT59" s="55"/>
+      <c r="AU59" s="55"/>
+      <c r="AV59" s="55"/>
+      <c r="AW59" s="52"/>
+      <c r="AX59" s="52"/>
+      <c r="AY59" s="52"/>
+      <c r="AZ59" s="52"/>
+      <c r="BA59" s="52"/>
+      <c r="BB59" s="52"/>
+      <c r="BC59" s="52"/>
+      <c r="BD59" s="52"/>
+      <c r="BE59" s="52"/>
+      <c r="BF59" s="52"/>
+      <c r="BG59" s="56"/>
+      <c r="BH59" s="56"/>
+      <c r="BI59" s="56"/>
+      <c r="BJ59" s="56"/>
+      <c r="BK59" s="56"/>
+      <c r="BL59" s="52"/>
+      <c r="BM59" s="52"/>
+      <c r="BN59" s="52"/>
+      <c r="BO59" s="52"/>
+      <c r="BP59" s="57"/>
+      <c r="BQ59" s="36"/>
+    </row>
+    <row r="60" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A60" s="36"/>
+      <c r="B60" s="37"/>
+      <c r="C60" s="38"/>
+      <c r="D60" s="74"/>
+      <c r="E60" s="39"/>
+      <c r="F60" s="39"/>
+      <c r="G60" s="40"/>
+      <c r="H60" s="41"/>
+      <c r="I60" s="50"/>
+      <c r="J60" s="51"/>
+      <c r="K60" s="52"/>
+      <c r="L60" s="52"/>
+      <c r="M60" s="52"/>
+      <c r="N60" s="45"/>
+      <c r="O60" s="45"/>
+      <c r="P60" s="45"/>
+      <c r="Q60" s="45"/>
+      <c r="R60" s="45"/>
+      <c r="S60" s="44"/>
+      <c r="T60" s="44"/>
+      <c r="U60" s="44"/>
+      <c r="V60" s="44"/>
+      <c r="W60" s="52"/>
+      <c r="X60" s="52"/>
+      <c r="Y60" s="52"/>
+      <c r="Z60" s="52"/>
+      <c r="AA60" s="52"/>
+      <c r="AB60" s="52"/>
+      <c r="AC60" s="54"/>
+      <c r="AD60" s="54"/>
+      <c r="AE60" s="54"/>
+      <c r="AF60" s="54"/>
+      <c r="AG60" s="54"/>
+      <c r="AH60" s="52"/>
+      <c r="AI60" s="52"/>
+      <c r="AJ60" s="52"/>
+      <c r="AK60" s="52"/>
+      <c r="AL60" s="52"/>
+      <c r="AM60" s="52"/>
+      <c r="AN60" s="52"/>
+      <c r="AO60" s="52"/>
+      <c r="AP60" s="52"/>
+      <c r="AQ60" s="52"/>
+      <c r="AR60" s="55"/>
+      <c r="AS60" s="55"/>
+      <c r="AT60" s="55"/>
+      <c r="AU60" s="55"/>
+      <c r="AV60" s="55"/>
+      <c r="AW60" s="52"/>
+      <c r="AX60" s="52"/>
+      <c r="AY60" s="52"/>
+      <c r="AZ60" s="52"/>
+      <c r="BA60" s="52"/>
+      <c r="BB60" s="52"/>
+      <c r="BC60" s="52"/>
+      <c r="BD60" s="52"/>
+      <c r="BE60" s="52"/>
+      <c r="BF60" s="52"/>
+      <c r="BG60" s="56"/>
+      <c r="BH60" s="56"/>
+      <c r="BI60" s="56"/>
+      <c r="BJ60" s="56"/>
+      <c r="BK60" s="56"/>
+      <c r="BL60" s="52"/>
+      <c r="BM60" s="52"/>
+      <c r="BN60" s="52"/>
+      <c r="BO60" s="52"/>
+      <c r="BP60" s="57"/>
+      <c r="BQ60" s="36"/>
+    </row>
+    <row r="61" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A61" s="36"/>
+      <c r="B61" s="37"/>
+      <c r="C61" s="38"/>
+      <c r="D61" s="74"/>
+      <c r="E61" s="39"/>
+      <c r="F61" s="39"/>
+      <c r="G61" s="40"/>
+      <c r="H61" s="41"/>
+      <c r="I61" s="50"/>
+      <c r="J61" s="51"/>
+      <c r="K61" s="52"/>
+      <c r="L61" s="52"/>
+      <c r="M61" s="52"/>
+      <c r="N61" s="45"/>
+      <c r="O61" s="45"/>
+      <c r="P61" s="45"/>
+      <c r="Q61" s="45"/>
+      <c r="R61" s="45"/>
+      <c r="S61" s="44"/>
+      <c r="T61" s="44"/>
+      <c r="U61" s="44"/>
+      <c r="V61" s="44"/>
+      <c r="W61" s="52"/>
+      <c r="X61" s="52"/>
+      <c r="Y61" s="52"/>
+      <c r="Z61" s="52"/>
+      <c r="AA61" s="52"/>
+      <c r="AB61" s="52"/>
+      <c r="AC61" s="54"/>
+      <c r="AD61" s="54"/>
+      <c r="AE61" s="54"/>
+      <c r="AF61" s="54"/>
+      <c r="AG61" s="54"/>
+      <c r="AH61" s="52"/>
+      <c r="AI61" s="52"/>
+      <c r="AJ61" s="52"/>
+      <c r="AK61" s="52"/>
+      <c r="AL61" s="52"/>
+      <c r="AM61" s="52"/>
+      <c r="AN61" s="52"/>
+      <c r="AO61" s="52"/>
+      <c r="AP61" s="52"/>
+      <c r="AQ61" s="52"/>
+      <c r="AR61" s="55"/>
+      <c r="AS61" s="55"/>
+      <c r="AT61" s="55"/>
+      <c r="AU61" s="55"/>
+      <c r="AV61" s="55"/>
+      <c r="AW61" s="52"/>
+      <c r="AX61" s="52"/>
+      <c r="AY61" s="52"/>
+      <c r="AZ61" s="52"/>
+      <c r="BA61" s="52"/>
+      <c r="BB61" s="52"/>
+      <c r="BC61" s="52"/>
+      <c r="BD61" s="52"/>
+      <c r="BE61" s="52"/>
+      <c r="BF61" s="52"/>
+      <c r="BG61" s="56"/>
+      <c r="BH61" s="56"/>
+      <c r="BI61" s="56"/>
+      <c r="BJ61" s="56"/>
+      <c r="BK61" s="56"/>
+      <c r="BL61" s="52"/>
+      <c r="BM61" s="52"/>
+      <c r="BN61" s="52"/>
+      <c r="BO61" s="52"/>
+      <c r="BP61" s="57"/>
+      <c r="BQ61" s="36"/>
+    </row>
+    <row r="62" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A62" s="110"/>
+      <c r="B62" s="37"/>
+      <c r="C62" s="38"/>
+      <c r="D62" s="74"/>
+      <c r="E62" s="39"/>
+      <c r="F62" s="39"/>
+      <c r="G62" s="40"/>
+      <c r="H62" s="41"/>
+      <c r="I62" s="50"/>
+      <c r="J62" s="51"/>
+      <c r="K62" s="52"/>
+      <c r="L62" s="52"/>
+      <c r="M62" s="52"/>
+      <c r="N62" s="45"/>
+      <c r="O62" s="45"/>
+      <c r="P62" s="45"/>
+      <c r="Q62" s="45"/>
+      <c r="R62" s="45"/>
+      <c r="S62" s="44"/>
+      <c r="T62" s="44"/>
+      <c r="U62" s="44"/>
+      <c r="V62" s="44"/>
+      <c r="W62" s="52"/>
+      <c r="X62" s="52"/>
+      <c r="Y62" s="52"/>
+      <c r="Z62" s="52"/>
+      <c r="AA62" s="52"/>
+      <c r="AB62" s="52"/>
+      <c r="AC62" s="54"/>
+      <c r="AD62" s="54"/>
+      <c r="AE62" s="54"/>
+      <c r="AF62" s="54"/>
+      <c r="AG62" s="54"/>
+      <c r="AH62" s="52"/>
+      <c r="AI62" s="52"/>
+      <c r="AJ62" s="52"/>
+      <c r="AK62" s="52"/>
+      <c r="AL62" s="52"/>
+      <c r="AM62" s="52"/>
+      <c r="AN62" s="52"/>
+      <c r="AO62" s="52"/>
+      <c r="AP62" s="52"/>
+      <c r="AQ62" s="52"/>
+      <c r="AR62" s="55"/>
+      <c r="AS62" s="55"/>
+      <c r="AT62" s="55"/>
+      <c r="AU62" s="55"/>
+      <c r="AV62" s="55"/>
+      <c r="AW62" s="52"/>
+      <c r="AX62" s="52"/>
+      <c r="AY62" s="52"/>
+      <c r="AZ62" s="52"/>
+      <c r="BA62" s="52"/>
+      <c r="BB62" s="52"/>
+      <c r="BC62" s="52"/>
+      <c r="BD62" s="52"/>
+      <c r="BE62" s="52"/>
+      <c r="BF62" s="52"/>
+      <c r="BG62" s="56"/>
+      <c r="BH62" s="56"/>
+      <c r="BI62" s="56"/>
+      <c r="BJ62" s="56"/>
+      <c r="BK62" s="56"/>
+      <c r="BL62" s="52"/>
+      <c r="BM62" s="52"/>
+      <c r="BN62" s="52"/>
+      <c r="BO62" s="52"/>
+      <c r="BP62" s="57"/>
+      <c r="BQ62" s="36"/>
+    </row>
+    <row r="63" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A63" s="36"/>
+      <c r="B63" s="37"/>
+      <c r="C63" s="38"/>
+      <c r="D63" s="74"/>
+      <c r="E63" s="39"/>
+      <c r="F63" s="39"/>
+      <c r="G63" s="40"/>
+      <c r="H63" s="41"/>
+      <c r="I63" s="50"/>
+      <c r="J63" s="51"/>
+      <c r="K63" s="52"/>
+      <c r="L63" s="52"/>
+      <c r="M63" s="52"/>
+      <c r="N63" s="45"/>
+      <c r="O63" s="45"/>
+      <c r="P63" s="45"/>
+      <c r="Q63" s="45"/>
+      <c r="R63" s="45"/>
+      <c r="S63" s="44"/>
+      <c r="T63" s="44"/>
+      <c r="U63" s="44"/>
+      <c r="V63" s="44"/>
+      <c r="W63" s="52"/>
+      <c r="X63" s="52"/>
+      <c r="Y63" s="52"/>
+      <c r="Z63" s="52"/>
+      <c r="AA63" s="52"/>
+      <c r="AB63" s="52"/>
+      <c r="AC63" s="54"/>
+      <c r="AD63" s="54"/>
+      <c r="AE63" s="54"/>
+      <c r="AF63" s="54"/>
+      <c r="AG63" s="54"/>
+      <c r="AH63" s="52"/>
+      <c r="AI63" s="52"/>
+      <c r="AJ63" s="52"/>
+      <c r="AK63" s="52"/>
+      <c r="AL63" s="52"/>
+      <c r="AM63" s="52"/>
+      <c r="AN63" s="52"/>
+      <c r="AO63" s="52"/>
+      <c r="AP63" s="52"/>
+      <c r="AQ63" s="52"/>
+      <c r="AR63" s="55"/>
+      <c r="AS63" s="55"/>
+      <c r="AT63" s="55"/>
+      <c r="AU63" s="55"/>
+      <c r="AV63" s="55"/>
+      <c r="AW63" s="52"/>
+      <c r="AX63" s="52"/>
+      <c r="AY63" s="52"/>
+      <c r="AZ63" s="52"/>
+      <c r="BA63" s="52"/>
+      <c r="BB63" s="52"/>
+      <c r="BC63" s="52"/>
+      <c r="BD63" s="52"/>
+      <c r="BE63" s="52"/>
+      <c r="BF63" s="52"/>
+      <c r="BG63" s="56"/>
+      <c r="BH63" s="56"/>
+      <c r="BI63" s="56"/>
+      <c r="BJ63" s="56"/>
+      <c r="BK63" s="56"/>
+      <c r="BL63" s="52"/>
+      <c r="BM63" s="52"/>
+      <c r="BN63" s="52"/>
+      <c r="BO63" s="52"/>
+      <c r="BP63" s="57"/>
+      <c r="BQ63" s="36"/>
+    </row>
+    <row r="64" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A64" s="36"/>
+      <c r="B64" s="37"/>
+      <c r="C64" s="38"/>
+      <c r="D64" s="74"/>
+      <c r="E64" s="39"/>
+      <c r="F64" s="39"/>
+      <c r="G64" s="40"/>
+      <c r="H64" s="41"/>
+      <c r="I64" s="50"/>
+      <c r="J64" s="51"/>
+      <c r="K64" s="52"/>
+      <c r="L64" s="52"/>
+      <c r="M64" s="52"/>
+      <c r="N64" s="45"/>
+      <c r="O64" s="45"/>
+      <c r="P64" s="45"/>
+      <c r="Q64" s="45"/>
+      <c r="R64" s="45"/>
+      <c r="S64" s="44"/>
+      <c r="T64" s="44"/>
+      <c r="U64" s="44"/>
+      <c r="V64" s="44"/>
+      <c r="W64" s="52"/>
+      <c r="X64" s="52"/>
+      <c r="Y64" s="52"/>
+      <c r="Z64" s="52"/>
+      <c r="AA64" s="52"/>
+      <c r="AB64" s="52"/>
+      <c r="AC64" s="54"/>
+      <c r="AD64" s="54"/>
+      <c r="AE64" s="54"/>
+      <c r="AF64" s="54"/>
+      <c r="AG64" s="54"/>
+      <c r="AH64" s="52"/>
+      <c r="AI64" s="52"/>
+      <c r="AJ64" s="52"/>
+      <c r="AK64" s="52"/>
+      <c r="AL64" s="52"/>
+      <c r="AM64" s="52"/>
+      <c r="AN64" s="52"/>
+      <c r="AO64" s="52"/>
+      <c r="AP64" s="52"/>
+      <c r="AQ64" s="52"/>
+      <c r="AR64" s="55"/>
+      <c r="AS64" s="55"/>
+      <c r="AT64" s="55"/>
+      <c r="AU64" s="55"/>
+      <c r="AV64" s="55"/>
+      <c r="AW64" s="52"/>
+      <c r="AX64" s="52"/>
+      <c r="AY64" s="52"/>
+      <c r="AZ64" s="52"/>
+      <c r="BA64" s="52"/>
+      <c r="BB64" s="52"/>
+      <c r="BC64" s="52"/>
+      <c r="BD64" s="52"/>
+      <c r="BE64" s="52"/>
+      <c r="BF64" s="52"/>
+      <c r="BG64" s="56"/>
+      <c r="BH64" s="56"/>
+      <c r="BI64" s="56"/>
+      <c r="BJ64" s="56"/>
+      <c r="BK64" s="56"/>
+      <c r="BL64" s="52"/>
+      <c r="BM64" s="52"/>
+      <c r="BN64" s="52"/>
+      <c r="BO64" s="52"/>
+      <c r="BP64" s="57"/>
+      <c r="BQ64" s="36"/>
+    </row>
+    <row r="65" spans="1:69" ht="21" customHeight="1">
+      <c r="A65" s="21"/>
+      <c r="B65" s="21"/>
+      <c r="C65" s="21"/>
+      <c r="D65" s="21"/>
+      <c r="E65" s="21"/>
+      <c r="F65" s="21"/>
+      <c r="G65" s="72"/>
+      <c r="H65" s="72"/>
+      <c r="I65" s="21"/>
+      <c r="J65" s="21"/>
+      <c r="K65" s="21"/>
+      <c r="L65" s="21"/>
+      <c r="M65" s="21"/>
+      <c r="N65" s="21"/>
+      <c r="O65" s="21"/>
+      <c r="P65" s="21"/>
+      <c r="Q65" s="21"/>
+      <c r="R65" s="21"/>
+      <c r="S65" s="21"/>
+      <c r="T65" s="21"/>
+      <c r="U65" s="21"/>
+      <c r="V65" s="21"/>
+      <c r="W65" s="21"/>
+      <c r="X65" s="21"/>
+      <c r="Y65" s="21"/>
+      <c r="Z65" s="21"/>
+      <c r="AA65" s="21"/>
+      <c r="AB65" s="21"/>
+      <c r="AC65" s="21"/>
+      <c r="AD65" s="21"/>
+      <c r="AE65" s="21"/>
+      <c r="AF65" s="21"/>
+      <c r="AG65" s="21"/>
+      <c r="AH65" s="21"/>
+      <c r="AI65" s="21"/>
+      <c r="AJ65" s="21"/>
+      <c r="AK65" s="21"/>
+      <c r="AL65" s="21"/>
+      <c r="AM65" s="21"/>
+      <c r="AN65" s="21"/>
+      <c r="AO65" s="21"/>
+      <c r="AP65" s="21"/>
+      <c r="AQ65" s="21"/>
+      <c r="AR65" s="21"/>
+      <c r="AS65" s="21"/>
+      <c r="AT65" s="21"/>
+      <c r="AU65" s="21"/>
+      <c r="AV65" s="21"/>
+      <c r="AW65" s="21"/>
+      <c r="AX65" s="21"/>
+      <c r="AY65" s="21"/>
+      <c r="AZ65" s="21"/>
+      <c r="BA65" s="21"/>
+      <c r="BB65" s="21"/>
+      <c r="BC65" s="21"/>
+      <c r="BD65" s="21"/>
+      <c r="BE65" s="21"/>
+      <c r="BF65" s="21"/>
+      <c r="BG65" s="21"/>
+      <c r="BH65" s="21"/>
+      <c r="BI65" s="21"/>
+      <c r="BJ65" s="21"/>
+      <c r="BK65" s="21"/>
+      <c r="BL65" s="21"/>
+      <c r="BM65" s="21"/>
+      <c r="BN65" s="21"/>
+      <c r="BO65" s="21"/>
+      <c r="BP65" s="21"/>
+      <c r="BQ65" s="21"/>
+    </row>
+    <row r="66" spans="1:69" ht="21" customHeight="1">
+      <c r="A66" s="21"/>
+      <c r="B66" s="21"/>
+      <c r="C66" s="21"/>
+      <c r="D66" s="21"/>
+      <c r="E66" s="21"/>
+      <c r="F66" s="21"/>
+      <c r="G66" s="72"/>
+      <c r="H66" s="72"/>
+      <c r="I66" s="21"/>
+      <c r="J66" s="21"/>
+      <c r="K66" s="21"/>
+      <c r="L66" s="21"/>
+      <c r="M66" s="21"/>
+      <c r="N66" s="21"/>
+      <c r="O66" s="21"/>
+      <c r="P66" s="21"/>
+      <c r="Q66" s="21"/>
+      <c r="R66" s="21"/>
+      <c r="S66" s="21"/>
+      <c r="T66" s="21"/>
+      <c r="U66" s="21"/>
+      <c r="V66" s="21"/>
+      <c r="W66" s="21"/>
+      <c r="X66" s="21"/>
+      <c r="Y66" s="21"/>
+      <c r="Z66" s="21"/>
+      <c r="AA66" s="21"/>
+      <c r="AB66" s="21"/>
+      <c r="AC66" s="21"/>
+      <c r="AD66" s="21"/>
+      <c r="AE66" s="21"/>
+      <c r="AF66" s="21"/>
+      <c r="AG66" s="21"/>
+      <c r="AH66" s="21"/>
+      <c r="AI66" s="21"/>
+      <c r="AJ66" s="21"/>
+      <c r="AK66" s="21"/>
+      <c r="AL66" s="21"/>
+      <c r="AM66" s="21"/>
+      <c r="AN66" s="21"/>
+      <c r="AO66" s="21"/>
+      <c r="AP66" s="21"/>
+      <c r="AQ66" s="21"/>
+      <c r="AR66" s="21"/>
+      <c r="AS66" s="21"/>
+      <c r="AT66" s="21"/>
+      <c r="AU66" s="21"/>
+      <c r="AV66" s="21"/>
+      <c r="AW66" s="21"/>
+      <c r="AX66" s="21"/>
+      <c r="AY66" s="21"/>
+      <c r="AZ66" s="21"/>
+      <c r="BA66" s="21"/>
+      <c r="BB66" s="21"/>
+      <c r="BC66" s="21"/>
+      <c r="BD66" s="21"/>
+      <c r="BE66" s="21"/>
+      <c r="BF66" s="21"/>
+      <c r="BG66" s="21"/>
+      <c r="BH66" s="21"/>
+      <c r="BI66" s="21"/>
+      <c r="BJ66" s="21"/>
+      <c r="BK66" s="21"/>
+      <c r="BL66" s="21"/>
+      <c r="BM66" s="21"/>
+      <c r="BN66" s="21"/>
+      <c r="BO66" s="21"/>
+      <c r="BP66" s="21"/>
+      <c r="BQ66" s="21"/>
+    </row>
+    <row r="67" spans="1:69" ht="21" customHeight="1">
+      <c r="A67" s="21"/>
+      <c r="B67" s="21"/>
+      <c r="C67" s="21"/>
+      <c r="D67" s="21"/>
+      <c r="E67" s="21"/>
+      <c r="F67" s="21"/>
+      <c r="G67" s="72"/>
+      <c r="H67" s="72"/>
+      <c r="I67" s="21"/>
+      <c r="J67" s="21"/>
+      <c r="K67" s="21"/>
+      <c r="L67" s="21"/>
+      <c r="M67" s="21"/>
+      <c r="N67" s="21"/>
+      <c r="O67" s="21"/>
+      <c r="P67" s="21"/>
+      <c r="Q67" s="21"/>
+      <c r="R67" s="21"/>
+      <c r="S67" s="21"/>
+      <c r="T67" s="21"/>
+      <c r="U67" s="21"/>
+      <c r="V67" s="21"/>
+      <c r="W67" s="21"/>
+      <c r="X67" s="21"/>
+      <c r="Y67" s="21"/>
+      <c r="Z67" s="21"/>
+      <c r="AA67" s="21"/>
+      <c r="AB67" s="21"/>
+      <c r="AC67" s="21"/>
+      <c r="AD67" s="21"/>
+      <c r="AE67" s="21"/>
+      <c r="AF67" s="21"/>
+      <c r="AG67" s="21"/>
+      <c r="AH67" s="21"/>
+      <c r="AI67" s="21"/>
+      <c r="AJ67" s="21"/>
+      <c r="AK67" s="21"/>
+      <c r="AL67" s="21"/>
+      <c r="AM67" s="21"/>
+      <c r="AN67" s="21"/>
+      <c r="AO67" s="21"/>
+      <c r="AP67" s="21"/>
+      <c r="AQ67" s="21"/>
+      <c r="AR67" s="21"/>
+      <c r="AS67" s="21"/>
+      <c r="AT67" s="21"/>
+      <c r="AU67" s="21"/>
+      <c r="AV67" s="21"/>
+      <c r="AW67" s="21"/>
+      <c r="AX67" s="21"/>
+      <c r="AY67" s="21"/>
+      <c r="AZ67" s="21"/>
+      <c r="BA67" s="21"/>
+      <c r="BB67" s="21"/>
+      <c r="BC67" s="21"/>
+      <c r="BD67" s="21"/>
+      <c r="BE67" s="21"/>
+      <c r="BF67" s="21"/>
+      <c r="BG67" s="21"/>
+      <c r="BH67" s="21"/>
+      <c r="BI67" s="21"/>
+      <c r="BJ67" s="21"/>
+      <c r="BK67" s="21"/>
+      <c r="BL67" s="21"/>
+      <c r="BM67" s="21"/>
+      <c r="BN67" s="21"/>
+      <c r="BO67" s="21"/>
+      <c r="BP67" s="21"/>
+      <c r="BQ67" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="H8:H10"/>
-    <mergeCell ref="S9:W9"/>
-    <mergeCell ref="N9:R9"/>
-    <mergeCell ref="I9:M9"/>
-    <mergeCell ref="I8:W8"/>
-    <mergeCell ref="I2:N2"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="I5:O5"/>
-    <mergeCell ref="P5:AA5"/>
-    <mergeCell ref="I4:O4"/>
-    <mergeCell ref="P4:AB4"/>
-    <mergeCell ref="O2:AG2"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="B5:C5"/>
     <mergeCell ref="BG9:BK9"/>
     <mergeCell ref="BL9:BP9"/>
     <mergeCell ref="BB9:BF9"/>
@@ -8030,6 +8906,28 @@
     <mergeCell ref="AR9:AV9"/>
     <mergeCell ref="AW9:BA9"/>
     <mergeCell ref="AM9:AQ9"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="I2:N2"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="I5:O5"/>
+    <mergeCell ref="P5:AA5"/>
+    <mergeCell ref="I4:O4"/>
+    <mergeCell ref="P4:AB4"/>
+    <mergeCell ref="O2:AG2"/>
+    <mergeCell ref="H8:H10"/>
+    <mergeCell ref="S9:W9"/>
+    <mergeCell ref="N9:R9"/>
+    <mergeCell ref="I9:M9"/>
+    <mergeCell ref="I8:W8"/>
   </mergeCells>
   <phoneticPr fontId="30" type="noConversion"/>
   <conditionalFormatting sqref="K14">
@@ -8042,7 +8940,7 @@
       <formula>LEN(TRIM(K14))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H12:H18 H20:H53">
+  <conditionalFormatting sqref="H12:H18 H20:H64">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -8052,7 +8950,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H12:H18 H20:H53">
+  <conditionalFormatting sqref="H12:H18 H20:H64">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
